--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_weijing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57806774-F2DD-407E-B17F-2DA12F8AF236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC29341-063D-44FD-AB31-AA4BB6FAC89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TaskProto!$P$1:$P$165</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -583,9 +580,6 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>猎打败狼崽</t>
-  </si>
-  <si>
     <t>收获狼皮</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
@@ -741,10 +735,6 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>诅咒结晶</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
     <t>刷怪升级至24级</t>
   </si>
   <si>
@@ -1089,10 +1079,6 @@
   </si>
   <si>
     <t>到村中心找到村长询问发生了什么</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>勇士,这些该死的野狼总是会在我们去村外的时候袭击我们,我们也没有什么好的办法,你如果可以帮我们教训一些野狼,我将会十分感谢你，你也会得到一份不错的报酬！</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
@@ -1226,10 +1212,6 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>清除古墓里的5个古墓死士和5个古墓弓箭手.</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
     <t>等级升到10级后到守陵人询问发生了什么.</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
@@ -1493,9 +1475,6 @@
     <t>地狱裂谷中比较常见的东西，似乎比裂谷中的更稀有点？去搜集起来。</t>
   </si>
   <si>
-    <t>裂石领主魔力的实体化，它的出现证明了艾力克斯还没死透，通过它来找到艾力克斯。</t>
-  </si>
-  <si>
     <t>看来裂石领主确实是逃走了，趁他还没恢复实力，再次打败他。</t>
   </si>
   <si>
@@ -1558,9 +1537,6 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>通缉：血色蝙蝠王</t>
-  </si>
-  <si>
     <t>通缉：蝙蝠王</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
@@ -1585,10 +1561,6 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>干掉蝙蝠王,解除公主的魔咒！！</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
     <t>击败洞穴的怪物</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -1597,7 +1569,7 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>在死洞穴找到蝙蝠王并彻底打败它.</t>
+    <t>打败蝙蝠王,获得黑暗之心！</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -1753,15 +1725,43 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
+    <t>70001001</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
     <t>CompleteNpcID</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>打败最终领主,获得奖章,证明自己！</t>
+    <t>荒漠结晶</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>通缉：领主</t>
+  </si>
+  <si>
+    <t>打败狼崽</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>70001001</t>
+    <t>勇士,这些野狼总是会在我们去村外的时候袭击我们,我们也没有什么好的办法,你如果可以帮我们教训一些野狼,我将会十分感谢你，你也会得到一份不错的报酬！</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>干掉魔物,解除公主的魔咒！！</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除古墓里的怪物</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到蝙蝠王并彻底打败它.</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>裂石领主魔力的实体化，它的出现证明了艾力克斯还有气息，通过它来找到艾力克斯。</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10224,11 +10224,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T170"/>
+  <dimension ref="A1:T165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10298,7 +10298,7 @@
         <v>30</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>19</v>
@@ -10342,7 +10342,7 @@
         <v>26</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>24</v>
@@ -10354,7 +10354,7 @@
         <v>29</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>6</v>
@@ -10410,13 +10410,13 @@
         <v>28</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C6" s="9">
         <v>30010000</v>
       </c>
@@ -10469,15 +10469,15 @@
         <v>0</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="9">
         <v>30010001</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>38</v>
+        <v>340</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -10516,7 +10516,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="R7" s="10">
         <v>5</v>
@@ -10525,15 +10525,15 @@
         <v>100005</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>169</v>
+        <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="9">
         <v>30010002</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
@@ -10571,8 +10571,8 @@
       <c r="P8" s="10">
         <v>2</v>
       </c>
-      <c r="Q8" s="13">
-        <v>10021001</v>
+      <c r="Q8" s="10">
+        <v>10020002</v>
       </c>
       <c r="R8" s="10">
         <v>3</v>
@@ -10581,15 +10581,15 @@
         <v>100005</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="10">
         <v>30010003</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="13">
         <v>2</v>
@@ -10637,15 +10637,15 @@
         <v>0</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="10">
         <v>30010004</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" s="13">
         <v>3</v>
@@ -10693,15 +10693,15 @@
         <v>100006</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="9">
         <v>30010005</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="13">
         <v>3</v>
@@ -10749,15 +10749,15 @@
         <v>0</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="9">
         <v>30010006</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E12" s="13">
         <v>3</v>
@@ -10805,15 +10805,15 @@
         <v>0</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="9">
         <v>30010007</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="13">
         <v>3</v>
@@ -10861,15 +10861,15 @@
         <v>0</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="9">
         <v>30010008</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="13">
         <v>3</v>
@@ -10917,15 +10917,15 @@
         <v>0</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="9">
         <v>30010009</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="13">
         <v>3</v>
@@ -10973,15 +10973,15 @@
         <v>0</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C16" s="9">
         <v>30010010</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="13">
         <v>3</v>
@@ -11029,15 +11029,15 @@
         <v>100105</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="17" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="9">
         <v>30010011</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="13">
         <v>3</v>
@@ -11075,8 +11075,8 @@
       <c r="P17" s="10">
         <v>2</v>
       </c>
-      <c r="Q17" s="13">
-        <v>10021002</v>
+      <c r="Q17" s="10">
+        <v>10020003</v>
       </c>
       <c r="R17" s="10">
         <v>5</v>
@@ -11085,15 +11085,15 @@
         <v>100102</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="18" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="9">
         <v>30010012</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E18" s="13">
         <v>3</v>
@@ -11132,7 +11132,7 @@
         <v>2</v>
       </c>
       <c r="Q18" s="13">
-        <v>10021003</v>
+        <v>10020005</v>
       </c>
       <c r="R18" s="10">
         <v>5</v>
@@ -11141,15 +11141,15 @@
         <v>100103</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="19" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="9">
         <v>30010013</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E19" s="13">
         <v>3</v>
@@ -11197,15 +11197,15 @@
         <v>100104</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
-    <row r="20" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="9">
         <v>30010014</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="13">
         <v>4</v>
@@ -11253,15 +11253,15 @@
         <v>0</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="21" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="9">
         <v>30010015</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="13">
         <v>4</v>
@@ -11309,15 +11309,15 @@
         <v>100202</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="22" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="9">
         <v>30010016</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E22" s="13">
         <v>4</v>
@@ -11353,7 +11353,7 @@
         <v>20001014</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="13">
         <v>70001006</v>
@@ -11365,15 +11365,15 @@
         <v>100203</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="23" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="9">
         <v>30010017</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="13">
         <v>4</v>
@@ -11421,15 +11421,15 @@
         <v>0</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="24" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="9">
         <v>30010018</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E24" s="13">
         <v>5</v>
@@ -11477,15 +11477,15 @@
         <v>100205</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="25" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="9">
         <v>30010019</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="13">
         <v>5</v>
@@ -11533,15 +11533,15 @@
         <v>0</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="26" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="9">
         <v>30010020</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="13">
         <v>5</v>
@@ -11589,15 +11589,15 @@
         <v>0</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="27" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="9">
         <v>30010021</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="13">
         <v>6</v>
@@ -11645,15 +11645,15 @@
         <v>0</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="28" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="9">
         <v>30010022</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="13">
         <v>6</v>
@@ -11701,15 +11701,15 @@
         <v>0</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="29" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="9">
         <v>30010023</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E29" s="13">
         <v>7</v>
@@ -11757,15 +11757,15 @@
         <v>100402</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
-    <row r="30" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="9">
         <v>30010024</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E30" s="13">
         <v>7</v>
@@ -11813,15 +11813,15 @@
         <v>100403</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="31" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="9">
         <v>30010025</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" s="13">
         <v>8</v>
@@ -11869,15 +11869,15 @@
         <v>0</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
-    <row r="32" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="9">
         <v>30010026</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E32" s="13">
         <v>8</v>
@@ -11925,15 +11925,15 @@
         <v>0</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="33" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C33" s="9">
         <v>30010027</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E33" s="13">
         <v>9</v>
@@ -11981,15 +11981,15 @@
         <v>100603</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>190</v>
+        <v>343</v>
       </c>
     </row>
-    <row r="34" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C34" s="9">
         <v>30010028</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E34" s="13">
         <v>10</v>
@@ -12037,15 +12037,15 @@
         <v>0</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="35" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C35" s="9">
         <v>30010029</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" s="13">
         <v>11</v>
@@ -12093,15 +12093,15 @@
         <v>100704</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="36" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C36" s="9">
         <v>30010030</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E36" s="13">
         <v>12</v>
@@ -12149,15 +12149,15 @@
         <v>0</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="37" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C37" s="9">
         <v>30010031</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E37" s="13">
         <v>12</v>
@@ -12205,15 +12205,15 @@
         <v>0</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="38" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C38" s="9">
         <v>30010032</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E38" s="13">
         <v>13</v>
@@ -12261,15 +12261,15 @@
         <v>0</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
-    <row r="39" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C39" s="9">
         <v>30010033</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E39" s="13">
         <v>13</v>
@@ -12317,15 +12317,15 @@
         <v>0</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
-    <row r="40" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C40" s="9">
         <v>30010034</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E40" s="13">
         <v>13</v>
@@ -12373,15 +12373,15 @@
         <v>0</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="41" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C41" s="9">
         <v>30010035</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E41" s="13">
         <v>14</v>
@@ -12429,15 +12429,15 @@
         <v>0</v>
       </c>
       <c r="T41" s="12" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
-    <row r="42" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C42" s="9">
         <v>30010036</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="E42" s="13">
         <v>14</v>
@@ -12485,15 +12485,15 @@
         <v>100504</v>
       </c>
       <c r="T42" s="12" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
     </row>
-    <row r="43" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C43" s="9">
         <v>30010037</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E43" s="13">
         <v>14</v>
@@ -12541,15 +12541,15 @@
         <v>0</v>
       </c>
       <c r="T43" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="44" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C44" s="9">
         <v>30010038</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E44" s="13">
         <v>15</v>
@@ -12597,15 +12597,15 @@
         <v>0</v>
       </c>
       <c r="T44" s="12" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
-    <row r="45" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C45" s="9">
         <v>30010039</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E45" s="13">
         <v>15</v>
@@ -12653,15 +12653,15 @@
         <v>0</v>
       </c>
       <c r="T45" s="12" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
-    <row r="46" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C46" s="9">
         <v>30010040</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E46" s="13">
         <v>15</v>
@@ -12700,7 +12700,7 @@
         <v>2</v>
       </c>
       <c r="Q46" s="13">
-        <v>10020053</v>
+        <v>10020015</v>
       </c>
       <c r="R46" s="13">
         <v>1</v>
@@ -12709,15 +12709,15 @@
         <v>100504</v>
       </c>
       <c r="T46" s="12" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
     </row>
-    <row r="47" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C47" s="9">
         <v>30010041</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E47" s="13">
         <v>15</v>
@@ -12765,15 +12765,15 @@
         <v>0</v>
       </c>
       <c r="T47" s="12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="48" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C48" s="9">
         <v>30010042</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E48" s="13">
         <v>16</v>
@@ -12821,15 +12821,15 @@
         <v>100504</v>
       </c>
       <c r="T48" s="12" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
-    <row r="49" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="9">
         <v>30020101</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E49" s="13">
         <v>18</v>
@@ -12877,15 +12877,15 @@
         <v>0</v>
       </c>
       <c r="T49" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="50" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="9">
         <v>30020102</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E50" s="13">
         <v>19</v>
@@ -12933,15 +12933,15 @@
         <v>200002</v>
       </c>
       <c r="T50" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="51" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="9">
         <v>30020103</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E51" s="13">
         <v>19</v>
@@ -12989,15 +12989,15 @@
         <v>200003</v>
       </c>
       <c r="T51" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
-    <row r="52" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="9">
         <v>30020104</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E52" s="13">
         <v>20</v>
@@ -13045,15 +13045,15 @@
         <v>200004</v>
       </c>
       <c r="T52" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="53" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="9">
         <v>30020105</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E53" s="13">
         <v>20</v>
@@ -13101,15 +13101,15 @@
         <v>0</v>
       </c>
       <c r="T53" s="12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
-    <row r="54" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="9">
         <v>30020106</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E54" s="13">
         <v>22</v>
@@ -13157,15 +13157,15 @@
         <v>0</v>
       </c>
       <c r="T54" s="12" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="55" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="9">
         <v>30020107</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E55" s="13">
         <v>22</v>
@@ -13204,7 +13204,7 @@
         <v>2</v>
       </c>
       <c r="Q55" s="13">
-        <v>10022001</v>
+        <v>10020052</v>
       </c>
       <c r="R55" s="13">
         <v>20</v>
@@ -13213,15 +13213,15 @@
         <v>200103</v>
       </c>
       <c r="T55" s="12" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="56" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="9">
         <v>30020108</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E56" s="13">
         <v>22</v>
@@ -13260,7 +13260,7 @@
         <v>2</v>
       </c>
       <c r="Q56" s="13">
-        <v>10022002</v>
+        <v>10020053</v>
       </c>
       <c r="R56" s="13">
         <v>10</v>
@@ -13269,15 +13269,15 @@
         <v>200102</v>
       </c>
       <c r="T56" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="57" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="9">
         <v>30020109</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E57" s="13">
         <v>22</v>
@@ -13325,15 +13325,15 @@
         <v>200104</v>
       </c>
       <c r="T57" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="58" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="9">
         <v>30020110</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E58" s="13">
         <v>23</v>
@@ -13381,15 +13381,15 @@
         <v>0</v>
       </c>
       <c r="T58" s="12" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="59" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="9">
         <v>30020111</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E59" s="13">
         <v>23</v>
@@ -13437,15 +13437,15 @@
         <v>200202</v>
       </c>
       <c r="T59" s="12" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
-    <row r="60" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="9">
         <v>30020112</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E60" s="13">
         <v>23</v>
@@ -13493,15 +13493,15 @@
         <v>200203</v>
       </c>
       <c r="T60" s="12" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
-    <row r="61" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="9">
         <v>30020113</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E61" s="13">
         <v>23</v>
@@ -13540,7 +13540,7 @@
         <v>2</v>
       </c>
       <c r="Q61" s="13">
-        <v>10022006</v>
+        <v>10020060</v>
       </c>
       <c r="R61" s="13">
         <v>10</v>
@@ -13549,15 +13549,15 @@
         <v>200204</v>
       </c>
       <c r="T61" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="62" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="9">
         <v>30020114</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>80</v>
+        <v>338</v>
       </c>
       <c r="E62" s="13">
         <v>23</v>
@@ -13596,7 +13596,7 @@
         <v>2</v>
       </c>
       <c r="Q62" s="13">
-        <v>10022003</v>
+        <v>10020054</v>
       </c>
       <c r="R62" s="13">
         <v>20</v>
@@ -13605,15 +13605,15 @@
         <v>200203</v>
       </c>
       <c r="T62" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="63" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="9">
         <v>30020115</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E63" s="13">
         <v>24</v>
@@ -13661,15 +13661,15 @@
         <v>0</v>
       </c>
       <c r="T63" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="64" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="9">
         <v>30020116</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E64" s="13">
         <v>24</v>
@@ -13717,15 +13717,15 @@
         <v>200205</v>
       </c>
       <c r="T64" s="12" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
-    <row r="65" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C65" s="9">
         <v>30020117</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E65" s="13">
         <v>24</v>
@@ -13773,15 +13773,15 @@
         <v>0</v>
       </c>
       <c r="T65" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
-    <row r="66" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C66" s="9">
         <v>30020118</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E66" s="13">
         <v>25</v>
@@ -13829,15 +13829,15 @@
         <v>200302</v>
       </c>
       <c r="T66" s="12" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
-    <row r="67" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C67" s="9">
         <v>30020119</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E67" s="13">
         <v>25</v>
@@ -13885,15 +13885,15 @@
         <v>200303</v>
       </c>
       <c r="T67" s="12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
-    <row r="68" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C68" s="9">
         <v>30020120</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E68" s="13">
         <v>25</v>
@@ -13941,15 +13941,15 @@
         <v>200304</v>
       </c>
       <c r="T68" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="69" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C69" s="9">
         <v>30020121</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E69" s="13">
         <v>26</v>
@@ -13988,24 +13988,24 @@
         <v>2</v>
       </c>
       <c r="Q69" s="13">
-        <v>10022005</v>
+        <v>10020056</v>
       </c>
       <c r="R69" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S69" s="16">
         <v>200302</v>
       </c>
       <c r="T69" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="70" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C70" s="9">
         <v>30020122</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E70" s="13">
         <v>27</v>
@@ -14053,15 +14053,15 @@
         <v>0</v>
       </c>
       <c r="T70" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="71" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C71" s="9">
         <v>30020123</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E71" s="13">
         <v>28</v>
@@ -14109,15 +14109,15 @@
         <v>200402</v>
       </c>
       <c r="T71" s="12" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
-    <row r="72" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C72" s="9">
         <v>30020124</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E72" s="13">
         <v>30</v>
@@ -14165,15 +14165,15 @@
         <v>0</v>
       </c>
       <c r="T72" s="12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="73" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C73" s="9">
         <v>30030001</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E73" s="13">
         <v>30</v>
@@ -14221,15 +14221,15 @@
         <v>0</v>
       </c>
       <c r="T73" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="74" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C74" s="9">
         <v>30030002</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E74" s="13">
         <v>30</v>
@@ -14277,15 +14277,15 @@
         <v>300102</v>
       </c>
       <c r="T74" s="12" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="75" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C75" s="9">
         <v>30030003</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E75" s="13">
         <v>30</v>
@@ -14333,15 +14333,15 @@
         <v>300103</v>
       </c>
       <c r="T75" s="12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="76" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C76" s="9">
         <v>30030004</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E76" s="13">
         <v>31</v>
@@ -14380,7 +14380,7 @@
         <v>2</v>
       </c>
       <c r="Q76" s="13">
-        <v>10023001</v>
+        <v>10020101</v>
       </c>
       <c r="R76" s="13">
         <v>10</v>
@@ -14389,15 +14389,15 @@
         <v>300102</v>
       </c>
       <c r="T76" s="12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="77" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C77" s="9">
         <v>30030005</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E77" s="13">
         <v>31</v>
@@ -14436,7 +14436,7 @@
         <v>2</v>
       </c>
       <c r="Q77" s="13">
-        <v>10023002</v>
+        <v>10020102</v>
       </c>
       <c r="R77" s="13">
         <v>10</v>
@@ -14445,15 +14445,15 @@
         <v>300103</v>
       </c>
       <c r="T77" s="12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
-    <row r="78" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C78" s="9">
         <v>30030006</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E78" s="13">
         <v>32</v>
@@ -14501,15 +14501,15 @@
         <v>300204</v>
       </c>
       <c r="T78" s="12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="79" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C79" s="9">
         <v>30030007</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E79" s="13">
         <v>32</v>
@@ -14557,15 +14557,15 @@
         <v>0</v>
       </c>
       <c r="T79" s="12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="80" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C80" s="9">
         <v>30030008</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E80" s="13">
         <v>33</v>
@@ -14613,15 +14613,15 @@
         <v>0</v>
       </c>
       <c r="T80" s="12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="81" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="9">
         <v>30030009</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E81" s="13">
         <v>33</v>
@@ -14669,15 +14669,15 @@
         <v>300301</v>
       </c>
       <c r="T81" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="82" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="9">
         <v>30030010</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E82" s="13">
         <v>33</v>
@@ -14725,15 +14725,15 @@
         <v>300302</v>
       </c>
       <c r="T82" s="12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
-    <row r="83" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="9">
         <v>30030011</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E83" s="13">
         <v>33</v>
@@ -14772,7 +14772,7 @@
         <v>2</v>
       </c>
       <c r="Q83" s="13">
-        <v>10023003</v>
+        <v>10020103</v>
       </c>
       <c r="R83" s="13">
         <v>10</v>
@@ -14781,15 +14781,15 @@
         <v>300302</v>
       </c>
       <c r="T83" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="84" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="9">
         <v>30030012</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E84" s="13">
         <v>33</v>
@@ -14837,15 +14837,15 @@
         <v>300303</v>
       </c>
       <c r="T84" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="85" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="9">
         <v>30030013</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E85" s="13">
         <v>33</v>
@@ -14893,15 +14893,15 @@
         <v>0</v>
       </c>
       <c r="T85" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="86" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="9">
         <v>30030014</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E86" s="13">
         <v>34</v>
@@ -14949,15 +14949,15 @@
         <v>0</v>
       </c>
       <c r="T86" s="12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
-    <row r="87" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="9">
         <v>30030015</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E87" s="13">
         <v>34</v>
@@ -14996,7 +14996,7 @@
         <v>2</v>
       </c>
       <c r="Q87" s="13">
-        <v>10023004</v>
+        <v>10020104</v>
       </c>
       <c r="R87" s="13">
         <v>10</v>
@@ -15005,15 +15005,15 @@
         <v>300402</v>
       </c>
       <c r="T87" s="12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="88" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="9">
         <v>30030016</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E88" s="13">
         <v>34</v>
@@ -15061,15 +15061,15 @@
         <v>300402</v>
       </c>
       <c r="T88" s="12" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="89" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="9">
         <v>30030017</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E89" s="13">
         <v>34</v>
@@ -15117,15 +15117,15 @@
         <v>300401</v>
       </c>
       <c r="T89" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="90" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="9">
         <v>30030018</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E90" s="13">
         <v>34</v>
@@ -15164,7 +15164,7 @@
         <v>2</v>
       </c>
       <c r="Q90" s="13">
-        <v>10023001</v>
+        <v>10020101</v>
       </c>
       <c r="R90" s="13">
         <v>10</v>
@@ -15173,15 +15173,15 @@
         <v>300402</v>
       </c>
       <c r="T90" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="91" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="9">
         <v>30030019</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E91" s="13">
         <v>34</v>
@@ -15220,7 +15220,7 @@
         <v>2</v>
       </c>
       <c r="Q91" s="13">
-        <v>10023002</v>
+        <v>10020102</v>
       </c>
       <c r="R91" s="13">
         <v>10</v>
@@ -15229,15 +15229,15 @@
         <v>300401</v>
       </c>
       <c r="T91" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="92" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="9">
         <v>30030020</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E92" s="13">
         <v>34</v>
@@ -15276,7 +15276,7 @@
         <v>2</v>
       </c>
       <c r="Q92" s="13">
-        <v>10023003</v>
+        <v>10020103</v>
       </c>
       <c r="R92" s="13">
         <v>10</v>
@@ -15285,15 +15285,15 @@
         <v>0</v>
       </c>
       <c r="T92" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="93" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="9">
         <v>30030021</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E93" s="13">
         <v>34</v>
@@ -15341,15 +15341,15 @@
         <v>0</v>
       </c>
       <c r="T93" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="94" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="9">
         <v>30030022</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E94" s="13">
         <v>35</v>
@@ -15397,15 +15397,15 @@
         <v>0</v>
       </c>
       <c r="T94" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="95" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="9">
         <v>30030023</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E95" s="13">
         <v>35</v>
@@ -15453,15 +15453,15 @@
         <v>300502</v>
       </c>
       <c r="T95" s="12" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="96" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="9">
         <v>30030024</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E96" s="13">
         <v>35</v>
@@ -15509,15 +15509,15 @@
         <v>300501</v>
       </c>
       <c r="T96" s="12" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
-    <row r="97" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="9">
         <v>30030025</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E97" s="13">
         <v>35</v>
@@ -15565,15 +15565,15 @@
         <v>300504</v>
       </c>
       <c r="T97" s="12" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="98" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="9">
         <v>30030026</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E98" s="13">
         <v>36</v>
@@ -15612,7 +15612,7 @@
         <v>2</v>
       </c>
       <c r="Q98" s="13">
-        <v>10023005</v>
+        <v>10020105</v>
       </c>
       <c r="R98" s="13">
         <v>10</v>
@@ -15621,15 +15621,15 @@
         <v>300504</v>
       </c>
       <c r="T98" s="12" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
-    <row r="99" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="9">
         <v>30030027</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E99" s="13">
         <v>35</v>
@@ -15677,15 +15677,15 @@
         <v>300503</v>
       </c>
       <c r="T99" s="12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="100" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="9">
         <v>30030028</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E100" s="13">
         <v>36</v>
@@ -15733,15 +15733,15 @@
         <v>0</v>
       </c>
       <c r="T100" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="101" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="9">
         <v>30030029</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E101" s="13">
         <v>37</v>
@@ -15789,15 +15789,15 @@
         <v>0</v>
       </c>
       <c r="T101" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="102" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="9">
         <v>30030030</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E102" s="13">
         <v>37</v>
@@ -15845,15 +15845,15 @@
         <v>300601</v>
       </c>
       <c r="T102" s="12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="103" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C103" s="9">
         <v>30030031</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E103" s="13">
         <v>37</v>
@@ -15901,15 +15901,15 @@
         <v>300602</v>
       </c>
       <c r="T103" s="12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="104" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C104" s="9">
         <v>30030032</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E104" s="13">
         <v>37</v>
@@ -15957,15 +15957,15 @@
         <v>300603</v>
       </c>
       <c r="T104" s="12" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="105" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C105" s="9">
         <v>30030033</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E105" s="13">
         <v>37</v>
@@ -16004,7 +16004,7 @@
         <v>2</v>
       </c>
       <c r="Q105" s="13">
-        <v>10023007</v>
+        <v>10020107</v>
       </c>
       <c r="R105" s="13">
         <v>10</v>
@@ -16013,15 +16013,15 @@
         <v>0</v>
       </c>
       <c r="T105" s="12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="106" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C106" s="9">
         <v>30030034</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E106" s="13">
         <v>38</v>
@@ -16069,15 +16069,15 @@
         <v>300604</v>
       </c>
       <c r="T106" s="12" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="107" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C107" s="9">
         <v>30030035</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E107" s="13">
         <v>38</v>
@@ -16125,15 +16125,15 @@
         <v>0</v>
       </c>
       <c r="T107" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="108" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C108" s="9">
         <v>30030036</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E108" s="13">
         <v>39</v>
@@ -16181,15 +16181,15 @@
         <v>300603</v>
       </c>
       <c r="T108" s="12" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="109" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C109" s="9">
         <v>30030037</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E109" s="13">
         <v>39</v>
@@ -16228,7 +16228,7 @@
         <v>2</v>
       </c>
       <c r="Q109" s="13">
-        <v>10023007</v>
+        <v>10020107</v>
       </c>
       <c r="R109" s="13">
         <v>10</v>
@@ -16237,15 +16237,15 @@
         <v>0</v>
       </c>
       <c r="T109" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
-    <row r="110" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C110" s="9">
         <v>30030038</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E110" s="13">
         <v>40</v>
@@ -16293,15 +16293,15 @@
         <v>0</v>
       </c>
       <c r="T110" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
-    <row r="111" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C111" s="9">
         <v>30040001</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E111" s="13">
         <v>40</v>
@@ -16349,15 +16349,15 @@
         <v>0</v>
       </c>
       <c r="T111" s="12" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="112" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C112" s="9">
         <v>30040002</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E112" s="13">
         <v>40</v>
@@ -16405,15 +16405,15 @@
         <v>400102</v>
       </c>
       <c r="T112" s="12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="113" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C113" s="9">
         <v>30040003</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E113" s="13">
         <v>40</v>
@@ -16461,15 +16461,15 @@
         <v>400103</v>
       </c>
       <c r="T113" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="114" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C114" s="9">
         <v>30040004</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E114" s="13">
         <v>41</v>
@@ -16507,8 +16507,8 @@
       <c r="P114" s="13">
         <v>2</v>
       </c>
-      <c r="Q114" s="15">
-        <v>10024006</v>
+      <c r="Q114" s="11">
+        <v>10020156</v>
       </c>
       <c r="R114" s="13">
         <v>10</v>
@@ -16517,15 +16517,15 @@
         <v>400103</v>
       </c>
       <c r="T114" s="12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="115" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C115" s="9">
         <v>30040005</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E115" s="13">
         <v>41</v>
@@ -16563,8 +16563,8 @@
       <c r="P115" s="13">
         <v>2</v>
       </c>
-      <c r="Q115" s="15">
-        <v>10024001</v>
+      <c r="Q115" s="11">
+        <v>10020151</v>
       </c>
       <c r="R115" s="13">
         <v>10</v>
@@ -16573,15 +16573,15 @@
         <v>400102</v>
       </c>
       <c r="T115" s="12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="116" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C116" s="9">
         <v>30040006</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E116" s="13">
         <v>41</v>
@@ -16619,8 +16619,8 @@
       <c r="P116" s="13">
         <v>2</v>
       </c>
-      <c r="Q116" s="15">
-        <v>10024002</v>
+      <c r="Q116" s="11">
+        <v>10020152</v>
       </c>
       <c r="R116" s="13">
         <v>10</v>
@@ -16629,15 +16629,15 @@
         <v>400103</v>
       </c>
       <c r="T116" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="117" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C117" s="9">
         <v>30040007</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E117" s="13">
         <v>42</v>
@@ -16685,15 +16685,15 @@
         <v>400203</v>
       </c>
       <c r="T117" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="118" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C118" s="9">
         <v>30040008</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E118" s="13">
         <v>42</v>
@@ -16741,15 +16741,15 @@
         <v>0</v>
       </c>
       <c r="T118" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
-    <row r="119" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C119" s="9">
         <v>30040009</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E119" s="13">
         <v>42</v>
@@ -16797,15 +16797,15 @@
         <v>0</v>
       </c>
       <c r="T119" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="120" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C120" s="9">
         <v>30040010</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E120" s="13">
         <v>42</v>
@@ -16853,15 +16853,15 @@
         <v>400301</v>
       </c>
       <c r="T120" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="121" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C121" s="9">
         <v>30040011</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E121" s="13">
         <v>42</v>
@@ -16909,15 +16909,15 @@
         <v>400302</v>
       </c>
       <c r="T121" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="122" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C122" s="9">
         <v>30040012</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E122" s="13">
         <v>43</v>
@@ -16955,8 +16955,8 @@
       <c r="P122" s="13">
         <v>2</v>
       </c>
-      <c r="Q122" s="15">
-        <v>10024001</v>
+      <c r="Q122" s="11">
+        <v>10020151</v>
       </c>
       <c r="R122" s="13">
         <v>10</v>
@@ -16965,15 +16965,15 @@
         <v>400301</v>
       </c>
       <c r="T122" s="12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="123" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C123" s="9">
         <v>30040013</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E123" s="13">
         <v>43</v>
@@ -17011,8 +17011,8 @@
       <c r="P123" s="13">
         <v>2</v>
       </c>
-      <c r="Q123" s="15">
-        <v>10024002</v>
+      <c r="Q123" s="11">
+        <v>10020152</v>
       </c>
       <c r="R123" s="13">
         <v>10</v>
@@ -17021,15 +17021,15 @@
         <v>400302</v>
       </c>
       <c r="T123" s="12" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="124" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C124" s="9">
         <v>30040014</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E124" s="13">
         <v>43</v>
@@ -17077,15 +17077,15 @@
         <v>400303</v>
       </c>
       <c r="T124" s="12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="125" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C125" s="9">
         <v>30040015</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E125" s="13">
         <v>44</v>
@@ -17133,15 +17133,15 @@
         <v>0</v>
       </c>
       <c r="T125" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="126" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C126" s="9">
         <v>30040016</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E126" s="13">
         <v>45</v>
@@ -17189,15 +17189,15 @@
         <v>0</v>
       </c>
       <c r="T126" s="12" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="127" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C127" s="9">
         <v>30040017</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E127" s="13">
         <v>45</v>
@@ -17245,15 +17245,15 @@
         <v>400402</v>
       </c>
       <c r="T127" s="12" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
-    <row r="128" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C128" s="9">
         <v>30040018</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E128" s="13">
         <v>45</v>
@@ -17301,15 +17301,15 @@
         <v>400403</v>
       </c>
       <c r="T128" s="12" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="129" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C129" s="9">
         <v>30040019</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E129" s="13">
         <v>45</v>
@@ -17357,15 +17357,15 @@
         <v>400404</v>
       </c>
       <c r="T129" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
-    <row r="130" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C130" s="9">
         <v>30040020</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E130" s="13">
         <v>46</v>
@@ -17403,8 +17403,8 @@
       <c r="P130" s="13">
         <v>2</v>
       </c>
-      <c r="Q130" s="15">
-        <v>10024003</v>
+      <c r="Q130" s="11">
+        <v>10020153</v>
       </c>
       <c r="R130" s="13">
         <v>10</v>
@@ -17413,15 +17413,15 @@
         <v>400402</v>
       </c>
       <c r="T130" s="12" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
-    <row r="131" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C131" s="9">
         <v>30040021</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E131" s="13">
         <v>46</v>
@@ -17469,15 +17469,15 @@
         <v>400503</v>
       </c>
       <c r="T131" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
-    <row r="132" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C132" s="9">
         <v>30040022</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E132" s="13">
         <v>46</v>
@@ -17525,15 +17525,15 @@
         <v>0</v>
       </c>
       <c r="T132" s="12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="133" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C133" s="9">
         <v>30040023</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E133" s="13">
         <v>46</v>
@@ -17581,15 +17581,15 @@
         <v>0</v>
       </c>
       <c r="T133" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
-    <row r="134" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C134" s="9">
         <v>30040024</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E134" s="13">
         <v>46</v>
@@ -17637,15 +17637,15 @@
         <v>400602</v>
       </c>
       <c r="T134" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
-    <row r="135" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C135" s="9">
         <v>30040025</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E135" s="13">
         <v>46</v>
@@ -17693,15 +17693,15 @@
         <v>400602</v>
       </c>
       <c r="T135" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="136" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C136" s="9">
         <v>30040026</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E136" s="13">
         <v>46</v>
@@ -17739,8 +17739,8 @@
       <c r="P136" s="13">
         <v>2</v>
       </c>
-      <c r="Q136" s="15">
-        <v>10024004</v>
+      <c r="Q136" s="11">
+        <v>10020154</v>
       </c>
       <c r="R136" s="13">
         <v>10</v>
@@ -17749,15 +17749,15 @@
         <v>400602</v>
       </c>
       <c r="T136" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="137" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C137" s="9">
         <v>30040027</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E137" s="13">
         <v>46</v>
@@ -17805,15 +17805,15 @@
         <v>0</v>
       </c>
       <c r="T137" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="138" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C138" s="9">
         <v>30040028</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E138" s="13">
         <v>47</v>
@@ -17861,15 +17861,15 @@
         <v>400703</v>
       </c>
       <c r="T138" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="139" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C139" s="9">
         <v>30040029</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E139" s="13">
         <v>48</v>
@@ -17917,15 +17917,15 @@
         <v>0</v>
       </c>
       <c r="T139" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="140" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C140" s="9">
         <v>30040030</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E140" s="13">
         <v>48</v>
@@ -17963,8 +17963,8 @@
       <c r="P140" s="13">
         <v>2</v>
       </c>
-      <c r="Q140" s="15">
-        <v>10024004</v>
+      <c r="Q140" s="11">
+        <v>10020154</v>
       </c>
       <c r="R140" s="13">
         <v>10</v>
@@ -17973,15 +17973,15 @@
         <v>400602</v>
       </c>
       <c r="T140" s="12" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
-    <row r="141" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C141" s="9">
         <v>30040031</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E141" s="13">
         <v>48</v>
@@ -18019,8 +18019,8 @@
       <c r="P141" s="13">
         <v>2</v>
       </c>
-      <c r="Q141" s="15">
-        <v>10024005</v>
+      <c r="Q141" s="11">
+        <v>10020155</v>
       </c>
       <c r="R141" s="13">
         <v>10</v>
@@ -18029,15 +18029,15 @@
         <v>0</v>
       </c>
       <c r="T141" s="12" t="s">
-        <v>272</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="142" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C142" s="9">
         <v>30040032</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E142" s="13">
         <v>49</v>
@@ -18085,15 +18085,15 @@
         <v>400703</v>
       </c>
       <c r="T142" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
-    <row r="143" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C143" s="9">
         <v>30040033</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E143" s="13">
         <v>50</v>
@@ -18141,15 +18141,15 @@
         <v>0</v>
       </c>
       <c r="T143" s="12" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="144" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C144" s="9">
         <v>30050001</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E144" s="13">
         <v>50</v>
@@ -18197,15 +18197,15 @@
         <v>0</v>
       </c>
       <c r="T144" s="12" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="145" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C145" s="9">
         <v>30050002</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E145" s="13">
         <v>50</v>
@@ -18253,15 +18253,15 @@
         <v>500103</v>
       </c>
       <c r="T145" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="146" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C146" s="9">
         <v>30050003</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E146" s="13">
         <v>50</v>
@@ -18309,15 +18309,15 @@
         <v>500104</v>
       </c>
       <c r="T146" s="12" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
-    <row r="147" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C147" s="9">
         <v>30050004</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E147" s="13">
         <v>50</v>
@@ -18355,8 +18355,8 @@
       <c r="P147" s="13">
         <v>2</v>
       </c>
-      <c r="Q147" s="15">
-        <v>10025001</v>
+      <c r="Q147" s="11">
+        <v>10020201</v>
       </c>
       <c r="R147" s="13">
         <v>10</v>
@@ -18365,15 +18365,15 @@
         <v>500103</v>
       </c>
       <c r="T147" s="12" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="148" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C148" s="9">
         <v>30050005</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E148" s="13">
         <v>50</v>
@@ -18411,8 +18411,8 @@
       <c r="P148" s="13">
         <v>2</v>
       </c>
-      <c r="Q148" s="15">
-        <v>10025002</v>
+      <c r="Q148" s="11">
+        <v>10020202</v>
       </c>
       <c r="R148" s="13">
         <v>10</v>
@@ -18421,15 +18421,15 @@
         <v>500104</v>
       </c>
       <c r="T148" s="12" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="149" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C149" s="9">
         <v>30050006</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E149" s="13">
         <v>51</v>
@@ -18477,15 +18477,15 @@
         <v>500204</v>
       </c>
       <c r="T149" s="12" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="150" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C150" s="9">
         <v>30050007</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E150" s="13">
         <v>52</v>
@@ -18533,15 +18533,15 @@
         <v>0</v>
       </c>
       <c r="T150" s="12" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="151" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C151" s="9">
         <v>30050008</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E151" s="13">
         <v>52</v>
@@ -18589,15 +18589,15 @@
         <v>0</v>
       </c>
       <c r="T151" s="12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="152" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C152" s="9">
         <v>30050009</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E152" s="13">
         <v>52</v>
@@ -18635,8 +18635,8 @@
       <c r="P152" s="13">
         <v>2</v>
       </c>
-      <c r="Q152" s="15">
-        <v>10025005</v>
+      <c r="Q152" s="11">
+        <v>10020205</v>
       </c>
       <c r="R152" s="13">
         <v>10</v>
@@ -18645,15 +18645,15 @@
         <v>0</v>
       </c>
       <c r="T152" s="12" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="153" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C153" s="9">
         <v>30050010</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E153" s="13">
         <v>52</v>
@@ -18691,8 +18691,8 @@
       <c r="P153" s="13">
         <v>2</v>
       </c>
-      <c r="Q153" s="15">
-        <v>10025006</v>
+      <c r="Q153" s="11">
+        <v>10020206</v>
       </c>
       <c r="R153" s="13">
         <v>10</v>
@@ -18701,15 +18701,15 @@
         <v>0</v>
       </c>
       <c r="T153" s="12" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="154" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C154" s="9">
         <v>30050011</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E154" s="13">
         <v>52</v>
@@ -18757,15 +18757,15 @@
         <v>500203</v>
       </c>
       <c r="T154" s="12" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="155" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C155" s="9">
         <v>30050012</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E155" s="13">
         <v>53</v>
@@ -18813,15 +18813,15 @@
         <v>500303</v>
       </c>
       <c r="T155" s="12" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
-    <row r="156" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C156" s="9">
         <v>30050013</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E156" s="13">
         <v>54</v>
@@ -18869,15 +18869,15 @@
         <v>0</v>
       </c>
       <c r="T156" s="12" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="157" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C157" s="9">
         <v>30050014</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E157" s="13">
         <v>54</v>
@@ -18925,15 +18925,15 @@
         <v>0</v>
       </c>
       <c r="T157" s="12" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
-    <row r="158" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C158" s="9">
         <v>30050015</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E158" s="13">
         <v>54</v>
@@ -18981,15 +18981,15 @@
         <v>0</v>
       </c>
       <c r="T158" s="12" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
-    <row r="159" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C159" s="9">
         <v>30050016</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E159" s="13">
         <v>54</v>
@@ -19037,15 +19037,15 @@
         <v>0</v>
       </c>
       <c r="T159" s="12" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="160" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C160" s="9">
         <v>30050017</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E160" s="13">
         <v>54</v>
@@ -19093,15 +19093,15 @@
         <v>0</v>
       </c>
       <c r="T160" s="12" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="161" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C161" s="9">
         <v>30050018</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E161" s="13">
         <v>55</v>
@@ -19139,8 +19139,8 @@
       <c r="P161" s="13">
         <v>2</v>
       </c>
-      <c r="Q161" s="15">
-        <v>10025006</v>
+      <c r="Q161" s="11">
+        <v>10020206</v>
       </c>
       <c r="R161" s="13">
         <v>10</v>
@@ -19149,15 +19149,15 @@
         <v>0</v>
       </c>
       <c r="T161" s="12" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
-    <row r="162" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C162" s="9">
         <v>30050019</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E162" s="13">
         <v>56</v>
@@ -19205,15 +19205,15 @@
         <v>0</v>
       </c>
       <c r="T162" s="12" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="163" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C163" s="9">
         <v>30050020</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E163" s="13">
         <v>57</v>
@@ -19261,15 +19261,15 @@
         <v>500601</v>
       </c>
       <c r="T163" s="12" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
-    <row r="164" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C164" s="9">
         <v>30050021</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E164" s="13">
         <v>58</v>
@@ -19317,15 +19317,15 @@
         <v>0</v>
       </c>
       <c r="T164" s="12" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="165" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C165" s="9">
         <v>30050022</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E165" s="13">
         <v>60</v>
@@ -19373,14 +19373,9 @@
         <v>500701</v>
       </c>
       <c r="T165" s="12" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="166" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_weijing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC29341-063D-44FD-AB31-AA4BB6FAC89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57806774-F2DD-407E-B17F-2DA12F8AF236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TaskProto!$P$1:$P$165</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -580,6 +583,9 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
+    <t>猎打败狼崽</t>
+  </si>
+  <si>
     <t>收获狼皮</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
@@ -735,6 +741,10 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
+    <t>诅咒结晶</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
     <t>刷怪升级至24级</t>
   </si>
   <si>
@@ -1079,6 +1089,10 @@
   </si>
   <si>
     <t>到村中心找到村长询问发生了什么</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇士,这些该死的野狼总是会在我们去村外的时候袭击我们,我们也没有什么好的办法,你如果可以帮我们教训一些野狼,我将会十分感谢你，你也会得到一份不错的报酬！</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
@@ -1212,6 +1226,10 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
+    <t>清除古墓里的5个古墓死士和5个古墓弓箭手.</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
     <t>等级升到10级后到守陵人询问发生了什么.</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
@@ -1475,6 +1493,9 @@
     <t>地狱裂谷中比较常见的东西，似乎比裂谷中的更稀有点？去搜集起来。</t>
   </si>
   <si>
+    <t>裂石领主魔力的实体化，它的出现证明了艾力克斯还没死透，通过它来找到艾力克斯。</t>
+  </si>
+  <si>
     <t>看来裂石领主确实是逃走了，趁他还没恢复实力，再次打败他。</t>
   </si>
   <si>
@@ -1537,6 +1558,9 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
+    <t>通缉：血色蝙蝠王</t>
+  </si>
+  <si>
     <t>通缉：蝙蝠王</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
@@ -1561,6 +1585,10 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
+    <t>干掉蝙蝠王,解除公主的魔咒！！</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
     <t>击败洞穴的怪物</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -1569,7 +1597,7 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>打败蝙蝠王,获得黑暗之心！</t>
+    <t>在死洞穴找到蝙蝠王并彻底打败它.</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -1725,43 +1753,15 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>70001001</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>CompleteNpcID</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>荒漠结晶</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>通缉：领主</t>
-  </si>
-  <si>
-    <t>打败狼崽</t>
+    <t>打败最终领主,获得奖章,证明自己！</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>勇士,这些野狼总是会在我们去村外的时候袭击我们,我们也没有什么好的办法,你如果可以帮我们教训一些野狼,我将会十分感谢你，你也会得到一份不错的报酬！</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>干掉魔物,解除公主的魔咒！！</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除古墓里的怪物</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>找到蝙蝠王并彻底打败它.</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>裂石领主魔力的实体化，它的出现证明了艾力克斯还有气息，通过它来找到艾力克斯。</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <t>70001001</t>
   </si>
 </sst>
 </file>
@@ -10224,11 +10224,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T165"/>
+  <dimension ref="A1:T170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T19" sqref="T19"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10298,7 +10298,7 @@
         <v>30</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>19</v>
@@ -10342,7 +10342,7 @@
         <v>26</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>24</v>
@@ -10354,7 +10354,7 @@
         <v>29</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>6</v>
@@ -10410,13 +10410,13 @@
         <v>28</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="9">
         <v>30010000</v>
       </c>
@@ -10469,15 +10469,15 @@
         <v>0</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="9">
         <v>30010001</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>340</v>
+        <v>38</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -10516,7 +10516,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="R7" s="10">
         <v>5</v>
@@ -10525,15 +10525,15 @@
         <v>100005</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>341</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="9">
         <v>30010002</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="10">
         <v>1</v>
@@ -10571,8 +10571,8 @@
       <c r="P8" s="10">
         <v>2</v>
       </c>
-      <c r="Q8" s="10">
-        <v>10020002</v>
+      <c r="Q8" s="13">
+        <v>10021001</v>
       </c>
       <c r="R8" s="10">
         <v>3</v>
@@ -10581,15 +10581,15 @@
         <v>100005</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="10">
         <v>30010003</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" s="13">
         <v>2</v>
@@ -10637,15 +10637,15 @@
         <v>0</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="10">
         <v>30010004</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="13">
         <v>3</v>
@@ -10693,15 +10693,15 @@
         <v>100006</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="9">
         <v>30010005</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="13">
         <v>3</v>
@@ -10749,15 +10749,15 @@
         <v>0</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="9">
         <v>30010006</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="13">
         <v>3</v>
@@ -10805,15 +10805,15 @@
         <v>0</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="9">
         <v>30010007</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" s="13">
         <v>3</v>
@@ -10861,15 +10861,15 @@
         <v>0</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="9">
         <v>30010008</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="13">
         <v>3</v>
@@ -10917,15 +10917,15 @@
         <v>0</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="9">
         <v>30010009</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="13">
         <v>3</v>
@@ -10973,15 +10973,15 @@
         <v>0</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="9">
         <v>30010010</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" s="13">
         <v>3</v>
@@ -11029,15 +11029,15 @@
         <v>100105</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="9">
         <v>30010011</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" s="13">
         <v>3</v>
@@ -11075,8 +11075,8 @@
       <c r="P17" s="10">
         <v>2</v>
       </c>
-      <c r="Q17" s="10">
-        <v>10020003</v>
+      <c r="Q17" s="13">
+        <v>10021002</v>
       </c>
       <c r="R17" s="10">
         <v>5</v>
@@ -11085,15 +11085,15 @@
         <v>100102</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="9">
         <v>30010012</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E18" s="13">
         <v>3</v>
@@ -11132,7 +11132,7 @@
         <v>2</v>
       </c>
       <c r="Q18" s="13">
-        <v>10020005</v>
+        <v>10021003</v>
       </c>
       <c r="R18" s="10">
         <v>5</v>
@@ -11141,15 +11141,15 @@
         <v>100103</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="9">
         <v>30010013</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E19" s="13">
         <v>3</v>
@@ -11197,15 +11197,15 @@
         <v>100104</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="9">
         <v>30010014</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" s="13">
         <v>4</v>
@@ -11253,15 +11253,15 @@
         <v>0</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="9">
         <v>30010015</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E21" s="13">
         <v>4</v>
@@ -11309,15 +11309,15 @@
         <v>100202</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="9">
         <v>30010016</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E22" s="13">
         <v>4</v>
@@ -11353,7 +11353,7 @@
         <v>20001014</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Q22" s="13">
         <v>70001006</v>
@@ -11365,15 +11365,15 @@
         <v>100203</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="9">
         <v>30010017</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E23" s="13">
         <v>4</v>
@@ -11421,15 +11421,15 @@
         <v>0</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="9">
         <v>30010018</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E24" s="13">
         <v>5</v>
@@ -11477,15 +11477,15 @@
         <v>100205</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="9">
         <v>30010019</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="13">
         <v>5</v>
@@ -11533,15 +11533,15 @@
         <v>0</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="9">
         <v>30010020</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" s="13">
         <v>5</v>
@@ -11589,15 +11589,15 @@
         <v>0</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="9">
         <v>30010021</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" s="13">
         <v>6</v>
@@ -11645,15 +11645,15 @@
         <v>0</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="9">
         <v>30010022</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" s="13">
         <v>6</v>
@@ -11701,15 +11701,15 @@
         <v>0</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="9">
         <v>30010023</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" s="13">
         <v>7</v>
@@ -11757,15 +11757,15 @@
         <v>100402</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="9">
         <v>30010024</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30" s="13">
         <v>7</v>
@@ -11813,15 +11813,15 @@
         <v>100403</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="9">
         <v>30010025</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31" s="13">
         <v>8</v>
@@ -11869,15 +11869,15 @@
         <v>0</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="9">
         <v>30010026</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32" s="13">
         <v>8</v>
@@ -11925,15 +11925,15 @@
         <v>0</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="9">
         <v>30010027</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33" s="13">
         <v>9</v>
@@ -11981,15 +11981,15 @@
         <v>100603</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>343</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="9">
         <v>30010028</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34" s="13">
         <v>10</v>
@@ -12037,15 +12037,15 @@
         <v>0</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="9">
         <v>30010029</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35" s="13">
         <v>11</v>
@@ -12093,15 +12093,15 @@
         <v>100704</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="9">
         <v>30010030</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36" s="13">
         <v>12</v>
@@ -12149,15 +12149,15 @@
         <v>0</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="9">
         <v>30010031</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="E37" s="13">
         <v>12</v>
@@ -12205,15 +12205,15 @@
         <v>0</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="9">
         <v>30010032</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E38" s="13">
         <v>13</v>
@@ -12261,15 +12261,15 @@
         <v>0</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="9">
         <v>30010033</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E39" s="13">
         <v>13</v>
@@ -12317,15 +12317,15 @@
         <v>0</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="9">
         <v>30010034</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E40" s="13">
         <v>13</v>
@@ -12373,15 +12373,15 @@
         <v>0</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="9">
         <v>30010035</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E41" s="13">
         <v>14</v>
@@ -12429,15 +12429,15 @@
         <v>0</v>
       </c>
       <c r="T41" s="12" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="9">
         <v>30010036</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="E42" s="13">
         <v>14</v>
@@ -12485,15 +12485,15 @@
         <v>100504</v>
       </c>
       <c r="T42" s="12" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
     </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="9">
         <v>30010037</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E43" s="13">
         <v>14</v>
@@ -12541,15 +12541,15 @@
         <v>0</v>
       </c>
       <c r="T43" s="12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="9">
         <v>30010038</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E44" s="13">
         <v>15</v>
@@ -12597,15 +12597,15 @@
         <v>0</v>
       </c>
       <c r="T44" s="12" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="9">
         <v>30010039</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E45" s="13">
         <v>15</v>
@@ -12653,15 +12653,15 @@
         <v>0</v>
       </c>
       <c r="T45" s="12" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="9">
         <v>30010040</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E46" s="13">
         <v>15</v>
@@ -12700,7 +12700,7 @@
         <v>2</v>
       </c>
       <c r="Q46" s="13">
-        <v>10020015</v>
+        <v>10020053</v>
       </c>
       <c r="R46" s="13">
         <v>1</v>
@@ -12709,15 +12709,15 @@
         <v>100504</v>
       </c>
       <c r="T46" s="12" t="s">
-        <v>295</v>
+        <v>344</v>
       </c>
     </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="9">
         <v>30010041</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E47" s="13">
         <v>15</v>
@@ -12765,15 +12765,15 @@
         <v>0</v>
       </c>
       <c r="T47" s="12" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="9">
         <v>30010042</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E48" s="13">
         <v>16</v>
@@ -12821,15 +12821,15 @@
         <v>100504</v>
       </c>
       <c r="T48" s="12" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="9">
         <v>30020101</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E49" s="13">
         <v>18</v>
@@ -12877,15 +12877,15 @@
         <v>0</v>
       </c>
       <c r="T49" s="12" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="9">
         <v>30020102</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E50" s="13">
         <v>19</v>
@@ -12933,15 +12933,15 @@
         <v>200002</v>
       </c>
       <c r="T50" s="12" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="9">
         <v>30020103</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E51" s="13">
         <v>19</v>
@@ -12989,15 +12989,15 @@
         <v>200003</v>
       </c>
       <c r="T51" s="12" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="9">
         <v>30020104</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E52" s="13">
         <v>20</v>
@@ -13045,15 +13045,15 @@
         <v>200004</v>
       </c>
       <c r="T52" s="12" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="9">
         <v>30020105</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E53" s="13">
         <v>20</v>
@@ -13101,15 +13101,15 @@
         <v>0</v>
       </c>
       <c r="T53" s="12" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="9">
         <v>30020106</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E54" s="13">
         <v>22</v>
@@ -13157,15 +13157,15 @@
         <v>0</v>
       </c>
       <c r="T54" s="12" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="9">
         <v>30020107</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E55" s="13">
         <v>22</v>
@@ -13204,7 +13204,7 @@
         <v>2</v>
       </c>
       <c r="Q55" s="13">
-        <v>10020052</v>
+        <v>10022001</v>
       </c>
       <c r="R55" s="13">
         <v>20</v>
@@ -13213,15 +13213,15 @@
         <v>200103</v>
       </c>
       <c r="T55" s="12" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="9">
         <v>30020108</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E56" s="13">
         <v>22</v>
@@ -13260,7 +13260,7 @@
         <v>2</v>
       </c>
       <c r="Q56" s="13">
-        <v>10020053</v>
+        <v>10022002</v>
       </c>
       <c r="R56" s="13">
         <v>10</v>
@@ -13269,15 +13269,15 @@
         <v>200102</v>
       </c>
       <c r="T56" s="12" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="9">
         <v>30020109</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E57" s="13">
         <v>22</v>
@@ -13325,15 +13325,15 @@
         <v>200104</v>
       </c>
       <c r="T57" s="12" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="9">
         <v>30020110</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E58" s="13">
         <v>23</v>
@@ -13381,15 +13381,15 @@
         <v>0</v>
       </c>
       <c r="T58" s="12" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="9">
         <v>30020111</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E59" s="13">
         <v>23</v>
@@ -13437,15 +13437,15 @@
         <v>200202</v>
       </c>
       <c r="T59" s="12" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="9">
         <v>30020112</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E60" s="13">
         <v>23</v>
@@ -13493,15 +13493,15 @@
         <v>200203</v>
       </c>
       <c r="T60" s="12" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="9">
         <v>30020113</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E61" s="13">
         <v>23</v>
@@ -13540,7 +13540,7 @@
         <v>2</v>
       </c>
       <c r="Q61" s="13">
-        <v>10020060</v>
+        <v>10022006</v>
       </c>
       <c r="R61" s="13">
         <v>10</v>
@@ -13549,15 +13549,15 @@
         <v>200204</v>
       </c>
       <c r="T61" s="12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="9">
         <v>30020114</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>338</v>
+        <v>80</v>
       </c>
       <c r="E62" s="13">
         <v>23</v>
@@ -13596,7 +13596,7 @@
         <v>2</v>
       </c>
       <c r="Q62" s="13">
-        <v>10020054</v>
+        <v>10022003</v>
       </c>
       <c r="R62" s="13">
         <v>20</v>
@@ -13605,15 +13605,15 @@
         <v>200203</v>
       </c>
       <c r="T62" s="12" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="9">
         <v>30020115</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E63" s="13">
         <v>24</v>
@@ -13661,15 +13661,15 @@
         <v>0</v>
       </c>
       <c r="T63" s="12" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="9">
         <v>30020116</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="E64" s="13">
         <v>24</v>
@@ -13717,15 +13717,15 @@
         <v>200205</v>
       </c>
       <c r="T64" s="12" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="9">
         <v>30020117</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E65" s="13">
         <v>24</v>
@@ -13773,15 +13773,15 @@
         <v>0</v>
       </c>
       <c r="T65" s="12" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="66" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="9">
         <v>30020118</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E66" s="13">
         <v>25</v>
@@ -13829,15 +13829,15 @@
         <v>200302</v>
       </c>
       <c r="T66" s="12" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
-    <row r="67" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="9">
         <v>30020119</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E67" s="13">
         <v>25</v>
@@ -13885,15 +13885,15 @@
         <v>200303</v>
       </c>
       <c r="T67" s="12" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="68" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="9">
         <v>30020120</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E68" s="13">
         <v>25</v>
@@ -13941,15 +13941,15 @@
         <v>200304</v>
       </c>
       <c r="T68" s="12" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
-    <row r="69" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="9">
         <v>30020121</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E69" s="13">
         <v>26</v>
@@ -13988,24 +13988,24 @@
         <v>2</v>
       </c>
       <c r="Q69" s="13">
-        <v>10020056</v>
+        <v>10022005</v>
       </c>
       <c r="R69" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S69" s="16">
         <v>200302</v>
       </c>
       <c r="T69" s="12" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
-    <row r="70" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="9">
         <v>30020122</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E70" s="13">
         <v>27</v>
@@ -14053,15 +14053,15 @@
         <v>0</v>
       </c>
       <c r="T70" s="12" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="71" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="9">
         <v>30020123</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E71" s="13">
         <v>28</v>
@@ -14109,15 +14109,15 @@
         <v>200402</v>
       </c>
       <c r="T71" s="12" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="72" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="9">
         <v>30020124</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E72" s="13">
         <v>30</v>
@@ -14165,15 +14165,15 @@
         <v>0</v>
       </c>
       <c r="T72" s="12" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="73" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="9">
         <v>30030001</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E73" s="13">
         <v>30</v>
@@ -14221,15 +14221,15 @@
         <v>0</v>
       </c>
       <c r="T73" s="12" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
-    <row r="74" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="9">
         <v>30030002</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E74" s="13">
         <v>30</v>
@@ -14277,15 +14277,15 @@
         <v>300102</v>
       </c>
       <c r="T74" s="12" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
-    <row r="75" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="9">
         <v>30030003</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E75" s="13">
         <v>30</v>
@@ -14333,15 +14333,15 @@
         <v>300103</v>
       </c>
       <c r="T75" s="12" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="76" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="9">
         <v>30030004</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E76" s="13">
         <v>31</v>
@@ -14380,7 +14380,7 @@
         <v>2</v>
       </c>
       <c r="Q76" s="13">
-        <v>10020101</v>
+        <v>10023001</v>
       </c>
       <c r="R76" s="13">
         <v>10</v>
@@ -14389,15 +14389,15 @@
         <v>300102</v>
       </c>
       <c r="T76" s="12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
-    <row r="77" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="9">
         <v>30030005</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E77" s="13">
         <v>31</v>
@@ -14436,7 +14436,7 @@
         <v>2</v>
       </c>
       <c r="Q77" s="13">
-        <v>10020102</v>
+        <v>10023002</v>
       </c>
       <c r="R77" s="13">
         <v>10</v>
@@ -14445,15 +14445,15 @@
         <v>300103</v>
       </c>
       <c r="T77" s="12" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="78" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="9">
         <v>30030006</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E78" s="13">
         <v>32</v>
@@ -14501,15 +14501,15 @@
         <v>300204</v>
       </c>
       <c r="T78" s="12" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
-    <row r="79" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="9">
         <v>30030007</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E79" s="13">
         <v>32</v>
@@ -14557,15 +14557,15 @@
         <v>0</v>
       </c>
       <c r="T79" s="12" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="80" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="9">
         <v>30030008</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E80" s="13">
         <v>33</v>
@@ -14613,15 +14613,15 @@
         <v>0</v>
       </c>
       <c r="T80" s="12" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="9">
         <v>30030009</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E81" s="13">
         <v>33</v>
@@ -14669,15 +14669,15 @@
         <v>300301</v>
       </c>
       <c r="T81" s="12" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="9">
         <v>30030010</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E82" s="13">
         <v>33</v>
@@ -14725,15 +14725,15 @@
         <v>300302</v>
       </c>
       <c r="T82" s="12" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="9">
         <v>30030011</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E83" s="13">
         <v>33</v>
@@ -14772,7 +14772,7 @@
         <v>2</v>
       </c>
       <c r="Q83" s="13">
-        <v>10020103</v>
+        <v>10023003</v>
       </c>
       <c r="R83" s="13">
         <v>10</v>
@@ -14781,15 +14781,15 @@
         <v>300302</v>
       </c>
       <c r="T83" s="12" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="9">
         <v>30030012</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E84" s="13">
         <v>33</v>
@@ -14837,15 +14837,15 @@
         <v>300303</v>
       </c>
       <c r="T84" s="12" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="9">
         <v>30030013</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E85" s="13">
         <v>33</v>
@@ -14893,15 +14893,15 @@
         <v>0</v>
       </c>
       <c r="T85" s="12" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="9">
         <v>30030014</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E86" s="13">
         <v>34</v>
@@ -14949,15 +14949,15 @@
         <v>0</v>
       </c>
       <c r="T86" s="12" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="9">
         <v>30030015</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E87" s="13">
         <v>34</v>
@@ -14996,7 +14996,7 @@
         <v>2</v>
       </c>
       <c r="Q87" s="13">
-        <v>10020104</v>
+        <v>10023004</v>
       </c>
       <c r="R87" s="13">
         <v>10</v>
@@ -15005,15 +15005,15 @@
         <v>300402</v>
       </c>
       <c r="T87" s="12" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="9">
         <v>30030016</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E88" s="13">
         <v>34</v>
@@ -15061,15 +15061,15 @@
         <v>300402</v>
       </c>
       <c r="T88" s="12" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="9">
         <v>30030017</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E89" s="13">
         <v>34</v>
@@ -15117,15 +15117,15 @@
         <v>300401</v>
       </c>
       <c r="T89" s="12" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="9">
         <v>30030018</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E90" s="13">
         <v>34</v>
@@ -15164,7 +15164,7 @@
         <v>2</v>
       </c>
       <c r="Q90" s="13">
-        <v>10020101</v>
+        <v>10023001</v>
       </c>
       <c r="R90" s="13">
         <v>10</v>
@@ -15173,15 +15173,15 @@
         <v>300402</v>
       </c>
       <c r="T90" s="12" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="9">
         <v>30030019</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E91" s="13">
         <v>34</v>
@@ -15220,7 +15220,7 @@
         <v>2</v>
       </c>
       <c r="Q91" s="13">
-        <v>10020102</v>
+        <v>10023002</v>
       </c>
       <c r="R91" s="13">
         <v>10</v>
@@ -15229,15 +15229,15 @@
         <v>300401</v>
       </c>
       <c r="T91" s="12" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="9">
         <v>30030020</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E92" s="13">
         <v>34</v>
@@ -15276,7 +15276,7 @@
         <v>2</v>
       </c>
       <c r="Q92" s="13">
-        <v>10020103</v>
+        <v>10023003</v>
       </c>
       <c r="R92" s="13">
         <v>10</v>
@@ -15285,15 +15285,15 @@
         <v>0</v>
       </c>
       <c r="T92" s="12" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="9">
         <v>30030021</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E93" s="13">
         <v>34</v>
@@ -15341,15 +15341,15 @@
         <v>0</v>
       </c>
       <c r="T93" s="12" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="9">
         <v>30030022</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E94" s="13">
         <v>35</v>
@@ -15397,15 +15397,15 @@
         <v>0</v>
       </c>
       <c r="T94" s="12" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="9">
         <v>30030023</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E95" s="13">
         <v>35</v>
@@ -15453,15 +15453,15 @@
         <v>300502</v>
       </c>
       <c r="T95" s="12" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="9">
         <v>30030024</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E96" s="13">
         <v>35</v>
@@ -15509,15 +15509,15 @@
         <v>300501</v>
       </c>
       <c r="T96" s="12" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="9">
         <v>30030025</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E97" s="13">
         <v>35</v>
@@ -15565,15 +15565,15 @@
         <v>300504</v>
       </c>
       <c r="T97" s="12" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="9">
         <v>30030026</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E98" s="13">
         <v>36</v>
@@ -15612,7 +15612,7 @@
         <v>2</v>
       </c>
       <c r="Q98" s="13">
-        <v>10020105</v>
+        <v>10023005</v>
       </c>
       <c r="R98" s="13">
         <v>10</v>
@@ -15621,15 +15621,15 @@
         <v>300504</v>
       </c>
       <c r="T98" s="12" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="9">
         <v>30030027</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E99" s="13">
         <v>35</v>
@@ -15677,15 +15677,15 @@
         <v>300503</v>
       </c>
       <c r="T99" s="12" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="9">
         <v>30030028</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E100" s="13">
         <v>36</v>
@@ -15733,15 +15733,15 @@
         <v>0</v>
       </c>
       <c r="T100" s="12" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="9">
         <v>30030029</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E101" s="13">
         <v>37</v>
@@ -15789,15 +15789,15 @@
         <v>0</v>
       </c>
       <c r="T101" s="12" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="9">
         <v>30030030</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E102" s="13">
         <v>37</v>
@@ -15845,15 +15845,15 @@
         <v>300601</v>
       </c>
       <c r="T102" s="12" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
-    <row r="103" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="9">
         <v>30030031</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E103" s="13">
         <v>37</v>
@@ -15901,15 +15901,15 @@
         <v>300602</v>
       </c>
       <c r="T103" s="12" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
-    <row r="104" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="9">
         <v>30030032</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E104" s="13">
         <v>37</v>
@@ -15957,15 +15957,15 @@
         <v>300603</v>
       </c>
       <c r="T104" s="12" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
-    <row r="105" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="9">
         <v>30030033</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E105" s="13">
         <v>37</v>
@@ -16004,7 +16004,7 @@
         <v>2</v>
       </c>
       <c r="Q105" s="13">
-        <v>10020107</v>
+        <v>10023007</v>
       </c>
       <c r="R105" s="13">
         <v>10</v>
@@ -16013,15 +16013,15 @@
         <v>0</v>
       </c>
       <c r="T105" s="12" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
-    <row r="106" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="9">
         <v>30030034</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E106" s="13">
         <v>38</v>
@@ -16069,15 +16069,15 @@
         <v>300604</v>
       </c>
       <c r="T106" s="12" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
-    <row r="107" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="9">
         <v>30030035</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E107" s="13">
         <v>38</v>
@@ -16125,15 +16125,15 @@
         <v>0</v>
       </c>
       <c r="T107" s="12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="108" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="9">
         <v>30030036</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E108" s="13">
         <v>39</v>
@@ -16181,15 +16181,15 @@
         <v>300603</v>
       </c>
       <c r="T108" s="12" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
-    <row r="109" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="9">
         <v>30030037</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E109" s="13">
         <v>39</v>
@@ -16228,7 +16228,7 @@
         <v>2</v>
       </c>
       <c r="Q109" s="13">
-        <v>10020107</v>
+        <v>10023007</v>
       </c>
       <c r="R109" s="13">
         <v>10</v>
@@ -16237,15 +16237,15 @@
         <v>0</v>
       </c>
       <c r="T109" s="12" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="110" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="9">
         <v>30030038</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E110" s="13">
         <v>40</v>
@@ -16293,15 +16293,15 @@
         <v>0</v>
       </c>
       <c r="T110" s="12" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="111" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="9">
         <v>30040001</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E111" s="13">
         <v>40</v>
@@ -16349,15 +16349,15 @@
         <v>0</v>
       </c>
       <c r="T111" s="12" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="112" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="9">
         <v>30040002</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E112" s="13">
         <v>40</v>
@@ -16405,15 +16405,15 @@
         <v>400102</v>
       </c>
       <c r="T112" s="12" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="113" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="9">
         <v>30040003</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E113" s="13">
         <v>40</v>
@@ -16461,15 +16461,15 @@
         <v>400103</v>
       </c>
       <c r="T113" s="12" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="114" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="9">
         <v>30040004</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E114" s="13">
         <v>41</v>
@@ -16507,8 +16507,8 @@
       <c r="P114" s="13">
         <v>2</v>
       </c>
-      <c r="Q114" s="11">
-        <v>10020156</v>
+      <c r="Q114" s="15">
+        <v>10024006</v>
       </c>
       <c r="R114" s="13">
         <v>10</v>
@@ -16517,15 +16517,15 @@
         <v>400103</v>
       </c>
       <c r="T114" s="12" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
-    <row r="115" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="9">
         <v>30040005</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E115" s="13">
         <v>41</v>
@@ -16563,8 +16563,8 @@
       <c r="P115" s="13">
         <v>2</v>
       </c>
-      <c r="Q115" s="11">
-        <v>10020151</v>
+      <c r="Q115" s="15">
+        <v>10024001</v>
       </c>
       <c r="R115" s="13">
         <v>10</v>
@@ -16573,15 +16573,15 @@
         <v>400102</v>
       </c>
       <c r="T115" s="12" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="116" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C116" s="9">
         <v>30040006</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E116" s="13">
         <v>41</v>
@@ -16619,8 +16619,8 @@
       <c r="P116" s="13">
         <v>2</v>
       </c>
-      <c r="Q116" s="11">
-        <v>10020152</v>
+      <c r="Q116" s="15">
+        <v>10024002</v>
       </c>
       <c r="R116" s="13">
         <v>10</v>
@@ -16629,15 +16629,15 @@
         <v>400103</v>
       </c>
       <c r="T116" s="12" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="117" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="9">
         <v>30040007</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E117" s="13">
         <v>42</v>
@@ -16685,15 +16685,15 @@
         <v>400203</v>
       </c>
       <c r="T117" s="12" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="118" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="9">
         <v>30040008</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E118" s="13">
         <v>42</v>
@@ -16741,15 +16741,15 @@
         <v>0</v>
       </c>
       <c r="T118" s="12" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="119" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="9">
         <v>30040009</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E119" s="13">
         <v>42</v>
@@ -16797,15 +16797,15 @@
         <v>0</v>
       </c>
       <c r="T119" s="12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="120" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="9">
         <v>30040010</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E120" s="13">
         <v>42</v>
@@ -16853,15 +16853,15 @@
         <v>400301</v>
       </c>
       <c r="T120" s="12" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="121" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C121" s="9">
         <v>30040011</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E121" s="13">
         <v>42</v>
@@ -16909,15 +16909,15 @@
         <v>400302</v>
       </c>
       <c r="T121" s="12" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="122" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C122" s="9">
         <v>30040012</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E122" s="13">
         <v>43</v>
@@ -16955,8 +16955,8 @@
       <c r="P122" s="13">
         <v>2</v>
       </c>
-      <c r="Q122" s="11">
-        <v>10020151</v>
+      <c r="Q122" s="15">
+        <v>10024001</v>
       </c>
       <c r="R122" s="13">
         <v>10</v>
@@ -16965,15 +16965,15 @@
         <v>400301</v>
       </c>
       <c r="T122" s="12" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="123" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="9">
         <v>30040013</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E123" s="13">
         <v>43</v>
@@ -17011,8 +17011,8 @@
       <c r="P123" s="13">
         <v>2</v>
       </c>
-      <c r="Q123" s="11">
-        <v>10020152</v>
+      <c r="Q123" s="15">
+        <v>10024002</v>
       </c>
       <c r="R123" s="13">
         <v>10</v>
@@ -17021,15 +17021,15 @@
         <v>400302</v>
       </c>
       <c r="T123" s="12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
-    <row r="124" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C124" s="9">
         <v>30040014</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E124" s="13">
         <v>43</v>
@@ -17077,15 +17077,15 @@
         <v>400303</v>
       </c>
       <c r="T124" s="12" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
-    <row r="125" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="9">
         <v>30040015</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E125" s="13">
         <v>44</v>
@@ -17133,15 +17133,15 @@
         <v>0</v>
       </c>
       <c r="T125" s="12" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="126" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C126" s="9">
         <v>30040016</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E126" s="13">
         <v>45</v>
@@ -17189,15 +17189,15 @@
         <v>0</v>
       </c>
       <c r="T126" s="12" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
-    <row r="127" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C127" s="9">
         <v>30040017</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="E127" s="13">
         <v>45</v>
@@ -17245,15 +17245,15 @@
         <v>400402</v>
       </c>
       <c r="T127" s="12" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="128" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C128" s="9">
         <v>30040018</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="E128" s="13">
         <v>45</v>
@@ -17301,15 +17301,15 @@
         <v>400403</v>
       </c>
       <c r="T128" s="12" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="129" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C129" s="9">
         <v>30040019</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E129" s="13">
         <v>45</v>
@@ -17357,15 +17357,15 @@
         <v>400404</v>
       </c>
       <c r="T129" s="12" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
-    <row r="130" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C130" s="9">
         <v>30040020</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E130" s="13">
         <v>46</v>
@@ -17403,8 +17403,8 @@
       <c r="P130" s="13">
         <v>2</v>
       </c>
-      <c r="Q130" s="11">
-        <v>10020153</v>
+      <c r="Q130" s="15">
+        <v>10024003</v>
       </c>
       <c r="R130" s="13">
         <v>10</v>
@@ -17413,15 +17413,15 @@
         <v>400402</v>
       </c>
       <c r="T130" s="12" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="131" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C131" s="9">
         <v>30040021</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E131" s="13">
         <v>46</v>
@@ -17469,15 +17469,15 @@
         <v>400503</v>
       </c>
       <c r="T131" s="12" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="132" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C132" s="9">
         <v>30040022</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E132" s="13">
         <v>46</v>
@@ -17525,15 +17525,15 @@
         <v>0</v>
       </c>
       <c r="T132" s="12" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="133" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C133" s="9">
         <v>30040023</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E133" s="13">
         <v>46</v>
@@ -17581,15 +17581,15 @@
         <v>0</v>
       </c>
       <c r="T133" s="12" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="134" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C134" s="9">
         <v>30040024</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E134" s="13">
         <v>46</v>
@@ -17637,15 +17637,15 @@
         <v>400602</v>
       </c>
       <c r="T134" s="12" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="135" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C135" s="9">
         <v>30040025</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E135" s="13">
         <v>46</v>
@@ -17693,15 +17693,15 @@
         <v>400602</v>
       </c>
       <c r="T135" s="12" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="136" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C136" s="9">
         <v>30040026</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E136" s="13">
         <v>46</v>
@@ -17739,8 +17739,8 @@
       <c r="P136" s="13">
         <v>2</v>
       </c>
-      <c r="Q136" s="11">
-        <v>10020154</v>
+      <c r="Q136" s="15">
+        <v>10024004</v>
       </c>
       <c r="R136" s="13">
         <v>10</v>
@@ -17749,15 +17749,15 @@
         <v>400602</v>
       </c>
       <c r="T136" s="12" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
-    <row r="137" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C137" s="9">
         <v>30040027</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E137" s="13">
         <v>46</v>
@@ -17805,15 +17805,15 @@
         <v>0</v>
       </c>
       <c r="T137" s="12" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
-    <row r="138" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C138" s="9">
         <v>30040028</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E138" s="13">
         <v>47</v>
@@ -17861,15 +17861,15 @@
         <v>400703</v>
       </c>
       <c r="T138" s="12" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
-    <row r="139" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C139" s="9">
         <v>30040029</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E139" s="13">
         <v>48</v>
@@ -17917,15 +17917,15 @@
         <v>0</v>
       </c>
       <c r="T139" s="12" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="140" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C140" s="9">
         <v>30040030</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E140" s="13">
         <v>48</v>
@@ -17963,8 +17963,8 @@
       <c r="P140" s="13">
         <v>2</v>
       </c>
-      <c r="Q140" s="11">
-        <v>10020154</v>
+      <c r="Q140" s="15">
+        <v>10024004</v>
       </c>
       <c r="R140" s="13">
         <v>10</v>
@@ -17973,15 +17973,15 @@
         <v>400602</v>
       </c>
       <c r="T140" s="12" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
-    <row r="141" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C141" s="9">
         <v>30040031</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E141" s="13">
         <v>48</v>
@@ -18019,8 +18019,8 @@
       <c r="P141" s="13">
         <v>2</v>
       </c>
-      <c r="Q141" s="11">
-        <v>10020155</v>
+      <c r="Q141" s="15">
+        <v>10024005</v>
       </c>
       <c r="R141" s="13">
         <v>10</v>
@@ -18029,15 +18029,15 @@
         <v>0</v>
       </c>
       <c r="T141" s="12" t="s">
-        <v>345</v>
+        <v>272</v>
       </c>
     </row>
-    <row r="142" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C142" s="9">
         <v>30040032</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E142" s="13">
         <v>49</v>
@@ -18085,15 +18085,15 @@
         <v>400703</v>
       </c>
       <c r="T142" s="12" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="143" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C143" s="9">
         <v>30040033</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E143" s="13">
         <v>50</v>
@@ -18141,15 +18141,15 @@
         <v>0</v>
       </c>
       <c r="T143" s="12" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
-    <row r="144" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C144" s="9">
         <v>30050001</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E144" s="13">
         <v>50</v>
@@ -18197,15 +18197,15 @@
         <v>0</v>
       </c>
       <c r="T144" s="12" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="145" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C145" s="9">
         <v>30050002</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E145" s="13">
         <v>50</v>
@@ -18253,15 +18253,15 @@
         <v>500103</v>
       </c>
       <c r="T145" s="12" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="146" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C146" s="9">
         <v>30050003</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E146" s="13">
         <v>50</v>
@@ -18309,15 +18309,15 @@
         <v>500104</v>
       </c>
       <c r="T146" s="12" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="147" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C147" s="9">
         <v>30050004</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E147" s="13">
         <v>50</v>
@@ -18355,8 +18355,8 @@
       <c r="P147" s="13">
         <v>2</v>
       </c>
-      <c r="Q147" s="11">
-        <v>10020201</v>
+      <c r="Q147" s="15">
+        <v>10025001</v>
       </c>
       <c r="R147" s="13">
         <v>10</v>
@@ -18365,15 +18365,15 @@
         <v>500103</v>
       </c>
       <c r="T147" s="12" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="148" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C148" s="9">
         <v>30050005</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E148" s="13">
         <v>50</v>
@@ -18411,8 +18411,8 @@
       <c r="P148" s="13">
         <v>2</v>
       </c>
-      <c r="Q148" s="11">
-        <v>10020202</v>
+      <c r="Q148" s="15">
+        <v>10025002</v>
       </c>
       <c r="R148" s="13">
         <v>10</v>
@@ -18421,15 +18421,15 @@
         <v>500104</v>
       </c>
       <c r="T148" s="12" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="149" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C149" s="9">
         <v>30050006</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E149" s="13">
         <v>51</v>
@@ -18477,15 +18477,15 @@
         <v>500204</v>
       </c>
       <c r="T149" s="12" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="150" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C150" s="9">
         <v>30050007</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E150" s="13">
         <v>52</v>
@@ -18533,15 +18533,15 @@
         <v>0</v>
       </c>
       <c r="T150" s="12" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
-    <row r="151" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C151" s="9">
         <v>30050008</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E151" s="13">
         <v>52</v>
@@ -18589,15 +18589,15 @@
         <v>0</v>
       </c>
       <c r="T151" s="12" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="152" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C152" s="9">
         <v>30050009</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E152" s="13">
         <v>52</v>
@@ -18635,8 +18635,8 @@
       <c r="P152" s="13">
         <v>2</v>
       </c>
-      <c r="Q152" s="11">
-        <v>10020205</v>
+      <c r="Q152" s="15">
+        <v>10025005</v>
       </c>
       <c r="R152" s="13">
         <v>10</v>
@@ -18645,15 +18645,15 @@
         <v>0</v>
       </c>
       <c r="T152" s="12" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
-    <row r="153" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C153" s="9">
         <v>30050010</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E153" s="13">
         <v>52</v>
@@ -18691,8 +18691,8 @@
       <c r="P153" s="13">
         <v>2</v>
       </c>
-      <c r="Q153" s="11">
-        <v>10020206</v>
+      <c r="Q153" s="15">
+        <v>10025006</v>
       </c>
       <c r="R153" s="13">
         <v>10</v>
@@ -18701,15 +18701,15 @@
         <v>0</v>
       </c>
       <c r="T153" s="12" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
-    <row r="154" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C154" s="9">
         <v>30050011</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E154" s="13">
         <v>52</v>
@@ -18757,15 +18757,15 @@
         <v>500203</v>
       </c>
       <c r="T154" s="12" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
-    <row r="155" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C155" s="9">
         <v>30050012</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E155" s="13">
         <v>53</v>
@@ -18813,15 +18813,15 @@
         <v>500303</v>
       </c>
       <c r="T155" s="12" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
-    <row r="156" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C156" s="9">
         <v>30050013</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E156" s="13">
         <v>54</v>
@@ -18869,15 +18869,15 @@
         <v>0</v>
       </c>
       <c r="T156" s="12" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
-    <row r="157" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C157" s="9">
         <v>30050014</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E157" s="13">
         <v>54</v>
@@ -18925,15 +18925,15 @@
         <v>0</v>
       </c>
       <c r="T157" s="12" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="158" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C158" s="9">
         <v>30050015</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E158" s="13">
         <v>54</v>
@@ -18981,15 +18981,15 @@
         <v>0</v>
       </c>
       <c r="T158" s="12" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
-    <row r="159" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C159" s="9">
         <v>30050016</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E159" s="13">
         <v>54</v>
@@ -19037,15 +19037,15 @@
         <v>0</v>
       </c>
       <c r="T159" s="12" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
-    <row r="160" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C160" s="9">
         <v>30050017</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="E160" s="13">
         <v>54</v>
@@ -19093,15 +19093,15 @@
         <v>0</v>
       </c>
       <c r="T160" s="12" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="161" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C161" s="9">
         <v>30050018</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E161" s="13">
         <v>55</v>
@@ -19139,8 +19139,8 @@
       <c r="P161" s="13">
         <v>2</v>
       </c>
-      <c r="Q161" s="11">
-        <v>10020206</v>
+      <c r="Q161" s="15">
+        <v>10025006</v>
       </c>
       <c r="R161" s="13">
         <v>10</v>
@@ -19149,15 +19149,15 @@
         <v>0</v>
       </c>
       <c r="T161" s="12" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="162" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C162" s="9">
         <v>30050019</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E162" s="13">
         <v>56</v>
@@ -19205,15 +19205,15 @@
         <v>0</v>
       </c>
       <c r="T162" s="12" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
-    <row r="163" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="9">
         <v>30050020</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E163" s="13">
         <v>57</v>
@@ -19261,15 +19261,15 @@
         <v>500601</v>
       </c>
       <c r="T163" s="12" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
-    <row r="164" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C164" s="9">
         <v>30050021</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E164" s="13">
         <v>58</v>
@@ -19317,15 +19317,15 @@
         <v>0</v>
       </c>
       <c r="T164" s="12" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="165" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C165" s="9">
         <v>30050022</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E165" s="13">
         <v>60</v>
@@ -19373,9 +19373,14 @@
         <v>500701</v>
       </c>
       <c r="T165" s="12" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
+    <row r="166" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_weijing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57806774-F2DD-407E-B17F-2DA12F8AF236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A282531-CA5A-4620-9807-B30736F5E5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -10226,9 +10226,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12700,7 +12700,7 @@
         <v>2</v>
       </c>
       <c r="Q46" s="13">
-        <v>10020053</v>
+        <v>10022002</v>
       </c>
       <c r="R46" s="13">
         <v>1</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EED411A-B321-492C-A916-1E1528B713AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAFDECA-AF6F-4572-9DE6-8FF9E1782E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="1965" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -10250,9 +10250,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M156" sqref="M156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10637,10 +10637,10 @@
         <v>65</v>
       </c>
       <c r="L9" s="9">
-        <v>10010101</v>
+        <v>0</v>
       </c>
       <c r="M9" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="11">
         <v>20001003</v>
@@ -12724,7 +12724,7 @@
         <v>2</v>
       </c>
       <c r="Q46" s="9">
-        <v>10022002</v>
+        <v>10021008</v>
       </c>
       <c r="R46" s="9">
         <v>1</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAFDECA-AF6F-4572-9DE6-8FF9E1782E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454732E0-5046-403E-AD86-17E107E2DA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="1965" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="353">
   <si>
     <t>TaskLv</t>
   </si>
@@ -683,9 +683,6 @@
     <t>刷怪升级至12级</t>
   </si>
   <si>
-    <t>打败古墓弓箭手</t>
-  </si>
-  <si>
     <t>刷怪升级至13级</t>
   </si>
   <si>
@@ -734,9 +731,6 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>打败蝙蝠</t>
-  </si>
-  <si>
     <t>收集村民灵魄</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
@@ -1060,10 +1054,6 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>通缉:守护者-腐蚀女王</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
     <t>升级到54级</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
@@ -1073,10 +1063,6 @@
   </si>
   <si>
     <t>升级到56级</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
-    <t>通缉：邪恶博士-埃克</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
@@ -1226,10 +1212,6 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>清除古墓里的5个古墓死士和5个古墓弓箭手.</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
     <t>等级升到10级后到守陵人询问发生了什么.</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
@@ -1558,13 +1540,6 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>通缉：血色蝙蝠王</t>
-  </si>
-  <si>
-    <t>通缉：蝙蝠王</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
     <t>寻找证据</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
@@ -1585,26 +1560,10 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>干掉蝙蝠王,解除公主的魔咒！！</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
     <t>击败洞穴的怪物</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>击败洞穴的古墓弓箭手</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>在死洞穴找到蝙蝠王并彻底打败它.</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>在洞穴找到血色蝙蝠王并彻底打败它.</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>降下如此恶毒的魔咒的核心道具，找到它并好好研究一下它。</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -1613,17 +1572,7 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>找到蝙蝠打败他们,他们身上有你想要的东西。</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>寻找遗迹废墟</t>
-  </si>
-  <si>
-    <t>通缉：沙漠女王</t>
-  </si>
-  <si>
-    <t>经过多方打听终于得知了幕后黑手，打败沙漠女王，解除这场飞来横祸!</t>
   </si>
   <si>
     <t>勇敢的冲向它吧！它已经被虚弱了许多，相信自己！</t>
@@ -1668,9 +1617,6 @@
     <t>前往地下洞穴找守陵人报道.</t>
   </si>
   <si>
-    <t>打败洞穴魔怪</t>
-  </si>
-  <si>
     <t>寻找魔怪布料</t>
   </si>
   <si>
@@ -1769,6 +1715,86 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>通缉：野猪王</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>通缉：沙漠之王</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过多方打听终于得知了幕后黑手，打败沙漠之王，解除这场飞来横祸!</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除古墓里的怪物.</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>干掉罪魁祸首,解除公主的魔咒！！</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫清障碍</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理阻拦者</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>通缉：地下教主</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理阻拦你的魔物</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴内有些奇奇怪怪的生物,他们身上有我们想要的东西</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>在洞穴找到它并彻底打败它.</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找证据</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>打败魔物</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓手的末日</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败那些弓手,让他们无法在远程伤害到我</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>在洞穴找到它,并彻底打败它.</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>侦查遗迹</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到并打败他们,他们身上有你想要的东西。</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>通缉：邪恶法师-埃克</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>通缉:守护领主-烈风</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
 </sst>
@@ -10250,9 +10276,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10322,7 +10348,7 @@
         <v>30</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>19</v>
@@ -10366,7 +10392,7 @@
         <v>26</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>24</v>
@@ -10378,7 +10404,7 @@
         <v>29</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>6</v>
@@ -10434,7 +10460,7 @@
         <v>28</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>21</v>
@@ -10493,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -10540,7 +10566,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="R7" s="10">
         <v>5</v>
@@ -10549,7 +10575,7 @@
         <v>100005</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -10605,7 +10631,7 @@
         <v>100005</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -10661,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -10717,7 +10743,7 @@
         <v>100006</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -10773,7 +10799,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -10829,7 +10855,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -10885,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -10941,7 +10967,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -10997,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11053,7 +11079,7 @@
         <v>100105</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11109,7 +11135,7 @@
         <v>100102</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11117,7 +11143,7 @@
         <v>30010012</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E18" s="9">
         <v>3</v>
@@ -11165,7 +11191,7 @@
         <v>100103</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11173,7 +11199,7 @@
         <v>30010013</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E19" s="9">
         <v>3</v>
@@ -11221,7 +11247,7 @@
         <v>100104</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11277,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11333,7 +11359,7 @@
         <v>100202</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11377,7 +11403,7 @@
         <v>20001014</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="Q22" s="9">
         <v>70001006</v>
@@ -11389,7 +11415,7 @@
         <v>100203</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11445,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11453,7 +11479,7 @@
         <v>30010018</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="E24" s="9">
         <v>5</v>
@@ -11501,7 +11527,7 @@
         <v>100205</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11557,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11613,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11669,7 +11695,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11725,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11781,7 +11807,7 @@
         <v>100402</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11837,7 +11863,7 @@
         <v>100403</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11893,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11949,7 +11975,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -12005,7 +12031,7 @@
         <v>100603</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>190</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -12061,7 +12087,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -12117,7 +12143,7 @@
         <v>100704</v>
       </c>
       <c r="T35" s="12" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -12173,7 +12199,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -12181,7 +12207,7 @@
         <v>30010031</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="E37" s="9">
         <v>12</v>
@@ -12229,7 +12255,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="12" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -12237,7 +12263,7 @@
         <v>30010032</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="E38" s="9">
         <v>13</v>
@@ -12285,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="12" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -12293,7 +12319,7 @@
         <v>30010033</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>64</v>
+        <v>339</v>
       </c>
       <c r="E39" s="9">
         <v>13</v>
@@ -12341,7 +12367,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="12" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -12349,7 +12375,7 @@
         <v>30010034</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E40" s="9">
         <v>13</v>
@@ -12397,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -12405,7 +12431,7 @@
         <v>30010035</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>64</v>
+        <v>344</v>
       </c>
       <c r="E41" s="9">
         <v>14</v>
@@ -12453,7 +12479,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="12" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -12461,7 +12487,7 @@
         <v>30010036</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="E42" s="9">
         <v>14</v>
@@ -12509,7 +12535,7 @@
         <v>100504</v>
       </c>
       <c r="T42" s="12" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -12517,7 +12543,7 @@
         <v>30010037</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E43" s="9">
         <v>14</v>
@@ -12565,7 +12591,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -12573,7 +12599,7 @@
         <v>30010038</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="E44" s="9">
         <v>15</v>
@@ -12621,7 +12647,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="12" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -12629,7 +12655,7 @@
         <v>30010039</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>64</v>
+        <v>346</v>
       </c>
       <c r="E45" s="9">
         <v>15</v>
@@ -12677,7 +12703,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="12" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -12685,7 +12711,7 @@
         <v>30010040</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E46" s="9">
         <v>15</v>
@@ -12733,7 +12759,7 @@
         <v>100504</v>
       </c>
       <c r="T46" s="12" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -12741,7 +12767,7 @@
         <v>30010041</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E47" s="9">
         <v>15</v>
@@ -12789,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -12797,7 +12823,7 @@
         <v>30010042</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E48" s="9">
         <v>16</v>
@@ -12845,7 +12871,7 @@
         <v>100504</v>
       </c>
       <c r="T48" s="12" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -12853,7 +12879,7 @@
         <v>30020101</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E49" s="9">
         <v>18</v>
@@ -12901,7 +12927,7 @@
         <v>0</v>
       </c>
       <c r="T49" s="12" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -12909,7 +12935,7 @@
         <v>30020102</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E50" s="9">
         <v>19</v>
@@ -12957,7 +12983,7 @@
         <v>200002</v>
       </c>
       <c r="T50" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -12965,7 +12991,7 @@
         <v>30020103</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E51" s="9">
         <v>19</v>
@@ -13013,7 +13039,7 @@
         <v>200003</v>
       </c>
       <c r="T51" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13021,7 +13047,7 @@
         <v>30020104</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E52" s="9">
         <v>20</v>
@@ -13069,7 +13095,7 @@
         <v>200004</v>
       </c>
       <c r="T52" s="12" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13077,7 +13103,7 @@
         <v>30020105</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E53" s="9">
         <v>20</v>
@@ -13125,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="T53" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13133,7 +13159,7 @@
         <v>30020106</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E54" s="9">
         <v>22</v>
@@ -13181,7 +13207,7 @@
         <v>0</v>
       </c>
       <c r="T54" s="12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13189,7 +13215,7 @@
         <v>30020107</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E55" s="9">
         <v>22</v>
@@ -13237,7 +13263,7 @@
         <v>200103</v>
       </c>
       <c r="T55" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13245,7 +13271,7 @@
         <v>30020108</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E56" s="9">
         <v>22</v>
@@ -13293,7 +13319,7 @@
         <v>200102</v>
       </c>
       <c r="T56" s="12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13301,7 +13327,7 @@
         <v>30020109</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E57" s="9">
         <v>22</v>
@@ -13349,7 +13375,7 @@
         <v>200104</v>
       </c>
       <c r="T57" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13357,7 +13383,7 @@
         <v>30020110</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E58" s="9">
         <v>23</v>
@@ -13405,7 +13431,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="12" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
     </row>
     <row r="59" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13413,7 +13439,7 @@
         <v>30020111</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>78</v>
+        <v>349</v>
       </c>
       <c r="E59" s="9">
         <v>23</v>
@@ -13461,7 +13487,7 @@
         <v>200202</v>
       </c>
       <c r="T59" s="12" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
     </row>
     <row r="60" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13469,7 +13495,7 @@
         <v>30020112</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="E60" s="9">
         <v>23</v>
@@ -13517,7 +13543,7 @@
         <v>200203</v>
       </c>
       <c r="T60" s="12" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13525,7 +13551,7 @@
         <v>30020113</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E61" s="9">
         <v>23</v>
@@ -13573,7 +13599,7 @@
         <v>200204</v>
       </c>
       <c r="T61" s="12" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13581,7 +13607,7 @@
         <v>30020114</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E62" s="9">
         <v>23</v>
@@ -13629,7 +13655,7 @@
         <v>200203</v>
       </c>
       <c r="T62" s="12" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13637,7 +13663,7 @@
         <v>30020115</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E63" s="9">
         <v>24</v>
@@ -13685,7 +13711,7 @@
         <v>0</v>
       </c>
       <c r="T63" s="12" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13693,7 +13719,7 @@
         <v>30020116</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="E64" s="9">
         <v>24</v>
@@ -13741,7 +13767,7 @@
         <v>200205</v>
       </c>
       <c r="T64" s="12" t="s">
-        <v>309</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13749,7 +13775,7 @@
         <v>30020117</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E65" s="9">
         <v>24</v>
@@ -13797,7 +13823,7 @@
         <v>0</v>
       </c>
       <c r="T65" s="12" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13805,7 +13831,7 @@
         <v>30020118</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E66" s="9">
         <v>25</v>
@@ -13853,7 +13879,7 @@
         <v>200302</v>
       </c>
       <c r="T66" s="12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13861,7 +13887,7 @@
         <v>30020119</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E67" s="9">
         <v>25</v>
@@ -13909,7 +13935,7 @@
         <v>200303</v>
       </c>
       <c r="T67" s="12" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="68" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13917,7 +13943,7 @@
         <v>30020120</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E68" s="9">
         <v>25</v>
@@ -13965,7 +13991,7 @@
         <v>200304</v>
       </c>
       <c r="T68" s="12" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -13973,7 +13999,7 @@
         <v>30020121</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E69" s="9">
         <v>26</v>
@@ -14021,7 +14047,7 @@
         <v>200302</v>
       </c>
       <c r="T69" s="12" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14029,7 +14055,7 @@
         <v>30020122</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E70" s="9">
         <v>27</v>
@@ -14077,7 +14103,7 @@
         <v>0</v>
       </c>
       <c r="T70" s="12" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14085,7 +14111,7 @@
         <v>30020123</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E71" s="9">
         <v>28</v>
@@ -14133,7 +14159,7 @@
         <v>200402</v>
       </c>
       <c r="T71" s="12" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14141,7 +14167,7 @@
         <v>30020124</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E72" s="9">
         <v>30</v>
@@ -14189,7 +14215,7 @@
         <v>0</v>
       </c>
       <c r="T72" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14197,7 +14223,7 @@
         <v>30030001</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E73" s="9">
         <v>30</v>
@@ -14245,7 +14271,7 @@
         <v>0</v>
       </c>
       <c r="T73" s="12" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14253,7 +14279,7 @@
         <v>30030002</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E74" s="9">
         <v>30</v>
@@ -14301,7 +14327,7 @@
         <v>300102</v>
       </c>
       <c r="T74" s="12" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14309,7 +14335,7 @@
         <v>30030003</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9">
         <v>30</v>
@@ -14357,7 +14383,7 @@
         <v>300103</v>
       </c>
       <c r="T75" s="12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14365,7 +14391,7 @@
         <v>30030004</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E76" s="9">
         <v>31</v>
@@ -14413,7 +14439,7 @@
         <v>300102</v>
       </c>
       <c r="T76" s="12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14421,7 +14447,7 @@
         <v>30030005</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E77" s="9">
         <v>31</v>
@@ -14469,7 +14495,7 @@
         <v>300103</v>
       </c>
       <c r="T77" s="12" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14477,7 +14503,7 @@
         <v>30030006</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E78" s="9">
         <v>32</v>
@@ -14525,7 +14551,7 @@
         <v>300204</v>
       </c>
       <c r="T78" s="12" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14533,7 +14559,7 @@
         <v>30030007</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E79" s="9">
         <v>32</v>
@@ -14581,7 +14607,7 @@
         <v>0</v>
       </c>
       <c r="T79" s="12" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14589,7 +14615,7 @@
         <v>30030008</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E80" s="9">
         <v>33</v>
@@ -14637,7 +14663,7 @@
         <v>0</v>
       </c>
       <c r="T80" s="12" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14645,7 +14671,7 @@
         <v>30030009</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E81" s="9">
         <v>33</v>
@@ -14693,7 +14719,7 @@
         <v>300301</v>
       </c>
       <c r="T81" s="12" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14701,7 +14727,7 @@
         <v>30030010</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E82" s="9">
         <v>33</v>
@@ -14749,7 +14775,7 @@
         <v>300302</v>
       </c>
       <c r="T82" s="12" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14757,7 +14783,7 @@
         <v>30030011</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E83" s="9">
         <v>33</v>
@@ -14805,7 +14831,7 @@
         <v>300302</v>
       </c>
       <c r="T83" s="12" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="84" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14813,7 +14839,7 @@
         <v>30030012</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E84" s="9">
         <v>33</v>
@@ -14861,7 +14887,7 @@
         <v>300303</v>
       </c>
       <c r="T84" s="12" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14869,7 +14895,7 @@
         <v>30030013</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E85" s="9">
         <v>33</v>
@@ -14917,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="T85" s="12" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14925,7 +14951,7 @@
         <v>30030014</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E86" s="9">
         <v>34</v>
@@ -14973,7 +14999,7 @@
         <v>0</v>
       </c>
       <c r="T86" s="12" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -14981,7 +15007,7 @@
         <v>30030015</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E87" s="9">
         <v>34</v>
@@ -15029,7 +15055,7 @@
         <v>300402</v>
       </c>
       <c r="T87" s="12" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15037,7 +15063,7 @@
         <v>30030016</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E88" s="9">
         <v>34</v>
@@ -15085,7 +15111,7 @@
         <v>300402</v>
       </c>
       <c r="T88" s="12" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15093,7 +15119,7 @@
         <v>30030017</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E89" s="9">
         <v>34</v>
@@ -15141,7 +15167,7 @@
         <v>300401</v>
       </c>
       <c r="T89" s="12" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15149,7 +15175,7 @@
         <v>30030018</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E90" s="9">
         <v>34</v>
@@ -15197,7 +15223,7 @@
         <v>300402</v>
       </c>
       <c r="T90" s="12" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15205,7 +15231,7 @@
         <v>30030019</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E91" s="9">
         <v>34</v>
@@ -15253,7 +15279,7 @@
         <v>300401</v>
       </c>
       <c r="T91" s="12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15261,7 +15287,7 @@
         <v>30030020</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E92" s="9">
         <v>34</v>
@@ -15309,7 +15335,7 @@
         <v>0</v>
       </c>
       <c r="T92" s="12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="93" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15317,7 +15343,7 @@
         <v>30030021</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E93" s="9">
         <v>34</v>
@@ -15365,7 +15391,7 @@
         <v>0</v>
       </c>
       <c r="T93" s="12" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15373,7 +15399,7 @@
         <v>30030022</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E94" s="9">
         <v>35</v>
@@ -15421,7 +15447,7 @@
         <v>0</v>
       </c>
       <c r="T94" s="12" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15429,7 +15455,7 @@
         <v>30030023</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E95" s="9">
         <v>35</v>
@@ -15477,7 +15503,7 @@
         <v>300502</v>
       </c>
       <c r="T95" s="12" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="96" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15485,7 +15511,7 @@
         <v>30030024</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E96" s="9">
         <v>35</v>
@@ -15533,7 +15559,7 @@
         <v>300501</v>
       </c>
       <c r="T96" s="12" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15541,7 +15567,7 @@
         <v>30030025</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E97" s="9">
         <v>35</v>
@@ -15568,7 +15594,7 @@
         <v>10023010</v>
       </c>
       <c r="M97" s="21" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="N97" s="11">
         <v>20003005</v>
@@ -15589,7 +15615,7 @@
         <v>300504</v>
       </c>
       <c r="T97" s="12" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15597,7 +15623,7 @@
         <v>30030026</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E98" s="9">
         <v>36</v>
@@ -15645,7 +15671,7 @@
         <v>300504</v>
       </c>
       <c r="T98" s="12" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15653,7 +15679,7 @@
         <v>30030027</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E99" s="9">
         <v>35</v>
@@ -15680,7 +15706,7 @@
         <v>10023010</v>
       </c>
       <c r="M99" s="21" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="N99" s="11">
         <v>20003005</v>
@@ -15701,7 +15727,7 @@
         <v>300503</v>
       </c>
       <c r="T99" s="12" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15709,7 +15735,7 @@
         <v>30030028</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E100" s="9">
         <v>36</v>
@@ -15736,7 +15762,7 @@
         <v>10010013</v>
       </c>
       <c r="M100" s="21" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="N100" s="11">
         <v>20003005</v>
@@ -15757,7 +15783,7 @@
         <v>0</v>
       </c>
       <c r="T100" s="12" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15765,7 +15791,7 @@
         <v>30030029</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E101" s="9">
         <v>37</v>
@@ -15813,7 +15839,7 @@
         <v>0</v>
       </c>
       <c r="T101" s="12" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15821,7 +15847,7 @@
         <v>30030030</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E102" s="9">
         <v>37</v>
@@ -15869,7 +15895,7 @@
         <v>300601</v>
       </c>
       <c r="T102" s="12" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="103" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15877,7 +15903,7 @@
         <v>30030031</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E103" s="9">
         <v>37</v>
@@ -15925,7 +15951,7 @@
         <v>300602</v>
       </c>
       <c r="T103" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15933,7 +15959,7 @@
         <v>30030032</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E104" s="9">
         <v>37</v>
@@ -15981,7 +16007,7 @@
         <v>300603</v>
       </c>
       <c r="T104" s="12" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -15989,7 +16015,7 @@
         <v>30030033</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E105" s="9">
         <v>37</v>
@@ -16037,7 +16063,7 @@
         <v>0</v>
       </c>
       <c r="T105" s="12" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -16045,7 +16071,7 @@
         <v>30030034</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E106" s="9">
         <v>38</v>
@@ -16072,7 +16098,7 @@
         <v>10023010</v>
       </c>
       <c r="M106" s="21" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="N106" s="11">
         <v>20003009</v>
@@ -16093,7 +16119,7 @@
         <v>300604</v>
       </c>
       <c r="T106" s="12" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -16101,7 +16127,7 @@
         <v>30030035</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E107" s="9">
         <v>38</v>
@@ -16128,7 +16154,7 @@
         <v>10000102</v>
       </c>
       <c r="M107" s="21" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="N107" s="11">
         <v>20003003</v>
@@ -16149,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="T107" s="12" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="108" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -16157,7 +16183,7 @@
         <v>30030036</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E108" s="9">
         <v>39</v>
@@ -16205,7 +16231,7 @@
         <v>300603</v>
       </c>
       <c r="T108" s="12" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="109" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -16213,7 +16239,7 @@
         <v>30030037</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E109" s="9">
         <v>39</v>
@@ -16261,7 +16287,7 @@
         <v>0</v>
       </c>
       <c r="T109" s="12" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -16269,7 +16295,7 @@
         <v>30030038</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E110" s="9">
         <v>40</v>
@@ -16317,7 +16343,7 @@
         <v>0</v>
       </c>
       <c r="T110" s="12" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -16325,7 +16351,7 @@
         <v>30040001</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E111" s="9">
         <v>40</v>
@@ -16373,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="T111" s="12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -16381,7 +16407,7 @@
         <v>30040002</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E112" s="9">
         <v>40</v>
@@ -16429,7 +16455,7 @@
         <v>400102</v>
       </c>
       <c r="T112" s="12" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -16437,7 +16463,7 @@
         <v>30040003</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E113" s="9">
         <v>40</v>
@@ -16485,7 +16511,7 @@
         <v>400103</v>
       </c>
       <c r="T113" s="12" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="114" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -16493,7 +16519,7 @@
         <v>30040004</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E114" s="9">
         <v>41</v>
@@ -16541,7 +16567,7 @@
         <v>400103</v>
       </c>
       <c r="T114" s="12" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -16549,7 +16575,7 @@
         <v>30040005</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E115" s="9">
         <v>41</v>
@@ -16597,7 +16623,7 @@
         <v>400102</v>
       </c>
       <c r="T115" s="12" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -16605,7 +16631,7 @@
         <v>30040006</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E116" s="9">
         <v>41</v>
@@ -16653,7 +16679,7 @@
         <v>400103</v>
       </c>
       <c r="T116" s="12" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -16661,7 +16687,7 @@
         <v>30040007</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E117" s="9">
         <v>42</v>
@@ -16709,7 +16735,7 @@
         <v>400203</v>
       </c>
       <c r="T117" s="12" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -16717,7 +16743,7 @@
         <v>30040008</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E118" s="9">
         <v>42</v>
@@ -16765,7 +16791,7 @@
         <v>0</v>
       </c>
       <c r="T118" s="12" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -16773,7 +16799,7 @@
         <v>30040009</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E119" s="9">
         <v>42</v>
@@ -16821,7 +16847,7 @@
         <v>0</v>
       </c>
       <c r="T119" s="12" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -16829,7 +16855,7 @@
         <v>30040010</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E120" s="9">
         <v>42</v>
@@ -16877,7 +16903,7 @@
         <v>400301</v>
       </c>
       <c r="T120" s="12" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -16885,7 +16911,7 @@
         <v>30040011</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E121" s="9">
         <v>42</v>
@@ -16933,7 +16959,7 @@
         <v>400302</v>
       </c>
       <c r="T121" s="12" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -16941,7 +16967,7 @@
         <v>30040012</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E122" s="9">
         <v>43</v>
@@ -16989,7 +17015,7 @@
         <v>400301</v>
       </c>
       <c r="T122" s="12" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -16997,7 +17023,7 @@
         <v>30040013</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E123" s="9">
         <v>43</v>
@@ -17045,7 +17071,7 @@
         <v>400302</v>
       </c>
       <c r="T123" s="12" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -17053,7 +17079,7 @@
         <v>30040014</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E124" s="9">
         <v>43</v>
@@ -17101,7 +17127,7 @@
         <v>400303</v>
       </c>
       <c r="T124" s="12" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -17109,7 +17135,7 @@
         <v>30040015</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E125" s="9">
         <v>44</v>
@@ -17157,7 +17183,7 @@
         <v>0</v>
       </c>
       <c r="T125" s="12" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="126" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -17165,7 +17191,7 @@
         <v>30040016</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E126" s="9">
         <v>45</v>
@@ -17213,7 +17239,7 @@
         <v>0</v>
       </c>
       <c r="T126" s="12" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="127" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -17221,7 +17247,7 @@
         <v>30040017</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="E127" s="9">
         <v>45</v>
@@ -17269,7 +17295,7 @@
         <v>400402</v>
       </c>
       <c r="T127" s="12" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="128" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -17277,7 +17303,7 @@
         <v>30040018</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="E128" s="9">
         <v>45</v>
@@ -17325,7 +17351,7 @@
         <v>400403</v>
       </c>
       <c r="T128" s="12" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="129" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -17333,7 +17359,7 @@
         <v>30040019</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E129" s="9">
         <v>45</v>
@@ -17381,7 +17407,7 @@
         <v>400404</v>
       </c>
       <c r="T129" s="12" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="130" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -17389,7 +17415,7 @@
         <v>30040020</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="E130" s="9">
         <v>46</v>
@@ -17437,7 +17463,7 @@
         <v>400402</v>
       </c>
       <c r="T130" s="12" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="131" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -17445,7 +17471,7 @@
         <v>30040021</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E131" s="9">
         <v>46</v>
@@ -17493,7 +17519,7 @@
         <v>400503</v>
       </c>
       <c r="T131" s="12" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -17501,7 +17527,7 @@
         <v>30040022</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E132" s="9">
         <v>46</v>
@@ -17549,7 +17575,7 @@
         <v>0</v>
       </c>
       <c r="T132" s="12" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -17557,7 +17583,7 @@
         <v>30040023</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E133" s="9">
         <v>46</v>
@@ -17605,7 +17631,7 @@
         <v>0</v>
       </c>
       <c r="T133" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -17613,7 +17639,7 @@
         <v>30040024</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E134" s="9">
         <v>46</v>
@@ -17661,7 +17687,7 @@
         <v>400602</v>
       </c>
       <c r="T134" s="12" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -17669,7 +17695,7 @@
         <v>30040025</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E135" s="9">
         <v>46</v>
@@ -17717,7 +17743,7 @@
         <v>400602</v>
       </c>
       <c r="T135" s="12" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -17725,7 +17751,7 @@
         <v>30040026</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E136" s="9">
         <v>46</v>
@@ -17773,7 +17799,7 @@
         <v>400602</v>
       </c>
       <c r="T136" s="12" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="137" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -17781,7 +17807,7 @@
         <v>30040027</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E137" s="9">
         <v>46</v>
@@ -17829,7 +17855,7 @@
         <v>0</v>
       </c>
       <c r="T137" s="12" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="138" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -17837,7 +17863,7 @@
         <v>30040028</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E138" s="9">
         <v>47</v>
@@ -17885,7 +17911,7 @@
         <v>400703</v>
       </c>
       <c r="T138" s="12" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="139" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -17893,7 +17919,7 @@
         <v>30040029</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E139" s="9">
         <v>48</v>
@@ -17941,7 +17967,7 @@
         <v>0</v>
       </c>
       <c r="T139" s="12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="140" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -17949,7 +17975,7 @@
         <v>30040030</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E140" s="9">
         <v>48</v>
@@ -17997,7 +18023,7 @@
         <v>400602</v>
       </c>
       <c r="T140" s="12" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="141" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18005,7 +18031,7 @@
         <v>30040031</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E141" s="9">
         <v>48</v>
@@ -18053,7 +18079,7 @@
         <v>0</v>
       </c>
       <c r="T141" s="12" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="142" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18061,7 +18087,7 @@
         <v>30040032</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E142" s="9">
         <v>49</v>
@@ -18109,7 +18135,7 @@
         <v>400703</v>
       </c>
       <c r="T142" s="12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="143" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18117,7 +18143,7 @@
         <v>30040033</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E143" s="9">
         <v>50</v>
@@ -18165,7 +18191,7 @@
         <v>0</v>
       </c>
       <c r="T143" s="12" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="144" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18173,7 +18199,7 @@
         <v>30050001</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E144" s="9">
         <v>50</v>
@@ -18221,7 +18247,7 @@
         <v>0</v>
       </c>
       <c r="T144" s="12" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="145" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18229,7 +18255,7 @@
         <v>30050002</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E145" s="9">
         <v>50</v>
@@ -18277,7 +18303,7 @@
         <v>500103</v>
       </c>
       <c r="T145" s="12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="146" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18285,7 +18311,7 @@
         <v>30050003</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E146" s="9">
         <v>50</v>
@@ -18333,7 +18359,7 @@
         <v>500104</v>
       </c>
       <c r="T146" s="12" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="147" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18341,7 +18367,7 @@
         <v>30050004</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E147" s="9">
         <v>50</v>
@@ -18389,7 +18415,7 @@
         <v>500103</v>
       </c>
       <c r="T147" s="12" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="148" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18397,7 +18423,7 @@
         <v>30050005</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E148" s="9">
         <v>50</v>
@@ -18445,7 +18471,7 @@
         <v>500104</v>
       </c>
       <c r="T148" s="12" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="149" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18453,7 +18479,7 @@
         <v>30050006</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E149" s="9">
         <v>51</v>
@@ -18501,7 +18527,7 @@
         <v>500204</v>
       </c>
       <c r="T149" s="12" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="150" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18509,7 +18535,7 @@
         <v>30050007</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E150" s="9">
         <v>52</v>
@@ -18557,7 +18583,7 @@
         <v>0</v>
       </c>
       <c r="T150" s="12" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="151" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18565,7 +18591,7 @@
         <v>30050008</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E151" s="9">
         <v>52</v>
@@ -18613,7 +18639,7 @@
         <v>0</v>
       </c>
       <c r="T151" s="12" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="152" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18621,7 +18647,7 @@
         <v>30050009</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E152" s="9">
         <v>52</v>
@@ -18669,7 +18695,7 @@
         <v>0</v>
       </c>
       <c r="T152" s="12" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="153" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18677,7 +18703,7 @@
         <v>30050010</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E153" s="9">
         <v>52</v>
@@ -18725,7 +18751,7 @@
         <v>0</v>
       </c>
       <c r="T153" s="12" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="154" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18733,7 +18759,7 @@
         <v>30050011</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E154" s="9">
         <v>52</v>
@@ -18781,7 +18807,7 @@
         <v>500203</v>
       </c>
       <c r="T154" s="12" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="155" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18789,7 +18815,7 @@
         <v>30050012</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>161</v>
+        <v>352</v>
       </c>
       <c r="E155" s="9">
         <v>53</v>
@@ -18837,7 +18863,7 @@
         <v>500303</v>
       </c>
       <c r="T155" s="12" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="156" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18845,7 +18871,7 @@
         <v>30050013</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E156" s="9">
         <v>54</v>
@@ -18893,7 +18919,7 @@
         <v>0</v>
       </c>
       <c r="T156" s="12" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="157" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18901,7 +18927,7 @@
         <v>30050014</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E157" s="9">
         <v>54</v>
@@ -18949,7 +18975,7 @@
         <v>0</v>
       </c>
       <c r="T157" s="12" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="158" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -18957,7 +18983,7 @@
         <v>30050015</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E158" s="9">
         <v>54</v>
@@ -19005,7 +19031,7 @@
         <v>0</v>
       </c>
       <c r="T158" s="12" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="159" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -19013,7 +19039,7 @@
         <v>30050016</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="E159" s="9">
         <v>54</v>
@@ -19061,7 +19087,7 @@
         <v>0</v>
       </c>
       <c r="T159" s="12" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="160" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -19069,7 +19095,7 @@
         <v>30050017</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="E160" s="9">
         <v>54</v>
@@ -19117,7 +19143,7 @@
         <v>0</v>
       </c>
       <c r="T160" s="12" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="161" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -19125,7 +19151,7 @@
         <v>30050018</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E161" s="9">
         <v>55</v>
@@ -19173,7 +19199,7 @@
         <v>0</v>
       </c>
       <c r="T161" s="12" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="162" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -19181,7 +19207,7 @@
         <v>30050019</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E162" s="9">
         <v>56</v>
@@ -19229,7 +19255,7 @@
         <v>0</v>
       </c>
       <c r="T162" s="12" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="163" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -19237,7 +19263,7 @@
         <v>30050020</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>165</v>
+        <v>351</v>
       </c>
       <c r="E163" s="9">
         <v>57</v>
@@ -19285,7 +19311,7 @@
         <v>500601</v>
       </c>
       <c r="T163" s="12" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="164" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -19293,7 +19319,7 @@
         <v>30050021</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E164" s="9">
         <v>58</v>
@@ -19341,7 +19367,7 @@
         <v>0</v>
       </c>
       <c r="T164" s="12" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="165" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -19349,7 +19375,7 @@
         <v>30050022</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E165" s="9">
         <v>60</v>
@@ -19397,7 +19423,7 @@
         <v>500701</v>
       </c>
       <c r="T165" s="12" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="166" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454732E0-5046-403E-AD86-17E107E2DA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6392346-73E8-4D08-BD41-46443B796A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="357">
   <si>
     <t>TaskLv</t>
   </si>
@@ -1795,6 +1795,22 @@
   </si>
   <si>
     <t>通缉:守护领主-烈风</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>赏金任务猎打败狼崽</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>赏金任务收获狼皮</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
 </sst>
@@ -10274,11 +10290,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T170"/>
+  <dimension ref="A1:T181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D149" sqref="D149"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E188" sqref="E188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19426,11 +19442,902 @@
         <v>321</v>
       </c>
     </row>
-    <row r="166" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C166" s="9">
+        <v>30050023</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E166" s="10">
+        <v>1</v>
+      </c>
+      <c r="F166" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G166" s="13">
+        <v>0</v>
+      </c>
+      <c r="H166" s="9">
+        <v>2</v>
+      </c>
+      <c r="I166" s="9">
+        <v>0</v>
+      </c>
+      <c r="J166" s="10">
+        <v>75</v>
+      </c>
+      <c r="K166" s="10">
+        <v>50</v>
+      </c>
+      <c r="L166" s="9">
+        <v>10010001</v>
+      </c>
+      <c r="M166" s="9">
+        <v>5</v>
+      </c>
+      <c r="N166" s="11">
+        <v>0</v>
+      </c>
+      <c r="O166" s="9">
+        <v>0</v>
+      </c>
+      <c r="P166" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q166" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="R166" s="10">
+        <v>5</v>
+      </c>
+      <c r="S166" s="14">
+        <v>0</v>
+      </c>
+      <c r="T166" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C167" s="9">
+        <v>30050024</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E167" s="10">
+        <v>1</v>
+      </c>
+      <c r="F167" s="9">
+        <v>3</v>
+      </c>
+      <c r="G167" s="13">
+        <v>0</v>
+      </c>
+      <c r="H167" s="9">
+        <v>2</v>
+      </c>
+      <c r="I167" s="9">
+        <v>0</v>
+      </c>
+      <c r="J167" s="10">
+        <v>75</v>
+      </c>
+      <c r="K167" s="10">
+        <v>50</v>
+      </c>
+      <c r="L167" s="9">
+        <v>14080001</v>
+      </c>
+      <c r="M167" s="9">
+        <v>1</v>
+      </c>
+      <c r="N167" s="11">
+        <v>0</v>
+      </c>
+      <c r="O167" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="P167" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q167" s="9">
+        <v>10021001</v>
+      </c>
+      <c r="R167" s="10">
+        <v>3</v>
+      </c>
+      <c r="S167" s="14">
+        <v>0</v>
+      </c>
+      <c r="T167" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C168" s="9">
+        <v>30050025</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E168" s="10">
+        <v>1</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G168" s="13">
+        <v>0</v>
+      </c>
+      <c r="H168" s="9">
+        <v>2</v>
+      </c>
+      <c r="I168" s="9">
+        <v>0</v>
+      </c>
+      <c r="J168" s="10">
+        <v>75</v>
+      </c>
+      <c r="K168" s="10">
+        <v>50</v>
+      </c>
+      <c r="L168" s="9">
+        <v>10010001</v>
+      </c>
+      <c r="M168" s="9">
+        <v>5</v>
+      </c>
+      <c r="N168" s="11">
+        <v>0</v>
+      </c>
+      <c r="O168" s="9">
+        <v>0</v>
+      </c>
+      <c r="P168" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q168" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="R168" s="10">
+        <v>5</v>
+      </c>
+      <c r="S168" s="14">
+        <v>0</v>
+      </c>
+      <c r="T168" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C169" s="9">
+        <v>30050026</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E169" s="10">
+        <v>1</v>
+      </c>
+      <c r="F169" s="9">
+        <v>3</v>
+      </c>
+      <c r="G169" s="13">
+        <v>0</v>
+      </c>
+      <c r="H169" s="9">
+        <v>2</v>
+      </c>
+      <c r="I169" s="9">
+        <v>0</v>
+      </c>
+      <c r="J169" s="10">
+        <v>75</v>
+      </c>
+      <c r="K169" s="10">
+        <v>50</v>
+      </c>
+      <c r="L169" s="9">
+        <v>14080001</v>
+      </c>
+      <c r="M169" s="9">
+        <v>1</v>
+      </c>
+      <c r="N169" s="11">
+        <v>0</v>
+      </c>
+      <c r="O169" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="P169" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q169" s="9">
+        <v>10021001</v>
+      </c>
+      <c r="R169" s="10">
+        <v>3</v>
+      </c>
+      <c r="S169" s="14">
+        <v>0</v>
+      </c>
+      <c r="T169" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C170" s="9">
+        <v>30050027</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E170" s="10">
+        <v>1</v>
+      </c>
+      <c r="F170" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G170" s="13">
+        <v>0</v>
+      </c>
+      <c r="H170" s="9">
+        <v>2</v>
+      </c>
+      <c r="I170" s="9">
+        <v>0</v>
+      </c>
+      <c r="J170" s="10">
+        <v>75</v>
+      </c>
+      <c r="K170" s="10">
+        <v>50</v>
+      </c>
+      <c r="L170" s="9">
+        <v>10010001</v>
+      </c>
+      <c r="M170" s="9">
+        <v>5</v>
+      </c>
+      <c r="N170" s="11">
+        <v>0</v>
+      </c>
+      <c r="O170" s="9">
+        <v>0</v>
+      </c>
+      <c r="P170" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q170" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="R170" s="10">
+        <v>5</v>
+      </c>
+      <c r="S170" s="14">
+        <v>0</v>
+      </c>
+      <c r="T170" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="171" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C171" s="9">
+        <v>30050028</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E171" s="10">
+        <v>1</v>
+      </c>
+      <c r="F171" s="9">
+        <v>3</v>
+      </c>
+      <c r="G171" s="13">
+        <v>0</v>
+      </c>
+      <c r="H171" s="9">
+        <v>2</v>
+      </c>
+      <c r="I171" s="9">
+        <v>0</v>
+      </c>
+      <c r="J171" s="10">
+        <v>75</v>
+      </c>
+      <c r="K171" s="10">
+        <v>50</v>
+      </c>
+      <c r="L171" s="9">
+        <v>14080001</v>
+      </c>
+      <c r="M171" s="9">
+        <v>1</v>
+      </c>
+      <c r="N171" s="11">
+        <v>0</v>
+      </c>
+      <c r="O171" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="P171" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q171" s="9">
+        <v>10021001</v>
+      </c>
+      <c r="R171" s="10">
+        <v>3</v>
+      </c>
+      <c r="S171" s="14">
+        <v>0</v>
+      </c>
+      <c r="T171" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="172" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C172" s="9">
+        <v>30050029</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E172" s="10">
+        <v>1</v>
+      </c>
+      <c r="F172" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G172" s="13">
+        <v>0</v>
+      </c>
+      <c r="H172" s="9">
+        <v>2</v>
+      </c>
+      <c r="I172" s="9">
+        <v>0</v>
+      </c>
+      <c r="J172" s="10">
+        <v>75</v>
+      </c>
+      <c r="K172" s="10">
+        <v>50</v>
+      </c>
+      <c r="L172" s="9">
+        <v>10010001</v>
+      </c>
+      <c r="M172" s="9">
+        <v>5</v>
+      </c>
+      <c r="N172" s="11">
+        <v>0</v>
+      </c>
+      <c r="O172" s="9">
+        <v>0</v>
+      </c>
+      <c r="P172" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q172" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="R172" s="10">
+        <v>5</v>
+      </c>
+      <c r="S172" s="14">
+        <v>0</v>
+      </c>
+      <c r="T172" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="173" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C173" s="9">
+        <v>30050030</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E173" s="10">
+        <v>1</v>
+      </c>
+      <c r="F173" s="9">
+        <v>3</v>
+      </c>
+      <c r="G173" s="13">
+        <v>0</v>
+      </c>
+      <c r="H173" s="9">
+        <v>2</v>
+      </c>
+      <c r="I173" s="9">
+        <v>0</v>
+      </c>
+      <c r="J173" s="10">
+        <v>75</v>
+      </c>
+      <c r="K173" s="10">
+        <v>50</v>
+      </c>
+      <c r="L173" s="9">
+        <v>14080001</v>
+      </c>
+      <c r="M173" s="9">
+        <v>1</v>
+      </c>
+      <c r="N173" s="11">
+        <v>0</v>
+      </c>
+      <c r="O173" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="P173" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q173" s="9">
+        <v>10021001</v>
+      </c>
+      <c r="R173" s="10">
+        <v>3</v>
+      </c>
+      <c r="S173" s="14">
+        <v>0</v>
+      </c>
+      <c r="T173" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="174" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C174" s="9">
+        <v>30050031</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E174" s="10">
+        <v>1</v>
+      </c>
+      <c r="F174" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G174" s="13">
+        <v>0</v>
+      </c>
+      <c r="H174" s="9">
+        <v>2</v>
+      </c>
+      <c r="I174" s="9">
+        <v>0</v>
+      </c>
+      <c r="J174" s="10">
+        <v>75</v>
+      </c>
+      <c r="K174" s="10">
+        <v>50</v>
+      </c>
+      <c r="L174" s="9">
+        <v>10010001</v>
+      </c>
+      <c r="M174" s="9">
+        <v>5</v>
+      </c>
+      <c r="N174" s="11">
+        <v>0</v>
+      </c>
+      <c r="O174" s="9">
+        <v>0</v>
+      </c>
+      <c r="P174" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q174" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="R174" s="10">
+        <v>5</v>
+      </c>
+      <c r="S174" s="14">
+        <v>0</v>
+      </c>
+      <c r="T174" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="175" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C175" s="9">
+        <v>30050032</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E175" s="10">
+        <v>1</v>
+      </c>
+      <c r="F175" s="9">
+        <v>3</v>
+      </c>
+      <c r="G175" s="13">
+        <v>0</v>
+      </c>
+      <c r="H175" s="9">
+        <v>2</v>
+      </c>
+      <c r="I175" s="9">
+        <v>0</v>
+      </c>
+      <c r="J175" s="10">
+        <v>75</v>
+      </c>
+      <c r="K175" s="10">
+        <v>50</v>
+      </c>
+      <c r="L175" s="9">
+        <v>14080001</v>
+      </c>
+      <c r="M175" s="9">
+        <v>1</v>
+      </c>
+      <c r="N175" s="11">
+        <v>0</v>
+      </c>
+      <c r="O175" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="P175" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q175" s="9">
+        <v>10021001</v>
+      </c>
+      <c r="R175" s="10">
+        <v>3</v>
+      </c>
+      <c r="S175" s="14">
+        <v>0</v>
+      </c>
+      <c r="T175" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="176" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C176" s="9">
+        <v>30050033</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E176" s="10">
+        <v>1</v>
+      </c>
+      <c r="F176" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G176" s="13">
+        <v>0</v>
+      </c>
+      <c r="H176" s="9">
+        <v>2</v>
+      </c>
+      <c r="I176" s="9">
+        <v>0</v>
+      </c>
+      <c r="J176" s="10">
+        <v>75</v>
+      </c>
+      <c r="K176" s="10">
+        <v>50</v>
+      </c>
+      <c r="L176" s="9">
+        <v>10010001</v>
+      </c>
+      <c r="M176" s="9">
+        <v>5</v>
+      </c>
+      <c r="N176" s="11">
+        <v>0</v>
+      </c>
+      <c r="O176" s="9">
+        <v>0</v>
+      </c>
+      <c r="P176" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q176" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="R176" s="10">
+        <v>5</v>
+      </c>
+      <c r="S176" s="14">
+        <v>0</v>
+      </c>
+      <c r="T176" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="177" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C177" s="9">
+        <v>30050034</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E177" s="10">
+        <v>1</v>
+      </c>
+      <c r="F177" s="9">
+        <v>3</v>
+      </c>
+      <c r="G177" s="13">
+        <v>0</v>
+      </c>
+      <c r="H177" s="9">
+        <v>2</v>
+      </c>
+      <c r="I177" s="9">
+        <v>0</v>
+      </c>
+      <c r="J177" s="10">
+        <v>75</v>
+      </c>
+      <c r="K177" s="10">
+        <v>50</v>
+      </c>
+      <c r="L177" s="9">
+        <v>14080001</v>
+      </c>
+      <c r="M177" s="9">
+        <v>1</v>
+      </c>
+      <c r="N177" s="11">
+        <v>0</v>
+      </c>
+      <c r="O177" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="P177" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q177" s="9">
+        <v>10021001</v>
+      </c>
+      <c r="R177" s="10">
+        <v>3</v>
+      </c>
+      <c r="S177" s="14">
+        <v>0</v>
+      </c>
+      <c r="T177" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="178" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C178" s="9">
+        <v>30050035</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E178" s="10">
+        <v>1</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G178" s="13">
+        <v>0</v>
+      </c>
+      <c r="H178" s="9">
+        <v>2</v>
+      </c>
+      <c r="I178" s="9">
+        <v>0</v>
+      </c>
+      <c r="J178" s="10">
+        <v>75</v>
+      </c>
+      <c r="K178" s="10">
+        <v>50</v>
+      </c>
+      <c r="L178" s="9">
+        <v>10010001</v>
+      </c>
+      <c r="M178" s="9">
+        <v>5</v>
+      </c>
+      <c r="N178" s="11">
+        <v>0</v>
+      </c>
+      <c r="O178" s="9">
+        <v>0</v>
+      </c>
+      <c r="P178" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q178" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="R178" s="10">
+        <v>5</v>
+      </c>
+      <c r="S178" s="14">
+        <v>0</v>
+      </c>
+      <c r="T178" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="179" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C179" s="9">
+        <v>30050036</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E179" s="10">
+        <v>1</v>
+      </c>
+      <c r="F179" s="9">
+        <v>3</v>
+      </c>
+      <c r="G179" s="13">
+        <v>0</v>
+      </c>
+      <c r="H179" s="9">
+        <v>2</v>
+      </c>
+      <c r="I179" s="9">
+        <v>0</v>
+      </c>
+      <c r="J179" s="10">
+        <v>75</v>
+      </c>
+      <c r="K179" s="10">
+        <v>50</v>
+      </c>
+      <c r="L179" s="9">
+        <v>14080001</v>
+      </c>
+      <c r="M179" s="9">
+        <v>1</v>
+      </c>
+      <c r="N179" s="11">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="P179" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q179" s="9">
+        <v>10021001</v>
+      </c>
+      <c r="R179" s="10">
+        <v>3</v>
+      </c>
+      <c r="S179" s="14">
+        <v>0</v>
+      </c>
+      <c r="T179" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="180" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C180" s="9">
+        <v>30050037</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E180" s="10">
+        <v>1</v>
+      </c>
+      <c r="F180" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="G180" s="13">
+        <v>0</v>
+      </c>
+      <c r="H180" s="9">
+        <v>2</v>
+      </c>
+      <c r="I180" s="9">
+        <v>0</v>
+      </c>
+      <c r="J180" s="10">
+        <v>75</v>
+      </c>
+      <c r="K180" s="10">
+        <v>50</v>
+      </c>
+      <c r="L180" s="9">
+        <v>10010001</v>
+      </c>
+      <c r="M180" s="9">
+        <v>5</v>
+      </c>
+      <c r="N180" s="11">
+        <v>0</v>
+      </c>
+      <c r="O180" s="9">
+        <v>0</v>
+      </c>
+      <c r="P180" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q180" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="R180" s="10">
+        <v>5</v>
+      </c>
+      <c r="S180" s="14">
+        <v>0</v>
+      </c>
+      <c r="T180" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="181" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C181" s="9">
+        <v>30050038</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E181" s="10">
+        <v>1</v>
+      </c>
+      <c r="F181" s="9">
+        <v>3</v>
+      </c>
+      <c r="G181" s="13">
+        <v>0</v>
+      </c>
+      <c r="H181" s="9">
+        <v>2</v>
+      </c>
+      <c r="I181" s="9">
+        <v>0</v>
+      </c>
+      <c r="J181" s="10">
+        <v>75</v>
+      </c>
+      <c r="K181" s="10">
+        <v>50</v>
+      </c>
+      <c r="L181" s="9">
+        <v>14080001</v>
+      </c>
+      <c r="M181" s="9">
+        <v>1</v>
+      </c>
+      <c r="N181" s="11">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="P181" s="10">
+        <v>2</v>
+      </c>
+      <c r="Q181" s="9">
+        <v>10021001</v>
+      </c>
+      <c r="R181" s="10">
+        <v>3</v>
+      </c>
+      <c r="S181" s="14">
+        <v>0</v>
+      </c>
+      <c r="T181" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6392346-73E8-4D08-BD41-46443B796A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4683DD31-3CC5-445E-AA2A-BB5E333709B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10293,8 +10293,8 @@
   <dimension ref="A1:T181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E188" sqref="E188"/>
+      <pane ySplit="5" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I187" sqref="I187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19459,7 +19459,7 @@
         <v>0</v>
       </c>
       <c r="H166" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" s="9">
         <v>0</v>
@@ -19515,7 +19515,7 @@
         <v>0</v>
       </c>
       <c r="H167" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" s="9">
         <v>0</v>
@@ -19571,7 +19571,7 @@
         <v>0</v>
       </c>
       <c r="H168" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" s="9">
         <v>0</v>
@@ -19627,7 +19627,7 @@
         <v>0</v>
       </c>
       <c r="H169" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" s="9">
         <v>0</v>
@@ -19683,7 +19683,7 @@
         <v>0</v>
       </c>
       <c r="H170" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" s="9">
         <v>0</v>
@@ -19739,7 +19739,7 @@
         <v>0</v>
       </c>
       <c r="H171" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" s="9">
         <v>0</v>
@@ -19795,7 +19795,7 @@
         <v>0</v>
       </c>
       <c r="H172" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" s="9">
         <v>0</v>
@@ -19851,7 +19851,7 @@
         <v>0</v>
       </c>
       <c r="H173" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" s="9">
         <v>0</v>
@@ -19907,7 +19907,7 @@
         <v>0</v>
       </c>
       <c r="H174" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" s="9">
         <v>0</v>
@@ -19963,7 +19963,7 @@
         <v>0</v>
       </c>
       <c r="H175" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" s="9">
         <v>0</v>
@@ -20019,7 +20019,7 @@
         <v>0</v>
       </c>
       <c r="H176" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" s="9">
         <v>0</v>
@@ -20075,7 +20075,7 @@
         <v>0</v>
       </c>
       <c r="H177" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" s="9">
         <v>0</v>
@@ -20131,7 +20131,7 @@
         <v>0</v>
       </c>
       <c r="H178" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" s="9">
         <v>0</v>
@@ -20187,7 +20187,7 @@
         <v>0</v>
       </c>
       <c r="H179" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" s="9">
         <v>0</v>
@@ -20243,7 +20243,7 @@
         <v>0</v>
       </c>
       <c r="H180" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" s="9">
         <v>0</v>
@@ -20299,7 +20299,7 @@
         <v>0</v>
       </c>
       <c r="H181" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" s="9">
         <v>0</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4683DD31-3CC5-445E-AA2A-BB5E333709B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6DFD7C-C56D-4633-8994-DDC959E02DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="356">
   <si>
     <t>TaskLv</t>
   </si>
@@ -1799,10 +1799,6 @@
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
@@ -10292,9 +10288,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I187" sqref="I187"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O184" sqref="O184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19447,7 +19443,7 @@
         <v>30050023</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E166" s="10">
         <v>1</v>
@@ -19480,7 +19476,7 @@
         <v>0</v>
       </c>
       <c r="O166" s="9">
-        <v>0</v>
+        <v>20000024</v>
       </c>
       <c r="P166" s="10">
         <v>1</v>
@@ -19503,7 +19499,7 @@
         <v>30050024</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E167" s="10">
         <v>1</v>
@@ -19535,8 +19531,8 @@
       <c r="N167" s="11">
         <v>0</v>
       </c>
-      <c r="O167" s="10" t="s">
-        <v>354</v>
+      <c r="O167" s="9">
+        <v>20000024</v>
       </c>
       <c r="P167" s="10">
         <v>2</v>
@@ -19559,7 +19555,7 @@
         <v>30050025</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E168" s="10">
         <v>1</v>
@@ -19592,7 +19588,7 @@
         <v>0</v>
       </c>
       <c r="O168" s="9">
-        <v>0</v>
+        <v>20000024</v>
       </c>
       <c r="P168" s="10">
         <v>1</v>
@@ -19615,7 +19611,7 @@
         <v>30050026</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E169" s="10">
         <v>1</v>
@@ -19647,8 +19643,8 @@
       <c r="N169" s="11">
         <v>0</v>
       </c>
-      <c r="O169" s="10" t="s">
-        <v>354</v>
+      <c r="O169" s="9">
+        <v>20000024</v>
       </c>
       <c r="P169" s="10">
         <v>2</v>
@@ -19671,7 +19667,7 @@
         <v>30050027</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E170" s="10">
         <v>1</v>
@@ -19704,7 +19700,7 @@
         <v>0</v>
       </c>
       <c r="O170" s="9">
-        <v>0</v>
+        <v>20000024</v>
       </c>
       <c r="P170" s="10">
         <v>1</v>
@@ -19727,7 +19723,7 @@
         <v>30050028</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E171" s="10">
         <v>1</v>
@@ -19759,8 +19755,8 @@
       <c r="N171" s="11">
         <v>0</v>
       </c>
-      <c r="O171" s="10" t="s">
-        <v>354</v>
+      <c r="O171" s="9">
+        <v>20000024</v>
       </c>
       <c r="P171" s="10">
         <v>2</v>
@@ -19783,7 +19779,7 @@
         <v>30050029</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E172" s="10">
         <v>1</v>
@@ -19816,7 +19812,7 @@
         <v>0</v>
       </c>
       <c r="O172" s="9">
-        <v>0</v>
+        <v>20000024</v>
       </c>
       <c r="P172" s="10">
         <v>1</v>
@@ -19839,7 +19835,7 @@
         <v>30050030</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E173" s="10">
         <v>1</v>
@@ -19871,8 +19867,8 @@
       <c r="N173" s="11">
         <v>0</v>
       </c>
-      <c r="O173" s="10" t="s">
-        <v>354</v>
+      <c r="O173" s="9">
+        <v>20000024</v>
       </c>
       <c r="P173" s="10">
         <v>2</v>
@@ -19895,7 +19891,7 @@
         <v>30050031</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E174" s="10">
         <v>1</v>
@@ -19928,7 +19924,7 @@
         <v>0</v>
       </c>
       <c r="O174" s="9">
-        <v>0</v>
+        <v>20000024</v>
       </c>
       <c r="P174" s="10">
         <v>1</v>
@@ -19951,7 +19947,7 @@
         <v>30050032</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E175" s="10">
         <v>1</v>
@@ -19983,8 +19979,8 @@
       <c r="N175" s="11">
         <v>0</v>
       </c>
-      <c r="O175" s="10" t="s">
-        <v>354</v>
+      <c r="O175" s="9">
+        <v>20000024</v>
       </c>
       <c r="P175" s="10">
         <v>2</v>
@@ -20007,7 +20003,7 @@
         <v>30050033</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E176" s="10">
         <v>1</v>
@@ -20040,7 +20036,7 @@
         <v>0</v>
       </c>
       <c r="O176" s="9">
-        <v>0</v>
+        <v>20000024</v>
       </c>
       <c r="P176" s="10">
         <v>1</v>
@@ -20063,7 +20059,7 @@
         <v>30050034</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E177" s="10">
         <v>1</v>
@@ -20095,8 +20091,8 @@
       <c r="N177" s="11">
         <v>0</v>
       </c>
-      <c r="O177" s="10" t="s">
-        <v>354</v>
+      <c r="O177" s="9">
+        <v>20000024</v>
       </c>
       <c r="P177" s="10">
         <v>2</v>
@@ -20119,7 +20115,7 @@
         <v>30050035</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E178" s="10">
         <v>1</v>
@@ -20152,7 +20148,7 @@
         <v>0</v>
       </c>
       <c r="O178" s="9">
-        <v>0</v>
+        <v>20000024</v>
       </c>
       <c r="P178" s="10">
         <v>1</v>
@@ -20175,7 +20171,7 @@
         <v>30050036</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E179" s="10">
         <v>1</v>
@@ -20207,8 +20203,8 @@
       <c r="N179" s="11">
         <v>0</v>
       </c>
-      <c r="O179" s="10" t="s">
-        <v>354</v>
+      <c r="O179" s="9">
+        <v>20000024</v>
       </c>
       <c r="P179" s="10">
         <v>2</v>
@@ -20231,7 +20227,7 @@
         <v>30050037</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E180" s="10">
         <v>1</v>
@@ -20264,7 +20260,7 @@
         <v>0</v>
       </c>
       <c r="O180" s="9">
-        <v>0</v>
+        <v>20000024</v>
       </c>
       <c r="P180" s="10">
         <v>1</v>
@@ -20287,7 +20283,7 @@
         <v>30050038</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E181" s="10">
         <v>1</v>
@@ -20319,8 +20315,8 @@
       <c r="N181" s="11">
         <v>0</v>
       </c>
-      <c r="O181" s="10" t="s">
-        <v>354</v>
+      <c r="O181" s="9">
+        <v>20000024</v>
       </c>
       <c r="P181" s="10">
         <v>2</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093D412C-22B6-4F8E-84B7-AA8884D083A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36112FFC-DCAD-409E-9B60-C61C86C33AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="1335" windowWidth="27045" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="383">
   <si>
     <t>TaskLv</t>
   </si>
@@ -1860,18 +1860,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>30</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -1901,6 +1889,29 @@
   </si>
   <si>
     <t>49</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>赏金:挑战狩猎</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>赏金:极度狩猎</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -10445,9 +10456,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U395"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A390" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F394" sqref="F394"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D192" sqref="D192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10478,7 +10489,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>9</v>
@@ -10537,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>34</v>
@@ -10596,7 +10607,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>22</v>
@@ -10655,7 +10666,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
@@ -10714,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G7" s="10">
         <v>1</v>
@@ -10773,7 +10784,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G8" s="9">
         <v>2</v>
@@ -10832,7 +10843,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G9" s="10">
         <v>1</v>
@@ -10891,7 +10902,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G10" s="10">
         <v>1</v>
@@ -10950,7 +10961,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G11" s="9">
         <v>1</v>
@@ -11009,7 +11020,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
@@ -11068,7 +11079,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G13" s="9">
         <v>1</v>
@@ -11127,7 +11138,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G14" s="9">
         <v>1</v>
@@ -11186,7 +11197,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G15" s="9">
         <v>1</v>
@@ -11245,7 +11256,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G16" s="9">
         <v>2</v>
@@ -11304,7 +11315,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G17" s="9">
         <v>1</v>
@@ -11363,7 +11374,7 @@
         <v>3</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G18" s="9">
         <v>1</v>
@@ -11422,7 +11433,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G19" s="9">
         <v>1</v>
@@ -11481,7 +11492,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G20" s="9">
         <v>1</v>
@@ -11540,7 +11551,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G21" s="9">
         <v>1</v>
@@ -11599,7 +11610,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G22" s="9">
         <v>1</v>
@@ -11658,7 +11669,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G23" s="9">
         <v>1</v>
@@ -11717,7 +11728,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G24" s="9">
         <v>1</v>
@@ -11776,7 +11787,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G25" s="9">
         <v>1</v>
@@ -11835,7 +11846,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G26" s="9">
         <v>1</v>
@@ -11894,7 +11905,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G27" s="9">
         <v>1</v>
@@ -11953,7 +11964,7 @@
         <v>6</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G28" s="9">
         <v>1</v>
@@ -12012,7 +12023,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G29" s="9">
         <v>1</v>
@@ -12071,7 +12082,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G30" s="9">
         <v>1</v>
@@ -12130,7 +12141,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G31" s="9">
         <v>1</v>
@@ -12189,7 +12200,7 @@
         <v>8</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G32" s="9">
         <v>1</v>
@@ -12248,7 +12259,7 @@
         <v>9</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G33" s="9">
         <v>1</v>
@@ -12307,7 +12318,7 @@
         <v>10</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G34" s="9">
         <v>1</v>
@@ -12366,7 +12377,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G35" s="9">
         <v>1</v>
@@ -12425,7 +12436,7 @@
         <v>12</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G36" s="9">
         <v>1</v>
@@ -12484,7 +12495,7 @@
         <v>12</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G37" s="9">
         <v>1</v>
@@ -12543,7 +12554,7 @@
         <v>13</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G38" s="9">
         <v>1</v>
@@ -12602,7 +12613,7 @@
         <v>13</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G39" s="9">
         <v>1</v>
@@ -12661,7 +12672,7 @@
         <v>13</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G40" s="9">
         <v>1</v>
@@ -12720,7 +12731,7 @@
         <v>14</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G41" s="9">
         <v>1</v>
@@ -12779,7 +12790,7 @@
         <v>14</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G42" s="9">
         <v>1</v>
@@ -12838,7 +12849,7 @@
         <v>14</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G43" s="9">
         <v>1</v>
@@ -12897,7 +12908,7 @@
         <v>15</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G44" s="9">
         <v>1</v>
@@ -12956,7 +12967,7 @@
         <v>15</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G45" s="9">
         <v>1</v>
@@ -13015,7 +13026,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G46" s="9">
         <v>1</v>
@@ -13074,7 +13085,7 @@
         <v>15</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G47" s="9">
         <v>1</v>
@@ -13133,7 +13144,7 @@
         <v>16</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G48" s="9">
         <v>1</v>
@@ -13192,7 +13203,7 @@
         <v>18</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G49" s="9">
         <v>1</v>
@@ -13251,7 +13262,7 @@
         <v>19</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G50" s="9">
         <v>1</v>
@@ -13310,7 +13321,7 @@
         <v>19</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G51" s="9">
         <v>1</v>
@@ -13369,7 +13380,7 @@
         <v>20</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G52" s="9">
         <v>1</v>
@@ -13428,7 +13439,7 @@
         <v>20</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G53" s="9">
         <v>1</v>
@@ -13487,7 +13498,7 @@
         <v>22</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G54" s="9">
         <v>1</v>
@@ -13546,7 +13557,7 @@
         <v>22</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G55" s="9">
         <v>1</v>
@@ -13605,7 +13616,7 @@
         <v>22</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G56" s="9">
         <v>1</v>
@@ -13664,7 +13675,7 @@
         <v>22</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G57" s="9">
         <v>1</v>
@@ -13723,7 +13734,7 @@
         <v>23</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G58" s="9">
         <v>1</v>
@@ -13782,7 +13793,7 @@
         <v>23</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G59" s="9">
         <v>1</v>
@@ -13841,7 +13852,7 @@
         <v>23</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G60" s="9">
         <v>1</v>
@@ -13900,7 +13911,7 @@
         <v>23</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G61" s="9">
         <v>1</v>
@@ -13959,7 +13970,7 @@
         <v>23</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G62" s="9">
         <v>1</v>
@@ -14018,7 +14029,7 @@
         <v>24</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G63" s="9">
         <v>1</v>
@@ -14077,7 +14088,7 @@
         <v>24</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G64" s="9">
         <v>1</v>
@@ -14136,7 +14147,7 @@
         <v>24</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G65" s="9">
         <v>1</v>
@@ -14195,7 +14206,7 @@
         <v>25</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G66" s="9">
         <v>1</v>
@@ -14254,7 +14265,7 @@
         <v>25</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G67" s="9">
         <v>1</v>
@@ -14313,7 +14324,7 @@
         <v>25</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G68" s="9">
         <v>1</v>
@@ -14372,7 +14383,7 @@
         <v>26</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G69" s="9">
         <v>1</v>
@@ -14431,7 +14442,7 @@
         <v>27</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G70" s="9">
         <v>1</v>
@@ -14490,7 +14501,7 @@
         <v>28</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G71" s="9">
         <v>1</v>
@@ -14549,7 +14560,7 @@
         <v>30</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G72" s="9">
         <v>1</v>
@@ -14608,7 +14619,7 @@
         <v>30</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G73" s="9">
         <v>1</v>
@@ -14667,7 +14678,7 @@
         <v>30</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G74" s="9">
         <v>1</v>
@@ -14726,7 +14737,7 @@
         <v>30</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G75" s="9">
         <v>1</v>
@@ -14785,7 +14796,7 @@
         <v>31</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G76" s="9">
         <v>1</v>
@@ -14844,7 +14855,7 @@
         <v>31</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G77" s="9">
         <v>1</v>
@@ -14903,7 +14914,7 @@
         <v>32</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G78" s="9">
         <v>1</v>
@@ -14962,7 +14973,7 @@
         <v>32</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G79" s="9">
         <v>1</v>
@@ -15021,7 +15032,7 @@
         <v>33</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G80" s="9">
         <v>1</v>
@@ -15080,7 +15091,7 @@
         <v>33</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G81" s="9">
         <v>1</v>
@@ -15139,7 +15150,7 @@
         <v>33</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G82" s="9">
         <v>1</v>
@@ -15198,7 +15209,7 @@
         <v>33</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G83" s="9">
         <v>1</v>
@@ -15257,7 +15268,7 @@
         <v>33</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G84" s="9">
         <v>1</v>
@@ -15316,7 +15327,7 @@
         <v>33</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G85" s="9">
         <v>1</v>
@@ -15375,7 +15386,7 @@
         <v>34</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G86" s="9">
         <v>1</v>
@@ -15434,7 +15445,7 @@
         <v>34</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G87" s="9">
         <v>1</v>
@@ -15493,7 +15504,7 @@
         <v>34</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G88" s="9">
         <v>1</v>
@@ -15552,7 +15563,7 @@
         <v>34</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G89" s="9">
         <v>1</v>
@@ -15611,7 +15622,7 @@
         <v>34</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G90" s="9">
         <v>1</v>
@@ -15670,7 +15681,7 @@
         <v>34</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G91" s="9">
         <v>1</v>
@@ -15729,7 +15740,7 @@
         <v>34</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G92" s="9">
         <v>1</v>
@@ -15788,7 +15799,7 @@
         <v>34</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G93" s="9">
         <v>1</v>
@@ -15847,7 +15858,7 @@
         <v>35</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G94" s="9">
         <v>1</v>
@@ -15906,7 +15917,7 @@
         <v>35</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G95" s="9">
         <v>1</v>
@@ -15965,7 +15976,7 @@
         <v>35</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G96" s="9">
         <v>1</v>
@@ -16024,7 +16035,7 @@
         <v>35</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G97" s="9">
         <v>1</v>
@@ -16083,7 +16094,7 @@
         <v>36</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G98" s="9">
         <v>1</v>
@@ -16142,7 +16153,7 @@
         <v>35</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G99" s="9">
         <v>1</v>
@@ -16201,7 +16212,7 @@
         <v>36</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G100" s="9">
         <v>1</v>
@@ -16260,7 +16271,7 @@
         <v>37</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G101" s="9">
         <v>1</v>
@@ -16319,7 +16330,7 @@
         <v>37</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G102" s="9">
         <v>1</v>
@@ -16378,7 +16389,7 @@
         <v>37</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G103" s="9">
         <v>1</v>
@@ -16437,7 +16448,7 @@
         <v>37</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G104" s="9">
         <v>1</v>
@@ -16496,7 +16507,7 @@
         <v>37</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G105" s="9">
         <v>1</v>
@@ -16555,7 +16566,7 @@
         <v>38</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G106" s="9">
         <v>1</v>
@@ -16614,7 +16625,7 @@
         <v>38</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G107" s="9">
         <v>1</v>
@@ -16673,7 +16684,7 @@
         <v>39</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G108" s="9">
         <v>1</v>
@@ -16732,7 +16743,7 @@
         <v>39</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G109" s="9">
         <v>1</v>
@@ -16791,7 +16802,7 @@
         <v>40</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G110" s="9">
         <v>1</v>
@@ -16850,7 +16861,7 @@
         <v>40</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G111" s="9">
         <v>1</v>
@@ -16909,7 +16920,7 @@
         <v>40</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G112" s="9">
         <v>1</v>
@@ -16968,7 +16979,7 @@
         <v>40</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G113" s="9">
         <v>1</v>
@@ -17027,7 +17038,7 @@
         <v>41</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G114" s="9">
         <v>1</v>
@@ -17086,7 +17097,7 @@
         <v>41</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G115" s="9">
         <v>1</v>
@@ -17145,7 +17156,7 @@
         <v>41</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G116" s="9">
         <v>1</v>
@@ -17204,7 +17215,7 @@
         <v>42</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G117" s="9">
         <v>1</v>
@@ -17263,7 +17274,7 @@
         <v>42</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G118" s="9">
         <v>1</v>
@@ -17322,7 +17333,7 @@
         <v>42</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G119" s="9">
         <v>1</v>
@@ -17381,7 +17392,7 @@
         <v>42</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G120" s="9">
         <v>1</v>
@@ -17440,7 +17451,7 @@
         <v>42</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G121" s="9">
         <v>1</v>
@@ -17499,7 +17510,7 @@
         <v>43</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G122" s="9">
         <v>1</v>
@@ -17558,7 +17569,7 @@
         <v>43</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G123" s="9">
         <v>1</v>
@@ -17617,7 +17628,7 @@
         <v>43</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G124" s="9">
         <v>1</v>
@@ -17676,7 +17687,7 @@
         <v>44</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G125" s="9">
         <v>1</v>
@@ -17735,7 +17746,7 @@
         <v>45</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G126" s="9">
         <v>1</v>
@@ -17794,7 +17805,7 @@
         <v>45</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G127" s="9">
         <v>1</v>
@@ -17853,7 +17864,7 @@
         <v>45</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G128" s="9">
         <v>1</v>
@@ -17912,7 +17923,7 @@
         <v>45</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G129" s="9">
         <v>1</v>
@@ -17971,7 +17982,7 @@
         <v>46</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G130" s="9">
         <v>1</v>
@@ -18030,7 +18041,7 @@
         <v>46</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G131" s="9">
         <v>1</v>
@@ -18089,7 +18100,7 @@
         <v>46</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G132" s="9">
         <v>1</v>
@@ -18148,7 +18159,7 @@
         <v>46</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G133" s="9">
         <v>1</v>
@@ -18207,7 +18218,7 @@
         <v>46</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G134" s="9">
         <v>1</v>
@@ -18266,7 +18277,7 @@
         <v>46</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G135" s="9">
         <v>1</v>
@@ -18325,7 +18336,7 @@
         <v>46</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G136" s="9">
         <v>1</v>
@@ -18384,7 +18395,7 @@
         <v>46</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G137" s="9">
         <v>1</v>
@@ -18443,7 +18454,7 @@
         <v>47</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G138" s="9">
         <v>1</v>
@@ -18502,7 +18513,7 @@
         <v>48</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G139" s="9">
         <v>1</v>
@@ -18561,7 +18572,7 @@
         <v>48</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G140" s="9">
         <v>1</v>
@@ -18620,7 +18631,7 @@
         <v>48</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G141" s="9">
         <v>1</v>
@@ -18679,7 +18690,7 @@
         <v>49</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G142" s="9">
         <v>1</v>
@@ -18738,7 +18749,7 @@
         <v>50</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G143" s="9">
         <v>1</v>
@@ -18797,7 +18808,7 @@
         <v>50</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G144" s="9">
         <v>1</v>
@@ -18856,7 +18867,7 @@
         <v>50</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G145" s="9">
         <v>1</v>
@@ -18915,7 +18926,7 @@
         <v>50</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G146" s="9">
         <v>1</v>
@@ -18974,7 +18985,7 @@
         <v>50</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G147" s="9">
         <v>1</v>
@@ -19033,7 +19044,7 @@
         <v>50</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G148" s="9">
         <v>1</v>
@@ -19092,7 +19103,7 @@
         <v>51</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G149" s="9">
         <v>1</v>
@@ -19151,7 +19162,7 @@
         <v>52</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G150" s="9">
         <v>1</v>
@@ -19210,7 +19221,7 @@
         <v>52</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G151" s="9">
         <v>1</v>
@@ -19269,7 +19280,7 @@
         <v>52</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G152" s="9">
         <v>1</v>
@@ -19328,7 +19339,7 @@
         <v>52</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G153" s="9">
         <v>1</v>
@@ -19387,7 +19398,7 @@
         <v>52</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G154" s="9">
         <v>1</v>
@@ -19446,7 +19457,7 @@
         <v>53</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G155" s="9">
         <v>1</v>
@@ -19505,7 +19516,7 @@
         <v>54</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G156" s="9">
         <v>1</v>
@@ -19564,7 +19575,7 @@
         <v>54</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G157" s="9">
         <v>1</v>
@@ -19623,7 +19634,7 @@
         <v>54</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G158" s="9">
         <v>1</v>
@@ -19682,7 +19693,7 @@
         <v>54</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G159" s="9">
         <v>1</v>
@@ -19741,7 +19752,7 @@
         <v>54</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G160" s="9">
         <v>1</v>
@@ -19800,7 +19811,7 @@
         <v>55</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G161" s="9">
         <v>1</v>
@@ -19859,7 +19870,7 @@
         <v>56</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G162" s="9">
         <v>1</v>
@@ -19918,7 +19929,7 @@
         <v>57</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G163" s="9">
         <v>1</v>
@@ -19977,7 +19988,7 @@
         <v>58</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G164" s="9">
         <v>1</v>
@@ -20036,7 +20047,7 @@
         <v>60</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G165" s="9">
         <v>1</v>
@@ -20092,11 +20103,11 @@
       <c r="D166" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="E166" s="10">
-        <v>1</v>
+      <c r="E166" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F166" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G166" s="10" t="s">
         <v>353</v>
@@ -20152,11 +20163,11 @@
       <c r="D167" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="E167" s="10">
-        <v>1</v>
+      <c r="E167" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F167" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G167" s="10" t="s">
         <v>353</v>
@@ -20212,11 +20223,11 @@
       <c r="D168" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="E168" s="10">
-        <v>1</v>
+      <c r="E168" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G168" s="10" t="s">
         <v>353</v>
@@ -20272,11 +20283,11 @@
       <c r="D169" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="E169" s="10">
-        <v>1</v>
+      <c r="E169" s="10" t="s">
+        <v>380</v>
       </c>
       <c r="F169" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G169" s="10" t="s">
         <v>353</v>
@@ -20332,11 +20343,11 @@
       <c r="D170" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="E170" s="10">
-        <v>1</v>
+      <c r="E170" s="10" t="s">
+        <v>380</v>
       </c>
       <c r="F170" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G170" s="10" t="s">
         <v>353</v>
@@ -20392,11 +20403,11 @@
       <c r="D171" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="E171" s="10">
-        <v>1</v>
+      <c r="E171" s="10" t="s">
+        <v>380</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G171" s="10" t="s">
         <v>353</v>
@@ -20452,11 +20463,11 @@
       <c r="D172" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="E172" s="10">
-        <v>1</v>
+      <c r="E172" s="10" t="s">
+        <v>379</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G172" s="10" t="s">
         <v>353</v>
@@ -20512,11 +20523,11 @@
       <c r="D173" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="E173" s="10">
-        <v>1</v>
+      <c r="E173" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F173" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G173" s="10" t="s">
         <v>353</v>
@@ -20572,11 +20583,11 @@
       <c r="D174" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="E174" s="10">
-        <v>1</v>
+      <c r="E174" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F174" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G174" s="10" t="s">
         <v>353</v>
@@ -20632,11 +20643,11 @@
       <c r="D175" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="E175" s="10">
-        <v>1</v>
+      <c r="E175" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F175" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G175" s="10" t="s">
         <v>353</v>
@@ -20691,11 +20702,11 @@
       <c r="D176" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="E176" s="10">
-        <v>1</v>
+      <c r="E176" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F176" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G176" s="10" t="s">
         <v>353</v>
@@ -20750,11 +20761,11 @@
       <c r="D177" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="E177" s="10">
-        <v>1</v>
+      <c r="E177" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F177" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G177" s="10" t="s">
         <v>353</v>
@@ -20809,13 +20820,13 @@
         <v>40001201</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="E178" s="10">
-        <v>1</v>
+        <v>381</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F178" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G178" s="10" t="s">
         <v>353</v>
@@ -20872,11 +20883,11 @@
       <c r="D179" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="E179" s="10">
-        <v>1</v>
+      <c r="E179" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G179" s="10" t="s">
         <v>353</v>
@@ -20933,11 +20944,11 @@
       <c r="D180" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="E180" s="10">
-        <v>1</v>
+      <c r="E180" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G180" s="10" t="s">
         <v>353</v>
@@ -20994,11 +21005,11 @@
       <c r="D181" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="E181" s="10">
-        <v>1</v>
+      <c r="E181" s="10" t="s">
+        <v>380</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G181" s="10" t="s">
         <v>353</v>
@@ -21055,11 +21066,11 @@
       <c r="D182" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="E182" s="10">
-        <v>1</v>
+      <c r="E182" s="10" t="s">
+        <v>380</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G182" s="10" t="s">
         <v>353</v>
@@ -21116,11 +21127,11 @@
       <c r="D183" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="E183" s="10">
-        <v>1</v>
+      <c r="E183" s="10" t="s">
+        <v>380</v>
       </c>
       <c r="F183" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G183" s="10" t="s">
         <v>353</v>
@@ -21177,11 +21188,11 @@
       <c r="D184" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="E184" s="10">
-        <v>1</v>
+      <c r="E184" s="10" t="s">
+        <v>379</v>
       </c>
       <c r="F184" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G184" s="10" t="s">
         <v>353</v>
@@ -21238,11 +21249,11 @@
       <c r="D185" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="E185" s="10">
-        <v>1</v>
+      <c r="E185" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F185" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G185" s="10" t="s">
         <v>353</v>
@@ -21299,11 +21310,11 @@
       <c r="D186" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="E186" s="10">
-        <v>1</v>
+      <c r="E186" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G186" s="10" t="s">
         <v>353</v>
@@ -21360,11 +21371,11 @@
       <c r="D187" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="E187" s="10">
-        <v>1</v>
+      <c r="E187" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G187" s="10" t="s">
         <v>353</v>
@@ -21420,11 +21431,11 @@
       <c r="D188" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="E188" s="10">
-        <v>1</v>
+      <c r="E188" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F188" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G188" s="10" t="s">
         <v>353</v>
@@ -21480,11 +21491,11 @@
       <c r="D189" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="E189" s="10">
-        <v>1</v>
+      <c r="E189" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G189" s="10" t="s">
         <v>353</v>
@@ -21539,13 +21550,13 @@
         <v>40001301</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="E190" s="10">
-        <v>1</v>
+        <v>382</v>
+      </c>
+      <c r="E190" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G190" s="10" t="s">
         <v>353</v>
@@ -21602,11 +21613,11 @@
       <c r="D191" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="E191" s="10">
-        <v>1</v>
+      <c r="E191" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F191" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G191" s="10" t="s">
         <v>353</v>
@@ -21663,11 +21674,11 @@
       <c r="D192" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="E192" s="10">
-        <v>1</v>
+      <c r="E192" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F192" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G192" s="10" t="s">
         <v>353</v>
@@ -21724,11 +21735,11 @@
       <c r="D193" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="E193" s="10">
-        <v>1</v>
+      <c r="E193" s="10" t="s">
+        <v>380</v>
       </c>
       <c r="F193" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G193" s="10" t="s">
         <v>353</v>
@@ -21785,11 +21796,11 @@
       <c r="D194" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="E194" s="10">
-        <v>1</v>
+      <c r="E194" s="10" t="s">
+        <v>380</v>
       </c>
       <c r="F194" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G194" s="10" t="s">
         <v>353</v>
@@ -21846,11 +21857,11 @@
       <c r="D195" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="E195" s="10">
-        <v>1</v>
+      <c r="E195" s="10" t="s">
+        <v>380</v>
       </c>
       <c r="F195" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G195" s="10" t="s">
         <v>353</v>
@@ -21907,11 +21918,11 @@
       <c r="D196" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="E196" s="10">
-        <v>1</v>
+      <c r="E196" s="10" t="s">
+        <v>379</v>
       </c>
       <c r="F196" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G196" s="10" t="s">
         <v>353</v>
@@ -21968,11 +21979,11 @@
       <c r="D197" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="E197" s="10">
-        <v>1</v>
+      <c r="E197" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F197" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G197" s="10" t="s">
         <v>353</v>
@@ -22029,11 +22040,11 @@
       <c r="D198" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="E198" s="10">
-        <v>1</v>
+      <c r="E198" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F198" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G198" s="10" t="s">
         <v>353</v>
@@ -22090,11 +22101,11 @@
       <c r="D199" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="E199" s="10">
-        <v>1</v>
+      <c r="E199" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F199" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G199" s="10" t="s">
         <v>353</v>
@@ -22150,11 +22161,11 @@
       <c r="D200" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="E200" s="10">
-        <v>1</v>
+      <c r="E200" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F200" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G200" s="10" t="s">
         <v>353</v>
@@ -22210,11 +22221,11 @@
       <c r="D201" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="E201" s="10">
-        <v>1</v>
+      <c r="E201" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="F201" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G201" s="10" t="s">
         <v>353</v>
@@ -22269,11 +22280,11 @@
       <c r="D202" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="E202" s="10">
-        <v>1</v>
+      <c r="E202" s="10" t="s">
+        <v>377</v>
       </c>
       <c r="F202" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G202" s="9">
         <v>3</v>
@@ -22328,11 +22339,11 @@
       <c r="D203" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="E203" s="10">
-        <v>1</v>
+      <c r="E203" s="10" t="s">
+        <v>377</v>
       </c>
       <c r="F203" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G203" s="9">
         <v>3</v>
@@ -22387,11 +22398,11 @@
       <c r="D204" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="E204" s="10">
-        <v>1</v>
+      <c r="E204" s="10" t="s">
+        <v>377</v>
       </c>
       <c r="F204" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G204" s="9">
         <v>3</v>
@@ -22446,11 +22457,11 @@
       <c r="D205" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="E205" s="10">
-        <v>1</v>
+      <c r="E205" s="10" t="s">
+        <v>377</v>
       </c>
       <c r="F205" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G205" s="9">
         <v>3</v>
@@ -22505,11 +22516,11 @@
       <c r="D206" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="E206" s="10">
-        <v>1</v>
+      <c r="E206" s="10" t="s">
+        <v>377</v>
       </c>
       <c r="F206" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G206" s="9">
         <v>3</v>
@@ -22564,11 +22575,11 @@
       <c r="D207" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="E207" s="10">
-        <v>1</v>
+      <c r="E207" s="10" t="s">
+        <v>377</v>
       </c>
       <c r="F207" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G207" s="9">
         <v>3</v>
@@ -22623,11 +22634,11 @@
       <c r="D208" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="E208" s="10">
-        <v>1</v>
+      <c r="E208" s="10" t="s">
+        <v>377</v>
       </c>
       <c r="F208" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G208" s="9">
         <v>3</v>
@@ -22682,11 +22693,11 @@
       <c r="D209" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="E209" s="10">
-        <v>1</v>
+      <c r="E209" s="10" t="s">
+        <v>377</v>
       </c>
       <c r="F209" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G209" s="9">
         <v>3</v>
@@ -22741,11 +22752,11 @@
       <c r="D210" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="E210" s="10">
-        <v>1</v>
+      <c r="E210" s="10" t="s">
+        <v>377</v>
       </c>
       <c r="F210" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G210" s="9">
         <v>3</v>
@@ -22800,11 +22811,11 @@
       <c r="D211" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="E211" s="10">
-        <v>1</v>
+      <c r="E211" s="10" t="s">
+        <v>377</v>
       </c>
       <c r="F211" s="10" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G211" s="9">
         <v>3</v>
@@ -22861,10 +22872,10 @@
         <v>359</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F212" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G212" s="10" t="s">
         <v>353</v>
@@ -22921,10 +22932,10 @@
         <v>359</v>
       </c>
       <c r="E213" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F213" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G213" s="10" t="s">
         <v>353</v>
@@ -22981,10 +22992,10 @@
         <v>359</v>
       </c>
       <c r="E214" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F214" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G214" s="10" t="s">
         <v>353</v>
@@ -23041,10 +23052,10 @@
         <v>359</v>
       </c>
       <c r="E215" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F215" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G215" s="10" t="s">
         <v>353</v>
@@ -23101,10 +23112,10 @@
         <v>359</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F216" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G216" s="10" t="s">
         <v>353</v>
@@ -23161,10 +23172,10 @@
         <v>359</v>
       </c>
       <c r="E217" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F217" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G217" s="10" t="s">
         <v>353</v>
@@ -23221,10 +23232,10 @@
         <v>359</v>
       </c>
       <c r="E218" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F218" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G218" s="10" t="s">
         <v>353</v>
@@ -23281,10 +23292,10 @@
         <v>359</v>
       </c>
       <c r="E219" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F219" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G219" s="10" t="s">
         <v>353</v>
@@ -23341,10 +23352,10 @@
         <v>359</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F220" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G220" s="10" t="s">
         <v>353</v>
@@ -23401,10 +23412,10 @@
         <v>359</v>
       </c>
       <c r="E221" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F221" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G221" s="10" t="s">
         <v>353</v>
@@ -23460,10 +23471,10 @@
         <v>360</v>
       </c>
       <c r="E222" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G222" s="10" t="s">
         <v>353</v>
@@ -23519,10 +23530,10 @@
         <v>361</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F223" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G223" s="10" t="s">
         <v>353</v>
@@ -23579,10 +23590,10 @@
         <v>359</v>
       </c>
       <c r="E224" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F224" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G224" s="10" t="s">
         <v>353</v>
@@ -23639,10 +23650,10 @@
         <v>355</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F225" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G225" s="10" t="s">
         <v>353</v>
@@ -23699,10 +23710,10 @@
         <v>355</v>
       </c>
       <c r="E226" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F226" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G226" s="10" t="s">
         <v>353</v>
@@ -23759,10 +23770,10 @@
         <v>355</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F227" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G227" s="10" t="s">
         <v>353</v>
@@ -23819,10 +23830,10 @@
         <v>355</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F228" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G228" s="10" t="s">
         <v>353</v>
@@ -23879,10 +23890,10 @@
         <v>355</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F229" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G229" s="10" t="s">
         <v>353</v>
@@ -23939,10 +23950,10 @@
         <v>355</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F230" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G230" s="10" t="s">
         <v>353</v>
@@ -23999,10 +24010,10 @@
         <v>355</v>
       </c>
       <c r="E231" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F231" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G231" s="10" t="s">
         <v>353</v>
@@ -24059,10 +24070,10 @@
         <v>355</v>
       </c>
       <c r="E232" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F232" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G232" s="10" t="s">
         <v>353</v>
@@ -24119,10 +24130,10 @@
         <v>355</v>
       </c>
       <c r="E233" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F233" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G233" s="10" t="s">
         <v>353</v>
@@ -24178,10 +24189,10 @@
         <v>357</v>
       </c>
       <c r="E234" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F234" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G234" s="10" t="s">
         <v>353</v>
@@ -24237,10 +24248,10 @@
         <v>362</v>
       </c>
       <c r="E235" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F235" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G235" s="10" t="s">
         <v>353</v>
@@ -24297,10 +24308,10 @@
         <v>359</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F236" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G236" s="10" t="s">
         <v>353</v>
@@ -24357,10 +24368,10 @@
         <v>356</v>
       </c>
       <c r="E237" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F237" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G237" s="10" t="s">
         <v>353</v>
@@ -24417,10 +24428,10 @@
         <v>356</v>
       </c>
       <c r="E238" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F238" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G238" s="10" t="s">
         <v>353</v>
@@ -24477,10 +24488,10 @@
         <v>356</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F239" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G239" s="10" t="s">
         <v>353</v>
@@ -24537,10 +24548,10 @@
         <v>356</v>
       </c>
       <c r="E240" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F240" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G240" s="10" t="s">
         <v>353</v>
@@ -24597,10 +24608,10 @@
         <v>356</v>
       </c>
       <c r="E241" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F241" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G241" s="10" t="s">
         <v>353</v>
@@ -24657,10 +24668,10 @@
         <v>356</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F242" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G242" s="10" t="s">
         <v>353</v>
@@ -24717,10 +24728,10 @@
         <v>356</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F243" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G243" s="10" t="s">
         <v>353</v>
@@ -24777,10 +24788,10 @@
         <v>356</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F244" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G244" s="10" t="s">
         <v>353</v>
@@ -24837,10 +24848,10 @@
         <v>356</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F245" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G245" s="10" t="s">
         <v>353</v>
@@ -24896,10 +24907,10 @@
         <v>358</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F246" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G246" s="10" t="s">
         <v>353</v>
@@ -24955,10 +24966,10 @@
         <v>363</v>
       </c>
       <c r="E247" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F247" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G247" s="10" t="s">
         <v>353</v>
@@ -25014,10 +25025,10 @@
         <v>364</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F248" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G248" s="9">
         <v>3</v>
@@ -25073,10 +25084,10 @@
         <v>364</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F249" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G249" s="9">
         <v>3</v>
@@ -25132,10 +25143,10 @@
         <v>364</v>
       </c>
       <c r="E250" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F250" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G250" s="9">
         <v>3</v>
@@ -25191,10 +25202,10 @@
         <v>364</v>
       </c>
       <c r="E251" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F251" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G251" s="9">
         <v>3</v>
@@ -25250,10 +25261,10 @@
         <v>364</v>
       </c>
       <c r="E252" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F252" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G252" s="9">
         <v>3</v>
@@ -25309,10 +25320,10 @@
         <v>364</v>
       </c>
       <c r="E253" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F253" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G253" s="9">
         <v>3</v>
@@ -25368,10 +25379,10 @@
         <v>364</v>
       </c>
       <c r="E254" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F254" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G254" s="9">
         <v>3</v>
@@ -25427,10 +25438,10 @@
         <v>364</v>
       </c>
       <c r="E255" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F255" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G255" s="9">
         <v>3</v>
@@ -25486,10 +25497,10 @@
         <v>364</v>
       </c>
       <c r="E256" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F256" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G256" s="9">
         <v>3</v>
@@ -25545,10 +25556,10 @@
         <v>364</v>
       </c>
       <c r="E257" s="10" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="F257" s="10" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G257" s="9">
         <v>3</v>
@@ -25605,10 +25616,10 @@
         <v>359</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F258" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G258" s="10" t="s">
         <v>353</v>
@@ -25665,10 +25676,10 @@
         <v>359</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F259" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G259" s="10" t="s">
         <v>353</v>
@@ -25725,10 +25736,10 @@
         <v>359</v>
       </c>
       <c r="E260" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F260" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G260" s="10" t="s">
         <v>353</v>
@@ -25785,10 +25796,10 @@
         <v>359</v>
       </c>
       <c r="E261" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F261" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G261" s="10" t="s">
         <v>353</v>
@@ -25845,10 +25856,10 @@
         <v>359</v>
       </c>
       <c r="E262" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F262" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G262" s="10" t="s">
         <v>353</v>
@@ -25905,10 +25916,10 @@
         <v>359</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F263" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G263" s="10" t="s">
         <v>353</v>
@@ -25965,10 +25976,10 @@
         <v>359</v>
       </c>
       <c r="E264" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F264" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G264" s="10" t="s">
         <v>353</v>
@@ -26025,10 +26036,10 @@
         <v>359</v>
       </c>
       <c r="E265" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F265" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G265" s="10" t="s">
         <v>353</v>
@@ -26085,10 +26096,10 @@
         <v>359</v>
       </c>
       <c r="E266" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F266" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G266" s="10" t="s">
         <v>353</v>
@@ -26145,10 +26156,10 @@
         <v>359</v>
       </c>
       <c r="E267" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F267" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G267" s="10" t="s">
         <v>353</v>
@@ -26204,10 +26215,10 @@
         <v>360</v>
       </c>
       <c r="E268" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F268" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G268" s="10" t="s">
         <v>353</v>
@@ -26263,10 +26274,10 @@
         <v>361</v>
       </c>
       <c r="E269" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F269" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G269" s="10" t="s">
         <v>353</v>
@@ -26323,10 +26334,10 @@
         <v>359</v>
       </c>
       <c r="E270" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F270" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G270" s="10" t="s">
         <v>353</v>
@@ -26383,10 +26394,10 @@
         <v>355</v>
       </c>
       <c r="E271" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F271" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G271" s="10" t="s">
         <v>353</v>
@@ -26443,10 +26454,10 @@
         <v>355</v>
       </c>
       <c r="E272" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F272" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G272" s="10" t="s">
         <v>353</v>
@@ -26503,10 +26514,10 @@
         <v>355</v>
       </c>
       <c r="E273" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F273" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G273" s="10" t="s">
         <v>353</v>
@@ -26563,10 +26574,10 @@
         <v>355</v>
       </c>
       <c r="E274" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F274" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G274" s="10" t="s">
         <v>353</v>
@@ -26623,10 +26634,10 @@
         <v>355</v>
       </c>
       <c r="E275" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F275" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G275" s="10" t="s">
         <v>353</v>
@@ -26683,10 +26694,10 @@
         <v>355</v>
       </c>
       <c r="E276" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F276" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G276" s="10" t="s">
         <v>353</v>
@@ -26743,10 +26754,10 @@
         <v>355</v>
       </c>
       <c r="E277" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F277" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G277" s="10" t="s">
         <v>353</v>
@@ -26803,10 +26814,10 @@
         <v>355</v>
       </c>
       <c r="E278" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F278" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G278" s="10" t="s">
         <v>353</v>
@@ -26863,10 +26874,10 @@
         <v>355</v>
       </c>
       <c r="E279" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F279" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G279" s="10" t="s">
         <v>353</v>
@@ -26922,10 +26933,10 @@
         <v>357</v>
       </c>
       <c r="E280" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F280" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G280" s="10" t="s">
         <v>353</v>
@@ -26981,10 +26992,10 @@
         <v>362</v>
       </c>
       <c r="E281" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F281" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G281" s="10" t="s">
         <v>353</v>
@@ -27041,10 +27052,10 @@
         <v>359</v>
       </c>
       <c r="E282" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F282" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G282" s="10" t="s">
         <v>353</v>
@@ -27101,10 +27112,10 @@
         <v>356</v>
       </c>
       <c r="E283" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F283" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G283" s="10" t="s">
         <v>353</v>
@@ -27161,10 +27172,10 @@
         <v>356</v>
       </c>
       <c r="E284" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F284" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G284" s="10" t="s">
         <v>353</v>
@@ -27221,10 +27232,10 @@
         <v>356</v>
       </c>
       <c r="E285" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F285" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G285" s="10" t="s">
         <v>353</v>
@@ -27281,10 +27292,10 @@
         <v>356</v>
       </c>
       <c r="E286" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F286" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G286" s="10" t="s">
         <v>353</v>
@@ -27341,10 +27352,10 @@
         <v>356</v>
       </c>
       <c r="E287" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F287" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G287" s="10" t="s">
         <v>353</v>
@@ -27401,10 +27412,10 @@
         <v>356</v>
       </c>
       <c r="E288" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F288" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G288" s="10" t="s">
         <v>353</v>
@@ -27461,10 +27472,10 @@
         <v>356</v>
       </c>
       <c r="E289" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F289" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G289" s="10" t="s">
         <v>353</v>
@@ -27521,10 +27532,10 @@
         <v>356</v>
       </c>
       <c r="E290" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F290" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G290" s="10" t="s">
         <v>353</v>
@@ -27581,10 +27592,10 @@
         <v>356</v>
       </c>
       <c r="E291" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F291" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G291" s="10" t="s">
         <v>353</v>
@@ -27640,10 +27651,10 @@
         <v>358</v>
       </c>
       <c r="E292" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F292" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G292" s="10" t="s">
         <v>353</v>
@@ -27699,10 +27710,10 @@
         <v>363</v>
       </c>
       <c r="E293" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F293" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G293" s="10" t="s">
         <v>353</v>
@@ -27758,10 +27769,10 @@
         <v>364</v>
       </c>
       <c r="E294" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F294" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G294" s="9">
         <v>3</v>
@@ -27817,10 +27828,10 @@
         <v>364</v>
       </c>
       <c r="E295" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F295" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G295" s="9">
         <v>3</v>
@@ -27876,10 +27887,10 @@
         <v>364</v>
       </c>
       <c r="E296" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F296" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G296" s="9">
         <v>3</v>
@@ -27935,10 +27946,10 @@
         <v>364</v>
       </c>
       <c r="E297" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F297" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G297" s="9">
         <v>3</v>
@@ -27994,10 +28005,10 @@
         <v>364</v>
       </c>
       <c r="E298" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F298" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G298" s="9">
         <v>3</v>
@@ -28053,10 +28064,10 @@
         <v>364</v>
       </c>
       <c r="E299" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F299" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G299" s="9">
         <v>3</v>
@@ -28112,10 +28123,10 @@
         <v>364</v>
       </c>
       <c r="E300" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F300" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G300" s="9">
         <v>3</v>
@@ -28171,10 +28182,10 @@
         <v>364</v>
       </c>
       <c r="E301" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F301" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G301" s="9">
         <v>3</v>
@@ -28230,10 +28241,10 @@
         <v>364</v>
       </c>
       <c r="E302" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F302" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G302" s="9">
         <v>3</v>
@@ -28289,10 +28300,10 @@
         <v>364</v>
       </c>
       <c r="E303" s="10" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F303" s="10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G303" s="9">
         <v>3</v>
@@ -28349,10 +28360,10 @@
         <v>359</v>
       </c>
       <c r="E304" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F304" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G304" s="10" t="s">
         <v>353</v>
@@ -28409,10 +28420,10 @@
         <v>359</v>
       </c>
       <c r="E305" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F305" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G305" s="10" t="s">
         <v>353</v>
@@ -28469,10 +28480,10 @@
         <v>359</v>
       </c>
       <c r="E306" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F306" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G306" s="10" t="s">
         <v>353</v>
@@ -28529,10 +28540,10 @@
         <v>359</v>
       </c>
       <c r="E307" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F307" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G307" s="10" t="s">
         <v>353</v>
@@ -28589,10 +28600,10 @@
         <v>359</v>
       </c>
       <c r="E308" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F308" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G308" s="10" t="s">
         <v>353</v>
@@ -28649,10 +28660,10 @@
         <v>359</v>
       </c>
       <c r="E309" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F309" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G309" s="10" t="s">
         <v>353</v>
@@ -28709,10 +28720,10 @@
         <v>359</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F310" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G310" s="10" t="s">
         <v>353</v>
@@ -28769,10 +28780,10 @@
         <v>359</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F311" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G311" s="10" t="s">
         <v>353</v>
@@ -28829,10 +28840,10 @@
         <v>359</v>
       </c>
       <c r="E312" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F312" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G312" s="10" t="s">
         <v>353</v>
@@ -28889,10 +28900,10 @@
         <v>359</v>
       </c>
       <c r="E313" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F313" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G313" s="10" t="s">
         <v>353</v>
@@ -28948,10 +28959,10 @@
         <v>360</v>
       </c>
       <c r="E314" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F314" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G314" s="10" t="s">
         <v>353</v>
@@ -29007,10 +29018,10 @@
         <v>361</v>
       </c>
       <c r="E315" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F315" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G315" s="10" t="s">
         <v>353</v>
@@ -29067,10 +29078,10 @@
         <v>359</v>
       </c>
       <c r="E316" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F316" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G316" s="10" t="s">
         <v>353</v>
@@ -29127,10 +29138,10 @@
         <v>355</v>
       </c>
       <c r="E317" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F317" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G317" s="10" t="s">
         <v>353</v>
@@ -29187,10 +29198,10 @@
         <v>355</v>
       </c>
       <c r="E318" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F318" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G318" s="10" t="s">
         <v>353</v>
@@ -29247,10 +29258,10 @@
         <v>355</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F319" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G319" s="10" t="s">
         <v>353</v>
@@ -29307,10 +29318,10 @@
         <v>355</v>
       </c>
       <c r="E320" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F320" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G320" s="10" t="s">
         <v>353</v>
@@ -29367,10 +29378,10 @@
         <v>355</v>
       </c>
       <c r="E321" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F321" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G321" s="10" t="s">
         <v>353</v>
@@ -29427,10 +29438,10 @@
         <v>355</v>
       </c>
       <c r="E322" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F322" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G322" s="10" t="s">
         <v>353</v>
@@ -29487,10 +29498,10 @@
         <v>355</v>
       </c>
       <c r="E323" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F323" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G323" s="10" t="s">
         <v>353</v>
@@ -29547,10 +29558,10 @@
         <v>355</v>
       </c>
       <c r="E324" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F324" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G324" s="10" t="s">
         <v>353</v>
@@ -29607,10 +29618,10 @@
         <v>355</v>
       </c>
       <c r="E325" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F325" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G325" s="10" t="s">
         <v>353</v>
@@ -29666,10 +29677,10 @@
         <v>357</v>
       </c>
       <c r="E326" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F326" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G326" s="10" t="s">
         <v>353</v>
@@ -29725,10 +29736,10 @@
         <v>362</v>
       </c>
       <c r="E327" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F327" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G327" s="10" t="s">
         <v>353</v>
@@ -29785,10 +29796,10 @@
         <v>359</v>
       </c>
       <c r="E328" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F328" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G328" s="10" t="s">
         <v>353</v>
@@ -29845,10 +29856,10 @@
         <v>356</v>
       </c>
       <c r="E329" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F329" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G329" s="10" t="s">
         <v>353</v>
@@ -29905,10 +29916,10 @@
         <v>356</v>
       </c>
       <c r="E330" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F330" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G330" s="10" t="s">
         <v>353</v>
@@ -29965,10 +29976,10 @@
         <v>356</v>
       </c>
       <c r="E331" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F331" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G331" s="10" t="s">
         <v>353</v>
@@ -30025,10 +30036,10 @@
         <v>356</v>
       </c>
       <c r="E332" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F332" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G332" s="10" t="s">
         <v>353</v>
@@ -30085,10 +30096,10 @@
         <v>356</v>
       </c>
       <c r="E333" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F333" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G333" s="10" t="s">
         <v>353</v>
@@ -30145,10 +30156,10 @@
         <v>356</v>
       </c>
       <c r="E334" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F334" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G334" s="10" t="s">
         <v>353</v>
@@ -30205,10 +30216,10 @@
         <v>356</v>
       </c>
       <c r="E335" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F335" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G335" s="10" t="s">
         <v>353</v>
@@ -30265,10 +30276,10 @@
         <v>356</v>
       </c>
       <c r="E336" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F336" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G336" s="10" t="s">
         <v>353</v>
@@ -30325,10 +30336,10 @@
         <v>356</v>
       </c>
       <c r="E337" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F337" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G337" s="10" t="s">
         <v>353</v>
@@ -30384,10 +30395,10 @@
         <v>358</v>
       </c>
       <c r="E338" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F338" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G338" s="10" t="s">
         <v>353</v>
@@ -30443,10 +30454,10 @@
         <v>363</v>
       </c>
       <c r="E339" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F339" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G339" s="10" t="s">
         <v>353</v>
@@ -30502,10 +30513,10 @@
         <v>364</v>
       </c>
       <c r="E340" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F340" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G340" s="9">
         <v>3</v>
@@ -30561,10 +30572,10 @@
         <v>364</v>
       </c>
       <c r="E341" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F341" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G341" s="9">
         <v>3</v>
@@ -30620,10 +30631,10 @@
         <v>364</v>
       </c>
       <c r="E342" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F342" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G342" s="9">
         <v>3</v>
@@ -30679,10 +30690,10 @@
         <v>364</v>
       </c>
       <c r="E343" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F343" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G343" s="9">
         <v>3</v>
@@ -30738,10 +30749,10 @@
         <v>364</v>
       </c>
       <c r="E344" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F344" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G344" s="9">
         <v>3</v>
@@ -30797,10 +30808,10 @@
         <v>364</v>
       </c>
       <c r="E345" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F345" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G345" s="9">
         <v>3</v>
@@ -30856,10 +30867,10 @@
         <v>364</v>
       </c>
       <c r="E346" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F346" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G346" s="9">
         <v>3</v>
@@ -30915,10 +30926,10 @@
         <v>364</v>
       </c>
       <c r="E347" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F347" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G347" s="9">
         <v>3</v>
@@ -30974,10 +30985,10 @@
         <v>364</v>
       </c>
       <c r="E348" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F348" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G348" s="9">
         <v>3</v>
@@ -31033,10 +31044,10 @@
         <v>364</v>
       </c>
       <c r="E349" s="10" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="F349" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G349" s="9">
         <v>3</v>
@@ -31093,10 +31104,10 @@
         <v>359</v>
       </c>
       <c r="E350" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F350" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G350" s="10" t="s">
         <v>353</v>
@@ -31153,10 +31164,10 @@
         <v>359</v>
       </c>
       <c r="E351" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F351" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G351" s="10" t="s">
         <v>353</v>
@@ -31213,10 +31224,10 @@
         <v>359</v>
       </c>
       <c r="E352" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F352" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G352" s="10" t="s">
         <v>353</v>
@@ -31273,10 +31284,10 @@
         <v>359</v>
       </c>
       <c r="E353" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F353" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G353" s="10" t="s">
         <v>353</v>
@@ -31333,10 +31344,10 @@
         <v>359</v>
       </c>
       <c r="E354" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F354" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G354" s="10" t="s">
         <v>353</v>
@@ -31393,10 +31404,10 @@
         <v>359</v>
       </c>
       <c r="E355" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F355" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G355" s="10" t="s">
         <v>353</v>
@@ -31453,10 +31464,10 @@
         <v>359</v>
       </c>
       <c r="E356" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F356" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G356" s="10" t="s">
         <v>353</v>
@@ -31513,10 +31524,10 @@
         <v>359</v>
       </c>
       <c r="E357" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F357" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G357" s="10" t="s">
         <v>353</v>
@@ -31573,10 +31584,10 @@
         <v>359</v>
       </c>
       <c r="E358" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F358" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G358" s="10" t="s">
         <v>353</v>
@@ -31633,10 +31644,10 @@
         <v>359</v>
       </c>
       <c r="E359" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F359" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G359" s="10" t="s">
         <v>353</v>
@@ -31692,10 +31703,10 @@
         <v>360</v>
       </c>
       <c r="E360" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F360" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G360" s="10" t="s">
         <v>353</v>
@@ -31751,10 +31762,10 @@
         <v>361</v>
       </c>
       <c r="E361" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F361" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G361" s="10" t="s">
         <v>353</v>
@@ -31811,10 +31822,10 @@
         <v>359</v>
       </c>
       <c r="E362" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F362" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G362" s="10" t="s">
         <v>353</v>
@@ -31871,10 +31882,10 @@
         <v>355</v>
       </c>
       <c r="E363" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F363" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G363" s="10" t="s">
         <v>353</v>
@@ -31931,10 +31942,10 @@
         <v>355</v>
       </c>
       <c r="E364" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F364" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G364" s="10" t="s">
         <v>353</v>
@@ -31991,10 +32002,10 @@
         <v>355</v>
       </c>
       <c r="E365" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F365" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G365" s="10" t="s">
         <v>353</v>
@@ -32051,10 +32062,10 @@
         <v>355</v>
       </c>
       <c r="E366" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F366" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G366" s="10" t="s">
         <v>353</v>
@@ -32111,10 +32122,10 @@
         <v>355</v>
       </c>
       <c r="E367" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F367" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G367" s="10" t="s">
         <v>353</v>
@@ -32171,10 +32182,10 @@
         <v>355</v>
       </c>
       <c r="E368" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F368" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G368" s="10" t="s">
         <v>353</v>
@@ -32231,10 +32242,10 @@
         <v>355</v>
       </c>
       <c r="E369" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F369" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G369" s="10" t="s">
         <v>353</v>
@@ -32291,10 +32302,10 @@
         <v>355</v>
       </c>
       <c r="E370" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F370" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G370" s="10" t="s">
         <v>353</v>
@@ -32351,10 +32362,10 @@
         <v>355</v>
       </c>
       <c r="E371" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F371" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G371" s="10" t="s">
         <v>353</v>
@@ -32410,10 +32421,10 @@
         <v>357</v>
       </c>
       <c r="E372" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F372" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G372" s="10" t="s">
         <v>353</v>
@@ -32469,10 +32480,10 @@
         <v>362</v>
       </c>
       <c r="E373" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F373" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G373" s="10" t="s">
         <v>353</v>
@@ -32529,10 +32540,10 @@
         <v>359</v>
       </c>
       <c r="E374" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F374" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G374" s="10" t="s">
         <v>353</v>
@@ -32589,10 +32600,10 @@
         <v>356</v>
       </c>
       <c r="E375" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F375" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G375" s="10" t="s">
         <v>353</v>
@@ -32649,10 +32660,10 @@
         <v>356</v>
       </c>
       <c r="E376" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F376" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G376" s="10" t="s">
         <v>353</v>
@@ -32709,10 +32720,10 @@
         <v>356</v>
       </c>
       <c r="E377" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F377" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G377" s="10" t="s">
         <v>353</v>
@@ -32769,10 +32780,10 @@
         <v>356</v>
       </c>
       <c r="E378" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F378" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G378" s="10" t="s">
         <v>353</v>
@@ -32829,10 +32840,10 @@
         <v>356</v>
       </c>
       <c r="E379" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F379" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G379" s="10" t="s">
         <v>353</v>
@@ -32889,10 +32900,10 @@
         <v>356</v>
       </c>
       <c r="E380" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F380" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G380" s="10" t="s">
         <v>353</v>
@@ -32949,10 +32960,10 @@
         <v>356</v>
       </c>
       <c r="E381" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F381" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G381" s="10" t="s">
         <v>353</v>
@@ -33009,10 +33020,10 @@
         <v>356</v>
       </c>
       <c r="E382" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F382" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G382" s="10" t="s">
         <v>353</v>
@@ -33069,10 +33080,10 @@
         <v>356</v>
       </c>
       <c r="E383" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F383" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G383" s="10" t="s">
         <v>353</v>
@@ -33128,10 +33139,10 @@
         <v>358</v>
       </c>
       <c r="E384" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F384" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G384" s="10" t="s">
         <v>353</v>
@@ -33187,10 +33198,10 @@
         <v>363</v>
       </c>
       <c r="E385" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F385" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G385" s="10" t="s">
         <v>353</v>
@@ -33246,10 +33257,10 @@
         <v>364</v>
       </c>
       <c r="E386" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F386" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G386" s="9">
         <v>3</v>
@@ -33305,10 +33316,10 @@
         <v>364</v>
       </c>
       <c r="E387" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F387" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G387" s="9">
         <v>3</v>
@@ -33364,10 +33375,10 @@
         <v>364</v>
       </c>
       <c r="E388" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F388" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G388" s="9">
         <v>3</v>
@@ -33423,10 +33434,10 @@
         <v>364</v>
       </c>
       <c r="E389" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F389" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G389" s="9">
         <v>3</v>
@@ -33482,10 +33493,10 @@
         <v>364</v>
       </c>
       <c r="E390" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F390" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G390" s="9">
         <v>3</v>
@@ -33541,10 +33552,10 @@
         <v>364</v>
       </c>
       <c r="E391" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F391" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G391" s="9">
         <v>3</v>
@@ -33600,10 +33611,10 @@
         <v>364</v>
       </c>
       <c r="E392" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F392" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G392" s="9">
         <v>3</v>
@@ -33659,10 +33670,10 @@
         <v>364</v>
       </c>
       <c r="E393" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F393" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G393" s="9">
         <v>3</v>
@@ -33718,10 +33729,10 @@
         <v>364</v>
       </c>
       <c r="E394" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F394" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G394" s="9">
         <v>3</v>
@@ -33777,10 +33788,10 @@
         <v>364</v>
       </c>
       <c r="E395" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F395" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G395" s="9">
         <v>3</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36112FFC-DCAD-409E-9B60-C61C86C33AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6826F49A-5F49-4EE3-9266-B0FC6BEFACE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="399">
   <si>
     <t>TaskLv</t>
   </si>
@@ -1876,10 +1876,6 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>19</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>29</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -1912,6 +1908,74 @@
   </si>
   <si>
     <t>赏金:极度狩猎</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>59</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>42</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -10456,9 +10520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D192" sqref="D192"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E397" sqref="E397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20104,7 +20168,7 @@
         <v>359</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F166" s="10" t="s">
         <v>373</v>
@@ -20164,7 +20228,7 @@
         <v>359</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F167" s="10" t="s">
         <v>373</v>
@@ -20224,7 +20288,7 @@
         <v>359</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F168" s="10" t="s">
         <v>373</v>
@@ -20284,7 +20348,7 @@
         <v>359</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F169" s="10" t="s">
         <v>373</v>
@@ -20344,7 +20408,7 @@
         <v>359</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F170" s="10" t="s">
         <v>373</v>
@@ -20404,7 +20468,7 @@
         <v>359</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F171" s="10" t="s">
         <v>373</v>
@@ -20464,7 +20528,7 @@
         <v>359</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F172" s="10" t="s">
         <v>373</v>
@@ -20524,7 +20588,7 @@
         <v>359</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F173" s="10" t="s">
         <v>373</v>
@@ -20584,7 +20648,7 @@
         <v>359</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F174" s="10" t="s">
         <v>373</v>
@@ -20644,7 +20708,7 @@
         <v>359</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F175" s="10" t="s">
         <v>373</v>
@@ -20703,7 +20767,7 @@
         <v>360</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F176" s="10" t="s">
         <v>373</v>
@@ -20762,7 +20826,7 @@
         <v>361</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F177" s="10" t="s">
         <v>373</v>
@@ -20820,10 +20884,10 @@
         <v>40001201</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F178" s="10" t="s">
         <v>373</v>
@@ -20884,7 +20948,7 @@
         <v>355</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F179" s="10" t="s">
         <v>373</v>
@@ -20945,7 +21009,7 @@
         <v>355</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F180" s="10" t="s">
         <v>373</v>
@@ -21006,7 +21070,7 @@
         <v>355</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F181" s="10" t="s">
         <v>373</v>
@@ -21067,7 +21131,7 @@
         <v>355</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F182" s="10" t="s">
         <v>373</v>
@@ -21128,7 +21192,7 @@
         <v>355</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F183" s="10" t="s">
         <v>373</v>
@@ -21189,7 +21253,7 @@
         <v>355</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F184" s="10" t="s">
         <v>373</v>
@@ -21250,7 +21314,7 @@
         <v>355</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F185" s="10" t="s">
         <v>373</v>
@@ -21311,7 +21375,7 @@
         <v>355</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F186" s="10" t="s">
         <v>373</v>
@@ -21372,7 +21436,7 @@
         <v>355</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F187" s="10" t="s">
         <v>373</v>
@@ -21432,7 +21496,7 @@
         <v>357</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F188" s="10" t="s">
         <v>373</v>
@@ -21492,7 +21556,7 @@
         <v>362</v>
       </c>
       <c r="E189" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F189" s="10" t="s">
         <v>373</v>
@@ -21550,10 +21614,10 @@
         <v>40001301</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E190" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F190" s="10" t="s">
         <v>373</v>
@@ -21614,7 +21678,7 @@
         <v>356</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F191" s="10" t="s">
         <v>373</v>
@@ -21675,7 +21739,7 @@
         <v>356</v>
       </c>
       <c r="E192" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F192" s="10" t="s">
         <v>373</v>
@@ -21736,7 +21800,7 @@
         <v>356</v>
       </c>
       <c r="E193" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F193" s="10" t="s">
         <v>373</v>
@@ -21797,7 +21861,7 @@
         <v>356</v>
       </c>
       <c r="E194" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F194" s="10" t="s">
         <v>373</v>
@@ -21858,7 +21922,7 @@
         <v>356</v>
       </c>
       <c r="E195" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F195" s="10" t="s">
         <v>373</v>
@@ -21919,7 +21983,7 @@
         <v>356</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F196" s="10" t="s">
         <v>373</v>
@@ -21980,7 +22044,7 @@
         <v>356</v>
       </c>
       <c r="E197" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F197" s="10" t="s">
         <v>373</v>
@@ -22041,7 +22105,7 @@
         <v>356</v>
       </c>
       <c r="E198" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F198" s="10" t="s">
         <v>373</v>
@@ -22102,7 +22166,7 @@
         <v>356</v>
       </c>
       <c r="E199" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F199" s="10" t="s">
         <v>373</v>
@@ -22162,7 +22226,7 @@
         <v>358</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F200" s="10" t="s">
         <v>373</v>
@@ -22222,7 +22286,7 @@
         <v>363</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F201" s="10" t="s">
         <v>373</v>
@@ -22281,7 +22345,7 @@
         <v>364</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F202" s="10" t="s">
         <v>373</v>
@@ -22340,7 +22404,7 @@
         <v>364</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F203" s="10" t="s">
         <v>373</v>
@@ -22399,7 +22463,7 @@
         <v>364</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F204" s="10" t="s">
         <v>373</v>
@@ -22458,7 +22522,7 @@
         <v>364</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F205" s="10" t="s">
         <v>373</v>
@@ -22517,7 +22581,7 @@
         <v>364</v>
       </c>
       <c r="E206" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F206" s="10" t="s">
         <v>373</v>
@@ -22576,7 +22640,7 @@
         <v>364</v>
       </c>
       <c r="E207" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F207" s="10" t="s">
         <v>373</v>
@@ -22635,7 +22699,7 @@
         <v>364</v>
       </c>
       <c r="E208" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F208" s="10" t="s">
         <v>373</v>
@@ -22694,7 +22758,7 @@
         <v>364</v>
       </c>
       <c r="E209" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F209" s="10" t="s">
         <v>373</v>
@@ -22753,7 +22817,7 @@
         <v>364</v>
       </c>
       <c r="E210" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F210" s="10" t="s">
         <v>373</v>
@@ -22812,7 +22876,7 @@
         <v>364</v>
       </c>
       <c r="E211" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F211" s="10" t="s">
         <v>373</v>
@@ -22872,7 +22936,7 @@
         <v>359</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F212" s="10" t="s">
         <v>374</v>
@@ -22932,7 +22996,7 @@
         <v>359</v>
       </c>
       <c r="E213" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F213" s="10" t="s">
         <v>374</v>
@@ -22992,7 +23056,7 @@
         <v>359</v>
       </c>
       <c r="E214" s="10" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="F214" s="10" t="s">
         <v>374</v>
@@ -23052,7 +23116,7 @@
         <v>359</v>
       </c>
       <c r="E215" s="10" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="F215" s="10" t="s">
         <v>374</v>
@@ -23112,7 +23176,7 @@
         <v>359</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="F216" s="10" t="s">
         <v>374</v>
@@ -23172,7 +23236,7 @@
         <v>359</v>
       </c>
       <c r="E217" s="10" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="F217" s="10" t="s">
         <v>374</v>
@@ -23232,7 +23296,7 @@
         <v>359</v>
       </c>
       <c r="E218" s="10" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="F218" s="10" t="s">
         <v>374</v>
@@ -23292,7 +23356,7 @@
         <v>359</v>
       </c>
       <c r="E219" s="10" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="F219" s="10" t="s">
         <v>374</v>
@@ -23352,7 +23416,7 @@
         <v>359</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F220" s="10" t="s">
         <v>374</v>
@@ -23412,7 +23476,7 @@
         <v>359</v>
       </c>
       <c r="E221" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F221" s="10" t="s">
         <v>374</v>
@@ -23471,7 +23535,7 @@
         <v>360</v>
       </c>
       <c r="E222" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F222" s="10" t="s">
         <v>374</v>
@@ -23530,7 +23594,7 @@
         <v>361</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F223" s="10" t="s">
         <v>374</v>
@@ -23587,10 +23651,10 @@
         <v>40002201</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="E224" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F224" s="10" t="s">
         <v>374</v>
@@ -23650,7 +23714,7 @@
         <v>355</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F225" s="10" t="s">
         <v>374</v>
@@ -23710,7 +23774,7 @@
         <v>355</v>
       </c>
       <c r="E226" s="10" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="F226" s="10" t="s">
         <v>374</v>
@@ -23770,7 +23834,7 @@
         <v>355</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="F227" s="10" t="s">
         <v>374</v>
@@ -23830,7 +23894,7 @@
         <v>355</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="F228" s="10" t="s">
         <v>374</v>
@@ -23890,7 +23954,7 @@
         <v>355</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="F229" s="10" t="s">
         <v>374</v>
@@ -23950,7 +24014,7 @@
         <v>355</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="F230" s="10" t="s">
         <v>374</v>
@@ -24010,7 +24074,7 @@
         <v>355</v>
       </c>
       <c r="E231" s="10" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="F231" s="10" t="s">
         <v>374</v>
@@ -24070,7 +24134,7 @@
         <v>355</v>
       </c>
       <c r="E232" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F232" s="10" t="s">
         <v>374</v>
@@ -24130,7 +24194,7 @@
         <v>355</v>
       </c>
       <c r="E233" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F233" s="10" t="s">
         <v>374</v>
@@ -24189,7 +24253,7 @@
         <v>357</v>
       </c>
       <c r="E234" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F234" s="10" t="s">
         <v>374</v>
@@ -24248,7 +24312,7 @@
         <v>362</v>
       </c>
       <c r="E235" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F235" s="10" t="s">
         <v>374</v>
@@ -24305,10 +24369,10 @@
         <v>40002301</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F236" s="10" t="s">
         <v>374</v>
@@ -24368,7 +24432,7 @@
         <v>356</v>
       </c>
       <c r="E237" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F237" s="10" t="s">
         <v>374</v>
@@ -24428,7 +24492,7 @@
         <v>356</v>
       </c>
       <c r="E238" s="10" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="F238" s="10" t="s">
         <v>374</v>
@@ -24488,7 +24552,7 @@
         <v>356</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="F239" s="10" t="s">
         <v>374</v>
@@ -24548,7 +24612,7 @@
         <v>356</v>
       </c>
       <c r="E240" s="10" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="F240" s="10" t="s">
         <v>374</v>
@@ -24608,7 +24672,7 @@
         <v>356</v>
       </c>
       <c r="E241" s="10" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="F241" s="10" t="s">
         <v>374</v>
@@ -24668,7 +24732,7 @@
         <v>356</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="F242" s="10" t="s">
         <v>374</v>
@@ -24728,7 +24792,7 @@
         <v>356</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="F243" s="10" t="s">
         <v>374</v>
@@ -24788,7 +24852,7 @@
         <v>356</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F244" s="10" t="s">
         <v>374</v>
@@ -24848,7 +24912,7 @@
         <v>356</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F245" s="10" t="s">
         <v>374</v>
@@ -24907,7 +24971,7 @@
         <v>358</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F246" s="10" t="s">
         <v>374</v>
@@ -24966,7 +25030,7 @@
         <v>363</v>
       </c>
       <c r="E247" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F247" s="10" t="s">
         <v>374</v>
@@ -25025,7 +25089,7 @@
         <v>364</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F248" s="10" t="s">
         <v>374</v>
@@ -25084,7 +25148,7 @@
         <v>364</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F249" s="10" t="s">
         <v>374</v>
@@ -25143,7 +25207,7 @@
         <v>364</v>
       </c>
       <c r="E250" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F250" s="10" t="s">
         <v>374</v>
@@ -25202,7 +25266,7 @@
         <v>364</v>
       </c>
       <c r="E251" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F251" s="10" t="s">
         <v>374</v>
@@ -25261,7 +25325,7 @@
         <v>364</v>
       </c>
       <c r="E252" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F252" s="10" t="s">
         <v>374</v>
@@ -25320,7 +25384,7 @@
         <v>364</v>
       </c>
       <c r="E253" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F253" s="10" t="s">
         <v>374</v>
@@ -25379,7 +25443,7 @@
         <v>364</v>
       </c>
       <c r="E254" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F254" s="10" t="s">
         <v>374</v>
@@ -25438,7 +25502,7 @@
         <v>364</v>
       </c>
       <c r="E255" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F255" s="10" t="s">
         <v>374</v>
@@ -25497,7 +25561,7 @@
         <v>364</v>
       </c>
       <c r="E256" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F256" s="10" t="s">
         <v>374</v>
@@ -25556,7 +25620,7 @@
         <v>364</v>
       </c>
       <c r="E257" s="10" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F257" s="10" t="s">
         <v>374</v>
@@ -25616,7 +25680,7 @@
         <v>359</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F258" s="10" t="s">
         <v>375</v>
@@ -25676,7 +25740,7 @@
         <v>359</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F259" s="10" t="s">
         <v>375</v>
@@ -25736,7 +25800,7 @@
         <v>359</v>
       </c>
       <c r="E260" s="10" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F260" s="10" t="s">
         <v>375</v>
@@ -25796,7 +25860,7 @@
         <v>359</v>
       </c>
       <c r="E261" s="10" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F261" s="10" t="s">
         <v>375</v>
@@ -25856,7 +25920,7 @@
         <v>359</v>
       </c>
       <c r="E262" s="10" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="F262" s="10" t="s">
         <v>375</v>
@@ -25916,7 +25980,7 @@
         <v>359</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="F263" s="10" t="s">
         <v>375</v>
@@ -25976,7 +26040,7 @@
         <v>359</v>
       </c>
       <c r="E264" s="10" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="F264" s="10" t="s">
         <v>375</v>
@@ -26036,7 +26100,7 @@
         <v>359</v>
       </c>
       <c r="E265" s="10" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="F265" s="10" t="s">
         <v>375</v>
@@ -26096,7 +26160,7 @@
         <v>359</v>
       </c>
       <c r="E266" s="10" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="F266" s="10" t="s">
         <v>375</v>
@@ -26156,7 +26220,7 @@
         <v>359</v>
       </c>
       <c r="E267" s="10" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="F267" s="10" t="s">
         <v>375</v>
@@ -26215,7 +26279,7 @@
         <v>360</v>
       </c>
       <c r="E268" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F268" s="10" t="s">
         <v>375</v>
@@ -26274,7 +26338,7 @@
         <v>361</v>
       </c>
       <c r="E269" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F269" s="10" t="s">
         <v>375</v>
@@ -26331,10 +26395,10 @@
         <v>40003201</v>
       </c>
       <c r="D270" s="10" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="E270" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F270" s="10" t="s">
         <v>375</v>
@@ -26394,7 +26458,7 @@
         <v>355</v>
       </c>
       <c r="E271" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F271" s="10" t="s">
         <v>375</v>
@@ -26454,7 +26518,7 @@
         <v>355</v>
       </c>
       <c r="E272" s="10" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F272" s="10" t="s">
         <v>375</v>
@@ -26514,7 +26578,7 @@
         <v>355</v>
       </c>
       <c r="E273" s="10" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F273" s="10" t="s">
         <v>375</v>
@@ -26574,7 +26638,7 @@
         <v>355</v>
       </c>
       <c r="E274" s="10" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="F274" s="10" t="s">
         <v>375</v>
@@ -26634,7 +26698,7 @@
         <v>355</v>
       </c>
       <c r="E275" s="10" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="F275" s="10" t="s">
         <v>375</v>
@@ -26694,7 +26758,7 @@
         <v>355</v>
       </c>
       <c r="E276" s="10" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="F276" s="10" t="s">
         <v>375</v>
@@ -26754,7 +26818,7 @@
         <v>355</v>
       </c>
       <c r="E277" s="10" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="F277" s="10" t="s">
         <v>375</v>
@@ -26814,7 +26878,7 @@
         <v>355</v>
       </c>
       <c r="E278" s="10" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="F278" s="10" t="s">
         <v>375</v>
@@ -26874,7 +26938,7 @@
         <v>355</v>
       </c>
       <c r="E279" s="10" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="F279" s="10" t="s">
         <v>375</v>
@@ -26933,7 +26997,7 @@
         <v>357</v>
       </c>
       <c r="E280" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F280" s="10" t="s">
         <v>375</v>
@@ -26992,7 +27056,7 @@
         <v>362</v>
       </c>
       <c r="E281" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F281" s="10" t="s">
         <v>375</v>
@@ -27049,10 +27113,10 @@
         <v>40003301</v>
       </c>
       <c r="D282" s="10" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="E282" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F282" s="10" t="s">
         <v>375</v>
@@ -27112,7 +27176,7 @@
         <v>356</v>
       </c>
       <c r="E283" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F283" s="10" t="s">
         <v>375</v>
@@ -27172,7 +27236,7 @@
         <v>356</v>
       </c>
       <c r="E284" s="10" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F284" s="10" t="s">
         <v>375</v>
@@ -27232,7 +27296,7 @@
         <v>356</v>
       </c>
       <c r="E285" s="10" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="F285" s="10" t="s">
         <v>375</v>
@@ -27292,7 +27356,7 @@
         <v>356</v>
       </c>
       <c r="E286" s="10" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="F286" s="10" t="s">
         <v>375</v>
@@ -27352,7 +27416,7 @@
         <v>356</v>
       </c>
       <c r="E287" s="10" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="F287" s="10" t="s">
         <v>375</v>
@@ -27412,7 +27476,7 @@
         <v>356</v>
       </c>
       <c r="E288" s="10" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="F288" s="10" t="s">
         <v>375</v>
@@ -27472,7 +27536,7 @@
         <v>356</v>
       </c>
       <c r="E289" s="10" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="F289" s="10" t="s">
         <v>375</v>
@@ -27532,7 +27596,7 @@
         <v>356</v>
       </c>
       <c r="E290" s="10" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="F290" s="10" t="s">
         <v>375</v>
@@ -27592,7 +27656,7 @@
         <v>356</v>
       </c>
       <c r="E291" s="10" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="F291" s="10" t="s">
         <v>375</v>
@@ -27651,7 +27715,7 @@
         <v>358</v>
       </c>
       <c r="E292" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F292" s="10" t="s">
         <v>375</v>
@@ -27710,7 +27774,7 @@
         <v>363</v>
       </c>
       <c r="E293" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F293" s="10" t="s">
         <v>375</v>
@@ -27769,7 +27833,7 @@
         <v>364</v>
       </c>
       <c r="E294" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F294" s="10" t="s">
         <v>375</v>
@@ -27828,7 +27892,7 @@
         <v>364</v>
       </c>
       <c r="E295" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F295" s="10" t="s">
         <v>375</v>
@@ -27887,7 +27951,7 @@
         <v>364</v>
       </c>
       <c r="E296" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F296" s="10" t="s">
         <v>375</v>
@@ -27946,7 +28010,7 @@
         <v>364</v>
       </c>
       <c r="E297" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F297" s="10" t="s">
         <v>375</v>
@@ -28005,7 +28069,7 @@
         <v>364</v>
       </c>
       <c r="E298" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F298" s="10" t="s">
         <v>375</v>
@@ -28064,7 +28128,7 @@
         <v>364</v>
       </c>
       <c r="E299" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F299" s="10" t="s">
         <v>375</v>
@@ -28123,7 +28187,7 @@
         <v>364</v>
       </c>
       <c r="E300" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F300" s="10" t="s">
         <v>375</v>
@@ -28182,7 +28246,7 @@
         <v>364</v>
       </c>
       <c r="E301" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F301" s="10" t="s">
         <v>375</v>
@@ -28241,7 +28305,7 @@
         <v>364</v>
       </c>
       <c r="E302" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F302" s="10" t="s">
         <v>375</v>
@@ -28300,7 +28364,7 @@
         <v>364</v>
       </c>
       <c r="E303" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F303" s="10" t="s">
         <v>375</v>
@@ -28360,10 +28424,10 @@
         <v>359</v>
       </c>
       <c r="E304" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F304" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G304" s="10" t="s">
         <v>353</v>
@@ -28420,10 +28484,10 @@
         <v>359</v>
       </c>
       <c r="E305" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F305" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G305" s="10" t="s">
         <v>353</v>
@@ -28480,10 +28544,10 @@
         <v>359</v>
       </c>
       <c r="E306" s="10" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="F306" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G306" s="10" t="s">
         <v>353</v>
@@ -28540,10 +28604,10 @@
         <v>359</v>
       </c>
       <c r="E307" s="10" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="F307" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G307" s="10" t="s">
         <v>353</v>
@@ -28600,10 +28664,10 @@
         <v>359</v>
       </c>
       <c r="E308" s="10" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="F308" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G308" s="10" t="s">
         <v>353</v>
@@ -28660,10 +28724,10 @@
         <v>359</v>
       </c>
       <c r="E309" s="10" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="F309" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G309" s="10" t="s">
         <v>353</v>
@@ -28720,10 +28784,10 @@
         <v>359</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="F310" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G310" s="10" t="s">
         <v>353</v>
@@ -28780,10 +28844,10 @@
         <v>359</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="F311" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G311" s="10" t="s">
         <v>353</v>
@@ -28840,10 +28904,10 @@
         <v>359</v>
       </c>
       <c r="E312" s="10" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="F312" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G312" s="10" t="s">
         <v>353</v>
@@ -28900,10 +28964,10 @@
         <v>359</v>
       </c>
       <c r="E313" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F313" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G313" s="10" t="s">
         <v>353</v>
@@ -28959,10 +29023,10 @@
         <v>360</v>
       </c>
       <c r="E314" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F314" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G314" s="10" t="s">
         <v>353</v>
@@ -29018,10 +29082,10 @@
         <v>361</v>
       </c>
       <c r="E315" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F315" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G315" s="10" t="s">
         <v>353</v>
@@ -29075,13 +29139,13 @@
         <v>40004201</v>
       </c>
       <c r="D316" s="10" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="E316" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F316" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G316" s="10" t="s">
         <v>353</v>
@@ -29138,10 +29202,10 @@
         <v>355</v>
       </c>
       <c r="E317" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F317" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G317" s="10" t="s">
         <v>353</v>
@@ -29198,10 +29262,10 @@
         <v>355</v>
       </c>
       <c r="E318" s="10" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="F318" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G318" s="10" t="s">
         <v>353</v>
@@ -29258,10 +29322,10 @@
         <v>355</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="F319" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G319" s="10" t="s">
         <v>353</v>
@@ -29318,10 +29382,10 @@
         <v>355</v>
       </c>
       <c r="E320" s="10" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="F320" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G320" s="10" t="s">
         <v>353</v>
@@ -29378,10 +29442,10 @@
         <v>355</v>
       </c>
       <c r="E321" s="10" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="F321" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G321" s="10" t="s">
         <v>353</v>
@@ -29438,10 +29502,10 @@
         <v>355</v>
       </c>
       <c r="E322" s="10" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="F322" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G322" s="10" t="s">
         <v>353</v>
@@ -29498,10 +29562,10 @@
         <v>355</v>
       </c>
       <c r="E323" s="10" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="F323" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G323" s="10" t="s">
         <v>353</v>
@@ -29558,10 +29622,10 @@
         <v>355</v>
       </c>
       <c r="E324" s="10" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="F324" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G324" s="10" t="s">
         <v>353</v>
@@ -29618,10 +29682,10 @@
         <v>355</v>
       </c>
       <c r="E325" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F325" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G325" s="10" t="s">
         <v>353</v>
@@ -29677,10 +29741,10 @@
         <v>357</v>
       </c>
       <c r="E326" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F326" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G326" s="10" t="s">
         <v>353</v>
@@ -29736,10 +29800,10 @@
         <v>362</v>
       </c>
       <c r="E327" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F327" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G327" s="10" t="s">
         <v>353</v>
@@ -29793,13 +29857,13 @@
         <v>40004301</v>
       </c>
       <c r="D328" s="10" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="E328" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F328" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G328" s="10" t="s">
         <v>353</v>
@@ -29856,10 +29920,10 @@
         <v>356</v>
       </c>
       <c r="E329" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F329" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G329" s="10" t="s">
         <v>353</v>
@@ -29916,10 +29980,10 @@
         <v>356</v>
       </c>
       <c r="E330" s="10" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="F330" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G330" s="10" t="s">
         <v>353</v>
@@ -29976,10 +30040,10 @@
         <v>356</v>
       </c>
       <c r="E331" s="10" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="F331" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G331" s="10" t="s">
         <v>353</v>
@@ -30036,10 +30100,10 @@
         <v>356</v>
       </c>
       <c r="E332" s="10" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="F332" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G332" s="10" t="s">
         <v>353</v>
@@ -30096,10 +30160,10 @@
         <v>356</v>
       </c>
       <c r="E333" s="10" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="F333" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G333" s="10" t="s">
         <v>353</v>
@@ -30156,10 +30220,10 @@
         <v>356</v>
       </c>
       <c r="E334" s="10" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="F334" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G334" s="10" t="s">
         <v>353</v>
@@ -30216,10 +30280,10 @@
         <v>356</v>
       </c>
       <c r="E335" s="10" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="F335" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G335" s="10" t="s">
         <v>353</v>
@@ -30276,10 +30340,10 @@
         <v>356</v>
       </c>
       <c r="E336" s="10" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="F336" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G336" s="10" t="s">
         <v>353</v>
@@ -30336,10 +30400,10 @@
         <v>356</v>
       </c>
       <c r="E337" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F337" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G337" s="10" t="s">
         <v>353</v>
@@ -30395,10 +30459,10 @@
         <v>358</v>
       </c>
       <c r="E338" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F338" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G338" s="10" t="s">
         <v>353</v>
@@ -30454,10 +30518,10 @@
         <v>363</v>
       </c>
       <c r="E339" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F339" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G339" s="10" t="s">
         <v>353</v>
@@ -30513,10 +30577,10 @@
         <v>364</v>
       </c>
       <c r="E340" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F340" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G340" s="9">
         <v>3</v>
@@ -30572,10 +30636,10 @@
         <v>364</v>
       </c>
       <c r="E341" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F341" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G341" s="9">
         <v>3</v>
@@ -30631,10 +30695,10 @@
         <v>364</v>
       </c>
       <c r="E342" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F342" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G342" s="9">
         <v>3</v>
@@ -30690,10 +30754,10 @@
         <v>364</v>
       </c>
       <c r="E343" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F343" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G343" s="9">
         <v>3</v>
@@ -30749,10 +30813,10 @@
         <v>364</v>
       </c>
       <c r="E344" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F344" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G344" s="9">
         <v>3</v>
@@ -30808,10 +30872,10 @@
         <v>364</v>
       </c>
       <c r="E345" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F345" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G345" s="9">
         <v>3</v>
@@ -30867,10 +30931,10 @@
         <v>364</v>
       </c>
       <c r="E346" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F346" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G346" s="9">
         <v>3</v>
@@ -30926,10 +30990,10 @@
         <v>364</v>
       </c>
       <c r="E347" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F347" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G347" s="9">
         <v>3</v>
@@ -30985,10 +31049,10 @@
         <v>364</v>
       </c>
       <c r="E348" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F348" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G348" s="9">
         <v>3</v>
@@ -31044,10 +31108,10 @@
         <v>364</v>
       </c>
       <c r="E349" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F349" s="10" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="G349" s="9">
         <v>3</v>
@@ -31104,7 +31168,7 @@
         <v>359</v>
       </c>
       <c r="E350" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F350" s="10" t="s">
         <v>372</v>
@@ -31164,7 +31228,7 @@
         <v>359</v>
       </c>
       <c r="E351" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F351" s="10" t="s">
         <v>372</v>
@@ -31224,7 +31288,7 @@
         <v>359</v>
       </c>
       <c r="E352" s="10" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="F352" s="10" t="s">
         <v>372</v>
@@ -31284,7 +31348,7 @@
         <v>359</v>
       </c>
       <c r="E353" s="10" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="F353" s="10" t="s">
         <v>372</v>
@@ -31344,7 +31408,7 @@
         <v>359</v>
       </c>
       <c r="E354" s="10" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="F354" s="10" t="s">
         <v>372</v>
@@ -31404,7 +31468,7 @@
         <v>359</v>
       </c>
       <c r="E355" s="10" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="F355" s="10" t="s">
         <v>372</v>
@@ -31464,7 +31528,7 @@
         <v>359</v>
       </c>
       <c r="E356" s="10" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="F356" s="10" t="s">
         <v>372</v>
@@ -31524,7 +31588,7 @@
         <v>359</v>
       </c>
       <c r="E357" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F357" s="10" t="s">
         <v>372</v>
@@ -31584,7 +31648,7 @@
         <v>359</v>
       </c>
       <c r="E358" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F358" s="10" t="s">
         <v>372</v>
@@ -31644,7 +31708,7 @@
         <v>359</v>
       </c>
       <c r="E359" s="10" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="F359" s="10" t="s">
         <v>372</v>
@@ -31703,7 +31767,7 @@
         <v>360</v>
       </c>
       <c r="E360" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F360" s="10" t="s">
         <v>372</v>
@@ -31762,7 +31826,7 @@
         <v>361</v>
       </c>
       <c r="E361" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F361" s="10" t="s">
         <v>372</v>
@@ -31819,10 +31883,10 @@
         <v>40005201</v>
       </c>
       <c r="D362" s="10" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="E362" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F362" s="10" t="s">
         <v>372</v>
@@ -31882,7 +31946,7 @@
         <v>355</v>
       </c>
       <c r="E363" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F363" s="10" t="s">
         <v>372</v>
@@ -31942,7 +32006,7 @@
         <v>355</v>
       </c>
       <c r="E364" s="10" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="F364" s="10" t="s">
         <v>372</v>
@@ -32002,7 +32066,7 @@
         <v>355</v>
       </c>
       <c r="E365" s="10" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="F365" s="10" t="s">
         <v>372</v>
@@ -32062,7 +32126,7 @@
         <v>355</v>
       </c>
       <c r="E366" s="10" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="F366" s="10" t="s">
         <v>372</v>
@@ -32122,7 +32186,7 @@
         <v>355</v>
       </c>
       <c r="E367" s="10" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="F367" s="10" t="s">
         <v>372</v>
@@ -32182,7 +32246,7 @@
         <v>355</v>
       </c>
       <c r="E368" s="10" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="F368" s="10" t="s">
         <v>372</v>
@@ -32242,7 +32306,7 @@
         <v>355</v>
       </c>
       <c r="E369" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F369" s="10" t="s">
         <v>372</v>
@@ -32302,7 +32366,7 @@
         <v>355</v>
       </c>
       <c r="E370" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F370" s="10" t="s">
         <v>372</v>
@@ -32362,7 +32426,7 @@
         <v>355</v>
       </c>
       <c r="E371" s="10" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="F371" s="10" t="s">
         <v>372</v>
@@ -32421,7 +32485,7 @@
         <v>357</v>
       </c>
       <c r="E372" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F372" s="10" t="s">
         <v>372</v>
@@ -32480,7 +32544,7 @@
         <v>362</v>
       </c>
       <c r="E373" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F373" s="10" t="s">
         <v>372</v>
@@ -32537,10 +32601,10 @@
         <v>40005301</v>
       </c>
       <c r="D374" s="10" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="E374" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F374" s="10" t="s">
         <v>372</v>
@@ -32600,7 +32664,7 @@
         <v>356</v>
       </c>
       <c r="E375" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F375" s="10" t="s">
         <v>372</v>
@@ -32660,7 +32724,7 @@
         <v>356</v>
       </c>
       <c r="E376" s="10" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="F376" s="10" t="s">
         <v>372</v>
@@ -32720,7 +32784,7 @@
         <v>356</v>
       </c>
       <c r="E377" s="10" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="F377" s="10" t="s">
         <v>372</v>
@@ -32780,7 +32844,7 @@
         <v>356</v>
       </c>
       <c r="E378" s="10" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="F378" s="10" t="s">
         <v>372</v>
@@ -32840,7 +32904,7 @@
         <v>356</v>
       </c>
       <c r="E379" s="10" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="F379" s="10" t="s">
         <v>372</v>
@@ -32900,7 +32964,7 @@
         <v>356</v>
       </c>
       <c r="E380" s="10" t="s">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="F380" s="10" t="s">
         <v>372</v>
@@ -32960,7 +33024,7 @@
         <v>356</v>
       </c>
       <c r="E381" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F381" s="10" t="s">
         <v>372</v>
@@ -33020,7 +33084,7 @@
         <v>356</v>
       </c>
       <c r="E382" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F382" s="10" t="s">
         <v>372</v>
@@ -33080,7 +33144,7 @@
         <v>356</v>
       </c>
       <c r="E383" s="10" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="F383" s="10" t="s">
         <v>372</v>
@@ -33139,7 +33203,7 @@
         <v>358</v>
       </c>
       <c r="E384" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F384" s="10" t="s">
         <v>372</v>
@@ -33198,7 +33262,7 @@
         <v>363</v>
       </c>
       <c r="E385" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F385" s="10" t="s">
         <v>372</v>
@@ -33257,7 +33321,7 @@
         <v>364</v>
       </c>
       <c r="E386" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F386" s="10" t="s">
         <v>372</v>
@@ -33316,7 +33380,7 @@
         <v>364</v>
       </c>
       <c r="E387" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F387" s="10" t="s">
         <v>372</v>
@@ -33375,7 +33439,7 @@
         <v>364</v>
       </c>
       <c r="E388" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F388" s="10" t="s">
         <v>372</v>
@@ -33434,7 +33498,7 @@
         <v>364</v>
       </c>
       <c r="E389" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F389" s="10" t="s">
         <v>372</v>
@@ -33493,7 +33557,7 @@
         <v>364</v>
       </c>
       <c r="E390" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F390" s="10" t="s">
         <v>372</v>
@@ -33552,7 +33616,7 @@
         <v>364</v>
       </c>
       <c r="E391" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F391" s="10" t="s">
         <v>372</v>
@@ -33611,7 +33675,7 @@
         <v>364</v>
       </c>
       <c r="E392" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F392" s="10" t="s">
         <v>372</v>
@@ -33670,7 +33734,7 @@
         <v>364</v>
       </c>
       <c r="E393" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F393" s="10" t="s">
         <v>372</v>
@@ -33729,7 +33793,7 @@
         <v>364</v>
       </c>
       <c r="E394" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F394" s="10" t="s">
         <v>372</v>
@@ -33788,7 +33852,7 @@
         <v>364</v>
       </c>
       <c r="E395" s="10" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="F395" s="10" t="s">
         <v>372</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3A6955-A597-4EF1-8A98-AE116261B43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ADDC26-AA3D-44AB-8507-B352DAE72F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,6 +70,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">主线任务
 </t>
@@ -86,6 +88,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：支线任务
 </t>
@@ -102,6 +106,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：每日任务
 </t>
@@ -118,6 +124,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>：试炼任务</t>
         </r>
@@ -147,6 +155,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">备用
 </t>
@@ -155,6 +165,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>属于前面大类中的分类</t>
         </r>
@@ -184,6 +196,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>作者</t>
         </r>
@@ -208,6 +222,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：等级触发
 </t>
@@ -224,6 +240,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：任务触发
 </t>
@@ -240,6 +258,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>：直接触发下一级任务</t>
         </r>
@@ -269,6 +289,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>作者</t>
         </r>
@@ -293,6 +315,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：杀怪
 </t>
@@ -309,6 +333,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>：道具</t>
         </r>
@@ -333,6 +359,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：找人
 </t>
@@ -349,6 +377,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：等级达到指定等级
 </t>
@@ -365,6 +395,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：击杀任意怪物
 </t>
@@ -381,6 +413,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>：击杀任意</t>
         </r>
@@ -396,6 +430,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">级别怪物
 </t>
@@ -404,6 +440,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">7：通关某个副本
 </t>
@@ -412,6 +450,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">8：转职任务
 </t>
@@ -420,6 +460,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">101：击杀挑战难度的指定ID怪物(击杀地狱也算)
 </t>
@@ -428,6 +470,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">102：击杀地狱你拿度指定ID怪物
 </t>
@@ -436,6 +480,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">111：通关挑战难度的副本(通关地狱也算)
 </t>
@@ -444,6 +490,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">112：通关地狱难度的副本
 </t>
@@ -452,6 +500,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">121：击败挑战难度任意数量怪物(通关地狱也算)
 </t>
@@ -460,6 +510,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">122：击败地狱难度任意数量怪物
 </t>
@@ -468,6 +520,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">131：击败挑战难度任意boss怪物(通关地狱也算)
 </t>
@@ -476,6 +530,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">132：击败地狱难度任意boss怪物
 </t>
@@ -484,6 +540,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -492,6 +550,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -675,6 +735,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>找到流浪者,他好像有什么话说</t>
     </r>
@@ -683,6 +745,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -696,6 +760,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>找到了流浪者,回去告诉村长</t>
     </r>
@@ -704,6 +770,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -789,6 +857,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>前往绿叶郊外,找到勇士一起冒险</t>
     </r>
@@ -797,6 +867,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -810,6 +882,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>清除完这些蜘蛛,道路似乎干净了许多</t>
     </r>
@@ -818,6 +892,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1744,12 +1820,16 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1757,39 +1837,53 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1811,6 +1905,8 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="28">
@@ -9588,9 +9684,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A328" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R335" sqref="C3:U395"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R344" sqref="R344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30515,7 +30611,7 @@
         <v>1</v>
       </c>
       <c r="R354" s="21">
-        <v>70005008</v>
+        <v>70005002</v>
       </c>
       <c r="S354" s="9">
         <v>20</v>
@@ -31233,7 +31329,7 @@
         <v>1</v>
       </c>
       <c r="R366" s="21">
-        <v>70005008</v>
+        <v>70005002</v>
       </c>
       <c r="S366" s="9">
         <v>50</v>
@@ -31951,7 +32047,7 @@
         <v>1</v>
       </c>
       <c r="R378" s="21">
-        <v>70005008</v>
+        <v>70005002</v>
       </c>
       <c r="S378" s="9">
         <v>100</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ADDC26-AA3D-44AB-8507-B352DAE72F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784C9F56-540E-4D62-A547-16CFDCE78001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30555" yWindow="975" windowWidth="27045" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -9684,9 +9684,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R344" sqref="R344"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12411,7 +12411,7 @@
         <v>70001209</v>
       </c>
       <c r="S48" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T48" s="8">
         <v>100504</v>
@@ -33070,7 +33070,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574F2513-B66E-4CA1-A924-C8C05A1945BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77634523-C06C-414D-A533-D331CE0DE1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -9748,9 +9748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R61" sqref="R61"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N61" sqref="N61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13224,10 +13224,10 @@
         <v>1520</v>
       </c>
       <c r="M61" s="11">
-        <v>10020060</v>
+        <v>10010083</v>
       </c>
       <c r="N61" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O61" s="11">
         <v>30020111</v>
@@ -13239,10 +13239,10 @@
         <v>2</v>
       </c>
       <c r="R61" s="9">
-        <v>10022006</v>
+        <v>10020060</v>
       </c>
       <c r="S61" s="9">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="T61" s="15">
         <v>200204</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77634523-C06C-414D-A533-D331CE0DE1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CD9A52-8AA0-440A-A813-C9F6D573CB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -9748,9 +9748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N61" sqref="N61"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S69" sqref="S69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13711,10 +13711,10 @@
         <v>2</v>
       </c>
       <c r="R69" s="9">
-        <v>10022005</v>
+        <v>10022004</v>
       </c>
       <c r="S69" s="9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T69" s="15">
         <v>200302</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CD9A52-8AA0-440A-A813-C9F6D573CB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED590127-82F6-4607-AB54-C4F9267C2A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2014" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="402">
   <si>
     <t>Id</t>
   </si>
@@ -1803,12 +1803,56 @@
   <si>
     <t>前往主城的转职使者选择一个适合自己的第二职业吧,它会让你变的更强大。</t>
   </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>请和其他小伙伴组队前往绿谷村副本开始你的任务之旅!</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>请和其他小伙伴组队前往荒漠领域副本开始你的任务之旅!</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>请和其他小伙伴组队前往冰封之地副本开始你的任务之旅!</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>请和其他小伙伴组队前往森林巢穴副本开始你的任务之旅!</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>20002003</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>20003003</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>20004003</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>20005003</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>组队副本试炼</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>组队副本悬赏</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1928,8 +1972,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2098,6 +2149,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -7509,7 +7566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7608,6 +7665,12 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="9" borderId="4" xfId="1136" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="29" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1808">
@@ -9746,11 +9809,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U397"/>
+  <dimension ref="A1:U450"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S69" sqref="S69"/>
+      <pane ySplit="5" topLeftCell="A402" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N419" sqref="N419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32482,7 +32545,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="385" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C385" s="9">
         <v>40005312</v>
       </c>
@@ -32541,7 +32604,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="386" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C386" s="9">
         <v>40005401</v>
       </c>
@@ -32600,7 +32663,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="387" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C387" s="9">
         <v>40005402</v>
       </c>
@@ -32659,7 +32722,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="388" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C388" s="9">
         <v>40005403</v>
       </c>
@@ -32718,7 +32781,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="389" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C389" s="9">
         <v>40005404</v>
       </c>
@@ -32777,7 +32840,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="390" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C390" s="9">
         <v>40005405</v>
       </c>
@@ -32836,7 +32899,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="391" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C391" s="9">
         <v>40005406</v>
       </c>
@@ -32895,7 +32958,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="392" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C392" s="9">
         <v>40005407</v>
       </c>
@@ -32954,7 +33017,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="393" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C393" s="9">
         <v>40005408</v>
       </c>
@@ -33013,7 +33076,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="394" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C394" s="9">
         <v>40005409</v>
       </c>
@@ -33072,7 +33135,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="395" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C395" s="9">
         <v>40005410</v>
       </c>
@@ -33131,18 +33194,19 @@
         <v>356</v>
       </c>
     </row>
-    <row r="396" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B396" s="20"/>
       <c r="C396" s="9">
-        <v>50000001</v>
-      </c>
-      <c r="D396" s="10" t="s">
-        <v>386</v>
+        <v>41001001</v>
+      </c>
+      <c r="D396" s="9" t="s">
+        <v>400</v>
       </c>
       <c r="E396" s="9">
-        <v>1</v>
-      </c>
-      <c r="F396" s="10" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="F396" s="9">
+        <v>100</v>
       </c>
       <c r="G396" s="9">
         <v>2</v>
@@ -33153,102 +33217,1570 @@
       <c r="I396" s="9">
         <v>1</v>
       </c>
-      <c r="J396" s="9">
+      <c r="J396" s="36">
         <v>1</v>
       </c>
       <c r="K396" s="9">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="L396" s="9">
-        <v>0</v>
-      </c>
-      <c r="M396" s="9">
+        <v>10000</v>
+      </c>
+      <c r="M396" s="17">
+        <v>10010083</v>
+      </c>
+      <c r="N396" s="9">
+        <v>3</v>
+      </c>
+      <c r="O396" s="11">
+        <v>0</v>
+      </c>
+      <c r="P396" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q396" s="10">
+        <v>1</v>
+      </c>
+      <c r="R396" s="21">
+        <v>72001011</v>
+      </c>
+      <c r="S396" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="T396" s="15">
+        <v>0</v>
+      </c>
+      <c r="U396" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="397" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B397" s="20"/>
+      <c r="C397" s="9">
+        <v>41001002</v>
+      </c>
+      <c r="D397" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E397" s="9">
+        <v>20</v>
+      </c>
+      <c r="F397" s="9">
+        <v>100</v>
+      </c>
+      <c r="G397" s="9">
+        <v>2</v>
+      </c>
+      <c r="H397" s="10">
+        <v>0</v>
+      </c>
+      <c r="I397" s="9">
+        <v>2</v>
+      </c>
+      <c r="J397" s="9">
+        <v>41001001</v>
+      </c>
+      <c r="K397" s="9">
+        <v>15000</v>
+      </c>
+      <c r="L397" s="9">
+        <v>10000</v>
+      </c>
+      <c r="M397" s="17">
+        <v>10000101</v>
+      </c>
+      <c r="N397" s="9">
+        <v>1</v>
+      </c>
+      <c r="O397" s="11">
+        <v>0</v>
+      </c>
+      <c r="P397" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q397" s="10">
+        <v>1</v>
+      </c>
+      <c r="R397" s="21">
+        <v>72001012</v>
+      </c>
+      <c r="S397" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="T397" s="15">
+        <v>0</v>
+      </c>
+      <c r="U397" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="398" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B398" s="20"/>
+      <c r="C398" s="9">
+        <v>41001003</v>
+      </c>
+      <c r="D398" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E398" s="9">
+        <v>20</v>
+      </c>
+      <c r="F398" s="9">
+        <v>100</v>
+      </c>
+      <c r="G398" s="9">
+        <v>2</v>
+      </c>
+      <c r="H398" s="10">
+        <v>0</v>
+      </c>
+      <c r="I398" s="9">
+        <v>2</v>
+      </c>
+      <c r="J398" s="9">
+        <v>41001002</v>
+      </c>
+      <c r="K398" s="9">
+        <v>15000</v>
+      </c>
+      <c r="L398" s="9">
+        <v>10000</v>
+      </c>
+      <c r="M398" s="9">
+        <v>10000122</v>
+      </c>
+      <c r="N398" s="9">
+        <v>1</v>
+      </c>
+      <c r="O398" s="11">
+        <v>0</v>
+      </c>
+      <c r="P398" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q398" s="10">
+        <v>1</v>
+      </c>
+      <c r="R398" s="21">
+        <v>72001013</v>
+      </c>
+      <c r="S398" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="T398" s="15">
+        <v>0</v>
+      </c>
+      <c r="U398" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="399" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B399" s="20"/>
+      <c r="C399" s="9">
+        <v>41001101</v>
+      </c>
+      <c r="D399" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E399" s="9">
+        <v>20</v>
+      </c>
+      <c r="F399" s="9">
+        <v>100</v>
+      </c>
+      <c r="G399" s="9">
+        <v>2</v>
+      </c>
+      <c r="H399" s="10">
+        <v>0</v>
+      </c>
+      <c r="I399" s="9">
+        <v>1</v>
+      </c>
+      <c r="J399" s="9">
+        <v>1</v>
+      </c>
+      <c r="K399" s="9">
+        <v>10000</v>
+      </c>
+      <c r="L399" s="9">
+        <v>7500</v>
+      </c>
+      <c r="M399" s="17">
+        <v>10000131</v>
+      </c>
+      <c r="N399" s="9">
+        <v>10</v>
+      </c>
+      <c r="O399" s="11">
+        <v>0</v>
+      </c>
+      <c r="P399" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q399" s="10">
+        <v>1</v>
+      </c>
+      <c r="R399" s="21">
+        <v>72001001</v>
+      </c>
+      <c r="S399" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="T399" s="15">
+        <v>0</v>
+      </c>
+      <c r="U399" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="400" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B400" s="20"/>
+      <c r="C400" s="9">
+        <v>41001102</v>
+      </c>
+      <c r="D400" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E400" s="9">
+        <v>20</v>
+      </c>
+      <c r="F400" s="9">
+        <v>100</v>
+      </c>
+      <c r="G400" s="9">
+        <v>2</v>
+      </c>
+      <c r="H400" s="10">
+        <v>0</v>
+      </c>
+      <c r="I400" s="9">
+        <v>2</v>
+      </c>
+      <c r="J400" s="9">
+        <v>41001101</v>
+      </c>
+      <c r="K400" s="9">
+        <v>10000</v>
+      </c>
+      <c r="L400" s="9">
+        <v>7500</v>
+      </c>
+      <c r="M400" s="17">
+        <v>10000131</v>
+      </c>
+      <c r="N400" s="9">
+        <v>10</v>
+      </c>
+      <c r="O400" s="11">
+        <v>0</v>
+      </c>
+      <c r="P400" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q400" s="10">
+        <v>1</v>
+      </c>
+      <c r="R400" s="21">
+        <v>72001003</v>
+      </c>
+      <c r="S400" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="T400" s="15">
+        <v>0</v>
+      </c>
+      <c r="U400" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="401" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B401" s="20"/>
+      <c r="C401" s="9">
+        <v>41001103</v>
+      </c>
+      <c r="D401" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E401" s="9">
+        <v>20</v>
+      </c>
+      <c r="F401" s="9">
+        <v>100</v>
+      </c>
+      <c r="G401" s="9">
+        <v>2</v>
+      </c>
+      <c r="H401" s="10">
+        <v>0</v>
+      </c>
+      <c r="I401" s="9">
+        <v>2</v>
+      </c>
+      <c r="J401" s="9">
+        <v>41001102</v>
+      </c>
+      <c r="K401" s="9">
+        <v>10000</v>
+      </c>
+      <c r="L401" s="9">
+        <v>7500</v>
+      </c>
+      <c r="M401" s="17">
+        <v>10000131</v>
+      </c>
+      <c r="N401" s="9">
+        <v>10</v>
+      </c>
+      <c r="O401" s="11">
+        <v>0</v>
+      </c>
+      <c r="P401" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q401" s="10">
+        <v>1</v>
+      </c>
+      <c r="R401" s="21">
+        <v>72001004</v>
+      </c>
+      <c r="S401" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="T401" s="15">
+        <v>0</v>
+      </c>
+      <c r="U401" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="402" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B402" s="20"/>
+      <c r="C402" s="9">
+        <v>41002001</v>
+      </c>
+      <c r="D402" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E402" s="9">
+        <v>30</v>
+      </c>
+      <c r="F402" s="9">
+        <v>100</v>
+      </c>
+      <c r="G402" s="9">
+        <v>2</v>
+      </c>
+      <c r="H402" s="10">
+        <v>0</v>
+      </c>
+      <c r="I402" s="9">
+        <v>1</v>
+      </c>
+      <c r="J402" s="36">
+        <v>1</v>
+      </c>
+      <c r="K402" s="9">
+        <v>30000</v>
+      </c>
+      <c r="L402" s="9">
+        <v>12000</v>
+      </c>
+      <c r="M402" s="17">
+        <v>10010083</v>
+      </c>
+      <c r="N402" s="9">
+        <v>3</v>
+      </c>
+      <c r="O402" s="11">
+        <v>0</v>
+      </c>
+      <c r="P402" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q402" s="10">
+        <v>1</v>
+      </c>
+      <c r="R402" s="21">
+        <v>72002011</v>
+      </c>
+      <c r="S402" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="T402" s="15">
+        <v>0</v>
+      </c>
+      <c r="U402" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="403" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B403" s="20"/>
+      <c r="C403" s="9">
+        <v>41002002</v>
+      </c>
+      <c r="D403" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E403" s="9">
+        <v>30</v>
+      </c>
+      <c r="F403" s="9">
+        <v>100</v>
+      </c>
+      <c r="G403" s="9">
+        <v>2</v>
+      </c>
+      <c r="H403" s="10">
+        <v>0</v>
+      </c>
+      <c r="I403" s="9">
+        <v>2</v>
+      </c>
+      <c r="J403" s="9">
+        <v>41002001</v>
+      </c>
+      <c r="K403" s="9">
+        <v>30000</v>
+      </c>
+      <c r="L403" s="9">
+        <v>12000</v>
+      </c>
+      <c r="M403" s="17">
+        <v>10000102</v>
+      </c>
+      <c r="N403" s="9">
+        <v>1</v>
+      </c>
+      <c r="O403" s="11">
+        <v>0</v>
+      </c>
+      <c r="P403" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q403" s="10">
+        <v>1</v>
+      </c>
+      <c r="R403" s="21">
+        <v>72002012</v>
+      </c>
+      <c r="S403" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="T403" s="15">
+        <v>0</v>
+      </c>
+      <c r="U403" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="404" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B404" s="20"/>
+      <c r="C404" s="9">
+        <v>41002003</v>
+      </c>
+      <c r="D404" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E404" s="9">
+        <v>30</v>
+      </c>
+      <c r="F404" s="9">
+        <v>100</v>
+      </c>
+      <c r="G404" s="9">
+        <v>2</v>
+      </c>
+      <c r="H404" s="10">
+        <v>0</v>
+      </c>
+      <c r="I404" s="9">
+        <v>2</v>
+      </c>
+      <c r="J404" s="9">
+        <v>41002002</v>
+      </c>
+      <c r="K404" s="9">
+        <v>30000</v>
+      </c>
+      <c r="L404" s="9">
+        <v>12000</v>
+      </c>
+      <c r="M404" s="9">
+        <v>10000123</v>
+      </c>
+      <c r="N404" s="9">
+        <v>1</v>
+      </c>
+      <c r="O404" s="11">
+        <v>0</v>
+      </c>
+      <c r="P404" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q404" s="10">
+        <v>1</v>
+      </c>
+      <c r="R404" s="21">
+        <v>72002013</v>
+      </c>
+      <c r="S404" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="T404" s="15">
+        <v>0</v>
+      </c>
+      <c r="U404" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="405" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B405" s="20"/>
+      <c r="C405" s="9">
+        <v>41002101</v>
+      </c>
+      <c r="D405" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E405" s="9">
+        <v>30</v>
+      </c>
+      <c r="F405" s="9">
+        <v>100</v>
+      </c>
+      <c r="G405" s="9">
+        <v>2</v>
+      </c>
+      <c r="H405" s="10">
+        <v>0</v>
+      </c>
+      <c r="I405" s="9">
+        <v>1</v>
+      </c>
+      <c r="J405" s="9">
+        <v>1</v>
+      </c>
+      <c r="K405" s="9">
+        <v>20000</v>
+      </c>
+      <c r="L405" s="9">
+        <v>9000</v>
+      </c>
+      <c r="M405" s="17">
+        <v>10000131</v>
+      </c>
+      <c r="N405" s="9">
+        <v>10</v>
+      </c>
+      <c r="O405" s="11">
+        <v>0</v>
+      </c>
+      <c r="P405" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q405" s="10">
+        <v>1</v>
+      </c>
+      <c r="R405" s="21">
+        <v>72002001</v>
+      </c>
+      <c r="S405" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="T405" s="15">
+        <v>0</v>
+      </c>
+      <c r="U405" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="406" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B406" s="20"/>
+      <c r="C406" s="9">
+        <v>41002102</v>
+      </c>
+      <c r="D406" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E406" s="9">
+        <v>30</v>
+      </c>
+      <c r="F406" s="9">
+        <v>100</v>
+      </c>
+      <c r="G406" s="9">
+        <v>2</v>
+      </c>
+      <c r="H406" s="10">
+        <v>0</v>
+      </c>
+      <c r="I406" s="9">
+        <v>2</v>
+      </c>
+      <c r="J406" s="9">
+        <v>41002101</v>
+      </c>
+      <c r="K406" s="9">
+        <v>20000</v>
+      </c>
+      <c r="L406" s="9">
+        <v>9000</v>
+      </c>
+      <c r="M406" s="17">
+        <v>10000131</v>
+      </c>
+      <c r="N406" s="9">
+        <v>10</v>
+      </c>
+      <c r="O406" s="11">
+        <v>0</v>
+      </c>
+      <c r="P406" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q406" s="10">
+        <v>1</v>
+      </c>
+      <c r="R406" s="21">
+        <v>72002003</v>
+      </c>
+      <c r="S406" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="T406" s="15">
+        <v>0</v>
+      </c>
+      <c r="U406" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="407" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B407" s="20"/>
+      <c r="C407" s="9">
+        <v>41002103</v>
+      </c>
+      <c r="D407" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E407" s="9">
+        <v>30</v>
+      </c>
+      <c r="F407" s="9">
+        <v>100</v>
+      </c>
+      <c r="G407" s="9">
+        <v>2</v>
+      </c>
+      <c r="H407" s="10">
+        <v>0</v>
+      </c>
+      <c r="I407" s="9">
+        <v>2</v>
+      </c>
+      <c r="J407" s="9">
+        <v>41002102</v>
+      </c>
+      <c r="K407" s="9">
+        <v>20000</v>
+      </c>
+      <c r="L407" s="9">
+        <v>9000</v>
+      </c>
+      <c r="M407" s="17">
+        <v>10000131</v>
+      </c>
+      <c r="N407" s="9">
+        <v>10</v>
+      </c>
+      <c r="O407" s="11">
+        <v>0</v>
+      </c>
+      <c r="P407" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q407" s="10">
+        <v>1</v>
+      </c>
+      <c r="R407" s="21">
+        <v>72002005</v>
+      </c>
+      <c r="S407" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="T407" s="15">
+        <v>0</v>
+      </c>
+      <c r="U407" s="21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="408" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B408" s="20"/>
+      <c r="C408" s="9">
+        <v>41003001</v>
+      </c>
+      <c r="D408" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E408" s="9">
+        <v>40</v>
+      </c>
+      <c r="F408" s="9">
+        <v>100</v>
+      </c>
+      <c r="G408" s="9">
+        <v>2</v>
+      </c>
+      <c r="H408" s="10">
+        <v>0</v>
+      </c>
+      <c r="I408" s="9">
+        <v>1</v>
+      </c>
+      <c r="J408" s="36">
+        <v>1</v>
+      </c>
+      <c r="K408" s="9">
+        <v>50000</v>
+      </c>
+      <c r="L408" s="9">
+        <v>14400</v>
+      </c>
+      <c r="M408" s="17">
+        <v>10010083</v>
+      </c>
+      <c r="N408" s="9">
+        <v>3</v>
+      </c>
+      <c r="O408" s="11">
+        <v>0</v>
+      </c>
+      <c r="P408" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q408" s="10">
+        <v>1</v>
+      </c>
+      <c r="R408" s="21">
+        <v>72003011</v>
+      </c>
+      <c r="S408" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="T408" s="15">
+        <v>0</v>
+      </c>
+      <c r="U408" s="21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="409" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B409" s="20"/>
+      <c r="C409" s="9">
+        <v>41003002</v>
+      </c>
+      <c r="D409" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E409" s="9">
+        <v>40</v>
+      </c>
+      <c r="F409" s="9">
+        <v>100</v>
+      </c>
+      <c r="G409" s="9">
+        <v>2</v>
+      </c>
+      <c r="H409" s="10">
+        <v>0</v>
+      </c>
+      <c r="I409" s="9">
+        <v>2</v>
+      </c>
+      <c r="J409" s="9">
+        <v>41003001</v>
+      </c>
+      <c r="K409" s="9">
+        <v>50000</v>
+      </c>
+      <c r="L409" s="9">
+        <v>14400</v>
+      </c>
+      <c r="M409" s="17">
+        <v>10000103</v>
+      </c>
+      <c r="N409" s="9">
+        <v>1</v>
+      </c>
+      <c r="O409" s="11">
+        <v>0</v>
+      </c>
+      <c r="P409" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q409" s="10">
+        <v>1</v>
+      </c>
+      <c r="R409" s="21">
+        <v>72003012</v>
+      </c>
+      <c r="S409" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="T409" s="15">
+        <v>0</v>
+      </c>
+      <c r="U409" s="21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="410" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B410" s="20"/>
+      <c r="C410" s="9">
+        <v>41003003</v>
+      </c>
+      <c r="D410" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E410" s="9">
+        <v>40</v>
+      </c>
+      <c r="F410" s="9">
+        <v>100</v>
+      </c>
+      <c r="G410" s="9">
+        <v>2</v>
+      </c>
+      <c r="H410" s="10">
+        <v>0</v>
+      </c>
+      <c r="I410" s="9">
+        <v>2</v>
+      </c>
+      <c r="J410" s="9">
+        <v>41003002</v>
+      </c>
+      <c r="K410" s="9">
+        <v>50000</v>
+      </c>
+      <c r="L410" s="9">
+        <v>14400</v>
+      </c>
+      <c r="M410" s="9">
+        <v>10000124</v>
+      </c>
+      <c r="N410" s="9">
+        <v>1</v>
+      </c>
+      <c r="O410" s="11">
+        <v>0</v>
+      </c>
+      <c r="P410" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q410" s="10">
+        <v>1</v>
+      </c>
+      <c r="R410" s="21">
+        <v>72003013</v>
+      </c>
+      <c r="S410" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="T410" s="15">
+        <v>0</v>
+      </c>
+      <c r="U410" s="21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="411" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B411" s="20"/>
+      <c r="C411" s="9">
+        <v>41003101</v>
+      </c>
+      <c r="D411" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E411" s="9">
+        <v>40</v>
+      </c>
+      <c r="F411" s="9">
+        <v>100</v>
+      </c>
+      <c r="G411" s="9">
+        <v>2</v>
+      </c>
+      <c r="H411" s="10">
+        <v>0</v>
+      </c>
+      <c r="I411" s="9">
+        <v>1</v>
+      </c>
+      <c r="J411" s="9">
+        <v>1</v>
+      </c>
+      <c r="K411" s="9">
+        <v>30000</v>
+      </c>
+      <c r="L411" s="9">
+        <v>10800</v>
+      </c>
+      <c r="M411" s="17">
+        <v>10000131</v>
+      </c>
+      <c r="N411" s="9">
+        <v>10</v>
+      </c>
+      <c r="O411" s="11">
+        <v>0</v>
+      </c>
+      <c r="P411" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q411" s="10">
+        <v>1</v>
+      </c>
+      <c r="R411" s="21">
+        <v>72003001</v>
+      </c>
+      <c r="S411" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="T411" s="15">
+        <v>0</v>
+      </c>
+      <c r="U411" s="21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="412" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B412" s="20"/>
+      <c r="C412" s="9">
+        <v>41003102</v>
+      </c>
+      <c r="D412" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E412" s="9">
+        <v>40</v>
+      </c>
+      <c r="F412" s="9">
+        <v>100</v>
+      </c>
+      <c r="G412" s="9">
+        <v>2</v>
+      </c>
+      <c r="H412" s="10">
+        <v>0</v>
+      </c>
+      <c r="I412" s="9">
+        <v>2</v>
+      </c>
+      <c r="J412" s="9">
+        <v>41003101</v>
+      </c>
+      <c r="K412" s="9">
+        <v>30000</v>
+      </c>
+      <c r="L412" s="9">
+        <v>10800</v>
+      </c>
+      <c r="M412" s="17">
+        <v>10000131</v>
+      </c>
+      <c r="N412" s="9">
+        <v>10</v>
+      </c>
+      <c r="O412" s="11">
+        <v>0</v>
+      </c>
+      <c r="P412" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q412" s="10">
+        <v>1</v>
+      </c>
+      <c r="R412" s="21">
+        <v>72003003</v>
+      </c>
+      <c r="S412" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="T412" s="15">
+        <v>0</v>
+      </c>
+      <c r="U412" s="21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="413" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B413" s="20"/>
+      <c r="C413" s="9">
+        <v>41003103</v>
+      </c>
+      <c r="D413" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E413" s="9">
+        <v>40</v>
+      </c>
+      <c r="F413" s="9">
+        <v>100</v>
+      </c>
+      <c r="G413" s="9">
+        <v>2</v>
+      </c>
+      <c r="H413" s="10">
+        <v>0</v>
+      </c>
+      <c r="I413" s="9">
+        <v>2</v>
+      </c>
+      <c r="J413" s="9">
+        <v>41003102</v>
+      </c>
+      <c r="K413" s="9">
+        <v>30000</v>
+      </c>
+      <c r="L413" s="9">
+        <v>10800</v>
+      </c>
+      <c r="M413" s="17">
+        <v>10000131</v>
+      </c>
+      <c r="N413" s="9">
+        <v>10</v>
+      </c>
+      <c r="O413" s="11">
+        <v>0</v>
+      </c>
+      <c r="P413" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q413" s="10">
+        <v>1</v>
+      </c>
+      <c r="R413" s="21">
+        <v>72003005</v>
+      </c>
+      <c r="S413" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="T413" s="15">
+        <v>0</v>
+      </c>
+      <c r="U413" s="21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="414" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B414" s="20"/>
+      <c r="C414" s="9">
+        <v>41004001</v>
+      </c>
+      <c r="D414" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E414" s="9">
+        <v>50</v>
+      </c>
+      <c r="F414" s="9">
+        <v>100</v>
+      </c>
+      <c r="G414" s="9">
+        <v>2</v>
+      </c>
+      <c r="H414" s="10">
+        <v>0</v>
+      </c>
+      <c r="I414" s="9">
+        <v>1</v>
+      </c>
+      <c r="J414" s="36">
+        <v>1</v>
+      </c>
+      <c r="K414" s="9">
+        <v>80000</v>
+      </c>
+      <c r="L414" s="9">
+        <v>17280</v>
+      </c>
+      <c r="M414" s="17">
+        <v>10010083</v>
+      </c>
+      <c r="N414" s="9">
+        <v>3</v>
+      </c>
+      <c r="O414" s="11">
+        <v>0</v>
+      </c>
+      <c r="P414" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q414" s="10">
+        <v>1</v>
+      </c>
+      <c r="R414" s="21">
+        <v>72004011</v>
+      </c>
+      <c r="S414" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="T414" s="15">
+        <v>0</v>
+      </c>
+      <c r="U414" s="21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="415" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B415" s="20"/>
+      <c r="C415" s="9">
+        <v>41004002</v>
+      </c>
+      <c r="D415" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E415" s="9">
+        <v>50</v>
+      </c>
+      <c r="F415" s="9">
+        <v>100</v>
+      </c>
+      <c r="G415" s="9">
+        <v>2</v>
+      </c>
+      <c r="H415" s="10">
+        <v>0</v>
+      </c>
+      <c r="I415" s="9">
+        <v>2</v>
+      </c>
+      <c r="J415" s="9">
+        <v>41004001</v>
+      </c>
+      <c r="K415" s="9">
+        <v>80000</v>
+      </c>
+      <c r="L415" s="9">
+        <v>17280</v>
+      </c>
+      <c r="M415" s="17">
+        <v>10000104</v>
+      </c>
+      <c r="N415" s="9">
+        <v>1</v>
+      </c>
+      <c r="O415" s="11">
+        <v>0</v>
+      </c>
+      <c r="P415" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q415" s="10">
+        <v>1</v>
+      </c>
+      <c r="R415" s="21">
+        <v>72004012</v>
+      </c>
+      <c r="S415" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="T415" s="15">
+        <v>0</v>
+      </c>
+      <c r="U415" s="21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="416" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B416" s="20"/>
+      <c r="C416" s="9">
+        <v>41004003</v>
+      </c>
+      <c r="D416" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E416" s="9">
+        <v>50</v>
+      </c>
+      <c r="F416" s="9">
+        <v>100</v>
+      </c>
+      <c r="G416" s="9">
+        <v>2</v>
+      </c>
+      <c r="H416" s="10">
+        <v>0</v>
+      </c>
+      <c r="I416" s="9">
+        <v>2</v>
+      </c>
+      <c r="J416" s="9">
+        <v>41004002</v>
+      </c>
+      <c r="K416" s="9">
+        <v>80000</v>
+      </c>
+      <c r="L416" s="9">
+        <v>17280</v>
+      </c>
+      <c r="M416" s="9">
+        <v>10000125</v>
+      </c>
+      <c r="N416" s="9">
+        <v>1</v>
+      </c>
+      <c r="O416" s="11">
+        <v>0</v>
+      </c>
+      <c r="P416" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q416" s="10">
+        <v>1</v>
+      </c>
+      <c r="R416" s="21">
+        <v>72004013</v>
+      </c>
+      <c r="S416" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="T416" s="15">
+        <v>0</v>
+      </c>
+      <c r="U416" s="21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="417" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B417" s="20"/>
+      <c r="C417" s="9">
+        <v>41004101</v>
+      </c>
+      <c r="D417" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E417" s="9">
+        <v>50</v>
+      </c>
+      <c r="F417" s="9">
+        <v>100</v>
+      </c>
+      <c r="G417" s="9">
+        <v>2</v>
+      </c>
+      <c r="H417" s="10">
+        <v>0</v>
+      </c>
+      <c r="I417" s="9">
+        <v>1</v>
+      </c>
+      <c r="J417" s="9">
+        <v>1</v>
+      </c>
+      <c r="K417" s="9">
+        <v>50000</v>
+      </c>
+      <c r="L417" s="9">
+        <v>12960</v>
+      </c>
+      <c r="M417" s="17">
+        <v>10000131</v>
+      </c>
+      <c r="N417" s="9">
+        <v>10</v>
+      </c>
+      <c r="O417" s="11">
+        <v>0</v>
+      </c>
+      <c r="P417" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q417" s="10">
+        <v>1</v>
+      </c>
+      <c r="R417" s="21">
+        <v>72004001</v>
+      </c>
+      <c r="S417" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="T417" s="15">
+        <v>0</v>
+      </c>
+      <c r="U417" s="21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="418" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B418" s="20"/>
+      <c r="C418" s="9">
+        <v>41004102</v>
+      </c>
+      <c r="D418" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E418" s="9">
+        <v>50</v>
+      </c>
+      <c r="F418" s="9">
+        <v>100</v>
+      </c>
+      <c r="G418" s="9">
+        <v>2</v>
+      </c>
+      <c r="H418" s="10">
+        <v>0</v>
+      </c>
+      <c r="I418" s="9">
+        <v>2</v>
+      </c>
+      <c r="J418" s="9">
+        <v>41004101</v>
+      </c>
+      <c r="K418" s="9">
+        <v>50000</v>
+      </c>
+      <c r="L418" s="9">
+        <v>12960</v>
+      </c>
+      <c r="M418" s="17">
+        <v>10000131</v>
+      </c>
+      <c r="N418" s="9">
+        <v>10</v>
+      </c>
+      <c r="O418" s="11">
+        <v>0</v>
+      </c>
+      <c r="P418" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q418" s="10">
+        <v>1</v>
+      </c>
+      <c r="R418" s="21">
+        <v>72004002</v>
+      </c>
+      <c r="S418" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="T418" s="15">
+        <v>0</v>
+      </c>
+      <c r="U418" s="21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="419" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B419" s="20"/>
+      <c r="C419" s="9">
+        <v>41004103</v>
+      </c>
+      <c r="D419" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="E419" s="9">
+        <v>50</v>
+      </c>
+      <c r="F419" s="9">
+        <v>100</v>
+      </c>
+      <c r="G419" s="9">
+        <v>2</v>
+      </c>
+      <c r="H419" s="10">
+        <v>0</v>
+      </c>
+      <c r="I419" s="9">
+        <v>2</v>
+      </c>
+      <c r="J419" s="9">
+        <v>41004102</v>
+      </c>
+      <c r="K419" s="9">
+        <v>50000</v>
+      </c>
+      <c r="L419" s="9">
+        <v>12960</v>
+      </c>
+      <c r="M419" s="17">
+        <v>10000131</v>
+      </c>
+      <c r="N419" s="9">
+        <v>10</v>
+      </c>
+      <c r="O419" s="11">
+        <v>0</v>
+      </c>
+      <c r="P419" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q419" s="10">
+        <v>1</v>
+      </c>
+      <c r="R419" s="21">
+        <v>72004004</v>
+      </c>
+      <c r="S419" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="T419" s="15">
+        <v>0</v>
+      </c>
+      <c r="U419" s="21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="420" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C420" s="9">
+        <v>50000001</v>
+      </c>
+      <c r="D420" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E420" s="9">
+        <v>1</v>
+      </c>
+      <c r="F420" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G420" s="9">
+        <v>2</v>
+      </c>
+      <c r="H420" s="10">
+        <v>0</v>
+      </c>
+      <c r="I420" s="9">
+        <v>1</v>
+      </c>
+      <c r="J420" s="9">
+        <v>1</v>
+      </c>
+      <c r="K420" s="9">
+        <v>0</v>
+      </c>
+      <c r="L420" s="9">
+        <v>0</v>
+      </c>
+      <c r="M420" s="9">
         <v>10000139</v>
       </c>
-      <c r="N396" s="9">
-        <v>1</v>
-      </c>
-      <c r="O396" s="11">
+      <c r="N420" s="9">
+        <v>1</v>
+      </c>
+      <c r="O420" s="11">
         <v>20000031</v>
       </c>
-      <c r="P396" s="9">
+      <c r="P420" s="9">
         <v>20000031</v>
       </c>
-      <c r="Q396" s="9">
+      <c r="Q420" s="9">
         <v>3</v>
       </c>
-      <c r="R396" s="9">
+      <c r="R420" s="9">
         <v>20000031</v>
       </c>
-      <c r="S396" s="10">
-        <v>0</v>
-      </c>
-      <c r="T396" s="9">
-        <v>0</v>
-      </c>
-      <c r="U396" s="14" t="s">
+      <c r="S420" s="10">
+        <v>0</v>
+      </c>
+      <c r="T420" s="9">
+        <v>0</v>
+      </c>
+      <c r="U420" s="14" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="397" spans="3:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C397" s="9">
+    <row r="421" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C421" s="9">
         <v>50000002</v>
       </c>
-      <c r="D397" s="27" t="s">
+      <c r="D421" s="27" t="s">
         <v>388</v>
       </c>
-      <c r="E397" s="28">
+      <c r="E421" s="28">
         <v>18</v>
       </c>
-      <c r="F397" s="29" t="s">
+      <c r="F421" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="G397" s="30" t="s">
+      <c r="G421" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="H397" s="10">
-        <v>0</v>
-      </c>
-      <c r="I397" s="29" t="s">
+      <c r="H421" s="10">
+        <v>0</v>
+      </c>
+      <c r="I421" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="J397" s="31">
+      <c r="J421" s="31">
         <v>15</v>
       </c>
-      <c r="K397" s="28">
-        <v>0</v>
-      </c>
-      <c r="L397" s="32">
+      <c r="K421" s="28">
+        <v>0</v>
+      </c>
+      <c r="L421" s="32">
         <v>20000</v>
       </c>
-      <c r="M397" s="9">
+      <c r="M421" s="9">
         <v>10010046</v>
       </c>
-      <c r="N397" s="29" t="s">
+      <c r="N421" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="O397" s="32">
+      <c r="O421" s="32">
         <v>20002003</v>
       </c>
-      <c r="P397" s="32">
+      <c r="P421" s="32">
         <v>20002003</v>
       </c>
-      <c r="Q397" s="28">
+      <c r="Q421" s="28">
         <v>8</v>
       </c>
-      <c r="R397" s="33">
-        <v>0</v>
-      </c>
-      <c r="S397" s="28" t="s">
+      <c r="R421" s="33">
+        <v>0</v>
+      </c>
+      <c r="S421" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="T397" s="9">
-        <v>0</v>
-      </c>
-      <c r="U397" s="34" t="s">
+      <c r="T421" s="9">
+        <v>0</v>
+      </c>
+      <c r="U421" s="34" t="s">
         <v>390</v>
       </c>
     </row>
+    <row r="422" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED590127-82F6-4607-AB54-C4F9267C2A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EB1DF9-B74F-433E-B723-A049F0B0CB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9811,9 +9811,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A402" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N419" sqref="N419"/>
+      <selection pane="bottomLeft" activeCell="R412" sqref="R412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34262,7 +34262,7 @@
         <v>1</v>
       </c>
       <c r="R413" s="21">
-        <v>72003005</v>
+        <v>72003004</v>
       </c>
       <c r="S413" s="10" t="s">
         <v>355</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EB1DF9-B74F-433E-B723-A049F0B0CB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1F7B44-1450-4DA1-AD6B-41475688F1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,7 +553,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="401">
   <si>
     <t>Id</t>
   </si>
@@ -1691,9 +1691,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>20</t>
@@ -7566,7 +7563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7670,6 +7667,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9812,8 +9812,8 @@
   <dimension ref="A1:U450"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A402" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R412" sqref="R412"/>
+      <pane ySplit="5" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R419" sqref="R419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19476,8 +19476,8 @@
       <c r="J166" s="9">
         <v>0</v>
       </c>
-      <c r="K166" s="10" t="s">
-        <v>354</v>
+      <c r="K166" s="37">
+        <v>7500</v>
       </c>
       <c r="L166" s="9">
         <v>20000</v>
@@ -19501,13 +19501,13 @@
         <v>44</v>
       </c>
       <c r="S166" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T166" s="15">
+        <v>0</v>
+      </c>
+      <c r="U166" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T166" s="15">
-        <v>0</v>
-      </c>
-      <c r="U166" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="167" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -19536,8 +19536,8 @@
       <c r="J167" s="9">
         <v>0</v>
       </c>
-      <c r="K167" s="10" t="s">
-        <v>354</v>
+      <c r="K167" s="37">
+        <v>7500</v>
       </c>
       <c r="L167" s="9">
         <v>20000</v>
@@ -19567,7 +19567,7 @@
         <v>0</v>
       </c>
       <c r="U167" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="168" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -19596,8 +19596,8 @@
       <c r="J168" s="9">
         <v>0</v>
       </c>
-      <c r="K168" s="10" t="s">
-        <v>354</v>
+      <c r="K168" s="37">
+        <v>7500</v>
       </c>
       <c r="L168" s="9">
         <v>20000</v>
@@ -19627,7 +19627,7 @@
         <v>0</v>
       </c>
       <c r="U168" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="169" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -19639,7 +19639,7 @@
         <v>351</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F169" s="10" t="s">
         <v>352</v>
@@ -19656,8 +19656,8 @@
       <c r="J169" s="9">
         <v>0</v>
       </c>
-      <c r="K169" s="10" t="s">
-        <v>354</v>
+      <c r="K169" s="37">
+        <v>7500</v>
       </c>
       <c r="L169" s="9">
         <v>20000</v>
@@ -19687,7 +19687,7 @@
         <v>0</v>
       </c>
       <c r="U169" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="170" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -19699,7 +19699,7 @@
         <v>351</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F170" s="10" t="s">
         <v>352</v>
@@ -19716,8 +19716,8 @@
       <c r="J170" s="9">
         <v>0</v>
       </c>
-      <c r="K170" s="10" t="s">
-        <v>354</v>
+      <c r="K170" s="37">
+        <v>7500</v>
       </c>
       <c r="L170" s="9">
         <v>20000</v>
@@ -19747,7 +19747,7 @@
         <v>0</v>
       </c>
       <c r="U170" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="171" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -19759,7 +19759,7 @@
         <v>351</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F171" s="10" t="s">
         <v>352</v>
@@ -19776,8 +19776,8 @@
       <c r="J171" s="9">
         <v>0</v>
       </c>
-      <c r="K171" s="10" t="s">
-        <v>354</v>
+      <c r="K171" s="37">
+        <v>7500</v>
       </c>
       <c r="L171" s="9">
         <v>20000</v>
@@ -19807,7 +19807,7 @@
         <v>0</v>
       </c>
       <c r="U171" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="172" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -19819,7 +19819,7 @@
         <v>351</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F172" s="10" t="s">
         <v>352</v>
@@ -19836,8 +19836,8 @@
       <c r="J172" s="9">
         <v>0</v>
       </c>
-      <c r="K172" s="10" t="s">
-        <v>354</v>
+      <c r="K172" s="37">
+        <v>7500</v>
       </c>
       <c r="L172" s="9">
         <v>20000</v>
@@ -19867,7 +19867,7 @@
         <v>0</v>
       </c>
       <c r="U172" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="173" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -19896,8 +19896,8 @@
       <c r="J173" s="9">
         <v>0</v>
       </c>
-      <c r="K173" s="10" t="s">
-        <v>354</v>
+      <c r="K173" s="37">
+        <v>7500</v>
       </c>
       <c r="L173" s="9">
         <v>20000</v>
@@ -19927,7 +19927,7 @@
         <v>0</v>
       </c>
       <c r="U173" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="174" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -19956,8 +19956,8 @@
       <c r="J174" s="9">
         <v>0</v>
       </c>
-      <c r="K174" s="10" t="s">
-        <v>354</v>
+      <c r="K174" s="37">
+        <v>7500</v>
       </c>
       <c r="L174" s="9">
         <v>20000</v>
@@ -19987,7 +19987,7 @@
         <v>0</v>
       </c>
       <c r="U174" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="175" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20016,8 +20016,8 @@
       <c r="J175" s="9">
         <v>0</v>
       </c>
-      <c r="K175" s="10" t="s">
-        <v>354</v>
+      <c r="K175" s="37">
+        <v>7500</v>
       </c>
       <c r="L175" s="9">
         <v>20000</v>
@@ -20047,7 +20047,7 @@
         <v>0</v>
       </c>
       <c r="U175" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="176" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20055,7 +20055,7 @@
         <v>40001111</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E176" s="10" t="s">
         <v>220</v>
@@ -20075,8 +20075,8 @@
       <c r="J176" s="9">
         <v>0</v>
       </c>
-      <c r="K176" s="10" t="s">
-        <v>354</v>
+      <c r="K176" s="37">
+        <v>7500</v>
       </c>
       <c r="L176" s="9">
         <v>20000</v>
@@ -20106,7 +20106,7 @@
         <v>0</v>
       </c>
       <c r="U176" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="177" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20114,7 +20114,7 @@
         <v>40001112</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E177" s="10" t="s">
         <v>220</v>
@@ -20134,8 +20134,8 @@
       <c r="J177" s="9">
         <v>0</v>
       </c>
-      <c r="K177" s="10" t="s">
-        <v>354</v>
+      <c r="K177" s="37">
+        <v>10000</v>
       </c>
       <c r="L177" s="9">
         <v>30000</v>
@@ -20165,7 +20165,7 @@
         <v>0</v>
       </c>
       <c r="U177" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="178" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -20175,7 +20175,7 @@
         <v>40001201</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E178" s="10" t="s">
         <v>220</v>
@@ -20195,8 +20195,8 @@
       <c r="J178" s="9">
         <v>0</v>
       </c>
-      <c r="K178" s="10" t="s">
-        <v>354</v>
+      <c r="K178" s="37">
+        <v>10000</v>
       </c>
       <c r="L178" s="9">
         <v>30000</v>
@@ -20226,7 +20226,7 @@
         <v>0</v>
       </c>
       <c r="U178" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="179" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20236,7 +20236,7 @@
         <v>40001202</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E179" s="10" t="s">
         <v>220</v>
@@ -20256,8 +20256,8 @@
       <c r="J179" s="9">
         <v>0</v>
       </c>
-      <c r="K179" s="10" t="s">
-        <v>354</v>
+      <c r="K179" s="37">
+        <v>10000</v>
       </c>
       <c r="L179" s="9">
         <v>30000</v>
@@ -20287,7 +20287,7 @@
         <v>0</v>
       </c>
       <c r="U179" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="180" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20297,7 +20297,7 @@
         <v>40001203</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E180" s="10" t="s">
         <v>220</v>
@@ -20317,8 +20317,8 @@
       <c r="J180" s="9">
         <v>0</v>
       </c>
-      <c r="K180" s="10" t="s">
-        <v>354</v>
+      <c r="K180" s="37">
+        <v>10000</v>
       </c>
       <c r="L180" s="9">
         <v>30000</v>
@@ -20348,7 +20348,7 @@
         <v>0</v>
       </c>
       <c r="U180" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="181" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20358,10 +20358,10 @@
         <v>40001204</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F181" s="10" t="s">
         <v>352</v>
@@ -20378,8 +20378,8 @@
       <c r="J181" s="9">
         <v>0</v>
       </c>
-      <c r="K181" s="10" t="s">
-        <v>354</v>
+      <c r="K181" s="37">
+        <v>10000</v>
       </c>
       <c r="L181" s="9">
         <v>30000</v>
@@ -20409,7 +20409,7 @@
         <v>0</v>
       </c>
       <c r="U181" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="182" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20419,10 +20419,10 @@
         <v>40001205</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F182" s="10" t="s">
         <v>352</v>
@@ -20439,8 +20439,8 @@
       <c r="J182" s="9">
         <v>0</v>
       </c>
-      <c r="K182" s="10" t="s">
-        <v>354</v>
+      <c r="K182" s="37">
+        <v>10000</v>
       </c>
       <c r="L182" s="9">
         <v>30000</v>
@@ -20470,7 +20470,7 @@
         <v>0</v>
       </c>
       <c r="U182" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="183" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20480,10 +20480,10 @@
         <v>40001206</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F183" s="10" t="s">
         <v>352</v>
@@ -20500,8 +20500,8 @@
       <c r="J183" s="9">
         <v>0</v>
       </c>
-      <c r="K183" s="10" t="s">
-        <v>354</v>
+      <c r="K183" s="37">
+        <v>10000</v>
       </c>
       <c r="L183" s="9">
         <v>30000</v>
@@ -20531,7 +20531,7 @@
         <v>0</v>
       </c>
       <c r="U183" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="184" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20541,10 +20541,10 @@
         <v>40001207</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F184" s="10" t="s">
         <v>352</v>
@@ -20561,8 +20561,8 @@
       <c r="J184" s="9">
         <v>0</v>
       </c>
-      <c r="K184" s="10" t="s">
-        <v>354</v>
+      <c r="K184" s="37">
+        <v>10000</v>
       </c>
       <c r="L184" s="9">
         <v>30000</v>
@@ -20592,7 +20592,7 @@
         <v>0</v>
       </c>
       <c r="U184" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="185" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20602,7 +20602,7 @@
         <v>40001208</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E185" s="10" t="s">
         <v>220</v>
@@ -20622,8 +20622,8 @@
       <c r="J185" s="9">
         <v>0</v>
       </c>
-      <c r="K185" s="10" t="s">
-        <v>354</v>
+      <c r="K185" s="37">
+        <v>10000</v>
       </c>
       <c r="L185" s="9">
         <v>30000</v>
@@ -20653,7 +20653,7 @@
         <v>0</v>
       </c>
       <c r="U185" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="186" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20663,7 +20663,7 @@
         <v>40001209</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E186" s="10" t="s">
         <v>220</v>
@@ -20683,8 +20683,8 @@
       <c r="J186" s="9">
         <v>0</v>
       </c>
-      <c r="K186" s="10" t="s">
-        <v>354</v>
+      <c r="K186" s="37">
+        <v>10000</v>
       </c>
       <c r="L186" s="9">
         <v>30000</v>
@@ -20714,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="U186" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="187" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20724,7 +20724,7 @@
         <v>40001210</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E187" s="10" t="s">
         <v>220</v>
@@ -20744,8 +20744,8 @@
       <c r="J187" s="9">
         <v>0</v>
       </c>
-      <c r="K187" s="10" t="s">
-        <v>354</v>
+      <c r="K187" s="37">
+        <v>10000</v>
       </c>
       <c r="L187" s="9">
         <v>30000</v>
@@ -20775,7 +20775,7 @@
         <v>0</v>
       </c>
       <c r="U187" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="188" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20784,7 +20784,7 @@
         <v>40001211</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E188" s="10" t="s">
         <v>220</v>
@@ -20804,8 +20804,8 @@
       <c r="J188" s="9">
         <v>0</v>
       </c>
-      <c r="K188" s="10" t="s">
-        <v>354</v>
+      <c r="K188" s="37">
+        <v>10000</v>
       </c>
       <c r="L188" s="9">
         <v>30000</v>
@@ -20835,7 +20835,7 @@
         <v>0</v>
       </c>
       <c r="U188" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="189" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20844,7 +20844,7 @@
         <v>40001212</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E189" s="10" t="s">
         <v>220</v>
@@ -20864,8 +20864,8 @@
       <c r="J189" s="9">
         <v>0</v>
       </c>
-      <c r="K189" s="10" t="s">
-        <v>354</v>
+      <c r="K189" s="37">
+        <v>12500</v>
       </c>
       <c r="L189" s="9">
         <v>50000</v>
@@ -20895,7 +20895,7 @@
         <v>0</v>
       </c>
       <c r="U189" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="190" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -20905,7 +20905,7 @@
         <v>40001301</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E190" s="10" t="s">
         <v>220</v>
@@ -20925,8 +20925,8 @@
       <c r="J190" s="9">
         <v>0</v>
       </c>
-      <c r="K190" s="10" t="s">
-        <v>354</v>
+      <c r="K190" s="37">
+        <v>12500</v>
       </c>
       <c r="L190" s="9">
         <v>50000</v>
@@ -20956,7 +20956,7 @@
         <v>0</v>
       </c>
       <c r="U190" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="191" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -20966,7 +20966,7 @@
         <v>40001302</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E191" s="10" t="s">
         <v>220</v>
@@ -20986,8 +20986,8 @@
       <c r="J191" s="9">
         <v>0</v>
       </c>
-      <c r="K191" s="10" t="s">
-        <v>354</v>
+      <c r="K191" s="37">
+        <v>12500</v>
       </c>
       <c r="L191" s="9">
         <v>50000</v>
@@ -21017,7 +21017,7 @@
         <v>0</v>
       </c>
       <c r="U191" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="192" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -21027,7 +21027,7 @@
         <v>40001303</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E192" s="10" t="s">
         <v>220</v>
@@ -21047,8 +21047,8 @@
       <c r="J192" s="9">
         <v>0</v>
       </c>
-      <c r="K192" s="10" t="s">
-        <v>354</v>
+      <c r="K192" s="37">
+        <v>12500</v>
       </c>
       <c r="L192" s="9">
         <v>50000</v>
@@ -21078,7 +21078,7 @@
         <v>0</v>
       </c>
       <c r="U192" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="193" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -21088,10 +21088,10 @@
         <v>40001304</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E193" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F193" s="10" t="s">
         <v>352</v>
@@ -21108,8 +21108,8 @@
       <c r="J193" s="9">
         <v>0</v>
       </c>
-      <c r="K193" s="10" t="s">
-        <v>354</v>
+      <c r="K193" s="37">
+        <v>12500</v>
       </c>
       <c r="L193" s="9">
         <v>50000</v>
@@ -21139,7 +21139,7 @@
         <v>0</v>
       </c>
       <c r="U193" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="194" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -21149,10 +21149,10 @@
         <v>40001305</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E194" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F194" s="10" t="s">
         <v>352</v>
@@ -21169,8 +21169,8 @@
       <c r="J194" s="9">
         <v>0</v>
       </c>
-      <c r="K194" s="10" t="s">
-        <v>354</v>
+      <c r="K194" s="37">
+        <v>12500</v>
       </c>
       <c r="L194" s="9">
         <v>50000</v>
@@ -21200,7 +21200,7 @@
         <v>0</v>
       </c>
       <c r="U194" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="195" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -21210,10 +21210,10 @@
         <v>40001306</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E195" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F195" s="10" t="s">
         <v>352</v>
@@ -21230,8 +21230,8 @@
       <c r="J195" s="9">
         <v>0</v>
       </c>
-      <c r="K195" s="10" t="s">
-        <v>354</v>
+      <c r="K195" s="37">
+        <v>12500</v>
       </c>
       <c r="L195" s="9">
         <v>50000</v>
@@ -21261,7 +21261,7 @@
         <v>0</v>
       </c>
       <c r="U195" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="196" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -21271,10 +21271,10 @@
         <v>40001307</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F196" s="10" t="s">
         <v>352</v>
@@ -21291,8 +21291,8 @@
       <c r="J196" s="9">
         <v>0</v>
       </c>
-      <c r="K196" s="10" t="s">
-        <v>354</v>
+      <c r="K196" s="37">
+        <v>12500</v>
       </c>
       <c r="L196" s="9">
         <v>50000</v>
@@ -21322,7 +21322,7 @@
         <v>0</v>
       </c>
       <c r="U196" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="197" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -21332,7 +21332,7 @@
         <v>40001308</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E197" s="10" t="s">
         <v>220</v>
@@ -21352,8 +21352,8 @@
       <c r="J197" s="9">
         <v>0</v>
       </c>
-      <c r="K197" s="10" t="s">
-        <v>354</v>
+      <c r="K197" s="37">
+        <v>12500</v>
       </c>
       <c r="L197" s="9">
         <v>50000</v>
@@ -21383,7 +21383,7 @@
         <v>0</v>
       </c>
       <c r="U197" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="198" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -21393,7 +21393,7 @@
         <v>40001309</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E198" s="10" t="s">
         <v>220</v>
@@ -21413,8 +21413,8 @@
       <c r="J198" s="9">
         <v>0</v>
       </c>
-      <c r="K198" s="10" t="s">
-        <v>354</v>
+      <c r="K198" s="37">
+        <v>12500</v>
       </c>
       <c r="L198" s="9">
         <v>50000</v>
@@ -21444,7 +21444,7 @@
         <v>0</v>
       </c>
       <c r="U198" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="199" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -21454,7 +21454,7 @@
         <v>40001310</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E199" s="10" t="s">
         <v>220</v>
@@ -21474,8 +21474,8 @@
       <c r="J199" s="9">
         <v>0</v>
       </c>
-      <c r="K199" s="10" t="s">
-        <v>354</v>
+      <c r="K199" s="37">
+        <v>12500</v>
       </c>
       <c r="L199" s="9">
         <v>50000</v>
@@ -21505,7 +21505,7 @@
         <v>0</v>
       </c>
       <c r="U199" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="200" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -21514,7 +21514,7 @@
         <v>40001311</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E200" s="10" t="s">
         <v>220</v>
@@ -21534,8 +21534,8 @@
       <c r="J200" s="9">
         <v>0</v>
       </c>
-      <c r="K200" s="10" t="s">
-        <v>354</v>
+      <c r="K200" s="37">
+        <v>12500</v>
       </c>
       <c r="L200" s="9">
         <v>50000</v>
@@ -21565,7 +21565,7 @@
         <v>0</v>
       </c>
       <c r="U200" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="201" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -21574,7 +21574,7 @@
         <v>40001312</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E201" s="10" t="s">
         <v>220</v>
@@ -21594,8 +21594,8 @@
       <c r="J201" s="9">
         <v>0</v>
       </c>
-      <c r="K201" s="10" t="s">
-        <v>354</v>
+      <c r="K201" s="37">
+        <v>12500</v>
       </c>
       <c r="L201" s="9">
         <v>50000</v>
@@ -21625,7 +21625,7 @@
         <v>0</v>
       </c>
       <c r="U201" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="202" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -21633,7 +21633,7 @@
         <v>40001401</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E202" s="10" t="s">
         <v>220</v>
@@ -21653,8 +21653,8 @@
       <c r="J202" s="9">
         <v>0</v>
       </c>
-      <c r="K202" s="10" t="s">
-        <v>354</v>
+      <c r="K202" s="37">
+        <v>9000</v>
       </c>
       <c r="L202" s="9">
         <v>35000</v>
@@ -21678,13 +21678,13 @@
         <v>10021001</v>
       </c>
       <c r="S202" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="T202" s="15">
+        <v>0</v>
+      </c>
+      <c r="U202" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T202" s="15">
-        <v>0</v>
-      </c>
-      <c r="U202" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="203" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -21692,7 +21692,7 @@
         <v>40001402</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E203" s="10" t="s">
         <v>220</v>
@@ -21712,8 +21712,8 @@
       <c r="J203" s="9">
         <v>0</v>
       </c>
-      <c r="K203" s="10" t="s">
-        <v>354</v>
+      <c r="K203" s="37">
+        <v>9000</v>
       </c>
       <c r="L203" s="9">
         <v>35000</v>
@@ -21737,13 +21737,13 @@
         <v>10021002</v>
       </c>
       <c r="S203" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="T203" s="15">
+        <v>0</v>
+      </c>
+      <c r="U203" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T203" s="15">
-        <v>0</v>
-      </c>
-      <c r="U203" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="204" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -21751,7 +21751,7 @@
         <v>40001403</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E204" s="10" t="s">
         <v>220</v>
@@ -21771,8 +21771,8 @@
       <c r="J204" s="9">
         <v>0</v>
       </c>
-      <c r="K204" s="10" t="s">
-        <v>354</v>
+      <c r="K204" s="37">
+        <v>9000</v>
       </c>
       <c r="L204" s="9">
         <v>35000</v>
@@ -21796,13 +21796,13 @@
         <v>10021003</v>
       </c>
       <c r="S204" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="T204" s="15">
+        <v>0</v>
+      </c>
+      <c r="U204" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T204" s="15">
-        <v>0</v>
-      </c>
-      <c r="U204" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="205" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -21810,7 +21810,7 @@
         <v>40001404</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E205" s="10" t="s">
         <v>220</v>
@@ -21830,8 +21830,8 @@
       <c r="J205" s="9">
         <v>0</v>
       </c>
-      <c r="K205" s="10" t="s">
-        <v>354</v>
+      <c r="K205" s="37">
+        <v>9000</v>
       </c>
       <c r="L205" s="9">
         <v>35000</v>
@@ -21855,13 +21855,13 @@
         <v>10021004</v>
       </c>
       <c r="S205" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="T205" s="15">
+        <v>0</v>
+      </c>
+      <c r="U205" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T205" s="15">
-        <v>0</v>
-      </c>
-      <c r="U205" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="206" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -21869,7 +21869,7 @@
         <v>40001405</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E206" s="10" t="s">
         <v>220</v>
@@ -21889,8 +21889,8 @@
       <c r="J206" s="9">
         <v>0</v>
       </c>
-      <c r="K206" s="10" t="s">
-        <v>354</v>
+      <c r="K206" s="37">
+        <v>9000</v>
       </c>
       <c r="L206" s="9">
         <v>35000</v>
@@ -21914,13 +21914,13 @@
         <v>10021005</v>
       </c>
       <c r="S206" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="T206" s="15">
+        <v>0</v>
+      </c>
+      <c r="U206" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T206" s="15">
-        <v>0</v>
-      </c>
-      <c r="U206" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="207" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -21928,7 +21928,7 @@
         <v>40001406</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E207" s="10" t="s">
         <v>220</v>
@@ -21948,8 +21948,8 @@
       <c r="J207" s="9">
         <v>0</v>
       </c>
-      <c r="K207" s="10" t="s">
-        <v>354</v>
+      <c r="K207" s="37">
+        <v>9000</v>
       </c>
       <c r="L207" s="9">
         <v>35000</v>
@@ -21973,13 +21973,13 @@
         <v>10021006</v>
       </c>
       <c r="S207" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="T207" s="15">
+        <v>0</v>
+      </c>
+      <c r="U207" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T207" s="15">
-        <v>0</v>
-      </c>
-      <c r="U207" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="208" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -21987,7 +21987,7 @@
         <v>40001407</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E208" s="10" t="s">
         <v>220</v>
@@ -22007,8 +22007,8 @@
       <c r="J208" s="9">
         <v>0</v>
       </c>
-      <c r="K208" s="10" t="s">
-        <v>354</v>
+      <c r="K208" s="37">
+        <v>9000</v>
       </c>
       <c r="L208" s="9">
         <v>35000</v>
@@ -22032,13 +22032,13 @@
         <v>10021007</v>
       </c>
       <c r="S208" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="T208" s="15">
+        <v>0</v>
+      </c>
+      <c r="U208" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T208" s="15">
-        <v>0</v>
-      </c>
-      <c r="U208" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="209" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -22046,7 +22046,7 @@
         <v>40001408</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E209" s="10" t="s">
         <v>220</v>
@@ -22066,8 +22066,8 @@
       <c r="J209" s="9">
         <v>0</v>
       </c>
-      <c r="K209" s="10" t="s">
-        <v>354</v>
+      <c r="K209" s="37">
+        <v>9000</v>
       </c>
       <c r="L209" s="9">
         <v>50000</v>
@@ -22097,7 +22097,7 @@
         <v>0</v>
       </c>
       <c r="U209" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="210" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -22105,7 +22105,7 @@
         <v>40001409</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E210" s="10" t="s">
         <v>220</v>
@@ -22125,8 +22125,8 @@
       <c r="J210" s="9">
         <v>0</v>
       </c>
-      <c r="K210" s="10" t="s">
-        <v>354</v>
+      <c r="K210" s="37">
+        <v>9000</v>
       </c>
       <c r="L210" s="9">
         <v>50000</v>
@@ -22156,7 +22156,7 @@
         <v>0</v>
       </c>
       <c r="U210" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="211" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -22164,7 +22164,7 @@
         <v>40001410</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E211" s="10" t="s">
         <v>220</v>
@@ -22184,8 +22184,8 @@
       <c r="J211" s="9">
         <v>0</v>
       </c>
-      <c r="K211" s="10" t="s">
-        <v>354</v>
+      <c r="K211" s="37">
+        <v>9000</v>
       </c>
       <c r="L211" s="9">
         <v>35000</v>
@@ -22215,7 +22215,7 @@
         <v>0</v>
       </c>
       <c r="U211" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="212" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -22227,10 +22227,10 @@
         <v>351</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F212" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G212" s="10" t="s">
         <v>353</v>
@@ -22244,8 +22244,8 @@
       <c r="J212" s="9">
         <v>0</v>
       </c>
-      <c r="K212" s="10" t="s">
-        <v>354</v>
+      <c r="K212" s="37">
+        <v>9000</v>
       </c>
       <c r="L212" s="9">
         <v>24000</v>
@@ -22269,13 +22269,13 @@
         <v>70002001</v>
       </c>
       <c r="S212" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T212" s="15">
+        <v>0</v>
+      </c>
+      <c r="U212" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T212" s="15">
-        <v>0</v>
-      </c>
-      <c r="U212" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="213" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -22287,10 +22287,10 @@
         <v>351</v>
       </c>
       <c r="E213" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F213" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G213" s="10" t="s">
         <v>353</v>
@@ -22304,8 +22304,8 @@
       <c r="J213" s="9">
         <v>0</v>
       </c>
-      <c r="K213" s="10" t="s">
-        <v>354</v>
+      <c r="K213" s="37">
+        <v>12000</v>
       </c>
       <c r="L213" s="9">
         <v>24000</v>
@@ -22335,7 +22335,7 @@
         <v>0</v>
       </c>
       <c r="U213" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="214" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -22347,10 +22347,10 @@
         <v>351</v>
       </c>
       <c r="E214" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F214" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G214" s="10" t="s">
         <v>353</v>
@@ -22364,8 +22364,8 @@
       <c r="J214" s="9">
         <v>0</v>
       </c>
-      <c r="K214" s="10" t="s">
-        <v>354</v>
+      <c r="K214" s="37">
+        <v>12000</v>
       </c>
       <c r="L214" s="9">
         <v>24000</v>
@@ -22395,7 +22395,7 @@
         <v>0</v>
       </c>
       <c r="U214" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="215" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -22407,10 +22407,10 @@
         <v>351</v>
       </c>
       <c r="E215" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F215" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G215" s="10" t="s">
         <v>353</v>
@@ -22424,8 +22424,8 @@
       <c r="J215" s="9">
         <v>0</v>
       </c>
-      <c r="K215" s="10" t="s">
-        <v>354</v>
+      <c r="K215" s="37">
+        <v>12000</v>
       </c>
       <c r="L215" s="9">
         <v>24000</v>
@@ -22455,7 +22455,7 @@
         <v>0</v>
       </c>
       <c r="U215" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="216" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -22467,10 +22467,10 @@
         <v>351</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F216" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G216" s="10" t="s">
         <v>353</v>
@@ -22484,8 +22484,8 @@
       <c r="J216" s="9">
         <v>0</v>
       </c>
-      <c r="K216" s="10" t="s">
-        <v>354</v>
+      <c r="K216" s="37">
+        <v>12000</v>
       </c>
       <c r="L216" s="9">
         <v>24000</v>
@@ -22515,7 +22515,7 @@
         <v>0</v>
       </c>
       <c r="U216" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="217" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -22527,10 +22527,10 @@
         <v>351</v>
       </c>
       <c r="E217" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F217" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G217" s="10" t="s">
         <v>353</v>
@@ -22544,8 +22544,8 @@
       <c r="J217" s="9">
         <v>0</v>
       </c>
-      <c r="K217" s="10" t="s">
-        <v>354</v>
+      <c r="K217" s="37">
+        <v>12000</v>
       </c>
       <c r="L217" s="9">
         <v>24000</v>
@@ -22575,7 +22575,7 @@
         <v>0</v>
       </c>
       <c r="U217" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="218" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -22587,10 +22587,10 @@
         <v>351</v>
       </c>
       <c r="E218" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F218" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G218" s="10" t="s">
         <v>353</v>
@@ -22604,8 +22604,8 @@
       <c r="J218" s="9">
         <v>0</v>
       </c>
-      <c r="K218" s="10" t="s">
-        <v>354</v>
+      <c r="K218" s="37">
+        <v>12000</v>
       </c>
       <c r="L218" s="9">
         <v>24000</v>
@@ -22635,7 +22635,7 @@
         <v>0</v>
       </c>
       <c r="U218" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="219" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -22647,10 +22647,10 @@
         <v>351</v>
       </c>
       <c r="E219" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F219" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G219" s="10" t="s">
         <v>353</v>
@@ -22664,8 +22664,8 @@
       <c r="J219" s="9">
         <v>0</v>
       </c>
-      <c r="K219" s="10" t="s">
-        <v>354</v>
+      <c r="K219" s="37">
+        <v>12000</v>
       </c>
       <c r="L219" s="9">
         <v>24000</v>
@@ -22695,7 +22695,7 @@
         <v>0</v>
       </c>
       <c r="U219" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="220" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -22707,10 +22707,10 @@
         <v>351</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F220" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G220" s="10" t="s">
         <v>353</v>
@@ -22724,8 +22724,8 @@
       <c r="J220" s="9">
         <v>0</v>
       </c>
-      <c r="K220" s="10" t="s">
-        <v>354</v>
+      <c r="K220" s="37">
+        <v>12000</v>
       </c>
       <c r="L220" s="9">
         <v>24000</v>
@@ -22755,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="U220" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="221" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -22767,10 +22767,10 @@
         <v>351</v>
       </c>
       <c r="E221" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F221" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G221" s="10" t="s">
         <v>353</v>
@@ -22784,8 +22784,8 @@
       <c r="J221" s="9">
         <v>0</v>
       </c>
-      <c r="K221" s="10" t="s">
-        <v>354</v>
+      <c r="K221" s="37">
+        <v>12000</v>
       </c>
       <c r="L221" s="9">
         <v>24000</v>
@@ -22815,7 +22815,7 @@
         <v>0</v>
       </c>
       <c r="U221" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="222" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -22823,13 +22823,13 @@
         <v>40002111</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E222" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G222" s="10" t="s">
         <v>353</v>
@@ -22843,8 +22843,8 @@
       <c r="J222" s="9">
         <v>0</v>
       </c>
-      <c r="K222" s="10" t="s">
-        <v>354</v>
+      <c r="K222" s="37">
+        <v>12000</v>
       </c>
       <c r="L222" s="9">
         <v>24000</v>
@@ -22874,7 +22874,7 @@
         <v>0</v>
       </c>
       <c r="U222" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="223" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -22882,13 +22882,13 @@
         <v>40002112</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F223" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G223" s="10" t="s">
         <v>353</v>
@@ -22902,8 +22902,8 @@
       <c r="J223" s="9">
         <v>0</v>
       </c>
-      <c r="K223" s="10" t="s">
-        <v>354</v>
+      <c r="K223" s="37">
+        <v>12000</v>
       </c>
       <c r="L223" s="9">
         <v>36000</v>
@@ -22933,7 +22933,7 @@
         <v>0</v>
       </c>
       <c r="U223" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="224" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -22942,13 +22942,13 @@
         <v>40002201</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E224" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F224" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G224" s="10" t="s">
         <v>353</v>
@@ -22962,8 +22962,8 @@
       <c r="J224" s="9">
         <v>0</v>
       </c>
-      <c r="K224" s="10" t="s">
-        <v>354</v>
+      <c r="K224" s="37">
+        <v>12000</v>
       </c>
       <c r="L224" s="9">
         <v>36000</v>
@@ -22987,13 +22987,13 @@
         <v>70002001</v>
       </c>
       <c r="S224" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T224" s="15">
         <v>0</v>
       </c>
       <c r="U224" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="225" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -23002,13 +23002,13 @@
         <v>40002202</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F225" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G225" s="10" t="s">
         <v>353</v>
@@ -23022,8 +23022,8 @@
       <c r="J225" s="9">
         <v>0</v>
       </c>
-      <c r="K225" s="10" t="s">
-        <v>354</v>
+      <c r="K225" s="37">
+        <v>15000</v>
       </c>
       <c r="L225" s="9">
         <v>36000</v>
@@ -23047,13 +23047,13 @@
         <v>70002002</v>
       </c>
       <c r="S225" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T225" s="15">
         <v>0</v>
       </c>
       <c r="U225" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="226" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -23062,13 +23062,13 @@
         <v>40002203</v>
       </c>
       <c r="D226" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E226" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F226" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G226" s="10" t="s">
         <v>353</v>
@@ -23082,8 +23082,8 @@
       <c r="J226" s="9">
         <v>0</v>
       </c>
-      <c r="K226" s="10" t="s">
-        <v>354</v>
+      <c r="K226" s="37">
+        <v>15000</v>
       </c>
       <c r="L226" s="9">
         <v>36000</v>
@@ -23107,13 +23107,13 @@
         <v>70002004</v>
       </c>
       <c r="S226" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T226" s="15">
         <v>0</v>
       </c>
       <c r="U226" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="227" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -23122,13 +23122,13 @@
         <v>40002204</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E227" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F227" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G227" s="10" t="s">
         <v>353</v>
@@ -23142,8 +23142,8 @@
       <c r="J227" s="9">
         <v>0</v>
       </c>
-      <c r="K227" s="10" t="s">
-        <v>354</v>
+      <c r="K227" s="37">
+        <v>15000</v>
       </c>
       <c r="L227" s="9">
         <v>36000</v>
@@ -23167,13 +23167,13 @@
         <v>70002005</v>
       </c>
       <c r="S227" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T227" s="15">
         <v>0</v>
       </c>
       <c r="U227" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="228" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -23182,13 +23182,13 @@
         <v>40002205</v>
       </c>
       <c r="D228" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E228" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F228" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G228" s="10" t="s">
         <v>353</v>
@@ -23202,8 +23202,8 @@
       <c r="J228" s="9">
         <v>0</v>
       </c>
-      <c r="K228" s="10" t="s">
-        <v>354</v>
+      <c r="K228" s="37">
+        <v>15000</v>
       </c>
       <c r="L228" s="9">
         <v>36000</v>
@@ -23227,13 +23227,13 @@
         <v>70002008</v>
       </c>
       <c r="S228" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T228" s="15">
         <v>0</v>
       </c>
       <c r="U228" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="229" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -23242,13 +23242,13 @@
         <v>40002206</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F229" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G229" s="10" t="s">
         <v>353</v>
@@ -23262,8 +23262,8 @@
       <c r="J229" s="9">
         <v>0</v>
       </c>
-      <c r="K229" s="10" t="s">
-        <v>354</v>
+      <c r="K229" s="37">
+        <v>15000</v>
       </c>
       <c r="L229" s="9">
         <v>36000</v>
@@ -23287,13 +23287,13 @@
         <v>70002009</v>
       </c>
       <c r="S229" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T229" s="15">
         <v>0</v>
       </c>
       <c r="U229" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="230" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -23302,13 +23302,13 @@
         <v>40002207</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F230" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G230" s="10" t="s">
         <v>353</v>
@@ -23322,8 +23322,8 @@
       <c r="J230" s="9">
         <v>0</v>
       </c>
-      <c r="K230" s="10" t="s">
-        <v>354</v>
+      <c r="K230" s="37">
+        <v>15000</v>
       </c>
       <c r="L230" s="9">
         <v>36000</v>
@@ -23347,13 +23347,13 @@
         <v>70002010</v>
       </c>
       <c r="S230" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T230" s="15">
         <v>0</v>
       </c>
       <c r="U230" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="231" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -23362,13 +23362,13 @@
         <v>40002208</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E231" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F231" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G231" s="10" t="s">
         <v>353</v>
@@ -23382,8 +23382,8 @@
       <c r="J231" s="9">
         <v>0</v>
       </c>
-      <c r="K231" s="10" t="s">
-        <v>354</v>
+      <c r="K231" s="37">
+        <v>15000</v>
       </c>
       <c r="L231" s="9">
         <v>36000</v>
@@ -23407,13 +23407,13 @@
         <v>70002005</v>
       </c>
       <c r="S231" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T231" s="15">
         <v>0</v>
       </c>
       <c r="U231" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="232" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -23422,13 +23422,13 @@
         <v>40002209</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E232" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F232" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G232" s="10" t="s">
         <v>353</v>
@@ -23442,8 +23442,8 @@
       <c r="J232" s="9">
         <v>0</v>
       </c>
-      <c r="K232" s="10" t="s">
-        <v>354</v>
+      <c r="K232" s="37">
+        <v>15000</v>
       </c>
       <c r="L232" s="9">
         <v>36000</v>
@@ -23467,13 +23467,13 @@
         <v>70002001</v>
       </c>
       <c r="S232" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T232" s="15">
         <v>0</v>
       </c>
       <c r="U232" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="233" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -23482,13 +23482,13 @@
         <v>40002210</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E233" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F233" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G233" s="10" t="s">
         <v>353</v>
@@ -23502,8 +23502,8 @@
       <c r="J233" s="9">
         <v>0</v>
       </c>
-      <c r="K233" s="10" t="s">
-        <v>354</v>
+      <c r="K233" s="37">
+        <v>15000</v>
       </c>
       <c r="L233" s="9">
         <v>36000</v>
@@ -23527,13 +23527,13 @@
         <v>70002002</v>
       </c>
       <c r="S233" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T233" s="15">
         <v>0</v>
       </c>
       <c r="U233" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="234" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -23541,13 +23541,13 @@
         <v>40002211</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E234" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F234" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G234" s="10" t="s">
         <v>353</v>
@@ -23561,8 +23561,8 @@
       <c r="J234" s="9">
         <v>0</v>
       </c>
-      <c r="K234" s="10" t="s">
-        <v>354</v>
+      <c r="K234" s="37">
+        <v>15000</v>
       </c>
       <c r="L234" s="9">
         <v>36000</v>
@@ -23586,13 +23586,13 @@
         <v>0</v>
       </c>
       <c r="S234" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T234" s="15">
         <v>0</v>
       </c>
       <c r="U234" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="235" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -23600,13 +23600,13 @@
         <v>40002212</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E235" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F235" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G235" s="10" t="s">
         <v>353</v>
@@ -23620,8 +23620,8 @@
       <c r="J235" s="9">
         <v>0</v>
       </c>
-      <c r="K235" s="10" t="s">
-        <v>354</v>
+      <c r="K235" s="37">
+        <v>15000</v>
       </c>
       <c r="L235" s="9">
         <v>60000</v>
@@ -23651,7 +23651,7 @@
         <v>0</v>
       </c>
       <c r="U235" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="236" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -23660,13 +23660,13 @@
         <v>40002301</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F236" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G236" s="10" t="s">
         <v>353</v>
@@ -23680,8 +23680,8 @@
       <c r="J236" s="9">
         <v>0</v>
       </c>
-      <c r="K236" s="10" t="s">
-        <v>354</v>
+      <c r="K236" s="37">
+        <v>15000</v>
       </c>
       <c r="L236" s="9">
         <v>60000</v>
@@ -23705,13 +23705,13 @@
         <v>70002001</v>
       </c>
       <c r="S236" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T236" s="15">
         <v>0</v>
       </c>
       <c r="U236" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="237" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -23720,13 +23720,13 @@
         <v>40002302</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E237" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F237" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G237" s="10" t="s">
         <v>353</v>
@@ -23740,8 +23740,8 @@
       <c r="J237" s="9">
         <v>0</v>
       </c>
-      <c r="K237" s="10" t="s">
-        <v>354</v>
+      <c r="K237" s="37">
+        <v>15000</v>
       </c>
       <c r="L237" s="9">
         <v>60000</v>
@@ -23765,13 +23765,13 @@
         <v>70002002</v>
       </c>
       <c r="S237" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T237" s="15">
         <v>0</v>
       </c>
       <c r="U237" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="238" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -23780,13 +23780,13 @@
         <v>40002303</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E238" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F238" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G238" s="10" t="s">
         <v>353</v>
@@ -23800,8 +23800,8 @@
       <c r="J238" s="9">
         <v>0</v>
       </c>
-      <c r="K238" s="10" t="s">
-        <v>354</v>
+      <c r="K238" s="37">
+        <v>10800</v>
       </c>
       <c r="L238" s="9">
         <v>60000</v>
@@ -23825,13 +23825,13 @@
         <v>70002004</v>
       </c>
       <c r="S238" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T238" s="15">
         <v>0</v>
       </c>
       <c r="U238" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="239" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -23840,13 +23840,13 @@
         <v>40002304</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F239" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G239" s="10" t="s">
         <v>353</v>
@@ -23860,8 +23860,8 @@
       <c r="J239" s="9">
         <v>0</v>
       </c>
-      <c r="K239" s="10" t="s">
-        <v>354</v>
+      <c r="K239" s="37">
+        <v>10800</v>
       </c>
       <c r="L239" s="9">
         <v>60000</v>
@@ -23885,13 +23885,13 @@
         <v>70002005</v>
       </c>
       <c r="S239" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T239" s="15">
         <v>0</v>
       </c>
       <c r="U239" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="240" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -23900,13 +23900,13 @@
         <v>40002305</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E240" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F240" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G240" s="10" t="s">
         <v>353</v>
@@ -23920,8 +23920,8 @@
       <c r="J240" s="9">
         <v>0</v>
       </c>
-      <c r="K240" s="10" t="s">
-        <v>354</v>
+      <c r="K240" s="37">
+        <v>10800</v>
       </c>
       <c r="L240" s="9">
         <v>60000</v>
@@ -23945,13 +23945,13 @@
         <v>70002008</v>
       </c>
       <c r="S240" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T240" s="15">
         <v>0</v>
       </c>
       <c r="U240" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="241" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -23960,13 +23960,13 @@
         <v>40002306</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E241" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F241" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G241" s="10" t="s">
         <v>353</v>
@@ -23980,8 +23980,8 @@
       <c r="J241" s="9">
         <v>0</v>
       </c>
-      <c r="K241" s="10" t="s">
-        <v>354</v>
+      <c r="K241" s="37">
+        <v>10800</v>
       </c>
       <c r="L241" s="9">
         <v>60000</v>
@@ -24005,13 +24005,13 @@
         <v>70002009</v>
       </c>
       <c r="S241" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T241" s="15">
         <v>0</v>
       </c>
       <c r="U241" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="242" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24020,13 +24020,13 @@
         <v>40002307</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F242" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G242" s="10" t="s">
         <v>353</v>
@@ -24040,8 +24040,8 @@
       <c r="J242" s="9">
         <v>0</v>
       </c>
-      <c r="K242" s="10" t="s">
-        <v>354</v>
+      <c r="K242" s="37">
+        <v>10800</v>
       </c>
       <c r="L242" s="9">
         <v>60000</v>
@@ -24065,13 +24065,13 @@
         <v>70002010</v>
       </c>
       <c r="S242" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T242" s="15">
         <v>0</v>
       </c>
       <c r="U242" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="243" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24080,13 +24080,13 @@
         <v>40002308</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F243" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G243" s="10" t="s">
         <v>353</v>
@@ -24100,8 +24100,8 @@
       <c r="J243" s="9">
         <v>0</v>
       </c>
-      <c r="K243" s="10" t="s">
-        <v>354</v>
+      <c r="K243" s="37">
+        <v>10800</v>
       </c>
       <c r="L243" s="9">
         <v>60000</v>
@@ -24125,13 +24125,13 @@
         <v>70002005</v>
       </c>
       <c r="S243" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T243" s="15">
         <v>0</v>
       </c>
       <c r="U243" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="244" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24140,13 +24140,13 @@
         <v>40002309</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F244" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G244" s="10" t="s">
         <v>353</v>
@@ -24160,8 +24160,8 @@
       <c r="J244" s="9">
         <v>0</v>
       </c>
-      <c r="K244" s="10" t="s">
-        <v>354</v>
+      <c r="K244" s="37">
+        <v>10800</v>
       </c>
       <c r="L244" s="9">
         <v>60000</v>
@@ -24185,13 +24185,13 @@
         <v>70002001</v>
       </c>
       <c r="S244" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T244" s="15">
         <v>0</v>
       </c>
       <c r="U244" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="245" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24200,13 +24200,13 @@
         <v>40002310</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F245" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G245" s="10" t="s">
         <v>353</v>
@@ -24220,8 +24220,8 @@
       <c r="J245" s="9">
         <v>0</v>
       </c>
-      <c r="K245" s="10" t="s">
-        <v>354</v>
+      <c r="K245" s="37">
+        <v>10800</v>
       </c>
       <c r="L245" s="9">
         <v>60000</v>
@@ -24245,13 +24245,13 @@
         <v>70002002</v>
       </c>
       <c r="S245" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T245" s="15">
         <v>0</v>
       </c>
       <c r="U245" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="246" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24259,13 +24259,13 @@
         <v>40002311</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F246" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G246" s="10" t="s">
         <v>353</v>
@@ -24279,8 +24279,8 @@
       <c r="J246" s="9">
         <v>0</v>
       </c>
-      <c r="K246" s="10" t="s">
-        <v>354</v>
+      <c r="K246" s="37">
+        <v>10800</v>
       </c>
       <c r="L246" s="9">
         <v>60000</v>
@@ -24304,13 +24304,13 @@
         <v>0</v>
       </c>
       <c r="S246" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T246" s="15">
         <v>0</v>
       </c>
       <c r="U246" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="247" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24318,13 +24318,13 @@
         <v>40002312</v>
       </c>
       <c r="D247" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E247" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F247" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G247" s="10" t="s">
         <v>353</v>
@@ -24338,8 +24338,8 @@
       <c r="J247" s="9">
         <v>0</v>
       </c>
-      <c r="K247" s="10" t="s">
-        <v>354</v>
+      <c r="K247" s="37">
+        <v>10800</v>
       </c>
       <c r="L247" s="9">
         <v>60000</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="U247" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="248" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24377,13 +24377,13 @@
         <v>40002401</v>
       </c>
       <c r="D248" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E248" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F248" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="E248" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="F248" s="10" t="s">
-        <v>368</v>
       </c>
       <c r="G248" s="9">
         <v>3</v>
@@ -24397,8 +24397,8 @@
       <c r="J248" s="9">
         <v>0</v>
       </c>
-      <c r="K248" s="10" t="s">
-        <v>354</v>
+      <c r="K248" s="37">
+        <v>10800</v>
       </c>
       <c r="L248" s="9">
         <v>42000</v>
@@ -24422,13 +24422,13 @@
         <v>10022001</v>
       </c>
       <c r="S248" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T248" s="15">
+        <v>0</v>
+      </c>
+      <c r="U248" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T248" s="15">
-        <v>0</v>
-      </c>
-      <c r="U248" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="249" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24436,13 +24436,13 @@
         <v>40002402</v>
       </c>
       <c r="D249" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E249" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F249" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="E249" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="F249" s="10" t="s">
-        <v>368</v>
       </c>
       <c r="G249" s="9">
         <v>3</v>
@@ -24456,8 +24456,8 @@
       <c r="J249" s="9">
         <v>0</v>
       </c>
-      <c r="K249" s="10" t="s">
-        <v>354</v>
+      <c r="K249" s="37">
+        <v>14400</v>
       </c>
       <c r="L249" s="9">
         <v>42000</v>
@@ -24481,13 +24481,13 @@
         <v>10022002</v>
       </c>
       <c r="S249" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T249" s="15">
+        <v>0</v>
+      </c>
+      <c r="U249" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T249" s="15">
-        <v>0</v>
-      </c>
-      <c r="U249" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="250" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24495,13 +24495,13 @@
         <v>40002403</v>
       </c>
       <c r="D250" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E250" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F250" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="E250" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="F250" s="10" t="s">
-        <v>368</v>
       </c>
       <c r="G250" s="9">
         <v>3</v>
@@ -24515,8 +24515,8 @@
       <c r="J250" s="9">
         <v>0</v>
       </c>
-      <c r="K250" s="10" t="s">
-        <v>354</v>
+      <c r="K250" s="37">
+        <v>14400</v>
       </c>
       <c r="L250" s="9">
         <v>42000</v>
@@ -24540,13 +24540,13 @@
         <v>10022003</v>
       </c>
       <c r="S250" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T250" s="15">
+        <v>0</v>
+      </c>
+      <c r="U250" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T250" s="15">
-        <v>0</v>
-      </c>
-      <c r="U250" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="251" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24554,13 +24554,13 @@
         <v>40002404</v>
       </c>
       <c r="D251" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E251" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F251" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="E251" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="F251" s="10" t="s">
-        <v>368</v>
       </c>
       <c r="G251" s="9">
         <v>3</v>
@@ -24574,8 +24574,8 @@
       <c r="J251" s="9">
         <v>0</v>
       </c>
-      <c r="K251" s="10" t="s">
-        <v>354</v>
+      <c r="K251" s="37">
+        <v>14400</v>
       </c>
       <c r="L251" s="9">
         <v>42000</v>
@@ -24599,13 +24599,13 @@
         <v>10022004</v>
       </c>
       <c r="S251" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T251" s="15">
+        <v>0</v>
+      </c>
+      <c r="U251" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T251" s="15">
-        <v>0</v>
-      </c>
-      <c r="U251" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="252" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24613,13 +24613,13 @@
         <v>40002405</v>
       </c>
       <c r="D252" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E252" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F252" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="E252" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="F252" s="10" t="s">
-        <v>368</v>
       </c>
       <c r="G252" s="9">
         <v>3</v>
@@ -24633,8 +24633,8 @@
       <c r="J252" s="9">
         <v>0</v>
       </c>
-      <c r="K252" s="10" t="s">
-        <v>354</v>
+      <c r="K252" s="37">
+        <v>14400</v>
       </c>
       <c r="L252" s="9">
         <v>42000</v>
@@ -24658,13 +24658,13 @@
         <v>10022005</v>
       </c>
       <c r="S252" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T252" s="15">
+        <v>0</v>
+      </c>
+      <c r="U252" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T252" s="15">
-        <v>0</v>
-      </c>
-      <c r="U252" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="253" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24672,13 +24672,13 @@
         <v>40002406</v>
       </c>
       <c r="D253" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E253" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F253" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="E253" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="F253" s="10" t="s">
-        <v>368</v>
       </c>
       <c r="G253" s="9">
         <v>3</v>
@@ -24692,8 +24692,8 @@
       <c r="J253" s="9">
         <v>0</v>
       </c>
-      <c r="K253" s="10" t="s">
-        <v>354</v>
+      <c r="K253" s="37">
+        <v>14400</v>
       </c>
       <c r="L253" s="9">
         <v>42000</v>
@@ -24717,13 +24717,13 @@
         <v>10022006</v>
       </c>
       <c r="S253" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T253" s="15">
+        <v>0</v>
+      </c>
+      <c r="U253" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T253" s="15">
-        <v>0</v>
-      </c>
-      <c r="U253" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="254" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24731,13 +24731,13 @@
         <v>40002407</v>
       </c>
       <c r="D254" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E254" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F254" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="E254" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="F254" s="10" t="s">
-        <v>368</v>
       </c>
       <c r="G254" s="9">
         <v>3</v>
@@ -24751,8 +24751,8 @@
       <c r="J254" s="9">
         <v>0</v>
       </c>
-      <c r="K254" s="10" t="s">
-        <v>354</v>
+      <c r="K254" s="37">
+        <v>14400</v>
       </c>
       <c r="L254" s="9">
         <v>42000</v>
@@ -24776,13 +24776,13 @@
         <v>10022007</v>
       </c>
       <c r="S254" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T254" s="15">
+        <v>0</v>
+      </c>
+      <c r="U254" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T254" s="15">
-        <v>0</v>
-      </c>
-      <c r="U254" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="255" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24790,13 +24790,13 @@
         <v>40002408</v>
       </c>
       <c r="D255" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E255" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F255" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="E255" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="F255" s="10" t="s">
-        <v>368</v>
       </c>
       <c r="G255" s="9">
         <v>3</v>
@@ -24810,8 +24810,8 @@
       <c r="J255" s="9">
         <v>0</v>
       </c>
-      <c r="K255" s="10" t="s">
-        <v>354</v>
+      <c r="K255" s="37">
+        <v>14400</v>
       </c>
       <c r="L255" s="9">
         <v>60000</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="U255" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="256" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24849,13 +24849,13 @@
         <v>40002409</v>
       </c>
       <c r="D256" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E256" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F256" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="E256" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="F256" s="10" t="s">
-        <v>368</v>
       </c>
       <c r="G256" s="9">
         <v>3</v>
@@ -24869,8 +24869,8 @@
       <c r="J256" s="9">
         <v>0</v>
       </c>
-      <c r="K256" s="10" t="s">
-        <v>354</v>
+      <c r="K256" s="37">
+        <v>14400</v>
       </c>
       <c r="L256" s="9">
         <v>60000</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="U256" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="257" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -24908,13 +24908,13 @@
         <v>40002410</v>
       </c>
       <c r="D257" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E257" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="F257" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="E257" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="F257" s="10" t="s">
-        <v>368</v>
       </c>
       <c r="G257" s="9">
         <v>3</v>
@@ -24928,8 +24928,8 @@
       <c r="J257" s="9">
         <v>0</v>
       </c>
-      <c r="K257" s="10" t="s">
-        <v>354</v>
+      <c r="K257" s="37">
+        <v>14400</v>
       </c>
       <c r="L257" s="9">
         <v>42000</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="U257" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="258" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -24971,10 +24971,10 @@
         <v>351</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F258" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G258" s="10" t="s">
         <v>353</v>
@@ -24988,8 +24988,8 @@
       <c r="J258" s="9">
         <v>0</v>
       </c>
-      <c r="K258" s="10" t="s">
-        <v>354</v>
+      <c r="K258" s="37">
+        <v>14400</v>
       </c>
       <c r="L258" s="9">
         <v>27600</v>
@@ -25013,13 +25013,13 @@
         <v>70003001</v>
       </c>
       <c r="S258" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T258" s="15">
+        <v>0</v>
+      </c>
+      <c r="U258" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T258" s="15">
-        <v>0</v>
-      </c>
-      <c r="U258" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="259" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -25031,10 +25031,10 @@
         <v>351</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F259" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G259" s="10" t="s">
         <v>353</v>
@@ -25048,8 +25048,8 @@
       <c r="J259" s="9">
         <v>0</v>
       </c>
-      <c r="K259" s="10" t="s">
-        <v>354</v>
+      <c r="K259" s="37">
+        <v>14400</v>
       </c>
       <c r="L259" s="9">
         <v>27600</v>
@@ -25079,7 +25079,7 @@
         <v>0</v>
       </c>
       <c r="U259" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="260" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -25091,10 +25091,10 @@
         <v>351</v>
       </c>
       <c r="E260" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F260" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G260" s="10" t="s">
         <v>353</v>
@@ -25108,8 +25108,8 @@
       <c r="J260" s="9">
         <v>0</v>
       </c>
-      <c r="K260" s="10" t="s">
-        <v>354</v>
+      <c r="K260" s="37">
+        <v>14400</v>
       </c>
       <c r="L260" s="9">
         <v>27600</v>
@@ -25139,7 +25139,7 @@
         <v>0</v>
       </c>
       <c r="U260" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="261" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -25151,10 +25151,10 @@
         <v>351</v>
       </c>
       <c r="E261" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F261" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G261" s="10" t="s">
         <v>353</v>
@@ -25168,8 +25168,8 @@
       <c r="J261" s="9">
         <v>0</v>
       </c>
-      <c r="K261" s="10" t="s">
-        <v>354</v>
+      <c r="K261" s="37">
+        <v>18000</v>
       </c>
       <c r="L261" s="9">
         <v>27600</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="U261" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="262" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -25211,10 +25211,10 @@
         <v>351</v>
       </c>
       <c r="E262" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F262" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G262" s="10" t="s">
         <v>353</v>
@@ -25228,8 +25228,8 @@
       <c r="J262" s="9">
         <v>0</v>
       </c>
-      <c r="K262" s="10" t="s">
-        <v>354</v>
+      <c r="K262" s="37">
+        <v>18000</v>
       </c>
       <c r="L262" s="9">
         <v>27600</v>
@@ -25259,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="U262" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="263" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -25271,10 +25271,10 @@
         <v>351</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F263" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G263" s="10" t="s">
         <v>353</v>
@@ -25288,8 +25288,8 @@
       <c r="J263" s="9">
         <v>0</v>
       </c>
-      <c r="K263" s="10" t="s">
-        <v>354</v>
+      <c r="K263" s="37">
+        <v>18000</v>
       </c>
       <c r="L263" s="9">
         <v>27600</v>
@@ -25319,7 +25319,7 @@
         <v>0</v>
       </c>
       <c r="U263" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="264" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -25331,10 +25331,10 @@
         <v>351</v>
       </c>
       <c r="E264" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F264" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G264" s="10" t="s">
         <v>353</v>
@@ -25348,8 +25348,8 @@
       <c r="J264" s="9">
         <v>0</v>
       </c>
-      <c r="K264" s="10" t="s">
-        <v>354</v>
+      <c r="K264" s="37">
+        <v>18000</v>
       </c>
       <c r="L264" s="9">
         <v>27600</v>
@@ -25379,7 +25379,7 @@
         <v>0</v>
       </c>
       <c r="U264" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="265" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -25391,10 +25391,10 @@
         <v>351</v>
       </c>
       <c r="E265" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F265" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G265" s="10" t="s">
         <v>353</v>
@@ -25408,8 +25408,8 @@
       <c r="J265" s="9">
         <v>0</v>
       </c>
-      <c r="K265" s="10" t="s">
-        <v>354</v>
+      <c r="K265" s="37">
+        <v>18000</v>
       </c>
       <c r="L265" s="9">
         <v>27600</v>
@@ -25439,7 +25439,7 @@
         <v>0</v>
       </c>
       <c r="U265" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="266" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -25451,10 +25451,10 @@
         <v>351</v>
       </c>
       <c r="E266" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F266" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G266" s="10" t="s">
         <v>353</v>
@@ -25468,8 +25468,8 @@
       <c r="J266" s="9">
         <v>0</v>
       </c>
-      <c r="K266" s="10" t="s">
-        <v>354</v>
+      <c r="K266" s="37">
+        <v>18000</v>
       </c>
       <c r="L266" s="9">
         <v>27600</v>
@@ -25499,7 +25499,7 @@
         <v>0</v>
       </c>
       <c r="U266" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="267" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -25511,10 +25511,10 @@
         <v>351</v>
       </c>
       <c r="E267" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F267" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G267" s="10" t="s">
         <v>353</v>
@@ -25528,8 +25528,8 @@
       <c r="J267" s="9">
         <v>0</v>
       </c>
-      <c r="K267" s="10" t="s">
-        <v>354</v>
+      <c r="K267" s="37">
+        <v>18000</v>
       </c>
       <c r="L267" s="9">
         <v>27600</v>
@@ -25559,7 +25559,7 @@
         <v>0</v>
       </c>
       <c r="U267" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="268" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -25567,13 +25567,13 @@
         <v>40003111</v>
       </c>
       <c r="D268" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E268" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F268" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G268" s="10" t="s">
         <v>353</v>
@@ -25587,8 +25587,8 @@
       <c r="J268" s="9">
         <v>0</v>
       </c>
-      <c r="K268" s="10" t="s">
-        <v>354</v>
+      <c r="K268" s="37">
+        <v>18000</v>
       </c>
       <c r="L268" s="9">
         <v>27600</v>
@@ -25618,7 +25618,7 @@
         <v>0</v>
       </c>
       <c r="U268" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="269" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -25626,13 +25626,13 @@
         <v>40003112</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E269" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F269" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G269" s="10" t="s">
         <v>353</v>
@@ -25646,8 +25646,8 @@
       <c r="J269" s="9">
         <v>0</v>
       </c>
-      <c r="K269" s="10" t="s">
-        <v>354</v>
+      <c r="K269" s="37">
+        <v>18000</v>
       </c>
       <c r="L269" s="9">
         <v>41400</v>
@@ -25677,7 +25677,7 @@
         <v>0</v>
       </c>
       <c r="U269" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="270" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -25686,13 +25686,13 @@
         <v>40003201</v>
       </c>
       <c r="D270" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E270" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F270" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G270" s="10" t="s">
         <v>353</v>
@@ -25706,8 +25706,8 @@
       <c r="J270" s="9">
         <v>0</v>
       </c>
-      <c r="K270" s="10" t="s">
-        <v>354</v>
+      <c r="K270" s="37">
+        <v>18000</v>
       </c>
       <c r="L270" s="9">
         <v>41400</v>
@@ -25731,13 +25731,13 @@
         <v>70003001</v>
       </c>
       <c r="S270" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T270" s="15">
         <v>0</v>
       </c>
       <c r="U270" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="271" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -25746,13 +25746,13 @@
         <v>40003202</v>
       </c>
       <c r="D271" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E271" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F271" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G271" s="10" t="s">
         <v>353</v>
@@ -25766,8 +25766,8 @@
       <c r="J271" s="9">
         <v>0</v>
       </c>
-      <c r="K271" s="10" t="s">
-        <v>354</v>
+      <c r="K271" s="37">
+        <v>18000</v>
       </c>
       <c r="L271" s="9">
         <v>41400</v>
@@ -25791,13 +25791,13 @@
         <v>70003002</v>
       </c>
       <c r="S271" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T271" s="15">
         <v>0</v>
       </c>
       <c r="U271" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="272" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -25806,13 +25806,13 @@
         <v>40003203</v>
       </c>
       <c r="D272" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E272" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F272" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G272" s="10" t="s">
         <v>353</v>
@@ -25826,8 +25826,8 @@
       <c r="J272" s="9">
         <v>0</v>
       </c>
-      <c r="K272" s="10" t="s">
-        <v>354</v>
+      <c r="K272" s="37">
+        <v>18000</v>
       </c>
       <c r="L272" s="9">
         <v>41400</v>
@@ -25851,13 +25851,13 @@
         <v>70003004</v>
       </c>
       <c r="S272" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T272" s="15">
         <v>0</v>
       </c>
       <c r="U272" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="273" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -25866,13 +25866,13 @@
         <v>40003204</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E273" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F273" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G273" s="10" t="s">
         <v>353</v>
@@ -25886,8 +25886,8 @@
       <c r="J273" s="9">
         <v>0</v>
       </c>
-      <c r="K273" s="10" t="s">
-        <v>354</v>
+      <c r="K273" s="37">
+        <v>18000</v>
       </c>
       <c r="L273" s="9">
         <v>41400</v>
@@ -25911,13 +25911,13 @@
         <v>70003005</v>
       </c>
       <c r="S273" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T273" s="15">
         <v>0</v>
       </c>
       <c r="U273" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="274" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -25926,13 +25926,13 @@
         <v>40003205</v>
       </c>
       <c r="D274" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E274" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F274" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G274" s="10" t="s">
         <v>353</v>
@@ -25946,8 +25946,8 @@
       <c r="J274" s="9">
         <v>0</v>
       </c>
-      <c r="K274" s="10" t="s">
-        <v>354</v>
+      <c r="K274" s="37">
+        <v>13000</v>
       </c>
       <c r="L274" s="9">
         <v>41400</v>
@@ -25971,13 +25971,13 @@
         <v>70003007</v>
       </c>
       <c r="S274" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T274" s="15">
         <v>0</v>
       </c>
       <c r="U274" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="275" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -25986,13 +25986,13 @@
         <v>40003206</v>
       </c>
       <c r="D275" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E275" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F275" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G275" s="10" t="s">
         <v>353</v>
@@ -26006,8 +26006,8 @@
       <c r="J275" s="9">
         <v>0</v>
       </c>
-      <c r="K275" s="10" t="s">
-        <v>354</v>
+      <c r="K275" s="37">
+        <v>13000</v>
       </c>
       <c r="L275" s="9">
         <v>41400</v>
@@ -26031,13 +26031,13 @@
         <v>70003008</v>
       </c>
       <c r="S275" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T275" s="15">
         <v>0</v>
       </c>
       <c r="U275" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="276" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -26046,13 +26046,13 @@
         <v>40003207</v>
       </c>
       <c r="D276" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E276" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F276" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G276" s="10" t="s">
         <v>353</v>
@@ -26066,8 +26066,8 @@
       <c r="J276" s="9">
         <v>0</v>
       </c>
-      <c r="K276" s="10" t="s">
-        <v>354</v>
+      <c r="K276" s="37">
+        <v>13000</v>
       </c>
       <c r="L276" s="9">
         <v>41400</v>
@@ -26091,13 +26091,13 @@
         <v>70003009</v>
       </c>
       <c r="S276" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T276" s="15">
         <v>0</v>
       </c>
       <c r="U276" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="277" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -26106,13 +26106,13 @@
         <v>40003208</v>
       </c>
       <c r="D277" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E277" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F277" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G277" s="10" t="s">
         <v>353</v>
@@ -26126,8 +26126,8 @@
       <c r="J277" s="9">
         <v>0</v>
       </c>
-      <c r="K277" s="10" t="s">
-        <v>354</v>
+      <c r="K277" s="37">
+        <v>13000</v>
       </c>
       <c r="L277" s="9">
         <v>41400</v>
@@ -26151,13 +26151,13 @@
         <v>70003010</v>
       </c>
       <c r="S277" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T277" s="15">
         <v>0</v>
       </c>
       <c r="U277" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="278" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -26166,13 +26166,13 @@
         <v>40003209</v>
       </c>
       <c r="D278" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E278" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F278" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G278" s="10" t="s">
         <v>353</v>
@@ -26186,8 +26186,8 @@
       <c r="J278" s="9">
         <v>0</v>
       </c>
-      <c r="K278" s="10" t="s">
-        <v>354</v>
+      <c r="K278" s="37">
+        <v>13000</v>
       </c>
       <c r="L278" s="9">
         <v>41400</v>
@@ -26211,13 +26211,13 @@
         <v>70003014</v>
       </c>
       <c r="S278" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T278" s="15">
         <v>0</v>
       </c>
       <c r="U278" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="279" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -26226,13 +26226,13 @@
         <v>40003210</v>
       </c>
       <c r="D279" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E279" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F279" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G279" s="10" t="s">
         <v>353</v>
@@ -26246,8 +26246,8 @@
       <c r="J279" s="9">
         <v>0</v>
       </c>
-      <c r="K279" s="10" t="s">
-        <v>354</v>
+      <c r="K279" s="37">
+        <v>13000</v>
       </c>
       <c r="L279" s="9">
         <v>41400</v>
@@ -26271,13 +26271,13 @@
         <v>70003015</v>
       </c>
       <c r="S279" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T279" s="15">
         <v>0</v>
       </c>
       <c r="U279" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="280" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -26285,13 +26285,13 @@
         <v>40003211</v>
       </c>
       <c r="D280" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E280" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F280" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G280" s="10" t="s">
         <v>353</v>
@@ -26305,8 +26305,8 @@
       <c r="J280" s="9">
         <v>0</v>
       </c>
-      <c r="K280" s="10" t="s">
-        <v>354</v>
+      <c r="K280" s="37">
+        <v>13000</v>
       </c>
       <c r="L280" s="9">
         <v>41400</v>
@@ -26330,13 +26330,13 @@
         <v>0</v>
       </c>
       <c r="S280" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T280" s="15">
         <v>0</v>
       </c>
       <c r="U280" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="281" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -26344,13 +26344,13 @@
         <v>40003212</v>
       </c>
       <c r="D281" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E281" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F281" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G281" s="10" t="s">
         <v>353</v>
@@ -26364,8 +26364,8 @@
       <c r="J281" s="9">
         <v>0</v>
       </c>
-      <c r="K281" s="10" t="s">
-        <v>354</v>
+      <c r="K281" s="37">
+        <v>13000</v>
       </c>
       <c r="L281" s="9">
         <v>69000</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="U281" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="282" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -26404,13 +26404,13 @@
         <v>40003301</v>
       </c>
       <c r="D282" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E282" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F282" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G282" s="10" t="s">
         <v>353</v>
@@ -26424,8 +26424,8 @@
       <c r="J282" s="9">
         <v>0</v>
       </c>
-      <c r="K282" s="10" t="s">
-        <v>354</v>
+      <c r="K282" s="37">
+        <v>13000</v>
       </c>
       <c r="L282" s="9">
         <v>69000</v>
@@ -26449,13 +26449,13 @@
         <v>70003001</v>
       </c>
       <c r="S282" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T282" s="15">
         <v>0</v>
       </c>
       <c r="U282" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="283" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -26464,13 +26464,13 @@
         <v>40003302</v>
       </c>
       <c r="D283" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E283" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F283" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G283" s="10" t="s">
         <v>353</v>
@@ -26484,8 +26484,8 @@
       <c r="J283" s="9">
         <v>0</v>
       </c>
-      <c r="K283" s="10" t="s">
-        <v>354</v>
+      <c r="K283" s="37">
+        <v>13000</v>
       </c>
       <c r="L283" s="9">
         <v>69000</v>
@@ -26509,13 +26509,13 @@
         <v>70003002</v>
       </c>
       <c r="S283" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T283" s="15">
         <v>0</v>
       </c>
       <c r="U283" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="284" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -26524,13 +26524,13 @@
         <v>40003303</v>
       </c>
       <c r="D284" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E284" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F284" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G284" s="10" t="s">
         <v>353</v>
@@ -26544,8 +26544,8 @@
       <c r="J284" s="9">
         <v>0</v>
       </c>
-      <c r="K284" s="10" t="s">
-        <v>354</v>
+      <c r="K284" s="37">
+        <v>13000</v>
       </c>
       <c r="L284" s="9">
         <v>69000</v>
@@ -26569,13 +26569,13 @@
         <v>70003004</v>
       </c>
       <c r="S284" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T284" s="15">
         <v>0</v>
       </c>
       <c r="U284" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="285" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -26584,13 +26584,13 @@
         <v>40003304</v>
       </c>
       <c r="D285" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E285" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F285" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G285" s="10" t="s">
         <v>353</v>
@@ -26604,8 +26604,8 @@
       <c r="J285" s="9">
         <v>0</v>
       </c>
-      <c r="K285" s="10" t="s">
-        <v>354</v>
+      <c r="K285" s="37">
+        <v>17300</v>
       </c>
       <c r="L285" s="9">
         <v>69000</v>
@@ -26629,13 +26629,13 @@
         <v>70003005</v>
       </c>
       <c r="S285" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T285" s="15">
         <v>0</v>
       </c>
       <c r="U285" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="286" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -26644,13 +26644,13 @@
         <v>40003305</v>
       </c>
       <c r="D286" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E286" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F286" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G286" s="10" t="s">
         <v>353</v>
@@ -26664,8 +26664,8 @@
       <c r="J286" s="9">
         <v>0</v>
       </c>
-      <c r="K286" s="10" t="s">
-        <v>354</v>
+      <c r="K286" s="37">
+        <v>17300</v>
       </c>
       <c r="L286" s="9">
         <v>69000</v>
@@ -26689,13 +26689,13 @@
         <v>70003007</v>
       </c>
       <c r="S286" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T286" s="15">
         <v>0</v>
       </c>
       <c r="U286" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="287" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -26704,13 +26704,13 @@
         <v>40003306</v>
       </c>
       <c r="D287" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E287" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F287" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G287" s="10" t="s">
         <v>353</v>
@@ -26724,8 +26724,8 @@
       <c r="J287" s="9">
         <v>0</v>
       </c>
-      <c r="K287" s="10" t="s">
-        <v>354</v>
+      <c r="K287" s="37">
+        <v>17300</v>
       </c>
       <c r="L287" s="9">
         <v>69000</v>
@@ -26749,13 +26749,13 @@
         <v>70003008</v>
       </c>
       <c r="S287" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T287" s="15">
         <v>0</v>
       </c>
       <c r="U287" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="288" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -26764,13 +26764,13 @@
         <v>40003307</v>
       </c>
       <c r="D288" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E288" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F288" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G288" s="10" t="s">
         <v>353</v>
@@ -26784,8 +26784,8 @@
       <c r="J288" s="9">
         <v>0</v>
       </c>
-      <c r="K288" s="10" t="s">
-        <v>354</v>
+      <c r="K288" s="37">
+        <v>17300</v>
       </c>
       <c r="L288" s="9">
         <v>69000</v>
@@ -26809,13 +26809,13 @@
         <v>70003009</v>
       </c>
       <c r="S288" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T288" s="15">
         <v>0</v>
       </c>
       <c r="U288" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="289" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -26824,13 +26824,13 @@
         <v>40003308</v>
       </c>
       <c r="D289" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E289" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F289" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G289" s="10" t="s">
         <v>353</v>
@@ -26844,8 +26844,8 @@
       <c r="J289" s="9">
         <v>0</v>
       </c>
-      <c r="K289" s="10" t="s">
-        <v>354</v>
+      <c r="K289" s="37">
+        <v>17300</v>
       </c>
       <c r="L289" s="9">
         <v>69000</v>
@@ -26869,13 +26869,13 @@
         <v>70003010</v>
       </c>
       <c r="S289" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T289" s="15">
         <v>0</v>
       </c>
       <c r="U289" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="290" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -26884,13 +26884,13 @@
         <v>40003309</v>
       </c>
       <c r="D290" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E290" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F290" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G290" s="10" t="s">
         <v>353</v>
@@ -26904,8 +26904,8 @@
       <c r="J290" s="9">
         <v>0</v>
       </c>
-      <c r="K290" s="10" t="s">
-        <v>354</v>
+      <c r="K290" s="37">
+        <v>17300</v>
       </c>
       <c r="L290" s="9">
         <v>69000</v>
@@ -26929,13 +26929,13 @@
         <v>70003014</v>
       </c>
       <c r="S290" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T290" s="15">
         <v>0</v>
       </c>
       <c r="U290" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="291" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -26944,13 +26944,13 @@
         <v>40003310</v>
       </c>
       <c r="D291" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E291" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F291" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G291" s="10" t="s">
         <v>353</v>
@@ -26964,8 +26964,8 @@
       <c r="J291" s="9">
         <v>0</v>
       </c>
-      <c r="K291" s="10" t="s">
-        <v>354</v>
+      <c r="K291" s="37">
+        <v>17300</v>
       </c>
       <c r="L291" s="9">
         <v>69000</v>
@@ -26989,13 +26989,13 @@
         <v>70003015</v>
       </c>
       <c r="S291" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T291" s="15">
         <v>0</v>
       </c>
       <c r="U291" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="292" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -27003,13 +27003,13 @@
         <v>40003311</v>
       </c>
       <c r="D292" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E292" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F292" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G292" s="10" t="s">
         <v>353</v>
@@ -27023,8 +27023,8 @@
       <c r="J292" s="9">
         <v>0</v>
       </c>
-      <c r="K292" s="10" t="s">
-        <v>354</v>
+      <c r="K292" s="37">
+        <v>17300</v>
       </c>
       <c r="L292" s="9">
         <v>69000</v>
@@ -27048,13 +27048,13 @@
         <v>0</v>
       </c>
       <c r="S292" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T292" s="15">
         <v>0</v>
       </c>
       <c r="U292" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="293" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -27062,13 +27062,13 @@
         <v>40003312</v>
       </c>
       <c r="D293" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E293" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F293" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G293" s="10" t="s">
         <v>353</v>
@@ -27082,8 +27082,8 @@
       <c r="J293" s="9">
         <v>0</v>
       </c>
-      <c r="K293" s="10" t="s">
-        <v>354</v>
+      <c r="K293" s="37">
+        <v>17300</v>
       </c>
       <c r="L293" s="9">
         <v>69000</v>
@@ -27113,7 +27113,7 @@
         <v>0</v>
       </c>
       <c r="U293" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="294" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -27121,13 +27121,13 @@
         <v>40003401</v>
       </c>
       <c r="D294" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E294" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F294" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G294" s="9">
         <v>3</v>
@@ -27141,8 +27141,8 @@
       <c r="J294" s="9">
         <v>0</v>
       </c>
-      <c r="K294" s="10" t="s">
-        <v>354</v>
+      <c r="K294" s="37">
+        <v>17300</v>
       </c>
       <c r="L294" s="9">
         <v>48300</v>
@@ -27166,13 +27166,13 @@
         <v>10023001</v>
       </c>
       <c r="S294" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T294" s="15">
+        <v>0</v>
+      </c>
+      <c r="U294" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T294" s="15">
-        <v>0</v>
-      </c>
-      <c r="U294" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="295" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -27180,13 +27180,13 @@
         <v>40003402</v>
       </c>
       <c r="D295" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E295" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F295" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G295" s="9">
         <v>3</v>
@@ -27200,8 +27200,8 @@
       <c r="J295" s="9">
         <v>0</v>
       </c>
-      <c r="K295" s="10" t="s">
-        <v>354</v>
+      <c r="K295" s="37">
+        <v>17300</v>
       </c>
       <c r="L295" s="9">
         <v>48300</v>
@@ -27225,13 +27225,13 @@
         <v>10023002</v>
       </c>
       <c r="S295" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T295" s="15">
+        <v>0</v>
+      </c>
+      <c r="U295" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T295" s="15">
-        <v>0</v>
-      </c>
-      <c r="U295" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="296" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -27239,13 +27239,13 @@
         <v>40003403</v>
       </c>
       <c r="D296" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E296" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F296" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G296" s="9">
         <v>3</v>
@@ -27259,8 +27259,8 @@
       <c r="J296" s="9">
         <v>0</v>
       </c>
-      <c r="K296" s="10" t="s">
-        <v>354</v>
+      <c r="K296" s="37">
+        <v>17300</v>
       </c>
       <c r="L296" s="9">
         <v>48300</v>
@@ -27284,13 +27284,13 @@
         <v>10023003</v>
       </c>
       <c r="S296" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T296" s="15">
+        <v>0</v>
+      </c>
+      <c r="U296" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T296" s="15">
-        <v>0</v>
-      </c>
-      <c r="U296" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="297" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -27298,13 +27298,13 @@
         <v>40003404</v>
       </c>
       <c r="D297" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E297" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F297" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G297" s="9">
         <v>3</v>
@@ -27318,8 +27318,8 @@
       <c r="J297" s="9">
         <v>0</v>
       </c>
-      <c r="K297" s="10" t="s">
-        <v>354</v>
+      <c r="K297" s="37">
+        <v>21600</v>
       </c>
       <c r="L297" s="9">
         <v>48300</v>
@@ -27343,13 +27343,13 @@
         <v>10023004</v>
       </c>
       <c r="S297" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T297" s="15">
+        <v>0</v>
+      </c>
+      <c r="U297" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T297" s="15">
-        <v>0</v>
-      </c>
-      <c r="U297" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="298" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -27357,13 +27357,13 @@
         <v>40003405</v>
       </c>
       <c r="D298" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E298" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F298" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G298" s="9">
         <v>3</v>
@@ -27377,8 +27377,8 @@
       <c r="J298" s="9">
         <v>0</v>
       </c>
-      <c r="K298" s="10" t="s">
-        <v>354</v>
+      <c r="K298" s="37">
+        <v>21600</v>
       </c>
       <c r="L298" s="9">
         <v>48300</v>
@@ -27402,13 +27402,13 @@
         <v>10023005</v>
       </c>
       <c r="S298" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T298" s="15">
+        <v>0</v>
+      </c>
+      <c r="U298" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T298" s="15">
-        <v>0</v>
-      </c>
-      <c r="U298" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="299" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -27416,13 +27416,13 @@
         <v>40003406</v>
       </c>
       <c r="D299" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E299" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F299" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G299" s="9">
         <v>3</v>
@@ -27436,8 +27436,8 @@
       <c r="J299" s="9">
         <v>0</v>
       </c>
-      <c r="K299" s="10" t="s">
-        <v>354</v>
+      <c r="K299" s="37">
+        <v>21600</v>
       </c>
       <c r="L299" s="9">
         <v>48300</v>
@@ -27461,13 +27461,13 @@
         <v>10023006</v>
       </c>
       <c r="S299" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T299" s="15">
+        <v>0</v>
+      </c>
+      <c r="U299" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T299" s="15">
-        <v>0</v>
-      </c>
-      <c r="U299" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="300" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -27475,13 +27475,13 @@
         <v>40003407</v>
       </c>
       <c r="D300" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E300" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F300" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G300" s="9">
         <v>3</v>
@@ -27495,8 +27495,8 @@
       <c r="J300" s="9">
         <v>0</v>
       </c>
-      <c r="K300" s="10" t="s">
-        <v>354</v>
+      <c r="K300" s="37">
+        <v>21600</v>
       </c>
       <c r="L300" s="9">
         <v>48300</v>
@@ -27520,13 +27520,13 @@
         <v>10023007</v>
       </c>
       <c r="S300" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T300" s="15">
+        <v>0</v>
+      </c>
+      <c r="U300" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T300" s="15">
-        <v>0</v>
-      </c>
-      <c r="U300" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="301" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -27534,13 +27534,13 @@
         <v>40003408</v>
       </c>
       <c r="D301" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E301" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F301" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G301" s="9">
         <v>3</v>
@@ -27554,8 +27554,8 @@
       <c r="J301" s="9">
         <v>0</v>
       </c>
-      <c r="K301" s="10" t="s">
-        <v>354</v>
+      <c r="K301" s="37">
+        <v>21600</v>
       </c>
       <c r="L301" s="9">
         <v>69000</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="U301" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="302" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -27593,13 +27593,13 @@
         <v>40003409</v>
       </c>
       <c r="D302" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E302" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F302" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G302" s="9">
         <v>3</v>
@@ -27613,8 +27613,8 @@
       <c r="J302" s="9">
         <v>0</v>
       </c>
-      <c r="K302" s="10" t="s">
-        <v>354</v>
+      <c r="K302" s="37">
+        <v>21600</v>
       </c>
       <c r="L302" s="9">
         <v>69000</v>
@@ -27644,7 +27644,7 @@
         <v>0</v>
       </c>
       <c r="U302" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="303" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -27652,13 +27652,13 @@
         <v>40003410</v>
       </c>
       <c r="D303" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E303" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F303" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G303" s="9">
         <v>3</v>
@@ -27672,8 +27672,8 @@
       <c r="J303" s="9">
         <v>0</v>
       </c>
-      <c r="K303" s="10" t="s">
-        <v>354</v>
+      <c r="K303" s="37">
+        <v>21600</v>
       </c>
       <c r="L303" s="9">
         <v>48300</v>
@@ -27703,7 +27703,7 @@
         <v>0</v>
       </c>
       <c r="U303" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="304" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -27715,10 +27715,10 @@
         <v>351</v>
       </c>
       <c r="E304" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F304" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F304" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G304" s="10" t="s">
         <v>353</v>
@@ -27732,8 +27732,8 @@
       <c r="J304" s="9">
         <v>0</v>
       </c>
-      <c r="K304" s="10" t="s">
-        <v>354</v>
+      <c r="K304" s="37">
+        <v>21600</v>
       </c>
       <c r="L304" s="9">
         <v>31740</v>
@@ -27757,13 +27757,13 @@
         <v>70004001</v>
       </c>
       <c r="S304" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T304" s="15">
+        <v>0</v>
+      </c>
+      <c r="U304" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T304" s="15">
-        <v>0</v>
-      </c>
-      <c r="U304" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="305" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -27775,10 +27775,10 @@
         <v>351</v>
       </c>
       <c r="E305" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F305" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F305" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G305" s="10" t="s">
         <v>353</v>
@@ -27792,8 +27792,8 @@
       <c r="J305" s="9">
         <v>0</v>
       </c>
-      <c r="K305" s="10" t="s">
-        <v>354</v>
+      <c r="K305" s="37">
+        <v>21600</v>
       </c>
       <c r="L305" s="9">
         <v>31740</v>
@@ -27823,7 +27823,7 @@
         <v>0</v>
       </c>
       <c r="U305" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="306" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -27835,10 +27835,10 @@
         <v>351</v>
       </c>
       <c r="E306" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F306" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G306" s="10" t="s">
         <v>353</v>
@@ -27852,8 +27852,8 @@
       <c r="J306" s="9">
         <v>0</v>
       </c>
-      <c r="K306" s="10" t="s">
-        <v>354</v>
+      <c r="K306" s="37">
+        <v>21600</v>
       </c>
       <c r="L306" s="9">
         <v>31740</v>
@@ -27883,7 +27883,7 @@
         <v>0</v>
       </c>
       <c r="U306" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="307" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -27895,10 +27895,10 @@
         <v>351</v>
       </c>
       <c r="E307" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F307" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G307" s="10" t="s">
         <v>353</v>
@@ -27912,8 +27912,8 @@
       <c r="J307" s="9">
         <v>0</v>
       </c>
-      <c r="K307" s="10" t="s">
-        <v>354</v>
+      <c r="K307" s="37">
+        <v>21600</v>
       </c>
       <c r="L307" s="9">
         <v>31740</v>
@@ -27943,7 +27943,7 @@
         <v>0</v>
       </c>
       <c r="U307" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="308" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -27955,10 +27955,10 @@
         <v>351</v>
       </c>
       <c r="E308" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F308" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G308" s="10" t="s">
         <v>353</v>
@@ -27972,8 +27972,8 @@
       <c r="J308" s="9">
         <v>0</v>
       </c>
-      <c r="K308" s="10" t="s">
-        <v>354</v>
+      <c r="K308" s="37">
+        <v>21600</v>
       </c>
       <c r="L308" s="9">
         <v>31740</v>
@@ -28003,7 +28003,7 @@
         <v>0</v>
       </c>
       <c r="U308" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="309" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -28015,10 +28015,10 @@
         <v>351</v>
       </c>
       <c r="E309" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F309" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G309" s="10" t="s">
         <v>353</v>
@@ -28032,8 +28032,8 @@
       <c r="J309" s="9">
         <v>0</v>
       </c>
-      <c r="K309" s="10" t="s">
-        <v>354</v>
+      <c r="K309" s="37">
+        <v>21600</v>
       </c>
       <c r="L309" s="9">
         <v>31740</v>
@@ -28063,7 +28063,7 @@
         <v>0</v>
       </c>
       <c r="U309" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="310" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -28075,10 +28075,10 @@
         <v>351</v>
       </c>
       <c r="E310" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F310" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G310" s="10" t="s">
         <v>353</v>
@@ -28092,8 +28092,8 @@
       <c r="J310" s="9">
         <v>0</v>
       </c>
-      <c r="K310" s="10" t="s">
-        <v>354</v>
+      <c r="K310" s="37">
+        <v>15600</v>
       </c>
       <c r="L310" s="9">
         <v>31740</v>
@@ -28123,7 +28123,7 @@
         <v>0</v>
       </c>
       <c r="U310" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="311" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -28135,10 +28135,10 @@
         <v>351</v>
       </c>
       <c r="E311" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F311" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G311" s="10" t="s">
         <v>353</v>
@@ -28152,8 +28152,8 @@
       <c r="J311" s="9">
         <v>0</v>
       </c>
-      <c r="K311" s="10" t="s">
-        <v>354</v>
+      <c r="K311" s="37">
+        <v>15600</v>
       </c>
       <c r="L311" s="9">
         <v>31740</v>
@@ -28183,7 +28183,7 @@
         <v>0</v>
       </c>
       <c r="U311" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="312" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -28195,10 +28195,10 @@
         <v>351</v>
       </c>
       <c r="E312" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F312" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G312" s="10" t="s">
         <v>353</v>
@@ -28212,8 +28212,8 @@
       <c r="J312" s="9">
         <v>0</v>
       </c>
-      <c r="K312" s="10" t="s">
-        <v>354</v>
+      <c r="K312" s="37">
+        <v>15600</v>
       </c>
       <c r="L312" s="9">
         <v>31740</v>
@@ -28243,7 +28243,7 @@
         <v>0</v>
       </c>
       <c r="U312" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="313" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -28255,10 +28255,10 @@
         <v>351</v>
       </c>
       <c r="E313" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F313" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F313" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G313" s="10" t="s">
         <v>353</v>
@@ -28272,8 +28272,8 @@
       <c r="J313" s="9">
         <v>0</v>
       </c>
-      <c r="K313" s="10" t="s">
-        <v>354</v>
+      <c r="K313" s="37">
+        <v>15600</v>
       </c>
       <c r="L313" s="9">
         <v>31740</v>
@@ -28303,7 +28303,7 @@
         <v>0</v>
       </c>
       <c r="U313" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="314" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -28311,13 +28311,13 @@
         <v>40004111</v>
       </c>
       <c r="D314" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E314" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F314" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F314" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G314" s="10" t="s">
         <v>353</v>
@@ -28331,8 +28331,8 @@
       <c r="J314" s="9">
         <v>0</v>
       </c>
-      <c r="K314" s="10" t="s">
-        <v>354</v>
+      <c r="K314" s="37">
+        <v>15600</v>
       </c>
       <c r="L314" s="9">
         <v>31740</v>
@@ -28362,7 +28362,7 @@
         <v>0</v>
       </c>
       <c r="U314" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="315" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -28370,13 +28370,13 @@
         <v>40004112</v>
       </c>
       <c r="D315" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E315" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F315" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F315" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G315" s="10" t="s">
         <v>353</v>
@@ -28390,8 +28390,8 @@
       <c r="J315" s="9">
         <v>0</v>
       </c>
-      <c r="K315" s="10" t="s">
-        <v>354</v>
+      <c r="K315" s="37">
+        <v>15600</v>
       </c>
       <c r="L315" s="9">
         <v>47610</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="U315" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="316" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -28430,13 +28430,13 @@
         <v>40004201</v>
       </c>
       <c r="D316" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E316" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F316" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F316" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G316" s="10" t="s">
         <v>353</v>
@@ -28450,8 +28450,8 @@
       <c r="J316" s="9">
         <v>0</v>
       </c>
-      <c r="K316" s="10" t="s">
-        <v>354</v>
+      <c r="K316" s="37">
+        <v>15600</v>
       </c>
       <c r="L316" s="9">
         <v>47610</v>
@@ -28475,13 +28475,13 @@
         <v>70004001</v>
       </c>
       <c r="S316" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T316" s="15">
         <v>0</v>
       </c>
       <c r="U316" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="317" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -28490,13 +28490,13 @@
         <v>40004202</v>
       </c>
       <c r="D317" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E317" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F317" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F317" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G317" s="10" t="s">
         <v>353</v>
@@ -28510,8 +28510,8 @@
       <c r="J317" s="9">
         <v>0</v>
       </c>
-      <c r="K317" s="10" t="s">
-        <v>354</v>
+      <c r="K317" s="37">
+        <v>15600</v>
       </c>
       <c r="L317" s="9">
         <v>47610</v>
@@ -28535,13 +28535,13 @@
         <v>70004002</v>
       </c>
       <c r="S317" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T317" s="15">
         <v>0</v>
       </c>
       <c r="U317" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="318" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -28550,13 +28550,13 @@
         <v>40004203</v>
       </c>
       <c r="D318" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E318" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F318" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G318" s="10" t="s">
         <v>353</v>
@@ -28570,8 +28570,8 @@
       <c r="J318" s="9">
         <v>0</v>
       </c>
-      <c r="K318" s="10" t="s">
-        <v>354</v>
+      <c r="K318" s="37">
+        <v>15600</v>
       </c>
       <c r="L318" s="9">
         <v>47610</v>
@@ -28595,13 +28595,13 @@
         <v>70004004</v>
       </c>
       <c r="S318" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T318" s="15">
         <v>0</v>
       </c>
       <c r="U318" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="319" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -28610,13 +28610,13 @@
         <v>40004204</v>
       </c>
       <c r="D319" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E319" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F319" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G319" s="10" t="s">
         <v>353</v>
@@ -28630,8 +28630,8 @@
       <c r="J319" s="9">
         <v>0</v>
       </c>
-      <c r="K319" s="10" t="s">
-        <v>354</v>
+      <c r="K319" s="37">
+        <v>15600</v>
       </c>
       <c r="L319" s="9">
         <v>47610</v>
@@ -28655,13 +28655,13 @@
         <v>70004005</v>
       </c>
       <c r="S319" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T319" s="15">
         <v>0</v>
       </c>
       <c r="U319" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="320" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -28670,13 +28670,13 @@
         <v>40004205</v>
       </c>
       <c r="D320" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E320" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F320" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G320" s="10" t="s">
         <v>353</v>
@@ -28690,8 +28690,8 @@
       <c r="J320" s="9">
         <v>0</v>
       </c>
-      <c r="K320" s="10" t="s">
-        <v>354</v>
+      <c r="K320" s="37">
+        <v>15600</v>
       </c>
       <c r="L320" s="9">
         <v>47610</v>
@@ -28715,13 +28715,13 @@
         <v>70004005</v>
       </c>
       <c r="S320" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T320" s="15">
         <v>0</v>
       </c>
       <c r="U320" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="321" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -28730,13 +28730,13 @@
         <v>40004206</v>
       </c>
       <c r="D321" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E321" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F321" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G321" s="10" t="s">
         <v>353</v>
@@ -28750,8 +28750,8 @@
       <c r="J321" s="9">
         <v>0</v>
       </c>
-      <c r="K321" s="10" t="s">
-        <v>354</v>
+      <c r="K321" s="37">
+        <v>20800</v>
       </c>
       <c r="L321" s="9">
         <v>47610</v>
@@ -28775,13 +28775,13 @@
         <v>70004008</v>
       </c>
       <c r="S321" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T321" s="15">
         <v>0</v>
       </c>
       <c r="U321" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="322" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -28790,13 +28790,13 @@
         <v>40004207</v>
       </c>
       <c r="D322" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E322" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F322" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G322" s="10" t="s">
         <v>353</v>
@@ -28810,8 +28810,8 @@
       <c r="J322" s="9">
         <v>0</v>
       </c>
-      <c r="K322" s="10" t="s">
-        <v>354</v>
+      <c r="K322" s="37">
+        <v>20800</v>
       </c>
       <c r="L322" s="9">
         <v>47610</v>
@@ -28835,13 +28835,13 @@
         <v>70004009</v>
       </c>
       <c r="S322" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T322" s="15">
         <v>0</v>
       </c>
       <c r="U322" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="323" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -28850,13 +28850,13 @@
         <v>40004208</v>
       </c>
       <c r="D323" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E323" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F323" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G323" s="10" t="s">
         <v>353</v>
@@ -28870,8 +28870,8 @@
       <c r="J323" s="9">
         <v>0</v>
       </c>
-      <c r="K323" s="10" t="s">
-        <v>354</v>
+      <c r="K323" s="37">
+        <v>20800</v>
       </c>
       <c r="L323" s="9">
         <v>47610</v>
@@ -28895,13 +28895,13 @@
         <v>70004011</v>
       </c>
       <c r="S323" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T323" s="15">
         <v>0</v>
       </c>
       <c r="U323" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="324" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -28910,13 +28910,13 @@
         <v>40004209</v>
       </c>
       <c r="D324" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E324" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F324" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G324" s="10" t="s">
         <v>353</v>
@@ -28930,8 +28930,8 @@
       <c r="J324" s="9">
         <v>0</v>
       </c>
-      <c r="K324" s="10" t="s">
-        <v>354</v>
+      <c r="K324" s="37">
+        <v>20800</v>
       </c>
       <c r="L324" s="9">
         <v>47610</v>
@@ -28955,13 +28955,13 @@
         <v>70004012</v>
       </c>
       <c r="S324" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T324" s="15">
         <v>0</v>
       </c>
       <c r="U324" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="325" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -28970,13 +28970,13 @@
         <v>40004210</v>
       </c>
       <c r="D325" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E325" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F325" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F325" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G325" s="10" t="s">
         <v>353</v>
@@ -28990,8 +28990,8 @@
       <c r="J325" s="9">
         <v>0</v>
       </c>
-      <c r="K325" s="10" t="s">
-        <v>354</v>
+      <c r="K325" s="37">
+        <v>20800</v>
       </c>
       <c r="L325" s="9">
         <v>47610</v>
@@ -29015,13 +29015,13 @@
         <v>70004001</v>
       </c>
       <c r="S325" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T325" s="15">
         <v>0</v>
       </c>
       <c r="U325" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="326" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -29029,13 +29029,13 @@
         <v>40004211</v>
       </c>
       <c r="D326" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E326" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F326" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F326" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G326" s="10" t="s">
         <v>353</v>
@@ -29049,8 +29049,8 @@
       <c r="J326" s="9">
         <v>0</v>
       </c>
-      <c r="K326" s="10" t="s">
-        <v>354</v>
+      <c r="K326" s="37">
+        <v>20800</v>
       </c>
       <c r="L326" s="9">
         <v>47610</v>
@@ -29074,13 +29074,13 @@
         <v>0</v>
       </c>
       <c r="S326" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T326" s="15">
         <v>0</v>
       </c>
       <c r="U326" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="327" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -29088,13 +29088,13 @@
         <v>40004212</v>
       </c>
       <c r="D327" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E327" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F327" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F327" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G327" s="10" t="s">
         <v>353</v>
@@ -29108,8 +29108,8 @@
       <c r="J327" s="9">
         <v>0</v>
       </c>
-      <c r="K327" s="10" t="s">
-        <v>354</v>
+      <c r="K327" s="37">
+        <v>20800</v>
       </c>
       <c r="L327" s="9">
         <v>79350</v>
@@ -29139,7 +29139,7 @@
         <v>0</v>
       </c>
       <c r="U327" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="328" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -29148,13 +29148,13 @@
         <v>40004301</v>
       </c>
       <c r="D328" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E328" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F328" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F328" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G328" s="10" t="s">
         <v>353</v>
@@ -29168,8 +29168,8 @@
       <c r="J328" s="9">
         <v>0</v>
       </c>
-      <c r="K328" s="10" t="s">
-        <v>354</v>
+      <c r="K328" s="37">
+        <v>20800</v>
       </c>
       <c r="L328" s="9">
         <v>79350</v>
@@ -29193,13 +29193,13 @@
         <v>70004001</v>
       </c>
       <c r="S328" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T328" s="15">
         <v>0</v>
       </c>
       <c r="U328" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="329" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -29208,13 +29208,13 @@
         <v>40004302</v>
       </c>
       <c r="D329" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E329" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F329" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F329" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G329" s="10" t="s">
         <v>353</v>
@@ -29228,8 +29228,8 @@
       <c r="J329" s="9">
         <v>0</v>
       </c>
-      <c r="K329" s="10" t="s">
-        <v>354</v>
+      <c r="K329" s="37">
+        <v>20800</v>
       </c>
       <c r="L329" s="9">
         <v>79350</v>
@@ -29253,13 +29253,13 @@
         <v>70004002</v>
       </c>
       <c r="S329" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T329" s="15">
         <v>0</v>
       </c>
       <c r="U329" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="330" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -29268,13 +29268,13 @@
         <v>40004303</v>
       </c>
       <c r="D330" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E330" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F330" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G330" s="10" t="s">
         <v>353</v>
@@ -29288,8 +29288,8 @@
       <c r="J330" s="9">
         <v>0</v>
       </c>
-      <c r="K330" s="10" t="s">
-        <v>354</v>
+      <c r="K330" s="37">
+        <v>20800</v>
       </c>
       <c r="L330" s="9">
         <v>79350</v>
@@ -29313,13 +29313,13 @@
         <v>70004004</v>
       </c>
       <c r="S330" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T330" s="15">
         <v>0</v>
       </c>
       <c r="U330" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="331" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -29328,13 +29328,13 @@
         <v>40004304</v>
       </c>
       <c r="D331" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E331" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F331" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G331" s="10" t="s">
         <v>353</v>
@@ -29348,8 +29348,8 @@
       <c r="J331" s="9">
         <v>0</v>
       </c>
-      <c r="K331" s="10" t="s">
-        <v>354</v>
+      <c r="K331" s="37">
+        <v>20800</v>
       </c>
       <c r="L331" s="9">
         <v>79350</v>
@@ -29373,13 +29373,13 @@
         <v>70004005</v>
       </c>
       <c r="S331" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T331" s="15">
         <v>0</v>
       </c>
       <c r="U331" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="332" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -29388,13 +29388,13 @@
         <v>40004305</v>
       </c>
       <c r="D332" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E332" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F332" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G332" s="10" t="s">
         <v>353</v>
@@ -29408,8 +29408,8 @@
       <c r="J332" s="9">
         <v>0</v>
       </c>
-      <c r="K332" s="10" t="s">
-        <v>354</v>
+      <c r="K332" s="37">
+        <v>20800</v>
       </c>
       <c r="L332" s="9">
         <v>79350</v>
@@ -29433,13 +29433,13 @@
         <v>70004005</v>
       </c>
       <c r="S332" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T332" s="15">
         <v>0</v>
       </c>
       <c r="U332" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="333" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -29448,13 +29448,13 @@
         <v>40004306</v>
       </c>
       <c r="D333" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E333" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F333" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G333" s="10" t="s">
         <v>353</v>
@@ -29468,8 +29468,8 @@
       <c r="J333" s="9">
         <v>0</v>
       </c>
-      <c r="K333" s="10" t="s">
-        <v>354</v>
+      <c r="K333" s="37">
+        <v>25900</v>
       </c>
       <c r="L333" s="9">
         <v>79350</v>
@@ -29493,13 +29493,13 @@
         <v>70004008</v>
       </c>
       <c r="S333" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T333" s="15">
         <v>0</v>
       </c>
       <c r="U333" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="334" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -29508,13 +29508,13 @@
         <v>40004307</v>
       </c>
       <c r="D334" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E334" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F334" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G334" s="10" t="s">
         <v>353</v>
@@ -29528,8 +29528,8 @@
       <c r="J334" s="9">
         <v>0</v>
       </c>
-      <c r="K334" s="10" t="s">
-        <v>354</v>
+      <c r="K334" s="37">
+        <v>25900</v>
       </c>
       <c r="L334" s="9">
         <v>79350</v>
@@ -29553,13 +29553,13 @@
         <v>70004009</v>
       </c>
       <c r="S334" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T334" s="15">
         <v>0</v>
       </c>
       <c r="U334" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="335" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -29568,13 +29568,13 @@
         <v>40004308</v>
       </c>
       <c r="D335" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E335" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F335" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G335" s="10" t="s">
         <v>353</v>
@@ -29588,8 +29588,8 @@
       <c r="J335" s="9">
         <v>0</v>
       </c>
-      <c r="K335" s="10" t="s">
-        <v>354</v>
+      <c r="K335" s="37">
+        <v>25900</v>
       </c>
       <c r="L335" s="9">
         <v>79350</v>
@@ -29613,13 +29613,13 @@
         <v>70004011</v>
       </c>
       <c r="S335" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T335" s="15">
         <v>0</v>
       </c>
       <c r="U335" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="336" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -29628,13 +29628,13 @@
         <v>40004309</v>
       </c>
       <c r="D336" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E336" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F336" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G336" s="10" t="s">
         <v>353</v>
@@ -29648,8 +29648,8 @@
       <c r="J336" s="9">
         <v>0</v>
       </c>
-      <c r="K336" s="10" t="s">
-        <v>354</v>
+      <c r="K336" s="37">
+        <v>25900</v>
       </c>
       <c r="L336" s="9">
         <v>79350</v>
@@ -29673,13 +29673,13 @@
         <v>70004012</v>
       </c>
       <c r="S336" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T336" s="15">
         <v>0</v>
       </c>
       <c r="U336" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="337" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -29688,13 +29688,13 @@
         <v>40004310</v>
       </c>
       <c r="D337" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E337" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F337" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F337" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G337" s="10" t="s">
         <v>353</v>
@@ -29708,8 +29708,8 @@
       <c r="J337" s="9">
         <v>0</v>
       </c>
-      <c r="K337" s="10" t="s">
-        <v>354</v>
+      <c r="K337" s="37">
+        <v>25900</v>
       </c>
       <c r="L337" s="9">
         <v>79350</v>
@@ -29733,13 +29733,13 @@
         <v>70004001</v>
       </c>
       <c r="S337" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T337" s="15">
         <v>0</v>
       </c>
       <c r="U337" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="338" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -29747,13 +29747,13 @@
         <v>40004311</v>
       </c>
       <c r="D338" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E338" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F338" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F338" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G338" s="10" t="s">
         <v>353</v>
@@ -29767,8 +29767,8 @@
       <c r="J338" s="9">
         <v>0</v>
       </c>
-      <c r="K338" s="10" t="s">
-        <v>354</v>
+      <c r="K338" s="37">
+        <v>25900</v>
       </c>
       <c r="L338" s="9">
         <v>79350</v>
@@ -29792,13 +29792,13 @@
         <v>0</v>
       </c>
       <c r="S338" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T338" s="15">
         <v>0</v>
       </c>
       <c r="U338" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="339" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -29806,13 +29806,13 @@
         <v>40004312</v>
       </c>
       <c r="D339" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E339" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F339" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F339" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G339" s="10" t="s">
         <v>353</v>
@@ -29826,8 +29826,8 @@
       <c r="J339" s="9">
         <v>0</v>
       </c>
-      <c r="K339" s="10" t="s">
-        <v>354</v>
+      <c r="K339" s="37">
+        <v>25900</v>
       </c>
       <c r="L339" s="9">
         <v>79350</v>
@@ -29857,7 +29857,7 @@
         <v>0</v>
       </c>
       <c r="U339" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="340" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -29865,13 +29865,13 @@
         <v>40004401</v>
       </c>
       <c r="D340" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E340" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F340" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F340" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G340" s="9">
         <v>3</v>
@@ -29885,8 +29885,8 @@
       <c r="J340" s="9">
         <v>0</v>
       </c>
-      <c r="K340" s="10" t="s">
-        <v>354</v>
+      <c r="K340" s="37">
+        <v>25900</v>
       </c>
       <c r="L340" s="9">
         <v>55550</v>
@@ -29910,13 +29910,13 @@
         <v>10024001</v>
       </c>
       <c r="S340" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T340" s="15">
+        <v>0</v>
+      </c>
+      <c r="U340" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T340" s="15">
-        <v>0</v>
-      </c>
-      <c r="U340" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="341" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -29924,13 +29924,13 @@
         <v>40004402</v>
       </c>
       <c r="D341" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E341" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F341" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F341" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G341" s="9">
         <v>3</v>
@@ -29944,8 +29944,8 @@
       <c r="J341" s="9">
         <v>0</v>
       </c>
-      <c r="K341" s="10" t="s">
-        <v>354</v>
+      <c r="K341" s="37">
+        <v>25900</v>
       </c>
       <c r="L341" s="9">
         <v>55550</v>
@@ -29969,13 +29969,13 @@
         <v>10024002</v>
       </c>
       <c r="S341" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T341" s="15">
+        <v>0</v>
+      </c>
+      <c r="U341" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T341" s="15">
-        <v>0</v>
-      </c>
-      <c r="U341" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="342" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -29983,13 +29983,13 @@
         <v>40004403</v>
       </c>
       <c r="D342" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E342" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F342" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F342" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G342" s="9">
         <v>3</v>
@@ -30003,8 +30003,8 @@
       <c r="J342" s="9">
         <v>0</v>
       </c>
-      <c r="K342" s="10" t="s">
-        <v>354</v>
+      <c r="K342" s="37">
+        <v>25900</v>
       </c>
       <c r="L342" s="9">
         <v>55550</v>
@@ -30028,13 +30028,13 @@
         <v>10024003</v>
       </c>
       <c r="S342" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T342" s="15">
+        <v>0</v>
+      </c>
+      <c r="U342" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T342" s="15">
-        <v>0</v>
-      </c>
-      <c r="U342" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="343" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -30042,13 +30042,13 @@
         <v>40004404</v>
       </c>
       <c r="D343" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E343" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F343" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F343" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G343" s="9">
         <v>3</v>
@@ -30062,8 +30062,8 @@
       <c r="J343" s="9">
         <v>0</v>
       </c>
-      <c r="K343" s="10" t="s">
-        <v>354</v>
+      <c r="K343" s="37">
+        <v>25900</v>
       </c>
       <c r="L343" s="9">
         <v>55550</v>
@@ -30087,13 +30087,13 @@
         <v>10024004</v>
       </c>
       <c r="S343" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T343" s="15">
+        <v>0</v>
+      </c>
+      <c r="U343" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T343" s="15">
-        <v>0</v>
-      </c>
-      <c r="U343" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="344" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -30101,13 +30101,13 @@
         <v>40004405</v>
       </c>
       <c r="D344" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E344" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F344" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F344" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G344" s="9">
         <v>3</v>
@@ -30121,8 +30121,8 @@
       <c r="J344" s="9">
         <v>0</v>
       </c>
-      <c r="K344" s="10" t="s">
-        <v>354</v>
+      <c r="K344" s="37">
+        <v>25900</v>
       </c>
       <c r="L344" s="9">
         <v>55550</v>
@@ -30146,13 +30146,13 @@
         <v>10024005</v>
       </c>
       <c r="S344" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T344" s="15">
+        <v>0</v>
+      </c>
+      <c r="U344" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T344" s="15">
-        <v>0</v>
-      </c>
-      <c r="U344" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="345" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -30160,13 +30160,13 @@
         <v>40004406</v>
       </c>
       <c r="D345" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E345" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F345" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F345" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G345" s="9">
         <v>3</v>
@@ -30180,8 +30180,8 @@
       <c r="J345" s="9">
         <v>0</v>
       </c>
-      <c r="K345" s="10" t="s">
-        <v>354</v>
+      <c r="K345" s="37">
+        <v>25900</v>
       </c>
       <c r="L345" s="9">
         <v>55550</v>
@@ -30205,13 +30205,13 @@
         <v>10024006</v>
       </c>
       <c r="S345" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T345" s="15">
+        <v>0</v>
+      </c>
+      <c r="U345" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T345" s="15">
-        <v>0</v>
-      </c>
-      <c r="U345" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="346" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -30219,13 +30219,13 @@
         <v>40004407</v>
       </c>
       <c r="D346" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E346" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F346" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F346" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G346" s="9">
         <v>3</v>
@@ -30239,8 +30239,8 @@
       <c r="J346" s="9">
         <v>0</v>
       </c>
-      <c r="K346" s="10" t="s">
-        <v>354</v>
+      <c r="K346" s="37">
+        <v>18700</v>
       </c>
       <c r="L346" s="9">
         <v>55550</v>
@@ -30264,13 +30264,13 @@
         <v>10024007</v>
       </c>
       <c r="S346" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T346" s="15">
+        <v>0</v>
+      </c>
+      <c r="U346" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T346" s="15">
-        <v>0</v>
-      </c>
-      <c r="U346" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="347" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -30278,13 +30278,13 @@
         <v>40004408</v>
       </c>
       <c r="D347" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E347" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F347" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F347" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G347" s="9">
         <v>3</v>
@@ -30298,8 +30298,8 @@
       <c r="J347" s="9">
         <v>0</v>
       </c>
-      <c r="K347" s="10" t="s">
-        <v>354</v>
+      <c r="K347" s="37">
+        <v>18700</v>
       </c>
       <c r="L347" s="9">
         <v>79350</v>
@@ -30329,7 +30329,7 @@
         <v>0</v>
       </c>
       <c r="U347" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="348" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -30337,13 +30337,13 @@
         <v>40004409</v>
       </c>
       <c r="D348" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E348" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F348" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F348" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G348" s="9">
         <v>3</v>
@@ -30357,8 +30357,8 @@
       <c r="J348" s="9">
         <v>0</v>
       </c>
-      <c r="K348" s="10" t="s">
-        <v>354</v>
+      <c r="K348" s="37">
+        <v>18700</v>
       </c>
       <c r="L348" s="9">
         <v>79350</v>
@@ -30388,7 +30388,7 @@
         <v>0</v>
       </c>
       <c r="U348" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="349" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -30396,13 +30396,13 @@
         <v>40004410</v>
       </c>
       <c r="D349" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E349" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F349" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="F349" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="G349" s="9">
         <v>3</v>
@@ -30416,8 +30416,8 @@
       <c r="J349" s="9">
         <v>0</v>
       </c>
-      <c r="K349" s="10" t="s">
-        <v>354</v>
+      <c r="K349" s="37">
+        <v>18700</v>
       </c>
       <c r="L349" s="9">
         <v>55550</v>
@@ -30447,7 +30447,7 @@
         <v>0</v>
       </c>
       <c r="U349" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="350" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -30459,7 +30459,7 @@
         <v>351</v>
       </c>
       <c r="E350" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F350" s="10" t="s">
         <v>41</v>
@@ -30476,8 +30476,8 @@
       <c r="J350" s="9">
         <v>0</v>
       </c>
-      <c r="K350" s="10" t="s">
-        <v>354</v>
+      <c r="K350" s="37">
+        <v>18700</v>
       </c>
       <c r="L350" s="9">
         <v>36500</v>
@@ -30501,13 +30501,13 @@
         <v>70005001</v>
       </c>
       <c r="S350" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T350" s="15">
+        <v>0</v>
+      </c>
+      <c r="U350" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T350" s="15">
-        <v>0</v>
-      </c>
-      <c r="U350" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="351" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -30519,7 +30519,7 @@
         <v>351</v>
       </c>
       <c r="E351" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F351" s="10" t="s">
         <v>41</v>
@@ -30536,8 +30536,8 @@
       <c r="J351" s="9">
         <v>0</v>
       </c>
-      <c r="K351" s="10" t="s">
-        <v>354</v>
+      <c r="K351" s="37">
+        <v>18700</v>
       </c>
       <c r="L351" s="9">
         <v>36500</v>
@@ -30567,7 +30567,7 @@
         <v>0</v>
       </c>
       <c r="U351" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="352" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -30579,7 +30579,7 @@
         <v>351</v>
       </c>
       <c r="E352" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F352" s="10" t="s">
         <v>41</v>
@@ -30596,8 +30596,8 @@
       <c r="J352" s="9">
         <v>0</v>
       </c>
-      <c r="K352" s="10" t="s">
-        <v>354</v>
+      <c r="K352" s="37">
+        <v>18700</v>
       </c>
       <c r="L352" s="9">
         <v>36500</v>
@@ -30627,7 +30627,7 @@
         <v>0</v>
       </c>
       <c r="U352" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="353" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -30639,7 +30639,7 @@
         <v>351</v>
       </c>
       <c r="E353" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F353" s="10" t="s">
         <v>41</v>
@@ -30656,8 +30656,8 @@
       <c r="J353" s="9">
         <v>0</v>
       </c>
-      <c r="K353" s="10" t="s">
-        <v>354</v>
+      <c r="K353" s="37">
+        <v>18700</v>
       </c>
       <c r="L353" s="9">
         <v>36500</v>
@@ -30687,7 +30687,7 @@
         <v>0</v>
       </c>
       <c r="U353" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="354" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -30699,7 +30699,7 @@
         <v>351</v>
       </c>
       <c r="E354" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F354" s="10" t="s">
         <v>41</v>
@@ -30716,8 +30716,8 @@
       <c r="J354" s="9">
         <v>0</v>
       </c>
-      <c r="K354" s="10" t="s">
-        <v>354</v>
+      <c r="K354" s="37">
+        <v>18700</v>
       </c>
       <c r="L354" s="9">
         <v>36500</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="U354" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="355" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -30759,7 +30759,7 @@
         <v>351</v>
       </c>
       <c r="E355" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F355" s="10" t="s">
         <v>41</v>
@@ -30776,8 +30776,8 @@
       <c r="J355" s="9">
         <v>0</v>
       </c>
-      <c r="K355" s="10" t="s">
-        <v>354</v>
+      <c r="K355" s="37">
+        <v>18700</v>
       </c>
       <c r="L355" s="9">
         <v>36500</v>
@@ -30807,7 +30807,7 @@
         <v>0</v>
       </c>
       <c r="U355" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="356" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -30819,7 +30819,7 @@
         <v>351</v>
       </c>
       <c r="E356" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F356" s="10" t="s">
         <v>41</v>
@@ -30836,8 +30836,8 @@
       <c r="J356" s="9">
         <v>0</v>
       </c>
-      <c r="K356" s="10" t="s">
-        <v>354</v>
+      <c r="K356" s="37">
+        <v>18700</v>
       </c>
       <c r="L356" s="9">
         <v>36500</v>
@@ -30867,7 +30867,7 @@
         <v>0</v>
       </c>
       <c r="U356" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="357" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -30879,7 +30879,7 @@
         <v>351</v>
       </c>
       <c r="E357" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F357" s="10" t="s">
         <v>41</v>
@@ -30896,8 +30896,8 @@
       <c r="J357" s="9">
         <v>0</v>
       </c>
-      <c r="K357" s="10" t="s">
-        <v>354</v>
+      <c r="K357" s="37">
+        <v>25000</v>
       </c>
       <c r="L357" s="9">
         <v>36500</v>
@@ -30927,7 +30927,7 @@
         <v>0</v>
       </c>
       <c r="U357" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="358" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -30939,7 +30939,7 @@
         <v>351</v>
       </c>
       <c r="E358" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F358" s="10" t="s">
         <v>41</v>
@@ -30956,8 +30956,8 @@
       <c r="J358" s="9">
         <v>0</v>
       </c>
-      <c r="K358" s="10" t="s">
-        <v>354</v>
+      <c r="K358" s="37">
+        <v>25000</v>
       </c>
       <c r="L358" s="9">
         <v>36500</v>
@@ -30987,7 +30987,7 @@
         <v>0</v>
       </c>
       <c r="U358" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="359" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -30999,7 +30999,7 @@
         <v>351</v>
       </c>
       <c r="E359" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F359" s="10" t="s">
         <v>41</v>
@@ -31016,8 +31016,8 @@
       <c r="J359" s="9">
         <v>0</v>
       </c>
-      <c r="K359" s="10" t="s">
-        <v>354</v>
+      <c r="K359" s="37">
+        <v>25000</v>
       </c>
       <c r="L359" s="9">
         <v>36500</v>
@@ -31047,7 +31047,7 @@
         <v>0</v>
       </c>
       <c r="U359" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="360" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -31055,10 +31055,10 @@
         <v>40005111</v>
       </c>
       <c r="D360" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E360" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F360" s="10" t="s">
         <v>41</v>
@@ -31075,8 +31075,8 @@
       <c r="J360" s="9">
         <v>0</v>
       </c>
-      <c r="K360" s="10" t="s">
-        <v>354</v>
+      <c r="K360" s="37">
+        <v>25000</v>
       </c>
       <c r="L360" s="9">
         <v>36500</v>
@@ -31106,7 +31106,7 @@
         <v>0</v>
       </c>
       <c r="U360" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="361" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -31114,10 +31114,10 @@
         <v>40005112</v>
       </c>
       <c r="D361" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E361" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F361" s="10" t="s">
         <v>41</v>
@@ -31134,8 +31134,8 @@
       <c r="J361" s="9">
         <v>0</v>
       </c>
-      <c r="K361" s="10" t="s">
-        <v>354</v>
+      <c r="K361" s="37">
+        <v>25000</v>
       </c>
       <c r="L361" s="9">
         <v>54750</v>
@@ -31165,7 +31165,7 @@
         <v>0</v>
       </c>
       <c r="U361" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="362" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -31174,10 +31174,10 @@
         <v>40005201</v>
       </c>
       <c r="D362" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E362" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F362" s="10" t="s">
         <v>41</v>
@@ -31194,8 +31194,8 @@
       <c r="J362" s="9">
         <v>0</v>
       </c>
-      <c r="K362" s="10" t="s">
-        <v>354</v>
+      <c r="K362" s="37">
+        <v>25000</v>
       </c>
       <c r="L362" s="9">
         <v>54750</v>
@@ -31219,13 +31219,13 @@
         <v>70005001</v>
       </c>
       <c r="S362" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T362" s="15">
         <v>0</v>
       </c>
       <c r="U362" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="363" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -31234,10 +31234,10 @@
         <v>40005202</v>
       </c>
       <c r="D363" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E363" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F363" s="10" t="s">
         <v>41</v>
@@ -31254,8 +31254,8 @@
       <c r="J363" s="9">
         <v>0</v>
       </c>
-      <c r="K363" s="10" t="s">
-        <v>354</v>
+      <c r="K363" s="37">
+        <v>25000</v>
       </c>
       <c r="L363" s="9">
         <v>54750</v>
@@ -31279,13 +31279,13 @@
         <v>70005002</v>
       </c>
       <c r="S363" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T363" s="15">
         <v>0</v>
       </c>
       <c r="U363" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="364" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -31294,10 +31294,10 @@
         <v>40005203</v>
       </c>
       <c r="D364" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E364" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F364" s="10" t="s">
         <v>41</v>
@@ -31314,8 +31314,8 @@
       <c r="J364" s="9">
         <v>0</v>
       </c>
-      <c r="K364" s="10" t="s">
-        <v>354</v>
+      <c r="K364" s="37">
+        <v>25000</v>
       </c>
       <c r="L364" s="9">
         <v>54750</v>
@@ -31339,13 +31339,13 @@
         <v>70005006</v>
       </c>
       <c r="S364" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T364" s="15">
         <v>0</v>
       </c>
       <c r="U364" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="365" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -31354,10 +31354,10 @@
         <v>40005204</v>
       </c>
       <c r="D365" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E365" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F365" s="10" t="s">
         <v>41</v>
@@ -31374,8 +31374,8 @@
       <c r="J365" s="9">
         <v>0</v>
       </c>
-      <c r="K365" s="10" t="s">
-        <v>354</v>
+      <c r="K365" s="37">
+        <v>25000</v>
       </c>
       <c r="L365" s="9">
         <v>54750</v>
@@ -31399,13 +31399,13 @@
         <v>70005006</v>
       </c>
       <c r="S365" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T365" s="15">
         <v>0</v>
       </c>
       <c r="U365" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="366" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -31414,10 +31414,10 @@
         <v>40005205</v>
       </c>
       <c r="D366" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E366" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F366" s="10" t="s">
         <v>41</v>
@@ -31434,8 +31434,8 @@
       <c r="J366" s="9">
         <v>0</v>
       </c>
-      <c r="K366" s="10" t="s">
-        <v>354</v>
+      <c r="K366" s="37">
+        <v>25000</v>
       </c>
       <c r="L366" s="9">
         <v>54750</v>
@@ -31459,13 +31459,13 @@
         <v>70005002</v>
       </c>
       <c r="S366" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T366" s="15">
         <v>0</v>
       </c>
       <c r="U366" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="367" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -31474,10 +31474,10 @@
         <v>40005206</v>
       </c>
       <c r="D367" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E367" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F367" s="10" t="s">
         <v>41</v>
@@ -31494,8 +31494,8 @@
       <c r="J367" s="9">
         <v>0</v>
       </c>
-      <c r="K367" s="10" t="s">
-        <v>354</v>
+      <c r="K367" s="37">
+        <v>25000</v>
       </c>
       <c r="L367" s="9">
         <v>54750</v>
@@ -31519,13 +31519,13 @@
         <v>70005010</v>
       </c>
       <c r="S367" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T367" s="15">
         <v>0</v>
       </c>
       <c r="U367" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="368" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -31534,10 +31534,10 @@
         <v>40005207</v>
       </c>
       <c r="D368" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E368" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F368" s="10" t="s">
         <v>41</v>
@@ -31554,8 +31554,8 @@
       <c r="J368" s="9">
         <v>0</v>
       </c>
-      <c r="K368" s="10" t="s">
-        <v>354</v>
+      <c r="K368" s="37">
+        <v>25000</v>
       </c>
       <c r="L368" s="9">
         <v>54750</v>
@@ -31579,13 +31579,13 @@
         <v>70005010</v>
       </c>
       <c r="S368" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T368" s="15">
         <v>0</v>
       </c>
       <c r="U368" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="369" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -31594,10 +31594,10 @@
         <v>40005208</v>
       </c>
       <c r="D369" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E369" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F369" s="10" t="s">
         <v>41</v>
@@ -31614,8 +31614,8 @@
       <c r="J369" s="9">
         <v>0</v>
       </c>
-      <c r="K369" s="10" t="s">
-        <v>354</v>
+      <c r="K369" s="37">
+        <v>31100</v>
       </c>
       <c r="L369" s="9">
         <v>54750</v>
@@ -31639,13 +31639,13 @@
         <v>70005001</v>
       </c>
       <c r="S369" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T369" s="15">
         <v>0</v>
       </c>
       <c r="U369" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="370" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -31654,10 +31654,10 @@
         <v>40005209</v>
       </c>
       <c r="D370" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E370" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F370" s="10" t="s">
         <v>41</v>
@@ -31674,8 +31674,8 @@
       <c r="J370" s="9">
         <v>0</v>
       </c>
-      <c r="K370" s="10" t="s">
-        <v>354</v>
+      <c r="K370" s="37">
+        <v>31100</v>
       </c>
       <c r="L370" s="9">
         <v>54750</v>
@@ -31699,13 +31699,13 @@
         <v>70005002</v>
       </c>
       <c r="S370" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T370" s="15">
         <v>0</v>
       </c>
       <c r="U370" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="371" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -31714,10 +31714,10 @@
         <v>40005210</v>
       </c>
       <c r="D371" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E371" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F371" s="10" t="s">
         <v>41</v>
@@ -31734,8 +31734,8 @@
       <c r="J371" s="9">
         <v>0</v>
       </c>
-      <c r="K371" s="10" t="s">
-        <v>354</v>
+      <c r="K371" s="37">
+        <v>31100</v>
       </c>
       <c r="L371" s="9">
         <v>54750</v>
@@ -31759,13 +31759,13 @@
         <v>70005006</v>
       </c>
       <c r="S371" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T371" s="15">
         <v>0</v>
       </c>
       <c r="U371" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="372" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -31773,10 +31773,10 @@
         <v>40005211</v>
       </c>
       <c r="D372" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E372" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F372" s="10" t="s">
         <v>41</v>
@@ -31793,8 +31793,8 @@
       <c r="J372" s="9">
         <v>0</v>
       </c>
-      <c r="K372" s="10" t="s">
-        <v>354</v>
+      <c r="K372" s="37">
+        <v>31100</v>
       </c>
       <c r="L372" s="9">
         <v>54750</v>
@@ -31818,13 +31818,13 @@
         <v>0</v>
       </c>
       <c r="S372" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="T372" s="15">
         <v>0</v>
       </c>
       <c r="U372" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="373" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -31832,10 +31832,10 @@
         <v>40005212</v>
       </c>
       <c r="D373" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E373" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F373" s="10" t="s">
         <v>41</v>
@@ -31852,8 +31852,8 @@
       <c r="J373" s="9">
         <v>0</v>
       </c>
-      <c r="K373" s="10" t="s">
-        <v>354</v>
+      <c r="K373" s="37">
+        <v>31100</v>
       </c>
       <c r="L373" s="9">
         <v>91250</v>
@@ -31883,7 +31883,7 @@
         <v>0</v>
       </c>
       <c r="U373" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="374" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -31892,10 +31892,10 @@
         <v>40005301</v>
       </c>
       <c r="D374" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E374" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F374" s="10" t="s">
         <v>41</v>
@@ -31912,8 +31912,8 @@
       <c r="J374" s="9">
         <v>0</v>
       </c>
-      <c r="K374" s="10" t="s">
-        <v>354</v>
+      <c r="K374" s="37">
+        <v>31100</v>
       </c>
       <c r="L374" s="9">
         <v>91250</v>
@@ -31937,13 +31937,13 @@
         <v>70005001</v>
       </c>
       <c r="S374" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T374" s="15">
         <v>0</v>
       </c>
       <c r="U374" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="375" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -31952,10 +31952,10 @@
         <v>40005302</v>
       </c>
       <c r="D375" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E375" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F375" s="10" t="s">
         <v>41</v>
@@ -31972,8 +31972,8 @@
       <c r="J375" s="9">
         <v>0</v>
       </c>
-      <c r="K375" s="10" t="s">
-        <v>354</v>
+      <c r="K375" s="37">
+        <v>31100</v>
       </c>
       <c r="L375" s="9">
         <v>91250</v>
@@ -31997,13 +31997,13 @@
         <v>70005002</v>
       </c>
       <c r="S375" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T375" s="15">
         <v>0</v>
       </c>
       <c r="U375" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="376" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -32012,10 +32012,10 @@
         <v>40005303</v>
       </c>
       <c r="D376" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E376" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F376" s="10" t="s">
         <v>41</v>
@@ -32032,8 +32032,8 @@
       <c r="J376" s="9">
         <v>0</v>
       </c>
-      <c r="K376" s="10" t="s">
-        <v>354</v>
+      <c r="K376" s="37">
+        <v>31100</v>
       </c>
       <c r="L376" s="9">
         <v>91250</v>
@@ -32057,13 +32057,13 @@
         <v>70005006</v>
       </c>
       <c r="S376" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T376" s="15">
         <v>0</v>
       </c>
       <c r="U376" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="377" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -32072,10 +32072,10 @@
         <v>40005304</v>
       </c>
       <c r="D377" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E377" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F377" s="10" t="s">
         <v>41</v>
@@ -32092,8 +32092,8 @@
       <c r="J377" s="9">
         <v>0</v>
       </c>
-      <c r="K377" s="10" t="s">
-        <v>354</v>
+      <c r="K377" s="37">
+        <v>31100</v>
       </c>
       <c r="L377" s="9">
         <v>91250</v>
@@ -32117,13 +32117,13 @@
         <v>70005006</v>
       </c>
       <c r="S377" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T377" s="15">
         <v>0</v>
       </c>
       <c r="U377" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="378" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -32132,10 +32132,10 @@
         <v>40005305</v>
       </c>
       <c r="D378" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E378" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F378" s="10" t="s">
         <v>41</v>
@@ -32152,8 +32152,8 @@
       <c r="J378" s="9">
         <v>0</v>
       </c>
-      <c r="K378" s="10" t="s">
-        <v>354</v>
+      <c r="K378" s="37">
+        <v>31100</v>
       </c>
       <c r="L378" s="9">
         <v>91250</v>
@@ -32177,13 +32177,13 @@
         <v>70005002</v>
       </c>
       <c r="S378" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T378" s="15">
         <v>0</v>
       </c>
       <c r="U378" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="379" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -32192,10 +32192,10 @@
         <v>40005306</v>
       </c>
       <c r="D379" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E379" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F379" s="10" t="s">
         <v>41</v>
@@ -32212,8 +32212,8 @@
       <c r="J379" s="9">
         <v>0</v>
       </c>
-      <c r="K379" s="10" t="s">
-        <v>354</v>
+      <c r="K379" s="37">
+        <v>31100</v>
       </c>
       <c r="L379" s="9">
         <v>91250</v>
@@ -32237,13 +32237,13 @@
         <v>70005010</v>
       </c>
       <c r="S379" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T379" s="15">
         <v>0</v>
       </c>
       <c r="U379" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="380" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -32252,10 +32252,10 @@
         <v>40005307</v>
       </c>
       <c r="D380" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E380" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F380" s="10" t="s">
         <v>41</v>
@@ -32272,8 +32272,8 @@
       <c r="J380" s="9">
         <v>0</v>
       </c>
-      <c r="K380" s="10" t="s">
-        <v>354</v>
+      <c r="K380" s="37">
+        <v>31100</v>
       </c>
       <c r="L380" s="9">
         <v>91250</v>
@@ -32297,13 +32297,13 @@
         <v>70005010</v>
       </c>
       <c r="S380" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T380" s="15">
         <v>0</v>
       </c>
       <c r="U380" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="381" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -32312,10 +32312,10 @@
         <v>40005308</v>
       </c>
       <c r="D381" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E381" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F381" s="10" t="s">
         <v>41</v>
@@ -32332,8 +32332,8 @@
       <c r="J381" s="9">
         <v>0</v>
       </c>
-      <c r="K381" s="10" t="s">
-        <v>354</v>
+      <c r="K381" s="37">
+        <v>31100</v>
       </c>
       <c r="L381" s="9">
         <v>91250</v>
@@ -32357,13 +32357,13 @@
         <v>70005001</v>
       </c>
       <c r="S381" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T381" s="15">
         <v>0</v>
       </c>
       <c r="U381" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="382" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -32372,10 +32372,10 @@
         <v>40005309</v>
       </c>
       <c r="D382" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E382" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F382" s="10" t="s">
         <v>41</v>
@@ -32392,8 +32392,8 @@
       <c r="J382" s="9">
         <v>0</v>
       </c>
-      <c r="K382" s="10" t="s">
-        <v>354</v>
+      <c r="K382" s="37">
+        <v>22400</v>
       </c>
       <c r="L382" s="9">
         <v>91250</v>
@@ -32417,13 +32417,13 @@
         <v>70005002</v>
       </c>
       <c r="S382" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T382" s="15">
         <v>0</v>
       </c>
       <c r="U382" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="383" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -32432,10 +32432,10 @@
         <v>40005310</v>
       </c>
       <c r="D383" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E383" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F383" s="10" t="s">
         <v>41</v>
@@ -32452,8 +32452,8 @@
       <c r="J383" s="9">
         <v>0</v>
       </c>
-      <c r="K383" s="10" t="s">
-        <v>354</v>
+      <c r="K383" s="37">
+        <v>22400</v>
       </c>
       <c r="L383" s="9">
         <v>91250</v>
@@ -32477,13 +32477,13 @@
         <v>70005006</v>
       </c>
       <c r="S383" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="T383" s="15">
         <v>0</v>
       </c>
       <c r="U383" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="384" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -32491,10 +32491,10 @@
         <v>40005311</v>
       </c>
       <c r="D384" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E384" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F384" s="10" t="s">
         <v>41</v>
@@ -32511,8 +32511,8 @@
       <c r="J384" s="9">
         <v>0</v>
       </c>
-      <c r="K384" s="10" t="s">
-        <v>354</v>
+      <c r="K384" s="37">
+        <v>22400</v>
       </c>
       <c r="L384" s="9">
         <v>91250</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="U384" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="385" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -32550,10 +32550,10 @@
         <v>40005312</v>
       </c>
       <c r="D385" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E385" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F385" s="10" t="s">
         <v>41</v>
@@ -32570,8 +32570,8 @@
       <c r="J385" s="9">
         <v>0</v>
       </c>
-      <c r="K385" s="10" t="s">
-        <v>354</v>
+      <c r="K385" s="37">
+        <v>22400</v>
       </c>
       <c r="L385" s="9">
         <v>91250</v>
@@ -32601,7 +32601,7 @@
         <v>0</v>
       </c>
       <c r="U385" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="386" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -32609,10 +32609,10 @@
         <v>40005401</v>
       </c>
       <c r="D386" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E386" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F386" s="10" t="s">
         <v>41</v>
@@ -32629,8 +32629,8 @@
       <c r="J386" s="9">
         <v>0</v>
       </c>
-      <c r="K386" s="10" t="s">
-        <v>354</v>
+      <c r="K386" s="37">
+        <v>22400</v>
       </c>
       <c r="L386" s="9">
         <v>63880</v>
@@ -32654,13 +32654,13 @@
         <v>10025001</v>
       </c>
       <c r="S386" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T386" s="15">
+        <v>0</v>
+      </c>
+      <c r="U386" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T386" s="15">
-        <v>0</v>
-      </c>
-      <c r="U386" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="387" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -32668,10 +32668,10 @@
         <v>40005402</v>
       </c>
       <c r="D387" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E387" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F387" s="10" t="s">
         <v>41</v>
@@ -32688,8 +32688,8 @@
       <c r="J387" s="9">
         <v>0</v>
       </c>
-      <c r="K387" s="10" t="s">
-        <v>354</v>
+      <c r="K387" s="37">
+        <v>22400</v>
       </c>
       <c r="L387" s="9">
         <v>63880</v>
@@ -32713,13 +32713,13 @@
         <v>10025002</v>
       </c>
       <c r="S387" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T387" s="15">
+        <v>0</v>
+      </c>
+      <c r="U387" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T387" s="15">
-        <v>0</v>
-      </c>
-      <c r="U387" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="388" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -32727,10 +32727,10 @@
         <v>40005403</v>
       </c>
       <c r="D388" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E388" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F388" s="10" t="s">
         <v>41</v>
@@ -32747,8 +32747,8 @@
       <c r="J388" s="9">
         <v>0</v>
       </c>
-      <c r="K388" s="10" t="s">
-        <v>354</v>
+      <c r="K388" s="37">
+        <v>22400</v>
       </c>
       <c r="L388" s="9">
         <v>63880</v>
@@ -32772,13 +32772,13 @@
         <v>10025003</v>
       </c>
       <c r="S388" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T388" s="15">
+        <v>0</v>
+      </c>
+      <c r="U388" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T388" s="15">
-        <v>0</v>
-      </c>
-      <c r="U388" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="389" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -32786,10 +32786,10 @@
         <v>40005404</v>
       </c>
       <c r="D389" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E389" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F389" s="10" t="s">
         <v>41</v>
@@ -32806,8 +32806,8 @@
       <c r="J389" s="9">
         <v>0</v>
       </c>
-      <c r="K389" s="10" t="s">
-        <v>354</v>
+      <c r="K389" s="37">
+        <v>22400</v>
       </c>
       <c r="L389" s="9">
         <v>63880</v>
@@ -32831,13 +32831,13 @@
         <v>10025004</v>
       </c>
       <c r="S389" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T389" s="15">
+        <v>0</v>
+      </c>
+      <c r="U389" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T389" s="15">
-        <v>0</v>
-      </c>
-      <c r="U389" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="390" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -32845,10 +32845,10 @@
         <v>40005405</v>
       </c>
       <c r="D390" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E390" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F390" s="10" t="s">
         <v>41</v>
@@ -32865,8 +32865,8 @@
       <c r="J390" s="9">
         <v>0</v>
       </c>
-      <c r="K390" s="10" t="s">
-        <v>354</v>
+      <c r="K390" s="37">
+        <v>22400</v>
       </c>
       <c r="L390" s="9">
         <v>63880</v>
@@ -32890,13 +32890,13 @@
         <v>10025005</v>
       </c>
       <c r="S390" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T390" s="15">
+        <v>0</v>
+      </c>
+      <c r="U390" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T390" s="15">
-        <v>0</v>
-      </c>
-      <c r="U390" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="391" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -32904,10 +32904,10 @@
         <v>40005406</v>
       </c>
       <c r="D391" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E391" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F391" s="10" t="s">
         <v>41</v>
@@ -32924,8 +32924,8 @@
       <c r="J391" s="9">
         <v>0</v>
       </c>
-      <c r="K391" s="10" t="s">
-        <v>354</v>
+      <c r="K391" s="37">
+        <v>22400</v>
       </c>
       <c r="L391" s="9">
         <v>63880</v>
@@ -32949,13 +32949,13 @@
         <v>10025006</v>
       </c>
       <c r="S391" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T391" s="15">
+        <v>0</v>
+      </c>
+      <c r="U391" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T391" s="15">
-        <v>0</v>
-      </c>
-      <c r="U391" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="392" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -32963,10 +32963,10 @@
         <v>40005407</v>
       </c>
       <c r="D392" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E392" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F392" s="10" t="s">
         <v>41</v>
@@ -32983,8 +32983,8 @@
       <c r="J392" s="9">
         <v>0</v>
       </c>
-      <c r="K392" s="10" t="s">
-        <v>354</v>
+      <c r="K392" s="37">
+        <v>22400</v>
       </c>
       <c r="L392" s="9">
         <v>63880</v>
@@ -33008,13 +33008,13 @@
         <v>10025007</v>
       </c>
       <c r="S392" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T392" s="15">
+        <v>0</v>
+      </c>
+      <c r="U392" s="14" t="s">
         <v>355</v>
-      </c>
-      <c r="T392" s="15">
-        <v>0</v>
-      </c>
-      <c r="U392" s="14" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="393" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -33022,10 +33022,10 @@
         <v>40005408</v>
       </c>
       <c r="D393" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E393" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F393" s="10" t="s">
         <v>41</v>
@@ -33042,8 +33042,8 @@
       <c r="J393" s="9">
         <v>0</v>
       </c>
-      <c r="K393" s="10" t="s">
-        <v>354</v>
+      <c r="K393" s="37">
+        <v>30000</v>
       </c>
       <c r="L393" s="9">
         <v>91250</v>
@@ -33073,7 +33073,7 @@
         <v>0</v>
       </c>
       <c r="U393" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="394" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -33081,10 +33081,10 @@
         <v>40005409</v>
       </c>
       <c r="D394" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E394" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F394" s="10" t="s">
         <v>41</v>
@@ -33101,8 +33101,8 @@
       <c r="J394" s="9">
         <v>0</v>
       </c>
-      <c r="K394" s="10" t="s">
-        <v>354</v>
+      <c r="K394" s="37">
+        <v>30000</v>
       </c>
       <c r="L394" s="9">
         <v>91250</v>
@@ -33132,7 +33132,7 @@
         <v>0</v>
       </c>
       <c r="U394" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="395" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -33140,10 +33140,10 @@
         <v>40005410</v>
       </c>
       <c r="D395" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E395" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F395" s="10" t="s">
         <v>41</v>
@@ -33160,8 +33160,8 @@
       <c r="J395" s="9">
         <v>0</v>
       </c>
-      <c r="K395" s="10" t="s">
-        <v>354</v>
+      <c r="K395" s="37">
+        <v>30000</v>
       </c>
       <c r="L395" s="9">
         <v>63880</v>
@@ -33191,7 +33191,7 @@
         <v>0</v>
       </c>
       <c r="U395" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="396" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -33200,7 +33200,7 @@
         <v>41001001</v>
       </c>
       <c r="D396" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E396" s="9">
         <v>20</v>
@@ -33236,7 +33236,7 @@
         <v>0</v>
       </c>
       <c r="P396" s="35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q396" s="10">
         <v>1</v>
@@ -33245,13 +33245,13 @@
         <v>72001011</v>
       </c>
       <c r="S396" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="T396" s="15">
+        <v>0</v>
+      </c>
+      <c r="U396" s="14" t="s">
         <v>391</v>
-      </c>
-      <c r="T396" s="15">
-        <v>0</v>
-      </c>
-      <c r="U396" s="21" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="397" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -33260,7 +33260,7 @@
         <v>41001002</v>
       </c>
       <c r="D397" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E397" s="9">
         <v>20</v>
@@ -33296,7 +33296,7 @@
         <v>0</v>
       </c>
       <c r="P397" s="35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q397" s="10">
         <v>1</v>
@@ -33305,13 +33305,13 @@
         <v>72001012</v>
       </c>
       <c r="S397" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="T397" s="15">
+        <v>0</v>
+      </c>
+      <c r="U397" s="14" t="s">
         <v>391</v>
-      </c>
-      <c r="T397" s="15">
-        <v>0</v>
-      </c>
-      <c r="U397" s="21" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="398" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -33320,7 +33320,7 @@
         <v>41001003</v>
       </c>
       <c r="D398" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E398" s="9">
         <v>20</v>
@@ -33356,7 +33356,7 @@
         <v>0</v>
       </c>
       <c r="P398" s="35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q398" s="10">
         <v>1</v>
@@ -33365,13 +33365,13 @@
         <v>72001013</v>
       </c>
       <c r="S398" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="T398" s="15">
+        <v>0</v>
+      </c>
+      <c r="U398" s="14" t="s">
         <v>391</v>
-      </c>
-      <c r="T398" s="15">
-        <v>0</v>
-      </c>
-      <c r="U398" s="21" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="399" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -33380,7 +33380,7 @@
         <v>41001101</v>
       </c>
       <c r="D399" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E399" s="9">
         <v>20</v>
@@ -33416,7 +33416,7 @@
         <v>0</v>
       </c>
       <c r="P399" s="35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q399" s="10">
         <v>1</v>
@@ -33425,13 +33425,13 @@
         <v>72001001</v>
       </c>
       <c r="S399" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T399" s="15">
         <v>0</v>
       </c>
-      <c r="U399" s="21" t="s">
-        <v>392</v>
+      <c r="U399" s="14" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="400" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -33440,7 +33440,7 @@
         <v>41001102</v>
       </c>
       <c r="D400" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E400" s="9">
         <v>20</v>
@@ -33476,7 +33476,7 @@
         <v>0</v>
       </c>
       <c r="P400" s="35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q400" s="10">
         <v>1</v>
@@ -33485,13 +33485,13 @@
         <v>72001003</v>
       </c>
       <c r="S400" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T400" s="15">
         <v>0</v>
       </c>
-      <c r="U400" s="21" t="s">
-        <v>392</v>
+      <c r="U400" s="14" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="401" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -33500,7 +33500,7 @@
         <v>41001103</v>
       </c>
       <c r="D401" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E401" s="9">
         <v>20</v>
@@ -33536,7 +33536,7 @@
         <v>0</v>
       </c>
       <c r="P401" s="35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q401" s="10">
         <v>1</v>
@@ -33545,13 +33545,13 @@
         <v>72001004</v>
       </c>
       <c r="S401" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T401" s="15">
         <v>0</v>
       </c>
-      <c r="U401" s="21" t="s">
-        <v>392</v>
+      <c r="U401" s="14" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="402" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -33560,7 +33560,7 @@
         <v>41002001</v>
       </c>
       <c r="D402" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E402" s="9">
         <v>30</v>
@@ -33596,7 +33596,7 @@
         <v>0</v>
       </c>
       <c r="P402" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q402" s="10">
         <v>1</v>
@@ -33605,13 +33605,13 @@
         <v>72002011</v>
       </c>
       <c r="S402" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T402" s="15">
         <v>0</v>
       </c>
-      <c r="U402" s="21" t="s">
-        <v>393</v>
+      <c r="U402" s="14" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="403" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -33620,7 +33620,7 @@
         <v>41002002</v>
       </c>
       <c r="D403" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E403" s="9">
         <v>30</v>
@@ -33656,7 +33656,7 @@
         <v>0</v>
       </c>
       <c r="P403" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q403" s="10">
         <v>1</v>
@@ -33665,13 +33665,13 @@
         <v>72002012</v>
       </c>
       <c r="S403" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T403" s="15">
         <v>0</v>
       </c>
-      <c r="U403" s="21" t="s">
-        <v>393</v>
+      <c r="U403" s="14" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="404" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -33680,7 +33680,7 @@
         <v>41002003</v>
       </c>
       <c r="D404" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E404" s="9">
         <v>30</v>
@@ -33716,7 +33716,7 @@
         <v>0</v>
       </c>
       <c r="P404" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q404" s="10">
         <v>1</v>
@@ -33725,13 +33725,13 @@
         <v>72002013</v>
       </c>
       <c r="S404" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T404" s="15">
         <v>0</v>
       </c>
-      <c r="U404" s="21" t="s">
-        <v>393</v>
+      <c r="U404" s="14" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="405" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -33740,7 +33740,7 @@
         <v>41002101</v>
       </c>
       <c r="D405" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E405" s="9">
         <v>30</v>
@@ -33776,7 +33776,7 @@
         <v>0</v>
       </c>
       <c r="P405" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q405" s="10">
         <v>1</v>
@@ -33785,13 +33785,13 @@
         <v>72002001</v>
       </c>
       <c r="S405" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T405" s="15">
         <v>0</v>
       </c>
-      <c r="U405" s="21" t="s">
-        <v>393</v>
+      <c r="U405" s="14" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="406" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -33800,7 +33800,7 @@
         <v>41002102</v>
       </c>
       <c r="D406" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E406" s="9">
         <v>30</v>
@@ -33836,7 +33836,7 @@
         <v>0</v>
       </c>
       <c r="P406" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q406" s="10">
         <v>1</v>
@@ -33845,13 +33845,13 @@
         <v>72002003</v>
       </c>
       <c r="S406" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T406" s="15">
         <v>0</v>
       </c>
-      <c r="U406" s="21" t="s">
-        <v>393</v>
+      <c r="U406" s="14" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="407" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -33860,7 +33860,7 @@
         <v>41002103</v>
       </c>
       <c r="D407" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E407" s="9">
         <v>30</v>
@@ -33896,7 +33896,7 @@
         <v>0</v>
       </c>
       <c r="P407" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q407" s="10">
         <v>1</v>
@@ -33905,13 +33905,13 @@
         <v>72002005</v>
       </c>
       <c r="S407" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T407" s="15">
         <v>0</v>
       </c>
-      <c r="U407" s="21" t="s">
-        <v>393</v>
+      <c r="U407" s="14" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="408" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -33920,7 +33920,7 @@
         <v>41003001</v>
       </c>
       <c r="D408" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E408" s="9">
         <v>40</v>
@@ -33956,7 +33956,7 @@
         <v>0</v>
       </c>
       <c r="P408" s="35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q408" s="10">
         <v>1</v>
@@ -33965,13 +33965,13 @@
         <v>72003011</v>
       </c>
       <c r="S408" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T408" s="15">
         <v>0</v>
       </c>
-      <c r="U408" s="21" t="s">
-        <v>394</v>
+      <c r="U408" s="14" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="409" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -33980,7 +33980,7 @@
         <v>41003002</v>
       </c>
       <c r="D409" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E409" s="9">
         <v>40</v>
@@ -34016,7 +34016,7 @@
         <v>0</v>
       </c>
       <c r="P409" s="35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q409" s="10">
         <v>1</v>
@@ -34025,13 +34025,13 @@
         <v>72003012</v>
       </c>
       <c r="S409" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T409" s="15">
         <v>0</v>
       </c>
-      <c r="U409" s="21" t="s">
-        <v>394</v>
+      <c r="U409" s="14" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="410" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -34040,7 +34040,7 @@
         <v>41003003</v>
       </c>
       <c r="D410" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E410" s="9">
         <v>40</v>
@@ -34076,7 +34076,7 @@
         <v>0</v>
       </c>
       <c r="P410" s="35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q410" s="10">
         <v>1</v>
@@ -34085,13 +34085,13 @@
         <v>72003013</v>
       </c>
       <c r="S410" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T410" s="15">
         <v>0</v>
       </c>
-      <c r="U410" s="21" t="s">
-        <v>394</v>
+      <c r="U410" s="14" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="411" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -34100,7 +34100,7 @@
         <v>41003101</v>
       </c>
       <c r="D411" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E411" s="9">
         <v>40</v>
@@ -34136,7 +34136,7 @@
         <v>0</v>
       </c>
       <c r="P411" s="35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q411" s="10">
         <v>1</v>
@@ -34145,13 +34145,13 @@
         <v>72003001</v>
       </c>
       <c r="S411" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T411" s="15">
         <v>0</v>
       </c>
-      <c r="U411" s="21" t="s">
-        <v>394</v>
+      <c r="U411" s="14" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="412" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -34160,7 +34160,7 @@
         <v>41003102</v>
       </c>
       <c r="D412" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E412" s="9">
         <v>40</v>
@@ -34196,7 +34196,7 @@
         <v>0</v>
       </c>
       <c r="P412" s="35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q412" s="10">
         <v>1</v>
@@ -34205,13 +34205,13 @@
         <v>72003003</v>
       </c>
       <c r="S412" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T412" s="15">
         <v>0</v>
       </c>
-      <c r="U412" s="21" t="s">
-        <v>394</v>
+      <c r="U412" s="14" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="413" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -34220,7 +34220,7 @@
         <v>41003103</v>
       </c>
       <c r="D413" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E413" s="9">
         <v>40</v>
@@ -34256,7 +34256,7 @@
         <v>0</v>
       </c>
       <c r="P413" s="35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Q413" s="10">
         <v>1</v>
@@ -34265,13 +34265,13 @@
         <v>72003004</v>
       </c>
       <c r="S413" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T413" s="15">
         <v>0</v>
       </c>
-      <c r="U413" s="21" t="s">
-        <v>394</v>
+      <c r="U413" s="14" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="414" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -34280,7 +34280,7 @@
         <v>41004001</v>
       </c>
       <c r="D414" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E414" s="9">
         <v>50</v>
@@ -34316,7 +34316,7 @@
         <v>0</v>
       </c>
       <c r="P414" s="35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q414" s="10">
         <v>1</v>
@@ -34325,13 +34325,13 @@
         <v>72004011</v>
       </c>
       <c r="S414" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T414" s="15">
         <v>0</v>
       </c>
-      <c r="U414" s="21" t="s">
-        <v>395</v>
+      <c r="U414" s="14" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="415" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -34340,7 +34340,7 @@
         <v>41004002</v>
       </c>
       <c r="D415" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E415" s="9">
         <v>50</v>
@@ -34376,7 +34376,7 @@
         <v>0</v>
       </c>
       <c r="P415" s="35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q415" s="10">
         <v>1</v>
@@ -34385,13 +34385,13 @@
         <v>72004012</v>
       </c>
       <c r="S415" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T415" s="15">
         <v>0</v>
       </c>
-      <c r="U415" s="21" t="s">
-        <v>395</v>
+      <c r="U415" s="14" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="416" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -34400,7 +34400,7 @@
         <v>41004003</v>
       </c>
       <c r="D416" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E416" s="9">
         <v>50</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="P416" s="35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q416" s="10">
         <v>1</v>
@@ -34445,13 +34445,13 @@
         <v>72004013</v>
       </c>
       <c r="S416" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T416" s="15">
         <v>0</v>
       </c>
-      <c r="U416" s="21" t="s">
-        <v>395</v>
+      <c r="U416" s="14" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="417" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -34460,7 +34460,7 @@
         <v>41004101</v>
       </c>
       <c r="D417" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E417" s="9">
         <v>50</v>
@@ -34496,7 +34496,7 @@
         <v>0</v>
       </c>
       <c r="P417" s="35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q417" s="10">
         <v>1</v>
@@ -34505,13 +34505,13 @@
         <v>72004001</v>
       </c>
       <c r="S417" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T417" s="15">
         <v>0</v>
       </c>
-      <c r="U417" s="21" t="s">
-        <v>395</v>
+      <c r="U417" s="14" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="418" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -34520,7 +34520,7 @@
         <v>41004102</v>
       </c>
       <c r="D418" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E418" s="9">
         <v>50</v>
@@ -34556,7 +34556,7 @@
         <v>0</v>
       </c>
       <c r="P418" s="35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q418" s="10">
         <v>1</v>
@@ -34565,13 +34565,13 @@
         <v>72004002</v>
       </c>
       <c r="S418" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T418" s="15">
         <v>0</v>
       </c>
-      <c r="U418" s="21" t="s">
-        <v>395</v>
+      <c r="U418" s="14" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="419" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -34580,7 +34580,7 @@
         <v>41004103</v>
       </c>
       <c r="D419" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E419" s="9">
         <v>50</v>
@@ -34616,22 +34616,22 @@
         <v>0</v>
       </c>
       <c r="P419" s="35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Q419" s="10">
         <v>1</v>
       </c>
       <c r="R419" s="21">
-        <v>72004004</v>
+        <v>72004003</v>
       </c>
       <c r="S419" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="T419" s="15">
         <v>0</v>
       </c>
-      <c r="U419" s="21" t="s">
-        <v>395</v>
+      <c r="U419" s="14" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="420" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -34639,7 +34639,7 @@
         <v>50000001</v>
       </c>
       <c r="D420" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E420" s="9">
         <v>1</v>
@@ -34690,7 +34690,7 @@
         <v>0</v>
       </c>
       <c r="U420" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="421" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -34698,7 +34698,7 @@
         <v>50000002</v>
       </c>
       <c r="D421" s="27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E421" s="28">
         <v>18</v>
@@ -34707,7 +34707,7 @@
         <v>41</v>
       </c>
       <c r="G421" s="30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H421" s="10">
         <v>0</v>
@@ -34749,7 +34749,7 @@
         <v>0</v>
       </c>
       <c r="U421" s="34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="422" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1F7B44-1450-4DA1-AD6B-41475688F1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F5CAEF-04BC-48FC-8A3B-7CB3A83C955F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30675" yWindow="1110" windowWidth="23730" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="414">
   <si>
     <t>Id</t>
   </si>
@@ -1842,6 +1842,58 @@
   </si>
   <si>
     <t>组队副本悬赏</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑乘:第一步</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有拿到荒漠奖章才可以证明你具有可以驾驭骑乘的能力,去证明自己吧。</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>在前方有许多的魔物拦住了我们的去路,我们需要给他们一些下马威。</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>我需要一些荒漠晶体来驱动你体内的骑乘能力。</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败挑战级以上的领主怪物,证明你的能力。</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你已经完成骑乘的所有挑战,当你的等级提升至28级,你便可以拥有这只属于你的坐骑了！</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑乘:第二步</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑乘:第三步</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑乘:第四步</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑乘:第五步</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -7563,7 +7615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7667,9 +7719,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9809,11 +9858,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U450"/>
+  <dimension ref="A1:U449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R419" sqref="R419"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C422" sqref="C422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19476,7 +19525,7 @@
       <c r="J166" s="9">
         <v>0</v>
       </c>
-      <c r="K166" s="37">
+      <c r="K166" s="9">
         <v>7500</v>
       </c>
       <c r="L166" s="9">
@@ -19536,7 +19585,7 @@
       <c r="J167" s="9">
         <v>0</v>
       </c>
-      <c r="K167" s="37">
+      <c r="K167" s="9">
         <v>7500</v>
       </c>
       <c r="L167" s="9">
@@ -19596,7 +19645,7 @@
       <c r="J168" s="9">
         <v>0</v>
       </c>
-      <c r="K168" s="37">
+      <c r="K168" s="9">
         <v>7500</v>
       </c>
       <c r="L168" s="9">
@@ -19656,7 +19705,7 @@
       <c r="J169" s="9">
         <v>0</v>
       </c>
-      <c r="K169" s="37">
+      <c r="K169" s="9">
         <v>7500</v>
       </c>
       <c r="L169" s="9">
@@ -19716,7 +19765,7 @@
       <c r="J170" s="9">
         <v>0</v>
       </c>
-      <c r="K170" s="37">
+      <c r="K170" s="9">
         <v>7500</v>
       </c>
       <c r="L170" s="9">
@@ -19776,7 +19825,7 @@
       <c r="J171" s="9">
         <v>0</v>
       </c>
-      <c r="K171" s="37">
+      <c r="K171" s="9">
         <v>7500</v>
       </c>
       <c r="L171" s="9">
@@ -19836,7 +19885,7 @@
       <c r="J172" s="9">
         <v>0</v>
       </c>
-      <c r="K172" s="37">
+      <c r="K172" s="9">
         <v>7500</v>
       </c>
       <c r="L172" s="9">
@@ -19896,7 +19945,7 @@
       <c r="J173" s="9">
         <v>0</v>
       </c>
-      <c r="K173" s="37">
+      <c r="K173" s="9">
         <v>7500</v>
       </c>
       <c r="L173" s="9">
@@ -19956,7 +20005,7 @@
       <c r="J174" s="9">
         <v>0</v>
       </c>
-      <c r="K174" s="37">
+      <c r="K174" s="9">
         <v>7500</v>
       </c>
       <c r="L174" s="9">
@@ -20016,7 +20065,7 @@
       <c r="J175" s="9">
         <v>0</v>
       </c>
-      <c r="K175" s="37">
+      <c r="K175" s="9">
         <v>7500</v>
       </c>
       <c r="L175" s="9">
@@ -20075,7 +20124,7 @@
       <c r="J176" s="9">
         <v>0</v>
       </c>
-      <c r="K176" s="37">
+      <c r="K176" s="9">
         <v>7500</v>
       </c>
       <c r="L176" s="9">
@@ -20134,7 +20183,7 @@
       <c r="J177" s="9">
         <v>0</v>
       </c>
-      <c r="K177" s="37">
+      <c r="K177" s="9">
         <v>10000</v>
       </c>
       <c r="L177" s="9">
@@ -20195,7 +20244,7 @@
       <c r="J178" s="9">
         <v>0</v>
       </c>
-      <c r="K178" s="37">
+      <c r="K178" s="9">
         <v>10000</v>
       </c>
       <c r="L178" s="9">
@@ -20256,7 +20305,7 @@
       <c r="J179" s="9">
         <v>0</v>
       </c>
-      <c r="K179" s="37">
+      <c r="K179" s="9">
         <v>10000</v>
       </c>
       <c r="L179" s="9">
@@ -20317,7 +20366,7 @@
       <c r="J180" s="9">
         <v>0</v>
       </c>
-      <c r="K180" s="37">
+      <c r="K180" s="9">
         <v>10000</v>
       </c>
       <c r="L180" s="9">
@@ -20378,7 +20427,7 @@
       <c r="J181" s="9">
         <v>0</v>
       </c>
-      <c r="K181" s="37">
+      <c r="K181" s="9">
         <v>10000</v>
       </c>
       <c r="L181" s="9">
@@ -20439,7 +20488,7 @@
       <c r="J182" s="9">
         <v>0</v>
       </c>
-      <c r="K182" s="37">
+      <c r="K182" s="9">
         <v>10000</v>
       </c>
       <c r="L182" s="9">
@@ -20500,7 +20549,7 @@
       <c r="J183" s="9">
         <v>0</v>
       </c>
-      <c r="K183" s="37">
+      <c r="K183" s="9">
         <v>10000</v>
       </c>
       <c r="L183" s="9">
@@ -20561,7 +20610,7 @@
       <c r="J184" s="9">
         <v>0</v>
       </c>
-      <c r="K184" s="37">
+      <c r="K184" s="9">
         <v>10000</v>
       </c>
       <c r="L184" s="9">
@@ -20622,7 +20671,7 @@
       <c r="J185" s="9">
         <v>0</v>
       </c>
-      <c r="K185" s="37">
+      <c r="K185" s="9">
         <v>10000</v>
       </c>
       <c r="L185" s="9">
@@ -20683,7 +20732,7 @@
       <c r="J186" s="9">
         <v>0</v>
       </c>
-      <c r="K186" s="37">
+      <c r="K186" s="9">
         <v>10000</v>
       </c>
       <c r="L186" s="9">
@@ -20744,7 +20793,7 @@
       <c r="J187" s="9">
         <v>0</v>
       </c>
-      <c r="K187" s="37">
+      <c r="K187" s="9">
         <v>10000</v>
       </c>
       <c r="L187" s="9">
@@ -20804,7 +20853,7 @@
       <c r="J188" s="9">
         <v>0</v>
       </c>
-      <c r="K188" s="37">
+      <c r="K188" s="9">
         <v>10000</v>
       </c>
       <c r="L188" s="9">
@@ -20864,7 +20913,7 @@
       <c r="J189" s="9">
         <v>0</v>
       </c>
-      <c r="K189" s="37">
+      <c r="K189" s="9">
         <v>12500</v>
       </c>
       <c r="L189" s="9">
@@ -20925,7 +20974,7 @@
       <c r="J190" s="9">
         <v>0</v>
       </c>
-      <c r="K190" s="37">
+      <c r="K190" s="9">
         <v>12500</v>
       </c>
       <c r="L190" s="9">
@@ -20986,7 +21035,7 @@
       <c r="J191" s="9">
         <v>0</v>
       </c>
-      <c r="K191" s="37">
+      <c r="K191" s="9">
         <v>12500</v>
       </c>
       <c r="L191" s="9">
@@ -21047,7 +21096,7 @@
       <c r="J192" s="9">
         <v>0</v>
       </c>
-      <c r="K192" s="37">
+      <c r="K192" s="9">
         <v>12500</v>
       </c>
       <c r="L192" s="9">
@@ -21108,7 +21157,7 @@
       <c r="J193" s="9">
         <v>0</v>
       </c>
-      <c r="K193" s="37">
+      <c r="K193" s="9">
         <v>12500</v>
       </c>
       <c r="L193" s="9">
@@ -21169,7 +21218,7 @@
       <c r="J194" s="9">
         <v>0</v>
       </c>
-      <c r="K194" s="37">
+      <c r="K194" s="9">
         <v>12500</v>
       </c>
       <c r="L194" s="9">
@@ -21230,7 +21279,7 @@
       <c r="J195" s="9">
         <v>0</v>
       </c>
-      <c r="K195" s="37">
+      <c r="K195" s="9">
         <v>12500</v>
       </c>
       <c r="L195" s="9">
@@ -21291,7 +21340,7 @@
       <c r="J196" s="9">
         <v>0</v>
       </c>
-      <c r="K196" s="37">
+      <c r="K196" s="9">
         <v>12500</v>
       </c>
       <c r="L196" s="9">
@@ -21352,7 +21401,7 @@
       <c r="J197" s="9">
         <v>0</v>
       </c>
-      <c r="K197" s="37">
+      <c r="K197" s="9">
         <v>12500</v>
       </c>
       <c r="L197" s="9">
@@ -21413,7 +21462,7 @@
       <c r="J198" s="9">
         <v>0</v>
       </c>
-      <c r="K198" s="37">
+      <c r="K198" s="9">
         <v>12500</v>
       </c>
       <c r="L198" s="9">
@@ -21474,7 +21523,7 @@
       <c r="J199" s="9">
         <v>0</v>
       </c>
-      <c r="K199" s="37">
+      <c r="K199" s="9">
         <v>12500</v>
       </c>
       <c r="L199" s="9">
@@ -21534,7 +21583,7 @@
       <c r="J200" s="9">
         <v>0</v>
       </c>
-      <c r="K200" s="37">
+      <c r="K200" s="9">
         <v>12500</v>
       </c>
       <c r="L200" s="9">
@@ -21594,7 +21643,7 @@
       <c r="J201" s="9">
         <v>0</v>
       </c>
-      <c r="K201" s="37">
+      <c r="K201" s="9">
         <v>12500</v>
       </c>
       <c r="L201" s="9">
@@ -21653,7 +21702,7 @@
       <c r="J202" s="9">
         <v>0</v>
       </c>
-      <c r="K202" s="37">
+      <c r="K202" s="9">
         <v>9000</v>
       </c>
       <c r="L202" s="9">
@@ -21712,7 +21761,7 @@
       <c r="J203" s="9">
         <v>0</v>
       </c>
-      <c r="K203" s="37">
+      <c r="K203" s="9">
         <v>9000</v>
       </c>
       <c r="L203" s="9">
@@ -21771,7 +21820,7 @@
       <c r="J204" s="9">
         <v>0</v>
       </c>
-      <c r="K204" s="37">
+      <c r="K204" s="9">
         <v>9000</v>
       </c>
       <c r="L204" s="9">
@@ -21830,7 +21879,7 @@
       <c r="J205" s="9">
         <v>0</v>
       </c>
-      <c r="K205" s="37">
+      <c r="K205" s="9">
         <v>9000</v>
       </c>
       <c r="L205" s="9">
@@ -21889,7 +21938,7 @@
       <c r="J206" s="9">
         <v>0</v>
       </c>
-      <c r="K206" s="37">
+      <c r="K206" s="9">
         <v>9000</v>
       </c>
       <c r="L206" s="9">
@@ -21948,7 +21997,7 @@
       <c r="J207" s="9">
         <v>0</v>
       </c>
-      <c r="K207" s="37">
+      <c r="K207" s="9">
         <v>9000</v>
       </c>
       <c r="L207" s="9">
@@ -22007,7 +22056,7 @@
       <c r="J208" s="9">
         <v>0</v>
       </c>
-      <c r="K208" s="37">
+      <c r="K208" s="9">
         <v>9000</v>
       </c>
       <c r="L208" s="9">
@@ -22066,7 +22115,7 @@
       <c r="J209" s="9">
         <v>0</v>
       </c>
-      <c r="K209" s="37">
+      <c r="K209" s="9">
         <v>9000</v>
       </c>
       <c r="L209" s="9">
@@ -22125,7 +22174,7 @@
       <c r="J210" s="9">
         <v>0</v>
       </c>
-      <c r="K210" s="37">
+      <c r="K210" s="9">
         <v>9000</v>
       </c>
       <c r="L210" s="9">
@@ -22184,7 +22233,7 @@
       <c r="J211" s="9">
         <v>0</v>
       </c>
-      <c r="K211" s="37">
+      <c r="K211" s="9">
         <v>9000</v>
       </c>
       <c r="L211" s="9">
@@ -22244,7 +22293,7 @@
       <c r="J212" s="9">
         <v>0</v>
       </c>
-      <c r="K212" s="37">
+      <c r="K212" s="9">
         <v>9000</v>
       </c>
       <c r="L212" s="9">
@@ -22304,7 +22353,7 @@
       <c r="J213" s="9">
         <v>0</v>
       </c>
-      <c r="K213" s="37">
+      <c r="K213" s="9">
         <v>12000</v>
       </c>
       <c r="L213" s="9">
@@ -22364,7 +22413,7 @@
       <c r="J214" s="9">
         <v>0</v>
       </c>
-      <c r="K214" s="37">
+      <c r="K214" s="9">
         <v>12000</v>
       </c>
       <c r="L214" s="9">
@@ -22424,7 +22473,7 @@
       <c r="J215" s="9">
         <v>0</v>
       </c>
-      <c r="K215" s="37">
+      <c r="K215" s="9">
         <v>12000</v>
       </c>
       <c r="L215" s="9">
@@ -22484,7 +22533,7 @@
       <c r="J216" s="9">
         <v>0</v>
       </c>
-      <c r="K216" s="37">
+      <c r="K216" s="9">
         <v>12000</v>
       </c>
       <c r="L216" s="9">
@@ -22544,7 +22593,7 @@
       <c r="J217" s="9">
         <v>0</v>
       </c>
-      <c r="K217" s="37">
+      <c r="K217" s="9">
         <v>12000</v>
       </c>
       <c r="L217" s="9">
@@ -22604,7 +22653,7 @@
       <c r="J218" s="9">
         <v>0</v>
       </c>
-      <c r="K218" s="37">
+      <c r="K218" s="9">
         <v>12000</v>
       </c>
       <c r="L218" s="9">
@@ -22664,7 +22713,7 @@
       <c r="J219" s="9">
         <v>0</v>
       </c>
-      <c r="K219" s="37">
+      <c r="K219" s="9">
         <v>12000</v>
       </c>
       <c r="L219" s="9">
@@ -22724,7 +22773,7 @@
       <c r="J220" s="9">
         <v>0</v>
       </c>
-      <c r="K220" s="37">
+      <c r="K220" s="9">
         <v>12000</v>
       </c>
       <c r="L220" s="9">
@@ -22784,7 +22833,7 @@
       <c r="J221" s="9">
         <v>0</v>
       </c>
-      <c r="K221" s="37">
+      <c r="K221" s="9">
         <v>12000</v>
       </c>
       <c r="L221" s="9">
@@ -22843,7 +22892,7 @@
       <c r="J222" s="9">
         <v>0</v>
       </c>
-      <c r="K222" s="37">
+      <c r="K222" s="9">
         <v>12000</v>
       </c>
       <c r="L222" s="9">
@@ -22902,7 +22951,7 @@
       <c r="J223" s="9">
         <v>0</v>
       </c>
-      <c r="K223" s="37">
+      <c r="K223" s="9">
         <v>12000</v>
       </c>
       <c r="L223" s="9">
@@ -22962,7 +23011,7 @@
       <c r="J224" s="9">
         <v>0</v>
       </c>
-      <c r="K224" s="37">
+      <c r="K224" s="9">
         <v>12000</v>
       </c>
       <c r="L224" s="9">
@@ -23022,7 +23071,7 @@
       <c r="J225" s="9">
         <v>0</v>
       </c>
-      <c r="K225" s="37">
+      <c r="K225" s="9">
         <v>15000</v>
       </c>
       <c r="L225" s="9">
@@ -23082,7 +23131,7 @@
       <c r="J226" s="9">
         <v>0</v>
       </c>
-      <c r="K226" s="37">
+      <c r="K226" s="9">
         <v>15000</v>
       </c>
       <c r="L226" s="9">
@@ -23142,7 +23191,7 @@
       <c r="J227" s="9">
         <v>0</v>
       </c>
-      <c r="K227" s="37">
+      <c r="K227" s="9">
         <v>15000</v>
       </c>
       <c r="L227" s="9">
@@ -23202,7 +23251,7 @@
       <c r="J228" s="9">
         <v>0</v>
       </c>
-      <c r="K228" s="37">
+      <c r="K228" s="9">
         <v>15000</v>
       </c>
       <c r="L228" s="9">
@@ -23262,7 +23311,7 @@
       <c r="J229" s="9">
         <v>0</v>
       </c>
-      <c r="K229" s="37">
+      <c r="K229" s="9">
         <v>15000</v>
       </c>
       <c r="L229" s="9">
@@ -23322,7 +23371,7 @@
       <c r="J230" s="9">
         <v>0</v>
       </c>
-      <c r="K230" s="37">
+      <c r="K230" s="9">
         <v>15000</v>
       </c>
       <c r="L230" s="9">
@@ -23382,7 +23431,7 @@
       <c r="J231" s="9">
         <v>0</v>
       </c>
-      <c r="K231" s="37">
+      <c r="K231" s="9">
         <v>15000</v>
       </c>
       <c r="L231" s="9">
@@ -23442,7 +23491,7 @@
       <c r="J232" s="9">
         <v>0</v>
       </c>
-      <c r="K232" s="37">
+      <c r="K232" s="9">
         <v>15000</v>
       </c>
       <c r="L232" s="9">
@@ -23502,7 +23551,7 @@
       <c r="J233" s="9">
         <v>0</v>
       </c>
-      <c r="K233" s="37">
+      <c r="K233" s="9">
         <v>15000</v>
       </c>
       <c r="L233" s="9">
@@ -23561,7 +23610,7 @@
       <c r="J234" s="9">
         <v>0</v>
       </c>
-      <c r="K234" s="37">
+      <c r="K234" s="9">
         <v>15000</v>
       </c>
       <c r="L234" s="9">
@@ -23620,7 +23669,7 @@
       <c r="J235" s="9">
         <v>0</v>
       </c>
-      <c r="K235" s="37">
+      <c r="K235" s="9">
         <v>15000</v>
       </c>
       <c r="L235" s="9">
@@ -23680,7 +23729,7 @@
       <c r="J236" s="9">
         <v>0</v>
       </c>
-      <c r="K236" s="37">
+      <c r="K236" s="9">
         <v>15000</v>
       </c>
       <c r="L236" s="9">
@@ -23740,7 +23789,7 @@
       <c r="J237" s="9">
         <v>0</v>
       </c>
-      <c r="K237" s="37">
+      <c r="K237" s="9">
         <v>15000</v>
       </c>
       <c r="L237" s="9">
@@ -23800,7 +23849,7 @@
       <c r="J238" s="9">
         <v>0</v>
       </c>
-      <c r="K238" s="37">
+      <c r="K238" s="9">
         <v>10800</v>
       </c>
       <c r="L238" s="9">
@@ -23860,7 +23909,7 @@
       <c r="J239" s="9">
         <v>0</v>
       </c>
-      <c r="K239" s="37">
+      <c r="K239" s="9">
         <v>10800</v>
       </c>
       <c r="L239" s="9">
@@ -23920,7 +23969,7 @@
       <c r="J240" s="9">
         <v>0</v>
       </c>
-      <c r="K240" s="37">
+      <c r="K240" s="9">
         <v>10800</v>
       </c>
       <c r="L240" s="9">
@@ -23980,7 +24029,7 @@
       <c r="J241" s="9">
         <v>0</v>
       </c>
-      <c r="K241" s="37">
+      <c r="K241" s="9">
         <v>10800</v>
       </c>
       <c r="L241" s="9">
@@ -24040,7 +24089,7 @@
       <c r="J242" s="9">
         <v>0</v>
       </c>
-      <c r="K242" s="37">
+      <c r="K242" s="9">
         <v>10800</v>
       </c>
       <c r="L242" s="9">
@@ -24100,7 +24149,7 @@
       <c r="J243" s="9">
         <v>0</v>
       </c>
-      <c r="K243" s="37">
+      <c r="K243" s="9">
         <v>10800</v>
       </c>
       <c r="L243" s="9">
@@ -24160,7 +24209,7 @@
       <c r="J244" s="9">
         <v>0</v>
       </c>
-      <c r="K244" s="37">
+      <c r="K244" s="9">
         <v>10800</v>
       </c>
       <c r="L244" s="9">
@@ -24220,7 +24269,7 @@
       <c r="J245" s="9">
         <v>0</v>
       </c>
-      <c r="K245" s="37">
+      <c r="K245" s="9">
         <v>10800</v>
       </c>
       <c r="L245" s="9">
@@ -24279,7 +24328,7 @@
       <c r="J246" s="9">
         <v>0</v>
       </c>
-      <c r="K246" s="37">
+      <c r="K246" s="9">
         <v>10800</v>
       </c>
       <c r="L246" s="9">
@@ -24338,7 +24387,7 @@
       <c r="J247" s="9">
         <v>0</v>
       </c>
-      <c r="K247" s="37">
+      <c r="K247" s="9">
         <v>10800</v>
       </c>
       <c r="L247" s="9">
@@ -24397,7 +24446,7 @@
       <c r="J248" s="9">
         <v>0</v>
       </c>
-      <c r="K248" s="37">
+      <c r="K248" s="9">
         <v>10800</v>
       </c>
       <c r="L248" s="9">
@@ -24456,7 +24505,7 @@
       <c r="J249" s="9">
         <v>0</v>
       </c>
-      <c r="K249" s="37">
+      <c r="K249" s="9">
         <v>14400</v>
       </c>
       <c r="L249" s="9">
@@ -24515,7 +24564,7 @@
       <c r="J250" s="9">
         <v>0</v>
       </c>
-      <c r="K250" s="37">
+      <c r="K250" s="9">
         <v>14400</v>
       </c>
       <c r="L250" s="9">
@@ -24574,7 +24623,7 @@
       <c r="J251" s="9">
         <v>0</v>
       </c>
-      <c r="K251" s="37">
+      <c r="K251" s="9">
         <v>14400</v>
       </c>
       <c r="L251" s="9">
@@ -24633,7 +24682,7 @@
       <c r="J252" s="9">
         <v>0</v>
       </c>
-      <c r="K252" s="37">
+      <c r="K252" s="9">
         <v>14400</v>
       </c>
       <c r="L252" s="9">
@@ -24692,7 +24741,7 @@
       <c r="J253" s="9">
         <v>0</v>
       </c>
-      <c r="K253" s="37">
+      <c r="K253" s="9">
         <v>14400</v>
       </c>
       <c r="L253" s="9">
@@ -24751,7 +24800,7 @@
       <c r="J254" s="9">
         <v>0</v>
       </c>
-      <c r="K254" s="37">
+      <c r="K254" s="9">
         <v>14400</v>
       </c>
       <c r="L254" s="9">
@@ -24810,7 +24859,7 @@
       <c r="J255" s="9">
         <v>0</v>
       </c>
-      <c r="K255" s="37">
+      <c r="K255" s="9">
         <v>14400</v>
       </c>
       <c r="L255" s="9">
@@ -24869,7 +24918,7 @@
       <c r="J256" s="9">
         <v>0</v>
       </c>
-      <c r="K256" s="37">
+      <c r="K256" s="9">
         <v>14400</v>
       </c>
       <c r="L256" s="9">
@@ -24928,7 +24977,7 @@
       <c r="J257" s="9">
         <v>0</v>
       </c>
-      <c r="K257" s="37">
+      <c r="K257" s="9">
         <v>14400</v>
       </c>
       <c r="L257" s="9">
@@ -24988,7 +25037,7 @@
       <c r="J258" s="9">
         <v>0</v>
       </c>
-      <c r="K258" s="37">
+      <c r="K258" s="9">
         <v>14400</v>
       </c>
       <c r="L258" s="9">
@@ -25048,7 +25097,7 @@
       <c r="J259" s="9">
         <v>0</v>
       </c>
-      <c r="K259" s="37">
+      <c r="K259" s="9">
         <v>14400</v>
       </c>
       <c r="L259" s="9">
@@ -25108,7 +25157,7 @@
       <c r="J260" s="9">
         <v>0</v>
       </c>
-      <c r="K260" s="37">
+      <c r="K260" s="9">
         <v>14400</v>
       </c>
       <c r="L260" s="9">
@@ -25168,7 +25217,7 @@
       <c r="J261" s="9">
         <v>0</v>
       </c>
-      <c r="K261" s="37">
+      <c r="K261" s="9">
         <v>18000</v>
       </c>
       <c r="L261" s="9">
@@ -25228,7 +25277,7 @@
       <c r="J262" s="9">
         <v>0</v>
       </c>
-      <c r="K262" s="37">
+      <c r="K262" s="9">
         <v>18000</v>
       </c>
       <c r="L262" s="9">
@@ -25288,7 +25337,7 @@
       <c r="J263" s="9">
         <v>0</v>
       </c>
-      <c r="K263" s="37">
+      <c r="K263" s="9">
         <v>18000</v>
       </c>
       <c r="L263" s="9">
@@ -25348,7 +25397,7 @@
       <c r="J264" s="9">
         <v>0</v>
       </c>
-      <c r="K264" s="37">
+      <c r="K264" s="9">
         <v>18000</v>
       </c>
       <c r="L264" s="9">
@@ -25408,7 +25457,7 @@
       <c r="J265" s="9">
         <v>0</v>
       </c>
-      <c r="K265" s="37">
+      <c r="K265" s="9">
         <v>18000</v>
       </c>
       <c r="L265" s="9">
@@ -25468,7 +25517,7 @@
       <c r="J266" s="9">
         <v>0</v>
       </c>
-      <c r="K266" s="37">
+      <c r="K266" s="9">
         <v>18000</v>
       </c>
       <c r="L266" s="9">
@@ -25528,7 +25577,7 @@
       <c r="J267" s="9">
         <v>0</v>
       </c>
-      <c r="K267" s="37">
+      <c r="K267" s="9">
         <v>18000</v>
       </c>
       <c r="L267" s="9">
@@ -25587,7 +25636,7 @@
       <c r="J268" s="9">
         <v>0</v>
       </c>
-      <c r="K268" s="37">
+      <c r="K268" s="9">
         <v>18000</v>
       </c>
       <c r="L268" s="9">
@@ -25646,7 +25695,7 @@
       <c r="J269" s="9">
         <v>0</v>
       </c>
-      <c r="K269" s="37">
+      <c r="K269" s="9">
         <v>18000</v>
       </c>
       <c r="L269" s="9">
@@ -25706,7 +25755,7 @@
       <c r="J270" s="9">
         <v>0</v>
       </c>
-      <c r="K270" s="37">
+      <c r="K270" s="9">
         <v>18000</v>
       </c>
       <c r="L270" s="9">
@@ -25766,7 +25815,7 @@
       <c r="J271" s="9">
         <v>0</v>
       </c>
-      <c r="K271" s="37">
+      <c r="K271" s="9">
         <v>18000</v>
       </c>
       <c r="L271" s="9">
@@ -25826,7 +25875,7 @@
       <c r="J272" s="9">
         <v>0</v>
       </c>
-      <c r="K272" s="37">
+      <c r="K272" s="9">
         <v>18000</v>
       </c>
       <c r="L272" s="9">
@@ -25886,7 +25935,7 @@
       <c r="J273" s="9">
         <v>0</v>
       </c>
-      <c r="K273" s="37">
+      <c r="K273" s="9">
         <v>18000</v>
       </c>
       <c r="L273" s="9">
@@ -25946,7 +25995,7 @@
       <c r="J274" s="9">
         <v>0</v>
       </c>
-      <c r="K274" s="37">
+      <c r="K274" s="9">
         <v>13000</v>
       </c>
       <c r="L274" s="9">
@@ -26006,7 +26055,7 @@
       <c r="J275" s="9">
         <v>0</v>
       </c>
-      <c r="K275" s="37">
+      <c r="K275" s="9">
         <v>13000</v>
       </c>
       <c r="L275" s="9">
@@ -26066,7 +26115,7 @@
       <c r="J276" s="9">
         <v>0</v>
       </c>
-      <c r="K276" s="37">
+      <c r="K276" s="9">
         <v>13000</v>
       </c>
       <c r="L276" s="9">
@@ -26126,7 +26175,7 @@
       <c r="J277" s="9">
         <v>0</v>
       </c>
-      <c r="K277" s="37">
+      <c r="K277" s="9">
         <v>13000</v>
       </c>
       <c r="L277" s="9">
@@ -26186,7 +26235,7 @@
       <c r="J278" s="9">
         <v>0</v>
       </c>
-      <c r="K278" s="37">
+      <c r="K278" s="9">
         <v>13000</v>
       </c>
       <c r="L278" s="9">
@@ -26246,7 +26295,7 @@
       <c r="J279" s="9">
         <v>0</v>
       </c>
-      <c r="K279" s="37">
+      <c r="K279" s="9">
         <v>13000</v>
       </c>
       <c r="L279" s="9">
@@ -26305,7 +26354,7 @@
       <c r="J280" s="9">
         <v>0</v>
       </c>
-      <c r="K280" s="37">
+      <c r="K280" s="9">
         <v>13000</v>
       </c>
       <c r="L280" s="9">
@@ -26364,7 +26413,7 @@
       <c r="J281" s="9">
         <v>0</v>
       </c>
-      <c r="K281" s="37">
+      <c r="K281" s="9">
         <v>13000</v>
       </c>
       <c r="L281" s="9">
@@ -26424,7 +26473,7 @@
       <c r="J282" s="9">
         <v>0</v>
       </c>
-      <c r="K282" s="37">
+      <c r="K282" s="9">
         <v>13000</v>
       </c>
       <c r="L282" s="9">
@@ -26484,7 +26533,7 @@
       <c r="J283" s="9">
         <v>0</v>
       </c>
-      <c r="K283" s="37">
+      <c r="K283" s="9">
         <v>13000</v>
       </c>
       <c r="L283" s="9">
@@ -26544,7 +26593,7 @@
       <c r="J284" s="9">
         <v>0</v>
       </c>
-      <c r="K284" s="37">
+      <c r="K284" s="9">
         <v>13000</v>
       </c>
       <c r="L284" s="9">
@@ -26604,7 +26653,7 @@
       <c r="J285" s="9">
         <v>0</v>
       </c>
-      <c r="K285" s="37">
+      <c r="K285" s="9">
         <v>17300</v>
       </c>
       <c r="L285" s="9">
@@ -26664,7 +26713,7 @@
       <c r="J286" s="9">
         <v>0</v>
       </c>
-      <c r="K286" s="37">
+      <c r="K286" s="9">
         <v>17300</v>
       </c>
       <c r="L286" s="9">
@@ -26724,7 +26773,7 @@
       <c r="J287" s="9">
         <v>0</v>
       </c>
-      <c r="K287" s="37">
+      <c r="K287" s="9">
         <v>17300</v>
       </c>
       <c r="L287" s="9">
@@ -26784,7 +26833,7 @@
       <c r="J288" s="9">
         <v>0</v>
       </c>
-      <c r="K288" s="37">
+      <c r="K288" s="9">
         <v>17300</v>
       </c>
       <c r="L288" s="9">
@@ -26844,7 +26893,7 @@
       <c r="J289" s="9">
         <v>0</v>
       </c>
-      <c r="K289" s="37">
+      <c r="K289" s="9">
         <v>17300</v>
       </c>
       <c r="L289" s="9">
@@ -26904,7 +26953,7 @@
       <c r="J290" s="9">
         <v>0</v>
       </c>
-      <c r="K290" s="37">
+      <c r="K290" s="9">
         <v>17300</v>
       </c>
       <c r="L290" s="9">
@@ -26964,7 +27013,7 @@
       <c r="J291" s="9">
         <v>0</v>
       </c>
-      <c r="K291" s="37">
+      <c r="K291" s="9">
         <v>17300</v>
       </c>
       <c r="L291" s="9">
@@ -27023,7 +27072,7 @@
       <c r="J292" s="9">
         <v>0</v>
       </c>
-      <c r="K292" s="37">
+      <c r="K292" s="9">
         <v>17300</v>
       </c>
       <c r="L292" s="9">
@@ -27082,7 +27131,7 @@
       <c r="J293" s="9">
         <v>0</v>
       </c>
-      <c r="K293" s="37">
+      <c r="K293" s="9">
         <v>17300</v>
       </c>
       <c r="L293" s="9">
@@ -27141,7 +27190,7 @@
       <c r="J294" s="9">
         <v>0</v>
       </c>
-      <c r="K294" s="37">
+      <c r="K294" s="9">
         <v>17300</v>
       </c>
       <c r="L294" s="9">
@@ -27200,7 +27249,7 @@
       <c r="J295" s="9">
         <v>0</v>
       </c>
-      <c r="K295" s="37">
+      <c r="K295" s="9">
         <v>17300</v>
       </c>
       <c r="L295" s="9">
@@ -27259,7 +27308,7 @@
       <c r="J296" s="9">
         <v>0</v>
       </c>
-      <c r="K296" s="37">
+      <c r="K296" s="9">
         <v>17300</v>
       </c>
       <c r="L296" s="9">
@@ -27318,7 +27367,7 @@
       <c r="J297" s="9">
         <v>0</v>
       </c>
-      <c r="K297" s="37">
+      <c r="K297" s="9">
         <v>21600</v>
       </c>
       <c r="L297" s="9">
@@ -27377,7 +27426,7 @@
       <c r="J298" s="9">
         <v>0</v>
       </c>
-      <c r="K298" s="37">
+      <c r="K298" s="9">
         <v>21600</v>
       </c>
       <c r="L298" s="9">
@@ -27436,7 +27485,7 @@
       <c r="J299" s="9">
         <v>0</v>
       </c>
-      <c r="K299" s="37">
+      <c r="K299" s="9">
         <v>21600</v>
       </c>
       <c r="L299" s="9">
@@ -27495,7 +27544,7 @@
       <c r="J300" s="9">
         <v>0</v>
       </c>
-      <c r="K300" s="37">
+      <c r="K300" s="9">
         <v>21600</v>
       </c>
       <c r="L300" s="9">
@@ -27554,7 +27603,7 @@
       <c r="J301" s="9">
         <v>0</v>
       </c>
-      <c r="K301" s="37">
+      <c r="K301" s="9">
         <v>21600</v>
       </c>
       <c r="L301" s="9">
@@ -27613,7 +27662,7 @@
       <c r="J302" s="9">
         <v>0</v>
       </c>
-      <c r="K302" s="37">
+      <c r="K302" s="9">
         <v>21600</v>
       </c>
       <c r="L302" s="9">
@@ -27672,7 +27721,7 @@
       <c r="J303" s="9">
         <v>0</v>
       </c>
-      <c r="K303" s="37">
+      <c r="K303" s="9">
         <v>21600</v>
       </c>
       <c r="L303" s="9">
@@ -27732,7 +27781,7 @@
       <c r="J304" s="9">
         <v>0</v>
       </c>
-      <c r="K304" s="37">
+      <c r="K304" s="9">
         <v>21600</v>
       </c>
       <c r="L304" s="9">
@@ -27792,7 +27841,7 @@
       <c r="J305" s="9">
         <v>0</v>
       </c>
-      <c r="K305" s="37">
+      <c r="K305" s="9">
         <v>21600</v>
       </c>
       <c r="L305" s="9">
@@ -27852,7 +27901,7 @@
       <c r="J306" s="9">
         <v>0</v>
       </c>
-      <c r="K306" s="37">
+      <c r="K306" s="9">
         <v>21600</v>
       </c>
       <c r="L306" s="9">
@@ -27912,7 +27961,7 @@
       <c r="J307" s="9">
         <v>0</v>
       </c>
-      <c r="K307" s="37">
+      <c r="K307" s="9">
         <v>21600</v>
       </c>
       <c r="L307" s="9">
@@ -27972,7 +28021,7 @@
       <c r="J308" s="9">
         <v>0</v>
       </c>
-      <c r="K308" s="37">
+      <c r="K308" s="9">
         <v>21600</v>
       </c>
       <c r="L308" s="9">
@@ -28032,7 +28081,7 @@
       <c r="J309" s="9">
         <v>0</v>
       </c>
-      <c r="K309" s="37">
+      <c r="K309" s="9">
         <v>21600</v>
       </c>
       <c r="L309" s="9">
@@ -28092,7 +28141,7 @@
       <c r="J310" s="9">
         <v>0</v>
       </c>
-      <c r="K310" s="37">
+      <c r="K310" s="9">
         <v>15600</v>
       </c>
       <c r="L310" s="9">
@@ -28152,7 +28201,7 @@
       <c r="J311" s="9">
         <v>0</v>
       </c>
-      <c r="K311" s="37">
+      <c r="K311" s="9">
         <v>15600</v>
       </c>
       <c r="L311" s="9">
@@ -28212,7 +28261,7 @@
       <c r="J312" s="9">
         <v>0</v>
       </c>
-      <c r="K312" s="37">
+      <c r="K312" s="9">
         <v>15600</v>
       </c>
       <c r="L312" s="9">
@@ -28272,7 +28321,7 @@
       <c r="J313" s="9">
         <v>0</v>
       </c>
-      <c r="K313" s="37">
+      <c r="K313" s="9">
         <v>15600</v>
       </c>
       <c r="L313" s="9">
@@ -28331,7 +28380,7 @@
       <c r="J314" s="9">
         <v>0</v>
       </c>
-      <c r="K314" s="37">
+      <c r="K314" s="9">
         <v>15600</v>
       </c>
       <c r="L314" s="9">
@@ -28390,7 +28439,7 @@
       <c r="J315" s="9">
         <v>0</v>
       </c>
-      <c r="K315" s="37">
+      <c r="K315" s="9">
         <v>15600</v>
       </c>
       <c r="L315" s="9">
@@ -28450,7 +28499,7 @@
       <c r="J316" s="9">
         <v>0</v>
       </c>
-      <c r="K316" s="37">
+      <c r="K316" s="9">
         <v>15600</v>
       </c>
       <c r="L316" s="9">
@@ -28510,7 +28559,7 @@
       <c r="J317" s="9">
         <v>0</v>
       </c>
-      <c r="K317" s="37">
+      <c r="K317" s="9">
         <v>15600</v>
       </c>
       <c r="L317" s="9">
@@ -28570,7 +28619,7 @@
       <c r="J318" s="9">
         <v>0</v>
       </c>
-      <c r="K318" s="37">
+      <c r="K318" s="9">
         <v>15600</v>
       </c>
       <c r="L318" s="9">
@@ -28630,7 +28679,7 @@
       <c r="J319" s="9">
         <v>0</v>
       </c>
-      <c r="K319" s="37">
+      <c r="K319" s="9">
         <v>15600</v>
       </c>
       <c r="L319" s="9">
@@ -28690,7 +28739,7 @@
       <c r="J320" s="9">
         <v>0</v>
       </c>
-      <c r="K320" s="37">
+      <c r="K320" s="9">
         <v>15600</v>
       </c>
       <c r="L320" s="9">
@@ -28750,7 +28799,7 @@
       <c r="J321" s="9">
         <v>0</v>
       </c>
-      <c r="K321" s="37">
+      <c r="K321" s="9">
         <v>20800</v>
       </c>
       <c r="L321" s="9">
@@ -28810,7 +28859,7 @@
       <c r="J322" s="9">
         <v>0</v>
       </c>
-      <c r="K322" s="37">
+      <c r="K322" s="9">
         <v>20800</v>
       </c>
       <c r="L322" s="9">
@@ -28870,7 +28919,7 @@
       <c r="J323" s="9">
         <v>0</v>
       </c>
-      <c r="K323" s="37">
+      <c r="K323" s="9">
         <v>20800</v>
       </c>
       <c r="L323" s="9">
@@ -28930,7 +28979,7 @@
       <c r="J324" s="9">
         <v>0</v>
       </c>
-      <c r="K324" s="37">
+      <c r="K324" s="9">
         <v>20800</v>
       </c>
       <c r="L324" s="9">
@@ -28990,7 +29039,7 @@
       <c r="J325" s="9">
         <v>0</v>
       </c>
-      <c r="K325" s="37">
+      <c r="K325" s="9">
         <v>20800</v>
       </c>
       <c r="L325" s="9">
@@ -29049,7 +29098,7 @@
       <c r="J326" s="9">
         <v>0</v>
       </c>
-      <c r="K326" s="37">
+      <c r="K326" s="9">
         <v>20800</v>
       </c>
       <c r="L326" s="9">
@@ -29108,7 +29157,7 @@
       <c r="J327" s="9">
         <v>0</v>
       </c>
-      <c r="K327" s="37">
+      <c r="K327" s="9">
         <v>20800</v>
       </c>
       <c r="L327" s="9">
@@ -29168,7 +29217,7 @@
       <c r="J328" s="9">
         <v>0</v>
       </c>
-      <c r="K328" s="37">
+      <c r="K328" s="9">
         <v>20800</v>
       </c>
       <c r="L328" s="9">
@@ -29228,7 +29277,7 @@
       <c r="J329" s="9">
         <v>0</v>
       </c>
-      <c r="K329" s="37">
+      <c r="K329" s="9">
         <v>20800</v>
       </c>
       <c r="L329" s="9">
@@ -29288,7 +29337,7 @@
       <c r="J330" s="9">
         <v>0</v>
       </c>
-      <c r="K330" s="37">
+      <c r="K330" s="9">
         <v>20800</v>
       </c>
       <c r="L330" s="9">
@@ -29348,7 +29397,7 @@
       <c r="J331" s="9">
         <v>0</v>
       </c>
-      <c r="K331" s="37">
+      <c r="K331" s="9">
         <v>20800</v>
       </c>
       <c r="L331" s="9">
@@ -29408,7 +29457,7 @@
       <c r="J332" s="9">
         <v>0</v>
       </c>
-      <c r="K332" s="37">
+      <c r="K332" s="9">
         <v>20800</v>
       </c>
       <c r="L332" s="9">
@@ -29468,7 +29517,7 @@
       <c r="J333" s="9">
         <v>0</v>
       </c>
-      <c r="K333" s="37">
+      <c r="K333" s="9">
         <v>25900</v>
       </c>
       <c r="L333" s="9">
@@ -29528,7 +29577,7 @@
       <c r="J334" s="9">
         <v>0</v>
       </c>
-      <c r="K334" s="37">
+      <c r="K334" s="9">
         <v>25900</v>
       </c>
       <c r="L334" s="9">
@@ -29588,7 +29637,7 @@
       <c r="J335" s="9">
         <v>0</v>
       </c>
-      <c r="K335" s="37">
+      <c r="K335" s="9">
         <v>25900</v>
       </c>
       <c r="L335" s="9">
@@ -29648,7 +29697,7 @@
       <c r="J336" s="9">
         <v>0</v>
       </c>
-      <c r="K336" s="37">
+      <c r="K336" s="9">
         <v>25900</v>
       </c>
       <c r="L336" s="9">
@@ -29708,7 +29757,7 @@
       <c r="J337" s="9">
         <v>0</v>
       </c>
-      <c r="K337" s="37">
+      <c r="K337" s="9">
         <v>25900</v>
       </c>
       <c r="L337" s="9">
@@ -29767,7 +29816,7 @@
       <c r="J338" s="9">
         <v>0</v>
       </c>
-      <c r="K338" s="37">
+      <c r="K338" s="9">
         <v>25900</v>
       </c>
       <c r="L338" s="9">
@@ -29826,7 +29875,7 @@
       <c r="J339" s="9">
         <v>0</v>
       </c>
-      <c r="K339" s="37">
+      <c r="K339" s="9">
         <v>25900</v>
       </c>
       <c r="L339" s="9">
@@ -29885,7 +29934,7 @@
       <c r="J340" s="9">
         <v>0</v>
       </c>
-      <c r="K340" s="37">
+      <c r="K340" s="9">
         <v>25900</v>
       </c>
       <c r="L340" s="9">
@@ -29944,7 +29993,7 @@
       <c r="J341" s="9">
         <v>0</v>
       </c>
-      <c r="K341" s="37">
+      <c r="K341" s="9">
         <v>25900</v>
       </c>
       <c r="L341" s="9">
@@ -30003,7 +30052,7 @@
       <c r="J342" s="9">
         <v>0</v>
       </c>
-      <c r="K342" s="37">
+      <c r="K342" s="9">
         <v>25900</v>
       </c>
       <c r="L342" s="9">
@@ -30062,7 +30111,7 @@
       <c r="J343" s="9">
         <v>0</v>
       </c>
-      <c r="K343" s="37">
+      <c r="K343" s="9">
         <v>25900</v>
       </c>
       <c r="L343" s="9">
@@ -30121,7 +30170,7 @@
       <c r="J344" s="9">
         <v>0</v>
       </c>
-      <c r="K344" s="37">
+      <c r="K344" s="9">
         <v>25900</v>
       </c>
       <c r="L344" s="9">
@@ -30180,7 +30229,7 @@
       <c r="J345" s="9">
         <v>0</v>
       </c>
-      <c r="K345" s="37">
+      <c r="K345" s="9">
         <v>25900</v>
       </c>
       <c r="L345" s="9">
@@ -30239,7 +30288,7 @@
       <c r="J346" s="9">
         <v>0</v>
       </c>
-      <c r="K346" s="37">
+      <c r="K346" s="9">
         <v>18700</v>
       </c>
       <c r="L346" s="9">
@@ -30298,7 +30347,7 @@
       <c r="J347" s="9">
         <v>0</v>
       </c>
-      <c r="K347" s="37">
+      <c r="K347" s="9">
         <v>18700</v>
       </c>
       <c r="L347" s="9">
@@ -30357,7 +30406,7 @@
       <c r="J348" s="9">
         <v>0</v>
       </c>
-      <c r="K348" s="37">
+      <c r="K348" s="9">
         <v>18700</v>
       </c>
       <c r="L348" s="9">
@@ -30416,7 +30465,7 @@
       <c r="J349" s="9">
         <v>0</v>
       </c>
-      <c r="K349" s="37">
+      <c r="K349" s="9">
         <v>18700</v>
       </c>
       <c r="L349" s="9">
@@ -30476,7 +30525,7 @@
       <c r="J350" s="9">
         <v>0</v>
       </c>
-      <c r="K350" s="37">
+      <c r="K350" s="9">
         <v>18700</v>
       </c>
       <c r="L350" s="9">
@@ -30536,7 +30585,7 @@
       <c r="J351" s="9">
         <v>0</v>
       </c>
-      <c r="K351" s="37">
+      <c r="K351" s="9">
         <v>18700</v>
       </c>
       <c r="L351" s="9">
@@ -30596,7 +30645,7 @@
       <c r="J352" s="9">
         <v>0</v>
       </c>
-      <c r="K352" s="37">
+      <c r="K352" s="9">
         <v>18700</v>
       </c>
       <c r="L352" s="9">
@@ -30656,7 +30705,7 @@
       <c r="J353" s="9">
         <v>0</v>
       </c>
-      <c r="K353" s="37">
+      <c r="K353" s="9">
         <v>18700</v>
       </c>
       <c r="L353" s="9">
@@ -30716,7 +30765,7 @@
       <c r="J354" s="9">
         <v>0</v>
       </c>
-      <c r="K354" s="37">
+      <c r="K354" s="9">
         <v>18700</v>
       </c>
       <c r="L354" s="9">
@@ -30776,7 +30825,7 @@
       <c r="J355" s="9">
         <v>0</v>
       </c>
-      <c r="K355" s="37">
+      <c r="K355" s="9">
         <v>18700</v>
       </c>
       <c r="L355" s="9">
@@ -30836,7 +30885,7 @@
       <c r="J356" s="9">
         <v>0</v>
       </c>
-      <c r="K356" s="37">
+      <c r="K356" s="9">
         <v>18700</v>
       </c>
       <c r="L356" s="9">
@@ -30896,7 +30945,7 @@
       <c r="J357" s="9">
         <v>0</v>
       </c>
-      <c r="K357" s="37">
+      <c r="K357" s="9">
         <v>25000</v>
       </c>
       <c r="L357" s="9">
@@ -30956,7 +31005,7 @@
       <c r="J358" s="9">
         <v>0</v>
       </c>
-      <c r="K358" s="37">
+      <c r="K358" s="9">
         <v>25000</v>
       </c>
       <c r="L358" s="9">
@@ -31016,7 +31065,7 @@
       <c r="J359" s="9">
         <v>0</v>
       </c>
-      <c r="K359" s="37">
+      <c r="K359" s="9">
         <v>25000</v>
       </c>
       <c r="L359" s="9">
@@ -31075,7 +31124,7 @@
       <c r="J360" s="9">
         <v>0</v>
       </c>
-      <c r="K360" s="37">
+      <c r="K360" s="9">
         <v>25000</v>
       </c>
       <c r="L360" s="9">
@@ -31134,7 +31183,7 @@
       <c r="J361" s="9">
         <v>0</v>
       </c>
-      <c r="K361" s="37">
+      <c r="K361" s="9">
         <v>25000</v>
       </c>
       <c r="L361" s="9">
@@ -31194,7 +31243,7 @@
       <c r="J362" s="9">
         <v>0</v>
       </c>
-      <c r="K362" s="37">
+      <c r="K362" s="9">
         <v>25000</v>
       </c>
       <c r="L362" s="9">
@@ -31254,7 +31303,7 @@
       <c r="J363" s="9">
         <v>0</v>
       </c>
-      <c r="K363" s="37">
+      <c r="K363" s="9">
         <v>25000</v>
       </c>
       <c r="L363" s="9">
@@ -31314,7 +31363,7 @@
       <c r="J364" s="9">
         <v>0</v>
       </c>
-      <c r="K364" s="37">
+      <c r="K364" s="9">
         <v>25000</v>
       </c>
       <c r="L364" s="9">
@@ -31374,7 +31423,7 @@
       <c r="J365" s="9">
         <v>0</v>
       </c>
-      <c r="K365" s="37">
+      <c r="K365" s="9">
         <v>25000</v>
       </c>
       <c r="L365" s="9">
@@ -31434,7 +31483,7 @@
       <c r="J366" s="9">
         <v>0</v>
       </c>
-      <c r="K366" s="37">
+      <c r="K366" s="9">
         <v>25000</v>
       </c>
       <c r="L366" s="9">
@@ -31494,7 +31543,7 @@
       <c r="J367" s="9">
         <v>0</v>
       </c>
-      <c r="K367" s="37">
+      <c r="K367" s="9">
         <v>25000</v>
       </c>
       <c r="L367" s="9">
@@ -31554,7 +31603,7 @@
       <c r="J368" s="9">
         <v>0</v>
       </c>
-      <c r="K368" s="37">
+      <c r="K368" s="9">
         <v>25000</v>
       </c>
       <c r="L368" s="9">
@@ -31614,7 +31663,7 @@
       <c r="J369" s="9">
         <v>0</v>
       </c>
-      <c r="K369" s="37">
+      <c r="K369" s="9">
         <v>31100</v>
       </c>
       <c r="L369" s="9">
@@ -31674,7 +31723,7 @@
       <c r="J370" s="9">
         <v>0</v>
       </c>
-      <c r="K370" s="37">
+      <c r="K370" s="9">
         <v>31100</v>
       </c>
       <c r="L370" s="9">
@@ -31734,7 +31783,7 @@
       <c r="J371" s="9">
         <v>0</v>
       </c>
-      <c r="K371" s="37">
+      <c r="K371" s="9">
         <v>31100</v>
       </c>
       <c r="L371" s="9">
@@ -31793,7 +31842,7 @@
       <c r="J372" s="9">
         <v>0</v>
       </c>
-      <c r="K372" s="37">
+      <c r="K372" s="9">
         <v>31100</v>
       </c>
       <c r="L372" s="9">
@@ -31852,7 +31901,7 @@
       <c r="J373" s="9">
         <v>0</v>
       </c>
-      <c r="K373" s="37">
+      <c r="K373" s="9">
         <v>31100</v>
       </c>
       <c r="L373" s="9">
@@ -31912,7 +31961,7 @@
       <c r="J374" s="9">
         <v>0</v>
       </c>
-      <c r="K374" s="37">
+      <c r="K374" s="9">
         <v>31100</v>
       </c>
       <c r="L374" s="9">
@@ -31972,7 +32021,7 @@
       <c r="J375" s="9">
         <v>0</v>
       </c>
-      <c r="K375" s="37">
+      <c r="K375" s="9">
         <v>31100</v>
       </c>
       <c r="L375" s="9">
@@ -32032,7 +32081,7 @@
       <c r="J376" s="9">
         <v>0</v>
       </c>
-      <c r="K376" s="37">
+      <c r="K376" s="9">
         <v>31100</v>
       </c>
       <c r="L376" s="9">
@@ -32092,7 +32141,7 @@
       <c r="J377" s="9">
         <v>0</v>
       </c>
-      <c r="K377" s="37">
+      <c r="K377" s="9">
         <v>31100</v>
       </c>
       <c r="L377" s="9">
@@ -32152,7 +32201,7 @@
       <c r="J378" s="9">
         <v>0</v>
       </c>
-      <c r="K378" s="37">
+      <c r="K378" s="9">
         <v>31100</v>
       </c>
       <c r="L378" s="9">
@@ -32212,7 +32261,7 @@
       <c r="J379" s="9">
         <v>0</v>
       </c>
-      <c r="K379" s="37">
+      <c r="K379" s="9">
         <v>31100</v>
       </c>
       <c r="L379" s="9">
@@ -32272,7 +32321,7 @@
       <c r="J380" s="9">
         <v>0</v>
       </c>
-      <c r="K380" s="37">
+      <c r="K380" s="9">
         <v>31100</v>
       </c>
       <c r="L380" s="9">
@@ -32332,7 +32381,7 @@
       <c r="J381" s="9">
         <v>0</v>
       </c>
-      <c r="K381" s="37">
+      <c r="K381" s="9">
         <v>31100</v>
       </c>
       <c r="L381" s="9">
@@ -32392,7 +32441,7 @@
       <c r="J382" s="9">
         <v>0</v>
       </c>
-      <c r="K382" s="37">
+      <c r="K382" s="9">
         <v>22400</v>
       </c>
       <c r="L382" s="9">
@@ -32452,7 +32501,7 @@
       <c r="J383" s="9">
         <v>0</v>
       </c>
-      <c r="K383" s="37">
+      <c r="K383" s="9">
         <v>22400</v>
       </c>
       <c r="L383" s="9">
@@ -32511,7 +32560,7 @@
       <c r="J384" s="9">
         <v>0</v>
       </c>
-      <c r="K384" s="37">
+      <c r="K384" s="9">
         <v>22400</v>
       </c>
       <c r="L384" s="9">
@@ -32570,7 +32619,7 @@
       <c r="J385" s="9">
         <v>0</v>
       </c>
-      <c r="K385" s="37">
+      <c r="K385" s="9">
         <v>22400</v>
       </c>
       <c r="L385" s="9">
@@ -32629,7 +32678,7 @@
       <c r="J386" s="9">
         <v>0</v>
       </c>
-      <c r="K386" s="37">
+      <c r="K386" s="9">
         <v>22400</v>
       </c>
       <c r="L386" s="9">
@@ -32688,7 +32737,7 @@
       <c r="J387" s="9">
         <v>0</v>
       </c>
-      <c r="K387" s="37">
+      <c r="K387" s="9">
         <v>22400</v>
       </c>
       <c r="L387" s="9">
@@ -32747,7 +32796,7 @@
       <c r="J388" s="9">
         <v>0</v>
       </c>
-      <c r="K388" s="37">
+      <c r="K388" s="9">
         <v>22400</v>
       </c>
       <c r="L388" s="9">
@@ -32806,7 +32855,7 @@
       <c r="J389" s="9">
         <v>0</v>
       </c>
-      <c r="K389" s="37">
+      <c r="K389" s="9">
         <v>22400</v>
       </c>
       <c r="L389" s="9">
@@ -32865,7 +32914,7 @@
       <c r="J390" s="9">
         <v>0</v>
       </c>
-      <c r="K390" s="37">
+      <c r="K390" s="9">
         <v>22400</v>
       </c>
       <c r="L390" s="9">
@@ -32924,7 +32973,7 @@
       <c r="J391" s="9">
         <v>0</v>
       </c>
-      <c r="K391" s="37">
+      <c r="K391" s="9">
         <v>22400</v>
       </c>
       <c r="L391" s="9">
@@ -32983,7 +33032,7 @@
       <c r="J392" s="9">
         <v>0</v>
       </c>
-      <c r="K392" s="37">
+      <c r="K392" s="9">
         <v>22400</v>
       </c>
       <c r="L392" s="9">
@@ -33042,7 +33091,7 @@
       <c r="J393" s="9">
         <v>0</v>
       </c>
-      <c r="K393" s="37">
+      <c r="K393" s="9">
         <v>30000</v>
       </c>
       <c r="L393" s="9">
@@ -33101,7 +33150,7 @@
       <c r="J394" s="9">
         <v>0</v>
       </c>
-      <c r="K394" s="37">
+      <c r="K394" s="9">
         <v>30000</v>
       </c>
       <c r="L394" s="9">
@@ -33160,7 +33209,7 @@
       <c r="J395" s="9">
         <v>0</v>
       </c>
-      <c r="K395" s="37">
+      <c r="K395" s="9">
         <v>30000</v>
       </c>
       <c r="L395" s="9">
@@ -34752,11 +34801,301 @@
         <v>389</v>
       </c>
     </row>
-    <row r="422" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C422" s="9">
+        <v>50000101</v>
+      </c>
+      <c r="D422" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E422" s="9">
+        <v>25</v>
+      </c>
+      <c r="F422" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G422" s="9">
+        <v>2</v>
+      </c>
+      <c r="H422" s="10">
+        <v>0</v>
+      </c>
+      <c r="I422" s="9">
+        <v>1</v>
+      </c>
+      <c r="J422" s="9">
+        <v>1</v>
+      </c>
+      <c r="K422" s="9">
+        <v>12500</v>
+      </c>
+      <c r="L422" s="9">
+        <v>10000</v>
+      </c>
+      <c r="M422" s="9">
+        <v>0</v>
+      </c>
+      <c r="N422" s="9">
+        <v>0</v>
+      </c>
+      <c r="O422" s="11">
+        <v>20000024</v>
+      </c>
+      <c r="P422" s="9">
+        <v>20000024</v>
+      </c>
+      <c r="Q422" s="10">
+        <v>2</v>
+      </c>
+      <c r="R422" s="15">
+        <v>10022009</v>
+      </c>
+      <c r="S422" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="T422" s="9">
+        <v>0</v>
+      </c>
+      <c r="U422" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="423" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C423" s="9">
+        <v>50000102</v>
+      </c>
+      <c r="D423" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="E423" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="F423" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G423" s="9">
+        <v>2</v>
+      </c>
+      <c r="H423" s="10">
+        <v>0</v>
+      </c>
+      <c r="I423" s="9">
+        <v>2</v>
+      </c>
+      <c r="J423" s="9">
+        <v>50000101</v>
+      </c>
+      <c r="K423" s="9">
+        <v>12500</v>
+      </c>
+      <c r="L423" s="9">
+        <v>10000</v>
+      </c>
+      <c r="M423" s="9">
+        <v>0</v>
+      </c>
+      <c r="N423" s="9">
+        <v>0</v>
+      </c>
+      <c r="O423" s="11">
+        <v>20000024</v>
+      </c>
+      <c r="P423" s="9">
+        <v>20000024</v>
+      </c>
+      <c r="Q423" s="15">
+        <v>5</v>
+      </c>
+      <c r="R423" s="15">
+        <v>0</v>
+      </c>
+      <c r="S423" s="15">
+        <v>100</v>
+      </c>
+      <c r="T423" s="15">
+        <v>0</v>
+      </c>
+      <c r="U423" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="424" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C424" s="9">
+        <v>50000103</v>
+      </c>
+      <c r="D424" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="E424" s="9">
+        <v>25</v>
+      </c>
+      <c r="F424" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G424" s="9">
+        <v>2</v>
+      </c>
+      <c r="H424" s="10">
+        <v>0</v>
+      </c>
+      <c r="I424" s="9">
+        <v>2</v>
+      </c>
+      <c r="J424" s="9">
+        <v>50000102</v>
+      </c>
+      <c r="K424" s="9">
+        <v>12500</v>
+      </c>
+      <c r="L424" s="9">
+        <v>10000</v>
+      </c>
+      <c r="M424" s="9">
+        <v>0</v>
+      </c>
+      <c r="N424" s="9">
+        <v>0</v>
+      </c>
+      <c r="O424" s="11">
+        <v>20000024</v>
+      </c>
+      <c r="P424" s="9">
+        <v>20000024</v>
+      </c>
+      <c r="Q424" s="10">
+        <v>2</v>
+      </c>
+      <c r="R424" s="15">
+        <v>10022010</v>
+      </c>
+      <c r="S424" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="T424" s="9">
+        <v>0</v>
+      </c>
+      <c r="U424" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="425" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C425" s="9">
+        <v>50000104</v>
+      </c>
+      <c r="D425" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="E425" s="9">
+        <v>25</v>
+      </c>
+      <c r="F425" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G425" s="9">
+        <v>2</v>
+      </c>
+      <c r="H425" s="3">
+        <v>0</v>
+      </c>
+      <c r="I425" s="9">
+        <v>2</v>
+      </c>
+      <c r="J425" s="9">
+        <v>50000103</v>
+      </c>
+      <c r="K425" s="9">
+        <v>12500</v>
+      </c>
+      <c r="L425" s="9">
+        <v>10000</v>
+      </c>
+      <c r="M425" s="9">
+        <v>0</v>
+      </c>
+      <c r="N425" s="9">
+        <v>0</v>
+      </c>
+      <c r="O425" s="11">
+        <v>20000024</v>
+      </c>
+      <c r="P425" s="9">
+        <v>20000024</v>
+      </c>
+      <c r="Q425" s="9">
+        <v>121</v>
+      </c>
+      <c r="R425" s="9">
+        <v>0</v>
+      </c>
+      <c r="S425" s="9">
+        <v>3</v>
+      </c>
+      <c r="T425" s="9">
+        <v>0</v>
+      </c>
+      <c r="U425" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="426" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C426" s="9">
+        <v>50000105</v>
+      </c>
+      <c r="D426" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="E426" s="9">
+        <v>25</v>
+      </c>
+      <c r="F426" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G426" s="9">
+        <v>2</v>
+      </c>
+      <c r="H426" s="3">
+        <v>0</v>
+      </c>
+      <c r="I426" s="9">
+        <v>2</v>
+      </c>
+      <c r="J426" s="9">
+        <v>50000104</v>
+      </c>
+      <c r="K426" s="9">
+        <v>12500</v>
+      </c>
+      <c r="L426" s="9">
+        <v>10000</v>
+      </c>
+      <c r="M426" s="11">
+        <v>10000201</v>
+      </c>
+      <c r="N426" s="9">
+        <v>1</v>
+      </c>
+      <c r="O426" s="11">
+        <v>20000024</v>
+      </c>
+      <c r="P426" s="9">
+        <v>20000024</v>
+      </c>
+      <c r="Q426" s="9">
+        <v>4</v>
+      </c>
+      <c r="R426" s="9">
+        <v>0</v>
+      </c>
+      <c r="S426" s="9">
+        <v>28</v>
+      </c>
+      <c r="T426" s="9">
+        <v>0</v>
+      </c>
+      <c r="U426" s="14" t="s">
+        <v>408</v>
+      </c>
+    </row>
     <row r="427" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="428" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="429" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -34780,7 +35119,6 @@
     <row r="447" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="448" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="449" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F5CAEF-04BC-48FC-8A3B-7CB3A83C955F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BE5569-AA6E-456E-9423-95D464CFFE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30675" yWindow="1110" windowWidth="23730" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -9860,9 +9860,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C422" sqref="C422"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R407" sqref="R407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33951,7 +33951,7 @@
         <v>1</v>
       </c>
       <c r="R407" s="21">
-        <v>72002005</v>
+        <v>72002001</v>
       </c>
       <c r="S407" s="10" t="s">
         <v>354</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BE5569-AA6E-456E-9423-95D464CFFE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B0A80F-F8C9-4B5F-AD11-2A029042B0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="345" windowWidth="24705" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -46,15 +46,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1:</t>
+1:</t>
         </r>
         <r>
           <rPr>
@@ -117,7 +109,25 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>：试炼任务</t>
+          <t xml:space="preserve">：试炼任务
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：每周任务</t>
         </r>
       </text>
     </comment>
@@ -553,7 +563,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="415">
   <si>
     <t>Id</t>
   </si>
@@ -1894,6 +1904,10 @@
   </si>
   <si>
     <t>25</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -9860,9 +9874,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R407" sqref="R407"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A427" sqref="A427:XFD427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35096,7 +35110,65 @@
         <v>408</v>
       </c>
     </row>
-    <row r="427" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C427" s="9">
+        <v>51000001</v>
+      </c>
+      <c r="D427" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="E427" s="28">
+        <v>0</v>
+      </c>
+      <c r="F427" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G427" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="H427" s="10">
+        <v>0</v>
+      </c>
+      <c r="I427" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="J427" s="31">
+        <v>0</v>
+      </c>
+      <c r="K427" s="28">
+        <v>0</v>
+      </c>
+      <c r="L427" s="32">
+        <v>20000</v>
+      </c>
+      <c r="M427" s="9">
+        <v>10010046</v>
+      </c>
+      <c r="N427" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="O427" s="32">
+        <v>20002003</v>
+      </c>
+      <c r="P427" s="32">
+        <v>20002003</v>
+      </c>
+      <c r="Q427" s="28">
+        <v>8</v>
+      </c>
+      <c r="R427" s="33">
+        <v>0</v>
+      </c>
+      <c r="S427" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="T427" s="9">
+        <v>0</v>
+      </c>
+      <c r="U427" s="34" t="s">
+        <v>389</v>
+      </c>
+    </row>
     <row r="428" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="429" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="430" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B0A80F-F8C9-4B5F-AD11-2A029042B0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286BA37A-71F3-4830-9712-8A4C65EA5176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1830" yWindow="345" windowWidth="24705" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="416">
   <si>
     <t>Id</t>
   </si>
@@ -1908,6 +1908,10 @@
   </si>
   <si>
     <t>5</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>【每周】转职任务</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -9876,7 +9880,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A427" sqref="A427:XFD427"/>
+      <selection pane="bottomLeft" activeCell="D427" sqref="D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35115,7 +35119,7 @@
         <v>51000001</v>
       </c>
       <c r="D427" s="27" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="E427" s="28">
         <v>0</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286BA37A-71F3-4830-9712-8A4C65EA5176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A61247A-4D9D-4638-882D-FEB74FADB8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="345" windowWidth="24705" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="416">
   <si>
     <t>Id</t>
   </si>
@@ -1911,7 +1911,7 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>【每周】转职任务</t>
+    <t>【每周】任务</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -9876,11 +9876,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U449"/>
+  <dimension ref="A1:AB440"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D427" sqref="D427"/>
+      <pane ySplit="5" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A427" sqref="A427:XFD427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34521,7 +34521,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="417" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B417" s="20"/>
       <c r="C417" s="9">
         <v>41004101</v>
@@ -34581,7 +34581,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="418" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B418" s="20"/>
       <c r="C418" s="9">
         <v>41004102</v>
@@ -34641,7 +34641,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="419" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B419" s="20"/>
       <c r="C419" s="9">
         <v>41004103</v>
@@ -34701,7 +34701,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="420" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C420" s="9">
         <v>50000001</v>
       </c>
@@ -34760,7 +34760,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="421" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C421" s="9">
         <v>50000002</v>
       </c>
@@ -34819,7 +34819,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="422" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C422" s="9">
         <v>50000101</v>
       </c>
@@ -34878,7 +34878,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="423" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:28" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C423" s="9">
         <v>50000102</v>
       </c>
@@ -34937,7 +34937,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="424" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C424" s="9">
         <v>50000103</v>
       </c>
@@ -34996,7 +34996,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="425" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C425" s="9">
         <v>50000104</v>
       </c>
@@ -35055,7 +35055,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="426" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C426" s="9">
         <v>50000105</v>
       </c>
@@ -35114,7 +35114,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="427" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C427" s="9">
         <v>51000001</v>
       </c>
@@ -35133,51 +35133,58 @@
       <c r="H427" s="10">
         <v>0</v>
       </c>
-      <c r="I427" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="J427" s="31">
-        <v>0</v>
-      </c>
-      <c r="K427" s="28">
-        <v>0</v>
-      </c>
-      <c r="L427" s="32">
-        <v>20000</v>
+      <c r="I427" s="9">
+        <v>1</v>
+      </c>
+      <c r="J427" s="9">
+        <v>0</v>
+      </c>
+      <c r="K427" s="9">
+        <v>21600</v>
+      </c>
+      <c r="L427" s="9">
+        <v>31740</v>
       </c>
       <c r="M427" s="9">
-        <v>10010046</v>
-      </c>
-      <c r="N427" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="O427" s="32">
-        <v>20002003</v>
-      </c>
-      <c r="P427" s="32">
-        <v>20002003</v>
-      </c>
-      <c r="Q427" s="28">
-        <v>8</v>
-      </c>
-      <c r="R427" s="33">
-        <v>0</v>
-      </c>
-      <c r="S427" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="T427" s="9">
-        <v>0</v>
-      </c>
-      <c r="U427" s="34" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="428" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>0</v>
+      </c>
+      <c r="N427" s="9">
+        <v>0</v>
+      </c>
+      <c r="O427" s="11">
+        <v>0</v>
+      </c>
+      <c r="P427" s="9">
+        <v>20000024</v>
+      </c>
+      <c r="Q427" s="10">
+        <v>1</v>
+      </c>
+      <c r="R427" s="22">
+        <v>70004001</v>
+      </c>
+      <c r="S427" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T427" s="15">
+        <v>0</v>
+      </c>
+      <c r="U427" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="V427"/>
+      <c r="W427"/>
+      <c r="X427"/>
+      <c r="Y427"/>
+      <c r="Z427"/>
+      <c r="AA427"/>
+      <c r="AB427"/>
+    </row>
+    <row r="428" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="433" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="434" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="435" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35186,15 +35193,6 @@
     <row r="438" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="439" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="440" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAADE616-BE0D-42D5-B1E1-911513EE717D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46956488-AF18-43DD-A1B5-10C4064E3BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="870" windowWidth="26610" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="436">
   <si>
     <t>Id</t>
   </si>
@@ -1956,6 +1956,18 @@
   </si>
   <si>
     <t>30</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏宝图任务111</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏宝图任务测试</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -9918,9 +9930,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB450"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N433" sqref="N433"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A436" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B441" sqref="A441:XFD441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36036,7 +36048,72 @@
       <c r="AA440"/>
       <c r="AB440"/>
     </row>
-    <row r="441" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" spans="3:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C441" s="9">
+        <v>60001001</v>
+      </c>
+      <c r="D441" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="E441" s="28">
+        <v>0</v>
+      </c>
+      <c r="F441" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G441" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="H441" s="10">
+        <v>0</v>
+      </c>
+      <c r="I441" s="9">
+        <v>1</v>
+      </c>
+      <c r="J441" s="9">
+        <v>20</v>
+      </c>
+      <c r="K441" s="9">
+        <v>0</v>
+      </c>
+      <c r="L441" s="9">
+        <v>200000</v>
+      </c>
+      <c r="M441" s="9">
+        <v>10010047</v>
+      </c>
+      <c r="N441" s="9">
+        <v>1</v>
+      </c>
+      <c r="O441" s="11">
+        <v>20000024</v>
+      </c>
+      <c r="P441" s="9">
+        <v>20000024</v>
+      </c>
+      <c r="Q441" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="R441" s="22">
+        <v>70004001</v>
+      </c>
+      <c r="S441" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="T441" s="15">
+        <v>0</v>
+      </c>
+      <c r="U441" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="V441"/>
+      <c r="W441"/>
+      <c r="X441"/>
+      <c r="Y441"/>
+      <c r="Z441"/>
+      <c r="AA441"/>
+      <c r="AB441"/>
+    </row>
     <row r="442" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="443" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="444" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7198A981-0EB5-4E2B-8FF3-3BD1DA845D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7329D0E3-15D0-4AB2-8BCD-14096925773F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,6 +60,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">主线任务
@@ -77,6 +78,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：支线任务
@@ -94,6 +96,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：每日任务
@@ -111,6 +114,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：试炼任务
@@ -128,6 +132,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：每周任务</t>
@@ -158,6 +163,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">备用
@@ -167,6 +173,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>属于前面大类中的分类</t>
@@ -197,6 +204,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者</t>
@@ -222,6 +230,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：等级触发
@@ -239,6 +248,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：任务触发
@@ -256,6 +266,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：直接触发下一级任务</t>
@@ -286,6 +297,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者</t>
@@ -311,6 +323,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：杀怪
@@ -328,6 +341,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：道具</t>
@@ -353,6 +367,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：找人
@@ -370,6 +385,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：等级达到指定等级
@@ -387,6 +403,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：击杀任意怪物
@@ -404,6 +421,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>：击杀任意</t>
@@ -420,6 +438,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">级别怪物
@@ -429,6 +448,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">7：通关某个副本
@@ -438,6 +458,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">8：转职任务
@@ -447,6 +468,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">101：击杀挑战难度的指定ID怪物(击杀地狱也算)
@@ -456,6 +478,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">102：击杀地狱你拿度指定ID怪物
@@ -465,6 +488,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">111：通关挑战难度的副本(通关地狱也算)
@@ -474,6 +498,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">112：通关地狱难度的副本
@@ -483,6 +508,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">121：击败挑战难度任意数量怪物(通关地狱也算)
@@ -492,6 +518,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">122：击败地狱难度任意数量怪物
@@ -501,6 +528,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">131：击败挑战难度任意boss怪物(通关地狱也算)
@@ -510,6 +538,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">132：击败地狱难度任意boss怪物
@@ -519,6 +548,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -528,6 +558,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -540,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="435">
   <si>
     <t>Id</t>
   </si>
@@ -712,6 +743,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>找到流浪者,他好像有什么话说</t>
@@ -721,6 +753,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -735,6 +768,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>找到了流浪者,回去告诉村长</t>
@@ -744,6 +778,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -830,6 +865,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>前往绿叶郊外,找到勇士一起冒险</t>
@@ -839,6 +875,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -853,6 +890,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>清除完这些蜘蛛,道路似乎干净了许多</t>
@@ -862,6 +900,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>.</t>
@@ -1901,6 +1940,22 @@
   </si>
   <si>
     <t>通缉江洋大盗,听说他身上藏有绝密的藏宝图!</t>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1924,12 +1979,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1937,6 +1994,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1945,12 +2003,14 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1958,18 +2018,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1977,6 +2040,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1984,6 +2048,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1996,6 +2061,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2013,6 +2079,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -7602,7 +7669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7710,6 +7777,9 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="9" borderId="4" xfId="1136" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1808">
@@ -9852,7 +9922,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C441" sqref="C441"/>
+      <selection pane="bottomLeft" activeCell="G442" sqref="G442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35979,7 +36049,7 @@
         <v>0</v>
       </c>
       <c r="F441" s="29" t="s">
-        <v>41</v>
+        <v>431</v>
       </c>
       <c r="G441" s="30" t="s">
         <v>427</v>
@@ -36014,8 +36084,8 @@
       <c r="Q441" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="R441" s="22">
-        <v>72009004</v>
+      <c r="R441" s="38">
+        <v>72009011</v>
       </c>
       <c r="S441" s="10" t="s">
         <v>75</v>
@@ -36034,10 +36104,270 @@
       <c r="AA441"/>
       <c r="AB441"/>
     </row>
-    <row r="442" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" spans="3:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C442" s="9">
+        <v>60001002</v>
+      </c>
+      <c r="D442" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="E442" s="28">
+        <v>20</v>
+      </c>
+      <c r="F442" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="G442" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="H442" s="10">
+        <v>0</v>
+      </c>
+      <c r="I442" s="9">
+        <v>1</v>
+      </c>
+      <c r="J442" s="9">
+        <v>1</v>
+      </c>
+      <c r="K442" s="9">
+        <v>0</v>
+      </c>
+      <c r="L442" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M442" s="9">
+        <v>0</v>
+      </c>
+      <c r="N442" s="9">
+        <v>0</v>
+      </c>
+      <c r="O442" s="11">
+        <v>20000024</v>
+      </c>
+      <c r="P442" s="9">
+        <v>20000024</v>
+      </c>
+      <c r="Q442" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R442" s="38">
+        <v>72009012</v>
+      </c>
+      <c r="S442" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T442" s="15">
+        <v>0</v>
+      </c>
+      <c r="U442" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="V442"/>
+      <c r="W442"/>
+      <c r="X442"/>
+      <c r="Y442"/>
+      <c r="Z442"/>
+      <c r="AA442"/>
+      <c r="AB442"/>
+    </row>
+    <row r="443" spans="3:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C443" s="9">
+        <v>60001003</v>
+      </c>
+      <c r="D443" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="E443" s="28">
+        <v>30</v>
+      </c>
+      <c r="F443" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="G443" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="H443" s="10">
+        <v>0</v>
+      </c>
+      <c r="I443" s="9">
+        <v>1</v>
+      </c>
+      <c r="J443" s="9">
+        <v>1</v>
+      </c>
+      <c r="K443" s="9">
+        <v>0</v>
+      </c>
+      <c r="L443" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M443" s="9">
+        <v>0</v>
+      </c>
+      <c r="N443" s="9">
+        <v>0</v>
+      </c>
+      <c r="O443" s="11">
+        <v>20000024</v>
+      </c>
+      <c r="P443" s="9">
+        <v>20000024</v>
+      </c>
+      <c r="Q443" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R443" s="38">
+        <v>72009013</v>
+      </c>
+      <c r="S443" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T443" s="15">
+        <v>0</v>
+      </c>
+      <c r="U443" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="V443"/>
+      <c r="W443"/>
+      <c r="X443"/>
+      <c r="Y443"/>
+      <c r="Z443"/>
+      <c r="AA443"/>
+      <c r="AB443"/>
+    </row>
+    <row r="444" spans="3:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C444" s="9">
+        <v>60001004</v>
+      </c>
+      <c r="D444" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="E444" s="28">
+        <v>40</v>
+      </c>
+      <c r="F444" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="G444" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="H444" s="10">
+        <v>0</v>
+      </c>
+      <c r="I444" s="9">
+        <v>1</v>
+      </c>
+      <c r="J444" s="9">
+        <v>1</v>
+      </c>
+      <c r="K444" s="9">
+        <v>0</v>
+      </c>
+      <c r="L444" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M444" s="9">
+        <v>0</v>
+      </c>
+      <c r="N444" s="9">
+        <v>0</v>
+      </c>
+      <c r="O444" s="11">
+        <v>20000024</v>
+      </c>
+      <c r="P444" s="9">
+        <v>20000024</v>
+      </c>
+      <c r="Q444" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R444" s="38">
+        <v>72009014</v>
+      </c>
+      <c r="S444" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T444" s="15">
+        <v>0</v>
+      </c>
+      <c r="U444" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="V444"/>
+      <c r="W444"/>
+      <c r="X444"/>
+      <c r="Y444"/>
+      <c r="Z444"/>
+      <c r="AA444"/>
+      <c r="AB444"/>
+    </row>
+    <row r="445" spans="3:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C445" s="9">
+        <v>60001005</v>
+      </c>
+      <c r="D445" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="E445" s="28">
+        <v>50</v>
+      </c>
+      <c r="F445" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G445" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="H445" s="10">
+        <v>0</v>
+      </c>
+      <c r="I445" s="9">
+        <v>1</v>
+      </c>
+      <c r="J445" s="9">
+        <v>1</v>
+      </c>
+      <c r="K445" s="9">
+        <v>0</v>
+      </c>
+      <c r="L445" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M445" s="9">
+        <v>0</v>
+      </c>
+      <c r="N445" s="9">
+        <v>0</v>
+      </c>
+      <c r="O445" s="11">
+        <v>20000024</v>
+      </c>
+      <c r="P445" s="9">
+        <v>20000024</v>
+      </c>
+      <c r="Q445" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="R445" s="38">
+        <v>72009015</v>
+      </c>
+      <c r="S445" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T445" s="15">
+        <v>0</v>
+      </c>
+      <c r="U445" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="V445"/>
+      <c r="W445"/>
+      <c r="X445"/>
+      <c r="Y445"/>
+      <c r="Z445"/>
+      <c r="AA445"/>
+      <c r="AB445"/>
+    </row>
     <row r="446" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="447" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="448" spans="3:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7329D0E3-15D0-4AB2-8BCD-14096925773F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C722705-6172-427B-A8C9-717B77F44197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="439">
   <si>
     <t>Id</t>
   </si>
@@ -1955,6 +1955,22 @@
   </si>
   <si>
     <t>49</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -9921,17 +9937,19 @@
   <dimension ref="A1:AB450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G442" sqref="G442"/>
+      <pane ySplit="5" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S169" sqref="S169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
-    <col min="9" max="19" width="15.625" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="7" width="15.625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="17" width="15.625" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="15.625" customWidth="1"/>
     <col min="20" max="20" width="28.125" customWidth="1"/>
     <col min="21" max="21" width="56.875" customWidth="1"/>
   </cols>
@@ -19610,7 +19628,7 @@
         <v>44</v>
       </c>
       <c r="S166" s="10" t="s">
-        <v>354</v>
+        <v>435</v>
       </c>
       <c r="T166" s="15">
         <v>0</v>
@@ -19669,8 +19687,8 @@
       <c r="R167" s="15">
         <v>70001002</v>
       </c>
-      <c r="S167" s="15">
-        <v>20</v>
+      <c r="S167" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T167" s="15">
         <v>0</v>
@@ -19729,8 +19747,8 @@
       <c r="R168" s="15">
         <v>70001003</v>
       </c>
-      <c r="S168" s="15">
-        <v>20</v>
+      <c r="S168" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T168" s="15">
         <v>0</v>
@@ -19789,8 +19807,8 @@
       <c r="R169" s="15">
         <v>70001005</v>
       </c>
-      <c r="S169" s="15">
-        <v>20</v>
+      <c r="S169" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T169" s="15">
         <v>0</v>
@@ -19849,8 +19867,8 @@
       <c r="R170" s="15">
         <v>70001006</v>
       </c>
-      <c r="S170" s="15">
-        <v>20</v>
+      <c r="S170" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T170" s="15">
         <v>0</v>
@@ -19909,8 +19927,8 @@
       <c r="R171" s="15">
         <v>70001007</v>
       </c>
-      <c r="S171" s="15">
-        <v>20</v>
+      <c r="S171" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T171" s="15">
         <v>0</v>
@@ -19969,8 +19987,8 @@
       <c r="R172" s="15">
         <v>70001010</v>
       </c>
-      <c r="S172" s="15">
-        <v>20</v>
+      <c r="S172" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T172" s="15">
         <v>0</v>
@@ -20029,8 +20047,8 @@
       <c r="R173" s="15">
         <v>70001101</v>
       </c>
-      <c r="S173" s="15">
-        <v>20</v>
+      <c r="S173" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T173" s="15">
         <v>0</v>
@@ -20089,8 +20107,8 @@
       <c r="R174" s="15">
         <v>70001002</v>
       </c>
-      <c r="S174" s="15">
-        <v>20</v>
+      <c r="S174" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T174" s="15">
         <v>0</v>
@@ -20149,8 +20167,8 @@
       <c r="R175" s="15">
         <v>70001103</v>
       </c>
-      <c r="S175" s="15">
-        <v>20</v>
+      <c r="S175" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T175" s="15">
         <v>0</v>
@@ -20208,8 +20226,8 @@
       <c r="R176" s="15">
         <v>0</v>
       </c>
-      <c r="S176" s="15">
-        <v>20</v>
+      <c r="S176" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="T176" s="15">
         <v>0</v>
@@ -20329,7 +20347,7 @@
         <v>44</v>
       </c>
       <c r="S178" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T178" s="15">
         <v>0</v>
@@ -20390,7 +20408,7 @@
         <v>70001002</v>
       </c>
       <c r="S179" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T179" s="15">
         <v>0</v>
@@ -20451,7 +20469,7 @@
         <v>70001003</v>
       </c>
       <c r="S180" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T180" s="15">
         <v>0</v>
@@ -20512,7 +20530,7 @@
         <v>70001005</v>
       </c>
       <c r="S181" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T181" s="15">
         <v>0</v>
@@ -20573,7 +20591,7 @@
         <v>70001006</v>
       </c>
       <c r="S182" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T182" s="15">
         <v>0</v>
@@ -20634,7 +20652,7 @@
         <v>70001007</v>
       </c>
       <c r="S183" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T183" s="15">
         <v>0</v>
@@ -20695,7 +20713,7 @@
         <v>70001010</v>
       </c>
       <c r="S184" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T184" s="15">
         <v>0</v>
@@ -20756,7 +20774,7 @@
         <v>70001101</v>
       </c>
       <c r="S185" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T185" s="15">
         <v>0</v>
@@ -20817,7 +20835,7 @@
         <v>70001002</v>
       </c>
       <c r="S186" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T186" s="15">
         <v>0</v>
@@ -20878,7 +20896,7 @@
         <v>70001103</v>
       </c>
       <c r="S187" s="15">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T187" s="15">
         <v>0</v>
@@ -21059,7 +21077,7 @@
         <v>44</v>
       </c>
       <c r="S190" s="15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="T190" s="15">
         <v>0</v>
@@ -21120,7 +21138,7 @@
         <v>70001002</v>
       </c>
       <c r="S191" s="15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="T191" s="15">
         <v>0</v>
@@ -21181,7 +21199,7 @@
         <v>70001003</v>
       </c>
       <c r="S192" s="15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="T192" s="15">
         <v>0</v>
@@ -21242,7 +21260,7 @@
         <v>70001005</v>
       </c>
       <c r="S193" s="15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="T193" s="15">
         <v>0</v>
@@ -21303,7 +21321,7 @@
         <v>70001006</v>
       </c>
       <c r="S194" s="15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="T194" s="15">
         <v>0</v>
@@ -21364,7 +21382,7 @@
         <v>70001007</v>
       </c>
       <c r="S195" s="15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="T195" s="15">
         <v>0</v>
@@ -21425,7 +21443,7 @@
         <v>70001010</v>
       </c>
       <c r="S196" s="15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="T196" s="15">
         <v>0</v>
@@ -21486,7 +21504,7 @@
         <v>70001101</v>
       </c>
       <c r="S197" s="15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="T197" s="15">
         <v>0</v>
@@ -21547,7 +21565,7 @@
         <v>70001002</v>
       </c>
       <c r="S198" s="15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="T198" s="15">
         <v>0</v>
@@ -21608,7 +21626,7 @@
         <v>70001103</v>
       </c>
       <c r="S199" s="15">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="T199" s="15">
         <v>0</v>
@@ -22378,7 +22396,7 @@
         <v>70002001</v>
       </c>
       <c r="S212" s="10" t="s">
-        <v>354</v>
+        <v>435</v>
       </c>
       <c r="T212" s="15">
         <v>0</v>
@@ -22437,8 +22455,8 @@
       <c r="R213" s="10">
         <v>70002002</v>
       </c>
-      <c r="S213" s="10">
-        <v>20</v>
+      <c r="S213" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T213" s="15">
         <v>0</v>
@@ -22497,8 +22515,8 @@
       <c r="R214" s="10">
         <v>70002004</v>
       </c>
-      <c r="S214" s="10">
-        <v>20</v>
+      <c r="S214" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T214" s="15">
         <v>0</v>
@@ -22557,8 +22575,8 @@
       <c r="R215" s="10">
         <v>70002005</v>
       </c>
-      <c r="S215" s="10">
-        <v>20</v>
+      <c r="S215" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T215" s="15">
         <v>0</v>
@@ -22617,8 +22635,8 @@
       <c r="R216" s="10">
         <v>70002008</v>
       </c>
-      <c r="S216" s="10">
-        <v>20</v>
+      <c r="S216" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T216" s="15">
         <v>0</v>
@@ -22677,8 +22695,8 @@
       <c r="R217" s="10">
         <v>70002009</v>
       </c>
-      <c r="S217" s="10">
-        <v>20</v>
+      <c r="S217" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T217" s="15">
         <v>0</v>
@@ -22737,8 +22755,8 @@
       <c r="R218" s="10">
         <v>70002010</v>
       </c>
-      <c r="S218" s="10">
-        <v>20</v>
+      <c r="S218" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T218" s="15">
         <v>0</v>
@@ -22797,8 +22815,8 @@
       <c r="R219" s="10">
         <v>70002005</v>
       </c>
-      <c r="S219" s="10">
-        <v>20</v>
+      <c r="S219" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T219" s="15">
         <v>0</v>
@@ -22857,8 +22875,8 @@
       <c r="R220" s="10">
         <v>70002001</v>
       </c>
-      <c r="S220" s="10">
-        <v>20</v>
+      <c r="S220" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T220" s="15">
         <v>0</v>
@@ -22917,8 +22935,8 @@
       <c r="R221" s="10">
         <v>70002002</v>
       </c>
-      <c r="S221" s="10">
-        <v>20</v>
+      <c r="S221" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T221" s="15">
         <v>0</v>
@@ -22976,8 +22994,8 @@
       <c r="R222" s="10">
         <v>0</v>
       </c>
-      <c r="S222" s="10">
-        <v>20</v>
+      <c r="S222" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="T222" s="15">
         <v>0</v>
@@ -23096,7 +23114,7 @@
         <v>70002001</v>
       </c>
       <c r="S224" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T224" s="15">
         <v>0</v>
@@ -23156,7 +23174,7 @@
         <v>70002002</v>
       </c>
       <c r="S225" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T225" s="15">
         <v>0</v>
@@ -23216,7 +23234,7 @@
         <v>70002004</v>
       </c>
       <c r="S226" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T226" s="15">
         <v>0</v>
@@ -23276,7 +23294,7 @@
         <v>70002005</v>
       </c>
       <c r="S227" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T227" s="15">
         <v>0</v>
@@ -23336,7 +23354,7 @@
         <v>70002008</v>
       </c>
       <c r="S228" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T228" s="15">
         <v>0</v>
@@ -23396,7 +23414,7 @@
         <v>70002009</v>
       </c>
       <c r="S229" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T229" s="15">
         <v>0</v>
@@ -23456,7 +23474,7 @@
         <v>70002010</v>
       </c>
       <c r="S230" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T230" s="15">
         <v>0</v>
@@ -23516,7 +23534,7 @@
         <v>70002005</v>
       </c>
       <c r="S231" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T231" s="15">
         <v>0</v>
@@ -23576,7 +23594,7 @@
         <v>70002001</v>
       </c>
       <c r="S232" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T232" s="15">
         <v>0</v>
@@ -23636,7 +23654,7 @@
         <v>70002002</v>
       </c>
       <c r="S233" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T233" s="15">
         <v>0</v>
@@ -23695,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="S234" s="10" t="s">
-        <v>370</v>
+        <v>437</v>
       </c>
       <c r="T234" s="15">
         <v>0</v>
@@ -23814,7 +23832,7 @@
         <v>70002001</v>
       </c>
       <c r="S236" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T236" s="15">
         <v>0</v>
@@ -23874,7 +23892,7 @@
         <v>70002002</v>
       </c>
       <c r="S237" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T237" s="15">
         <v>0</v>
@@ -23934,7 +23952,7 @@
         <v>70002004</v>
       </c>
       <c r="S238" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T238" s="15">
         <v>0</v>
@@ -23994,7 +24012,7 @@
         <v>70002005</v>
       </c>
       <c r="S239" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T239" s="15">
         <v>0</v>
@@ -24054,7 +24072,7 @@
         <v>70002008</v>
       </c>
       <c r="S240" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T240" s="15">
         <v>0</v>
@@ -24114,7 +24132,7 @@
         <v>70002009</v>
       </c>
       <c r="S241" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T241" s="15">
         <v>0</v>
@@ -24174,7 +24192,7 @@
         <v>70002010</v>
       </c>
       <c r="S242" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T242" s="15">
         <v>0</v>
@@ -24234,7 +24252,7 @@
         <v>70002005</v>
       </c>
       <c r="S243" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T243" s="15">
         <v>0</v>
@@ -24294,7 +24312,7 @@
         <v>70002001</v>
       </c>
       <c r="S244" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T244" s="15">
         <v>0</v>
@@ -24354,7 +24372,7 @@
         <v>70002002</v>
       </c>
       <c r="S245" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T245" s="15">
         <v>0</v>
@@ -24413,7 +24431,7 @@
         <v>0</v>
       </c>
       <c r="S246" s="10" t="s">
-        <v>371</v>
+        <v>438</v>
       </c>
       <c r="T246" s="15">
         <v>0</v>
@@ -25122,7 +25140,7 @@
         <v>70003001</v>
       </c>
       <c r="S258" s="10" t="s">
-        <v>354</v>
+        <v>435</v>
       </c>
       <c r="T258" s="15">
         <v>0</v>
@@ -25181,8 +25199,8 @@
       <c r="R259" s="21">
         <v>70003002</v>
       </c>
-      <c r="S259" s="10">
-        <v>20</v>
+      <c r="S259" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T259" s="15">
         <v>0</v>
@@ -25241,8 +25259,8 @@
       <c r="R260" s="21">
         <v>70003004</v>
       </c>
-      <c r="S260" s="10">
-        <v>20</v>
+      <c r="S260" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T260" s="15">
         <v>0</v>
@@ -25301,8 +25319,8 @@
       <c r="R261" s="21">
         <v>70003005</v>
       </c>
-      <c r="S261" s="10">
-        <v>20</v>
+      <c r="S261" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T261" s="15">
         <v>0</v>
@@ -25361,8 +25379,8 @@
       <c r="R262" s="21">
         <v>70003007</v>
       </c>
-      <c r="S262" s="10">
-        <v>20</v>
+      <c r="S262" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T262" s="15">
         <v>0</v>
@@ -25421,8 +25439,8 @@
       <c r="R263" s="21">
         <v>70003008</v>
       </c>
-      <c r="S263" s="10">
-        <v>20</v>
+      <c r="S263" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T263" s="15">
         <v>0</v>
@@ -25481,8 +25499,8 @@
       <c r="R264" s="21">
         <v>70003009</v>
       </c>
-      <c r="S264" s="10">
-        <v>20</v>
+      <c r="S264" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T264" s="15">
         <v>0</v>
@@ -25541,8 +25559,8 @@
       <c r="R265" s="21">
         <v>70003010</v>
       </c>
-      <c r="S265" s="10">
-        <v>20</v>
+      <c r="S265" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T265" s="15">
         <v>0</v>
@@ -25601,8 +25619,8 @@
       <c r="R266" s="21">
         <v>70003014</v>
       </c>
-      <c r="S266" s="10">
-        <v>20</v>
+      <c r="S266" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T266" s="15">
         <v>0</v>
@@ -25661,8 +25679,8 @@
       <c r="R267" s="21">
         <v>70003015</v>
       </c>
-      <c r="S267" s="10">
-        <v>20</v>
+      <c r="S267" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T267" s="15">
         <v>0</v>
@@ -25720,8 +25738,8 @@
       <c r="R268" s="10">
         <v>0</v>
       </c>
-      <c r="S268" s="10">
-        <v>20</v>
+      <c r="S268" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="T268" s="15">
         <v>0</v>
@@ -25840,7 +25858,7 @@
         <v>70003001</v>
       </c>
       <c r="S270" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T270" s="15">
         <v>0</v>
@@ -25900,7 +25918,7 @@
         <v>70003002</v>
       </c>
       <c r="S271" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T271" s="15">
         <v>0</v>
@@ -25960,7 +25978,7 @@
         <v>70003004</v>
       </c>
       <c r="S272" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T272" s="15">
         <v>0</v>
@@ -26020,7 +26038,7 @@
         <v>70003005</v>
       </c>
       <c r="S273" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T273" s="15">
         <v>0</v>
@@ -26080,7 +26098,7 @@
         <v>70003007</v>
       </c>
       <c r="S274" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T274" s="15">
         <v>0</v>
@@ -26140,7 +26158,7 @@
         <v>70003008</v>
       </c>
       <c r="S275" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T275" s="15">
         <v>0</v>
@@ -26200,7 +26218,7 @@
         <v>70003009</v>
       </c>
       <c r="S276" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T276" s="15">
         <v>0</v>
@@ -26260,7 +26278,7 @@
         <v>70003010</v>
       </c>
       <c r="S277" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T277" s="15">
         <v>0</v>
@@ -26320,7 +26338,7 @@
         <v>70003014</v>
       </c>
       <c r="S278" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T278" s="15">
         <v>0</v>
@@ -26380,7 +26398,7 @@
         <v>70003015</v>
       </c>
       <c r="S279" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T279" s="15">
         <v>0</v>
@@ -26439,7 +26457,7 @@
         <v>0</v>
       </c>
       <c r="S280" s="10" t="s">
-        <v>370</v>
+        <v>437</v>
       </c>
       <c r="T280" s="15">
         <v>0</v>
@@ -26558,7 +26576,7 @@
         <v>70003001</v>
       </c>
       <c r="S282" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T282" s="15">
         <v>0</v>
@@ -26618,7 +26636,7 @@
         <v>70003002</v>
       </c>
       <c r="S283" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T283" s="15">
         <v>0</v>
@@ -26678,7 +26696,7 @@
         <v>70003004</v>
       </c>
       <c r="S284" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T284" s="15">
         <v>0</v>
@@ -26738,7 +26756,7 @@
         <v>70003005</v>
       </c>
       <c r="S285" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T285" s="15">
         <v>0</v>
@@ -26798,7 +26816,7 @@
         <v>70003007</v>
       </c>
       <c r="S286" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T286" s="15">
         <v>0</v>
@@ -26858,7 +26876,7 @@
         <v>70003008</v>
       </c>
       <c r="S287" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T287" s="15">
         <v>0</v>
@@ -26918,7 +26936,7 @@
         <v>70003009</v>
       </c>
       <c r="S288" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T288" s="15">
         <v>0</v>
@@ -26978,7 +26996,7 @@
         <v>70003010</v>
       </c>
       <c r="S289" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T289" s="15">
         <v>0</v>
@@ -27038,7 +27056,7 @@
         <v>70003014</v>
       </c>
       <c r="S290" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T290" s="15">
         <v>0</v>
@@ -27098,7 +27116,7 @@
         <v>70003015</v>
       </c>
       <c r="S291" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T291" s="15">
         <v>0</v>
@@ -27157,7 +27175,7 @@
         <v>0</v>
       </c>
       <c r="S292" s="10" t="s">
-        <v>371</v>
+        <v>438</v>
       </c>
       <c r="T292" s="15">
         <v>0</v>
@@ -27866,7 +27884,7 @@
         <v>70004001</v>
       </c>
       <c r="S304" s="10" t="s">
-        <v>354</v>
+        <v>435</v>
       </c>
       <c r="T304" s="15">
         <v>0</v>
@@ -27925,8 +27943,8 @@
       <c r="R305" s="22">
         <v>70004002</v>
       </c>
-      <c r="S305" s="10">
-        <v>20</v>
+      <c r="S305" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T305" s="15">
         <v>0</v>
@@ -27985,8 +28003,8 @@
       <c r="R306" s="22">
         <v>70004004</v>
       </c>
-      <c r="S306" s="10">
-        <v>20</v>
+      <c r="S306" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T306" s="15">
         <v>0</v>
@@ -28045,8 +28063,8 @@
       <c r="R307" s="22">
         <v>70004005</v>
       </c>
-      <c r="S307" s="10">
-        <v>20</v>
+      <c r="S307" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T307" s="15">
         <v>0</v>
@@ -28105,8 +28123,8 @@
       <c r="R308" s="21">
         <v>70004005</v>
       </c>
-      <c r="S308" s="10">
-        <v>20</v>
+      <c r="S308" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T308" s="15">
         <v>0</v>
@@ -28165,8 +28183,8 @@
       <c r="R309" s="21">
         <v>70004008</v>
       </c>
-      <c r="S309" s="10">
-        <v>20</v>
+      <c r="S309" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T309" s="15">
         <v>0</v>
@@ -28225,8 +28243,8 @@
       <c r="R310" s="21">
         <v>70004009</v>
       </c>
-      <c r="S310" s="10">
-        <v>20</v>
+      <c r="S310" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T310" s="15">
         <v>0</v>
@@ -28285,8 +28303,8 @@
       <c r="R311" s="21">
         <v>70004011</v>
       </c>
-      <c r="S311" s="10">
-        <v>20</v>
+      <c r="S311" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T311" s="15">
         <v>0</v>
@@ -28345,8 +28363,8 @@
       <c r="R312" s="21">
         <v>70004012</v>
       </c>
-      <c r="S312" s="10">
-        <v>20</v>
+      <c r="S312" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T312" s="15">
         <v>0</v>
@@ -28405,8 +28423,8 @@
       <c r="R313" s="22">
         <v>70004001</v>
       </c>
-      <c r="S313" s="10">
-        <v>20</v>
+      <c r="S313" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T313" s="15">
         <v>0</v>
@@ -28464,8 +28482,8 @@
       <c r="R314" s="10">
         <v>0</v>
       </c>
-      <c r="S314" s="10">
-        <v>20</v>
+      <c r="S314" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="T314" s="15">
         <v>0</v>
@@ -28584,7 +28602,7 @@
         <v>70004001</v>
       </c>
       <c r="S316" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T316" s="15">
         <v>0</v>
@@ -28644,7 +28662,7 @@
         <v>70004002</v>
       </c>
       <c r="S317" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T317" s="15">
         <v>0</v>
@@ -28704,7 +28722,7 @@
         <v>70004004</v>
       </c>
       <c r="S318" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T318" s="15">
         <v>0</v>
@@ -28764,7 +28782,7 @@
         <v>70004005</v>
       </c>
       <c r="S319" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T319" s="15">
         <v>0</v>
@@ -28824,7 +28842,7 @@
         <v>70004005</v>
       </c>
       <c r="S320" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T320" s="15">
         <v>0</v>
@@ -28884,7 +28902,7 @@
         <v>70004008</v>
       </c>
       <c r="S321" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T321" s="15">
         <v>0</v>
@@ -28944,7 +28962,7 @@
         <v>70004009</v>
       </c>
       <c r="S322" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T322" s="15">
         <v>0</v>
@@ -29004,7 +29022,7 @@
         <v>70004011</v>
       </c>
       <c r="S323" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T323" s="15">
         <v>0</v>
@@ -29064,7 +29082,7 @@
         <v>70004012</v>
       </c>
       <c r="S324" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T324" s="15">
         <v>0</v>
@@ -29124,7 +29142,7 @@
         <v>70004001</v>
       </c>
       <c r="S325" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T325" s="15">
         <v>0</v>
@@ -29183,7 +29201,7 @@
         <v>0</v>
       </c>
       <c r="S326" s="10" t="s">
-        <v>370</v>
+        <v>437</v>
       </c>
       <c r="T326" s="15">
         <v>0</v>
@@ -29302,7 +29320,7 @@
         <v>70004001</v>
       </c>
       <c r="S328" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T328" s="15">
         <v>0</v>
@@ -29362,7 +29380,7 @@
         <v>70004002</v>
       </c>
       <c r="S329" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T329" s="15">
         <v>0</v>
@@ -29422,7 +29440,7 @@
         <v>70004004</v>
       </c>
       <c r="S330" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T330" s="15">
         <v>0</v>
@@ -29482,7 +29500,7 @@
         <v>70004005</v>
       </c>
       <c r="S331" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T331" s="15">
         <v>0</v>
@@ -29542,7 +29560,7 @@
         <v>70004005</v>
       </c>
       <c r="S332" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T332" s="15">
         <v>0</v>
@@ -29602,7 +29620,7 @@
         <v>70004008</v>
       </c>
       <c r="S333" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T333" s="15">
         <v>0</v>
@@ -29662,7 +29680,7 @@
         <v>70004009</v>
       </c>
       <c r="S334" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T334" s="15">
         <v>0</v>
@@ -29722,7 +29740,7 @@
         <v>70004011</v>
       </c>
       <c r="S335" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T335" s="15">
         <v>0</v>
@@ -29782,7 +29800,7 @@
         <v>70004012</v>
       </c>
       <c r="S336" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T336" s="15">
         <v>0</v>
@@ -29842,7 +29860,7 @@
         <v>70004001</v>
       </c>
       <c r="S337" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T337" s="15">
         <v>0</v>
@@ -29901,7 +29919,7 @@
         <v>0</v>
       </c>
       <c r="S338" s="10" t="s">
-        <v>371</v>
+        <v>438</v>
       </c>
       <c r="T338" s="15">
         <v>0</v>
@@ -30610,7 +30628,7 @@
         <v>70005001</v>
       </c>
       <c r="S350" s="10" t="s">
-        <v>354</v>
+        <v>435</v>
       </c>
       <c r="T350" s="15">
         <v>0</v>
@@ -30669,8 +30687,8 @@
       <c r="R351" s="21">
         <v>70005002</v>
       </c>
-      <c r="S351" s="10">
-        <v>20</v>
+      <c r="S351" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T351" s="15">
         <v>0</v>
@@ -30729,8 +30747,8 @@
       <c r="R352" s="21">
         <v>70005006</v>
       </c>
-      <c r="S352" s="10">
-        <v>20</v>
+      <c r="S352" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T352" s="15">
         <v>0</v>
@@ -30789,8 +30807,8 @@
       <c r="R353" s="22">
         <v>70005006</v>
       </c>
-      <c r="S353" s="10">
-        <v>20</v>
+      <c r="S353" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T353" s="15">
         <v>0</v>
@@ -30849,8 +30867,8 @@
       <c r="R354" s="22">
         <v>70005002</v>
       </c>
-      <c r="S354" s="10">
-        <v>20</v>
+      <c r="S354" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T354" s="15">
         <v>0</v>
@@ -30909,8 +30927,8 @@
       <c r="R355" s="22">
         <v>70005010</v>
       </c>
-      <c r="S355" s="10">
-        <v>20</v>
+      <c r="S355" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T355" s="15">
         <v>0</v>
@@ -30969,8 +30987,8 @@
       <c r="R356" s="21">
         <v>70005010</v>
       </c>
-      <c r="S356" s="10">
-        <v>20</v>
+      <c r="S356" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T356" s="15">
         <v>0</v>
@@ -31029,8 +31047,8 @@
       <c r="R357" s="21">
         <v>70005001</v>
       </c>
-      <c r="S357" s="10">
-        <v>20</v>
+      <c r="S357" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T357" s="15">
         <v>0</v>
@@ -31089,8 +31107,8 @@
       <c r="R358" s="21">
         <v>70005002</v>
       </c>
-      <c r="S358" s="10">
-        <v>20</v>
+      <c r="S358" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T358" s="15">
         <v>0</v>
@@ -31149,8 +31167,8 @@
       <c r="R359" s="21">
         <v>70005006</v>
       </c>
-      <c r="S359" s="10">
-        <v>20</v>
+      <c r="S359" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="T359" s="15">
         <v>0</v>
@@ -31208,8 +31226,8 @@
       <c r="R360" s="10">
         <v>0</v>
       </c>
-      <c r="S360" s="10">
-        <v>20</v>
+      <c r="S360" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="T360" s="15">
         <v>0</v>
@@ -31328,7 +31346,7 @@
         <v>70005001</v>
       </c>
       <c r="S362" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T362" s="15">
         <v>0</v>
@@ -31388,7 +31406,7 @@
         <v>70005002</v>
       </c>
       <c r="S363" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T363" s="15">
         <v>0</v>
@@ -31448,7 +31466,7 @@
         <v>70005006</v>
       </c>
       <c r="S364" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T364" s="15">
         <v>0</v>
@@ -31508,7 +31526,7 @@
         <v>70005006</v>
       </c>
       <c r="S365" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T365" s="15">
         <v>0</v>
@@ -31568,7 +31586,7 @@
         <v>70005002</v>
       </c>
       <c r="S366" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T366" s="15">
         <v>0</v>
@@ -31628,7 +31646,7 @@
         <v>70005010</v>
       </c>
       <c r="S367" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T367" s="15">
         <v>0</v>
@@ -31688,7 +31706,7 @@
         <v>70005010</v>
       </c>
       <c r="S368" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T368" s="15">
         <v>0</v>
@@ -31748,7 +31766,7 @@
         <v>70005001</v>
       </c>
       <c r="S369" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T369" s="15">
         <v>0</v>
@@ -31808,7 +31826,7 @@
         <v>70005002</v>
       </c>
       <c r="S370" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T370" s="15">
         <v>0</v>
@@ -31868,7 +31886,7 @@
         <v>70005006</v>
       </c>
       <c r="S371" s="10" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="T371" s="15">
         <v>0</v>
@@ -31927,7 +31945,7 @@
         <v>0</v>
       </c>
       <c r="S372" s="10" t="s">
-        <v>370</v>
+        <v>437</v>
       </c>
       <c r="T372" s="15">
         <v>0</v>
@@ -32046,7 +32064,7 @@
         <v>70005001</v>
       </c>
       <c r="S374" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T374" s="15">
         <v>0</v>
@@ -32106,7 +32124,7 @@
         <v>70005002</v>
       </c>
       <c r="S375" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T375" s="15">
         <v>0</v>
@@ -32166,7 +32184,7 @@
         <v>70005006</v>
       </c>
       <c r="S376" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T376" s="15">
         <v>0</v>
@@ -32226,7 +32244,7 @@
         <v>70005006</v>
       </c>
       <c r="S377" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T377" s="15">
         <v>0</v>
@@ -32286,7 +32304,7 @@
         <v>70005002</v>
       </c>
       <c r="S378" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T378" s="15">
         <v>0</v>
@@ -32346,7 +32364,7 @@
         <v>70005010</v>
       </c>
       <c r="S379" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T379" s="15">
         <v>0</v>
@@ -32406,7 +32424,7 @@
         <v>70005010</v>
       </c>
       <c r="S380" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T380" s="15">
         <v>0</v>
@@ -32466,7 +32484,7 @@
         <v>70005001</v>
       </c>
       <c r="S381" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T381" s="15">
         <v>0</v>
@@ -32526,7 +32544,7 @@
         <v>70005002</v>
       </c>
       <c r="S382" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T382" s="15">
         <v>0</v>
@@ -32586,7 +32604,7 @@
         <v>70005006</v>
       </c>
       <c r="S383" s="10" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="T383" s="15">
         <v>0</v>
@@ -32644,8 +32662,8 @@
       <c r="R384" s="10">
         <v>0</v>
       </c>
-      <c r="S384" s="10">
-        <v>100</v>
+      <c r="S384" s="10" t="s">
+        <v>438</v>
       </c>
       <c r="T384" s="15">
         <v>0</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C722705-6172-427B-A8C9-717B77F44197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7ED17B-66F4-4DB0-85F3-4984354B627E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9937,19 +9937,17 @@
   <dimension ref="A1:AB450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S169" sqref="S169"/>
+      <pane ySplit="5" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F432" sqref="F432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="7" width="15.625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="17" width="15.625" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="15.625" customWidth="1"/>
+    <col min="3" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
+    <col min="9" max="19" width="15.625" customWidth="1"/>
     <col min="20" max="20" width="28.125" customWidth="1"/>
     <col min="21" max="21" width="56.875" customWidth="1"/>
   </cols>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0593A65A-AD50-45C9-B510-1C268E802937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985966EE-B471-4380-9F5C-36FE74FCE392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TaskProto!$Q$1:$Q$165</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -548,7 +548,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="436">
   <si>
     <t>Id</t>
   </si>
@@ -1915,6 +1915,10 @@
   </si>
   <si>
     <t>7</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -9869,8 +9873,8 @@
   <dimension ref="A1:AB450"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A380" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G392" sqref="G392"/>
+      <pane ySplit="5" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F451" sqref="F451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36334,7 +36338,7 @@
         <v>433</v>
       </c>
       <c r="F446" s="10" t="s">
-        <v>378</v>
+        <v>435</v>
       </c>
       <c r="G446" s="39" t="s">
         <v>434</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985966EE-B471-4380-9F5C-36FE74FCE392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CBBA2D-C46E-41CB-9DEF-8105EA50CCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TaskProto!$Q$1:$Q$165</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -52,6 +52,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">主线任务
 </t>
@@ -68,6 +70,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：支线任务
 </t>
@@ -84,6 +88,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：每日任务
 </t>
@@ -100,6 +106,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：试炼任务
 </t>
@@ -116,6 +124,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：每周任务
 </t>
@@ -132,6 +142,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>：</t>
         </r>
@@ -147,6 +159,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">藏宝图任务
 </t>
@@ -163,6 +177,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>：家族任务</t>
         </r>
@@ -192,6 +208,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">备用
 </t>
@@ -200,6 +218,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>属于前面大类中的分类</t>
         </r>
@@ -229,6 +249,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>作者</t>
         </r>
@@ -253,6 +275,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：等级触发
 </t>
@@ -269,6 +293,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：任务触发
 </t>
@@ -285,6 +311,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>：直接触发下一级任务</t>
         </r>
@@ -314,6 +342,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>作者</t>
         </r>
@@ -338,6 +368,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：杀怪
 </t>
@@ -354,6 +386,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>：道具</t>
         </r>
@@ -378,6 +412,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：找人
 </t>
@@ -394,6 +430,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：等级达到指定等级
 </t>
@@ -410,6 +448,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">：击杀任意怪物
 </t>
@@ -426,6 +466,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t>：击杀任意</t>
         </r>
@@ -441,6 +483,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">级别怪物
 </t>
@@ -449,6 +493,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">7：通关某个副本
 </t>
@@ -457,6 +503,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">8：转职任务
 </t>
@@ -465,6 +513,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">101：击杀挑战难度的指定ID怪物(击杀地狱也算)
 </t>
@@ -473,6 +523,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">102：击杀地狱你拿度指定ID怪物
 </t>
@@ -481,6 +533,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">111：通关挑战难度的副本(通关地狱也算)
 </t>
@@ -489,6 +543,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">112：通关地狱难度的副本
 </t>
@@ -497,6 +553,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">121：击败挑战难度任意数量怪物(通关地狱也算)
 </t>
@@ -505,6 +563,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">122：击败地狱难度任意数量怪物
 </t>
@@ -513,6 +573,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">131：击败挑战难度任意boss怪物(通关地狱也算)
 </t>
@@ -521,6 +583,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">132：击败地狱难度任意boss怪物
 </t>
@@ -529,6 +593,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -537,6 +603,8 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -720,6 +788,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>找到流浪者,他好像有什么话说</t>
     </r>
@@ -728,6 +798,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -741,6 +813,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>找到了流浪者,回去告诉村长</t>
     </r>
@@ -749,6 +823,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -834,6 +910,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>前往绿叶郊外,找到勇士一起冒险</t>
     </r>
@@ -842,6 +920,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -855,6 +935,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>清除完这些蜘蛛,道路似乎干净了许多</t>
     </r>
@@ -863,6 +945,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1949,12 +2033,16 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1962,44 +2050,60 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2022,6 +2126,8 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -9872,9 +9978,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F451" sqref="F451"/>
+      <selection pane="bottomLeft" activeCell="N455" sqref="N455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36359,16 +36465,16 @@
         <v>31740</v>
       </c>
       <c r="M446" s="9">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N446" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O446" s="11">
         <v>0</v>
       </c>
       <c r="P446" s="9">
-        <v>20000024</v>
+        <v>20000102</v>
       </c>
       <c r="Q446" s="10">
         <v>1</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CBBA2D-C46E-41CB-9DEF-8105EA50CCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71163FDC-1E20-4798-9AB4-C87AC53BD752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TaskProto!$Q$1:$Q$165</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -616,7 +629,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="437">
   <si>
     <t>Id</t>
   </si>
@@ -2003,6 +2016,10 @@
   </si>
   <si>
     <t>100</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -9978,9 +9995,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N455" sqref="N455"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10881,8 +10898,8 @@
       <c r="R17" s="9">
         <v>10021002</v>
       </c>
-      <c r="S17" s="10">
-        <v>5</v>
+      <c r="S17" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="T17" s="9">
         <v>100102</v>
@@ -10940,8 +10957,8 @@
       <c r="R18" s="9">
         <v>10021003</v>
       </c>
-      <c r="S18" s="10">
-        <v>5</v>
+      <c r="S18" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="T18" s="9">
         <v>100103</v>
@@ -11117,8 +11134,8 @@
       <c r="R21" s="9">
         <v>10020007</v>
       </c>
-      <c r="S21" s="10">
-        <v>5</v>
+      <c r="S21" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="T21" s="9">
         <v>100202</v>
@@ -11176,8 +11193,8 @@
       <c r="R22" s="9">
         <v>70001006</v>
       </c>
-      <c r="S22" s="10">
-        <v>5</v>
+      <c r="S22" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="T22" s="9">
         <v>100203</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71163FDC-1E20-4798-9AB4-C87AC53BD752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F6A4CE-8302-47D0-AB53-0BCF582D074B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TaskProto!$Q$1:$Q$165</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -629,7 +616,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="441">
   <si>
     <t>Id</t>
   </si>
@@ -2003,31 +1990,43 @@
     <t>通缉江洋大盗,听说他身上藏有绝密的藏宝图!</t>
   </si>
   <si>
-    <t>家族狩猎</t>
+    <t>3</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
+    <t>10</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一些家族任务,完成可以获得并且给家族增加经验噢~</t>
   </si>
   <si>
     <t>7</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
+    <t>17;16</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
+    <t>5;5</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>家族:轻度狩猎</t>
+  </si>
+  <si>
+    <t>家族:轻度捕猎</t>
+  </si>
+  <si>
+    <t>家族:收集</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2145,14 +2144,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="30">
@@ -7741,7 +7732,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7851,9 +7842,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9993,11 +9981,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB450"/>
+  <dimension ref="A1:AB550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L545" sqref="L545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10899,7 +10887,7 @@
         <v>10021002</v>
       </c>
       <c r="S17" s="10" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="T17" s="9">
         <v>100102</v>
@@ -10958,7 +10946,7 @@
         <v>10021003</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="T18" s="9">
         <v>100103</v>
@@ -11135,7 +11123,7 @@
         <v>10020007</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="T21" s="9">
         <v>100202</v>
@@ -11194,7 +11182,7 @@
         <v>70001006</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="T22" s="9">
         <v>100203</v>
@@ -36452,20 +36440,20 @@
     <row r="446" spans="2:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B446" s="20"/>
       <c r="C446" s="9">
-        <v>70004101</v>
-      </c>
-      <c r="D446" s="39" t="s">
-        <v>432</v>
-      </c>
-      <c r="E446" s="39" t="s">
-        <v>433</v>
+        <v>70001101</v>
+      </c>
+      <c r="D446" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E446" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="F446" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G446" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="G446" s="39" t="s">
-        <v>434</v>
-      </c>
       <c r="H446" s="10">
         <v>0</v>
       </c>
@@ -36476,16 +36464,16 @@
         <v>0</v>
       </c>
       <c r="K446" s="9">
-        <v>100</v>
+        <v>7500</v>
       </c>
       <c r="L446" s="9">
-        <v>31740</v>
-      </c>
-      <c r="M446" s="9">
-        <v>17</v>
-      </c>
-      <c r="N446" s="9">
-        <v>10</v>
+        <v>5000</v>
+      </c>
+      <c r="M446" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N446" s="9" t="s">
+        <v>437</v>
       </c>
       <c r="O446" s="11">
         <v>0</v>
@@ -36496,8 +36484,8 @@
       <c r="Q446" s="10">
         <v>1</v>
       </c>
-      <c r="R446" s="22">
-        <v>70004001</v>
+      <c r="R446" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="S446" s="10" t="s">
         <v>220</v>
@@ -36506,13 +36494,6194 @@
         <v>0</v>
       </c>
       <c r="U446" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="447" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="447" spans="2:28" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B447" s="21"/>
+      <c r="C447" s="9">
+        <v>70001102</v>
+      </c>
+      <c r="D447" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E447" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F447" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G447" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H447" s="10">
+        <v>0</v>
+      </c>
+      <c r="I447" s="9">
+        <v>1</v>
+      </c>
+      <c r="J447" s="9">
+        <v>0</v>
+      </c>
+      <c r="K447" s="9">
+        <v>7500</v>
+      </c>
+      <c r="L447" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M447" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N447" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O447" s="11">
+        <v>0</v>
+      </c>
+      <c r="P447" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q447" s="15">
+        <v>1</v>
+      </c>
+      <c r="R447" s="15">
+        <v>70001002</v>
+      </c>
+      <c r="S447" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T447" s="15">
+        <v>0</v>
+      </c>
+      <c r="U447" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="448" spans="2:28" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B448" s="21"/>
+      <c r="C448" s="9">
+        <v>70001103</v>
+      </c>
+      <c r="D448" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E448" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F448" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G448" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H448" s="10">
+        <v>0</v>
+      </c>
+      <c r="I448" s="9">
+        <v>1</v>
+      </c>
+      <c r="J448" s="9">
+        <v>0</v>
+      </c>
+      <c r="K448" s="9">
+        <v>7500</v>
+      </c>
+      <c r="L448" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M448" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N448" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O448" s="11">
+        <v>0</v>
+      </c>
+      <c r="P448" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q448" s="15">
+        <v>1</v>
+      </c>
+      <c r="R448" s="15">
+        <v>70001003</v>
+      </c>
+      <c r="S448" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T448" s="15">
+        <v>0</v>
+      </c>
+      <c r="U448" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="449" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B449" s="21"/>
+      <c r="C449" s="9">
+        <v>70001104</v>
+      </c>
+      <c r="D449" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E449" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="F449" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G449" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H449" s="10">
+        <v>0</v>
+      </c>
+      <c r="I449" s="9">
+        <v>1</v>
+      </c>
+      <c r="J449" s="9">
+        <v>0</v>
+      </c>
+      <c r="K449" s="9">
+        <v>7500</v>
+      </c>
+      <c r="L449" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M449" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N449" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O449" s="11">
+        <v>0</v>
+      </c>
+      <c r="P449" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q449" s="15">
+        <v>1</v>
+      </c>
+      <c r="R449" s="15">
+        <v>70001005</v>
+      </c>
+      <c r="S449" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T449" s="15">
+        <v>0</v>
+      </c>
+      <c r="U449" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="450" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B450" s="21"/>
+      <c r="C450" s="9">
+        <v>70001105</v>
+      </c>
+      <c r="D450" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E450" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="F450" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G450" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H450" s="10">
+        <v>0</v>
+      </c>
+      <c r="I450" s="9">
+        <v>1</v>
+      </c>
+      <c r="J450" s="9">
+        <v>0</v>
+      </c>
+      <c r="K450" s="9">
+        <v>7500</v>
+      </c>
+      <c r="L450" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M450" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N450" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O450" s="11">
+        <v>0</v>
+      </c>
+      <c r="P450" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q450" s="15">
+        <v>1</v>
+      </c>
+      <c r="R450" s="15">
+        <v>70001006</v>
+      </c>
+      <c r="S450" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T450" s="15">
+        <v>0</v>
+      </c>
+      <c r="U450" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="451" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B451" s="22"/>
+      <c r="C451" s="9">
+        <v>70001106</v>
+      </c>
+      <c r="D451" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E451" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="F451" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G451" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H451" s="10">
+        <v>0</v>
+      </c>
+      <c r="I451" s="9">
+        <v>1</v>
+      </c>
+      <c r="J451" s="9">
+        <v>0</v>
+      </c>
+      <c r="K451" s="9">
+        <v>7500</v>
+      </c>
+      <c r="L451" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M451" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N451" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O451" s="11">
+        <v>0</v>
+      </c>
+      <c r="P451" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q451" s="15">
+        <v>1</v>
+      </c>
+      <c r="R451" s="15">
+        <v>70001007</v>
+      </c>
+      <c r="S451" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T451" s="15">
+        <v>0</v>
+      </c>
+      <c r="U451" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="452" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B452" s="21"/>
+      <c r="C452" s="9">
+        <v>70001107</v>
+      </c>
+      <c r="D452" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E452" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="F452" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G452" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H452" s="10">
+        <v>0</v>
+      </c>
+      <c r="I452" s="9">
+        <v>1</v>
+      </c>
+      <c r="J452" s="9">
+        <v>0</v>
+      </c>
+      <c r="K452" s="9">
+        <v>7500</v>
+      </c>
+      <c r="L452" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M452" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N452" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O452" s="11">
+        <v>0</v>
+      </c>
+      <c r="P452" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q452" s="15">
+        <v>1</v>
+      </c>
+      <c r="R452" s="15">
+        <v>70001010</v>
+      </c>
+      <c r="S452" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T452" s="15">
+        <v>0</v>
+      </c>
+      <c r="U452" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="453" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B453" s="21"/>
+      <c r="C453" s="9">
+        <v>70001108</v>
+      </c>
+      <c r="D453" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E453" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F453" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G453" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H453" s="10">
+        <v>0</v>
+      </c>
+      <c r="I453" s="9">
+        <v>1</v>
+      </c>
+      <c r="J453" s="9">
+        <v>0</v>
+      </c>
+      <c r="K453" s="9">
+        <v>7500</v>
+      </c>
+      <c r="L453" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M453" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N453" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O453" s="11">
+        <v>0</v>
+      </c>
+      <c r="P453" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q453" s="15">
+        <v>1</v>
+      </c>
+      <c r="R453" s="15">
+        <v>70001101</v>
+      </c>
+      <c r="S453" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T453" s="15">
+        <v>0</v>
+      </c>
+      <c r="U453" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="454" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B454" s="22"/>
+      <c r="C454" s="9">
+        <v>70001109</v>
+      </c>
+      <c r="D454" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E454" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F454" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G454" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H454" s="10">
+        <v>0</v>
+      </c>
+      <c r="I454" s="9">
+        <v>1</v>
+      </c>
+      <c r="J454" s="9">
+        <v>0</v>
+      </c>
+      <c r="K454" s="9">
+        <v>7500</v>
+      </c>
+      <c r="L454" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M454" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N454" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O454" s="11">
+        <v>0</v>
+      </c>
+      <c r="P454" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q454" s="15">
+        <v>1</v>
+      </c>
+      <c r="R454" s="15">
+        <v>70001002</v>
+      </c>
+      <c r="S454" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T454" s="15">
+        <v>0</v>
+      </c>
+      <c r="U454" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="455" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B455" s="22"/>
+      <c r="C455" s="9">
+        <v>70001110</v>
+      </c>
+      <c r="D455" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E455" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F455" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G455" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H455" s="10">
+        <v>0</v>
+      </c>
+      <c r="I455" s="9">
+        <v>1</v>
+      </c>
+      <c r="J455" s="9">
+        <v>0</v>
+      </c>
+      <c r="K455" s="9">
+        <v>7500</v>
+      </c>
+      <c r="L455" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M455" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N455" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O455" s="11">
+        <v>0</v>
+      </c>
+      <c r="P455" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q455" s="15">
+        <v>1</v>
+      </c>
+      <c r="R455" s="15">
+        <v>70001103</v>
+      </c>
+      <c r="S455" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T455" s="15">
+        <v>0</v>
+      </c>
+      <c r="U455" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="456" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C456" s="9">
+        <v>70001111</v>
+      </c>
+      <c r="D456" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E456" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F456" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G456" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H456" s="10">
+        <v>0</v>
+      </c>
+      <c r="I456" s="9">
+        <v>1</v>
+      </c>
+      <c r="J456" s="9">
+        <v>0</v>
+      </c>
+      <c r="K456" s="9">
+        <v>7500</v>
+      </c>
+      <c r="L456" s="9">
+        <v>5000</v>
+      </c>
+      <c r="M456" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N456" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O456" s="11">
+        <v>0</v>
+      </c>
+      <c r="P456" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q456" s="15">
+        <v>5</v>
+      </c>
+      <c r="R456" s="15">
+        <v>0</v>
+      </c>
+      <c r="S456" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="T456" s="15">
+        <v>0</v>
+      </c>
+      <c r="U456" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="457" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C457" s="9">
+        <v>70001401</v>
+      </c>
+      <c r="D457" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E457" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F457" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G457" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H457" s="10">
+        <v>0</v>
+      </c>
+      <c r="I457" s="9">
+        <v>1</v>
+      </c>
+      <c r="J457" s="9">
+        <v>0</v>
+      </c>
+      <c r="K457" s="9">
+        <v>9000</v>
+      </c>
+      <c r="L457" s="9">
+        <v>8750</v>
+      </c>
+      <c r="M457" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N457" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O457" s="11">
+        <v>0</v>
+      </c>
+      <c r="P457" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q457" s="10">
+        <v>2</v>
+      </c>
+      <c r="R457" s="15">
+        <v>10021001</v>
+      </c>
+      <c r="S457" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="T457" s="15">
+        <v>0</v>
+      </c>
+      <c r="U457" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="458" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C458" s="9">
+        <v>70001402</v>
+      </c>
+      <c r="D458" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E458" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F458" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G458" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H458" s="10">
+        <v>0</v>
+      </c>
+      <c r="I458" s="9">
+        <v>1</v>
+      </c>
+      <c r="J458" s="9">
+        <v>0</v>
+      </c>
+      <c r="K458" s="9">
+        <v>9000</v>
+      </c>
+      <c r="L458" s="9">
+        <v>8750</v>
+      </c>
+      <c r="M458" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N458" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O458" s="11">
+        <v>0</v>
+      </c>
+      <c r="P458" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q458" s="10">
+        <v>2</v>
+      </c>
+      <c r="R458" s="15">
+        <v>10021002</v>
+      </c>
+      <c r="S458" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="T458" s="15">
+        <v>0</v>
+      </c>
+      <c r="U458" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="459" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C459" s="9">
+        <v>70001403</v>
+      </c>
+      <c r="D459" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E459" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F459" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G459" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H459" s="10">
+        <v>0</v>
+      </c>
+      <c r="I459" s="9">
+        <v>1</v>
+      </c>
+      <c r="J459" s="9">
+        <v>0</v>
+      </c>
+      <c r="K459" s="9">
+        <v>9000</v>
+      </c>
+      <c r="L459" s="9">
+        <v>8750</v>
+      </c>
+      <c r="M459" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N459" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O459" s="11">
+        <v>0</v>
+      </c>
+      <c r="P459" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q459" s="10">
+        <v>2</v>
+      </c>
+      <c r="R459" s="15">
+        <v>10021003</v>
+      </c>
+      <c r="S459" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="T459" s="15">
+        <v>0</v>
+      </c>
+      <c r="U459" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="460" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C460" s="9">
+        <v>70001404</v>
+      </c>
+      <c r="D460" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E460" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F460" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G460" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H460" s="10">
+        <v>0</v>
+      </c>
+      <c r="I460" s="9">
+        <v>1</v>
+      </c>
+      <c r="J460" s="9">
+        <v>0</v>
+      </c>
+      <c r="K460" s="9">
+        <v>9000</v>
+      </c>
+      <c r="L460" s="9">
+        <v>8750</v>
+      </c>
+      <c r="M460" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N460" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O460" s="11">
+        <v>0</v>
+      </c>
+      <c r="P460" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q460" s="10">
+        <v>2</v>
+      </c>
+      <c r="R460" s="15">
+        <v>10021004</v>
+      </c>
+      <c r="S460" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="T460" s="15">
+        <v>0</v>
+      </c>
+      <c r="U460" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="461" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C461" s="9">
+        <v>70001405</v>
+      </c>
+      <c r="D461" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E461" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F461" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G461" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H461" s="10">
+        <v>0</v>
+      </c>
+      <c r="I461" s="9">
+        <v>1</v>
+      </c>
+      <c r="J461" s="9">
+        <v>0</v>
+      </c>
+      <c r="K461" s="9">
+        <v>9000</v>
+      </c>
+      <c r="L461" s="9">
+        <v>8750</v>
+      </c>
+      <c r="M461" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N461" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O461" s="11">
+        <v>0</v>
+      </c>
+      <c r="P461" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q461" s="10">
+        <v>2</v>
+      </c>
+      <c r="R461" s="15">
+        <v>10021005</v>
+      </c>
+      <c r="S461" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="T461" s="15">
+        <v>0</v>
+      </c>
+      <c r="U461" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="462" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C462" s="9">
+        <v>70001406</v>
+      </c>
+      <c r="D462" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E462" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F462" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G462" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H462" s="10">
+        <v>0</v>
+      </c>
+      <c r="I462" s="9">
+        <v>1</v>
+      </c>
+      <c r="J462" s="9">
+        <v>0</v>
+      </c>
+      <c r="K462" s="9">
+        <v>9000</v>
+      </c>
+      <c r="L462" s="9">
+        <v>8750</v>
+      </c>
+      <c r="M462" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N462" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O462" s="11">
+        <v>0</v>
+      </c>
+      <c r="P462" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q462" s="10">
+        <v>2</v>
+      </c>
+      <c r="R462" s="15">
+        <v>10021006</v>
+      </c>
+      <c r="S462" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="T462" s="15">
+        <v>0</v>
+      </c>
+      <c r="U462" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="463" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C463" s="9">
+        <v>70001407</v>
+      </c>
+      <c r="D463" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E463" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F463" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G463" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H463" s="10">
+        <v>0</v>
+      </c>
+      <c r="I463" s="9">
+        <v>1</v>
+      </c>
+      <c r="J463" s="9">
+        <v>0</v>
+      </c>
+      <c r="K463" s="9">
+        <v>9000</v>
+      </c>
+      <c r="L463" s="9">
+        <v>8750</v>
+      </c>
+      <c r="M463" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N463" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O463" s="11">
+        <v>0</v>
+      </c>
+      <c r="P463" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q463" s="10">
+        <v>2</v>
+      </c>
+      <c r="R463" s="15">
+        <v>10021007</v>
+      </c>
+      <c r="S463" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="T463" s="15">
+        <v>0</v>
+      </c>
+      <c r="U463" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="464" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C464" s="9">
+        <v>70001408</v>
+      </c>
+      <c r="D464" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E464" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F464" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G464" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H464" s="10">
+        <v>0</v>
+      </c>
+      <c r="I464" s="9">
+        <v>1</v>
+      </c>
+      <c r="J464" s="9">
+        <v>0</v>
+      </c>
+      <c r="K464" s="9">
+        <v>9000</v>
+      </c>
+      <c r="L464" s="9">
+        <v>12500</v>
+      </c>
+      <c r="M464" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N464" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O464" s="11">
+        <v>0</v>
+      </c>
+      <c r="P464" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q464" s="10">
+        <v>2</v>
+      </c>
+      <c r="R464" s="15">
+        <v>10021008</v>
+      </c>
+      <c r="S464" s="26">
+        <v>1</v>
+      </c>
+      <c r="T464" s="15">
+        <v>0</v>
+      </c>
+      <c r="U464" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="465" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C465" s="9">
+        <v>70001409</v>
+      </c>
+      <c r="D465" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E465" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F465" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G465" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H465" s="10">
+        <v>0</v>
+      </c>
+      <c r="I465" s="9">
+        <v>1</v>
+      </c>
+      <c r="J465" s="9">
+        <v>0</v>
+      </c>
+      <c r="K465" s="9">
+        <v>9000</v>
+      </c>
+      <c r="L465" s="9">
+        <v>12500</v>
+      </c>
+      <c r="M465" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N465" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O465" s="11">
+        <v>0</v>
+      </c>
+      <c r="P465" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q465" s="10">
+        <v>2</v>
+      </c>
+      <c r="R465" s="15">
+        <v>10021009</v>
+      </c>
+      <c r="S465" s="26">
+        <v>1</v>
+      </c>
+      <c r="T465" s="15">
+        <v>0</v>
+      </c>
+      <c r="U465" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="466" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C466" s="9">
+        <v>70001410</v>
+      </c>
+      <c r="D466" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E466" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F466" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G466" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H466" s="10">
+        <v>0</v>
+      </c>
+      <c r="I466" s="9">
+        <v>1</v>
+      </c>
+      <c r="J466" s="9">
+        <v>0</v>
+      </c>
+      <c r="K466" s="9">
+        <v>9000</v>
+      </c>
+      <c r="L466" s="9">
+        <v>8750</v>
+      </c>
+      <c r="M466" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N466" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O466" s="11">
+        <v>0</v>
+      </c>
+      <c r="P466" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q466" s="10">
+        <v>2</v>
+      </c>
+      <c r="R466" s="15">
+        <v>10021010</v>
+      </c>
+      <c r="S466" s="26">
+        <v>10</v>
+      </c>
+      <c r="T466" s="15">
+        <v>0</v>
+      </c>
+      <c r="U466" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="467" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B467" s="20"/>
+      <c r="C467" s="9">
+        <v>70002101</v>
+      </c>
+      <c r="D467" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E467" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F467" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G467" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H467" s="10">
+        <v>0</v>
+      </c>
+      <c r="I467" s="9">
+        <v>1</v>
+      </c>
+      <c r="J467" s="9">
+        <v>0</v>
+      </c>
+      <c r="K467" s="9">
+        <v>9000</v>
+      </c>
+      <c r="L467" s="9">
+        <v>6000</v>
+      </c>
+      <c r="M467" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N467" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O467" s="11">
+        <v>0</v>
+      </c>
+      <c r="P467" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q467" s="10">
+        <v>1</v>
+      </c>
+      <c r="R467" s="10">
+        <v>70002001</v>
+      </c>
+      <c r="S467" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T467" s="15">
+        <v>0</v>
+      </c>
+      <c r="U467" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="468" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B468" s="21"/>
+      <c r="C468" s="9">
+        <v>70002102</v>
+      </c>
+      <c r="D468" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E468" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F468" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G468" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H468" s="10">
+        <v>0</v>
+      </c>
+      <c r="I468" s="9">
+        <v>1</v>
+      </c>
+      <c r="J468" s="9">
+        <v>0</v>
+      </c>
+      <c r="K468" s="9">
+        <v>12000</v>
+      </c>
+      <c r="L468" s="9">
+        <v>6000</v>
+      </c>
+      <c r="M468" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N468" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O468" s="11">
+        <v>0</v>
+      </c>
+      <c r="P468" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q468" s="10">
+        <v>1</v>
+      </c>
+      <c r="R468" s="10">
+        <v>70002002</v>
+      </c>
+      <c r="S468" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T468" s="15">
+        <v>0</v>
+      </c>
+      <c r="U468" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="469" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B469" s="21"/>
+      <c r="C469" s="9">
+        <v>70002103</v>
+      </c>
+      <c r="D469" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E469" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F469" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G469" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H469" s="10">
+        <v>0</v>
+      </c>
+      <c r="I469" s="9">
+        <v>1</v>
+      </c>
+      <c r="J469" s="9">
+        <v>0</v>
+      </c>
+      <c r="K469" s="9">
+        <v>12000</v>
+      </c>
+      <c r="L469" s="9">
+        <v>6000</v>
+      </c>
+      <c r="M469" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N469" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O469" s="11">
+        <v>0</v>
+      </c>
+      <c r="P469" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q469" s="10">
+        <v>1</v>
+      </c>
+      <c r="R469" s="10">
+        <v>70002004</v>
+      </c>
+      <c r="S469" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T469" s="15">
+        <v>0</v>
+      </c>
+      <c r="U469" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="470" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B470" s="21"/>
+      <c r="C470" s="9">
+        <v>70002104</v>
+      </c>
+      <c r="D470" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E470" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F470" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G470" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H470" s="10">
+        <v>0</v>
+      </c>
+      <c r="I470" s="9">
+        <v>1</v>
+      </c>
+      <c r="J470" s="9">
+        <v>0</v>
+      </c>
+      <c r="K470" s="9">
+        <v>12000</v>
+      </c>
+      <c r="L470" s="9">
+        <v>6000</v>
+      </c>
+      <c r="M470" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N470" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O470" s="11">
+        <v>0</v>
+      </c>
+      <c r="P470" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q470" s="10">
+        <v>1</v>
+      </c>
+      <c r="R470" s="10">
+        <v>70002005</v>
+      </c>
+      <c r="S470" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T470" s="15">
+        <v>0</v>
+      </c>
+      <c r="U470" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="471" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B471" s="21"/>
+      <c r="C471" s="9">
+        <v>70002105</v>
+      </c>
+      <c r="D471" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E471" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="F471" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G471" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H471" s="10">
+        <v>0</v>
+      </c>
+      <c r="I471" s="9">
+        <v>1</v>
+      </c>
+      <c r="J471" s="9">
+        <v>0</v>
+      </c>
+      <c r="K471" s="9">
+        <v>12000</v>
+      </c>
+      <c r="L471" s="9">
+        <v>6000</v>
+      </c>
+      <c r="M471" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N471" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O471" s="11">
+        <v>0</v>
+      </c>
+      <c r="P471" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q471" s="10">
+        <v>1</v>
+      </c>
+      <c r="R471" s="10">
+        <v>70002008</v>
+      </c>
+      <c r="S471" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T471" s="15">
+        <v>0</v>
+      </c>
+      <c r="U471" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="472" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B472" s="22"/>
+      <c r="C472" s="9">
+        <v>70002106</v>
+      </c>
+      <c r="D472" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E472" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="F472" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G472" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H472" s="10">
+        <v>0</v>
+      </c>
+      <c r="I472" s="9">
+        <v>1</v>
+      </c>
+      <c r="J472" s="9">
+        <v>0</v>
+      </c>
+      <c r="K472" s="9">
+        <v>12000</v>
+      </c>
+      <c r="L472" s="9">
+        <v>6000</v>
+      </c>
+      <c r="M472" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N472" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O472" s="11">
+        <v>0</v>
+      </c>
+      <c r="P472" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q472" s="10">
+        <v>1</v>
+      </c>
+      <c r="R472" s="10">
+        <v>70002009</v>
+      </c>
+      <c r="S472" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T472" s="15">
+        <v>0</v>
+      </c>
+      <c r="U472" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="473" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B473" s="21"/>
+      <c r="C473" s="9">
+        <v>70002107</v>
+      </c>
+      <c r="D473" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E473" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="F473" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G473" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H473" s="10">
+        <v>0</v>
+      </c>
+      <c r="I473" s="9">
+        <v>1</v>
+      </c>
+      <c r="J473" s="9">
+        <v>0</v>
+      </c>
+      <c r="K473" s="9">
+        <v>12000</v>
+      </c>
+      <c r="L473" s="9">
+        <v>6000</v>
+      </c>
+      <c r="M473" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N473" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O473" s="11">
+        <v>0</v>
+      </c>
+      <c r="P473" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q473" s="10">
+        <v>1</v>
+      </c>
+      <c r="R473" s="10">
+        <v>70002010</v>
+      </c>
+      <c r="S473" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T473" s="15">
+        <v>0</v>
+      </c>
+      <c r="U473" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="474" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B474" s="21"/>
+      <c r="C474" s="9">
+        <v>70002108</v>
+      </c>
+      <c r="D474" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E474" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="F474" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G474" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H474" s="10">
+        <v>0</v>
+      </c>
+      <c r="I474" s="9">
+        <v>1</v>
+      </c>
+      <c r="J474" s="9">
+        <v>0</v>
+      </c>
+      <c r="K474" s="9">
+        <v>12000</v>
+      </c>
+      <c r="L474" s="9">
+        <v>6000</v>
+      </c>
+      <c r="M474" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N474" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O474" s="11">
+        <v>0</v>
+      </c>
+      <c r="P474" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q474" s="10">
+        <v>1</v>
+      </c>
+      <c r="R474" s="10">
+        <v>70002005</v>
+      </c>
+      <c r="S474" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T474" s="15">
+        <v>0</v>
+      </c>
+      <c r="U474" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="475" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B475" s="22"/>
+      <c r="C475" s="9">
+        <v>70002109</v>
+      </c>
+      <c r="D475" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E475" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F475" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G475" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H475" s="10">
+        <v>0</v>
+      </c>
+      <c r="I475" s="9">
+        <v>1</v>
+      </c>
+      <c r="J475" s="9">
+        <v>0</v>
+      </c>
+      <c r="K475" s="9">
+        <v>12000</v>
+      </c>
+      <c r="L475" s="9">
+        <v>6000</v>
+      </c>
+      <c r="M475" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N475" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O475" s="11">
+        <v>0</v>
+      </c>
+      <c r="P475" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q475" s="10">
+        <v>1</v>
+      </c>
+      <c r="R475" s="10">
+        <v>70002001</v>
+      </c>
+      <c r="S475" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T475" s="15">
+        <v>0</v>
+      </c>
+      <c r="U475" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="476" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B476" s="22"/>
+      <c r="C476" s="9">
+        <v>70002110</v>
+      </c>
+      <c r="D476" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E476" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F476" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G476" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H476" s="10">
+        <v>0</v>
+      </c>
+      <c r="I476" s="9">
+        <v>1</v>
+      </c>
+      <c r="J476" s="9">
+        <v>0</v>
+      </c>
+      <c r="K476" s="9">
+        <v>12000</v>
+      </c>
+      <c r="L476" s="9">
+        <v>6000</v>
+      </c>
+      <c r="M476" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N476" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O476" s="11">
+        <v>0</v>
+      </c>
+      <c r="P476" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q476" s="10">
+        <v>1</v>
+      </c>
+      <c r="R476" s="10">
+        <v>70002002</v>
+      </c>
+      <c r="S476" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T476" s="15">
+        <v>0</v>
+      </c>
+      <c r="U476" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="477" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C477" s="9">
+        <v>70002111</v>
+      </c>
+      <c r="D477" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E477" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F477" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G477" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H477" s="10">
+        <v>0</v>
+      </c>
+      <c r="I477" s="9">
+        <v>1</v>
+      </c>
+      <c r="J477" s="9">
+        <v>0</v>
+      </c>
+      <c r="K477" s="9">
+        <v>12000</v>
+      </c>
+      <c r="L477" s="9">
+        <v>6000</v>
+      </c>
+      <c r="M477" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N477" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O477" s="11">
+        <v>0</v>
+      </c>
+      <c r="P477" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q477" s="10">
+        <v>5</v>
+      </c>
+      <c r="R477" s="10">
+        <v>0</v>
+      </c>
+      <c r="S477" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="T477" s="15">
+        <v>0</v>
+      </c>
+      <c r="U477" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="478" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C478" s="9">
+        <v>70002401</v>
+      </c>
+      <c r="D478" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E478" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F478" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G478" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H478" s="10">
+        <v>0</v>
+      </c>
+      <c r="I478" s="9">
+        <v>1</v>
+      </c>
+      <c r="J478" s="9">
+        <v>0</v>
+      </c>
+      <c r="K478" s="9">
+        <v>10800</v>
+      </c>
+      <c r="L478" s="9">
+        <v>10500</v>
+      </c>
+      <c r="M478" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N478" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O478" s="11">
+        <v>0</v>
+      </c>
+      <c r="P478" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q478" s="10">
+        <v>2</v>
+      </c>
+      <c r="R478" s="15">
+        <v>10022001</v>
+      </c>
+      <c r="S478" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T478" s="15">
+        <v>0</v>
+      </c>
+      <c r="U478" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="479" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C479" s="9">
+        <v>70002402</v>
+      </c>
+      <c r="D479" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E479" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F479" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G479" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H479" s="10">
+        <v>0</v>
+      </c>
+      <c r="I479" s="9">
+        <v>1</v>
+      </c>
+      <c r="J479" s="9">
+        <v>0</v>
+      </c>
+      <c r="K479" s="9">
+        <v>14400</v>
+      </c>
+      <c r="L479" s="9">
+        <v>10500</v>
+      </c>
+      <c r="M479" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N479" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O479" s="11">
+        <v>0</v>
+      </c>
+      <c r="P479" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q479" s="10">
+        <v>2</v>
+      </c>
+      <c r="R479" s="15">
+        <v>10022002</v>
+      </c>
+      <c r="S479" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T479" s="15">
+        <v>0</v>
+      </c>
+      <c r="U479" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="480" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C480" s="9">
+        <v>70002403</v>
+      </c>
+      <c r="D480" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E480" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F480" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G480" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H480" s="10">
+        <v>0</v>
+      </c>
+      <c r="I480" s="9">
+        <v>1</v>
+      </c>
+      <c r="J480" s="9">
+        <v>0</v>
+      </c>
+      <c r="K480" s="9">
+        <v>14400</v>
+      </c>
+      <c r="L480" s="9">
+        <v>10500</v>
+      </c>
+      <c r="M480" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N480" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O480" s="11">
+        <v>0</v>
+      </c>
+      <c r="P480" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q480" s="10">
+        <v>2</v>
+      </c>
+      <c r="R480" s="15">
+        <v>10022003</v>
+      </c>
+      <c r="S480" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T480" s="15">
+        <v>0</v>
+      </c>
+      <c r="U480" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="481" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C481" s="9">
+        <v>70002404</v>
+      </c>
+      <c r="D481" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E481" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F481" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G481" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H481" s="10">
+        <v>0</v>
+      </c>
+      <c r="I481" s="9">
+        <v>1</v>
+      </c>
+      <c r="J481" s="9">
+        <v>0</v>
+      </c>
+      <c r="K481" s="9">
+        <v>14400</v>
+      </c>
+      <c r="L481" s="9">
+        <v>10500</v>
+      </c>
+      <c r="M481" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N481" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O481" s="11">
+        <v>0</v>
+      </c>
+      <c r="P481" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q481" s="10">
+        <v>2</v>
+      </c>
+      <c r="R481" s="15">
+        <v>10022004</v>
+      </c>
+      <c r="S481" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T481" s="15">
+        <v>0</v>
+      </c>
+      <c r="U481" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="482" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C482" s="9">
+        <v>70002405</v>
+      </c>
+      <c r="D482" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E482" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F482" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G482" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H482" s="10">
+        <v>0</v>
+      </c>
+      <c r="I482" s="9">
+        <v>1</v>
+      </c>
+      <c r="J482" s="9">
+        <v>0</v>
+      </c>
+      <c r="K482" s="9">
+        <v>14400</v>
+      </c>
+      <c r="L482" s="9">
+        <v>10500</v>
+      </c>
+      <c r="M482" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N482" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O482" s="11">
+        <v>0</v>
+      </c>
+      <c r="P482" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q482" s="10">
+        <v>2</v>
+      </c>
+      <c r="R482" s="15">
+        <v>10022005</v>
+      </c>
+      <c r="S482" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T482" s="15">
+        <v>0</v>
+      </c>
+      <c r="U482" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="483" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C483" s="9">
+        <v>70002406</v>
+      </c>
+      <c r="D483" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E483" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F483" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G483" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H483" s="10">
+        <v>0</v>
+      </c>
+      <c r="I483" s="9">
+        <v>1</v>
+      </c>
+      <c r="J483" s="9">
+        <v>0</v>
+      </c>
+      <c r="K483" s="9">
+        <v>14400</v>
+      </c>
+      <c r="L483" s="9">
+        <v>10500</v>
+      </c>
+      <c r="M483" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N483" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O483" s="11">
+        <v>0</v>
+      </c>
+      <c r="P483" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q483" s="10">
+        <v>2</v>
+      </c>
+      <c r="R483" s="15">
+        <v>10022006</v>
+      </c>
+      <c r="S483" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T483" s="15">
+        <v>0</v>
+      </c>
+      <c r="U483" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="484" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C484" s="9">
+        <v>70002407</v>
+      </c>
+      <c r="D484" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E484" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F484" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G484" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H484" s="10">
+        <v>0</v>
+      </c>
+      <c r="I484" s="9">
+        <v>1</v>
+      </c>
+      <c r="J484" s="9">
+        <v>0</v>
+      </c>
+      <c r="K484" s="9">
+        <v>14400</v>
+      </c>
+      <c r="L484" s="9">
+        <v>10500</v>
+      </c>
+      <c r="M484" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N484" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O484" s="11">
+        <v>0</v>
+      </c>
+      <c r="P484" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q484" s="10">
+        <v>2</v>
+      </c>
+      <c r="R484" s="15">
+        <v>10022007</v>
+      </c>
+      <c r="S484" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T484" s="15">
+        <v>0</v>
+      </c>
+      <c r="U484" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="485" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C485" s="9">
+        <v>70002408</v>
+      </c>
+      <c r="D485" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E485" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F485" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G485" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H485" s="10">
+        <v>0</v>
+      </c>
+      <c r="I485" s="9">
+        <v>1</v>
+      </c>
+      <c r="J485" s="9">
+        <v>0</v>
+      </c>
+      <c r="K485" s="9">
+        <v>14400</v>
+      </c>
+      <c r="L485" s="9">
+        <v>15000</v>
+      </c>
+      <c r="M485" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N485" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O485" s="11">
+        <v>0</v>
+      </c>
+      <c r="P485" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q485" s="10">
+        <v>2</v>
+      </c>
+      <c r="R485" s="15">
+        <v>10022008</v>
+      </c>
+      <c r="S485" s="10">
+        <v>1</v>
+      </c>
+      <c r="T485" s="15">
+        <v>0</v>
+      </c>
+      <c r="U485" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="486" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C486" s="9">
+        <v>70002409</v>
+      </c>
+      <c r="D486" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E486" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F486" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G486" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H486" s="10">
+        <v>0</v>
+      </c>
+      <c r="I486" s="9">
+        <v>1</v>
+      </c>
+      <c r="J486" s="9">
+        <v>0</v>
+      </c>
+      <c r="K486" s="9">
+        <v>14400</v>
+      </c>
+      <c r="L486" s="9">
+        <v>15000</v>
+      </c>
+      <c r="M486" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N486" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O486" s="11">
+        <v>0</v>
+      </c>
+      <c r="P486" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q486" s="10">
+        <v>2</v>
+      </c>
+      <c r="R486" s="15">
+        <v>10022009</v>
+      </c>
+      <c r="S486" s="10">
+        <v>1</v>
+      </c>
+      <c r="T486" s="15">
+        <v>0</v>
+      </c>
+      <c r="U486" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="487" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C487" s="9">
+        <v>70002410</v>
+      </c>
+      <c r="D487" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E487" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F487" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G487" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H487" s="10">
+        <v>0</v>
+      </c>
+      <c r="I487" s="9">
+        <v>1</v>
+      </c>
+      <c r="J487" s="9">
+        <v>0</v>
+      </c>
+      <c r="K487" s="9">
+        <v>14400</v>
+      </c>
+      <c r="L487" s="9">
+        <v>10500</v>
+      </c>
+      <c r="M487" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N487" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O487" s="11">
+        <v>0</v>
+      </c>
+      <c r="P487" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q487" s="10">
+        <v>2</v>
+      </c>
+      <c r="R487" s="15">
+        <v>10022010</v>
+      </c>
+      <c r="S487" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T487" s="15">
+        <v>0</v>
+      </c>
+      <c r="U487" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="488" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B488" s="20"/>
+      <c r="C488" s="9">
+        <v>70003101</v>
+      </c>
+      <c r="D488" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E488" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F488" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G488" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H488" s="10">
+        <v>0</v>
+      </c>
+      <c r="I488" s="9">
+        <v>1</v>
+      </c>
+      <c r="J488" s="9">
+        <v>0</v>
+      </c>
+      <c r="K488" s="9">
+        <v>14400</v>
+      </c>
+      <c r="L488" s="9">
+        <v>6900</v>
+      </c>
+      <c r="M488" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N488" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O488" s="11">
+        <v>0</v>
+      </c>
+      <c r="P488" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q488" s="10">
+        <v>1</v>
+      </c>
+      <c r="R488" s="21">
+        <v>70003001</v>
+      </c>
+      <c r="S488" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T488" s="15">
+        <v>0</v>
+      </c>
+      <c r="U488" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="489" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B489" s="21"/>
+      <c r="C489" s="9">
+        <v>70003102</v>
+      </c>
+      <c r="D489" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E489" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F489" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G489" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H489" s="10">
+        <v>0</v>
+      </c>
+      <c r="I489" s="9">
+        <v>1</v>
+      </c>
+      <c r="J489" s="9">
+        <v>0</v>
+      </c>
+      <c r="K489" s="9">
+        <v>14400</v>
+      </c>
+      <c r="L489" s="9">
+        <v>6900</v>
+      </c>
+      <c r="M489" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N489" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O489" s="11">
+        <v>0</v>
+      </c>
+      <c r="P489" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q489" s="10">
+        <v>1</v>
+      </c>
+      <c r="R489" s="21">
+        <v>70003002</v>
+      </c>
+      <c r="S489" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T489" s="15">
+        <v>0</v>
+      </c>
+      <c r="U489" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="490" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B490" s="21"/>
+      <c r="C490" s="9">
+        <v>70003103</v>
+      </c>
+      <c r="D490" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E490" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F490" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G490" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H490" s="10">
+        <v>0</v>
+      </c>
+      <c r="I490" s="9">
+        <v>1</v>
+      </c>
+      <c r="J490" s="9">
+        <v>0</v>
+      </c>
+      <c r="K490" s="9">
+        <v>14400</v>
+      </c>
+      <c r="L490" s="9">
+        <v>6900</v>
+      </c>
+      <c r="M490" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N490" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O490" s="11">
+        <v>0</v>
+      </c>
+      <c r="P490" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q490" s="10">
+        <v>1</v>
+      </c>
+      <c r="R490" s="21">
+        <v>70003004</v>
+      </c>
+      <c r="S490" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T490" s="15">
+        <v>0</v>
+      </c>
+      <c r="U490" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="491" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B491" s="21"/>
+      <c r="C491" s="9">
+        <v>70003104</v>
+      </c>
+      <c r="D491" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E491" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F491" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G491" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H491" s="10">
+        <v>0</v>
+      </c>
+      <c r="I491" s="9">
+        <v>1</v>
+      </c>
+      <c r="J491" s="9">
+        <v>0</v>
+      </c>
+      <c r="K491" s="9">
+        <v>18000</v>
+      </c>
+      <c r="L491" s="9">
+        <v>6900</v>
+      </c>
+      <c r="M491" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N491" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O491" s="11">
+        <v>0</v>
+      </c>
+      <c r="P491" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q491" s="10">
+        <v>1</v>
+      </c>
+      <c r="R491" s="21">
+        <v>70003005</v>
+      </c>
+      <c r="S491" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T491" s="15">
+        <v>0</v>
+      </c>
+      <c r="U491" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="492" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B492" s="21"/>
+      <c r="C492" s="9">
+        <v>70003105</v>
+      </c>
+      <c r="D492" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E492" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="F492" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G492" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H492" s="10">
+        <v>0</v>
+      </c>
+      <c r="I492" s="9">
+        <v>1</v>
+      </c>
+      <c r="J492" s="9">
+        <v>0</v>
+      </c>
+      <c r="K492" s="9">
+        <v>18000</v>
+      </c>
+      <c r="L492" s="9">
+        <v>6900</v>
+      </c>
+      <c r="M492" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N492" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O492" s="11">
+        <v>0</v>
+      </c>
+      <c r="P492" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q492" s="10">
+        <v>1</v>
+      </c>
+      <c r="R492" s="21">
+        <v>70003007</v>
+      </c>
+      <c r="S492" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T492" s="15">
+        <v>0</v>
+      </c>
+      <c r="U492" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="493" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B493" s="22"/>
+      <c r="C493" s="9">
+        <v>70003106</v>
+      </c>
+      <c r="D493" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E493" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="F493" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G493" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H493" s="10">
+        <v>0</v>
+      </c>
+      <c r="I493" s="9">
+        <v>1</v>
+      </c>
+      <c r="J493" s="9">
+        <v>0</v>
+      </c>
+      <c r="K493" s="9">
+        <v>18000</v>
+      </c>
+      <c r="L493" s="9">
+        <v>6900</v>
+      </c>
+      <c r="M493" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N493" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O493" s="11">
+        <v>0</v>
+      </c>
+      <c r="P493" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q493" s="10">
+        <v>1</v>
+      </c>
+      <c r="R493" s="21">
+        <v>70003008</v>
+      </c>
+      <c r="S493" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T493" s="15">
+        <v>0</v>
+      </c>
+      <c r="U493" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="494" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B494" s="21"/>
+      <c r="C494" s="9">
+        <v>70003107</v>
+      </c>
+      <c r="D494" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E494" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="F494" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G494" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H494" s="10">
+        <v>0</v>
+      </c>
+      <c r="I494" s="9">
+        <v>1</v>
+      </c>
+      <c r="J494" s="9">
+        <v>0</v>
+      </c>
+      <c r="K494" s="9">
+        <v>18000</v>
+      </c>
+      <c r="L494" s="9">
+        <v>6900</v>
+      </c>
+      <c r="M494" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N494" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O494" s="11">
+        <v>0</v>
+      </c>
+      <c r="P494" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q494" s="10">
+        <v>1</v>
+      </c>
+      <c r="R494" s="21">
+        <v>70003009</v>
+      </c>
+      <c r="S494" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T494" s="15">
+        <v>0</v>
+      </c>
+      <c r="U494" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="495" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B495" s="21"/>
+      <c r="C495" s="9">
+        <v>70003108</v>
+      </c>
+      <c r="D495" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E495" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="F495" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G495" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H495" s="10">
+        <v>0</v>
+      </c>
+      <c r="I495" s="9">
+        <v>1</v>
+      </c>
+      <c r="J495" s="9">
+        <v>0</v>
+      </c>
+      <c r="K495" s="9">
+        <v>18000</v>
+      </c>
+      <c r="L495" s="9">
+        <v>6900</v>
+      </c>
+      <c r="M495" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N495" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O495" s="11">
+        <v>0</v>
+      </c>
+      <c r="P495" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q495" s="10">
+        <v>1</v>
+      </c>
+      <c r="R495" s="21">
+        <v>70003010</v>
+      </c>
+      <c r="S495" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T495" s="15">
+        <v>0</v>
+      </c>
+      <c r="U495" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="496" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B496" s="22"/>
+      <c r="C496" s="9">
+        <v>70003109</v>
+      </c>
+      <c r="D496" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E496" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F496" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G496" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H496" s="10">
+        <v>0</v>
+      </c>
+      <c r="I496" s="9">
+        <v>1</v>
+      </c>
+      <c r="J496" s="9">
+        <v>0</v>
+      </c>
+      <c r="K496" s="9">
+        <v>18000</v>
+      </c>
+      <c r="L496" s="9">
+        <v>6900</v>
+      </c>
+      <c r="M496" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N496" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O496" s="11">
+        <v>0</v>
+      </c>
+      <c r="P496" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q496" s="10">
+        <v>1</v>
+      </c>
+      <c r="R496" s="21">
+        <v>70003014</v>
+      </c>
+      <c r="S496" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T496" s="15">
+        <v>0</v>
+      </c>
+      <c r="U496" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="497" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B497" s="22"/>
+      <c r="C497" s="9">
+        <v>70003110</v>
+      </c>
+      <c r="D497" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E497" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="F497" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G497" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H497" s="10">
+        <v>0</v>
+      </c>
+      <c r="I497" s="9">
+        <v>1</v>
+      </c>
+      <c r="J497" s="9">
+        <v>0</v>
+      </c>
+      <c r="K497" s="9">
+        <v>18000</v>
+      </c>
+      <c r="L497" s="9">
+        <v>6900</v>
+      </c>
+      <c r="M497" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N497" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O497" s="11">
+        <v>0</v>
+      </c>
+      <c r="P497" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q497" s="10">
+        <v>1</v>
+      </c>
+      <c r="R497" s="21">
+        <v>70003015</v>
+      </c>
+      <c r="S497" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T497" s="15">
+        <v>0</v>
+      </c>
+      <c r="U497" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="498" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C498" s="9">
+        <v>70003111</v>
+      </c>
+      <c r="D498" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E498" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F498" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G498" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H498" s="10">
+        <v>0</v>
+      </c>
+      <c r="I498" s="9">
+        <v>1</v>
+      </c>
+      <c r="J498" s="9">
+        <v>0</v>
+      </c>
+      <c r="K498" s="9">
+        <v>18000</v>
+      </c>
+      <c r="L498" s="9">
+        <v>6900</v>
+      </c>
+      <c r="M498" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N498" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O498" s="11">
+        <v>0</v>
+      </c>
+      <c r="P498" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q498" s="10">
+        <v>5</v>
+      </c>
+      <c r="R498" s="10">
+        <v>0</v>
+      </c>
+      <c r="S498" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="T498" s="15">
+        <v>0</v>
+      </c>
+      <c r="U498" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="499" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C499" s="9">
+        <v>70003401</v>
+      </c>
+      <c r="D499" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E499" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F499" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G499" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H499" s="10">
+        <v>0</v>
+      </c>
+      <c r="I499" s="9">
+        <v>1</v>
+      </c>
+      <c r="J499" s="9">
+        <v>0</v>
+      </c>
+      <c r="K499" s="9">
+        <v>17300</v>
+      </c>
+      <c r="L499" s="9">
+        <v>12075</v>
+      </c>
+      <c r="M499" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N499" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O499" s="11">
+        <v>0</v>
+      </c>
+      <c r="P499" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q499" s="10">
+        <v>2</v>
+      </c>
+      <c r="R499" s="15">
+        <v>10023001</v>
+      </c>
+      <c r="S499" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T499" s="15">
+        <v>0</v>
+      </c>
+      <c r="U499" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="500" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C500" s="9">
+        <v>70003402</v>
+      </c>
+      <c r="D500" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E500" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F500" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G500" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H500" s="10">
+        <v>0</v>
+      </c>
+      <c r="I500" s="9">
+        <v>1</v>
+      </c>
+      <c r="J500" s="9">
+        <v>0</v>
+      </c>
+      <c r="K500" s="9">
+        <v>17300</v>
+      </c>
+      <c r="L500" s="9">
+        <v>12075</v>
+      </c>
+      <c r="M500" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N500" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O500" s="11">
+        <v>0</v>
+      </c>
+      <c r="P500" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q500" s="10">
+        <v>2</v>
+      </c>
+      <c r="R500" s="15">
+        <v>10023002</v>
+      </c>
+      <c r="S500" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T500" s="15">
+        <v>0</v>
+      </c>
+      <c r="U500" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="501" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C501" s="9">
+        <v>70003403</v>
+      </c>
+      <c r="D501" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E501" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F501" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G501" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H501" s="10">
+        <v>0</v>
+      </c>
+      <c r="I501" s="9">
+        <v>1</v>
+      </c>
+      <c r="J501" s="9">
+        <v>0</v>
+      </c>
+      <c r="K501" s="9">
+        <v>17300</v>
+      </c>
+      <c r="L501" s="9">
+        <v>12075</v>
+      </c>
+      <c r="M501" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N501" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O501" s="11">
+        <v>0</v>
+      </c>
+      <c r="P501" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q501" s="10">
+        <v>2</v>
+      </c>
+      <c r="R501" s="15">
+        <v>10023003</v>
+      </c>
+      <c r="S501" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T501" s="15">
+        <v>0</v>
+      </c>
+      <c r="U501" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="502" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C502" s="9">
+        <v>70003404</v>
+      </c>
+      <c r="D502" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E502" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F502" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G502" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H502" s="10">
+        <v>0</v>
+      </c>
+      <c r="I502" s="9">
+        <v>1</v>
+      </c>
+      <c r="J502" s="9">
+        <v>0</v>
+      </c>
+      <c r="K502" s="9">
+        <v>21600</v>
+      </c>
+      <c r="L502" s="9">
+        <v>12075</v>
+      </c>
+      <c r="M502" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N502" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O502" s="11">
+        <v>0</v>
+      </c>
+      <c r="P502" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q502" s="10">
+        <v>2</v>
+      </c>
+      <c r="R502" s="15">
+        <v>10023004</v>
+      </c>
+      <c r="S502" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T502" s="15">
+        <v>0</v>
+      </c>
+      <c r="U502" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="503" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C503" s="9">
+        <v>70003405</v>
+      </c>
+      <c r="D503" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E503" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F503" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G503" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H503" s="10">
+        <v>0</v>
+      </c>
+      <c r="I503" s="9">
+        <v>1</v>
+      </c>
+      <c r="J503" s="9">
+        <v>0</v>
+      </c>
+      <c r="K503" s="9">
+        <v>21600</v>
+      </c>
+      <c r="L503" s="9">
+        <v>12075</v>
+      </c>
+      <c r="M503" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N503" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O503" s="11">
+        <v>0</v>
+      </c>
+      <c r="P503" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q503" s="10">
+        <v>2</v>
+      </c>
+      <c r="R503" s="15">
+        <v>10023005</v>
+      </c>
+      <c r="S503" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T503" s="15">
+        <v>0</v>
+      </c>
+      <c r="U503" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="504" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C504" s="9">
+        <v>70003406</v>
+      </c>
+      <c r="D504" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E504" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F504" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G504" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H504" s="10">
+        <v>0</v>
+      </c>
+      <c r="I504" s="9">
+        <v>1</v>
+      </c>
+      <c r="J504" s="9">
+        <v>0</v>
+      </c>
+      <c r="K504" s="9">
+        <v>21600</v>
+      </c>
+      <c r="L504" s="9">
+        <v>12075</v>
+      </c>
+      <c r="M504" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N504" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O504" s="11">
+        <v>0</v>
+      </c>
+      <c r="P504" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q504" s="10">
+        <v>2</v>
+      </c>
+      <c r="R504" s="15">
+        <v>10023006</v>
+      </c>
+      <c r="S504" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T504" s="15">
+        <v>0</v>
+      </c>
+      <c r="U504" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="505" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C505" s="9">
+        <v>70003407</v>
+      </c>
+      <c r="D505" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E505" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F505" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G505" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H505" s="10">
+        <v>0</v>
+      </c>
+      <c r="I505" s="9">
+        <v>1</v>
+      </c>
+      <c r="J505" s="9">
+        <v>0</v>
+      </c>
+      <c r="K505" s="9">
+        <v>21600</v>
+      </c>
+      <c r="L505" s="9">
+        <v>12075</v>
+      </c>
+      <c r="M505" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N505" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O505" s="11">
+        <v>0</v>
+      </c>
+      <c r="P505" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q505" s="10">
+        <v>2</v>
+      </c>
+      <c r="R505" s="15">
+        <v>10023007</v>
+      </c>
+      <c r="S505" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T505" s="15">
+        <v>0</v>
+      </c>
+      <c r="U505" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="506" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C506" s="9">
+        <v>70003408</v>
+      </c>
+      <c r="D506" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E506" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F506" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G506" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H506" s="10">
+        <v>0</v>
+      </c>
+      <c r="I506" s="9">
+        <v>1</v>
+      </c>
+      <c r="J506" s="9">
+        <v>0</v>
+      </c>
+      <c r="K506" s="9">
+        <v>21600</v>
+      </c>
+      <c r="L506" s="9">
+        <v>17250</v>
+      </c>
+      <c r="M506" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N506" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O506" s="11">
+        <v>0</v>
+      </c>
+      <c r="P506" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q506" s="10">
+        <v>2</v>
+      </c>
+      <c r="R506" s="15">
+        <v>10023008</v>
+      </c>
+      <c r="S506" s="10">
+        <v>1</v>
+      </c>
+      <c r="T506" s="15">
+        <v>0</v>
+      </c>
+      <c r="U506" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="507" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C507" s="9">
+        <v>70003409</v>
+      </c>
+      <c r="D507" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E507" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F507" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G507" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H507" s="10">
+        <v>0</v>
+      </c>
+      <c r="I507" s="9">
+        <v>1</v>
+      </c>
+      <c r="J507" s="9">
+        <v>0</v>
+      </c>
+      <c r="K507" s="9">
+        <v>21600</v>
+      </c>
+      <c r="L507" s="9">
+        <v>17250</v>
+      </c>
+      <c r="M507" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N507" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O507" s="11">
+        <v>0</v>
+      </c>
+      <c r="P507" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q507" s="10">
+        <v>2</v>
+      </c>
+      <c r="R507" s="15">
+        <v>10023009</v>
+      </c>
+      <c r="S507" s="10">
+        <v>1</v>
+      </c>
+      <c r="T507" s="15">
+        <v>0</v>
+      </c>
+      <c r="U507" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="508" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C508" s="9">
+        <v>70003410</v>
+      </c>
+      <c r="D508" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E508" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F508" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G508" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H508" s="10">
+        <v>0</v>
+      </c>
+      <c r="I508" s="9">
+        <v>1</v>
+      </c>
+      <c r="J508" s="9">
+        <v>0</v>
+      </c>
+      <c r="K508" s="9">
+        <v>21600</v>
+      </c>
+      <c r="L508" s="9">
+        <v>12075</v>
+      </c>
+      <c r="M508" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N508" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O508" s="11">
+        <v>0</v>
+      </c>
+      <c r="P508" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q508" s="10">
+        <v>2</v>
+      </c>
+      <c r="R508" s="15">
+        <v>10023010</v>
+      </c>
+      <c r="S508" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="T508" s="15">
+        <v>0</v>
+      </c>
+      <c r="U508" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="509" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B509" s="20"/>
+      <c r="C509" s="9">
+        <v>70004101</v>
+      </c>
+      <c r="D509" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E509" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F509" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G509" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H509" s="10">
+        <v>0</v>
+      </c>
+      <c r="I509" s="9">
+        <v>1</v>
+      </c>
+      <c r="J509" s="9">
+        <v>0</v>
+      </c>
+      <c r="K509" s="9">
+        <v>21600</v>
+      </c>
+      <c r="L509" s="9">
+        <v>7935</v>
+      </c>
+      <c r="M509" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N509" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O509" s="11">
+        <v>0</v>
+      </c>
+      <c r="P509" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q509" s="10">
+        <v>1</v>
+      </c>
+      <c r="R509" s="22">
+        <v>70004001</v>
+      </c>
+      <c r="S509" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T509" s="15">
+        <v>0</v>
+      </c>
+      <c r="U509" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="510" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B510" s="21"/>
+      <c r="C510" s="9">
+        <v>70004102</v>
+      </c>
+      <c r="D510" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E510" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F510" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G510" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H510" s="10">
+        <v>0</v>
+      </c>
+      <c r="I510" s="9">
+        <v>1</v>
+      </c>
+      <c r="J510" s="9">
+        <v>0</v>
+      </c>
+      <c r="K510" s="9">
+        <v>21600</v>
+      </c>
+      <c r="L510" s="9">
+        <v>7935</v>
+      </c>
+      <c r="M510" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N510" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O510" s="11">
+        <v>0</v>
+      </c>
+      <c r="P510" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q510" s="10">
+        <v>1</v>
+      </c>
+      <c r="R510" s="22">
+        <v>70004002</v>
+      </c>
+      <c r="S510" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T510" s="15">
+        <v>0</v>
+      </c>
+      <c r="U510" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="511" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B511" s="21"/>
+      <c r="C511" s="9">
+        <v>70004103</v>
+      </c>
+      <c r="D511" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E511" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="F511" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G511" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H511" s="10">
+        <v>0</v>
+      </c>
+      <c r="I511" s="9">
+        <v>1</v>
+      </c>
+      <c r="J511" s="9">
+        <v>0</v>
+      </c>
+      <c r="K511" s="9">
+        <v>21600</v>
+      </c>
+      <c r="L511" s="9">
+        <v>7935</v>
+      </c>
+      <c r="M511" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N511" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O511" s="11">
+        <v>0</v>
+      </c>
+      <c r="P511" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q511" s="10">
+        <v>1</v>
+      </c>
+      <c r="R511" s="22">
+        <v>70004004</v>
+      </c>
+      <c r="S511" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T511" s="15">
+        <v>0</v>
+      </c>
+      <c r="U511" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="512" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B512" s="21"/>
+      <c r="C512" s="9">
+        <v>70004104</v>
+      </c>
+      <c r="D512" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E512" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="F512" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G512" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H512" s="10">
+        <v>0</v>
+      </c>
+      <c r="I512" s="9">
+        <v>1</v>
+      </c>
+      <c r="J512" s="9">
+        <v>0</v>
+      </c>
+      <c r="K512" s="9">
+        <v>21600</v>
+      </c>
+      <c r="L512" s="9">
+        <v>7935</v>
+      </c>
+      <c r="M512" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N512" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O512" s="11">
+        <v>0</v>
+      </c>
+      <c r="P512" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q512" s="10">
+        <v>1</v>
+      </c>
+      <c r="R512" s="22">
+        <v>70004005</v>
+      </c>
+      <c r="S512" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T512" s="15">
+        <v>0</v>
+      </c>
+      <c r="U512" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="513" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B513" s="21"/>
+      <c r="C513" s="9">
+        <v>70004105</v>
+      </c>
+      <c r="D513" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E513" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="F513" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G513" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H513" s="10">
+        <v>0</v>
+      </c>
+      <c r="I513" s="9">
+        <v>1</v>
+      </c>
+      <c r="J513" s="9">
+        <v>0</v>
+      </c>
+      <c r="K513" s="9">
+        <v>21600</v>
+      </c>
+      <c r="L513" s="9">
+        <v>7935</v>
+      </c>
+      <c r="M513" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N513" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O513" s="11">
+        <v>0</v>
+      </c>
+      <c r="P513" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q513" s="10">
+        <v>1</v>
+      </c>
+      <c r="R513" s="21">
+        <v>70004005</v>
+      </c>
+      <c r="S513" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T513" s="15">
+        <v>0</v>
+      </c>
+      <c r="U513" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="514" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B514" s="22"/>
+      <c r="C514" s="9">
+        <v>70004106</v>
+      </c>
+      <c r="D514" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E514" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="F514" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G514" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H514" s="10">
+        <v>0</v>
+      </c>
+      <c r="I514" s="9">
+        <v>1</v>
+      </c>
+      <c r="J514" s="9">
+        <v>0</v>
+      </c>
+      <c r="K514" s="9">
+        <v>21600</v>
+      </c>
+      <c r="L514" s="9">
+        <v>7935</v>
+      </c>
+      <c r="M514" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N514" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O514" s="11">
+        <v>0</v>
+      </c>
+      <c r="P514" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q514" s="10">
+        <v>1</v>
+      </c>
+      <c r="R514" s="21">
+        <v>70004008</v>
+      </c>
+      <c r="S514" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T514" s="15">
+        <v>0</v>
+      </c>
+      <c r="U514" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="515" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B515" s="21"/>
+      <c r="C515" s="9">
+        <v>70004107</v>
+      </c>
+      <c r="D515" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E515" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="F515" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G515" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H515" s="10">
+        <v>0</v>
+      </c>
+      <c r="I515" s="9">
+        <v>1</v>
+      </c>
+      <c r="J515" s="9">
+        <v>0</v>
+      </c>
+      <c r="K515" s="9">
+        <v>15600</v>
+      </c>
+      <c r="L515" s="9">
+        <v>7935</v>
+      </c>
+      <c r="M515" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N515" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O515" s="11">
+        <v>0</v>
+      </c>
+      <c r="P515" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q515" s="10">
+        <v>1</v>
+      </c>
+      <c r="R515" s="21">
+        <v>70004009</v>
+      </c>
+      <c r="S515" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T515" s="15">
+        <v>0</v>
+      </c>
+      <c r="U515" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="516" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B516" s="21"/>
+      <c r="C516" s="9">
+        <v>70004108</v>
+      </c>
+      <c r="D516" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E516" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="F516" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G516" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H516" s="10">
+        <v>0</v>
+      </c>
+      <c r="I516" s="9">
+        <v>1</v>
+      </c>
+      <c r="J516" s="9">
+        <v>0</v>
+      </c>
+      <c r="K516" s="9">
+        <v>15600</v>
+      </c>
+      <c r="L516" s="9">
+        <v>7935</v>
+      </c>
+      <c r="M516" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N516" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O516" s="11">
+        <v>0</v>
+      </c>
+      <c r="P516" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q516" s="10">
+        <v>1</v>
+      </c>
+      <c r="R516" s="21">
+        <v>70004011</v>
+      </c>
+      <c r="S516" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T516" s="15">
+        <v>0</v>
+      </c>
+      <c r="U516" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="517" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B517" s="22"/>
+      <c r="C517" s="9">
+        <v>70004109</v>
+      </c>
+      <c r="D517" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E517" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="F517" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G517" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H517" s="10">
+        <v>0</v>
+      </c>
+      <c r="I517" s="9">
+        <v>1</v>
+      </c>
+      <c r="J517" s="9">
+        <v>0</v>
+      </c>
+      <c r="K517" s="9">
+        <v>15600</v>
+      </c>
+      <c r="L517" s="9">
+        <v>7935</v>
+      </c>
+      <c r="M517" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N517" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O517" s="11">
+        <v>0</v>
+      </c>
+      <c r="P517" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q517" s="10">
+        <v>1</v>
+      </c>
+      <c r="R517" s="21">
+        <v>70004012</v>
+      </c>
+      <c r="S517" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T517" s="15">
+        <v>0</v>
+      </c>
+      <c r="U517" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="518" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B518" s="22"/>
+      <c r="C518" s="9">
+        <v>70004110</v>
+      </c>
+      <c r="D518" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E518" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F518" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G518" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H518" s="10">
+        <v>0</v>
+      </c>
+      <c r="I518" s="9">
+        <v>1</v>
+      </c>
+      <c r="J518" s="9">
+        <v>0</v>
+      </c>
+      <c r="K518" s="9">
+        <v>15600</v>
+      </c>
+      <c r="L518" s="9">
+        <v>7935</v>
+      </c>
+      <c r="M518" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N518" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O518" s="11">
+        <v>0</v>
+      </c>
+      <c r="P518" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q518" s="10">
+        <v>1</v>
+      </c>
+      <c r="R518" s="22">
+        <v>70004001</v>
+      </c>
+      <c r="S518" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T518" s="15">
+        <v>0</v>
+      </c>
+      <c r="U518" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="519" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C519" s="9">
+        <v>70004111</v>
+      </c>
+      <c r="D519" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E519" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F519" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G519" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H519" s="10">
+        <v>0</v>
+      </c>
+      <c r="I519" s="9">
+        <v>1</v>
+      </c>
+      <c r="J519" s="9">
+        <v>0</v>
+      </c>
+      <c r="K519" s="9">
+        <v>15600</v>
+      </c>
+      <c r="L519" s="9">
+        <v>7935</v>
+      </c>
+      <c r="M519" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N519" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O519" s="11">
+        <v>0</v>
+      </c>
+      <c r="P519" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q519" s="10">
+        <v>5</v>
+      </c>
+      <c r="R519" s="10">
+        <v>0</v>
+      </c>
+      <c r="S519" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="T519" s="15">
+        <v>0</v>
+      </c>
+      <c r="U519" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="520" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C520" s="9">
+        <v>70004401</v>
+      </c>
+      <c r="D520" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E520" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F520" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G520" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H520" s="10">
+        <v>0</v>
+      </c>
+      <c r="I520" s="9">
+        <v>1</v>
+      </c>
+      <c r="J520" s="9">
+        <v>0</v>
+      </c>
+      <c r="K520" s="9">
+        <v>25900</v>
+      </c>
+      <c r="L520" s="9">
+        <v>14000</v>
+      </c>
+      <c r="M520" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N520" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O520" s="11">
+        <v>0</v>
+      </c>
+      <c r="P520" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q520" s="10">
+        <v>2</v>
+      </c>
+      <c r="R520" s="15">
+        <v>10024001</v>
+      </c>
+      <c r="S520" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T520" s="15">
+        <v>0</v>
+      </c>
+      <c r="U520" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="521" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C521" s="9">
+        <v>70004402</v>
+      </c>
+      <c r="D521" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E521" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F521" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G521" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H521" s="10">
+        <v>0</v>
+      </c>
+      <c r="I521" s="9">
+        <v>1</v>
+      </c>
+      <c r="J521" s="9">
+        <v>0</v>
+      </c>
+      <c r="K521" s="9">
+        <v>25900</v>
+      </c>
+      <c r="L521" s="9">
+        <v>14000</v>
+      </c>
+      <c r="M521" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N521" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O521" s="11">
+        <v>0</v>
+      </c>
+      <c r="P521" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q521" s="10">
+        <v>2</v>
+      </c>
+      <c r="R521" s="15">
+        <v>10024002</v>
+      </c>
+      <c r="S521" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T521" s="15">
+        <v>0</v>
+      </c>
+      <c r="U521" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="522" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C522" s="9">
+        <v>70004403</v>
+      </c>
+      <c r="D522" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E522" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F522" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G522" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H522" s="10">
+        <v>0</v>
+      </c>
+      <c r="I522" s="9">
+        <v>1</v>
+      </c>
+      <c r="J522" s="9">
+        <v>0</v>
+      </c>
+      <c r="K522" s="9">
+        <v>25900</v>
+      </c>
+      <c r="L522" s="9">
+        <v>14000</v>
+      </c>
+      <c r="M522" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N522" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O522" s="11">
+        <v>0</v>
+      </c>
+      <c r="P522" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q522" s="10">
+        <v>2</v>
+      </c>
+      <c r="R522" s="15">
+        <v>10024003</v>
+      </c>
+      <c r="S522" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T522" s="15">
+        <v>0</v>
+      </c>
+      <c r="U522" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="523" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C523" s="9">
+        <v>70004404</v>
+      </c>
+      <c r="D523" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E523" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F523" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G523" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H523" s="10">
+        <v>0</v>
+      </c>
+      <c r="I523" s="9">
+        <v>1</v>
+      </c>
+      <c r="J523" s="9">
+        <v>0</v>
+      </c>
+      <c r="K523" s="9">
+        <v>25900</v>
+      </c>
+      <c r="L523" s="9">
+        <v>14000</v>
+      </c>
+      <c r="M523" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N523" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O523" s="11">
+        <v>0</v>
+      </c>
+      <c r="P523" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q523" s="10">
+        <v>2</v>
+      </c>
+      <c r="R523" s="15">
+        <v>10024004</v>
+      </c>
+      <c r="S523" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T523" s="15">
+        <v>0</v>
+      </c>
+      <c r="U523" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="524" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C524" s="9">
+        <v>70004405</v>
+      </c>
+      <c r="D524" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E524" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F524" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G524" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H524" s="10">
+        <v>0</v>
+      </c>
+      <c r="I524" s="9">
+        <v>1</v>
+      </c>
+      <c r="J524" s="9">
+        <v>0</v>
+      </c>
+      <c r="K524" s="9">
+        <v>25900</v>
+      </c>
+      <c r="L524" s="9">
+        <v>14000</v>
+      </c>
+      <c r="M524" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N524" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O524" s="11">
+        <v>0</v>
+      </c>
+      <c r="P524" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q524" s="10">
+        <v>2</v>
+      </c>
+      <c r="R524" s="15">
+        <v>10024005</v>
+      </c>
+      <c r="S524" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T524" s="15">
+        <v>0</v>
+      </c>
+      <c r="U524" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="525" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C525" s="9">
+        <v>70004406</v>
+      </c>
+      <c r="D525" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E525" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F525" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G525" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H525" s="10">
+        <v>0</v>
+      </c>
+      <c r="I525" s="9">
+        <v>1</v>
+      </c>
+      <c r="J525" s="9">
+        <v>0</v>
+      </c>
+      <c r="K525" s="9">
+        <v>25900</v>
+      </c>
+      <c r="L525" s="9">
+        <v>14000</v>
+      </c>
+      <c r="M525" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N525" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O525" s="11">
+        <v>0</v>
+      </c>
+      <c r="P525" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q525" s="10">
+        <v>2</v>
+      </c>
+      <c r="R525" s="15">
+        <v>10024006</v>
+      </c>
+      <c r="S525" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T525" s="15">
+        <v>0</v>
+      </c>
+      <c r="U525" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="526" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C526" s="9">
+        <v>70004407</v>
+      </c>
+      <c r="D526" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E526" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F526" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G526" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H526" s="10">
+        <v>0</v>
+      </c>
+      <c r="I526" s="9">
+        <v>1</v>
+      </c>
+      <c r="J526" s="9">
+        <v>0</v>
+      </c>
+      <c r="K526" s="9">
+        <v>18700</v>
+      </c>
+      <c r="L526" s="9">
+        <v>14000</v>
+      </c>
+      <c r="M526" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N526" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O526" s="11">
+        <v>0</v>
+      </c>
+      <c r="P526" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q526" s="10">
+        <v>2</v>
+      </c>
+      <c r="R526" s="15">
+        <v>10024007</v>
+      </c>
+      <c r="S526" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T526" s="15">
+        <v>0</v>
+      </c>
+      <c r="U526" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="527" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C527" s="9">
+        <v>70004408</v>
+      </c>
+      <c r="D527" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E527" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F527" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G527" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H527" s="10">
+        <v>0</v>
+      </c>
+      <c r="I527" s="9">
+        <v>1</v>
+      </c>
+      <c r="J527" s="9">
+        <v>0</v>
+      </c>
+      <c r="K527" s="9">
+        <v>18700</v>
+      </c>
+      <c r="L527" s="9">
+        <v>14000</v>
+      </c>
+      <c r="M527" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N527" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O527" s="11">
+        <v>0</v>
+      </c>
+      <c r="P527" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q527" s="10">
+        <v>2</v>
+      </c>
+      <c r="R527" s="15">
+        <v>10024008</v>
+      </c>
+      <c r="S527" s="10">
+        <v>1</v>
+      </c>
+      <c r="T527" s="15">
+        <v>0</v>
+      </c>
+      <c r="U527" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="528" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C528" s="9">
+        <v>70004409</v>
+      </c>
+      <c r="D528" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E528" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F528" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G528" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H528" s="10">
+        <v>0</v>
+      </c>
+      <c r="I528" s="9">
+        <v>1</v>
+      </c>
+      <c r="J528" s="9">
+        <v>0</v>
+      </c>
+      <c r="K528" s="9">
+        <v>18700</v>
+      </c>
+      <c r="L528" s="9">
+        <v>14000</v>
+      </c>
+      <c r="M528" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N528" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O528" s="11">
+        <v>0</v>
+      </c>
+      <c r="P528" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q528" s="10">
+        <v>2</v>
+      </c>
+      <c r="R528" s="15">
+        <v>10024009</v>
+      </c>
+      <c r="S528" s="10">
+        <v>1</v>
+      </c>
+      <c r="T528" s="15">
+        <v>0</v>
+      </c>
+      <c r="U528" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="529" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C529" s="9">
+        <v>70004410</v>
+      </c>
+      <c r="D529" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E529" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F529" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G529" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H529" s="10">
+        <v>0</v>
+      </c>
+      <c r="I529" s="9">
+        <v>1</v>
+      </c>
+      <c r="J529" s="9">
+        <v>0</v>
+      </c>
+      <c r="K529" s="9">
+        <v>18700</v>
+      </c>
+      <c r="L529" s="9">
+        <v>14000</v>
+      </c>
+      <c r="M529" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N529" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O529" s="11">
+        <v>0</v>
+      </c>
+      <c r="P529" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q529" s="10">
+        <v>2</v>
+      </c>
+      <c r="R529" s="15">
+        <v>10024010</v>
+      </c>
+      <c r="S529" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T529" s="15">
+        <v>0</v>
+      </c>
+      <c r="U529" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="530" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B530" s="20"/>
+      <c r="C530" s="9">
+        <v>70005101</v>
+      </c>
+      <c r="D530" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E530" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F530" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G530" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H530" s="10">
+        <v>0</v>
+      </c>
+      <c r="I530" s="9">
+        <v>1</v>
+      </c>
+      <c r="J530" s="9">
+        <v>0</v>
+      </c>
+      <c r="K530" s="9">
+        <v>18700</v>
+      </c>
+      <c r="L530" s="9">
+        <v>9125</v>
+      </c>
+      <c r="M530" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N530" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O530" s="11">
+        <v>0</v>
+      </c>
+      <c r="P530" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q530" s="10">
+        <v>1</v>
+      </c>
+      <c r="R530" s="21">
+        <v>70005001</v>
+      </c>
+      <c r="S530" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T530" s="15">
+        <v>0</v>
+      </c>
+      <c r="U530" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="531" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B531" s="21"/>
+      <c r="C531" s="9">
+        <v>70005102</v>
+      </c>
+      <c r="D531" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E531" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F531" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G531" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H531" s="10">
+        <v>0</v>
+      </c>
+      <c r="I531" s="9">
+        <v>1</v>
+      </c>
+      <c r="J531" s="9">
+        <v>0</v>
+      </c>
+      <c r="K531" s="9">
+        <v>18700</v>
+      </c>
+      <c r="L531" s="9">
+        <v>9125</v>
+      </c>
+      <c r="M531" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N531" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O531" s="11">
+        <v>0</v>
+      </c>
+      <c r="P531" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q531" s="10">
+        <v>1</v>
+      </c>
+      <c r="R531" s="21">
+        <v>70005002</v>
+      </c>
+      <c r="S531" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T531" s="15">
+        <v>0</v>
+      </c>
+      <c r="U531" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="532" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B532" s="21"/>
+      <c r="C532" s="9">
+        <v>70005103</v>
+      </c>
+      <c r="D532" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E532" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="F532" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G532" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H532" s="10">
+        <v>0</v>
+      </c>
+      <c r="I532" s="9">
+        <v>1</v>
+      </c>
+      <c r="J532" s="9">
+        <v>0</v>
+      </c>
+      <c r="K532" s="9">
+        <v>18700</v>
+      </c>
+      <c r="L532" s="9">
+        <v>9125</v>
+      </c>
+      <c r="M532" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N532" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O532" s="11">
+        <v>0</v>
+      </c>
+      <c r="P532" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q532" s="10">
+        <v>1</v>
+      </c>
+      <c r="R532" s="21">
+        <v>70005006</v>
+      </c>
+      <c r="S532" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T532" s="15">
+        <v>0</v>
+      </c>
+      <c r="U532" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="533" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B533" s="21"/>
+      <c r="C533" s="9">
+        <v>70005104</v>
+      </c>
+      <c r="D533" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E533" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="F533" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G533" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H533" s="10">
+        <v>0</v>
+      </c>
+      <c r="I533" s="9">
+        <v>1</v>
+      </c>
+      <c r="J533" s="9">
+        <v>0</v>
+      </c>
+      <c r="K533" s="9">
+        <v>18700</v>
+      </c>
+      <c r="L533" s="9">
+        <v>9125</v>
+      </c>
+      <c r="M533" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N533" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O533" s="11">
+        <v>0</v>
+      </c>
+      <c r="P533" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q533" s="10">
+        <v>1</v>
+      </c>
+      <c r="R533" s="22">
+        <v>70005006</v>
+      </c>
+      <c r="S533" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T533" s="15">
+        <v>0</v>
+      </c>
+      <c r="U533" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="534" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B534" s="21"/>
+      <c r="C534" s="9">
+        <v>70005105</v>
+      </c>
+      <c r="D534" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E534" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="F534" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G534" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H534" s="10">
+        <v>0</v>
+      </c>
+      <c r="I534" s="9">
+        <v>1</v>
+      </c>
+      <c r="J534" s="9">
+        <v>0</v>
+      </c>
+      <c r="K534" s="9">
+        <v>18700</v>
+      </c>
+      <c r="L534" s="9">
+        <v>9125</v>
+      </c>
+      <c r="M534" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N534" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O534" s="11">
+        <v>0</v>
+      </c>
+      <c r="P534" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q534" s="10">
+        <v>1</v>
+      </c>
+      <c r="R534" s="22">
+        <v>70005002</v>
+      </c>
+      <c r="S534" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T534" s="15">
+        <v>0</v>
+      </c>
+      <c r="U534" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="535" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B535" s="22"/>
+      <c r="C535" s="9">
+        <v>70005106</v>
+      </c>
+      <c r="D535" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E535" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="F535" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G535" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H535" s="10">
+        <v>0</v>
+      </c>
+      <c r="I535" s="9">
+        <v>1</v>
+      </c>
+      <c r="J535" s="9">
+        <v>0</v>
+      </c>
+      <c r="K535" s="9">
+        <v>18700</v>
+      </c>
+      <c r="L535" s="9">
+        <v>9125</v>
+      </c>
+      <c r="M535" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N535" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O535" s="11">
+        <v>0</v>
+      </c>
+      <c r="P535" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q535" s="10">
+        <v>1</v>
+      </c>
+      <c r="R535" s="22">
+        <v>70005010</v>
+      </c>
+      <c r="S535" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T535" s="15">
+        <v>0</v>
+      </c>
+      <c r="U535" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="536" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B536" s="21"/>
+      <c r="C536" s="9">
+        <v>70005107</v>
+      </c>
+      <c r="D536" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E536" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="F536" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G536" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H536" s="10">
+        <v>0</v>
+      </c>
+      <c r="I536" s="9">
+        <v>1</v>
+      </c>
+      <c r="J536" s="9">
+        <v>0</v>
+      </c>
+      <c r="K536" s="9">
+        <v>18700</v>
+      </c>
+      <c r="L536" s="9">
+        <v>9125</v>
+      </c>
+      <c r="M536" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N536" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O536" s="11">
+        <v>0</v>
+      </c>
+      <c r="P536" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q536" s="10">
+        <v>1</v>
+      </c>
+      <c r="R536" s="21">
+        <v>70005010</v>
+      </c>
+      <c r="S536" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T536" s="15">
+        <v>0</v>
+      </c>
+      <c r="U536" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="537" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B537" s="21"/>
+      <c r="C537" s="9">
+        <v>70005108</v>
+      </c>
+      <c r="D537" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E537" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F537" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G537" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H537" s="10">
+        <v>0</v>
+      </c>
+      <c r="I537" s="9">
+        <v>1</v>
+      </c>
+      <c r="J537" s="9">
+        <v>0</v>
+      </c>
+      <c r="K537" s="9">
+        <v>25000</v>
+      </c>
+      <c r="L537" s="9">
+        <v>9125</v>
+      </c>
+      <c r="M537" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N537" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O537" s="11">
+        <v>0</v>
+      </c>
+      <c r="P537" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q537" s="10">
+        <v>1</v>
+      </c>
+      <c r="R537" s="21">
+        <v>70005001</v>
+      </c>
+      <c r="S537" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T537" s="15">
+        <v>0</v>
+      </c>
+      <c r="U537" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="538" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B538" s="22"/>
+      <c r="C538" s="9">
+        <v>70005109</v>
+      </c>
+      <c r="D538" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E538" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F538" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G538" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H538" s="10">
+        <v>0</v>
+      </c>
+      <c r="I538" s="9">
+        <v>1</v>
+      </c>
+      <c r="J538" s="9">
+        <v>0</v>
+      </c>
+      <c r="K538" s="9">
+        <v>25000</v>
+      </c>
+      <c r="L538" s="9">
+        <v>9125</v>
+      </c>
+      <c r="M538" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N538" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O538" s="11">
+        <v>0</v>
+      </c>
+      <c r="P538" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q538" s="10">
+        <v>1</v>
+      </c>
+      <c r="R538" s="21">
+        <v>70005002</v>
+      </c>
+      <c r="S538" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T538" s="15">
+        <v>0</v>
+      </c>
+      <c r="U538" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="539" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B539" s="22"/>
+      <c r="C539" s="9">
+        <v>70005110</v>
+      </c>
+      <c r="D539" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="E539" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="F539" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G539" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H539" s="10">
+        <v>0</v>
+      </c>
+      <c r="I539" s="9">
+        <v>1</v>
+      </c>
+      <c r="J539" s="9">
+        <v>0</v>
+      </c>
+      <c r="K539" s="9">
+        <v>25000</v>
+      </c>
+      <c r="L539" s="9">
+        <v>9125</v>
+      </c>
+      <c r="M539" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N539" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O539" s="11">
+        <v>0</v>
+      </c>
+      <c r="P539" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q539" s="10">
+        <v>1</v>
+      </c>
+      <c r="R539" s="21">
+        <v>70005006</v>
+      </c>
+      <c r="S539" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T539" s="15">
+        <v>0</v>
+      </c>
+      <c r="U539" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="540" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C540" s="9">
+        <v>70005111</v>
+      </c>
+      <c r="D540" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="E540" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F540" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G540" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H540" s="10">
+        <v>0</v>
+      </c>
+      <c r="I540" s="9">
+        <v>1</v>
+      </c>
+      <c r="J540" s="9">
+        <v>0</v>
+      </c>
+      <c r="K540" s="9">
+        <v>25000</v>
+      </c>
+      <c r="L540" s="9">
+        <v>9125</v>
+      </c>
+      <c r="M540" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N540" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O540" s="11">
+        <v>0</v>
+      </c>
+      <c r="P540" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q540" s="10">
+        <v>5</v>
+      </c>
+      <c r="R540" s="10">
+        <v>0</v>
+      </c>
+      <c r="S540" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="T540" s="15">
+        <v>0</v>
+      </c>
+      <c r="U540" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="541" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C541" s="9">
+        <v>70005401</v>
+      </c>
+      <c r="D541" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E541" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F541" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G541" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H541" s="10">
+        <v>0</v>
+      </c>
+      <c r="I541" s="9">
+        <v>1</v>
+      </c>
+      <c r="J541" s="9">
+        <v>0</v>
+      </c>
+      <c r="K541" s="9">
+        <v>22400</v>
+      </c>
+      <c r="L541" s="9">
+        <v>15970</v>
+      </c>
+      <c r="M541" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N541" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O541" s="11">
+        <v>0</v>
+      </c>
+      <c r="P541" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q541" s="10">
+        <v>2</v>
+      </c>
+      <c r="R541" s="15">
+        <v>10025001</v>
+      </c>
+      <c r="S541" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T541" s="15">
+        <v>0</v>
+      </c>
+      <c r="U541" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="542" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C542" s="9">
+        <v>70005402</v>
+      </c>
+      <c r="D542" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E542" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F542" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G542" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H542" s="10">
+        <v>0</v>
+      </c>
+      <c r="I542" s="9">
+        <v>1</v>
+      </c>
+      <c r="J542" s="9">
+        <v>0</v>
+      </c>
+      <c r="K542" s="9">
+        <v>22400</v>
+      </c>
+      <c r="L542" s="9">
+        <v>15970</v>
+      </c>
+      <c r="M542" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N542" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O542" s="11">
+        <v>0</v>
+      </c>
+      <c r="P542" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q542" s="10">
+        <v>2</v>
+      </c>
+      <c r="R542" s="15">
+        <v>10025002</v>
+      </c>
+      <c r="S542" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T542" s="15">
+        <v>0</v>
+      </c>
+      <c r="U542" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="543" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C543" s="9">
+        <v>70005403</v>
+      </c>
+      <c r="D543" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E543" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F543" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G543" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H543" s="10">
+        <v>0</v>
+      </c>
+      <c r="I543" s="9">
+        <v>1</v>
+      </c>
+      <c r="J543" s="9">
+        <v>0</v>
+      </c>
+      <c r="K543" s="9">
+        <v>22400</v>
+      </c>
+      <c r="L543" s="9">
+        <v>15970</v>
+      </c>
+      <c r="M543" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N543" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O543" s="11">
+        <v>0</v>
+      </c>
+      <c r="P543" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q543" s="10">
+        <v>2</v>
+      </c>
+      <c r="R543" s="15">
+        <v>10025003</v>
+      </c>
+      <c r="S543" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T543" s="15">
+        <v>0</v>
+      </c>
+      <c r="U543" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="544" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C544" s="9">
+        <v>70005404</v>
+      </c>
+      <c r="D544" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E544" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F544" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G544" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H544" s="10">
+        <v>0</v>
+      </c>
+      <c r="I544" s="9">
+        <v>1</v>
+      </c>
+      <c r="J544" s="9">
+        <v>0</v>
+      </c>
+      <c r="K544" s="9">
+        <v>22400</v>
+      </c>
+      <c r="L544" s="9">
+        <v>15970</v>
+      </c>
+      <c r="M544" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N544" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O544" s="11">
+        <v>0</v>
+      </c>
+      <c r="P544" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q544" s="10">
+        <v>2</v>
+      </c>
+      <c r="R544" s="15">
+        <v>10025004</v>
+      </c>
+      <c r="S544" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T544" s="15">
+        <v>0</v>
+      </c>
+      <c r="U544" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="545" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C545" s="9">
+        <v>70005405</v>
+      </c>
+      <c r="D545" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E545" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F545" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G545" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H545" s="10">
+        <v>0</v>
+      </c>
+      <c r="I545" s="9">
+        <v>1</v>
+      </c>
+      <c r="J545" s="9">
+        <v>0</v>
+      </c>
+      <c r="K545" s="9">
+        <v>22400</v>
+      </c>
+      <c r="L545" s="9">
+        <v>15970</v>
+      </c>
+      <c r="M545" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N545" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O545" s="11">
+        <v>0</v>
+      </c>
+      <c r="P545" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q545" s="10">
+        <v>2</v>
+      </c>
+      <c r="R545" s="15">
+        <v>10025005</v>
+      </c>
+      <c r="S545" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T545" s="15">
+        <v>0</v>
+      </c>
+      <c r="U545" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="546" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C546" s="9">
+        <v>70005406</v>
+      </c>
+      <c r="D546" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E546" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F546" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G546" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H546" s="10">
+        <v>0</v>
+      </c>
+      <c r="I546" s="9">
+        <v>1</v>
+      </c>
+      <c r="J546" s="9">
+        <v>0</v>
+      </c>
+      <c r="K546" s="9">
+        <v>22400</v>
+      </c>
+      <c r="L546" s="9">
+        <v>15970</v>
+      </c>
+      <c r="M546" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N546" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O546" s="11">
+        <v>0</v>
+      </c>
+      <c r="P546" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q546" s="10">
+        <v>2</v>
+      </c>
+      <c r="R546" s="15">
+        <v>10025006</v>
+      </c>
+      <c r="S546" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T546" s="15">
+        <v>0</v>
+      </c>
+      <c r="U546" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="547" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C547" s="9">
+        <v>70005407</v>
+      </c>
+      <c r="D547" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E547" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F547" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G547" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H547" s="10">
+        <v>0</v>
+      </c>
+      <c r="I547" s="9">
+        <v>1</v>
+      </c>
+      <c r="J547" s="9">
+        <v>0</v>
+      </c>
+      <c r="K547" s="9">
+        <v>22400</v>
+      </c>
+      <c r="L547" s="9">
+        <v>15970</v>
+      </c>
+      <c r="M547" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N547" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O547" s="11">
+        <v>0</v>
+      </c>
+      <c r="P547" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q547" s="10">
+        <v>2</v>
+      </c>
+      <c r="R547" s="15">
+        <v>10025007</v>
+      </c>
+      <c r="S547" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T547" s="15">
+        <v>0</v>
+      </c>
+      <c r="U547" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="548" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C548" s="9">
+        <v>70005408</v>
+      </c>
+      <c r="D548" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E548" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F548" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G548" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H548" s="10">
+        <v>0</v>
+      </c>
+      <c r="I548" s="9">
+        <v>1</v>
+      </c>
+      <c r="J548" s="9">
+        <v>0</v>
+      </c>
+      <c r="K548" s="9">
+        <v>30000</v>
+      </c>
+      <c r="L548" s="9">
+        <v>23000</v>
+      </c>
+      <c r="M548" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N548" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O548" s="11">
+        <v>0</v>
+      </c>
+      <c r="P548" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q548" s="10">
+        <v>2</v>
+      </c>
+      <c r="R548" s="15">
+        <v>10025008</v>
+      </c>
+      <c r="S548" s="10">
+        <v>1</v>
+      </c>
+      <c r="T548" s="15">
+        <v>0</v>
+      </c>
+      <c r="U548" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="549" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C549" s="9">
+        <v>70005409</v>
+      </c>
+      <c r="D549" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E549" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F549" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G549" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H549" s="10">
+        <v>0</v>
+      </c>
+      <c r="I549" s="9">
+        <v>1</v>
+      </c>
+      <c r="J549" s="9">
+        <v>0</v>
+      </c>
+      <c r="K549" s="9">
+        <v>30000</v>
+      </c>
+      <c r="L549" s="9">
+        <v>23000</v>
+      </c>
+      <c r="M549" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N549" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O549" s="11">
+        <v>0</v>
+      </c>
+      <c r="P549" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q549" s="10">
+        <v>2</v>
+      </c>
+      <c r="R549" s="15">
+        <v>10025009</v>
+      </c>
+      <c r="S549" s="10">
+        <v>1</v>
+      </c>
+      <c r="T549" s="15">
+        <v>0</v>
+      </c>
+      <c r="U549" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="550" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C550" s="9">
+        <v>70005410</v>
+      </c>
+      <c r="D550" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E550" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F550" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G550" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="H550" s="10">
+        <v>0</v>
+      </c>
+      <c r="I550" s="9">
+        <v>1</v>
+      </c>
+      <c r="J550" s="9">
+        <v>0</v>
+      </c>
+      <c r="K550" s="9">
+        <v>30000</v>
+      </c>
+      <c r="L550" s="9">
+        <v>15970</v>
+      </c>
+      <c r="M550" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N550" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="O550" s="11">
+        <v>0</v>
+      </c>
+      <c r="P550" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q550" s="10">
+        <v>2</v>
+      </c>
+      <c r="R550" s="15">
+        <v>10025010</v>
+      </c>
+      <c r="S550" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T550" s="15">
+        <v>0</v>
+      </c>
+      <c r="U550" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F6A4CE-8302-47D0-AB53-0BCF582D074B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2AA156-4F31-4BE2-8C91-B70378C98C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9983,9 +9983,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L545" sqref="L545"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10204,7 +10204,7 @@
       <c r="G6" s="9">
         <v>1</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="9">
         <v>0</v>
       </c>
       <c r="I6" s="9">
@@ -10263,7 +10263,7 @@
       <c r="G7" s="10">
         <v>1</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="9">
         <v>0</v>
       </c>
       <c r="I7" s="9">
@@ -10322,7 +10322,7 @@
       <c r="G8" s="9">
         <v>2</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="9">
         <v>0</v>
       </c>
       <c r="I8" s="9">
@@ -10381,7 +10381,7 @@
       <c r="G9" s="10">
         <v>1</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="9">
         <v>0</v>
       </c>
       <c r="I9" s="10">
@@ -10440,7 +10440,7 @@
       <c r="G10" s="10">
         <v>1</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="9">
         <v>0</v>
       </c>
       <c r="I10" s="10">
@@ -10499,7 +10499,7 @@
       <c r="G11" s="9">
         <v>1</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="9">
         <v>0</v>
       </c>
       <c r="I11" s="9">
@@ -10558,7 +10558,7 @@
       <c r="G12" s="9">
         <v>1</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="9">
         <v>0</v>
       </c>
       <c r="I12" s="9">
@@ -10617,7 +10617,7 @@
       <c r="G13" s="9">
         <v>1</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="9">
         <v>0</v>
       </c>
       <c r="I13" s="9">
@@ -10676,7 +10676,7 @@
       <c r="G14" s="9">
         <v>1</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="9">
         <v>0</v>
       </c>
       <c r="I14" s="9">
@@ -10735,7 +10735,7 @@
       <c r="G15" s="9">
         <v>1</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="9">
         <v>0</v>
       </c>
       <c r="I15" s="9">
@@ -10794,7 +10794,7 @@
       <c r="G16" s="9">
         <v>2</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="9">
         <v>0</v>
       </c>
       <c r="I16" s="9">
@@ -10853,7 +10853,7 @@
       <c r="G17" s="9">
         <v>1</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="9">
         <v>0</v>
       </c>
       <c r="I17" s="9">
@@ -10912,7 +10912,7 @@
       <c r="G18" s="9">
         <v>1</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="9">
         <v>0</v>
       </c>
       <c r="I18" s="9">
@@ -10971,7 +10971,7 @@
       <c r="G19" s="9">
         <v>1</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="9">
         <v>0</v>
       </c>
       <c r="I19" s="9">
@@ -11030,7 +11030,7 @@
       <c r="G20" s="9">
         <v>1</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="9">
         <v>0</v>
       </c>
       <c r="I20" s="9">
@@ -11089,7 +11089,7 @@
       <c r="G21" s="9">
         <v>1</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="9">
         <v>0</v>
       </c>
       <c r="I21" s="9">
@@ -11148,7 +11148,7 @@
       <c r="G22" s="9">
         <v>1</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="9">
         <v>0</v>
       </c>
       <c r="I22" s="9">
@@ -11207,7 +11207,7 @@
       <c r="G23" s="9">
         <v>1</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="9">
         <v>0</v>
       </c>
       <c r="I23" s="9">
@@ -11266,7 +11266,7 @@
       <c r="G24" s="9">
         <v>1</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="9">
         <v>0</v>
       </c>
       <c r="I24" s="9">
@@ -11325,7 +11325,7 @@
       <c r="G25" s="9">
         <v>1</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="9">
         <v>0</v>
       </c>
       <c r="I25" s="9">
@@ -11384,7 +11384,7 @@
       <c r="G26" s="9">
         <v>1</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="9">
         <v>0</v>
       </c>
       <c r="I26" s="9">
@@ -11443,7 +11443,7 @@
       <c r="G27" s="9">
         <v>1</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="9">
         <v>0</v>
       </c>
       <c r="I27" s="9">
@@ -11502,7 +11502,7 @@
       <c r="G28" s="9">
         <v>1</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="9">
         <v>0</v>
       </c>
       <c r="I28" s="9">
@@ -11561,7 +11561,7 @@
       <c r="G29" s="9">
         <v>1</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="9">
         <v>0</v>
       </c>
       <c r="I29" s="9">
@@ -11620,7 +11620,7 @@
       <c r="G30" s="9">
         <v>1</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="9">
         <v>0</v>
       </c>
       <c r="I30" s="9">
@@ -11679,7 +11679,7 @@
       <c r="G31" s="9">
         <v>1</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="9">
         <v>0</v>
       </c>
       <c r="I31" s="9">
@@ -11738,7 +11738,7 @@
       <c r="G32" s="9">
         <v>1</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="9">
         <v>0</v>
       </c>
       <c r="I32" s="9">
@@ -11797,7 +11797,7 @@
       <c r="G33" s="9">
         <v>1</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="9">
         <v>0</v>
       </c>
       <c r="I33" s="9">
@@ -11856,7 +11856,7 @@
       <c r="G34" s="9">
         <v>1</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="9">
         <v>0</v>
       </c>
       <c r="I34" s="9">
@@ -11915,7 +11915,7 @@
       <c r="G35" s="9">
         <v>1</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="9">
         <v>0</v>
       </c>
       <c r="I35" s="9">
@@ -11974,7 +11974,7 @@
       <c r="G36" s="9">
         <v>1</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="9">
         <v>0</v>
       </c>
       <c r="I36" s="9">
@@ -12033,7 +12033,7 @@
       <c r="G37" s="9">
         <v>1</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="9">
         <v>0</v>
       </c>
       <c r="I37" s="9">
@@ -12092,7 +12092,7 @@
       <c r="G38" s="9">
         <v>1</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="9">
         <v>0</v>
       </c>
       <c r="I38" s="9">
@@ -12151,7 +12151,7 @@
       <c r="G39" s="9">
         <v>1</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="9">
         <v>0</v>
       </c>
       <c r="I39" s="9">
@@ -12210,7 +12210,7 @@
       <c r="G40" s="9">
         <v>1</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="9">
         <v>0</v>
       </c>
       <c r="I40" s="9">
@@ -12269,7 +12269,7 @@
       <c r="G41" s="9">
         <v>1</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="9">
         <v>0</v>
       </c>
       <c r="I41" s="9">
@@ -12328,7 +12328,7 @@
       <c r="G42" s="9">
         <v>1</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="9">
         <v>0</v>
       </c>
       <c r="I42" s="9">
@@ -12387,7 +12387,7 @@
       <c r="G43" s="9">
         <v>1</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="9">
         <v>0</v>
       </c>
       <c r="I43" s="9">
@@ -12446,7 +12446,7 @@
       <c r="G44" s="9">
         <v>1</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="9">
         <v>0</v>
       </c>
       <c r="I44" s="9">
@@ -12505,7 +12505,7 @@
       <c r="G45" s="9">
         <v>1</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="9">
         <v>0</v>
       </c>
       <c r="I45" s="9">
@@ -12564,7 +12564,7 @@
       <c r="G46" s="9">
         <v>1</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="9">
         <v>0</v>
       </c>
       <c r="I46" s="9">
@@ -12623,7 +12623,7 @@
       <c r="G47" s="9">
         <v>1</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="9">
         <v>0</v>
       </c>
       <c r="I47" s="9">
@@ -12682,7 +12682,7 @@
       <c r="G48" s="9">
         <v>1</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="9">
         <v>0</v>
       </c>
       <c r="I48" s="9">
@@ -12741,7 +12741,7 @@
       <c r="G49" s="9">
         <v>1</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="9">
         <v>0</v>
       </c>
       <c r="I49" s="9">
@@ -12800,7 +12800,7 @@
       <c r="G50" s="9">
         <v>1</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="9">
         <v>0</v>
       </c>
       <c r="I50" s="9">
@@ -12859,7 +12859,7 @@
       <c r="G51" s="9">
         <v>1</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="9">
         <v>0</v>
       </c>
       <c r="I51" s="9">
@@ -12918,7 +12918,7 @@
       <c r="G52" s="9">
         <v>1</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="9">
         <v>0</v>
       </c>
       <c r="I52" s="9">
@@ -12977,7 +12977,7 @@
       <c r="G53" s="9">
         <v>1</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="9">
         <v>0</v>
       </c>
       <c r="I53" s="9">
@@ -13036,7 +13036,7 @@
       <c r="G54" s="9">
         <v>1</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="9">
         <v>0</v>
       </c>
       <c r="I54" s="9">
@@ -13095,7 +13095,7 @@
       <c r="G55" s="9">
         <v>1</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="9">
         <v>0</v>
       </c>
       <c r="I55" s="9">
@@ -13154,7 +13154,7 @@
       <c r="G56" s="9">
         <v>1</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="9">
         <v>0</v>
       </c>
       <c r="I56" s="9">
@@ -13213,7 +13213,7 @@
       <c r="G57" s="9">
         <v>1</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="9">
         <v>0</v>
       </c>
       <c r="I57" s="9">
@@ -13272,7 +13272,7 @@
       <c r="G58" s="9">
         <v>1</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="9">
         <v>0</v>
       </c>
       <c r="I58" s="9">
@@ -13331,7 +13331,7 @@
       <c r="G59" s="9">
         <v>1</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="9">
         <v>0</v>
       </c>
       <c r="I59" s="9">
@@ -13390,7 +13390,7 @@
       <c r="G60" s="9">
         <v>1</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="9">
         <v>0</v>
       </c>
       <c r="I60" s="9">
@@ -13449,7 +13449,7 @@
       <c r="G61" s="9">
         <v>1</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="9">
         <v>0</v>
       </c>
       <c r="I61" s="9">
@@ -13508,7 +13508,7 @@
       <c r="G62" s="9">
         <v>1</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="9">
         <v>0</v>
       </c>
       <c r="I62" s="9">
@@ -13567,7 +13567,7 @@
       <c r="G63" s="9">
         <v>1</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="9">
         <v>0</v>
       </c>
       <c r="I63" s="9">
@@ -13626,7 +13626,7 @@
       <c r="G64" s="9">
         <v>1</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="9">
         <v>0</v>
       </c>
       <c r="I64" s="9">
@@ -13685,7 +13685,7 @@
       <c r="G65" s="9">
         <v>1</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="9">
         <v>0</v>
       </c>
       <c r="I65" s="9">
@@ -13744,7 +13744,7 @@
       <c r="G66" s="9">
         <v>1</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="9">
         <v>0</v>
       </c>
       <c r="I66" s="9">
@@ -13803,7 +13803,7 @@
       <c r="G67" s="9">
         <v>1</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="9">
         <v>0</v>
       </c>
       <c r="I67" s="9">
@@ -13862,7 +13862,7 @@
       <c r="G68" s="9">
         <v>1</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="9">
         <v>0</v>
       </c>
       <c r="I68" s="9">
@@ -13921,7 +13921,7 @@
       <c r="G69" s="9">
         <v>1</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="9">
         <v>0</v>
       </c>
       <c r="I69" s="9">
@@ -13980,7 +13980,7 @@
       <c r="G70" s="9">
         <v>1</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="9">
         <v>0</v>
       </c>
       <c r="I70" s="9">
@@ -14039,7 +14039,7 @@
       <c r="G71" s="9">
         <v>1</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="9">
         <v>0</v>
       </c>
       <c r="I71" s="9">
@@ -14098,7 +14098,7 @@
       <c r="G72" s="9">
         <v>1</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="9">
         <v>0</v>
       </c>
       <c r="I72" s="9">
@@ -14157,7 +14157,7 @@
       <c r="G73" s="9">
         <v>1</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="9">
         <v>0</v>
       </c>
       <c r="I73" s="9">
@@ -14216,7 +14216,7 @@
       <c r="G74" s="9">
         <v>1</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="9">
         <v>0</v>
       </c>
       <c r="I74" s="9">
@@ -14275,7 +14275,7 @@
       <c r="G75" s="9">
         <v>1</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="9">
         <v>0</v>
       </c>
       <c r="I75" s="9">
@@ -14334,7 +14334,7 @@
       <c r="G76" s="9">
         <v>1</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="9">
         <v>0</v>
       </c>
       <c r="I76" s="9">
@@ -14393,7 +14393,7 @@
       <c r="G77" s="9">
         <v>1</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="9">
         <v>0</v>
       </c>
       <c r="I77" s="9">
@@ -14452,7 +14452,7 @@
       <c r="G78" s="9">
         <v>1</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="9">
         <v>0</v>
       </c>
       <c r="I78" s="9">
@@ -14511,7 +14511,7 @@
       <c r="G79" s="9">
         <v>1</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="9">
         <v>0</v>
       </c>
       <c r="I79" s="9">
@@ -14570,7 +14570,7 @@
       <c r="G80" s="9">
         <v>1</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="9">
         <v>0</v>
       </c>
       <c r="I80" s="9">
@@ -14629,7 +14629,7 @@
       <c r="G81" s="9">
         <v>1</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="9">
         <v>0</v>
       </c>
       <c r="I81" s="9">
@@ -14688,7 +14688,7 @@
       <c r="G82" s="9">
         <v>1</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="9">
         <v>0</v>
       </c>
       <c r="I82" s="9">
@@ -14747,7 +14747,7 @@
       <c r="G83" s="9">
         <v>1</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="9">
         <v>0</v>
       </c>
       <c r="I83" s="9">
@@ -14806,7 +14806,7 @@
       <c r="G84" s="9">
         <v>1</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="9">
         <v>0</v>
       </c>
       <c r="I84" s="9">
@@ -14865,7 +14865,7 @@
       <c r="G85" s="9">
         <v>1</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H85" s="9">
         <v>0</v>
       </c>
       <c r="I85" s="9">
@@ -14924,7 +14924,7 @@
       <c r="G86" s="9">
         <v>1</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="9">
         <v>0</v>
       </c>
       <c r="I86" s="9">
@@ -14983,7 +14983,7 @@
       <c r="G87" s="9">
         <v>1</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H87" s="9">
         <v>0</v>
       </c>
       <c r="I87" s="9">
@@ -15042,7 +15042,7 @@
       <c r="G88" s="9">
         <v>1</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="9">
         <v>0</v>
       </c>
       <c r="I88" s="9">
@@ -15101,7 +15101,7 @@
       <c r="G89" s="9">
         <v>1</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="9">
         <v>0</v>
       </c>
       <c r="I89" s="9">
@@ -15160,7 +15160,7 @@
       <c r="G90" s="9">
         <v>1</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="9">
         <v>0</v>
       </c>
       <c r="I90" s="9">
@@ -15219,7 +15219,7 @@
       <c r="G91" s="9">
         <v>1</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="9">
         <v>0</v>
       </c>
       <c r="I91" s="9">
@@ -15278,7 +15278,7 @@
       <c r="G92" s="9">
         <v>1</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="9">
         <v>0</v>
       </c>
       <c r="I92" s="9">
@@ -15337,7 +15337,7 @@
       <c r="G93" s="9">
         <v>1</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93" s="9">
         <v>0</v>
       </c>
       <c r="I93" s="9">
@@ -15396,7 +15396,7 @@
       <c r="G94" s="9">
         <v>1</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="9">
         <v>0</v>
       </c>
       <c r="I94" s="9">
@@ -15455,7 +15455,7 @@
       <c r="G95" s="9">
         <v>1</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="9">
         <v>0</v>
       </c>
       <c r="I95" s="9">
@@ -15514,7 +15514,7 @@
       <c r="G96" s="9">
         <v>1</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="9">
         <v>0</v>
       </c>
       <c r="I96" s="9">
@@ -15573,7 +15573,7 @@
       <c r="G97" s="9">
         <v>1</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97" s="9">
         <v>0</v>
       </c>
       <c r="I97" s="9">
@@ -15632,7 +15632,7 @@
       <c r="G98" s="9">
         <v>1</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="9">
         <v>0</v>
       </c>
       <c r="I98" s="9">
@@ -15691,7 +15691,7 @@
       <c r="G99" s="9">
         <v>1</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99" s="9">
         <v>0</v>
       </c>
       <c r="I99" s="9">
@@ -15750,7 +15750,7 @@
       <c r="G100" s="9">
         <v>1</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="9">
         <v>0</v>
       </c>
       <c r="I100" s="9">
@@ -15809,7 +15809,7 @@
       <c r="G101" s="9">
         <v>1</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="9">
         <v>0</v>
       </c>
       <c r="I101" s="9">
@@ -15868,7 +15868,7 @@
       <c r="G102" s="9">
         <v>1</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="9">
         <v>0</v>
       </c>
       <c r="I102" s="9">
@@ -15927,7 +15927,7 @@
       <c r="G103" s="9">
         <v>1</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H103" s="9">
         <v>0</v>
       </c>
       <c r="I103" s="9">
@@ -15986,7 +15986,7 @@
       <c r="G104" s="9">
         <v>1</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104" s="9">
         <v>0</v>
       </c>
       <c r="I104" s="9">
@@ -16045,7 +16045,7 @@
       <c r="G105" s="9">
         <v>1</v>
       </c>
-      <c r="H105" s="3">
+      <c r="H105" s="9">
         <v>0</v>
       </c>
       <c r="I105" s="9">
@@ -16104,7 +16104,7 @@
       <c r="G106" s="9">
         <v>1</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="9">
         <v>0</v>
       </c>
       <c r="I106" s="9">
@@ -16163,7 +16163,7 @@
       <c r="G107" s="9">
         <v>1</v>
       </c>
-      <c r="H107" s="3">
+      <c r="H107" s="9">
         <v>0</v>
       </c>
       <c r="I107" s="9">
@@ -16222,7 +16222,7 @@
       <c r="G108" s="9">
         <v>1</v>
       </c>
-      <c r="H108" s="3">
+      <c r="H108" s="9">
         <v>0</v>
       </c>
       <c r="I108" s="9">
@@ -16281,7 +16281,7 @@
       <c r="G109" s="9">
         <v>1</v>
       </c>
-      <c r="H109" s="3">
+      <c r="H109" s="9">
         <v>0</v>
       </c>
       <c r="I109" s="9">
@@ -16340,7 +16340,7 @@
       <c r="G110" s="9">
         <v>1</v>
       </c>
-      <c r="H110" s="3">
+      <c r="H110" s="9">
         <v>0</v>
       </c>
       <c r="I110" s="9">
@@ -16399,7 +16399,7 @@
       <c r="G111" s="9">
         <v>1</v>
       </c>
-      <c r="H111" s="3">
+      <c r="H111" s="9">
         <v>0</v>
       </c>
       <c r="I111" s="9">
@@ -16458,7 +16458,7 @@
       <c r="G112" s="9">
         <v>1</v>
       </c>
-      <c r="H112" s="3">
+      <c r="H112" s="9">
         <v>0</v>
       </c>
       <c r="I112" s="9">
@@ -16517,7 +16517,7 @@
       <c r="G113" s="9">
         <v>1</v>
       </c>
-      <c r="H113" s="3">
+      <c r="H113" s="9">
         <v>0</v>
       </c>
       <c r="I113" s="9">
@@ -16576,7 +16576,7 @@
       <c r="G114" s="9">
         <v>1</v>
       </c>
-      <c r="H114" s="3">
+      <c r="H114" s="9">
         <v>0</v>
       </c>
       <c r="I114" s="9">
@@ -16635,7 +16635,7 @@
       <c r="G115" s="9">
         <v>1</v>
       </c>
-      <c r="H115" s="3">
+      <c r="H115" s="9">
         <v>0</v>
       </c>
       <c r="I115" s="9">
@@ -16694,7 +16694,7 @@
       <c r="G116" s="9">
         <v>1</v>
       </c>
-      <c r="H116" s="3">
+      <c r="H116" s="9">
         <v>0</v>
       </c>
       <c r="I116" s="9">
@@ -16753,7 +16753,7 @@
       <c r="G117" s="9">
         <v>1</v>
       </c>
-      <c r="H117" s="3">
+      <c r="H117" s="9">
         <v>0</v>
       </c>
       <c r="I117" s="9">
@@ -16812,7 +16812,7 @@
       <c r="G118" s="9">
         <v>1</v>
       </c>
-      <c r="H118" s="3">
+      <c r="H118" s="9">
         <v>0</v>
       </c>
       <c r="I118" s="9">
@@ -16871,7 +16871,7 @@
       <c r="G119" s="9">
         <v>1</v>
       </c>
-      <c r="H119" s="3">
+      <c r="H119" s="9">
         <v>0</v>
       </c>
       <c r="I119" s="9">
@@ -16930,7 +16930,7 @@
       <c r="G120" s="9">
         <v>1</v>
       </c>
-      <c r="H120" s="3">
+      <c r="H120" s="9">
         <v>0</v>
       </c>
       <c r="I120" s="9">
@@ -16989,7 +16989,7 @@
       <c r="G121" s="9">
         <v>1</v>
       </c>
-      <c r="H121" s="3">
+      <c r="H121" s="9">
         <v>0</v>
       </c>
       <c r="I121" s="9">
@@ -17048,7 +17048,7 @@
       <c r="G122" s="9">
         <v>1</v>
       </c>
-      <c r="H122" s="3">
+      <c r="H122" s="9">
         <v>0</v>
       </c>
       <c r="I122" s="9">
@@ -17107,7 +17107,7 @@
       <c r="G123" s="9">
         <v>1</v>
       </c>
-      <c r="H123" s="3">
+      <c r="H123" s="9">
         <v>0</v>
       </c>
       <c r="I123" s="9">
@@ -17166,7 +17166,7 @@
       <c r="G124" s="9">
         <v>1</v>
       </c>
-      <c r="H124" s="3">
+      <c r="H124" s="9">
         <v>0</v>
       </c>
       <c r="I124" s="9">
@@ -17225,7 +17225,7 @@
       <c r="G125" s="9">
         <v>1</v>
       </c>
-      <c r="H125" s="3">
+      <c r="H125" s="9">
         <v>0</v>
       </c>
       <c r="I125" s="9">
@@ -17284,7 +17284,7 @@
       <c r="G126" s="9">
         <v>1</v>
       </c>
-      <c r="H126" s="3">
+      <c r="H126" s="9">
         <v>0</v>
       </c>
       <c r="I126" s="9">
@@ -17343,7 +17343,7 @@
       <c r="G127" s="9">
         <v>1</v>
       </c>
-      <c r="H127" s="3">
+      <c r="H127" s="9">
         <v>0</v>
       </c>
       <c r="I127" s="9">
@@ -17402,7 +17402,7 @@
       <c r="G128" s="9">
         <v>1</v>
       </c>
-      <c r="H128" s="3">
+      <c r="H128" s="9">
         <v>0</v>
       </c>
       <c r="I128" s="9">
@@ -17461,7 +17461,7 @@
       <c r="G129" s="9">
         <v>1</v>
       </c>
-      <c r="H129" s="3">
+      <c r="H129" s="9">
         <v>0</v>
       </c>
       <c r="I129" s="9">
@@ -17520,7 +17520,7 @@
       <c r="G130" s="9">
         <v>1</v>
       </c>
-      <c r="H130" s="3">
+      <c r="H130" s="9">
         <v>0</v>
       </c>
       <c r="I130" s="9">
@@ -17579,7 +17579,7 @@
       <c r="G131" s="9">
         <v>1</v>
       </c>
-      <c r="H131" s="3">
+      <c r="H131" s="9">
         <v>0</v>
       </c>
       <c r="I131" s="9">
@@ -17638,7 +17638,7 @@
       <c r="G132" s="9">
         <v>1</v>
       </c>
-      <c r="H132" s="3">
+      <c r="H132" s="9">
         <v>0</v>
       </c>
       <c r="I132" s="9">
@@ -17697,7 +17697,7 @@
       <c r="G133" s="9">
         <v>1</v>
       </c>
-      <c r="H133" s="3">
+      <c r="H133" s="9">
         <v>0</v>
       </c>
       <c r="I133" s="9">
@@ -17756,7 +17756,7 @@
       <c r="G134" s="9">
         <v>1</v>
       </c>
-      <c r="H134" s="3">
+      <c r="H134" s="9">
         <v>0</v>
       </c>
       <c r="I134" s="9">
@@ -17815,7 +17815,7 @@
       <c r="G135" s="9">
         <v>1</v>
       </c>
-      <c r="H135" s="3">
+      <c r="H135" s="9">
         <v>0</v>
       </c>
       <c r="I135" s="9">
@@ -17874,7 +17874,7 @@
       <c r="G136" s="9">
         <v>1</v>
       </c>
-      <c r="H136" s="3">
+      <c r="H136" s="9">
         <v>0</v>
       </c>
       <c r="I136" s="9">
@@ -17933,7 +17933,7 @@
       <c r="G137" s="9">
         <v>1</v>
       </c>
-      <c r="H137" s="3">
+      <c r="H137" s="9">
         <v>0</v>
       </c>
       <c r="I137" s="9">
@@ -17992,7 +17992,7 @@
       <c r="G138" s="9">
         <v>1</v>
       </c>
-      <c r="H138" s="3">
+      <c r="H138" s="9">
         <v>0</v>
       </c>
       <c r="I138" s="9">
@@ -18051,7 +18051,7 @@
       <c r="G139" s="9">
         <v>1</v>
       </c>
-      <c r="H139" s="3">
+      <c r="H139" s="9">
         <v>0</v>
       </c>
       <c r="I139" s="9">
@@ -18110,7 +18110,7 @@
       <c r="G140" s="9">
         <v>1</v>
       </c>
-      <c r="H140" s="3">
+      <c r="H140" s="9">
         <v>0</v>
       </c>
       <c r="I140" s="9">
@@ -18169,7 +18169,7 @@
       <c r="G141" s="9">
         <v>1</v>
       </c>
-      <c r="H141" s="3">
+      <c r="H141" s="9">
         <v>0</v>
       </c>
       <c r="I141" s="9">
@@ -18228,7 +18228,7 @@
       <c r="G142" s="9">
         <v>1</v>
       </c>
-      <c r="H142" s="3">
+      <c r="H142" s="9">
         <v>0</v>
       </c>
       <c r="I142" s="9">
@@ -18287,7 +18287,7 @@
       <c r="G143" s="9">
         <v>1</v>
       </c>
-      <c r="H143" s="3">
+      <c r="H143" s="9">
         <v>0</v>
       </c>
       <c r="I143" s="9">
@@ -18346,7 +18346,7 @@
       <c r="G144" s="9">
         <v>1</v>
       </c>
-      <c r="H144" s="3">
+      <c r="H144" s="9">
         <v>0</v>
       </c>
       <c r="I144" s="9">
@@ -18405,7 +18405,7 @@
       <c r="G145" s="9">
         <v>1</v>
       </c>
-      <c r="H145" s="3">
+      <c r="H145" s="9">
         <v>0</v>
       </c>
       <c r="I145" s="9">
@@ -18464,7 +18464,7 @@
       <c r="G146" s="9">
         <v>1</v>
       </c>
-      <c r="H146" s="3">
+      <c r="H146" s="9">
         <v>0</v>
       </c>
       <c r="I146" s="9">
@@ -18523,7 +18523,7 @@
       <c r="G147" s="9">
         <v>1</v>
       </c>
-      <c r="H147" s="3">
+      <c r="H147" s="9">
         <v>0</v>
       </c>
       <c r="I147" s="9">
@@ -18582,7 +18582,7 @@
       <c r="G148" s="9">
         <v>1</v>
       </c>
-      <c r="H148" s="3">
+      <c r="H148" s="9">
         <v>0</v>
       </c>
       <c r="I148" s="9">
@@ -18641,7 +18641,7 @@
       <c r="G149" s="9">
         <v>1</v>
       </c>
-      <c r="H149" s="3">
+      <c r="H149" s="9">
         <v>0</v>
       </c>
       <c r="I149" s="9">
@@ -18700,7 +18700,7 @@
       <c r="G150" s="9">
         <v>1</v>
       </c>
-      <c r="H150" s="3">
+      <c r="H150" s="9">
         <v>0</v>
       </c>
       <c r="I150" s="9">
@@ -18759,7 +18759,7 @@
       <c r="G151" s="9">
         <v>1</v>
       </c>
-      <c r="H151" s="3">
+      <c r="H151" s="9">
         <v>0</v>
       </c>
       <c r="I151" s="9">
@@ -18818,7 +18818,7 @@
       <c r="G152" s="9">
         <v>1</v>
       </c>
-      <c r="H152" s="3">
+      <c r="H152" s="9">
         <v>0</v>
       </c>
       <c r="I152" s="9">
@@ -18877,7 +18877,7 @@
       <c r="G153" s="9">
         <v>1</v>
       </c>
-      <c r="H153" s="3">
+      <c r="H153" s="9">
         <v>0</v>
       </c>
       <c r="I153" s="9">
@@ -18936,7 +18936,7 @@
       <c r="G154" s="9">
         <v>1</v>
       </c>
-      <c r="H154" s="3">
+      <c r="H154" s="9">
         <v>0</v>
       </c>
       <c r="I154" s="9">
@@ -18995,7 +18995,7 @@
       <c r="G155" s="9">
         <v>1</v>
       </c>
-      <c r="H155" s="3">
+      <c r="H155" s="9">
         <v>0</v>
       </c>
       <c r="I155" s="9">
@@ -19054,7 +19054,7 @@
       <c r="G156" s="9">
         <v>1</v>
       </c>
-      <c r="H156" s="3">
+      <c r="H156" s="9">
         <v>0</v>
       </c>
       <c r="I156" s="9">
@@ -19113,7 +19113,7 @@
       <c r="G157" s="9">
         <v>1</v>
       </c>
-      <c r="H157" s="3">
+      <c r="H157" s="9">
         <v>0</v>
       </c>
       <c r="I157" s="9">
@@ -19172,7 +19172,7 @@
       <c r="G158" s="9">
         <v>1</v>
       </c>
-      <c r="H158" s="3">
+      <c r="H158" s="9">
         <v>0</v>
       </c>
       <c r="I158" s="9">
@@ -19231,7 +19231,7 @@
       <c r="G159" s="9">
         <v>1</v>
       </c>
-      <c r="H159" s="3">
+      <c r="H159" s="9">
         <v>0</v>
       </c>
       <c r="I159" s="9">
@@ -19290,7 +19290,7 @@
       <c r="G160" s="9">
         <v>1</v>
       </c>
-      <c r="H160" s="3">
+      <c r="H160" s="9">
         <v>0</v>
       </c>
       <c r="I160" s="9">
@@ -19349,7 +19349,7 @@
       <c r="G161" s="9">
         <v>1</v>
       </c>
-      <c r="H161" s="3">
+      <c r="H161" s="9">
         <v>0</v>
       </c>
       <c r="I161" s="9">
@@ -19408,7 +19408,7 @@
       <c r="G162" s="9">
         <v>1</v>
       </c>
-      <c r="H162" s="3">
+      <c r="H162" s="9">
         <v>0</v>
       </c>
       <c r="I162" s="9">
@@ -19467,7 +19467,7 @@
       <c r="G163" s="9">
         <v>1</v>
       </c>
-      <c r="H163" s="3">
+      <c r="H163" s="9">
         <v>0</v>
       </c>
       <c r="I163" s="9">
@@ -19526,7 +19526,7 @@
       <c r="G164" s="9">
         <v>1</v>
       </c>
-      <c r="H164" s="3">
+      <c r="H164" s="9">
         <v>0</v>
       </c>
       <c r="I164" s="9">
@@ -19585,7 +19585,7 @@
       <c r="G165" s="9">
         <v>1</v>
       </c>
-      <c r="H165" s="3">
+      <c r="H165" s="9">
         <v>0</v>
       </c>
       <c r="I165" s="9">
@@ -19645,7 +19645,7 @@
       <c r="G166" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H166" s="10">
+      <c r="H166" s="9">
         <v>0</v>
       </c>
       <c r="I166" s="9">
@@ -19705,7 +19705,7 @@
       <c r="G167" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H167" s="10">
+      <c r="H167" s="9">
         <v>0</v>
       </c>
       <c r="I167" s="9">
@@ -19765,7 +19765,7 @@
       <c r="G168" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H168" s="10">
+      <c r="H168" s="9">
         <v>0</v>
       </c>
       <c r="I168" s="9">
@@ -19825,7 +19825,7 @@
       <c r="G169" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H169" s="10">
+      <c r="H169" s="9">
         <v>0</v>
       </c>
       <c r="I169" s="9">
@@ -19885,7 +19885,7 @@
       <c r="G170" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H170" s="10">
+      <c r="H170" s="9">
         <v>0</v>
       </c>
       <c r="I170" s="9">
@@ -19945,7 +19945,7 @@
       <c r="G171" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H171" s="10">
+      <c r="H171" s="9">
         <v>0</v>
       </c>
       <c r="I171" s="9">
@@ -20005,7 +20005,7 @@
       <c r="G172" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H172" s="10">
+      <c r="H172" s="9">
         <v>0</v>
       </c>
       <c r="I172" s="9">
@@ -20065,7 +20065,7 @@
       <c r="G173" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H173" s="10">
+      <c r="H173" s="9">
         <v>0</v>
       </c>
       <c r="I173" s="9">
@@ -20125,7 +20125,7 @@
       <c r="G174" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H174" s="10">
+      <c r="H174" s="9">
         <v>0</v>
       </c>
       <c r="I174" s="9">
@@ -20185,7 +20185,7 @@
       <c r="G175" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H175" s="10">
+      <c r="H175" s="9">
         <v>0</v>
       </c>
       <c r="I175" s="9">
@@ -20244,7 +20244,7 @@
       <c r="G176" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H176" s="10">
+      <c r="H176" s="9">
         <v>0</v>
       </c>
       <c r="I176" s="9">
@@ -20303,7 +20303,7 @@
       <c r="G177" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H177" s="10">
+      <c r="H177" s="9">
         <v>0</v>
       </c>
       <c r="I177" s="9">
@@ -20364,7 +20364,7 @@
       <c r="G178" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H178" s="10">
+      <c r="H178" s="9">
         <v>0</v>
       </c>
       <c r="I178" s="9">
@@ -20425,7 +20425,7 @@
       <c r="G179" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H179" s="10">
+      <c r="H179" s="9">
         <v>0</v>
       </c>
       <c r="I179" s="9">
@@ -20486,7 +20486,7 @@
       <c r="G180" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H180" s="10">
+      <c r="H180" s="9">
         <v>0</v>
       </c>
       <c r="I180" s="9">
@@ -20547,7 +20547,7 @@
       <c r="G181" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H181" s="10">
+      <c r="H181" s="9">
         <v>0</v>
       </c>
       <c r="I181" s="9">
@@ -20608,7 +20608,7 @@
       <c r="G182" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H182" s="10">
+      <c r="H182" s="9">
         <v>0</v>
       </c>
       <c r="I182" s="9">
@@ -20669,7 +20669,7 @@
       <c r="G183" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H183" s="10">
+      <c r="H183" s="9">
         <v>0</v>
       </c>
       <c r="I183" s="9">
@@ -20730,7 +20730,7 @@
       <c r="G184" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H184" s="10">
+      <c r="H184" s="9">
         <v>0</v>
       </c>
       <c r="I184" s="9">
@@ -20791,7 +20791,7 @@
       <c r="G185" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H185" s="10">
+      <c r="H185" s="9">
         <v>0</v>
       </c>
       <c r="I185" s="9">
@@ -20852,7 +20852,7 @@
       <c r="G186" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H186" s="10">
+      <c r="H186" s="9">
         <v>0</v>
       </c>
       <c r="I186" s="9">
@@ -20913,7 +20913,7 @@
       <c r="G187" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H187" s="10">
+      <c r="H187" s="9">
         <v>0</v>
       </c>
       <c r="I187" s="9">
@@ -20973,7 +20973,7 @@
       <c r="G188" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H188" s="10">
+      <c r="H188" s="9">
         <v>0</v>
       </c>
       <c r="I188" s="9">
@@ -21033,7 +21033,7 @@
       <c r="G189" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H189" s="10">
+      <c r="H189" s="9">
         <v>0</v>
       </c>
       <c r="I189" s="9">
@@ -21094,7 +21094,7 @@
       <c r="G190" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H190" s="10">
+      <c r="H190" s="9">
         <v>0</v>
       </c>
       <c r="I190" s="9">
@@ -21155,7 +21155,7 @@
       <c r="G191" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H191" s="10">
+      <c r="H191" s="9">
         <v>0</v>
       </c>
       <c r="I191" s="9">
@@ -21216,7 +21216,7 @@
       <c r="G192" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H192" s="10">
+      <c r="H192" s="9">
         <v>0</v>
       </c>
       <c r="I192" s="9">
@@ -21277,7 +21277,7 @@
       <c r="G193" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H193" s="10">
+      <c r="H193" s="9">
         <v>0</v>
       </c>
       <c r="I193" s="9">
@@ -21338,7 +21338,7 @@
       <c r="G194" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H194" s="10">
+      <c r="H194" s="9">
         <v>0</v>
       </c>
       <c r="I194" s="9">
@@ -21399,7 +21399,7 @@
       <c r="G195" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H195" s="10">
+      <c r="H195" s="9">
         <v>0</v>
       </c>
       <c r="I195" s="9">
@@ -21460,7 +21460,7 @@
       <c r="G196" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H196" s="10">
+      <c r="H196" s="9">
         <v>0</v>
       </c>
       <c r="I196" s="9">
@@ -21521,7 +21521,7 @@
       <c r="G197" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H197" s="10">
+      <c r="H197" s="9">
         <v>0</v>
       </c>
       <c r="I197" s="9">
@@ -21582,7 +21582,7 @@
       <c r="G198" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H198" s="10">
+      <c r="H198" s="9">
         <v>0</v>
       </c>
       <c r="I198" s="9">
@@ -21643,7 +21643,7 @@
       <c r="G199" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H199" s="10">
+      <c r="H199" s="9">
         <v>0</v>
       </c>
       <c r="I199" s="9">
@@ -21703,7 +21703,7 @@
       <c r="G200" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H200" s="10">
+      <c r="H200" s="9">
         <v>0</v>
       </c>
       <c r="I200" s="9">
@@ -21763,7 +21763,7 @@
       <c r="G201" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H201" s="10">
+      <c r="H201" s="9">
         <v>0</v>
       </c>
       <c r="I201" s="9">
@@ -21822,7 +21822,7 @@
       <c r="G202" s="9">
         <v>3</v>
       </c>
-      <c r="H202" s="10">
+      <c r="H202" s="9">
         <v>0</v>
       </c>
       <c r="I202" s="9">
@@ -21881,7 +21881,7 @@
       <c r="G203" s="9">
         <v>3</v>
       </c>
-      <c r="H203" s="10">
+      <c r="H203" s="9">
         <v>0</v>
       </c>
       <c r="I203" s="9">
@@ -21940,7 +21940,7 @@
       <c r="G204" s="9">
         <v>3</v>
       </c>
-      <c r="H204" s="10">
+      <c r="H204" s="9">
         <v>0</v>
       </c>
       <c r="I204" s="9">
@@ -21999,7 +21999,7 @@
       <c r="G205" s="9">
         <v>3</v>
       </c>
-      <c r="H205" s="10">
+      <c r="H205" s="9">
         <v>0</v>
       </c>
       <c r="I205" s="9">
@@ -22058,7 +22058,7 @@
       <c r="G206" s="9">
         <v>3</v>
       </c>
-      <c r="H206" s="10">
+      <c r="H206" s="9">
         <v>0</v>
       </c>
       <c r="I206" s="9">
@@ -22117,7 +22117,7 @@
       <c r="G207" s="9">
         <v>3</v>
       </c>
-      <c r="H207" s="10">
+      <c r="H207" s="9">
         <v>0</v>
       </c>
       <c r="I207" s="9">
@@ -22176,7 +22176,7 @@
       <c r="G208" s="9">
         <v>3</v>
       </c>
-      <c r="H208" s="10">
+      <c r="H208" s="9">
         <v>0</v>
       </c>
       <c r="I208" s="9">
@@ -22235,7 +22235,7 @@
       <c r="G209" s="9">
         <v>3</v>
       </c>
-      <c r="H209" s="10">
+      <c r="H209" s="9">
         <v>0</v>
       </c>
       <c r="I209" s="9">
@@ -22294,7 +22294,7 @@
       <c r="G210" s="9">
         <v>3</v>
       </c>
-      <c r="H210" s="10">
+      <c r="H210" s="9">
         <v>0</v>
       </c>
       <c r="I210" s="9">
@@ -22353,7 +22353,7 @@
       <c r="G211" s="9">
         <v>3</v>
       </c>
-      <c r="H211" s="10">
+      <c r="H211" s="9">
         <v>0</v>
       </c>
       <c r="I211" s="9">
@@ -22413,7 +22413,7 @@
       <c r="G212" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H212" s="10">
+      <c r="H212" s="9">
         <v>0</v>
       </c>
       <c r="I212" s="9">
@@ -22473,7 +22473,7 @@
       <c r="G213" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H213" s="10">
+      <c r="H213" s="9">
         <v>0</v>
       </c>
       <c r="I213" s="9">
@@ -22533,7 +22533,7 @@
       <c r="G214" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H214" s="10">
+      <c r="H214" s="9">
         <v>0</v>
       </c>
       <c r="I214" s="9">
@@ -22593,7 +22593,7 @@
       <c r="G215" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H215" s="10">
+      <c r="H215" s="9">
         <v>0</v>
       </c>
       <c r="I215" s="9">
@@ -22653,7 +22653,7 @@
       <c r="G216" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H216" s="10">
+      <c r="H216" s="9">
         <v>0</v>
       </c>
       <c r="I216" s="9">
@@ -22713,7 +22713,7 @@
       <c r="G217" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H217" s="10">
+      <c r="H217" s="9">
         <v>0</v>
       </c>
       <c r="I217" s="9">
@@ -22773,7 +22773,7 @@
       <c r="G218" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H218" s="10">
+      <c r="H218" s="9">
         <v>0</v>
       </c>
       <c r="I218" s="9">
@@ -22833,7 +22833,7 @@
       <c r="G219" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H219" s="10">
+      <c r="H219" s="9">
         <v>0</v>
       </c>
       <c r="I219" s="9">
@@ -22893,7 +22893,7 @@
       <c r="G220" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H220" s="10">
+      <c r="H220" s="9">
         <v>0</v>
       </c>
       <c r="I220" s="9">
@@ -22953,7 +22953,7 @@
       <c r="G221" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H221" s="10">
+      <c r="H221" s="9">
         <v>0</v>
       </c>
       <c r="I221" s="9">
@@ -23012,7 +23012,7 @@
       <c r="G222" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H222" s="10">
+      <c r="H222" s="9">
         <v>0</v>
       </c>
       <c r="I222" s="9">
@@ -23071,7 +23071,7 @@
       <c r="G223" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H223" s="10">
+      <c r="H223" s="9">
         <v>0</v>
       </c>
       <c r="I223" s="9">
@@ -23131,7 +23131,7 @@
       <c r="G224" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H224" s="10">
+      <c r="H224" s="9">
         <v>0</v>
       </c>
       <c r="I224" s="9">
@@ -23191,7 +23191,7 @@
       <c r="G225" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H225" s="10">
+      <c r="H225" s="9">
         <v>0</v>
       </c>
       <c r="I225" s="9">
@@ -23251,7 +23251,7 @@
       <c r="G226" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H226" s="10">
+      <c r="H226" s="9">
         <v>0</v>
       </c>
       <c r="I226" s="9">
@@ -23311,7 +23311,7 @@
       <c r="G227" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H227" s="10">
+      <c r="H227" s="9">
         <v>0</v>
       </c>
       <c r="I227" s="9">
@@ -23371,7 +23371,7 @@
       <c r="G228" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H228" s="10">
+      <c r="H228" s="9">
         <v>0</v>
       </c>
       <c r="I228" s="9">
@@ -23431,7 +23431,7 @@
       <c r="G229" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H229" s="10">
+      <c r="H229" s="9">
         <v>0</v>
       </c>
       <c r="I229" s="9">
@@ -23491,7 +23491,7 @@
       <c r="G230" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H230" s="10">
+      <c r="H230" s="9">
         <v>0</v>
       </c>
       <c r="I230" s="9">
@@ -23551,7 +23551,7 @@
       <c r="G231" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H231" s="10">
+      <c r="H231" s="9">
         <v>0</v>
       </c>
       <c r="I231" s="9">
@@ -23611,7 +23611,7 @@
       <c r="G232" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H232" s="10">
+      <c r="H232" s="9">
         <v>0</v>
       </c>
       <c r="I232" s="9">
@@ -23671,7 +23671,7 @@
       <c r="G233" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H233" s="10">
+      <c r="H233" s="9">
         <v>0</v>
       </c>
       <c r="I233" s="9">
@@ -23730,7 +23730,7 @@
       <c r="G234" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H234" s="10">
+      <c r="H234" s="9">
         <v>0</v>
       </c>
       <c r="I234" s="9">
@@ -23789,7 +23789,7 @@
       <c r="G235" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H235" s="10">
+      <c r="H235" s="9">
         <v>0</v>
       </c>
       <c r="I235" s="9">
@@ -23849,7 +23849,7 @@
       <c r="G236" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H236" s="10">
+      <c r="H236" s="9">
         <v>0</v>
       </c>
       <c r="I236" s="9">
@@ -23909,7 +23909,7 @@
       <c r="G237" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H237" s="10">
+      <c r="H237" s="9">
         <v>0</v>
       </c>
       <c r="I237" s="9">
@@ -23969,7 +23969,7 @@
       <c r="G238" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H238" s="10">
+      <c r="H238" s="9">
         <v>0</v>
       </c>
       <c r="I238" s="9">
@@ -24029,7 +24029,7 @@
       <c r="G239" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H239" s="10">
+      <c r="H239" s="9">
         <v>0</v>
       </c>
       <c r="I239" s="9">
@@ -24089,7 +24089,7 @@
       <c r="G240" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H240" s="10">
+      <c r="H240" s="9">
         <v>0</v>
       </c>
       <c r="I240" s="9">
@@ -24149,7 +24149,7 @@
       <c r="G241" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H241" s="10">
+      <c r="H241" s="9">
         <v>0</v>
       </c>
       <c r="I241" s="9">
@@ -24209,7 +24209,7 @@
       <c r="G242" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H242" s="10">
+      <c r="H242" s="9">
         <v>0</v>
       </c>
       <c r="I242" s="9">
@@ -24269,7 +24269,7 @@
       <c r="G243" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H243" s="10">
+      <c r="H243" s="9">
         <v>0</v>
       </c>
       <c r="I243" s="9">
@@ -24329,7 +24329,7 @@
       <c r="G244" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H244" s="10">
+      <c r="H244" s="9">
         <v>0</v>
       </c>
       <c r="I244" s="9">
@@ -24389,7 +24389,7 @@
       <c r="G245" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H245" s="10">
+      <c r="H245" s="9">
         <v>0</v>
       </c>
       <c r="I245" s="9">
@@ -24448,7 +24448,7 @@
       <c r="G246" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H246" s="10">
+      <c r="H246" s="9">
         <v>0</v>
       </c>
       <c r="I246" s="9">
@@ -24507,7 +24507,7 @@
       <c r="G247" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H247" s="10">
+      <c r="H247" s="9">
         <v>0</v>
       </c>
       <c r="I247" s="9">
@@ -24566,7 +24566,7 @@
       <c r="G248" s="9">
         <v>3</v>
       </c>
-      <c r="H248" s="10">
+      <c r="H248" s="9">
         <v>0</v>
       </c>
       <c r="I248" s="9">
@@ -24625,7 +24625,7 @@
       <c r="G249" s="9">
         <v>3</v>
       </c>
-      <c r="H249" s="10">
+      <c r="H249" s="9">
         <v>0</v>
       </c>
       <c r="I249" s="9">
@@ -24684,7 +24684,7 @@
       <c r="G250" s="9">
         <v>3</v>
       </c>
-      <c r="H250" s="10">
+      <c r="H250" s="9">
         <v>0</v>
       </c>
       <c r="I250" s="9">
@@ -24743,7 +24743,7 @@
       <c r="G251" s="9">
         <v>3</v>
       </c>
-      <c r="H251" s="10">
+      <c r="H251" s="9">
         <v>0</v>
       </c>
       <c r="I251" s="9">
@@ -24802,7 +24802,7 @@
       <c r="G252" s="9">
         <v>3</v>
       </c>
-      <c r="H252" s="10">
+      <c r="H252" s="9">
         <v>0</v>
       </c>
       <c r="I252" s="9">
@@ -24861,7 +24861,7 @@
       <c r="G253" s="9">
         <v>3</v>
       </c>
-      <c r="H253" s="10">
+      <c r="H253" s="9">
         <v>0</v>
       </c>
       <c r="I253" s="9">
@@ -24920,7 +24920,7 @@
       <c r="G254" s="9">
         <v>3</v>
       </c>
-      <c r="H254" s="10">
+      <c r="H254" s="9">
         <v>0</v>
       </c>
       <c r="I254" s="9">
@@ -24979,7 +24979,7 @@
       <c r="G255" s="9">
         <v>3</v>
       </c>
-      <c r="H255" s="10">
+      <c r="H255" s="9">
         <v>0</v>
       </c>
       <c r="I255" s="9">
@@ -25038,7 +25038,7 @@
       <c r="G256" s="9">
         <v>3</v>
       </c>
-      <c r="H256" s="10">
+      <c r="H256" s="9">
         <v>0</v>
       </c>
       <c r="I256" s="9">
@@ -25097,7 +25097,7 @@
       <c r="G257" s="9">
         <v>3</v>
       </c>
-      <c r="H257" s="10">
+      <c r="H257" s="9">
         <v>0</v>
       </c>
       <c r="I257" s="9">
@@ -25157,7 +25157,7 @@
       <c r="G258" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H258" s="10">
+      <c r="H258" s="9">
         <v>0</v>
       </c>
       <c r="I258" s="9">
@@ -25217,7 +25217,7 @@
       <c r="G259" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H259" s="10">
+      <c r="H259" s="9">
         <v>0</v>
       </c>
       <c r="I259" s="9">
@@ -25277,7 +25277,7 @@
       <c r="G260" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H260" s="10">
+      <c r="H260" s="9">
         <v>0</v>
       </c>
       <c r="I260" s="9">
@@ -25337,7 +25337,7 @@
       <c r="G261" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H261" s="10">
+      <c r="H261" s="9">
         <v>0</v>
       </c>
       <c r="I261" s="9">
@@ -25397,7 +25397,7 @@
       <c r="G262" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H262" s="10">
+      <c r="H262" s="9">
         <v>0</v>
       </c>
       <c r="I262" s="9">
@@ -25457,7 +25457,7 @@
       <c r="G263" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H263" s="10">
+      <c r="H263" s="9">
         <v>0</v>
       </c>
       <c r="I263" s="9">
@@ -25517,7 +25517,7 @@
       <c r="G264" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H264" s="10">
+      <c r="H264" s="9">
         <v>0</v>
       </c>
       <c r="I264" s="9">
@@ -25577,7 +25577,7 @@
       <c r="G265" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H265" s="10">
+      <c r="H265" s="9">
         <v>0</v>
       </c>
       <c r="I265" s="9">
@@ -25637,7 +25637,7 @@
       <c r="G266" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H266" s="10">
+      <c r="H266" s="9">
         <v>0</v>
       </c>
       <c r="I266" s="9">
@@ -25697,7 +25697,7 @@
       <c r="G267" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H267" s="10">
+      <c r="H267" s="9">
         <v>0</v>
       </c>
       <c r="I267" s="9">
@@ -25756,7 +25756,7 @@
       <c r="G268" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H268" s="10">
+      <c r="H268" s="9">
         <v>0</v>
       </c>
       <c r="I268" s="9">
@@ -25815,7 +25815,7 @@
       <c r="G269" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H269" s="10">
+      <c r="H269" s="9">
         <v>0</v>
       </c>
       <c r="I269" s="9">
@@ -25875,7 +25875,7 @@
       <c r="G270" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H270" s="10">
+      <c r="H270" s="9">
         <v>0</v>
       </c>
       <c r="I270" s="9">
@@ -25935,7 +25935,7 @@
       <c r="G271" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H271" s="10">
+      <c r="H271" s="9">
         <v>0</v>
       </c>
       <c r="I271" s="9">
@@ -25995,7 +25995,7 @@
       <c r="G272" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H272" s="10">
+      <c r="H272" s="9">
         <v>0</v>
       </c>
       <c r="I272" s="9">
@@ -26055,7 +26055,7 @@
       <c r="G273" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H273" s="10">
+      <c r="H273" s="9">
         <v>0</v>
       </c>
       <c r="I273" s="9">
@@ -26115,7 +26115,7 @@
       <c r="G274" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H274" s="10">
+      <c r="H274" s="9">
         <v>0</v>
       </c>
       <c r="I274" s="9">
@@ -26175,7 +26175,7 @@
       <c r="G275" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H275" s="10">
+      <c r="H275" s="9">
         <v>0</v>
       </c>
       <c r="I275" s="9">
@@ -26235,7 +26235,7 @@
       <c r="G276" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H276" s="10">
+      <c r="H276" s="9">
         <v>0</v>
       </c>
       <c r="I276" s="9">
@@ -26295,7 +26295,7 @@
       <c r="G277" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H277" s="10">
+      <c r="H277" s="9">
         <v>0</v>
       </c>
       <c r="I277" s="9">
@@ -26355,7 +26355,7 @@
       <c r="G278" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H278" s="10">
+      <c r="H278" s="9">
         <v>0</v>
       </c>
       <c r="I278" s="9">
@@ -26415,7 +26415,7 @@
       <c r="G279" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H279" s="10">
+      <c r="H279" s="9">
         <v>0</v>
       </c>
       <c r="I279" s="9">
@@ -26474,7 +26474,7 @@
       <c r="G280" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H280" s="10">
+      <c r="H280" s="9">
         <v>0</v>
       </c>
       <c r="I280" s="9">
@@ -26533,7 +26533,7 @@
       <c r="G281" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H281" s="10">
+      <c r="H281" s="9">
         <v>0</v>
       </c>
       <c r="I281" s="9">
@@ -26593,7 +26593,7 @@
       <c r="G282" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H282" s="10">
+      <c r="H282" s="9">
         <v>0</v>
       </c>
       <c r="I282" s="9">
@@ -26653,7 +26653,7 @@
       <c r="G283" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H283" s="10">
+      <c r="H283" s="9">
         <v>0</v>
       </c>
       <c r="I283" s="9">
@@ -26713,7 +26713,7 @@
       <c r="G284" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H284" s="10">
+      <c r="H284" s="9">
         <v>0</v>
       </c>
       <c r="I284" s="9">
@@ -26773,7 +26773,7 @@
       <c r="G285" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H285" s="10">
+      <c r="H285" s="9">
         <v>0</v>
       </c>
       <c r="I285" s="9">
@@ -26833,7 +26833,7 @@
       <c r="G286" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H286" s="10">
+      <c r="H286" s="9">
         <v>0</v>
       </c>
       <c r="I286" s="9">
@@ -26893,7 +26893,7 @@
       <c r="G287" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H287" s="10">
+      <c r="H287" s="9">
         <v>0</v>
       </c>
       <c r="I287" s="9">
@@ -26953,7 +26953,7 @@
       <c r="G288" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H288" s="10">
+      <c r="H288" s="9">
         <v>0</v>
       </c>
       <c r="I288" s="9">
@@ -27013,7 +27013,7 @@
       <c r="G289" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H289" s="10">
+      <c r="H289" s="9">
         <v>0</v>
       </c>
       <c r="I289" s="9">
@@ -27073,7 +27073,7 @@
       <c r="G290" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H290" s="10">
+      <c r="H290" s="9">
         <v>0</v>
       </c>
       <c r="I290" s="9">
@@ -27133,7 +27133,7 @@
       <c r="G291" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H291" s="10">
+      <c r="H291" s="9">
         <v>0</v>
       </c>
       <c r="I291" s="9">
@@ -27192,7 +27192,7 @@
       <c r="G292" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H292" s="10">
+      <c r="H292" s="9">
         <v>0</v>
       </c>
       <c r="I292" s="9">
@@ -27251,7 +27251,7 @@
       <c r="G293" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H293" s="10">
+      <c r="H293" s="9">
         <v>0</v>
       </c>
       <c r="I293" s="9">
@@ -27310,7 +27310,7 @@
       <c r="G294" s="9">
         <v>3</v>
       </c>
-      <c r="H294" s="10">
+      <c r="H294" s="9">
         <v>0</v>
       </c>
       <c r="I294" s="9">
@@ -27369,7 +27369,7 @@
       <c r="G295" s="9">
         <v>3</v>
       </c>
-      <c r="H295" s="10">
+      <c r="H295" s="9">
         <v>0</v>
       </c>
       <c r="I295" s="9">
@@ -27428,7 +27428,7 @@
       <c r="G296" s="9">
         <v>3</v>
       </c>
-      <c r="H296" s="10">
+      <c r="H296" s="9">
         <v>0</v>
       </c>
       <c r="I296" s="9">
@@ -27487,7 +27487,7 @@
       <c r="G297" s="9">
         <v>3</v>
       </c>
-      <c r="H297" s="10">
+      <c r="H297" s="9">
         <v>0</v>
       </c>
       <c r="I297" s="9">
@@ -27546,7 +27546,7 @@
       <c r="G298" s="9">
         <v>3</v>
       </c>
-      <c r="H298" s="10">
+      <c r="H298" s="9">
         <v>0</v>
       </c>
       <c r="I298" s="9">
@@ -27605,7 +27605,7 @@
       <c r="G299" s="9">
         <v>3</v>
       </c>
-      <c r="H299" s="10">
+      <c r="H299" s="9">
         <v>0</v>
       </c>
       <c r="I299" s="9">
@@ -27664,7 +27664,7 @@
       <c r="G300" s="9">
         <v>3</v>
       </c>
-      <c r="H300" s="10">
+      <c r="H300" s="9">
         <v>0</v>
       </c>
       <c r="I300" s="9">
@@ -27723,7 +27723,7 @@
       <c r="G301" s="9">
         <v>3</v>
       </c>
-      <c r="H301" s="10">
+      <c r="H301" s="9">
         <v>0</v>
       </c>
       <c r="I301" s="9">
@@ -27782,7 +27782,7 @@
       <c r="G302" s="9">
         <v>3</v>
       </c>
-      <c r="H302" s="10">
+      <c r="H302" s="9">
         <v>0</v>
       </c>
       <c r="I302" s="9">
@@ -27841,7 +27841,7 @@
       <c r="G303" s="9">
         <v>3</v>
       </c>
-      <c r="H303" s="10">
+      <c r="H303" s="9">
         <v>0</v>
       </c>
       <c r="I303" s="9">
@@ -27901,7 +27901,7 @@
       <c r="G304" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H304" s="10">
+      <c r="H304" s="9">
         <v>0</v>
       </c>
       <c r="I304" s="9">
@@ -27961,7 +27961,7 @@
       <c r="G305" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H305" s="10">
+      <c r="H305" s="9">
         <v>0</v>
       </c>
       <c r="I305" s="9">
@@ -28021,7 +28021,7 @@
       <c r="G306" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H306" s="10">
+      <c r="H306" s="9">
         <v>0</v>
       </c>
       <c r="I306" s="9">
@@ -28081,7 +28081,7 @@
       <c r="G307" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H307" s="10">
+      <c r="H307" s="9">
         <v>0</v>
       </c>
       <c r="I307" s="9">
@@ -28141,7 +28141,7 @@
       <c r="G308" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H308" s="10">
+      <c r="H308" s="9">
         <v>0</v>
       </c>
       <c r="I308" s="9">
@@ -28201,7 +28201,7 @@
       <c r="G309" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H309" s="10">
+      <c r="H309" s="9">
         <v>0</v>
       </c>
       <c r="I309" s="9">
@@ -28261,7 +28261,7 @@
       <c r="G310" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H310" s="10">
+      <c r="H310" s="9">
         <v>0</v>
       </c>
       <c r="I310" s="9">
@@ -28321,7 +28321,7 @@
       <c r="G311" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H311" s="10">
+      <c r="H311" s="9">
         <v>0</v>
       </c>
       <c r="I311" s="9">
@@ -28381,7 +28381,7 @@
       <c r="G312" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H312" s="10">
+      <c r="H312" s="9">
         <v>0</v>
       </c>
       <c r="I312" s="9">
@@ -28441,7 +28441,7 @@
       <c r="G313" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H313" s="10">
+      <c r="H313" s="9">
         <v>0</v>
       </c>
       <c r="I313" s="9">
@@ -28500,7 +28500,7 @@
       <c r="G314" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H314" s="10">
+      <c r="H314" s="9">
         <v>0</v>
       </c>
       <c r="I314" s="9">
@@ -28559,7 +28559,7 @@
       <c r="G315" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H315" s="10">
+      <c r="H315" s="9">
         <v>0</v>
       </c>
       <c r="I315" s="9">
@@ -28619,7 +28619,7 @@
       <c r="G316" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H316" s="10">
+      <c r="H316" s="9">
         <v>0</v>
       </c>
       <c r="I316" s="9">
@@ -28679,7 +28679,7 @@
       <c r="G317" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H317" s="10">
+      <c r="H317" s="9">
         <v>0</v>
       </c>
       <c r="I317" s="9">
@@ -28739,7 +28739,7 @@
       <c r="G318" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H318" s="10">
+      <c r="H318" s="9">
         <v>0</v>
       </c>
       <c r="I318" s="9">
@@ -28799,7 +28799,7 @@
       <c r="G319" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H319" s="10">
+      <c r="H319" s="9">
         <v>0</v>
       </c>
       <c r="I319" s="9">
@@ -28859,7 +28859,7 @@
       <c r="G320" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H320" s="10">
+      <c r="H320" s="9">
         <v>0</v>
       </c>
       <c r="I320" s="9">
@@ -28919,7 +28919,7 @@
       <c r="G321" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H321" s="10">
+      <c r="H321" s="9">
         <v>0</v>
       </c>
       <c r="I321" s="9">
@@ -28979,7 +28979,7 @@
       <c r="G322" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H322" s="10">
+      <c r="H322" s="9">
         <v>0</v>
       </c>
       <c r="I322" s="9">
@@ -29039,7 +29039,7 @@
       <c r="G323" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H323" s="10">
+      <c r="H323" s="9">
         <v>0</v>
       </c>
       <c r="I323" s="9">
@@ -29099,7 +29099,7 @@
       <c r="G324" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H324" s="10">
+      <c r="H324" s="9">
         <v>0</v>
       </c>
       <c r="I324" s="9">
@@ -29159,7 +29159,7 @@
       <c r="G325" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H325" s="10">
+      <c r="H325" s="9">
         <v>0</v>
       </c>
       <c r="I325" s="9">
@@ -29218,7 +29218,7 @@
       <c r="G326" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H326" s="10">
+      <c r="H326" s="9">
         <v>0</v>
       </c>
       <c r="I326" s="9">
@@ -29277,7 +29277,7 @@
       <c r="G327" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H327" s="10">
+      <c r="H327" s="9">
         <v>0</v>
       </c>
       <c r="I327" s="9">
@@ -29337,7 +29337,7 @@
       <c r="G328" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H328" s="10">
+      <c r="H328" s="9">
         <v>0</v>
       </c>
       <c r="I328" s="9">
@@ -29397,7 +29397,7 @@
       <c r="G329" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H329" s="10">
+      <c r="H329" s="9">
         <v>0</v>
       </c>
       <c r="I329" s="9">
@@ -29457,7 +29457,7 @@
       <c r="G330" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H330" s="10">
+      <c r="H330" s="9">
         <v>0</v>
       </c>
       <c r="I330" s="9">
@@ -29517,7 +29517,7 @@
       <c r="G331" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H331" s="10">
+      <c r="H331" s="9">
         <v>0</v>
       </c>
       <c r="I331" s="9">
@@ -29577,7 +29577,7 @@
       <c r="G332" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H332" s="10">
+      <c r="H332" s="9">
         <v>0</v>
       </c>
       <c r="I332" s="9">
@@ -29637,7 +29637,7 @@
       <c r="G333" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H333" s="10">
+      <c r="H333" s="9">
         <v>0</v>
       </c>
       <c r="I333" s="9">
@@ -29697,7 +29697,7 @@
       <c r="G334" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H334" s="10">
+      <c r="H334" s="9">
         <v>0</v>
       </c>
       <c r="I334" s="9">
@@ -29757,7 +29757,7 @@
       <c r="G335" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H335" s="10">
+      <c r="H335" s="9">
         <v>0</v>
       </c>
       <c r="I335" s="9">
@@ -29817,7 +29817,7 @@
       <c r="G336" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H336" s="10">
+      <c r="H336" s="9">
         <v>0</v>
       </c>
       <c r="I336" s="9">
@@ -29877,7 +29877,7 @@
       <c r="G337" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H337" s="10">
+      <c r="H337" s="9">
         <v>0</v>
       </c>
       <c r="I337" s="9">
@@ -29936,7 +29936,7 @@
       <c r="G338" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H338" s="10">
+      <c r="H338" s="9">
         <v>0</v>
       </c>
       <c r="I338" s="9">
@@ -29995,7 +29995,7 @@
       <c r="G339" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H339" s="10">
+      <c r="H339" s="9">
         <v>0</v>
       </c>
       <c r="I339" s="9">
@@ -30054,7 +30054,7 @@
       <c r="G340" s="9">
         <v>3</v>
       </c>
-      <c r="H340" s="10">
+      <c r="H340" s="9">
         <v>0</v>
       </c>
       <c r="I340" s="9">
@@ -30113,7 +30113,7 @@
       <c r="G341" s="9">
         <v>3</v>
       </c>
-      <c r="H341" s="10">
+      <c r="H341" s="9">
         <v>0</v>
       </c>
       <c r="I341" s="9">
@@ -30172,7 +30172,7 @@
       <c r="G342" s="9">
         <v>3</v>
       </c>
-      <c r="H342" s="10">
+      <c r="H342" s="9">
         <v>0</v>
       </c>
       <c r="I342" s="9">
@@ -30231,7 +30231,7 @@
       <c r="G343" s="9">
         <v>3</v>
       </c>
-      <c r="H343" s="10">
+      <c r="H343" s="9">
         <v>0</v>
       </c>
       <c r="I343" s="9">
@@ -30290,7 +30290,7 @@
       <c r="G344" s="9">
         <v>3</v>
       </c>
-      <c r="H344" s="10">
+      <c r="H344" s="9">
         <v>0</v>
       </c>
       <c r="I344" s="9">
@@ -30349,7 +30349,7 @@
       <c r="G345" s="9">
         <v>3</v>
       </c>
-      <c r="H345" s="10">
+      <c r="H345" s="9">
         <v>0</v>
       </c>
       <c r="I345" s="9">
@@ -30408,7 +30408,7 @@
       <c r="G346" s="9">
         <v>3</v>
       </c>
-      <c r="H346" s="10">
+      <c r="H346" s="9">
         <v>0</v>
       </c>
       <c r="I346" s="9">
@@ -30467,7 +30467,7 @@
       <c r="G347" s="9">
         <v>3</v>
       </c>
-      <c r="H347" s="10">
+      <c r="H347" s="9">
         <v>0</v>
       </c>
       <c r="I347" s="9">
@@ -30526,7 +30526,7 @@
       <c r="G348" s="9">
         <v>3</v>
       </c>
-      <c r="H348" s="10">
+      <c r="H348" s="9">
         <v>0</v>
       </c>
       <c r="I348" s="9">
@@ -30585,7 +30585,7 @@
       <c r="G349" s="9">
         <v>3</v>
       </c>
-      <c r="H349" s="10">
+      <c r="H349" s="9">
         <v>0</v>
       </c>
       <c r="I349" s="9">
@@ -30645,7 +30645,7 @@
       <c r="G350" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H350" s="10">
+      <c r="H350" s="9">
         <v>0</v>
       </c>
       <c r="I350" s="9">
@@ -30705,7 +30705,7 @@
       <c r="G351" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H351" s="10">
+      <c r="H351" s="9">
         <v>0</v>
       </c>
       <c r="I351" s="9">
@@ -30765,7 +30765,7 @@
       <c r="G352" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H352" s="10">
+      <c r="H352" s="9">
         <v>0</v>
       </c>
       <c r="I352" s="9">
@@ -30825,7 +30825,7 @@
       <c r="G353" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H353" s="10">
+      <c r="H353" s="9">
         <v>0</v>
       </c>
       <c r="I353" s="9">
@@ -30885,7 +30885,7 @@
       <c r="G354" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H354" s="10">
+      <c r="H354" s="9">
         <v>0</v>
       </c>
       <c r="I354" s="9">
@@ -30945,7 +30945,7 @@
       <c r="G355" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H355" s="10">
+      <c r="H355" s="9">
         <v>0</v>
       </c>
       <c r="I355" s="9">
@@ -31005,7 +31005,7 @@
       <c r="G356" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H356" s="10">
+      <c r="H356" s="9">
         <v>0</v>
       </c>
       <c r="I356" s="9">
@@ -31065,7 +31065,7 @@
       <c r="G357" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H357" s="10">
+      <c r="H357" s="9">
         <v>0</v>
       </c>
       <c r="I357" s="9">
@@ -31125,7 +31125,7 @@
       <c r="G358" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H358" s="10">
+      <c r="H358" s="9">
         <v>0</v>
       </c>
       <c r="I358" s="9">
@@ -31185,7 +31185,7 @@
       <c r="G359" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H359" s="10">
+      <c r="H359" s="9">
         <v>0</v>
       </c>
       <c r="I359" s="9">
@@ -31244,7 +31244,7 @@
       <c r="G360" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H360" s="10">
+      <c r="H360" s="9">
         <v>0</v>
       </c>
       <c r="I360" s="9">
@@ -31303,7 +31303,7 @@
       <c r="G361" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H361" s="10">
+      <c r="H361" s="9">
         <v>0</v>
       </c>
       <c r="I361" s="9">
@@ -31363,7 +31363,7 @@
       <c r="G362" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H362" s="10">
+      <c r="H362" s="9">
         <v>0</v>
       </c>
       <c r="I362" s="9">
@@ -31423,7 +31423,7 @@
       <c r="G363" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H363" s="10">
+      <c r="H363" s="9">
         <v>0</v>
       </c>
       <c r="I363" s="9">
@@ -31483,7 +31483,7 @@
       <c r="G364" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H364" s="10">
+      <c r="H364" s="9">
         <v>0</v>
       </c>
       <c r="I364" s="9">
@@ -31543,7 +31543,7 @@
       <c r="G365" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H365" s="10">
+      <c r="H365" s="9">
         <v>0</v>
       </c>
       <c r="I365" s="9">
@@ -31603,7 +31603,7 @@
       <c r="G366" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H366" s="10">
+      <c r="H366" s="9">
         <v>0</v>
       </c>
       <c r="I366" s="9">
@@ -31663,7 +31663,7 @@
       <c r="G367" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H367" s="10">
+      <c r="H367" s="9">
         <v>0</v>
       </c>
       <c r="I367" s="9">
@@ -31723,7 +31723,7 @@
       <c r="G368" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H368" s="10">
+      <c r="H368" s="9">
         <v>0</v>
       </c>
       <c r="I368" s="9">
@@ -31783,7 +31783,7 @@
       <c r="G369" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H369" s="10">
+      <c r="H369" s="9">
         <v>0</v>
       </c>
       <c r="I369" s="9">
@@ -31843,7 +31843,7 @@
       <c r="G370" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H370" s="10">
+      <c r="H370" s="9">
         <v>0</v>
       </c>
       <c r="I370" s="9">
@@ -31903,7 +31903,7 @@
       <c r="G371" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H371" s="10">
+      <c r="H371" s="9">
         <v>0</v>
       </c>
       <c r="I371" s="9">
@@ -31962,7 +31962,7 @@
       <c r="G372" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H372" s="10">
+      <c r="H372" s="9">
         <v>0</v>
       </c>
       <c r="I372" s="9">
@@ -32021,7 +32021,7 @@
       <c r="G373" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H373" s="10">
+      <c r="H373" s="9">
         <v>0</v>
       </c>
       <c r="I373" s="9">
@@ -32081,7 +32081,7 @@
       <c r="G374" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H374" s="10">
+      <c r="H374" s="9">
         <v>0</v>
       </c>
       <c r="I374" s="9">
@@ -32141,7 +32141,7 @@
       <c r="G375" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H375" s="10">
+      <c r="H375" s="9">
         <v>0</v>
       </c>
       <c r="I375" s="9">
@@ -32201,7 +32201,7 @@
       <c r="G376" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H376" s="10">
+      <c r="H376" s="9">
         <v>0</v>
       </c>
       <c r="I376" s="9">
@@ -32261,7 +32261,7 @@
       <c r="G377" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H377" s="10">
+      <c r="H377" s="9">
         <v>0</v>
       </c>
       <c r="I377" s="9">
@@ -32321,7 +32321,7 @@
       <c r="G378" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H378" s="10">
+      <c r="H378" s="9">
         <v>0</v>
       </c>
       <c r="I378" s="9">
@@ -32381,7 +32381,7 @@
       <c r="G379" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H379" s="10">
+      <c r="H379" s="9">
         <v>0</v>
       </c>
       <c r="I379" s="9">
@@ -32441,7 +32441,7 @@
       <c r="G380" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H380" s="10">
+      <c r="H380" s="9">
         <v>0</v>
       </c>
       <c r="I380" s="9">
@@ -32501,7 +32501,7 @@
       <c r="G381" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H381" s="10">
+      <c r="H381" s="9">
         <v>0</v>
       </c>
       <c r="I381" s="9">
@@ -32561,7 +32561,7 @@
       <c r="G382" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H382" s="10">
+      <c r="H382" s="9">
         <v>0</v>
       </c>
       <c r="I382" s="9">
@@ -32621,7 +32621,7 @@
       <c r="G383" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H383" s="10">
+      <c r="H383" s="9">
         <v>0</v>
       </c>
       <c r="I383" s="9">
@@ -32680,7 +32680,7 @@
       <c r="G384" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H384" s="10">
+      <c r="H384" s="9">
         <v>0</v>
       </c>
       <c r="I384" s="9">
@@ -32739,7 +32739,7 @@
       <c r="G385" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="H385" s="10">
+      <c r="H385" s="9">
         <v>0</v>
       </c>
       <c r="I385" s="9">
@@ -32798,7 +32798,7 @@
       <c r="G386" s="9">
         <v>3</v>
       </c>
-      <c r="H386" s="10">
+      <c r="H386" s="9">
         <v>0</v>
       </c>
       <c r="I386" s="9">
@@ -32857,7 +32857,7 @@
       <c r="G387" s="9">
         <v>3</v>
       </c>
-      <c r="H387" s="10">
+      <c r="H387" s="9">
         <v>0</v>
       </c>
       <c r="I387" s="9">
@@ -32916,7 +32916,7 @@
       <c r="G388" s="9">
         <v>3</v>
       </c>
-      <c r="H388" s="10">
+      <c r="H388" s="9">
         <v>0</v>
       </c>
       <c r="I388" s="9">
@@ -32975,7 +32975,7 @@
       <c r="G389" s="9">
         <v>3</v>
       </c>
-      <c r="H389" s="10">
+      <c r="H389" s="9">
         <v>0</v>
       </c>
       <c r="I389" s="9">
@@ -33034,7 +33034,7 @@
       <c r="G390" s="9">
         <v>3</v>
       </c>
-      <c r="H390" s="10">
+      <c r="H390" s="9">
         <v>0</v>
       </c>
       <c r="I390" s="9">
@@ -33093,7 +33093,7 @@
       <c r="G391" s="9">
         <v>3</v>
       </c>
-      <c r="H391" s="10">
+      <c r="H391" s="9">
         <v>0</v>
       </c>
       <c r="I391" s="9">
@@ -33152,7 +33152,7 @@
       <c r="G392" s="9">
         <v>3</v>
       </c>
-      <c r="H392" s="10">
+      <c r="H392" s="9">
         <v>0</v>
       </c>
       <c r="I392" s="9">
@@ -33211,7 +33211,7 @@
       <c r="G393" s="9">
         <v>3</v>
       </c>
-      <c r="H393" s="10">
+      <c r="H393" s="9">
         <v>0</v>
       </c>
       <c r="I393" s="9">
@@ -33270,7 +33270,7 @@
       <c r="G394" s="9">
         <v>3</v>
       </c>
-      <c r="H394" s="10">
+      <c r="H394" s="9">
         <v>0</v>
       </c>
       <c r="I394" s="9">
@@ -33329,7 +33329,7 @@
       <c r="G395" s="9">
         <v>3</v>
       </c>
-      <c r="H395" s="10">
+      <c r="H395" s="9">
         <v>0</v>
       </c>
       <c r="I395" s="9">
@@ -33389,7 +33389,7 @@
       <c r="G396" s="9">
         <v>2</v>
       </c>
-      <c r="H396" s="10">
+      <c r="H396" s="9">
         <v>0</v>
       </c>
       <c r="I396" s="9">
@@ -33449,7 +33449,7 @@
       <c r="G397" s="9">
         <v>2</v>
       </c>
-      <c r="H397" s="10">
+      <c r="H397" s="9">
         <v>0</v>
       </c>
       <c r="I397" s="9">
@@ -33509,7 +33509,7 @@
       <c r="G398" s="9">
         <v>2</v>
       </c>
-      <c r="H398" s="10">
+      <c r="H398" s="9">
         <v>0</v>
       </c>
       <c r="I398" s="9">
@@ -33569,7 +33569,7 @@
       <c r="G399" s="9">
         <v>2</v>
       </c>
-      <c r="H399" s="10">
+      <c r="H399" s="9">
         <v>0</v>
       </c>
       <c r="I399" s="9">
@@ -33629,7 +33629,7 @@
       <c r="G400" s="9">
         <v>2</v>
       </c>
-      <c r="H400" s="10">
+      <c r="H400" s="9">
         <v>0</v>
       </c>
       <c r="I400" s="9">
@@ -33689,7 +33689,7 @@
       <c r="G401" s="9">
         <v>2</v>
       </c>
-      <c r="H401" s="10">
+      <c r="H401" s="9">
         <v>0</v>
       </c>
       <c r="I401" s="9">
@@ -33749,7 +33749,7 @@
       <c r="G402" s="9">
         <v>2</v>
       </c>
-      <c r="H402" s="10">
+      <c r="H402" s="9">
         <v>0</v>
       </c>
       <c r="I402" s="9">
@@ -33809,7 +33809,7 @@
       <c r="G403" s="9">
         <v>2</v>
       </c>
-      <c r="H403" s="10">
+      <c r="H403" s="9">
         <v>0</v>
       </c>
       <c r="I403" s="9">
@@ -33869,7 +33869,7 @@
       <c r="G404" s="9">
         <v>2</v>
       </c>
-      <c r="H404" s="10">
+      <c r="H404" s="9">
         <v>0</v>
       </c>
       <c r="I404" s="9">
@@ -33929,7 +33929,7 @@
       <c r="G405" s="9">
         <v>2</v>
       </c>
-      <c r="H405" s="10">
+      <c r="H405" s="9">
         <v>0</v>
       </c>
       <c r="I405" s="9">
@@ -33989,7 +33989,7 @@
       <c r="G406" s="9">
         <v>2</v>
       </c>
-      <c r="H406" s="10">
+      <c r="H406" s="9">
         <v>0</v>
       </c>
       <c r="I406" s="9">
@@ -34049,7 +34049,7 @@
       <c r="G407" s="9">
         <v>2</v>
       </c>
-      <c r="H407" s="10">
+      <c r="H407" s="9">
         <v>0</v>
       </c>
       <c r="I407" s="9">
@@ -34109,7 +34109,7 @@
       <c r="G408" s="9">
         <v>2</v>
       </c>
-      <c r="H408" s="10">
+      <c r="H408" s="9">
         <v>0</v>
       </c>
       <c r="I408" s="9">
@@ -34169,7 +34169,7 @@
       <c r="G409" s="9">
         <v>2</v>
       </c>
-      <c r="H409" s="10">
+      <c r="H409" s="9">
         <v>0</v>
       </c>
       <c r="I409" s="9">
@@ -34229,7 +34229,7 @@
       <c r="G410" s="9">
         <v>2</v>
       </c>
-      <c r="H410" s="10">
+      <c r="H410" s="9">
         <v>0</v>
       </c>
       <c r="I410" s="9">
@@ -34289,7 +34289,7 @@
       <c r="G411" s="9">
         <v>2</v>
       </c>
-      <c r="H411" s="10">
+      <c r="H411" s="9">
         <v>0</v>
       </c>
       <c r="I411" s="9">
@@ -34349,7 +34349,7 @@
       <c r="G412" s="9">
         <v>2</v>
       </c>
-      <c r="H412" s="10">
+      <c r="H412" s="9">
         <v>0</v>
       </c>
       <c r="I412" s="9">
@@ -34409,7 +34409,7 @@
       <c r="G413" s="9">
         <v>2</v>
       </c>
-      <c r="H413" s="10">
+      <c r="H413" s="9">
         <v>0</v>
       </c>
       <c r="I413" s="9">
@@ -34469,7 +34469,7 @@
       <c r="G414" s="9">
         <v>2</v>
       </c>
-      <c r="H414" s="10">
+      <c r="H414" s="9">
         <v>0</v>
       </c>
       <c r="I414" s="9">
@@ -34529,7 +34529,7 @@
       <c r="G415" s="9">
         <v>2</v>
       </c>
-      <c r="H415" s="10">
+      <c r="H415" s="9">
         <v>0</v>
       </c>
       <c r="I415" s="9">
@@ -34589,7 +34589,7 @@
       <c r="G416" s="9">
         <v>2</v>
       </c>
-      <c r="H416" s="10">
+      <c r="H416" s="9">
         <v>0</v>
       </c>
       <c r="I416" s="9">
@@ -34649,7 +34649,7 @@
       <c r="G417" s="9">
         <v>2</v>
       </c>
-      <c r="H417" s="10">
+      <c r="H417" s="9">
         <v>0</v>
       </c>
       <c r="I417" s="9">
@@ -34709,7 +34709,7 @@
       <c r="G418" s="9">
         <v>2</v>
       </c>
-      <c r="H418" s="10">
+      <c r="H418" s="9">
         <v>0</v>
       </c>
       <c r="I418" s="9">
@@ -34769,7 +34769,7 @@
       <c r="G419" s="9">
         <v>2</v>
       </c>
-      <c r="H419" s="10">
+      <c r="H419" s="9">
         <v>0</v>
       </c>
       <c r="I419" s="9">
@@ -34828,7 +34828,7 @@
       <c r="G420" s="9">
         <v>2</v>
       </c>
-      <c r="H420" s="10">
+      <c r="H420" s="9">
         <v>0</v>
       </c>
       <c r="I420" s="9">
@@ -34887,7 +34887,7 @@
       <c r="G421" s="30" t="s">
         <v>398</v>
       </c>
-      <c r="H421" s="10">
+      <c r="H421" s="9">
         <v>0</v>
       </c>
       <c r="I421" s="29" t="s">
@@ -34946,7 +34946,7 @@
       <c r="G422" s="9">
         <v>2</v>
       </c>
-      <c r="H422" s="10">
+      <c r="H422" s="9">
         <v>0</v>
       </c>
       <c r="I422" s="9">
@@ -35005,7 +35005,7 @@
       <c r="G423" s="9">
         <v>2</v>
       </c>
-      <c r="H423" s="10">
+      <c r="H423" s="9">
         <v>0</v>
       </c>
       <c r="I423" s="9">
@@ -35064,7 +35064,7 @@
       <c r="G424" s="9">
         <v>2</v>
       </c>
-      <c r="H424" s="10">
+      <c r="H424" s="9">
         <v>0</v>
       </c>
       <c r="I424" s="9">
@@ -35123,7 +35123,7 @@
       <c r="G425" s="9">
         <v>2</v>
       </c>
-      <c r="H425" s="10">
+      <c r="H425" s="9">
         <v>0</v>
       </c>
       <c r="I425" s="9">
@@ -35182,7 +35182,7 @@
       <c r="G426" s="9">
         <v>2</v>
       </c>
-      <c r="H426" s="10">
+      <c r="H426" s="9">
         <v>0</v>
       </c>
       <c r="I426" s="9">
@@ -35241,7 +35241,7 @@
       <c r="G427" s="9">
         <v>2</v>
       </c>
-      <c r="H427" s="10">
+      <c r="H427" s="9">
         <v>0</v>
       </c>
       <c r="I427" s="9">
@@ -35300,7 +35300,7 @@
       <c r="G428" s="9">
         <v>2</v>
       </c>
-      <c r="H428" s="10">
+      <c r="H428" s="9">
         <v>0</v>
       </c>
       <c r="I428" s="9">
@@ -35359,7 +35359,7 @@
       <c r="G429" s="9">
         <v>2</v>
       </c>
-      <c r="H429" s="10">
+      <c r="H429" s="9">
         <v>0</v>
       </c>
       <c r="I429" s="9">
@@ -35418,7 +35418,7 @@
       <c r="G430" s="9">
         <v>2</v>
       </c>
-      <c r="H430" s="10">
+      <c r="H430" s="9">
         <v>0</v>
       </c>
       <c r="I430" s="9">
@@ -35477,7 +35477,7 @@
       <c r="G431" s="9">
         <v>2</v>
       </c>
-      <c r="H431" s="10">
+      <c r="H431" s="9">
         <v>0</v>
       </c>
       <c r="I431" s="9">
@@ -35536,7 +35536,7 @@
       <c r="G432" s="9">
         <v>2</v>
       </c>
-      <c r="H432" s="10">
+      <c r="H432" s="9">
         <v>0</v>
       </c>
       <c r="I432" s="9">
@@ -35595,7 +35595,7 @@
       <c r="G433" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="H433" s="10">
+      <c r="H433" s="9">
         <v>0</v>
       </c>
       <c r="I433" s="9">
@@ -35661,7 +35661,7 @@
       <c r="G434" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="H434" s="10">
+      <c r="H434" s="9">
         <v>0</v>
       </c>
       <c r="I434" s="9">
@@ -35727,7 +35727,7 @@
       <c r="G435" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="H435" s="10">
+      <c r="H435" s="9">
         <v>0</v>
       </c>
       <c r="I435" s="9">
@@ -35793,7 +35793,7 @@
       <c r="G436" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="H436" s="10">
+      <c r="H436" s="9">
         <v>0</v>
       </c>
       <c r="I436" s="9">
@@ -35859,7 +35859,7 @@
       <c r="G437" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="H437" s="10">
+      <c r="H437" s="9">
         <v>0</v>
       </c>
       <c r="I437" s="9">
@@ -35925,7 +35925,7 @@
       <c r="G438" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="H438" s="10">
+      <c r="H438" s="9">
         <v>0</v>
       </c>
       <c r="I438" s="9">
@@ -35991,7 +35991,7 @@
       <c r="G439" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="H439" s="10">
+      <c r="H439" s="9">
         <v>0</v>
       </c>
       <c r="I439" s="9">
@@ -36057,7 +36057,7 @@
       <c r="G440" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="H440" s="10">
+      <c r="H440" s="9">
         <v>0</v>
       </c>
       <c r="I440" s="9">
@@ -36123,7 +36123,7 @@
       <c r="G441" s="30" t="s">
         <v>427</v>
       </c>
-      <c r="H441" s="10">
+      <c r="H441" s="9">
         <v>0</v>
       </c>
       <c r="I441" s="9">
@@ -36189,7 +36189,7 @@
       <c r="G442" s="30" t="s">
         <v>427</v>
       </c>
-      <c r="H442" s="10">
+      <c r="H442" s="9">
         <v>0</v>
       </c>
       <c r="I442" s="9">
@@ -36255,7 +36255,7 @@
       <c r="G443" s="30" t="s">
         <v>427</v>
       </c>
-      <c r="H443" s="10">
+      <c r="H443" s="9">
         <v>0</v>
       </c>
       <c r="I443" s="9">
@@ -36321,7 +36321,7 @@
       <c r="G444" s="30" t="s">
         <v>427</v>
       </c>
-      <c r="H444" s="10">
+      <c r="H444" s="9">
         <v>0</v>
       </c>
       <c r="I444" s="9">
@@ -36387,7 +36387,7 @@
       <c r="G445" s="30" t="s">
         <v>427</v>
       </c>
-      <c r="H445" s="10">
+      <c r="H445" s="9">
         <v>0</v>
       </c>
       <c r="I445" s="9">
@@ -36454,7 +36454,7 @@
       <c r="G446" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H446" s="10">
+      <c r="H446" s="9">
         <v>0</v>
       </c>
       <c r="I446" s="9">
@@ -36514,7 +36514,7 @@
       <c r="G447" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H447" s="10">
+      <c r="H447" s="9">
         <v>0</v>
       </c>
       <c r="I447" s="9">
@@ -36574,7 +36574,7 @@
       <c r="G448" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H448" s="10">
+      <c r="H448" s="9">
         <v>0</v>
       </c>
       <c r="I448" s="9">
@@ -36634,7 +36634,7 @@
       <c r="G449" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H449" s="10">
+      <c r="H449" s="9">
         <v>0</v>
       </c>
       <c r="I449" s="9">
@@ -36694,7 +36694,7 @@
       <c r="G450" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H450" s="10">
+      <c r="H450" s="9">
         <v>0</v>
       </c>
       <c r="I450" s="9">
@@ -36754,7 +36754,7 @@
       <c r="G451" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H451" s="10">
+      <c r="H451" s="9">
         <v>0</v>
       </c>
       <c r="I451" s="9">
@@ -36814,7 +36814,7 @@
       <c r="G452" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H452" s="10">
+      <c r="H452" s="9">
         <v>0</v>
       </c>
       <c r="I452" s="9">
@@ -36874,7 +36874,7 @@
       <c r="G453" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H453" s="10">
+      <c r="H453" s="9">
         <v>0</v>
       </c>
       <c r="I453" s="9">
@@ -36934,7 +36934,7 @@
       <c r="G454" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H454" s="10">
+      <c r="H454" s="9">
         <v>0</v>
       </c>
       <c r="I454" s="9">
@@ -36994,7 +36994,7 @@
       <c r="G455" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H455" s="10">
+      <c r="H455" s="9">
         <v>0</v>
       </c>
       <c r="I455" s="9">
@@ -37053,7 +37053,7 @@
       <c r="G456" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H456" s="10">
+      <c r="H456" s="9">
         <v>0</v>
       </c>
       <c r="I456" s="9">
@@ -37112,7 +37112,7 @@
       <c r="G457" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H457" s="10">
+      <c r="H457" s="9">
         <v>0</v>
       </c>
       <c r="I457" s="9">
@@ -37171,7 +37171,7 @@
       <c r="G458" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H458" s="10">
+      <c r="H458" s="9">
         <v>0</v>
       </c>
       <c r="I458" s="9">
@@ -37230,7 +37230,7 @@
       <c r="G459" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H459" s="10">
+      <c r="H459" s="9">
         <v>0</v>
       </c>
       <c r="I459" s="9">
@@ -37289,7 +37289,7 @@
       <c r="G460" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H460" s="10">
+      <c r="H460" s="9">
         <v>0</v>
       </c>
       <c r="I460" s="9">
@@ -37348,7 +37348,7 @@
       <c r="G461" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H461" s="10">
+      <c r="H461" s="9">
         <v>0</v>
       </c>
       <c r="I461" s="9">
@@ -37407,7 +37407,7 @@
       <c r="G462" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H462" s="10">
+      <c r="H462" s="9">
         <v>0</v>
       </c>
       <c r="I462" s="9">
@@ -37466,7 +37466,7 @@
       <c r="G463" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H463" s="10">
+      <c r="H463" s="9">
         <v>0</v>
       </c>
       <c r="I463" s="9">
@@ -37525,7 +37525,7 @@
       <c r="G464" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H464" s="10">
+      <c r="H464" s="9">
         <v>0</v>
       </c>
       <c r="I464" s="9">
@@ -37584,7 +37584,7 @@
       <c r="G465" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H465" s="10">
+      <c r="H465" s="9">
         <v>0</v>
       </c>
       <c r="I465" s="9">
@@ -37643,7 +37643,7 @@
       <c r="G466" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H466" s="10">
+      <c r="H466" s="9">
         <v>0</v>
       </c>
       <c r="I466" s="9">
@@ -37703,7 +37703,7 @@
       <c r="G467" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H467" s="10">
+      <c r="H467" s="9">
         <v>0</v>
       </c>
       <c r="I467" s="9">
@@ -37763,7 +37763,7 @@
       <c r="G468" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H468" s="10">
+      <c r="H468" s="9">
         <v>0</v>
       </c>
       <c r="I468" s="9">
@@ -37823,7 +37823,7 @@
       <c r="G469" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H469" s="10">
+      <c r="H469" s="9">
         <v>0</v>
       </c>
       <c r="I469" s="9">
@@ -37883,7 +37883,7 @@
       <c r="G470" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H470" s="10">
+      <c r="H470" s="9">
         <v>0</v>
       </c>
       <c r="I470" s="9">
@@ -37943,7 +37943,7 @@
       <c r="G471" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H471" s="10">
+      <c r="H471" s="9">
         <v>0</v>
       </c>
       <c r="I471" s="9">
@@ -38003,7 +38003,7 @@
       <c r="G472" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H472" s="10">
+      <c r="H472" s="9">
         <v>0</v>
       </c>
       <c r="I472" s="9">
@@ -38063,7 +38063,7 @@
       <c r="G473" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H473" s="10">
+      <c r="H473" s="9">
         <v>0</v>
       </c>
       <c r="I473" s="9">
@@ -38123,7 +38123,7 @@
       <c r="G474" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H474" s="10">
+      <c r="H474" s="9">
         <v>0</v>
       </c>
       <c r="I474" s="9">
@@ -38183,7 +38183,7 @@
       <c r="G475" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H475" s="10">
+      <c r="H475" s="9">
         <v>0</v>
       </c>
       <c r="I475" s="9">
@@ -38243,7 +38243,7 @@
       <c r="G476" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H476" s="10">
+      <c r="H476" s="9">
         <v>0</v>
       </c>
       <c r="I476" s="9">
@@ -38302,7 +38302,7 @@
       <c r="G477" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H477" s="10">
+      <c r="H477" s="9">
         <v>0</v>
       </c>
       <c r="I477" s="9">
@@ -38361,7 +38361,7 @@
       <c r="G478" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H478" s="10">
+      <c r="H478" s="9">
         <v>0</v>
       </c>
       <c r="I478" s="9">
@@ -38420,7 +38420,7 @@
       <c r="G479" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H479" s="10">
+      <c r="H479" s="9">
         <v>0</v>
       </c>
       <c r="I479" s="9">
@@ -38479,7 +38479,7 @@
       <c r="G480" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H480" s="10">
+      <c r="H480" s="9">
         <v>0</v>
       </c>
       <c r="I480" s="9">
@@ -38538,7 +38538,7 @@
       <c r="G481" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H481" s="10">
+      <c r="H481" s="9">
         <v>0</v>
       </c>
       <c r="I481" s="9">
@@ -38597,7 +38597,7 @@
       <c r="G482" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H482" s="10">
+      <c r="H482" s="9">
         <v>0</v>
       </c>
       <c r="I482" s="9">
@@ -38656,7 +38656,7 @@
       <c r="G483" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H483" s="10">
+      <c r="H483" s="9">
         <v>0</v>
       </c>
       <c r="I483" s="9">
@@ -38715,7 +38715,7 @@
       <c r="G484" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H484" s="10">
+      <c r="H484" s="9">
         <v>0</v>
       </c>
       <c r="I484" s="9">
@@ -38774,7 +38774,7 @@
       <c r="G485" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H485" s="10">
+      <c r="H485" s="9">
         <v>0</v>
       </c>
       <c r="I485" s="9">
@@ -38833,7 +38833,7 @@
       <c r="G486" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H486" s="10">
+      <c r="H486" s="9">
         <v>0</v>
       </c>
       <c r="I486" s="9">
@@ -38892,7 +38892,7 @@
       <c r="G487" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H487" s="10">
+      <c r="H487" s="9">
         <v>0</v>
       </c>
       <c r="I487" s="9">
@@ -38952,7 +38952,7 @@
       <c r="G488" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H488" s="10">
+      <c r="H488" s="9">
         <v>0</v>
       </c>
       <c r="I488" s="9">
@@ -39012,7 +39012,7 @@
       <c r="G489" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H489" s="10">
+      <c r="H489" s="9">
         <v>0</v>
       </c>
       <c r="I489" s="9">
@@ -39072,7 +39072,7 @@
       <c r="G490" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H490" s="10">
+      <c r="H490" s="9">
         <v>0</v>
       </c>
       <c r="I490" s="9">
@@ -39132,7 +39132,7 @@
       <c r="G491" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H491" s="10">
+      <c r="H491" s="9">
         <v>0</v>
       </c>
       <c r="I491" s="9">
@@ -39192,7 +39192,7 @@
       <c r="G492" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H492" s="10">
+      <c r="H492" s="9">
         <v>0</v>
       </c>
       <c r="I492" s="9">
@@ -39252,7 +39252,7 @@
       <c r="G493" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H493" s="10">
+      <c r="H493" s="9">
         <v>0</v>
       </c>
       <c r="I493" s="9">
@@ -39312,7 +39312,7 @@
       <c r="G494" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H494" s="10">
+      <c r="H494" s="9">
         <v>0</v>
       </c>
       <c r="I494" s="9">
@@ -39372,7 +39372,7 @@
       <c r="G495" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H495" s="10">
+      <c r="H495" s="9">
         <v>0</v>
       </c>
       <c r="I495" s="9">
@@ -39432,7 +39432,7 @@
       <c r="G496" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H496" s="10">
+      <c r="H496" s="9">
         <v>0</v>
       </c>
       <c r="I496" s="9">
@@ -39492,7 +39492,7 @@
       <c r="G497" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H497" s="10">
+      <c r="H497" s="9">
         <v>0</v>
       </c>
       <c r="I497" s="9">
@@ -39551,7 +39551,7 @@
       <c r="G498" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H498" s="10">
+      <c r="H498" s="9">
         <v>0</v>
       </c>
       <c r="I498" s="9">
@@ -39610,7 +39610,7 @@
       <c r="G499" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H499" s="10">
+      <c r="H499" s="9">
         <v>0</v>
       </c>
       <c r="I499" s="9">
@@ -39669,7 +39669,7 @@
       <c r="G500" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H500" s="10">
+      <c r="H500" s="9">
         <v>0</v>
       </c>
       <c r="I500" s="9">
@@ -39728,7 +39728,7 @@
       <c r="G501" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H501" s="10">
+      <c r="H501" s="9">
         <v>0</v>
       </c>
       <c r="I501" s="9">
@@ -39787,7 +39787,7 @@
       <c r="G502" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H502" s="10">
+      <c r="H502" s="9">
         <v>0</v>
       </c>
       <c r="I502" s="9">
@@ -39846,7 +39846,7 @@
       <c r="G503" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H503" s="10">
+      <c r="H503" s="9">
         <v>0</v>
       </c>
       <c r="I503" s="9">
@@ -39905,7 +39905,7 @@
       <c r="G504" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H504" s="10">
+      <c r="H504" s="9">
         <v>0</v>
       </c>
       <c r="I504" s="9">
@@ -39964,7 +39964,7 @@
       <c r="G505" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H505" s="10">
+      <c r="H505" s="9">
         <v>0</v>
       </c>
       <c r="I505" s="9">
@@ -40023,7 +40023,7 @@
       <c r="G506" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H506" s="10">
+      <c r="H506" s="9">
         <v>0</v>
       </c>
       <c r="I506" s="9">
@@ -40082,7 +40082,7 @@
       <c r="G507" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H507" s="10">
+      <c r="H507" s="9">
         <v>0</v>
       </c>
       <c r="I507" s="9">
@@ -40141,7 +40141,7 @@
       <c r="G508" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H508" s="10">
+      <c r="H508" s="9">
         <v>0</v>
       </c>
       <c r="I508" s="9">
@@ -40201,7 +40201,7 @@
       <c r="G509" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H509" s="10">
+      <c r="H509" s="9">
         <v>0</v>
       </c>
       <c r="I509" s="9">
@@ -40261,7 +40261,7 @@
       <c r="G510" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H510" s="10">
+      <c r="H510" s="9">
         <v>0</v>
       </c>
       <c r="I510" s="9">
@@ -40321,7 +40321,7 @@
       <c r="G511" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H511" s="10">
+      <c r="H511" s="9">
         <v>0</v>
       </c>
       <c r="I511" s="9">
@@ -40381,7 +40381,7 @@
       <c r="G512" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H512" s="10">
+      <c r="H512" s="9">
         <v>0</v>
       </c>
       <c r="I512" s="9">
@@ -40441,7 +40441,7 @@
       <c r="G513" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H513" s="10">
+      <c r="H513" s="9">
         <v>0</v>
       </c>
       <c r="I513" s="9">
@@ -40501,7 +40501,7 @@
       <c r="G514" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H514" s="10">
+      <c r="H514" s="9">
         <v>0</v>
       </c>
       <c r="I514" s="9">
@@ -40561,7 +40561,7 @@
       <c r="G515" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H515" s="10">
+      <c r="H515" s="9">
         <v>0</v>
       </c>
       <c r="I515" s="9">
@@ -40621,7 +40621,7 @@
       <c r="G516" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H516" s="10">
+      <c r="H516" s="9">
         <v>0</v>
       </c>
       <c r="I516" s="9">
@@ -40681,7 +40681,7 @@
       <c r="G517" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H517" s="10">
+      <c r="H517" s="9">
         <v>0</v>
       </c>
       <c r="I517" s="9">
@@ -40741,7 +40741,7 @@
       <c r="G518" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H518" s="10">
+      <c r="H518" s="9">
         <v>0</v>
       </c>
       <c r="I518" s="9">
@@ -40800,7 +40800,7 @@
       <c r="G519" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H519" s="10">
+      <c r="H519" s="9">
         <v>0</v>
       </c>
       <c r="I519" s="9">
@@ -40859,7 +40859,7 @@
       <c r="G520" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H520" s="10">
+      <c r="H520" s="9">
         <v>0</v>
       </c>
       <c r="I520" s="9">
@@ -40918,7 +40918,7 @@
       <c r="G521" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H521" s="10">
+      <c r="H521" s="9">
         <v>0</v>
       </c>
       <c r="I521" s="9">
@@ -40977,7 +40977,7 @@
       <c r="G522" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H522" s="10">
+      <c r="H522" s="9">
         <v>0</v>
       </c>
       <c r="I522" s="9">
@@ -41036,7 +41036,7 @@
       <c r="G523" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H523" s="10">
+      <c r="H523" s="9">
         <v>0</v>
       </c>
       <c r="I523" s="9">
@@ -41095,7 +41095,7 @@
       <c r="G524" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H524" s="10">
+      <c r="H524" s="9">
         <v>0</v>
       </c>
       <c r="I524" s="9">
@@ -41154,7 +41154,7 @@
       <c r="G525" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H525" s="10">
+      <c r="H525" s="9">
         <v>0</v>
       </c>
       <c r="I525" s="9">
@@ -41213,7 +41213,7 @@
       <c r="G526" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H526" s="10">
+      <c r="H526" s="9">
         <v>0</v>
       </c>
       <c r="I526" s="9">
@@ -41272,7 +41272,7 @@
       <c r="G527" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H527" s="10">
+      <c r="H527" s="9">
         <v>0</v>
       </c>
       <c r="I527" s="9">
@@ -41331,7 +41331,7 @@
       <c r="G528" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H528" s="10">
+      <c r="H528" s="9">
         <v>0</v>
       </c>
       <c r="I528" s="9">
@@ -41390,7 +41390,7 @@
       <c r="G529" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="H529" s="10">
+      <c r="H529" s="9">
         <v>0</v>
       </c>
       <c r="I529" s="9">

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3C750C-1054-4516-8EFF-5E9A548A1BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B12893B-50E6-424F-A49D-6235DF57BB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9982,9 +9982,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB550"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10272,7 +10272,7 @@
         <v>30010000</v>
       </c>
       <c r="K7" s="10">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L7" s="10">
         <v>50</v>
@@ -10331,7 +10331,7 @@
         <v>30010000</v>
       </c>
       <c r="K8" s="10">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L8" s="10">
         <v>50</v>
@@ -11275,7 +11275,7 @@
         <v>30010017</v>
       </c>
       <c r="K24" s="10">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="L24" s="10">
         <v>220</v>
@@ -11334,7 +11334,7 @@
         <v>30010018</v>
       </c>
       <c r="K25" s="10">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="L25" s="10">
         <v>220</v>
@@ -11393,7 +11393,7 @@
         <v>30010019</v>
       </c>
       <c r="K26" s="10">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="L26" s="10">
         <v>220</v>
@@ -11452,7 +11452,7 @@
         <v>30010020</v>
       </c>
       <c r="K27" s="10">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="L27" s="10">
         <v>250</v>
@@ -11511,7 +11511,7 @@
         <v>30010021</v>
       </c>
       <c r="K28" s="10">
-        <v>250</v>
+        <v>325</v>
       </c>
       <c r="L28" s="10">
         <v>250</v>
@@ -11570,7 +11570,7 @@
         <v>30010022</v>
       </c>
       <c r="K29" s="10">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="L29" s="10">
         <v>420</v>
@@ -11629,7 +11629,7 @@
         <v>30010023</v>
       </c>
       <c r="K30" s="10">
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="L30" s="10">
         <v>420</v>
@@ -11688,7 +11688,7 @@
         <v>30010024</v>
       </c>
       <c r="K31" s="10">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="L31" s="10">
         <v>465</v>
@@ -11747,7 +11747,7 @@
         <v>30010025</v>
       </c>
       <c r="K32" s="10">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="L32" s="10">
         <v>465</v>
@@ -11806,7 +11806,7 @@
         <v>30010026</v>
       </c>
       <c r="K33" s="10">
-        <v>400</v>
+        <v>640</v>
       </c>
       <c r="L33" s="10">
         <v>510</v>
@@ -11865,7 +11865,7 @@
         <v>30010027</v>
       </c>
       <c r="K34" s="10">
-        <v>475</v>
+        <v>760</v>
       </c>
       <c r="L34" s="10">
         <v>740</v>
@@ -11924,7 +11924,7 @@
         <v>30010028</v>
       </c>
       <c r="K35" s="10">
-        <v>660</v>
+        <v>1056</v>
       </c>
       <c r="L35" s="10">
         <v>800</v>
@@ -11983,7 +11983,7 @@
         <v>30010029</v>
       </c>
       <c r="K36" s="10">
-        <v>750</v>
+        <v>1275</v>
       </c>
       <c r="L36" s="10">
         <v>860</v>
@@ -12042,7 +12042,7 @@
         <v>30010030</v>
       </c>
       <c r="K37" s="10">
-        <v>750</v>
+        <v>1275</v>
       </c>
       <c r="L37" s="10">
         <v>860</v>
@@ -12101,7 +12101,7 @@
         <v>30010031</v>
       </c>
       <c r="K38" s="9">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="L38" s="9">
         <v>820</v>
@@ -12160,7 +12160,7 @@
         <v>30010032</v>
       </c>
       <c r="K39" s="9">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="L39" s="9">
         <v>820</v>
@@ -12219,7 +12219,7 @@
         <v>30010033</v>
       </c>
       <c r="K40" s="9">
-        <v>835</v>
+        <v>1503</v>
       </c>
       <c r="L40" s="10">
         <v>860</v>
@@ -12278,7 +12278,7 @@
         <v>30010034</v>
       </c>
       <c r="K41" s="9">
-        <v>835</v>
+        <v>1587</v>
       </c>
       <c r="L41" s="10">
         <v>860</v>
@@ -12337,7 +12337,7 @@
         <v>30010035</v>
       </c>
       <c r="K42" s="10">
-        <v>930</v>
+        <v>1767</v>
       </c>
       <c r="L42" s="10">
         <v>980</v>
@@ -12396,7 +12396,7 @@
         <v>30010036</v>
       </c>
       <c r="K43" s="9">
-        <v>950</v>
+        <v>1805</v>
       </c>
       <c r="L43" s="10">
         <v>860</v>
@@ -12455,7 +12455,7 @@
         <v>30010037</v>
       </c>
       <c r="K44" s="9">
-        <v>1050</v>
+        <v>2100</v>
       </c>
       <c r="L44" s="9">
         <v>820</v>
@@ -12514,7 +12514,7 @@
         <v>30010038</v>
       </c>
       <c r="K45" s="9">
-        <v>1050</v>
+        <v>2100</v>
       </c>
       <c r="L45" s="9">
         <v>820</v>
@@ -12573,7 +12573,7 @@
         <v>30010039</v>
       </c>
       <c r="K46" s="9">
-        <v>1120</v>
+        <v>2240</v>
       </c>
       <c r="L46" s="9">
         <v>875</v>
@@ -12632,7 +12632,7 @@
         <v>30010040</v>
       </c>
       <c r="K47" s="9">
-        <v>1175</v>
+        <v>2350</v>
       </c>
       <c r="L47" s="10">
         <v>860</v>
@@ -12691,7 +12691,7 @@
         <v>30010041</v>
       </c>
       <c r="K48" s="9">
-        <v>1250</v>
+        <v>2500</v>
       </c>
       <c r="L48" s="10">
         <v>980</v>
@@ -12750,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="K49" s="10">
-        <v>1380</v>
+        <v>3450</v>
       </c>
       <c r="L49" s="10">
         <v>1220</v>
@@ -12809,7 +12809,7 @@
         <v>30020101</v>
       </c>
       <c r="K50" s="10">
-        <v>1500</v>
+        <v>3750</v>
       </c>
       <c r="L50" s="10">
         <v>1280</v>
@@ -12868,7 +12868,7 @@
         <v>30020102</v>
       </c>
       <c r="K51" s="10">
-        <v>1500</v>
+        <v>3750</v>
       </c>
       <c r="L51" s="10">
         <v>1280</v>
@@ -12927,7 +12927,7 @@
         <v>30020103</v>
       </c>
       <c r="K52" s="10">
-        <v>1680</v>
+        <v>4200</v>
       </c>
       <c r="L52" s="10">
         <v>1340</v>
@@ -12986,7 +12986,7 @@
         <v>30020104</v>
       </c>
       <c r="K53" s="10">
-        <v>1680</v>
+        <v>4200</v>
       </c>
       <c r="L53" s="10">
         <v>1340</v>
@@ -13045,7 +13045,7 @@
         <v>30020105</v>
       </c>
       <c r="K54" s="10">
-        <v>2380</v>
+        <v>5950</v>
       </c>
       <c r="L54" s="10">
         <v>1460</v>
@@ -13104,7 +13104,7 @@
         <v>30020106</v>
       </c>
       <c r="K55" s="10">
-        <v>2380</v>
+        <v>5950</v>
       </c>
       <c r="L55" s="10">
         <v>1460</v>
@@ -13163,7 +13163,7 @@
         <v>30020107</v>
       </c>
       <c r="K56" s="10">
-        <v>2380</v>
+        <v>5950</v>
       </c>
       <c r="L56" s="10">
         <v>1460</v>
@@ -13222,7 +13222,7 @@
         <v>30020108</v>
       </c>
       <c r="K57" s="10">
-        <v>2380</v>
+        <v>5950</v>
       </c>
       <c r="L57" s="10">
         <v>1460</v>
@@ -13281,7 +13281,7 @@
         <v>30020109</v>
       </c>
       <c r="K58" s="10">
-        <v>2590</v>
+        <v>6475</v>
       </c>
       <c r="L58" s="10">
         <v>1520</v>
@@ -13340,7 +13340,7 @@
         <v>30020110</v>
       </c>
       <c r="K59" s="10">
-        <v>2590</v>
+        <v>6475</v>
       </c>
       <c r="L59" s="10">
         <v>1520</v>
@@ -13399,7 +13399,7 @@
         <v>30020111</v>
       </c>
       <c r="K60" s="10">
-        <v>2590</v>
+        <v>6475</v>
       </c>
       <c r="L60" s="10">
         <v>1520</v>
@@ -13458,7 +13458,7 @@
         <v>30020112</v>
       </c>
       <c r="K61" s="10">
-        <v>2590</v>
+        <v>6475</v>
       </c>
       <c r="L61" s="10">
         <v>1520</v>
@@ -13517,7 +13517,7 @@
         <v>30020113</v>
       </c>
       <c r="K62" s="10">
-        <v>2590</v>
+        <v>6475</v>
       </c>
       <c r="L62" s="10">
         <v>1520</v>
@@ -13576,7 +13576,7 @@
         <v>30020114</v>
       </c>
       <c r="K63" s="10">
-        <v>2800</v>
+        <v>7000</v>
       </c>
       <c r="L63" s="10">
         <v>1580</v>
@@ -13635,7 +13635,7 @@
         <v>30020115</v>
       </c>
       <c r="K64" s="10">
-        <v>2800</v>
+        <v>7000</v>
       </c>
       <c r="L64" s="10">
         <v>1580</v>
@@ -13694,7 +13694,7 @@
         <v>30020116</v>
       </c>
       <c r="K65" s="10">
-        <v>2800</v>
+        <v>7000</v>
       </c>
       <c r="L65" s="10">
         <v>1580</v>
@@ -13753,7 +13753,7 @@
         <v>30020117</v>
       </c>
       <c r="K66" s="10">
-        <v>3010</v>
+        <v>7525</v>
       </c>
       <c r="L66" s="10">
         <v>1640</v>
@@ -13812,7 +13812,7 @@
         <v>30020118</v>
       </c>
       <c r="K67" s="10">
-        <v>3010</v>
+        <v>7525</v>
       </c>
       <c r="L67" s="10">
         <v>1640</v>
@@ -13871,7 +13871,7 @@
         <v>30020119</v>
       </c>
       <c r="K68" s="10">
-        <v>3010</v>
+        <v>7525</v>
       </c>
       <c r="L68" s="10">
         <v>1640</v>
@@ -13930,7 +13930,7 @@
         <v>30020120</v>
       </c>
       <c r="K69" s="10">
-        <v>3680</v>
+        <v>9200</v>
       </c>
       <c r="L69" s="10">
         <v>1700</v>
@@ -13989,7 +13989,7 @@
         <v>30020121</v>
       </c>
       <c r="K70" s="10">
-        <v>3920</v>
+        <v>9800</v>
       </c>
       <c r="L70" s="10">
         <v>1760</v>
@@ -14048,7 +14048,7 @@
         <v>30020122</v>
       </c>
       <c r="K71" s="10">
-        <v>4160</v>
+        <v>10400</v>
       </c>
       <c r="L71" s="10">
         <v>1820</v>
@@ -14107,7 +14107,7 @@
         <v>30020123</v>
       </c>
       <c r="K72" s="10">
-        <v>4640</v>
+        <v>11600</v>
       </c>
       <c r="L72" s="10">
         <v>1940</v>
@@ -14166,7 +14166,7 @@
         <v>1</v>
       </c>
       <c r="K73" s="10">
-        <v>4640</v>
+        <v>13920</v>
       </c>
       <c r="L73" s="10">
         <v>1940</v>
@@ -14225,7 +14225,7 @@
         <v>30030001</v>
       </c>
       <c r="K74" s="10">
-        <v>4640</v>
+        <v>13920</v>
       </c>
       <c r="L74" s="10">
         <v>1940</v>
@@ -14284,7 +14284,7 @@
         <v>30030002</v>
       </c>
       <c r="K75" s="10">
-        <v>4640</v>
+        <v>13920</v>
       </c>
       <c r="L75" s="10">
         <v>1940</v>
@@ -14343,7 +14343,7 @@
         <v>30030003</v>
       </c>
       <c r="K76" s="10">
-        <v>5490</v>
+        <v>16470</v>
       </c>
       <c r="L76" s="10">
         <v>2000</v>
@@ -14402,7 +14402,7 @@
         <v>30030004</v>
       </c>
       <c r="K77" s="10">
-        <v>5490</v>
+        <v>16470</v>
       </c>
       <c r="L77" s="10">
         <v>2000</v>
@@ -14461,7 +14461,7 @@
         <v>30030005</v>
       </c>
       <c r="K78" s="10">
-        <v>5760</v>
+        <v>17280</v>
       </c>
       <c r="L78" s="10">
         <v>2060</v>
@@ -14520,7 +14520,7 @@
         <v>30030006</v>
       </c>
       <c r="K79" s="10">
-        <v>5760</v>
+        <v>17280</v>
       </c>
       <c r="L79" s="10">
         <v>2060</v>
@@ -14579,7 +14579,7 @@
         <v>30030007</v>
       </c>
       <c r="K80" s="10">
-        <v>6030</v>
+        <v>18090</v>
       </c>
       <c r="L80" s="10">
         <v>2120</v>
@@ -14638,7 +14638,7 @@
         <v>30030008</v>
       </c>
       <c r="K81" s="10">
-        <v>6030</v>
+        <v>18090</v>
       </c>
       <c r="L81" s="10">
         <v>2120</v>
@@ -14697,7 +14697,7 @@
         <v>30030009</v>
       </c>
       <c r="K82" s="10">
-        <v>6030</v>
+        <v>18090</v>
       </c>
       <c r="L82" s="10">
         <v>2120</v>
@@ -14756,7 +14756,7 @@
         <v>30030010</v>
       </c>
       <c r="K83" s="10">
-        <v>6030</v>
+        <v>18090</v>
       </c>
       <c r="L83" s="10">
         <v>2120</v>
@@ -14815,7 +14815,7 @@
         <v>30030011</v>
       </c>
       <c r="K84" s="10">
-        <v>6030</v>
+        <v>18090</v>
       </c>
       <c r="L84" s="10">
         <v>2120</v>
@@ -14874,7 +14874,7 @@
         <v>30030012</v>
       </c>
       <c r="K85" s="10">
-        <v>6030</v>
+        <v>18090</v>
       </c>
       <c r="L85" s="10">
         <v>2120</v>
@@ -14933,7 +14933,7 @@
         <v>30030013</v>
       </c>
       <c r="K86" s="10">
-        <v>6300</v>
+        <v>18900</v>
       </c>
       <c r="L86" s="10">
         <v>2180</v>
@@ -14992,7 +14992,7 @@
         <v>30030014</v>
       </c>
       <c r="K87" s="10">
-        <v>6300</v>
+        <v>18900</v>
       </c>
       <c r="L87" s="10">
         <v>2180</v>
@@ -15051,7 +15051,7 @@
         <v>30030015</v>
       </c>
       <c r="K88" s="10">
-        <v>6300</v>
+        <v>18900</v>
       </c>
       <c r="L88" s="10">
         <v>2180</v>
@@ -15110,7 +15110,7 @@
         <v>30030016</v>
       </c>
       <c r="K89" s="10">
-        <v>6300</v>
+        <v>18900</v>
       </c>
       <c r="L89" s="10">
         <v>2180</v>
@@ -15169,7 +15169,7 @@
         <v>30030017</v>
       </c>
       <c r="K90" s="10">
-        <v>6300</v>
+        <v>18900</v>
       </c>
       <c r="L90" s="10">
         <v>2180</v>
@@ -15228,7 +15228,7 @@
         <v>30030018</v>
       </c>
       <c r="K91" s="10">
-        <v>6300</v>
+        <v>18900</v>
       </c>
       <c r="L91" s="10">
         <v>2180</v>
@@ -15287,7 +15287,7 @@
         <v>30030019</v>
       </c>
       <c r="K92" s="10">
-        <v>6300</v>
+        <v>18900</v>
       </c>
       <c r="L92" s="10">
         <v>2180</v>
@@ -15346,7 +15346,7 @@
         <v>30030020</v>
       </c>
       <c r="K93" s="10">
-        <v>6300</v>
+        <v>18900</v>
       </c>
       <c r="L93" s="10">
         <v>2180</v>
@@ -15405,7 +15405,7 @@
         <v>30030021</v>
       </c>
       <c r="K94" s="10">
-        <v>6570</v>
+        <v>19710</v>
       </c>
       <c r="L94" s="10">
         <v>2240</v>
@@ -15464,7 +15464,7 @@
         <v>30030022</v>
       </c>
       <c r="K95" s="10">
-        <v>6570</v>
+        <v>19710</v>
       </c>
       <c r="L95" s="10">
         <v>2240</v>
@@ -15523,7 +15523,7 @@
         <v>30030023</v>
       </c>
       <c r="K96" s="10">
-        <v>6570</v>
+        <v>19710</v>
       </c>
       <c r="L96" s="10">
         <v>2240</v>
@@ -15582,7 +15582,7 @@
         <v>30030024</v>
       </c>
       <c r="K97" s="10">
-        <v>6570</v>
+        <v>19710</v>
       </c>
       <c r="L97" s="10">
         <v>2240</v>
@@ -15641,7 +15641,7 @@
         <v>30030025</v>
       </c>
       <c r="K98" s="10">
-        <v>7600</v>
+        <v>22800</v>
       </c>
       <c r="L98" s="10">
         <v>2300</v>
@@ -15700,7 +15700,7 @@
         <v>30030026</v>
       </c>
       <c r="K99" s="10">
-        <v>6570</v>
+        <v>19710</v>
       </c>
       <c r="L99" s="10">
         <v>2240</v>
@@ -15759,7 +15759,7 @@
         <v>30030027</v>
       </c>
       <c r="K100" s="10">
-        <v>7600</v>
+        <v>22800</v>
       </c>
       <c r="L100" s="10">
         <v>2300</v>
@@ -15818,7 +15818,7 @@
         <v>30030028</v>
       </c>
       <c r="K101" s="10">
-        <v>7900</v>
+        <v>23700</v>
       </c>
       <c r="L101" s="10">
         <v>2360</v>
@@ -15877,7 +15877,7 @@
         <v>30030029</v>
       </c>
       <c r="K102" s="10">
-        <v>7900</v>
+        <v>23700</v>
       </c>
       <c r="L102" s="10">
         <v>2360</v>
@@ -15936,7 +15936,7 @@
         <v>30030030</v>
       </c>
       <c r="K103" s="10">
-        <v>7900</v>
+        <v>23700</v>
       </c>
       <c r="L103" s="10">
         <v>2360</v>
@@ -15995,7 +15995,7 @@
         <v>30030031</v>
       </c>
       <c r="K104" s="10">
-        <v>7900</v>
+        <v>23700</v>
       </c>
       <c r="L104" s="10">
         <v>2360</v>
@@ -16054,7 +16054,7 @@
         <v>30030032</v>
       </c>
       <c r="K105" s="10">
-        <v>7900</v>
+        <v>23700</v>
       </c>
       <c r="L105" s="10">
         <v>2360</v>
@@ -16113,7 +16113,7 @@
         <v>30030033</v>
       </c>
       <c r="K106" s="10">
-        <v>8200</v>
+        <v>24600</v>
       </c>
       <c r="L106" s="10">
         <v>2420</v>
@@ -16172,7 +16172,7 @@
         <v>30030034</v>
       </c>
       <c r="K107" s="10">
-        <v>8200</v>
+        <v>24600</v>
       </c>
       <c r="L107" s="10">
         <v>2420</v>
@@ -16231,7 +16231,7 @@
         <v>30030035</v>
       </c>
       <c r="K108" s="10">
-        <v>8500</v>
+        <v>25500</v>
       </c>
       <c r="L108" s="10">
         <v>2480</v>
@@ -16290,7 +16290,7 @@
         <v>30030036</v>
       </c>
       <c r="K109" s="10">
-        <v>8500</v>
+        <v>25500</v>
       </c>
       <c r="L109" s="10">
         <v>2480</v>
@@ -16349,7 +16349,7 @@
         <v>30030037</v>
       </c>
       <c r="K110" s="10">
-        <v>8800</v>
+        <v>26400</v>
       </c>
       <c r="L110" s="10">
         <v>2540</v>
@@ -16408,7 +16408,7 @@
         <v>1</v>
       </c>
       <c r="K111" s="10">
-        <v>8800</v>
+        <v>26400</v>
       </c>
       <c r="L111" s="10">
         <v>2540</v>
@@ -16467,7 +16467,7 @@
         <v>30040001</v>
       </c>
       <c r="K112" s="10">
-        <v>8800</v>
+        <v>26400</v>
       </c>
       <c r="L112" s="10">
         <v>2540</v>
@@ -16526,7 +16526,7 @@
         <v>30040002</v>
       </c>
       <c r="K113" s="10">
-        <v>8800</v>
+        <v>26400</v>
       </c>
       <c r="L113" s="10">
         <v>2540</v>
@@ -16585,7 +16585,7 @@
         <v>30040003</v>
       </c>
       <c r="K114" s="10">
-        <v>9100</v>
+        <v>27300</v>
       </c>
       <c r="L114" s="10">
         <v>2600</v>
@@ -16644,7 +16644,7 @@
         <v>30040004</v>
       </c>
       <c r="K115" s="10">
-        <v>9100</v>
+        <v>27300</v>
       </c>
       <c r="L115" s="10">
         <v>2600</v>
@@ -16703,7 +16703,7 @@
         <v>30040005</v>
       </c>
       <c r="K116" s="10">
-        <v>9100</v>
+        <v>27300</v>
       </c>
       <c r="L116" s="10">
         <v>2600</v>
@@ -16762,7 +16762,7 @@
         <v>30040006</v>
       </c>
       <c r="K117" s="10">
-        <v>9400</v>
+        <v>28200</v>
       </c>
       <c r="L117" s="10">
         <v>2660</v>
@@ -16821,7 +16821,7 @@
         <v>30040007</v>
       </c>
       <c r="K118" s="10">
-        <v>9400</v>
+        <v>28200</v>
       </c>
       <c r="L118" s="10">
         <v>2660</v>
@@ -16880,7 +16880,7 @@
         <v>30040008</v>
       </c>
       <c r="K119" s="10">
-        <v>9400</v>
+        <v>28200</v>
       </c>
       <c r="L119" s="10">
         <v>2660</v>
@@ -16939,7 +16939,7 @@
         <v>30040009</v>
       </c>
       <c r="K120" s="10">
-        <v>9400</v>
+        <v>28200</v>
       </c>
       <c r="L120" s="10">
         <v>2660</v>
@@ -16998,7 +16998,7 @@
         <v>30040010</v>
       </c>
       <c r="K121" s="10">
-        <v>9400</v>
+        <v>28200</v>
       </c>
       <c r="L121" s="10">
         <v>2660</v>
@@ -17057,7 +17057,7 @@
         <v>30040011</v>
       </c>
       <c r="K122" s="10">
-        <v>9700</v>
+        <v>29100</v>
       </c>
       <c r="L122" s="10">
         <v>2720</v>
@@ -17116,7 +17116,7 @@
         <v>30040012</v>
       </c>
       <c r="K123" s="10">
-        <v>9700</v>
+        <v>29100</v>
       </c>
       <c r="L123" s="10">
         <v>2720</v>
@@ -17175,7 +17175,7 @@
         <v>30040013</v>
       </c>
       <c r="K124" s="10">
-        <v>9700</v>
+        <v>29100</v>
       </c>
       <c r="L124" s="10">
         <v>2720</v>
@@ -17234,7 +17234,7 @@
         <v>30040014</v>
       </c>
       <c r="K125" s="10">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="L125" s="10">
         <v>2780</v>
@@ -17293,7 +17293,7 @@
         <v>30040015</v>
       </c>
       <c r="K126" s="10">
-        <v>10300</v>
+        <v>30900</v>
       </c>
       <c r="L126" s="10">
         <v>2840</v>
@@ -17352,7 +17352,7 @@
         <v>30040016</v>
       </c>
       <c r="K127" s="10">
-        <v>10300</v>
+        <v>30900</v>
       </c>
       <c r="L127" s="10">
         <v>2840</v>
@@ -17411,7 +17411,7 @@
         <v>30040017</v>
       </c>
       <c r="K128" s="10">
-        <v>10300</v>
+        <v>30900</v>
       </c>
       <c r="L128" s="10">
         <v>2840</v>
@@ -17470,7 +17470,7 @@
         <v>30040018</v>
       </c>
       <c r="K129" s="10">
-        <v>10300</v>
+        <v>30900</v>
       </c>
       <c r="L129" s="10">
         <v>2840</v>
@@ -17529,7 +17529,7 @@
         <v>30040019</v>
       </c>
       <c r="K130" s="10">
-        <v>10600</v>
+        <v>31800</v>
       </c>
       <c r="L130" s="10">
         <v>2900</v>
@@ -17588,7 +17588,7 @@
         <v>30040020</v>
       </c>
       <c r="K131" s="10">
-        <v>10600</v>
+        <v>31800</v>
       </c>
       <c r="L131" s="10">
         <v>2900</v>
@@ -17647,7 +17647,7 @@
         <v>30040021</v>
       </c>
       <c r="K132" s="10">
-        <v>10600</v>
+        <v>31800</v>
       </c>
       <c r="L132" s="10">
         <v>2900</v>
@@ -17706,7 +17706,7 @@
         <v>30040022</v>
       </c>
       <c r="K133" s="10">
-        <v>10600</v>
+        <v>31800</v>
       </c>
       <c r="L133" s="10">
         <v>2900</v>
@@ -17765,7 +17765,7 @@
         <v>30040023</v>
       </c>
       <c r="K134" s="10">
-        <v>10600</v>
+        <v>31800</v>
       </c>
       <c r="L134" s="10">
         <v>2900</v>
@@ -17824,7 +17824,7 @@
         <v>30040024</v>
       </c>
       <c r="K135" s="10">
-        <v>10600</v>
+        <v>31800</v>
       </c>
       <c r="L135" s="10">
         <v>2900</v>
@@ -17883,7 +17883,7 @@
         <v>30040025</v>
       </c>
       <c r="K136" s="10">
-        <v>10600</v>
+        <v>31800</v>
       </c>
       <c r="L136" s="10">
         <v>2900</v>
@@ -17942,7 +17942,7 @@
         <v>30040026</v>
       </c>
       <c r="K137" s="10">
-        <v>10600</v>
+        <v>31800</v>
       </c>
       <c r="L137" s="10">
         <v>2900</v>
@@ -18001,7 +18001,7 @@
         <v>30040027</v>
       </c>
       <c r="K138" s="10">
-        <v>10900</v>
+        <v>32700</v>
       </c>
       <c r="L138" s="10">
         <v>2960</v>
@@ -18060,7 +18060,7 @@
         <v>30040028</v>
       </c>
       <c r="K139" s="10">
-        <v>11200</v>
+        <v>33600</v>
       </c>
       <c r="L139" s="10">
         <v>3020</v>
@@ -18119,7 +18119,7 @@
         <v>30040029</v>
       </c>
       <c r="K140" s="10">
-        <v>11200</v>
+        <v>33600</v>
       </c>
       <c r="L140" s="10">
         <v>3020</v>
@@ -18178,7 +18178,7 @@
         <v>30040030</v>
       </c>
       <c r="K141" s="10">
-        <v>11200</v>
+        <v>33600</v>
       </c>
       <c r="L141" s="10">
         <v>3020</v>
@@ -18237,7 +18237,7 @@
         <v>30040031</v>
       </c>
       <c r="K142" s="10">
-        <v>11500</v>
+        <v>34500</v>
       </c>
       <c r="L142" s="10">
         <v>3080</v>
@@ -18296,7 +18296,7 @@
         <v>30040032</v>
       </c>
       <c r="K143" s="10">
-        <v>11800</v>
+        <v>35400</v>
       </c>
       <c r="L143" s="10">
         <v>3140</v>
@@ -18355,7 +18355,7 @@
         <v>1</v>
       </c>
       <c r="K144" s="9">
-        <v>11800</v>
+        <v>35400</v>
       </c>
       <c r="L144" s="10">
         <v>3140</v>
@@ -18414,7 +18414,7 @@
         <v>30050001</v>
       </c>
       <c r="K145" s="10">
-        <v>11800</v>
+        <v>35400</v>
       </c>
       <c r="L145" s="10">
         <v>3140</v>
@@ -18473,7 +18473,7 @@
         <v>30050002</v>
       </c>
       <c r="K146" s="10">
-        <v>11800</v>
+        <v>35400</v>
       </c>
       <c r="L146" s="10">
         <v>3140</v>
@@ -18532,7 +18532,7 @@
         <v>30050003</v>
       </c>
       <c r="K147" s="10">
-        <v>11800</v>
+        <v>35400</v>
       </c>
       <c r="L147" s="10">
         <v>3140</v>
@@ -18591,7 +18591,7 @@
         <v>30050004</v>
       </c>
       <c r="K148" s="10">
-        <v>11800</v>
+        <v>35400</v>
       </c>
       <c r="L148" s="10">
         <v>3140</v>
@@ -18650,7 +18650,7 @@
         <v>30050005</v>
       </c>
       <c r="K149" s="10">
-        <v>12100</v>
+        <v>36300</v>
       </c>
       <c r="L149" s="10">
         <v>3200</v>
@@ -18709,7 +18709,7 @@
         <v>30050006</v>
       </c>
       <c r="K150" s="10">
-        <v>12400</v>
+        <v>37200</v>
       </c>
       <c r="L150" s="10">
         <v>3260</v>
@@ -18768,7 +18768,7 @@
         <v>30050007</v>
       </c>
       <c r="K151" s="10">
-        <v>12400</v>
+        <v>37200</v>
       </c>
       <c r="L151" s="10">
         <v>3260</v>
@@ -18827,7 +18827,7 @@
         <v>30050008</v>
       </c>
       <c r="K152" s="10">
-        <v>12400</v>
+        <v>37200</v>
       </c>
       <c r="L152" s="10">
         <v>3260</v>
@@ -18886,7 +18886,7 @@
         <v>30050009</v>
       </c>
       <c r="K153" s="10">
-        <v>12400</v>
+        <v>37200</v>
       </c>
       <c r="L153" s="10">
         <v>3260</v>
@@ -18945,7 +18945,7 @@
         <v>30050010</v>
       </c>
       <c r="K154" s="10">
-        <v>12400</v>
+        <v>37200</v>
       </c>
       <c r="L154" s="10">
         <v>3260</v>
@@ -19004,7 +19004,7 @@
         <v>30050011</v>
       </c>
       <c r="K155" s="10">
-        <v>12700</v>
+        <v>38100</v>
       </c>
       <c r="L155" s="10">
         <v>3320</v>
@@ -19063,7 +19063,7 @@
         <v>30050012</v>
       </c>
       <c r="K156" s="10">
-        <v>13000</v>
+        <v>39000</v>
       </c>
       <c r="L156" s="10">
         <v>3380</v>
@@ -19122,7 +19122,7 @@
         <v>30050013</v>
       </c>
       <c r="K157" s="10">
-        <v>13000</v>
+        <v>39000</v>
       </c>
       <c r="L157" s="10">
         <v>3380</v>
@@ -19181,7 +19181,7 @@
         <v>30050014</v>
       </c>
       <c r="K158" s="10">
-        <v>13000</v>
+        <v>39000</v>
       </c>
       <c r="L158" s="10">
         <v>3380</v>
@@ -19240,7 +19240,7 @@
         <v>30050015</v>
       </c>
       <c r="K159" s="10">
-        <v>13000</v>
+        <v>39000</v>
       </c>
       <c r="L159" s="10">
         <v>3380</v>
@@ -19299,7 +19299,7 @@
         <v>30050016</v>
       </c>
       <c r="K160" s="10">
-        <v>13000</v>
+        <v>39000</v>
       </c>
       <c r="L160" s="10">
         <v>3380</v>
@@ -19358,7 +19358,7 @@
         <v>30050017</v>
       </c>
       <c r="K161" s="10">
-        <v>13300</v>
+        <v>39900</v>
       </c>
       <c r="L161" s="10">
         <v>3440</v>
@@ -19417,7 +19417,7 @@
         <v>30050018</v>
       </c>
       <c r="K162" s="10">
-        <v>13600</v>
+        <v>40800</v>
       </c>
       <c r="L162" s="10">
         <v>3500</v>
@@ -19476,7 +19476,7 @@
         <v>30050019</v>
       </c>
       <c r="K163" s="10">
-        <v>13900</v>
+        <v>41700</v>
       </c>
       <c r="L163" s="10">
         <v>3560</v>
@@ -19535,7 +19535,7 @@
         <v>30050020</v>
       </c>
       <c r="K164" s="10">
-        <v>14200</v>
+        <v>42600</v>
       </c>
       <c r="L164" s="10">
         <v>3620</v>
@@ -19594,7 +19594,7 @@
         <v>30050021</v>
       </c>
       <c r="K165" s="10">
-        <v>14800</v>
+        <v>44400</v>
       </c>
       <c r="L165" s="10">
         <v>3740</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B12893B-50E6-424F-A49D-6235DF57BB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5C3197-4EC6-4DD2-AFB7-6A4FF6F9B608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9982,9 +9982,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R145" sqref="R145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30735,7 +30735,7 @@
         <v>1</v>
       </c>
       <c r="R351" s="21">
-        <v>70005002</v>
+        <v>70005001</v>
       </c>
       <c r="S351" s="10" t="s">
         <v>220</v>
@@ -30915,7 +30915,7 @@
         <v>1</v>
       </c>
       <c r="R354" s="22">
-        <v>70005002</v>
+        <v>70005001</v>
       </c>
       <c r="S354" s="10" t="s">
         <v>220</v>
@@ -31155,7 +31155,7 @@
         <v>1</v>
       </c>
       <c r="R358" s="21">
-        <v>70005002</v>
+        <v>70005001</v>
       </c>
       <c r="S358" s="10" t="s">
         <v>220</v>
@@ -31453,7 +31453,7 @@
         <v>1</v>
       </c>
       <c r="R363" s="21">
-        <v>70005002</v>
+        <v>70005001</v>
       </c>
       <c r="S363" s="10" t="s">
         <v>357</v>
@@ -31633,7 +31633,7 @@
         <v>1</v>
       </c>
       <c r="R366" s="22">
-        <v>70005002</v>
+        <v>70005001</v>
       </c>
       <c r="S366" s="10" t="s">
         <v>357</v>
@@ -31873,7 +31873,7 @@
         <v>1</v>
       </c>
       <c r="R370" s="21">
-        <v>70005002</v>
+        <v>70005001</v>
       </c>
       <c r="S370" s="10" t="s">
         <v>357</v>
@@ -32171,7 +32171,7 @@
         <v>1</v>
       </c>
       <c r="R375" s="21">
-        <v>70005002</v>
+        <v>70005001</v>
       </c>
       <c r="S375" s="10" t="s">
         <v>369</v>
@@ -32351,7 +32351,7 @@
         <v>1</v>
       </c>
       <c r="R378" s="22">
-        <v>70005002</v>
+        <v>70005001</v>
       </c>
       <c r="S378" s="10" t="s">
         <v>369</v>
@@ -32591,7 +32591,7 @@
         <v>1</v>
       </c>
       <c r="R382" s="21">
-        <v>70005002</v>
+        <v>70005001</v>
       </c>
       <c r="S382" s="10" t="s">
         <v>369</v>
@@ -41540,7 +41540,7 @@
         <v>1</v>
       </c>
       <c r="R531" s="21">
-        <v>70005002</v>
+        <v>70005001</v>
       </c>
       <c r="S531" s="10" t="s">
         <v>220</v>
@@ -41720,7 +41720,7 @@
         <v>1</v>
       </c>
       <c r="R534" s="22">
-        <v>70005002</v>
+        <v>70005001</v>
       </c>
       <c r="S534" s="10" t="s">
         <v>220</v>
@@ -41960,7 +41960,7 @@
         <v>1</v>
       </c>
       <c r="R538" s="21">
-        <v>70005002</v>
+        <v>70005001</v>
       </c>
       <c r="S538" s="10" t="s">
         <v>220</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5C3197-4EC6-4DD2-AFB7-6A4FF6F9B608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB812E78-18A0-4FA8-A697-244282D0AA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -361,16 +361,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1</t>
+          <t>:
+1</t>
         </r>
         <r>
           <rPr>
@@ -405,16 +397,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">ID
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>3</t>
+          <t>ID
+3</t>
         </r>
         <r>
           <rPr>
@@ -495,126 +479,17 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">级别怪物
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">7：通关某个副本
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">8：转职任务
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">101：击杀挑战难度的指定ID怪物(击杀地狱也算)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">102：击杀地狱你拿度指定ID怪物
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">111：通关挑战难度的副本(通关地狱也算)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">112：通关地狱难度的副本
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">121：击败挑战难度任意数量怪物(通关地狱也算)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">122：击败地狱难度任意数量怪物
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">131：击败挑战难度任意boss怪物(通关地狱也算)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">132：击败地狱难度任意boss怪物
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+7：通关某个副本
+8：转职任务
+9: 加入家族
+101：击杀挑战难度的指定ID怪物(击杀地狱也算)
+102：击杀地狱你拿度指定ID怪物
+111：通关挑战难度的副本(通关地狱也算)
+112：通关地狱难度的副本
+121：击败挑战难度任意数量怪物(通关地狱也算)
+122：击败地狱难度任意数量怪物
+131：击败挑战难度任意boss怪物(通关地狱也算)
+132：击败地狱难度任意boss怪物
 </t>
         </r>
       </text>
@@ -624,7 +499,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2887" uniqueCount="441">
   <si>
     <t>Id</t>
   </si>
@@ -2017,6 +1892,14 @@
   </si>
   <si>
     <t>前往绿林深处</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入家族</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建或加入一个家族,这是踏入游戏大家庭的第一步哦!(家族通过点击左下角的社交按钮可以查看)</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -9980,11 +9863,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB550"/>
+  <dimension ref="A1:AB551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R145" sqref="R145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A417" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F423" sqref="F423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34899,7 +34782,7 @@
         <v>0</v>
       </c>
       <c r="L421" s="34">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="M421" s="9">
         <v>10010046</v>
@@ -34929,74 +34812,74 @@
         <v>398</v>
       </c>
     </row>
-    <row r="422" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C422" s="9">
+        <v>50000003</v>
+      </c>
+      <c r="D422" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="E422" s="28">
+        <v>12</v>
+      </c>
+      <c r="F422" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G422" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="H422" s="9">
+        <v>0</v>
+      </c>
+      <c r="I422" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="J422" s="33">
+        <v>12</v>
+      </c>
+      <c r="K422" s="28">
+        <v>10000</v>
+      </c>
+      <c r="L422" s="34">
+        <v>30000</v>
+      </c>
+      <c r="M422" s="9">
+        <v>10000121</v>
+      </c>
+      <c r="N422" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="O422" s="34">
+        <v>20002003</v>
+      </c>
+      <c r="P422" s="34">
+        <v>20002003</v>
+      </c>
+      <c r="Q422" s="28">
+        <v>9</v>
+      </c>
+      <c r="R422" s="36">
+        <v>0</v>
+      </c>
+      <c r="S422" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="T422" s="9">
+        <v>0</v>
+      </c>
+      <c r="U422" s="37" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="423" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C423" s="9">
         <v>50000101</v>
       </c>
-      <c r="D422" s="10" t="s">
+      <c r="D423" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="E422" s="9">
+      <c r="E423" s="9">
         <v>25</v>
-      </c>
-      <c r="F422" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G422" s="9">
-        <v>2</v>
-      </c>
-      <c r="H422" s="9">
-        <v>0</v>
-      </c>
-      <c r="I422" s="9">
-        <v>1</v>
-      </c>
-      <c r="J422" s="9">
-        <v>25</v>
-      </c>
-      <c r="K422" s="9">
-        <v>12500</v>
-      </c>
-      <c r="L422" s="9">
-        <v>10000</v>
-      </c>
-      <c r="M422" s="9">
-        <v>0</v>
-      </c>
-      <c r="N422" s="9">
-        <v>0</v>
-      </c>
-      <c r="O422" s="11">
-        <v>20000024</v>
-      </c>
-      <c r="P422" s="9">
-        <v>20000024</v>
-      </c>
-      <c r="Q422" s="10">
-        <v>2</v>
-      </c>
-      <c r="R422" s="15">
-        <v>10022009</v>
-      </c>
-      <c r="S422" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="T422" s="9">
-        <v>0</v>
-      </c>
-      <c r="U422" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="423" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C423" s="9">
-        <v>50000102</v>
-      </c>
-      <c r="D423" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="E423" s="10" t="s">
-        <v>368</v>
       </c>
       <c r="F423" s="10" t="s">
         <v>41</v>
@@ -35008,10 +34891,10 @@
         <v>0</v>
       </c>
       <c r="I423" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J423" s="9">
-        <v>50000101</v>
+        <v>25</v>
       </c>
       <c r="K423" s="9">
         <v>12500</v>
@@ -35031,31 +34914,31 @@
       <c r="P423" s="9">
         <v>20000024</v>
       </c>
-      <c r="Q423" s="15">
-        <v>5</v>
+      <c r="Q423" s="10">
+        <v>2</v>
       </c>
       <c r="R423" s="15">
-        <v>0</v>
-      </c>
-      <c r="S423" s="15">
-        <v>100</v>
-      </c>
-      <c r="T423" s="15">
+        <v>10022009</v>
+      </c>
+      <c r="S423" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="T423" s="9">
         <v>0</v>
       </c>
       <c r="U423" s="14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="424" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="424" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C424" s="9">
-        <v>50000103</v>
+        <v>50000102</v>
       </c>
       <c r="D424" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="E424" s="9">
-        <v>25</v>
+        <v>401</v>
+      </c>
+      <c r="E424" s="10" t="s">
+        <v>368</v>
       </c>
       <c r="F424" s="10" t="s">
         <v>41</v>
@@ -35070,7 +34953,7 @@
         <v>2</v>
       </c>
       <c r="J424" s="9">
-        <v>50000102</v>
+        <v>50000101</v>
       </c>
       <c r="K424" s="9">
         <v>12500</v>
@@ -35090,28 +34973,28 @@
       <c r="P424" s="9">
         <v>20000024</v>
       </c>
-      <c r="Q424" s="10">
-        <v>2</v>
+      <c r="Q424" s="15">
+        <v>5</v>
       </c>
       <c r="R424" s="15">
-        <v>10022010</v>
-      </c>
-      <c r="S424" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="T424" s="9">
+        <v>0</v>
+      </c>
+      <c r="S424" s="15">
+        <v>100</v>
+      </c>
+      <c r="T424" s="15">
         <v>0</v>
       </c>
       <c r="U424" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="425" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C425" s="9">
-        <v>50000104</v>
+        <v>50000103</v>
       </c>
       <c r="D425" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E425" s="9">
         <v>25</v>
@@ -35129,7 +35012,7 @@
         <v>2</v>
       </c>
       <c r="J425" s="9">
-        <v>50000103</v>
+        <v>50000102</v>
       </c>
       <c r="K425" s="9">
         <v>12500</v>
@@ -35149,28 +35032,28 @@
       <c r="P425" s="9">
         <v>20000024</v>
       </c>
-      <c r="Q425" s="9">
-        <v>121</v>
-      </c>
-      <c r="R425" s="9">
-        <v>0</v>
-      </c>
-      <c r="S425" s="9">
-        <v>3</v>
+      <c r="Q425" s="10">
+        <v>2</v>
+      </c>
+      <c r="R425" s="15">
+        <v>10022010</v>
+      </c>
+      <c r="S425" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="T425" s="9">
         <v>0</v>
       </c>
       <c r="U425" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="426" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C426" s="9">
-        <v>50000105</v>
+        <v>50000104</v>
       </c>
       <c r="D426" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E426" s="9">
         <v>25</v>
@@ -35188,7 +35071,7 @@
         <v>2</v>
       </c>
       <c r="J426" s="9">
-        <v>50000104</v>
+        <v>50000103</v>
       </c>
       <c r="K426" s="9">
         <v>12500</v>
@@ -35196,11 +35079,11 @@
       <c r="L426" s="9">
         <v>10000</v>
       </c>
-      <c r="M426" s="11">
-        <v>10000201</v>
+      <c r="M426" s="9">
+        <v>0</v>
       </c>
       <c r="N426" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O426" s="11">
         <v>20000024</v>
@@ -35209,30 +35092,30 @@
         <v>20000024</v>
       </c>
       <c r="Q426" s="9">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="R426" s="9">
         <v>0</v>
       </c>
       <c r="S426" s="9">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="T426" s="9">
         <v>0</v>
       </c>
       <c r="U426" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="427" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C427" s="9">
-        <v>50000201</v>
+        <v>50000105</v>
       </c>
       <c r="D427" s="10" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E427" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F427" s="10" t="s">
         <v>41</v>
@@ -35244,10 +35127,10 @@
         <v>0</v>
       </c>
       <c r="I427" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J427" s="9">
-        <v>30</v>
+        <v>50000104</v>
       </c>
       <c r="K427" s="9">
         <v>12500</v>
@@ -35255,11 +35138,11 @@
       <c r="L427" s="9">
         <v>10000</v>
       </c>
-      <c r="M427" s="9">
-        <v>0</v>
+      <c r="M427" s="11">
+        <v>10000201</v>
       </c>
       <c r="N427" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O427" s="11">
         <v>20000024</v>
@@ -35267,28 +35150,28 @@
       <c r="P427" s="9">
         <v>20000024</v>
       </c>
-      <c r="Q427" s="15">
-        <v>1</v>
-      </c>
-      <c r="R427" s="15">
-        <v>70001010</v>
-      </c>
-      <c r="S427" s="15">
-        <v>100</v>
+      <c r="Q427" s="9">
+        <v>4</v>
+      </c>
+      <c r="R427" s="9">
+        <v>0</v>
+      </c>
+      <c r="S427" s="9">
+        <v>28</v>
       </c>
       <c r="T427" s="9">
         <v>0</v>
       </c>
       <c r="U427" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="428" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C428" s="9">
-        <v>50000202</v>
+        <v>50000201</v>
       </c>
       <c r="D428" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E428" s="9">
         <v>28</v>
@@ -35303,10 +35186,10 @@
         <v>0</v>
       </c>
       <c r="I428" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J428" s="9">
-        <v>50000201</v>
+        <v>30</v>
       </c>
       <c r="K428" s="9">
         <v>12500</v>
@@ -35326,31 +35209,31 @@
       <c r="P428" s="9">
         <v>20000024</v>
       </c>
-      <c r="Q428" s="9">
-        <v>4</v>
-      </c>
-      <c r="R428" s="9">
-        <v>0</v>
-      </c>
-      <c r="S428" s="9">
-        <v>30</v>
+      <c r="Q428" s="15">
+        <v>1</v>
+      </c>
+      <c r="R428" s="15">
+        <v>70001010</v>
+      </c>
+      <c r="S428" s="15">
+        <v>100</v>
       </c>
       <c r="T428" s="9">
         <v>0</v>
       </c>
       <c r="U428" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="429" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C429" s="9">
-        <v>50000203</v>
+        <v>50000202</v>
       </c>
       <c r="D429" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E429" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F429" s="10" t="s">
         <v>41</v>
@@ -35365,7 +35248,7 @@
         <v>2</v>
       </c>
       <c r="J429" s="9">
-        <v>50000202</v>
+        <v>50000201</v>
       </c>
       <c r="K429" s="9">
         <v>12500</v>
@@ -35373,11 +35256,11 @@
       <c r="L429" s="9">
         <v>10000</v>
       </c>
-      <c r="M429" s="35">
-        <v>10011001</v>
+      <c r="M429" s="9">
+        <v>0</v>
       </c>
       <c r="N429" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O429" s="11">
         <v>20000024</v>
@@ -35386,30 +35269,30 @@
         <v>20000024</v>
       </c>
       <c r="Q429" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R429" s="9">
-        <v>70003012</v>
+        <v>0</v>
       </c>
       <c r="S429" s="9">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="T429" s="9">
         <v>0</v>
       </c>
       <c r="U429" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="430" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C430" s="9">
-        <v>50000301</v>
+        <v>50000203</v>
       </c>
       <c r="D430" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E430" s="9">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F430" s="10" t="s">
         <v>41</v>
@@ -35421,22 +35304,22 @@
         <v>0</v>
       </c>
       <c r="I430" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J430" s="9">
-        <v>52</v>
+        <v>50000202</v>
       </c>
       <c r="K430" s="9">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="L430" s="9">
-        <v>25000</v>
-      </c>
-      <c r="M430" s="9">
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="M430" s="35">
+        <v>10011001</v>
       </c>
       <c r="N430" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O430" s="11">
         <v>20000024</v>
@@ -35444,28 +35327,28 @@
       <c r="P430" s="9">
         <v>20000024</v>
       </c>
-      <c r="Q430" s="10">
-        <v>2</v>
-      </c>
-      <c r="R430" s="15">
-        <v>10025009</v>
-      </c>
-      <c r="S430" s="10" t="s">
-        <v>65</v>
+      <c r="Q430" s="9">
+        <v>1</v>
+      </c>
+      <c r="R430" s="9">
+        <v>70003012</v>
+      </c>
+      <c r="S430" s="9">
+        <v>1</v>
       </c>
       <c r="T430" s="9">
         <v>0</v>
       </c>
       <c r="U430" s="14" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="431" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C431" s="9">
-        <v>50000302</v>
+        <v>50000301</v>
       </c>
       <c r="D431" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E431" s="9">
         <v>52</v>
@@ -35480,10 +35363,10 @@
         <v>0</v>
       </c>
       <c r="I431" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J431" s="9">
-        <v>50000301</v>
+        <v>52</v>
       </c>
       <c r="K431" s="9">
         <v>25000</v>
@@ -35503,31 +35386,31 @@
       <c r="P431" s="9">
         <v>20000024</v>
       </c>
-      <c r="Q431" s="9">
-        <v>4</v>
-      </c>
-      <c r="R431" s="9">
-        <v>0</v>
-      </c>
-      <c r="S431" s="9">
-        <v>60</v>
+      <c r="Q431" s="10">
+        <v>2</v>
+      </c>
+      <c r="R431" s="15">
+        <v>10025009</v>
+      </c>
+      <c r="S431" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="T431" s="9">
         <v>0</v>
       </c>
       <c r="U431" s="14" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="432" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C432" s="9">
-        <v>50000303</v>
+        <v>50000302</v>
       </c>
       <c r="D432" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E432" s="9">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F432" s="10" t="s">
         <v>41</v>
@@ -35542,7 +35425,7 @@
         <v>2</v>
       </c>
       <c r="J432" s="9">
-        <v>50000302</v>
+        <v>50000301</v>
       </c>
       <c r="K432" s="9">
         <v>25000</v>
@@ -35550,11 +35433,11 @@
       <c r="L432" s="9">
         <v>25000</v>
       </c>
-      <c r="M432" s="35">
-        <v>10011002</v>
+      <c r="M432" s="9">
+        <v>0</v>
       </c>
       <c r="N432" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O432" s="11">
         <v>20000024</v>
@@ -35563,54 +35446,54 @@
         <v>20000024</v>
       </c>
       <c r="Q432" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R432" s="9">
-        <v>70005013</v>
+        <v>0</v>
       </c>
       <c r="S432" s="9">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="T432" s="9">
         <v>0</v>
       </c>
       <c r="U432" s="14" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="433" spans="2:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="433" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C433" s="9">
-        <v>51000001</v>
-      </c>
-      <c r="D433" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="E433" s="28">
-        <v>0</v>
-      </c>
-      <c r="F433" s="29" t="s">
+        <v>50000303</v>
+      </c>
+      <c r="D433" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="E433" s="9">
+        <v>55</v>
+      </c>
+      <c r="F433" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G433" s="30" t="s">
-        <v>421</v>
+      <c r="G433" s="9">
+        <v>2</v>
       </c>
       <c r="H433" s="9">
         <v>0</v>
       </c>
       <c r="I433" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J433" s="9">
-        <v>20</v>
+        <v>50000302</v>
       </c>
       <c r="K433" s="9">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="L433" s="9">
-        <v>50000</v>
-      </c>
-      <c r="M433" s="9">
-        <v>10010047</v>
+        <v>25000</v>
+      </c>
+      <c r="M433" s="35">
+        <v>10011002</v>
       </c>
       <c r="N433" s="9">
         <v>1</v>
@@ -35621,32 +35504,25 @@
       <c r="P433" s="9">
         <v>20000024</v>
       </c>
-      <c r="Q433" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="R433" s="22">
-        <v>0</v>
-      </c>
-      <c r="S433" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="T433" s="15">
+      <c r="Q433" s="9">
+        <v>1</v>
+      </c>
+      <c r="R433" s="9">
+        <v>70005013</v>
+      </c>
+      <c r="S433" s="9">
+        <v>1</v>
+      </c>
+      <c r="T433" s="9">
         <v>0</v>
       </c>
       <c r="U433" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="V433"/>
-      <c r="W433"/>
-      <c r="X433"/>
-      <c r="Y433"/>
-      <c r="Z433"/>
-      <c r="AA433"/>
-      <c r="AB433"/>
+        <v>419</v>
+      </c>
     </row>
     <row r="434" spans="2:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C434" s="9">
-        <v>51000002</v>
+        <v>51000001</v>
       </c>
       <c r="D434" s="27" t="s">
         <v>420</v>
@@ -35673,7 +35549,7 @@
         <v>0</v>
       </c>
       <c r="L434" s="9">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="M434" s="9">
         <v>10010047</v>
@@ -35694,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="S434" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="T434" s="15">
         <v>0</v>
@@ -35712,7 +35588,7 @@
     </row>
     <row r="435" spans="2:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C435" s="9">
-        <v>51000003</v>
+        <v>51000002</v>
       </c>
       <c r="D435" s="27" t="s">
         <v>420</v>
@@ -35739,7 +35615,7 @@
         <v>0</v>
       </c>
       <c r="L435" s="9">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="M435" s="9">
         <v>10010047</v>
@@ -35760,7 +35636,7 @@
         <v>0</v>
       </c>
       <c r="S435" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T435" s="15">
         <v>0</v>
@@ -35778,7 +35654,7 @@
     </row>
     <row r="436" spans="2:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C436" s="9">
-        <v>51000004</v>
+        <v>51000003</v>
       </c>
       <c r="D436" s="27" t="s">
         <v>420</v>
@@ -35805,7 +35681,7 @@
         <v>0</v>
       </c>
       <c r="L436" s="9">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="M436" s="9">
         <v>10010047</v>
@@ -35820,13 +35696,13 @@
         <v>20000024</v>
       </c>
       <c r="Q436" s="10" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="R436" s="22">
         <v>0</v>
       </c>
       <c r="S436" s="10" t="s">
-        <v>220</v>
+        <v>425</v>
       </c>
       <c r="T436" s="15">
         <v>0</v>
@@ -35844,7 +35720,7 @@
     </row>
     <row r="437" spans="2:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C437" s="9">
-        <v>51000005</v>
+        <v>51000004</v>
       </c>
       <c r="D437" s="27" t="s">
         <v>420</v>
@@ -35871,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="L437" s="9">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="M437" s="9">
         <v>10010047</v>
@@ -35892,7 +35768,7 @@
         <v>0</v>
       </c>
       <c r="S437" s="10" t="s">
-        <v>357</v>
+        <v>220</v>
       </c>
       <c r="T437" s="15">
         <v>0</v>
@@ -35910,7 +35786,7 @@
     </row>
     <row r="438" spans="2:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C438" s="9">
-        <v>51000006</v>
+        <v>51000005</v>
       </c>
       <c r="D438" s="27" t="s">
         <v>420</v>
@@ -35937,7 +35813,7 @@
         <v>0</v>
       </c>
       <c r="L438" s="9">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="M438" s="9">
         <v>10010047</v>
@@ -35958,7 +35834,7 @@
         <v>0</v>
       </c>
       <c r="S438" s="10" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="T438" s="15">
         <v>0</v>
@@ -35976,7 +35852,7 @@
     </row>
     <row r="439" spans="2:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C439" s="9">
-        <v>51000007</v>
+        <v>51000006</v>
       </c>
       <c r="D439" s="27" t="s">
         <v>420</v>
@@ -36003,7 +35879,7 @@
         <v>0</v>
       </c>
       <c r="L439" s="9">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="M439" s="9">
         <v>10010047</v>
@@ -36018,13 +35894,13 @@
         <v>20000024</v>
       </c>
       <c r="Q439" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R439" s="22">
         <v>0</v>
       </c>
       <c r="S439" s="10" t="s">
-        <v>421</v>
+        <v>369</v>
       </c>
       <c r="T439" s="15">
         <v>0</v>
@@ -36042,7 +35918,7 @@
     </row>
     <row r="440" spans="2:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C440" s="9">
-        <v>51000008</v>
+        <v>51000007</v>
       </c>
       <c r="D440" s="27" t="s">
         <v>420</v>
@@ -36069,7 +35945,7 @@
         <v>0</v>
       </c>
       <c r="L440" s="9">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="M440" s="9">
         <v>10010047</v>
@@ -36090,7 +35966,7 @@
         <v>0</v>
       </c>
       <c r="S440" s="10" t="s">
-        <v>220</v>
+        <v>421</v>
       </c>
       <c r="T440" s="15">
         <v>0</v>
@@ -36108,19 +35984,19 @@
     </row>
     <row r="441" spans="2:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C441" s="9">
-        <v>60001001</v>
+        <v>51000008</v>
       </c>
       <c r="D441" s="27" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E441" s="28">
         <v>0</v>
       </c>
       <c r="F441" s="29" t="s">
-        <v>429</v>
+        <v>41</v>
       </c>
       <c r="G441" s="30" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="H441" s="9">
         <v>0</v>
@@ -36129,19 +36005,19 @@
         <v>1</v>
       </c>
       <c r="J441" s="9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K441" s="9">
         <v>0</v>
       </c>
       <c r="L441" s="9">
-        <v>5000</v>
+        <v>200000</v>
       </c>
       <c r="M441" s="9">
-        <v>0</v>
+        <v>10010047</v>
       </c>
       <c r="N441" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O441" s="11">
         <v>20000024</v>
@@ -36150,19 +36026,19 @@
         <v>20000024</v>
       </c>
       <c r="Q441" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="R441" s="38">
-        <v>72009011</v>
+        <v>427</v>
+      </c>
+      <c r="R441" s="22">
+        <v>0</v>
       </c>
       <c r="S441" s="10" t="s">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="T441" s="15">
         <v>0</v>
       </c>
       <c r="U441" s="14" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="V441"/>
       <c r="W441"/>
@@ -36174,16 +36050,16 @@
     </row>
     <row r="442" spans="2:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C442" s="9">
-        <v>60001002</v>
+        <v>60001001</v>
       </c>
       <c r="D442" s="27" t="s">
         <v>428</v>
       </c>
       <c r="E442" s="28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F442" s="29" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="G442" s="30" t="s">
         <v>426</v>
@@ -36219,7 +36095,7 @@
         <v>76</v>
       </c>
       <c r="R442" s="38">
-        <v>72009012</v>
+        <v>72009011</v>
       </c>
       <c r="S442" s="10" t="s">
         <v>76</v>
@@ -36240,16 +36116,16 @@
     </row>
     <row r="443" spans="2:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C443" s="9">
-        <v>60001003</v>
+        <v>60001002</v>
       </c>
       <c r="D443" s="27" t="s">
         <v>428</v>
       </c>
       <c r="E443" s="28">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F443" s="29" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="G443" s="30" t="s">
         <v>426</v>
@@ -36285,7 +36161,7 @@
         <v>76</v>
       </c>
       <c r="R443" s="38">
-        <v>72009013</v>
+        <v>72009012</v>
       </c>
       <c r="S443" s="10" t="s">
         <v>76</v>
@@ -36306,16 +36182,16 @@
     </row>
     <row r="444" spans="2:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C444" s="9">
-        <v>60001004</v>
+        <v>60001003</v>
       </c>
       <c r="D444" s="27" t="s">
         <v>428</v>
       </c>
       <c r="E444" s="28">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F444" s="29" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G444" s="30" t="s">
         <v>426</v>
@@ -36351,7 +36227,7 @@
         <v>76</v>
       </c>
       <c r="R444" s="38">
-        <v>72009014</v>
+        <v>72009013</v>
       </c>
       <c r="S444" s="10" t="s">
         <v>76</v>
@@ -36372,16 +36248,16 @@
     </row>
     <row r="445" spans="2:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C445" s="9">
-        <v>60001005</v>
+        <v>60001004</v>
       </c>
       <c r="D445" s="27" t="s">
         <v>428</v>
       </c>
       <c r="E445" s="28">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F445" s="29" t="s">
-        <v>41</v>
+        <v>371</v>
       </c>
       <c r="G445" s="30" t="s">
         <v>426</v>
@@ -36417,7 +36293,7 @@
         <v>76</v>
       </c>
       <c r="R445" s="38">
-        <v>72009015</v>
+        <v>72009014</v>
       </c>
       <c r="S445" s="10" t="s">
         <v>76</v>
@@ -36436,22 +36312,21 @@
       <c r="AA445"/>
       <c r="AB445"/>
     </row>
-    <row r="446" spans="2:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B446" s="20"/>
+    <row r="446" spans="2:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C446" s="9">
-        <v>70001101</v>
-      </c>
-      <c r="D446" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="E446" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="F446" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="G446" s="10" t="s">
-        <v>432</v>
+        <v>60001005</v>
+      </c>
+      <c r="D446" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="E446" s="28">
+        <v>50</v>
+      </c>
+      <c r="F446" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="G446" s="30" t="s">
+        <v>426</v>
       </c>
       <c r="H446" s="9">
         <v>0</v>
@@ -36460,46 +36335,53 @@
         <v>1</v>
       </c>
       <c r="J446" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K446" s="9">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="L446" s="9">
         <v>5000</v>
       </c>
-      <c r="M446" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="N446" s="9" t="s">
-        <v>434</v>
+      <c r="M446" s="9">
+        <v>0</v>
+      </c>
+      <c r="N446" s="9">
+        <v>0</v>
       </c>
       <c r="O446" s="11">
-        <v>0</v>
+        <v>20000024</v>
       </c>
       <c r="P446" s="9">
-        <v>20000102</v>
-      </c>
-      <c r="Q446" s="10">
-        <v>1</v>
-      </c>
-      <c r="R446" s="10" t="s">
-        <v>44</v>
+        <v>20000024</v>
+      </c>
+      <c r="Q446" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="R446" s="38">
+        <v>72009015</v>
       </c>
       <c r="S446" s="10" t="s">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="T446" s="15">
         <v>0</v>
       </c>
       <c r="U446" s="14" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="447" spans="2:28" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B447" s="21"/>
+        <v>430</v>
+      </c>
+      <c r="V446"/>
+      <c r="W446"/>
+      <c r="X446"/>
+      <c r="Y446"/>
+      <c r="Z446"/>
+      <c r="AA446"/>
+      <c r="AB446"/>
+    </row>
+    <row r="447" spans="2:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B447" s="20"/>
       <c r="C447" s="9">
-        <v>70001102</v>
+        <v>70001101</v>
       </c>
       <c r="D447" s="10" t="s">
         <v>431</v>
@@ -36540,11 +36422,11 @@
       <c r="P447" s="9">
         <v>20000102</v>
       </c>
-      <c r="Q447" s="15">
-        <v>1</v>
-      </c>
-      <c r="R447" s="15">
-        <v>70001002</v>
+      <c r="Q447" s="10">
+        <v>1</v>
+      </c>
+      <c r="R447" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="S447" s="10" t="s">
         <v>220</v>
@@ -36559,7 +36441,7 @@
     <row r="448" spans="2:28" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B448" s="21"/>
       <c r="C448" s="9">
-        <v>70001103</v>
+        <v>70001102</v>
       </c>
       <c r="D448" s="10" t="s">
         <v>431</v>
@@ -36604,7 +36486,7 @@
         <v>1</v>
       </c>
       <c r="R448" s="15">
-        <v>70001003</v>
+        <v>70001002</v>
       </c>
       <c r="S448" s="10" t="s">
         <v>220</v>
@@ -36619,13 +36501,13 @@
     <row r="449" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B449" s="21"/>
       <c r="C449" s="9">
-        <v>70001104</v>
+        <v>70001103</v>
       </c>
       <c r="D449" s="10" t="s">
         <v>431</v>
       </c>
       <c r="E449" s="10" t="s">
-        <v>354</v>
+        <v>220</v>
       </c>
       <c r="F449" s="10" t="s">
         <v>352</v>
@@ -36664,7 +36546,7 @@
         <v>1</v>
       </c>
       <c r="R449" s="15">
-        <v>70001005</v>
+        <v>70001003</v>
       </c>
       <c r="S449" s="10" t="s">
         <v>220</v>
@@ -36679,7 +36561,7 @@
     <row r="450" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B450" s="21"/>
       <c r="C450" s="9">
-        <v>70001105</v>
+        <v>70001104</v>
       </c>
       <c r="D450" s="10" t="s">
         <v>431</v>
@@ -36724,7 +36606,7 @@
         <v>1</v>
       </c>
       <c r="R450" s="15">
-        <v>70001006</v>
+        <v>70001005</v>
       </c>
       <c r="S450" s="10" t="s">
         <v>220</v>
@@ -36737,9 +36619,9 @@
       </c>
     </row>
     <row r="451" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B451" s="22"/>
+      <c r="B451" s="21"/>
       <c r="C451" s="9">
-        <v>70001106</v>
+        <v>70001105</v>
       </c>
       <c r="D451" s="10" t="s">
         <v>431</v>
@@ -36784,7 +36666,7 @@
         <v>1</v>
       </c>
       <c r="R451" s="15">
-        <v>70001007</v>
+        <v>70001006</v>
       </c>
       <c r="S451" s="10" t="s">
         <v>220</v>
@@ -36797,15 +36679,15 @@
       </c>
     </row>
     <row r="452" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B452" s="21"/>
+      <c r="B452" s="22"/>
       <c r="C452" s="9">
-        <v>70001107</v>
+        <v>70001106</v>
       </c>
       <c r="D452" s="10" t="s">
         <v>431</v>
       </c>
       <c r="E452" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F452" s="10" t="s">
         <v>352</v>
@@ -36844,7 +36726,7 @@
         <v>1</v>
       </c>
       <c r="R452" s="15">
-        <v>70001010</v>
+        <v>70001007</v>
       </c>
       <c r="S452" s="10" t="s">
         <v>220</v>
@@ -36859,13 +36741,13 @@
     <row r="453" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B453" s="21"/>
       <c r="C453" s="9">
-        <v>70001108</v>
+        <v>70001107</v>
       </c>
       <c r="D453" s="10" t="s">
         <v>431</v>
       </c>
       <c r="E453" s="10" t="s">
-        <v>220</v>
+        <v>355</v>
       </c>
       <c r="F453" s="10" t="s">
         <v>352</v>
@@ -36904,7 +36786,7 @@
         <v>1</v>
       </c>
       <c r="R453" s="15">
-        <v>70001101</v>
+        <v>70001010</v>
       </c>
       <c r="S453" s="10" t="s">
         <v>220</v>
@@ -36917,9 +36799,9 @@
       </c>
     </row>
     <row r="454" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B454" s="22"/>
+      <c r="B454" s="21"/>
       <c r="C454" s="9">
-        <v>70001109</v>
+        <v>70001108</v>
       </c>
       <c r="D454" s="10" t="s">
         <v>431</v>
@@ -36964,7 +36846,7 @@
         <v>1</v>
       </c>
       <c r="R454" s="15">
-        <v>70001002</v>
+        <v>70001101</v>
       </c>
       <c r="S454" s="10" t="s">
         <v>220</v>
@@ -36979,7 +36861,7 @@
     <row r="455" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B455" s="22"/>
       <c r="C455" s="9">
-        <v>70001110</v>
+        <v>70001109</v>
       </c>
       <c r="D455" s="10" t="s">
         <v>431</v>
@@ -37024,7 +36906,7 @@
         <v>1</v>
       </c>
       <c r="R455" s="15">
-        <v>70001103</v>
+        <v>70001002</v>
       </c>
       <c r="S455" s="10" t="s">
         <v>220</v>
@@ -37037,11 +36919,12 @@
       </c>
     </row>
     <row r="456" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B456" s="22"/>
       <c r="C456" s="9">
-        <v>70001111</v>
+        <v>70001110</v>
       </c>
       <c r="D456" s="10" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E456" s="10" t="s">
         <v>220</v>
@@ -37080,13 +36963,13 @@
         <v>20000102</v>
       </c>
       <c r="Q456" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R456" s="15">
-        <v>0</v>
+        <v>70001103</v>
       </c>
       <c r="S456" s="10" t="s">
-        <v>357</v>
+        <v>220</v>
       </c>
       <c r="T456" s="15">
         <v>0</v>
@@ -37095,12 +36978,12 @@
         <v>435</v>
       </c>
     </row>
-    <row r="457" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C457" s="9">
-        <v>70001401</v>
+        <v>70001111</v>
       </c>
       <c r="D457" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E457" s="10" t="s">
         <v>220</v>
@@ -37121,10 +37004,10 @@
         <v>0</v>
       </c>
       <c r="K457" s="9">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="L457" s="9">
-        <v>8750</v>
+        <v>5000</v>
       </c>
       <c r="M457" s="9" t="s">
         <v>433</v>
@@ -37138,14 +37021,14 @@
       <c r="P457" s="9">
         <v>20000102</v>
       </c>
-      <c r="Q457" s="10">
-        <v>2</v>
+      <c r="Q457" s="15">
+        <v>5</v>
       </c>
       <c r="R457" s="15">
-        <v>10021001</v>
-      </c>
-      <c r="S457" s="25" t="s">
-        <v>220</v>
+        <v>0</v>
+      </c>
+      <c r="S457" s="10" t="s">
+        <v>357</v>
       </c>
       <c r="T457" s="15">
         <v>0</v>
@@ -37156,7 +37039,7 @@
     </row>
     <row r="458" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C458" s="9">
-        <v>70001402</v>
+        <v>70001401</v>
       </c>
       <c r="D458" s="10" t="s">
         <v>437</v>
@@ -37201,7 +37084,7 @@
         <v>2</v>
       </c>
       <c r="R458" s="15">
-        <v>10021002</v>
+        <v>10021001</v>
       </c>
       <c r="S458" s="25" t="s">
         <v>220</v>
@@ -37215,7 +37098,7 @@
     </row>
     <row r="459" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C459" s="9">
-        <v>70001403</v>
+        <v>70001402</v>
       </c>
       <c r="D459" s="10" t="s">
         <v>437</v>
@@ -37260,7 +37143,7 @@
         <v>2</v>
       </c>
       <c r="R459" s="15">
-        <v>10021003</v>
+        <v>10021002</v>
       </c>
       <c r="S459" s="25" t="s">
         <v>220</v>
@@ -37274,7 +37157,7 @@
     </row>
     <row r="460" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C460" s="9">
-        <v>70001404</v>
+        <v>70001403</v>
       </c>
       <c r="D460" s="10" t="s">
         <v>437</v>
@@ -37319,7 +37202,7 @@
         <v>2</v>
       </c>
       <c r="R460" s="15">
-        <v>10021004</v>
+        <v>10021003</v>
       </c>
       <c r="S460" s="25" t="s">
         <v>220</v>
@@ -37333,7 +37216,7 @@
     </row>
     <row r="461" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C461" s="9">
-        <v>70001405</v>
+        <v>70001404</v>
       </c>
       <c r="D461" s="10" t="s">
         <v>437</v>
@@ -37378,7 +37261,7 @@
         <v>2</v>
       </c>
       <c r="R461" s="15">
-        <v>10021005</v>
+        <v>10021004</v>
       </c>
       <c r="S461" s="25" t="s">
         <v>220</v>
@@ -37392,7 +37275,7 @@
     </row>
     <row r="462" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C462" s="9">
-        <v>70001406</v>
+        <v>70001405</v>
       </c>
       <c r="D462" s="10" t="s">
         <v>437</v>
@@ -37437,7 +37320,7 @@
         <v>2</v>
       </c>
       <c r="R462" s="15">
-        <v>10021006</v>
+        <v>10021005</v>
       </c>
       <c r="S462" s="25" t="s">
         <v>220</v>
@@ -37451,7 +37334,7 @@
     </row>
     <row r="463" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C463" s="9">
-        <v>70001407</v>
+        <v>70001406</v>
       </c>
       <c r="D463" s="10" t="s">
         <v>437</v>
@@ -37496,7 +37379,7 @@
         <v>2</v>
       </c>
       <c r="R463" s="15">
-        <v>10021007</v>
+        <v>10021006</v>
       </c>
       <c r="S463" s="25" t="s">
         <v>220</v>
@@ -37510,7 +37393,7 @@
     </row>
     <row r="464" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C464" s="9">
-        <v>70001408</v>
+        <v>70001407</v>
       </c>
       <c r="D464" s="10" t="s">
         <v>437</v>
@@ -37537,7 +37420,7 @@
         <v>9000</v>
       </c>
       <c r="L464" s="9">
-        <v>12500</v>
+        <v>8750</v>
       </c>
       <c r="M464" s="9" t="s">
         <v>433</v>
@@ -37555,10 +37438,10 @@
         <v>2</v>
       </c>
       <c r="R464" s="15">
-        <v>10021008</v>
-      </c>
-      <c r="S464" s="26">
-        <v>1</v>
+        <v>10021007</v>
+      </c>
+      <c r="S464" s="25" t="s">
+        <v>220</v>
       </c>
       <c r="T464" s="15">
         <v>0</v>
@@ -37569,7 +37452,7 @@
     </row>
     <row r="465" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C465" s="9">
-        <v>70001409</v>
+        <v>70001408</v>
       </c>
       <c r="D465" s="10" t="s">
         <v>437</v>
@@ -37614,7 +37497,7 @@
         <v>2</v>
       </c>
       <c r="R465" s="15">
-        <v>10021009</v>
+        <v>10021008</v>
       </c>
       <c r="S465" s="26">
         <v>1</v>
@@ -37628,7 +37511,7 @@
     </row>
     <row r="466" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C466" s="9">
-        <v>70001410</v>
+        <v>70001409</v>
       </c>
       <c r="D466" s="10" t="s">
         <v>437</v>
@@ -37655,7 +37538,7 @@
         <v>9000</v>
       </c>
       <c r="L466" s="9">
-        <v>8750</v>
+        <v>12500</v>
       </c>
       <c r="M466" s="9" t="s">
         <v>433</v>
@@ -37673,10 +37556,10 @@
         <v>2</v>
       </c>
       <c r="R466" s="15">
-        <v>10021010</v>
+        <v>10021009</v>
       </c>
       <c r="S466" s="26">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T466" s="15">
         <v>0</v>
@@ -37685,19 +37568,18 @@
         <v>435</v>
       </c>
     </row>
-    <row r="467" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B467" s="20"/>
+    <row r="467" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C467" s="9">
-        <v>70002101</v>
+        <v>70001410</v>
       </c>
       <c r="D467" s="10" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="E467" s="10" t="s">
-        <v>357</v>
+        <v>220</v>
       </c>
       <c r="F467" s="10" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="G467" s="10" t="s">
         <v>432</v>
@@ -37715,7 +37597,7 @@
         <v>9000</v>
       </c>
       <c r="L467" s="9">
-        <v>6000</v>
+        <v>8750</v>
       </c>
       <c r="M467" s="9" t="s">
         <v>433</v>
@@ -37730,13 +37612,13 @@
         <v>20000102</v>
       </c>
       <c r="Q467" s="10">
-        <v>1</v>
-      </c>
-      <c r="R467" s="10">
-        <v>70002001</v>
-      </c>
-      <c r="S467" s="10" t="s">
-        <v>220</v>
+        <v>2</v>
+      </c>
+      <c r="R467" s="15">
+        <v>10021010</v>
+      </c>
+      <c r="S467" s="26">
+        <v>10</v>
       </c>
       <c r="T467" s="15">
         <v>0</v>
@@ -37745,10 +37627,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="468" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B468" s="21"/>
+    <row r="468" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B468" s="20"/>
       <c r="C468" s="9">
-        <v>70002102</v>
+        <v>70002101</v>
       </c>
       <c r="D468" s="10" t="s">
         <v>431</v>
@@ -37772,7 +37654,7 @@
         <v>0</v>
       </c>
       <c r="K468" s="9">
-        <v>12000</v>
+        <v>9000</v>
       </c>
       <c r="L468" s="9">
         <v>6000</v>
@@ -37793,7 +37675,7 @@
         <v>1</v>
       </c>
       <c r="R468" s="10">
-        <v>70002002</v>
+        <v>70002001</v>
       </c>
       <c r="S468" s="10" t="s">
         <v>220</v>
@@ -37808,13 +37690,13 @@
     <row r="469" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B469" s="21"/>
       <c r="C469" s="9">
-        <v>70002103</v>
+        <v>70002102</v>
       </c>
       <c r="D469" s="10" t="s">
         <v>431</v>
       </c>
       <c r="E469" s="10" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F469" s="10" t="s">
         <v>366</v>
@@ -37853,7 +37735,7 @@
         <v>1</v>
       </c>
       <c r="R469" s="10">
-        <v>70002004</v>
+        <v>70002002</v>
       </c>
       <c r="S469" s="10" t="s">
         <v>220</v>
@@ -37868,7 +37750,7 @@
     <row r="470" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B470" s="21"/>
       <c r="C470" s="9">
-        <v>70002104</v>
+        <v>70002103</v>
       </c>
       <c r="D470" s="10" t="s">
         <v>431</v>
@@ -37913,7 +37795,7 @@
         <v>1</v>
       </c>
       <c r="R470" s="10">
-        <v>70002005</v>
+        <v>70002004</v>
       </c>
       <c r="S470" s="10" t="s">
         <v>220</v>
@@ -37928,13 +37810,13 @@
     <row r="471" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B471" s="21"/>
       <c r="C471" s="9">
-        <v>70002105</v>
+        <v>70002104</v>
       </c>
       <c r="D471" s="10" t="s">
         <v>431</v>
       </c>
       <c r="E471" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F471" s="10" t="s">
         <v>366</v>
@@ -37973,7 +37855,7 @@
         <v>1</v>
       </c>
       <c r="R471" s="10">
-        <v>70002008</v>
+        <v>70002005</v>
       </c>
       <c r="S471" s="10" t="s">
         <v>220</v>
@@ -37986,9 +37868,9 @@
       </c>
     </row>
     <row r="472" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B472" s="22"/>
+      <c r="B472" s="21"/>
       <c r="C472" s="9">
-        <v>70002106</v>
+        <v>70002105</v>
       </c>
       <c r="D472" s="10" t="s">
         <v>431</v>
@@ -38033,7 +37915,7 @@
         <v>1</v>
       </c>
       <c r="R472" s="10">
-        <v>70002009</v>
+        <v>70002008</v>
       </c>
       <c r="S472" s="10" t="s">
         <v>220</v>
@@ -38046,9 +37928,9 @@
       </c>
     </row>
     <row r="473" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B473" s="21"/>
+      <c r="B473" s="22"/>
       <c r="C473" s="9">
-        <v>70002107</v>
+        <v>70002106</v>
       </c>
       <c r="D473" s="10" t="s">
         <v>431</v>
@@ -38093,7 +37975,7 @@
         <v>1</v>
       </c>
       <c r="R473" s="10">
-        <v>70002010</v>
+        <v>70002009</v>
       </c>
       <c r="S473" s="10" t="s">
         <v>220</v>
@@ -38108,7 +37990,7 @@
     <row r="474" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B474" s="21"/>
       <c r="C474" s="9">
-        <v>70002108</v>
+        <v>70002107</v>
       </c>
       <c r="D474" s="10" t="s">
         <v>431</v>
@@ -38153,7 +38035,7 @@
         <v>1</v>
       </c>
       <c r="R474" s="10">
-        <v>70002005</v>
+        <v>70002010</v>
       </c>
       <c r="S474" s="10" t="s">
         <v>220</v>
@@ -38166,15 +38048,15 @@
       </c>
     </row>
     <row r="475" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B475" s="22"/>
+      <c r="B475" s="21"/>
       <c r="C475" s="9">
-        <v>70002109</v>
+        <v>70002108</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>431</v>
       </c>
       <c r="E475" s="10" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="F475" s="10" t="s">
         <v>366</v>
@@ -38213,7 +38095,7 @@
         <v>1</v>
       </c>
       <c r="R475" s="10">
-        <v>70002001</v>
+        <v>70002005</v>
       </c>
       <c r="S475" s="10" t="s">
         <v>220</v>
@@ -38228,7 +38110,7 @@
     <row r="476" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B476" s="22"/>
       <c r="C476" s="9">
-        <v>70002110</v>
+        <v>70002109</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>431</v>
@@ -38273,7 +38155,7 @@
         <v>1</v>
       </c>
       <c r="R476" s="10">
-        <v>70002002</v>
+        <v>70002001</v>
       </c>
       <c r="S476" s="10" t="s">
         <v>220</v>
@@ -38286,11 +38168,12 @@
       </c>
     </row>
     <row r="477" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B477" s="22"/>
       <c r="C477" s="9">
-        <v>70002111</v>
+        <v>70002110</v>
       </c>
       <c r="D477" s="10" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E477" s="10" t="s">
         <v>357</v>
@@ -38329,13 +38212,13 @@
         <v>20000102</v>
       </c>
       <c r="Q477" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R477" s="10">
-        <v>0</v>
+        <v>70002002</v>
       </c>
       <c r="S477" s="10" t="s">
-        <v>357</v>
+        <v>220</v>
       </c>
       <c r="T477" s="15">
         <v>0</v>
@@ -38344,12 +38227,12 @@
         <v>435</v>
       </c>
     </row>
-    <row r="478" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C478" s="9">
-        <v>70002401</v>
+        <v>70002111</v>
       </c>
       <c r="D478" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E478" s="10" t="s">
         <v>357</v>
@@ -38370,10 +38253,10 @@
         <v>0</v>
       </c>
       <c r="K478" s="9">
-        <v>10800</v>
+        <v>12000</v>
       </c>
       <c r="L478" s="9">
-        <v>10500</v>
+        <v>6000</v>
       </c>
       <c r="M478" s="9" t="s">
         <v>433</v>
@@ -38388,13 +38271,13 @@
         <v>20000102</v>
       </c>
       <c r="Q478" s="10">
-        <v>2</v>
-      </c>
-      <c r="R478" s="15">
-        <v>10022001</v>
+        <v>5</v>
+      </c>
+      <c r="R478" s="10">
+        <v>0</v>
       </c>
       <c r="S478" s="10" t="s">
-        <v>220</v>
+        <v>357</v>
       </c>
       <c r="T478" s="15">
         <v>0</v>
@@ -38405,7 +38288,7 @@
     </row>
     <row r="479" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C479" s="9">
-        <v>70002402</v>
+        <v>70002401</v>
       </c>
       <c r="D479" s="10" t="s">
         <v>437</v>
@@ -38429,7 +38312,7 @@
         <v>0</v>
       </c>
       <c r="K479" s="9">
-        <v>14400</v>
+        <v>10800</v>
       </c>
       <c r="L479" s="9">
         <v>10500</v>
@@ -38450,7 +38333,7 @@
         <v>2</v>
       </c>
       <c r="R479" s="15">
-        <v>10022002</v>
+        <v>10022001</v>
       </c>
       <c r="S479" s="10" t="s">
         <v>220</v>
@@ -38464,7 +38347,7 @@
     </row>
     <row r="480" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C480" s="9">
-        <v>70002403</v>
+        <v>70002402</v>
       </c>
       <c r="D480" s="10" t="s">
         <v>437</v>
@@ -38509,7 +38392,7 @@
         <v>2</v>
       </c>
       <c r="R480" s="15">
-        <v>10022003</v>
+        <v>10022002</v>
       </c>
       <c r="S480" s="10" t="s">
         <v>220</v>
@@ -38523,7 +38406,7 @@
     </row>
     <row r="481" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C481" s="9">
-        <v>70002404</v>
+        <v>70002403</v>
       </c>
       <c r="D481" s="10" t="s">
         <v>437</v>
@@ -38568,7 +38451,7 @@
         <v>2</v>
       </c>
       <c r="R481" s="15">
-        <v>10022004</v>
+        <v>10022003</v>
       </c>
       <c r="S481" s="10" t="s">
         <v>220</v>
@@ -38582,7 +38465,7 @@
     </row>
     <row r="482" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C482" s="9">
-        <v>70002405</v>
+        <v>70002404</v>
       </c>
       <c r="D482" s="10" t="s">
         <v>437</v>
@@ -38627,7 +38510,7 @@
         <v>2</v>
       </c>
       <c r="R482" s="15">
-        <v>10022005</v>
+        <v>10022004</v>
       </c>
       <c r="S482" s="10" t="s">
         <v>220</v>
@@ -38641,7 +38524,7 @@
     </row>
     <row r="483" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C483" s="9">
-        <v>70002406</v>
+        <v>70002405</v>
       </c>
       <c r="D483" s="10" t="s">
         <v>437</v>
@@ -38686,7 +38569,7 @@
         <v>2</v>
       </c>
       <c r="R483" s="15">
-        <v>10022006</v>
+        <v>10022005</v>
       </c>
       <c r="S483" s="10" t="s">
         <v>220</v>
@@ -38700,7 +38583,7 @@
     </row>
     <row r="484" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C484" s="9">
-        <v>70002407</v>
+        <v>70002406</v>
       </c>
       <c r="D484" s="10" t="s">
         <v>437</v>
@@ -38745,7 +38628,7 @@
         <v>2</v>
       </c>
       <c r="R484" s="15">
-        <v>10022007</v>
+        <v>10022006</v>
       </c>
       <c r="S484" s="10" t="s">
         <v>220</v>
@@ -38759,7 +38642,7 @@
     </row>
     <row r="485" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C485" s="9">
-        <v>70002408</v>
+        <v>70002407</v>
       </c>
       <c r="D485" s="10" t="s">
         <v>437</v>
@@ -38786,7 +38669,7 @@
         <v>14400</v>
       </c>
       <c r="L485" s="9">
-        <v>15000</v>
+        <v>10500</v>
       </c>
       <c r="M485" s="9" t="s">
         <v>433</v>
@@ -38804,10 +38687,10 @@
         <v>2</v>
       </c>
       <c r="R485" s="15">
-        <v>10022008</v>
-      </c>
-      <c r="S485" s="10">
-        <v>1</v>
+        <v>10022007</v>
+      </c>
+      <c r="S485" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="T485" s="15">
         <v>0</v>
@@ -38818,7 +38701,7 @@
     </row>
     <row r="486" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C486" s="9">
-        <v>70002409</v>
+        <v>70002408</v>
       </c>
       <c r="D486" s="10" t="s">
         <v>437</v>
@@ -38863,7 +38746,7 @@
         <v>2</v>
       </c>
       <c r="R486" s="15">
-        <v>10022009</v>
+        <v>10022008</v>
       </c>
       <c r="S486" s="10">
         <v>1</v>
@@ -38877,7 +38760,7 @@
     </row>
     <row r="487" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C487" s="9">
-        <v>70002410</v>
+        <v>70002409</v>
       </c>
       <c r="D487" s="10" t="s">
         <v>437</v>
@@ -38904,7 +38787,7 @@
         <v>14400</v>
       </c>
       <c r="L487" s="9">
-        <v>10500</v>
+        <v>15000</v>
       </c>
       <c r="M487" s="9" t="s">
         <v>433</v>
@@ -38922,10 +38805,10 @@
         <v>2</v>
       </c>
       <c r="R487" s="15">
-        <v>10022010</v>
-      </c>
-      <c r="S487" s="10" t="s">
-        <v>220</v>
+        <v>10022009</v>
+      </c>
+      <c r="S487" s="10">
+        <v>1</v>
       </c>
       <c r="T487" s="15">
         <v>0</v>
@@ -38934,19 +38817,18 @@
         <v>435</v>
       </c>
     </row>
-    <row r="488" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B488" s="20"/>
+    <row r="488" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C488" s="9">
-        <v>70003101</v>
+        <v>70002410</v>
       </c>
       <c r="D488" s="10" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="E488" s="10" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="F488" s="10" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G488" s="10" t="s">
         <v>432</v>
@@ -38964,7 +38846,7 @@
         <v>14400</v>
       </c>
       <c r="L488" s="9">
-        <v>6900</v>
+        <v>10500</v>
       </c>
       <c r="M488" s="9" t="s">
         <v>433</v>
@@ -38979,10 +38861,10 @@
         <v>20000102</v>
       </c>
       <c r="Q488" s="10">
-        <v>1</v>
-      </c>
-      <c r="R488" s="21">
-        <v>70003001</v>
+        <v>2</v>
+      </c>
+      <c r="R488" s="15">
+        <v>10022010</v>
       </c>
       <c r="S488" s="10" t="s">
         <v>220</v>
@@ -38994,10 +38876,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="489" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B489" s="21"/>
+    <row r="489" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B489" s="20"/>
       <c r="C489" s="9">
-        <v>70003102</v>
+        <v>70003101</v>
       </c>
       <c r="D489" s="10" t="s">
         <v>431</v>
@@ -39042,7 +38924,7 @@
         <v>1</v>
       </c>
       <c r="R489" s="21">
-        <v>70003002</v>
+        <v>70003001</v>
       </c>
       <c r="S489" s="10" t="s">
         <v>220</v>
@@ -39057,13 +38939,13 @@
     <row r="490" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B490" s="21"/>
       <c r="C490" s="9">
-        <v>70003103</v>
+        <v>70003102</v>
       </c>
       <c r="D490" s="10" t="s">
         <v>431</v>
       </c>
       <c r="E490" s="10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F490" s="10" t="s">
         <v>371</v>
@@ -39102,7 +38984,7 @@
         <v>1</v>
       </c>
       <c r="R490" s="21">
-        <v>70003004</v>
+        <v>70003002</v>
       </c>
       <c r="S490" s="10" t="s">
         <v>220</v>
@@ -39117,7 +38999,7 @@
     <row r="491" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B491" s="21"/>
       <c r="C491" s="9">
-        <v>70003104</v>
+        <v>70003103</v>
       </c>
       <c r="D491" s="10" t="s">
         <v>431</v>
@@ -39141,7 +39023,7 @@
         <v>0</v>
       </c>
       <c r="K491" s="9">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="L491" s="9">
         <v>6900</v>
@@ -39162,7 +39044,7 @@
         <v>1</v>
       </c>
       <c r="R491" s="21">
-        <v>70003005</v>
+        <v>70003004</v>
       </c>
       <c r="S491" s="10" t="s">
         <v>220</v>
@@ -39177,13 +39059,13 @@
     <row r="492" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B492" s="21"/>
       <c r="C492" s="9">
-        <v>70003105</v>
+        <v>70003104</v>
       </c>
       <c r="D492" s="10" t="s">
         <v>431</v>
       </c>
       <c r="E492" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F492" s="10" t="s">
         <v>371</v>
@@ -39222,7 +39104,7 @@
         <v>1</v>
       </c>
       <c r="R492" s="21">
-        <v>70003007</v>
+        <v>70003005</v>
       </c>
       <c r="S492" s="10" t="s">
         <v>220</v>
@@ -39235,9 +39117,9 @@
       </c>
     </row>
     <row r="493" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B493" s="22"/>
+      <c r="B493" s="21"/>
       <c r="C493" s="9">
-        <v>70003106</v>
+        <v>70003105</v>
       </c>
       <c r="D493" s="10" t="s">
         <v>431</v>
@@ -39282,7 +39164,7 @@
         <v>1</v>
       </c>
       <c r="R493" s="21">
-        <v>70003008</v>
+        <v>70003007</v>
       </c>
       <c r="S493" s="10" t="s">
         <v>220</v>
@@ -39295,15 +39177,15 @@
       </c>
     </row>
     <row r="494" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B494" s="21"/>
+      <c r="B494" s="22"/>
       <c r="C494" s="9">
-        <v>70003107</v>
+        <v>70003106</v>
       </c>
       <c r="D494" s="10" t="s">
         <v>431</v>
       </c>
       <c r="E494" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F494" s="10" t="s">
         <v>371</v>
@@ -39342,7 +39224,7 @@
         <v>1</v>
       </c>
       <c r="R494" s="21">
-        <v>70003009</v>
+        <v>70003008</v>
       </c>
       <c r="S494" s="10" t="s">
         <v>220</v>
@@ -39357,7 +39239,7 @@
     <row r="495" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B495" s="21"/>
       <c r="C495" s="9">
-        <v>70003108</v>
+        <v>70003107</v>
       </c>
       <c r="D495" s="10" t="s">
         <v>431</v>
@@ -39402,7 +39284,7 @@
         <v>1</v>
       </c>
       <c r="R495" s="21">
-        <v>70003010</v>
+        <v>70003009</v>
       </c>
       <c r="S495" s="10" t="s">
         <v>220</v>
@@ -39415,15 +39297,15 @@
       </c>
     </row>
     <row r="496" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B496" s="22"/>
+      <c r="B496" s="21"/>
       <c r="C496" s="9">
-        <v>70003109</v>
+        <v>70003108</v>
       </c>
       <c r="D496" s="10" t="s">
         <v>431</v>
       </c>
       <c r="E496" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F496" s="10" t="s">
         <v>371</v>
@@ -39462,7 +39344,7 @@
         <v>1</v>
       </c>
       <c r="R496" s="21">
-        <v>70003014</v>
+        <v>70003010</v>
       </c>
       <c r="S496" s="10" t="s">
         <v>220</v>
@@ -39477,7 +39359,7 @@
     <row r="497" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B497" s="22"/>
       <c r="C497" s="9">
-        <v>70003110</v>
+        <v>70003109</v>
       </c>
       <c r="D497" s="10" t="s">
         <v>431</v>
@@ -39522,7 +39404,7 @@
         <v>1</v>
       </c>
       <c r="R497" s="21">
-        <v>70003015</v>
+        <v>70003014</v>
       </c>
       <c r="S497" s="10" t="s">
         <v>220</v>
@@ -39535,14 +39417,15 @@
       </c>
     </row>
     <row r="498" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B498" s="22"/>
       <c r="C498" s="9">
-        <v>70003111</v>
+        <v>70003110</v>
       </c>
       <c r="D498" s="10" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E498" s="10" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F498" s="10" t="s">
         <v>371</v>
@@ -39578,13 +39461,13 @@
         <v>20000102</v>
       </c>
       <c r="Q498" s="10">
-        <v>5</v>
-      </c>
-      <c r="R498" s="10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R498" s="21">
+        <v>70003015</v>
       </c>
       <c r="S498" s="10" t="s">
-        <v>357</v>
+        <v>220</v>
       </c>
       <c r="T498" s="15">
         <v>0</v>
@@ -39593,12 +39476,12 @@
         <v>435</v>
       </c>
     </row>
-    <row r="499" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C499" s="9">
-        <v>70003401</v>
+        <v>70003111</v>
       </c>
       <c r="D499" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E499" s="10" t="s">
         <v>369</v>
@@ -39619,10 +39502,10 @@
         <v>0</v>
       </c>
       <c r="K499" s="9">
-        <v>17300</v>
+        <v>18000</v>
       </c>
       <c r="L499" s="9">
-        <v>12075</v>
+        <v>6900</v>
       </c>
       <c r="M499" s="9" t="s">
         <v>433</v>
@@ -39637,13 +39520,13 @@
         <v>20000102</v>
       </c>
       <c r="Q499" s="10">
-        <v>2</v>
-      </c>
-      <c r="R499" s="15">
-        <v>10023001</v>
+        <v>5</v>
+      </c>
+      <c r="R499" s="10">
+        <v>0</v>
       </c>
       <c r="S499" s="10" t="s">
-        <v>220</v>
+        <v>357</v>
       </c>
       <c r="T499" s="15">
         <v>0</v>
@@ -39654,7 +39537,7 @@
     </row>
     <row r="500" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C500" s="9">
-        <v>70003402</v>
+        <v>70003401</v>
       </c>
       <c r="D500" s="10" t="s">
         <v>437</v>
@@ -39699,7 +39582,7 @@
         <v>2</v>
       </c>
       <c r="R500" s="15">
-        <v>10023002</v>
+        <v>10023001</v>
       </c>
       <c r="S500" s="10" t="s">
         <v>220</v>
@@ -39713,7 +39596,7 @@
     </row>
     <row r="501" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C501" s="9">
-        <v>70003403</v>
+        <v>70003402</v>
       </c>
       <c r="D501" s="10" t="s">
         <v>437</v>
@@ -39758,7 +39641,7 @@
         <v>2</v>
       </c>
       <c r="R501" s="15">
-        <v>10023003</v>
+        <v>10023002</v>
       </c>
       <c r="S501" s="10" t="s">
         <v>220</v>
@@ -39772,7 +39655,7 @@
     </row>
     <row r="502" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C502" s="9">
-        <v>70003404</v>
+        <v>70003403</v>
       </c>
       <c r="D502" s="10" t="s">
         <v>437</v>
@@ -39796,7 +39679,7 @@
         <v>0</v>
       </c>
       <c r="K502" s="9">
-        <v>21600</v>
+        <v>17300</v>
       </c>
       <c r="L502" s="9">
         <v>12075</v>
@@ -39817,7 +39700,7 @@
         <v>2</v>
       </c>
       <c r="R502" s="15">
-        <v>10023004</v>
+        <v>10023003</v>
       </c>
       <c r="S502" s="10" t="s">
         <v>220</v>
@@ -39831,7 +39714,7 @@
     </row>
     <row r="503" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C503" s="9">
-        <v>70003405</v>
+        <v>70003404</v>
       </c>
       <c r="D503" s="10" t="s">
         <v>437</v>
@@ -39876,7 +39759,7 @@
         <v>2</v>
       </c>
       <c r="R503" s="15">
-        <v>10023005</v>
+        <v>10023004</v>
       </c>
       <c r="S503" s="10" t="s">
         <v>220</v>
@@ -39890,7 +39773,7 @@
     </row>
     <row r="504" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C504" s="9">
-        <v>70003406</v>
+        <v>70003405</v>
       </c>
       <c r="D504" s="10" t="s">
         <v>437</v>
@@ -39935,7 +39818,7 @@
         <v>2</v>
       </c>
       <c r="R504" s="15">
-        <v>10023006</v>
+        <v>10023005</v>
       </c>
       <c r="S504" s="10" t="s">
         <v>220</v>
@@ -39949,7 +39832,7 @@
     </row>
     <row r="505" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C505" s="9">
-        <v>70003407</v>
+        <v>70003406</v>
       </c>
       <c r="D505" s="10" t="s">
         <v>437</v>
@@ -39994,7 +39877,7 @@
         <v>2</v>
       </c>
       <c r="R505" s="15">
-        <v>10023007</v>
+        <v>10023006</v>
       </c>
       <c r="S505" s="10" t="s">
         <v>220</v>
@@ -40008,7 +39891,7 @@
     </row>
     <row r="506" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C506" s="9">
-        <v>70003408</v>
+        <v>70003407</v>
       </c>
       <c r="D506" s="10" t="s">
         <v>437</v>
@@ -40035,7 +39918,7 @@
         <v>21600</v>
       </c>
       <c r="L506" s="9">
-        <v>17250</v>
+        <v>12075</v>
       </c>
       <c r="M506" s="9" t="s">
         <v>433</v>
@@ -40053,10 +39936,10 @@
         <v>2</v>
       </c>
       <c r="R506" s="15">
-        <v>10023008</v>
-      </c>
-      <c r="S506" s="10">
-        <v>1</v>
+        <v>10023007</v>
+      </c>
+      <c r="S506" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="T506" s="15">
         <v>0</v>
@@ -40067,7 +39950,7 @@
     </row>
     <row r="507" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C507" s="9">
-        <v>70003409</v>
+        <v>70003408</v>
       </c>
       <c r="D507" s="10" t="s">
         <v>437</v>
@@ -40112,7 +39995,7 @@
         <v>2</v>
       </c>
       <c r="R507" s="15">
-        <v>10023009</v>
+        <v>10023008</v>
       </c>
       <c r="S507" s="10">
         <v>1</v>
@@ -40126,7 +40009,7 @@
     </row>
     <row r="508" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C508" s="9">
-        <v>70003410</v>
+        <v>70003409</v>
       </c>
       <c r="D508" s="10" t="s">
         <v>437</v>
@@ -40153,7 +40036,7 @@
         <v>21600</v>
       </c>
       <c r="L508" s="9">
-        <v>12075</v>
+        <v>17250</v>
       </c>
       <c r="M508" s="9" t="s">
         <v>433</v>
@@ -40171,10 +40054,10 @@
         <v>2</v>
       </c>
       <c r="R508" s="15">
-        <v>10023010</v>
-      </c>
-      <c r="S508" s="10" t="s">
-        <v>220</v>
+        <v>10023009</v>
+      </c>
+      <c r="S508" s="10">
+        <v>1</v>
       </c>
       <c r="T508" s="15">
         <v>0</v>
@@ -40183,19 +40066,18 @@
         <v>435</v>
       </c>
     </row>
-    <row r="509" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B509" s="20"/>
+    <row r="509" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C509" s="9">
-        <v>70004101</v>
+        <v>70003410</v>
       </c>
       <c r="D509" s="10" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="E509" s="10" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F509" s="10" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G509" s="10" t="s">
         <v>432</v>
@@ -40213,7 +40095,7 @@
         <v>21600</v>
       </c>
       <c r="L509" s="9">
-        <v>7935</v>
+        <v>12075</v>
       </c>
       <c r="M509" s="9" t="s">
         <v>433</v>
@@ -40228,10 +40110,10 @@
         <v>20000102</v>
       </c>
       <c r="Q509" s="10">
-        <v>1</v>
-      </c>
-      <c r="R509" s="22">
-        <v>70004001</v>
+        <v>2</v>
+      </c>
+      <c r="R509" s="15">
+        <v>10023010</v>
       </c>
       <c r="S509" s="10" t="s">
         <v>220</v>
@@ -40243,10 +40125,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="510" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B510" s="21"/>
+    <row r="510" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B510" s="20"/>
       <c r="C510" s="9">
-        <v>70004102</v>
+        <v>70004101</v>
       </c>
       <c r="D510" s="10" t="s">
         <v>431</v>
@@ -40291,7 +40173,7 @@
         <v>1</v>
       </c>
       <c r="R510" s="22">
-        <v>70004002</v>
+        <v>70004001</v>
       </c>
       <c r="S510" s="10" t="s">
         <v>220</v>
@@ -40306,13 +40188,13 @@
     <row r="511" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B511" s="21"/>
       <c r="C511" s="9">
-        <v>70004103</v>
+        <v>70004102</v>
       </c>
       <c r="D511" s="10" t="s">
         <v>431</v>
       </c>
       <c r="E511" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F511" s="10" t="s">
         <v>377</v>
@@ -40351,7 +40233,7 @@
         <v>1</v>
       </c>
       <c r="R511" s="22">
-        <v>70004004</v>
+        <v>70004002</v>
       </c>
       <c r="S511" s="10" t="s">
         <v>220</v>
@@ -40366,7 +40248,7 @@
     <row r="512" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B512" s="21"/>
       <c r="C512" s="9">
-        <v>70004104</v>
+        <v>70004103</v>
       </c>
       <c r="D512" s="10" t="s">
         <v>431</v>
@@ -40411,7 +40293,7 @@
         <v>1</v>
       </c>
       <c r="R512" s="22">
-        <v>70004005</v>
+        <v>70004004</v>
       </c>
       <c r="S512" s="10" t="s">
         <v>220</v>
@@ -40426,13 +40308,13 @@
     <row r="513" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B513" s="21"/>
       <c r="C513" s="9">
-        <v>70004105</v>
+        <v>70004104</v>
       </c>
       <c r="D513" s="10" t="s">
         <v>431</v>
       </c>
       <c r="E513" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F513" s="10" t="s">
         <v>377</v>
@@ -40470,7 +40352,7 @@
       <c r="Q513" s="10">
         <v>1</v>
       </c>
-      <c r="R513" s="21">
+      <c r="R513" s="22">
         <v>70004005</v>
       </c>
       <c r="S513" s="10" t="s">
@@ -40484,9 +40366,9 @@
       </c>
     </row>
     <row r="514" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B514" s="22"/>
+      <c r="B514" s="21"/>
       <c r="C514" s="9">
-        <v>70004106</v>
+        <v>70004105</v>
       </c>
       <c r="D514" s="10" t="s">
         <v>431</v>
@@ -40531,7 +40413,7 @@
         <v>1</v>
       </c>
       <c r="R514" s="21">
-        <v>70004008</v>
+        <v>70004005</v>
       </c>
       <c r="S514" s="10" t="s">
         <v>220</v>
@@ -40544,9 +40426,9 @@
       </c>
     </row>
     <row r="515" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B515" s="21"/>
+      <c r="B515" s="22"/>
       <c r="C515" s="9">
-        <v>70004107</v>
+        <v>70004106</v>
       </c>
       <c r="D515" s="10" t="s">
         <v>431</v>
@@ -40570,7 +40452,7 @@
         <v>0</v>
       </c>
       <c r="K515" s="9">
-        <v>15600</v>
+        <v>21600</v>
       </c>
       <c r="L515" s="9">
         <v>7935</v>
@@ -40591,7 +40473,7 @@
         <v>1</v>
       </c>
       <c r="R515" s="21">
-        <v>70004009</v>
+        <v>70004008</v>
       </c>
       <c r="S515" s="10" t="s">
         <v>220</v>
@@ -40606,13 +40488,13 @@
     <row r="516" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B516" s="21"/>
       <c r="C516" s="9">
-        <v>70004108</v>
+        <v>70004107</v>
       </c>
       <c r="D516" s="10" t="s">
         <v>431</v>
       </c>
       <c r="E516" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F516" s="10" t="s">
         <v>377</v>
@@ -40651,7 +40533,7 @@
         <v>1</v>
       </c>
       <c r="R516" s="21">
-        <v>70004011</v>
+        <v>70004009</v>
       </c>
       <c r="S516" s="10" t="s">
         <v>220</v>
@@ -40664,9 +40546,9 @@
       </c>
     </row>
     <row r="517" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B517" s="22"/>
+      <c r="B517" s="21"/>
       <c r="C517" s="9">
-        <v>70004109</v>
+        <v>70004108</v>
       </c>
       <c r="D517" s="10" t="s">
         <v>431</v>
@@ -40711,7 +40593,7 @@
         <v>1</v>
       </c>
       <c r="R517" s="21">
-        <v>70004012</v>
+        <v>70004011</v>
       </c>
       <c r="S517" s="10" t="s">
         <v>220</v>
@@ -40726,13 +40608,13 @@
     <row r="518" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B518" s="22"/>
       <c r="C518" s="9">
-        <v>70004110</v>
+        <v>70004109</v>
       </c>
       <c r="D518" s="10" t="s">
         <v>431</v>
       </c>
       <c r="E518" s="10" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F518" s="10" t="s">
         <v>377</v>
@@ -40770,8 +40652,8 @@
       <c r="Q518" s="10">
         <v>1</v>
       </c>
-      <c r="R518" s="22">
-        <v>70004001</v>
+      <c r="R518" s="21">
+        <v>70004012</v>
       </c>
       <c r="S518" s="10" t="s">
         <v>220</v>
@@ -40784,11 +40666,12 @@
       </c>
     </row>
     <row r="519" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B519" s="22"/>
       <c r="C519" s="9">
-        <v>70004111</v>
+        <v>70004110</v>
       </c>
       <c r="D519" s="10" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E519" s="10" t="s">
         <v>376</v>
@@ -40827,13 +40710,13 @@
         <v>20000102</v>
       </c>
       <c r="Q519" s="10">
-        <v>5</v>
-      </c>
-      <c r="R519" s="10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R519" s="22">
+        <v>70004001</v>
       </c>
       <c r="S519" s="10" t="s">
-        <v>357</v>
+        <v>220</v>
       </c>
       <c r="T519" s="15">
         <v>0</v>
@@ -40842,12 +40725,12 @@
         <v>435</v>
       </c>
     </row>
-    <row r="520" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C520" s="9">
-        <v>70004401</v>
+        <v>70004111</v>
       </c>
       <c r="D520" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E520" s="10" t="s">
         <v>376</v>
@@ -40868,10 +40751,10 @@
         <v>0</v>
       </c>
       <c r="K520" s="9">
-        <v>25900</v>
+        <v>15600</v>
       </c>
       <c r="L520" s="9">
-        <v>14000</v>
+        <v>7935</v>
       </c>
       <c r="M520" s="9" t="s">
         <v>433</v>
@@ -40886,13 +40769,13 @@
         <v>20000102</v>
       </c>
       <c r="Q520" s="10">
-        <v>2</v>
-      </c>
-      <c r="R520" s="15">
-        <v>10024001</v>
+        <v>5</v>
+      </c>
+      <c r="R520" s="10">
+        <v>0</v>
       </c>
       <c r="S520" s="10" t="s">
-        <v>220</v>
+        <v>357</v>
       </c>
       <c r="T520" s="15">
         <v>0</v>
@@ -40903,7 +40786,7 @@
     </row>
     <row r="521" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C521" s="9">
-        <v>70004402</v>
+        <v>70004401</v>
       </c>
       <c r="D521" s="10" t="s">
         <v>437</v>
@@ -40948,7 +40831,7 @@
         <v>2</v>
       </c>
       <c r="R521" s="15">
-        <v>10024002</v>
+        <v>10024001</v>
       </c>
       <c r="S521" s="10" t="s">
         <v>220</v>
@@ -40962,7 +40845,7 @@
     </row>
     <row r="522" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C522" s="9">
-        <v>70004403</v>
+        <v>70004402</v>
       </c>
       <c r="D522" s="10" t="s">
         <v>437</v>
@@ -41007,7 +40890,7 @@
         <v>2</v>
       </c>
       <c r="R522" s="15">
-        <v>10024003</v>
+        <v>10024002</v>
       </c>
       <c r="S522" s="10" t="s">
         <v>220</v>
@@ -41021,7 +40904,7 @@
     </row>
     <row r="523" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C523" s="9">
-        <v>70004404</v>
+        <v>70004403</v>
       </c>
       <c r="D523" s="10" t="s">
         <v>437</v>
@@ -41066,7 +40949,7 @@
         <v>2</v>
       </c>
       <c r="R523" s="15">
-        <v>10024004</v>
+        <v>10024003</v>
       </c>
       <c r="S523" s="10" t="s">
         <v>220</v>
@@ -41080,7 +40963,7 @@
     </row>
     <row r="524" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C524" s="9">
-        <v>70004405</v>
+        <v>70004404</v>
       </c>
       <c r="D524" s="10" t="s">
         <v>437</v>
@@ -41125,7 +41008,7 @@
         <v>2</v>
       </c>
       <c r="R524" s="15">
-        <v>10024005</v>
+        <v>10024004</v>
       </c>
       <c r="S524" s="10" t="s">
         <v>220</v>
@@ -41139,7 +41022,7 @@
     </row>
     <row r="525" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C525" s="9">
-        <v>70004406</v>
+        <v>70004405</v>
       </c>
       <c r="D525" s="10" t="s">
         <v>437</v>
@@ -41184,7 +41067,7 @@
         <v>2</v>
       </c>
       <c r="R525" s="15">
-        <v>10024006</v>
+        <v>10024005</v>
       </c>
       <c r="S525" s="10" t="s">
         <v>220</v>
@@ -41198,7 +41081,7 @@
     </row>
     <row r="526" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C526" s="9">
-        <v>70004407</v>
+        <v>70004406</v>
       </c>
       <c r="D526" s="10" t="s">
         <v>437</v>
@@ -41222,7 +41105,7 @@
         <v>0</v>
       </c>
       <c r="K526" s="9">
-        <v>18700</v>
+        <v>25900</v>
       </c>
       <c r="L526" s="9">
         <v>14000</v>
@@ -41243,7 +41126,7 @@
         <v>2</v>
       </c>
       <c r="R526" s="15">
-        <v>10024007</v>
+        <v>10024006</v>
       </c>
       <c r="S526" s="10" t="s">
         <v>220</v>
@@ -41257,7 +41140,7 @@
     </row>
     <row r="527" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C527" s="9">
-        <v>70004408</v>
+        <v>70004407</v>
       </c>
       <c r="D527" s="10" t="s">
         <v>437</v>
@@ -41302,10 +41185,10 @@
         <v>2</v>
       </c>
       <c r="R527" s="15">
-        <v>10024008</v>
-      </c>
-      <c r="S527" s="10">
-        <v>1</v>
+        <v>10024007</v>
+      </c>
+      <c r="S527" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="T527" s="15">
         <v>0</v>
@@ -41316,7 +41199,7 @@
     </row>
     <row r="528" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C528" s="9">
-        <v>70004409</v>
+        <v>70004408</v>
       </c>
       <c r="D528" s="10" t="s">
         <v>437</v>
@@ -41361,7 +41244,7 @@
         <v>2</v>
       </c>
       <c r="R528" s="15">
-        <v>10024009</v>
+        <v>10024008</v>
       </c>
       <c r="S528" s="10">
         <v>1</v>
@@ -41375,7 +41258,7 @@
     </row>
     <row r="529" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C529" s="9">
-        <v>70004410</v>
+        <v>70004409</v>
       </c>
       <c r="D529" s="10" t="s">
         <v>437</v>
@@ -41420,10 +41303,10 @@
         <v>2</v>
       </c>
       <c r="R529" s="15">
-        <v>10024010</v>
-      </c>
-      <c r="S529" s="10" t="s">
-        <v>220</v>
+        <v>10024009</v>
+      </c>
+      <c r="S529" s="10">
+        <v>1</v>
       </c>
       <c r="T529" s="15">
         <v>0</v>
@@ -41432,24 +41315,23 @@
         <v>435</v>
       </c>
     </row>
-    <row r="530" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B530" s="20"/>
+    <row r="530" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C530" s="9">
-        <v>70005101</v>
+        <v>70004410</v>
       </c>
       <c r="D530" s="10" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="E530" s="10" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="F530" s="10" t="s">
-        <v>41</v>
+        <v>377</v>
       </c>
       <c r="G530" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="H530" s="10">
+      <c r="H530" s="9">
         <v>0</v>
       </c>
       <c r="I530" s="9">
@@ -41462,7 +41344,7 @@
         <v>18700</v>
       </c>
       <c r="L530" s="9">
-        <v>9125</v>
+        <v>14000</v>
       </c>
       <c r="M530" s="9" t="s">
         <v>433</v>
@@ -41477,10 +41359,10 @@
         <v>20000102</v>
       </c>
       <c r="Q530" s="10">
-        <v>1</v>
-      </c>
-      <c r="R530" s="21">
-        <v>70005001</v>
+        <v>2</v>
+      </c>
+      <c r="R530" s="15">
+        <v>10024010</v>
       </c>
       <c r="S530" s="10" t="s">
         <v>220</v>
@@ -41492,10 +41374,10 @@
         <v>435</v>
       </c>
     </row>
-    <row r="531" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B531" s="21"/>
+    <row r="531" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B531" s="20"/>
       <c r="C531" s="9">
-        <v>70005102</v>
+        <v>70005101</v>
       </c>
       <c r="D531" s="10" t="s">
         <v>431</v>
@@ -41555,13 +41437,13 @@
     <row r="532" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B532" s="21"/>
       <c r="C532" s="9">
-        <v>70005103</v>
+        <v>70005102</v>
       </c>
       <c r="D532" s="10" t="s">
         <v>431</v>
       </c>
       <c r="E532" s="10" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F532" s="10" t="s">
         <v>41</v>
@@ -41600,7 +41482,7 @@
         <v>1</v>
       </c>
       <c r="R532" s="21">
-        <v>70005006</v>
+        <v>70005001</v>
       </c>
       <c r="S532" s="10" t="s">
         <v>220</v>
@@ -41615,7 +41497,7 @@
     <row r="533" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B533" s="21"/>
       <c r="C533" s="9">
-        <v>70005104</v>
+        <v>70005103</v>
       </c>
       <c r="D533" s="10" t="s">
         <v>431</v>
@@ -41659,7 +41541,7 @@
       <c r="Q533" s="10">
         <v>1</v>
       </c>
-      <c r="R533" s="22">
+      <c r="R533" s="21">
         <v>70005006</v>
       </c>
       <c r="S533" s="10" t="s">
@@ -41675,13 +41557,13 @@
     <row r="534" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B534" s="21"/>
       <c r="C534" s="9">
-        <v>70005105</v>
+        <v>70005104</v>
       </c>
       <c r="D534" s="10" t="s">
         <v>431</v>
       </c>
       <c r="E534" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F534" s="10" t="s">
         <v>41</v>
@@ -41720,7 +41602,7 @@
         <v>1</v>
       </c>
       <c r="R534" s="22">
-        <v>70005001</v>
+        <v>70005006</v>
       </c>
       <c r="S534" s="10" t="s">
         <v>220</v>
@@ -41733,9 +41615,9 @@
       </c>
     </row>
     <row r="535" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B535" s="22"/>
+      <c r="B535" s="21"/>
       <c r="C535" s="9">
-        <v>70005106</v>
+        <v>70005105</v>
       </c>
       <c r="D535" s="10" t="s">
         <v>431</v>
@@ -41780,7 +41662,7 @@
         <v>1</v>
       </c>
       <c r="R535" s="22">
-        <v>70005010</v>
+        <v>70005001</v>
       </c>
       <c r="S535" s="10" t="s">
         <v>220</v>
@@ -41793,15 +41675,15 @@
       </c>
     </row>
     <row r="536" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B536" s="21"/>
+      <c r="B536" s="22"/>
       <c r="C536" s="9">
-        <v>70005107</v>
+        <v>70005106</v>
       </c>
       <c r="D536" s="10" t="s">
         <v>431</v>
       </c>
       <c r="E536" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F536" s="10" t="s">
         <v>41</v>
@@ -41839,7 +41721,7 @@
       <c r="Q536" s="10">
         <v>1</v>
       </c>
-      <c r="R536" s="21">
+      <c r="R536" s="22">
         <v>70005010</v>
       </c>
       <c r="S536" s="10" t="s">
@@ -41855,13 +41737,13 @@
     <row r="537" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B537" s="21"/>
       <c r="C537" s="9">
-        <v>70005108</v>
+        <v>70005107</v>
       </c>
       <c r="D537" s="10" t="s">
         <v>431</v>
       </c>
       <c r="E537" s="10" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="F537" s="10" t="s">
         <v>41</v>
@@ -41879,7 +41761,7 @@
         <v>0</v>
       </c>
       <c r="K537" s="9">
-        <v>25000</v>
+        <v>18700</v>
       </c>
       <c r="L537" s="9">
         <v>9125</v>
@@ -41900,7 +41782,7 @@
         <v>1</v>
       </c>
       <c r="R537" s="21">
-        <v>70005001</v>
+        <v>70005010</v>
       </c>
       <c r="S537" s="10" t="s">
         <v>220</v>
@@ -41913,9 +41795,9 @@
       </c>
     </row>
     <row r="538" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B538" s="22"/>
+      <c r="B538" s="21"/>
       <c r="C538" s="9">
-        <v>70005109</v>
+        <v>70005108</v>
       </c>
       <c r="D538" s="10" t="s">
         <v>431</v>
@@ -41975,13 +41857,13 @@
     <row r="539" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B539" s="22"/>
       <c r="C539" s="9">
-        <v>70005110</v>
+        <v>70005109</v>
       </c>
       <c r="D539" s="10" t="s">
         <v>431</v>
       </c>
       <c r="E539" s="10" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F539" s="10" t="s">
         <v>41</v>
@@ -42020,7 +41902,7 @@
         <v>1</v>
       </c>
       <c r="R539" s="21">
-        <v>70005006</v>
+        <v>70005001</v>
       </c>
       <c r="S539" s="10" t="s">
         <v>220</v>
@@ -42033,14 +41915,15 @@
       </c>
     </row>
     <row r="540" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B540" s="22"/>
       <c r="C540" s="9">
-        <v>70005111</v>
+        <v>70005110</v>
       </c>
       <c r="D540" s="10" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E540" s="10" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F540" s="10" t="s">
         <v>41</v>
@@ -42076,13 +41959,13 @@
         <v>20000102</v>
       </c>
       <c r="Q540" s="10">
-        <v>5</v>
-      </c>
-      <c r="R540" s="10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="R540" s="21">
+        <v>70005006</v>
       </c>
       <c r="S540" s="10" t="s">
-        <v>357</v>
+        <v>220</v>
       </c>
       <c r="T540" s="15">
         <v>0</v>
@@ -42091,12 +41974,12 @@
         <v>435</v>
       </c>
     </row>
-    <row r="541" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C541" s="9">
-        <v>70005401</v>
+        <v>70005111</v>
       </c>
       <c r="D541" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E541" s="10" t="s">
         <v>370</v>
@@ -42117,10 +42000,10 @@
         <v>0</v>
       </c>
       <c r="K541" s="9">
-        <v>22400</v>
+        <v>25000</v>
       </c>
       <c r="L541" s="9">
-        <v>15970</v>
+        <v>9125</v>
       </c>
       <c r="M541" s="9" t="s">
         <v>433</v>
@@ -42135,13 +42018,13 @@
         <v>20000102</v>
       </c>
       <c r="Q541" s="10">
-        <v>2</v>
-      </c>
-      <c r="R541" s="15">
-        <v>10025001</v>
+        <v>5</v>
+      </c>
+      <c r="R541" s="10">
+        <v>0</v>
       </c>
       <c r="S541" s="10" t="s">
-        <v>220</v>
+        <v>357</v>
       </c>
       <c r="T541" s="15">
         <v>0</v>
@@ -42152,7 +42035,7 @@
     </row>
     <row r="542" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C542" s="9">
-        <v>70005402</v>
+        <v>70005401</v>
       </c>
       <c r="D542" s="10" t="s">
         <v>437</v>
@@ -42197,7 +42080,7 @@
         <v>2</v>
       </c>
       <c r="R542" s="15">
-        <v>10025002</v>
+        <v>10025001</v>
       </c>
       <c r="S542" s="10" t="s">
         <v>220</v>
@@ -42211,7 +42094,7 @@
     </row>
     <row r="543" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C543" s="9">
-        <v>70005403</v>
+        <v>70005402</v>
       </c>
       <c r="D543" s="10" t="s">
         <v>437</v>
@@ -42256,7 +42139,7 @@
         <v>2</v>
       </c>
       <c r="R543" s="15">
-        <v>10025003</v>
+        <v>10025002</v>
       </c>
       <c r="S543" s="10" t="s">
         <v>220</v>
@@ -42270,7 +42153,7 @@
     </row>
     <row r="544" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C544" s="9">
-        <v>70005404</v>
+        <v>70005403</v>
       </c>
       <c r="D544" s="10" t="s">
         <v>437</v>
@@ -42315,7 +42198,7 @@
         <v>2</v>
       </c>
       <c r="R544" s="15">
-        <v>10025004</v>
+        <v>10025003</v>
       </c>
       <c r="S544" s="10" t="s">
         <v>220</v>
@@ -42329,7 +42212,7 @@
     </row>
     <row r="545" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C545" s="9">
-        <v>70005405</v>
+        <v>70005404</v>
       </c>
       <c r="D545" s="10" t="s">
         <v>437</v>
@@ -42374,7 +42257,7 @@
         <v>2</v>
       </c>
       <c r="R545" s="15">
-        <v>10025005</v>
+        <v>10025004</v>
       </c>
       <c r="S545" s="10" t="s">
         <v>220</v>
@@ -42388,7 +42271,7 @@
     </row>
     <row r="546" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C546" s="9">
-        <v>70005406</v>
+        <v>70005405</v>
       </c>
       <c r="D546" s="10" t="s">
         <v>437</v>
@@ -42433,7 +42316,7 @@
         <v>2</v>
       </c>
       <c r="R546" s="15">
-        <v>10025006</v>
+        <v>10025005</v>
       </c>
       <c r="S546" s="10" t="s">
         <v>220</v>
@@ -42447,7 +42330,7 @@
     </row>
     <row r="547" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C547" s="9">
-        <v>70005407</v>
+        <v>70005406</v>
       </c>
       <c r="D547" s="10" t="s">
         <v>437</v>
@@ -42492,7 +42375,7 @@
         <v>2</v>
       </c>
       <c r="R547" s="15">
-        <v>10025007</v>
+        <v>10025006</v>
       </c>
       <c r="S547" s="10" t="s">
         <v>220</v>
@@ -42506,7 +42389,7 @@
     </row>
     <row r="548" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C548" s="9">
-        <v>70005408</v>
+        <v>70005407</v>
       </c>
       <c r="D548" s="10" t="s">
         <v>437</v>
@@ -42530,10 +42413,10 @@
         <v>0</v>
       </c>
       <c r="K548" s="9">
-        <v>30000</v>
+        <v>22400</v>
       </c>
       <c r="L548" s="9">
-        <v>23000</v>
+        <v>15970</v>
       </c>
       <c r="M548" s="9" t="s">
         <v>433</v>
@@ -42551,10 +42434,10 @@
         <v>2</v>
       </c>
       <c r="R548" s="15">
-        <v>10025008</v>
-      </c>
-      <c r="S548" s="10">
-        <v>1</v>
+        <v>10025007</v>
+      </c>
+      <c r="S548" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="T548" s="15">
         <v>0</v>
@@ -42565,7 +42448,7 @@
     </row>
     <row r="549" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C549" s="9">
-        <v>70005409</v>
+        <v>70005408</v>
       </c>
       <c r="D549" s="10" t="s">
         <v>437</v>
@@ -42610,7 +42493,7 @@
         <v>2</v>
       </c>
       <c r="R549" s="15">
-        <v>10025009</v>
+        <v>10025008</v>
       </c>
       <c r="S549" s="10">
         <v>1</v>
@@ -42624,7 +42507,7 @@
     </row>
     <row r="550" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C550" s="9">
-        <v>70005410</v>
+        <v>70005409</v>
       </c>
       <c r="D550" s="10" t="s">
         <v>437</v>
@@ -42651,7 +42534,7 @@
         <v>30000</v>
       </c>
       <c r="L550" s="9">
-        <v>15970</v>
+        <v>23000</v>
       </c>
       <c r="M550" s="9" t="s">
         <v>433</v>
@@ -42669,15 +42552,74 @@
         <v>2</v>
       </c>
       <c r="R550" s="15">
+        <v>10025009</v>
+      </c>
+      <c r="S550" s="10">
+        <v>1</v>
+      </c>
+      <c r="T550" s="15">
+        <v>0</v>
+      </c>
+      <c r="U550" s="14" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="551" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C551" s="9">
+        <v>70005410</v>
+      </c>
+      <c r="D551" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="E551" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F551" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G551" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H551" s="10">
+        <v>0</v>
+      </c>
+      <c r="I551" s="9">
+        <v>1</v>
+      </c>
+      <c r="J551" s="9">
+        <v>0</v>
+      </c>
+      <c r="K551" s="9">
+        <v>30000</v>
+      </c>
+      <c r="L551" s="9">
+        <v>15970</v>
+      </c>
+      <c r="M551" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="N551" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="O551" s="11">
+        <v>0</v>
+      </c>
+      <c r="P551" s="9">
+        <v>20000102</v>
+      </c>
+      <c r="Q551" s="10">
+        <v>2</v>
+      </c>
+      <c r="R551" s="15">
         <v>10025010</v>
       </c>
-      <c r="S550" s="10" t="s">
+      <c r="S551" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="T550" s="15">
-        <v>0</v>
-      </c>
-      <c r="U550" s="14" t="s">
+      <c r="T551" s="15">
+        <v>0</v>
+      </c>
+      <c r="U551" s="14" t="s">
         <v>435</v>
       </c>
     </row>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E9D6CE-7537-428E-AEF9-94C999CFC533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CE2642-5677-4DB7-8AEA-3716B4DE729E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="810" windowWidth="24000" windowHeight="14295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2899" uniqueCount="450">
   <si>
     <t>Id</t>
   </si>
@@ -2058,6 +2058,10 @@
   </si>
   <si>
     <t>前往主城寻找任务使者:塞利,领取今天的每日任务</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>【周任务】试炼</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -10024,8 +10028,8 @@
   <dimension ref="A1:AB555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49:XFD49"/>
+      <pane ySplit="5" topLeftCell="A434" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D444" sqref="D444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35919,7 +35923,7 @@
         <v>51000001</v>
       </c>
       <c r="D438" s="27" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="E438" s="28">
         <v>0</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CE2642-5677-4DB7-8AEA-3716B4DE729E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E203B40-206D-442D-9486-251C85E8E17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -10028,8 +10028,8 @@
   <dimension ref="A1:AB555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A434" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D444" sqref="D444"/>
+      <pane ySplit="5" topLeftCell="A415" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C425" sqref="C425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89AA9D6-775A-4AE9-AFF2-A2E9184718FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E811E8B-20C8-433A-820E-1718D69B0112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,11 +516,11 @@
 2.道具部位
 3.道具品质
 4:具体道具ID
-11.装备鉴定属性智力
+11.装备鉴定属性力量
 12.装备鉴定属性智力
-13.装备鉴定属性智力
-14.装备鉴定属性智力
-15.装备鉴定属性智力</t>
+13.装备鉴定属性体质
+14.装备鉴定属性耐力
+15.装备鉴定属性敏捷</t>
         </r>
         <r>
           <rPr>
@@ -10130,9 +10130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I566" sqref="I566"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC18643-BB60-4C32-80E0-EEA53C1C44B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEA4EC8-D3C7-4587-BB01-E0B1767E5A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10208,9 +10208,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T13" sqref="T13"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEA4EC8-D3C7-4587-BB01-E0B1767E5A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73496EC1-CB6E-491B-AC28-5B26D2BDF512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10208,9 +10208,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C566" sqref="C566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73496EC1-CB6E-491B-AC28-5B26D2BDF512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330E1024-2E0E-4E39-A4C0-94780E04E203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10209,8 +10209,8 @@
   <dimension ref="A1:AB576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C566" sqref="C566"/>
+      <pane ySplit="5" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J170" sqref="J170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20112,7 +20112,7 @@
         <v>1</v>
       </c>
       <c r="J170" s="21">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K170" s="22" t="s">
         <v>362</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA286264-EA2D-444D-B7B6-47A232291702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43C8F09-134B-4BCB-9FB7-A082D372263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -59,15 +59,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1:</t>
+1:</t>
         </r>
         <r>
           <rPr>
@@ -201,7 +193,42 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>：家族任务</t>
+          <t xml:space="preserve">：家族任务
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>8</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>赛季任务</t>
         </r>
       </text>
     </comment>
@@ -10223,8 +10250,8 @@
   <dimension ref="A1:AB576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43C8F09-134B-4BCB-9FB7-A082D372263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469F4EE2-A5EE-4523-A9D6-545D5CE3FD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,19 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TaskProto!$Q$1:$Q$166</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -730,7 +717,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2993" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="490">
   <si>
     <t>Id</t>
   </si>
@@ -2264,6 +2251,22 @@
   </si>
   <si>
     <t>前往绿林郊外</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛季:轻度狩猎</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一些赛季任务,完成可以获得并且给家族增加经验噢~</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -10249,9 +10252,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A556" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U570" sqref="U570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43538,7 +43541,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="561" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C561" s="10">
         <v>70005406</v>
       </c>
@@ -43597,7 +43600,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="562" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C562" s="10">
         <v>70005407</v>
       </c>
@@ -43656,7 +43659,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="563" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C563" s="10">
         <v>70005408</v>
       </c>
@@ -43715,7 +43718,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="564" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C564" s="10">
         <v>70005409</v>
       </c>
@@ -43774,7 +43777,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="565" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C565" s="10">
         <v>70005410</v>
       </c>
@@ -43833,7 +43836,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="566" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C566" s="10">
         <v>90000001</v>
       </c>
@@ -43892,16 +43895,134 @@
         <v>484</v>
       </c>
     </row>
-    <row r="567" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B567" s="24"/>
+      <c r="C567" s="10">
+        <v>80000001</v>
+      </c>
+      <c r="D567" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="E567" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F567" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G567" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="H567" s="11">
+        <v>0</v>
+      </c>
+      <c r="I567" s="10">
+        <v>1</v>
+      </c>
+      <c r="J567" s="10">
+        <v>0</v>
+      </c>
+      <c r="K567" s="10">
+        <v>18700</v>
+      </c>
+      <c r="L567" s="10">
+        <v>9125</v>
+      </c>
+      <c r="M567" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="N567" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="O567" s="12">
+        <v>0</v>
+      </c>
+      <c r="P567" s="10">
+        <v>20000102</v>
+      </c>
+      <c r="Q567" s="11">
+        <v>1</v>
+      </c>
+      <c r="R567" s="25">
+        <v>70005001</v>
+      </c>
+      <c r="S567" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="T567" s="16">
+        <v>0</v>
+      </c>
+      <c r="U567" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="568" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B568" s="25"/>
+      <c r="C568" s="10">
+        <v>80000002</v>
+      </c>
+      <c r="D568" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="E568" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F568" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G568" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="H568" s="11">
+        <v>0</v>
+      </c>
+      <c r="I568" s="10">
+        <v>1</v>
+      </c>
+      <c r="J568" s="10">
+        <v>0</v>
+      </c>
+      <c r="K568" s="10">
+        <v>18700</v>
+      </c>
+      <c r="L568" s="10">
+        <v>9125</v>
+      </c>
+      <c r="M568" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="N568" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="O568" s="12">
+        <v>0</v>
+      </c>
+      <c r="P568" s="10">
+        <v>20000102</v>
+      </c>
+      <c r="Q568" s="11">
+        <v>1</v>
+      </c>
+      <c r="R568" s="25">
+        <v>70005010</v>
+      </c>
+      <c r="S568" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="T568" s="16">
+        <v>0</v>
+      </c>
+      <c r="U568" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="569" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469F4EE2-A5EE-4523-A9D6-545D5CE3FD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61017CD-5648-41C4-A64C-19723C9A55E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,7 +215,42 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>赛季任务</t>
+          <t xml:space="preserve">赛季任务
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>9</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>七天任务</t>
         </r>
       </text>
     </comment>
@@ -717,7 +752,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="505">
   <si>
     <t>Id</t>
   </si>
@@ -2267,6 +2302,61 @@
   </si>
   <si>
     <t>这是一些赛季任务,完成可以获得并且给家族增加经验噢~</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务第一天</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务第二天</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务2</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务3</t>
+  </si>
+  <si>
+    <t>新手任务4</t>
+  </si>
+  <si>
+    <t>新手任务5</t>
+  </si>
+  <si>
+    <t>新手任务6</t>
+  </si>
+  <si>
+    <t>新手任务7</t>
+  </si>
+  <si>
+    <t>新手任务第三天</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务第四天</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务第五天</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务第六天</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手任务第七天</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -10250,11 +10340,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB576"/>
+  <dimension ref="A1:AB575"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A556" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U570" sqref="U570"/>
+      <pane ySplit="5" topLeftCell="A562" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U577" sqref="U577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -44015,14 +44105,426 @@
         <v>489</v>
       </c>
     </row>
-    <row r="569" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B569" s="24"/>
+      <c r="C569" s="10">
+        <v>90000001</v>
+      </c>
+      <c r="D569" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="E569" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F569" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G569" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="H569" s="11">
+        <v>0</v>
+      </c>
+      <c r="I569" s="10">
+        <v>1</v>
+      </c>
+      <c r="J569" s="10">
+        <v>0</v>
+      </c>
+      <c r="K569" s="10">
+        <v>18700</v>
+      </c>
+      <c r="L569" s="10">
+        <v>9125</v>
+      </c>
+      <c r="M569" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="N569" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="O569" s="12">
+        <v>0</v>
+      </c>
+      <c r="P569" s="10">
+        <v>20000102</v>
+      </c>
+      <c r="Q569" s="11">
+        <v>1</v>
+      </c>
+      <c r="R569" s="25">
+        <v>70005001</v>
+      </c>
+      <c r="S569" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="T569" s="16">
+        <v>0</v>
+      </c>
+      <c r="U569" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="570" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B570" s="25"/>
+      <c r="C570" s="10">
+        <v>90000002</v>
+      </c>
+      <c r="D570" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E570" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F570" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G570" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="H570" s="11">
+        <v>0</v>
+      </c>
+      <c r="I570" s="10">
+        <v>1</v>
+      </c>
+      <c r="J570" s="10">
+        <v>0</v>
+      </c>
+      <c r="K570" s="10">
+        <v>18700</v>
+      </c>
+      <c r="L570" s="10">
+        <v>9125</v>
+      </c>
+      <c r="M570" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="N570" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="O570" s="12">
+        <v>0</v>
+      </c>
+      <c r="P570" s="10">
+        <v>20000102</v>
+      </c>
+      <c r="Q570" s="11">
+        <v>1</v>
+      </c>
+      <c r="R570" s="25">
+        <v>70005010</v>
+      </c>
+      <c r="S570" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="T570" s="16">
+        <v>0</v>
+      </c>
+      <c r="U570" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="571" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B571" s="24"/>
+      <c r="C571" s="10">
+        <v>90000003</v>
+      </c>
+      <c r="D571" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="E571" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F571" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G571" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="H571" s="11">
+        <v>0</v>
+      </c>
+      <c r="I571" s="10">
+        <v>1</v>
+      </c>
+      <c r="J571" s="10">
+        <v>0</v>
+      </c>
+      <c r="K571" s="10">
+        <v>18700</v>
+      </c>
+      <c r="L571" s="10">
+        <v>9125</v>
+      </c>
+      <c r="M571" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="N571" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="O571" s="12">
+        <v>0</v>
+      </c>
+      <c r="P571" s="10">
+        <v>20000102</v>
+      </c>
+      <c r="Q571" s="11">
+        <v>1</v>
+      </c>
+      <c r="R571" s="25">
+        <v>70005001</v>
+      </c>
+      <c r="S571" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="T571" s="16">
+        <v>0</v>
+      </c>
+      <c r="U571" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="572" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B572" s="25"/>
+      <c r="C572" s="10">
+        <v>90000004</v>
+      </c>
+      <c r="D572" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="E572" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F572" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G572" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="H572" s="11">
+        <v>0</v>
+      </c>
+      <c r="I572" s="10">
+        <v>1</v>
+      </c>
+      <c r="J572" s="10">
+        <v>0</v>
+      </c>
+      <c r="K572" s="10">
+        <v>18700</v>
+      </c>
+      <c r="L572" s="10">
+        <v>9125</v>
+      </c>
+      <c r="M572" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="N572" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="O572" s="12">
+        <v>0</v>
+      </c>
+      <c r="P572" s="10">
+        <v>20000102</v>
+      </c>
+      <c r="Q572" s="11">
+        <v>1</v>
+      </c>
+      <c r="R572" s="25">
+        <v>70005010</v>
+      </c>
+      <c r="S572" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="T572" s="16">
+        <v>0</v>
+      </c>
+      <c r="U572" s="15" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="573" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B573" s="24"/>
+      <c r="C573" s="10">
+        <v>90000005</v>
+      </c>
+      <c r="D573" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="E573" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F573" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G573" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="H573" s="11">
+        <v>0</v>
+      </c>
+      <c r="I573" s="10">
+        <v>1</v>
+      </c>
+      <c r="J573" s="10">
+        <v>0</v>
+      </c>
+      <c r="K573" s="10">
+        <v>18700</v>
+      </c>
+      <c r="L573" s="10">
+        <v>9125</v>
+      </c>
+      <c r="M573" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="N573" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="O573" s="12">
+        <v>0</v>
+      </c>
+      <c r="P573" s="10">
+        <v>20000102</v>
+      </c>
+      <c r="Q573" s="11">
+        <v>1</v>
+      </c>
+      <c r="R573" s="25">
+        <v>70005001</v>
+      </c>
+      <c r="S573" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="T573" s="16">
+        <v>0</v>
+      </c>
+      <c r="U573" s="15" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="574" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B574" s="25"/>
+      <c r="C574" s="10">
+        <v>90000006</v>
+      </c>
+      <c r="D574" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E574" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F574" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G574" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="H574" s="11">
+        <v>0</v>
+      </c>
+      <c r="I574" s="10">
+        <v>1</v>
+      </c>
+      <c r="J574" s="10">
+        <v>0</v>
+      </c>
+      <c r="K574" s="10">
+        <v>18700</v>
+      </c>
+      <c r="L574" s="10">
+        <v>9125</v>
+      </c>
+      <c r="M574" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="N574" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="O574" s="12">
+        <v>0</v>
+      </c>
+      <c r="P574" s="10">
+        <v>20000102</v>
+      </c>
+      <c r="Q574" s="11">
+        <v>1</v>
+      </c>
+      <c r="R574" s="25">
+        <v>70005010</v>
+      </c>
+      <c r="S574" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="T574" s="16">
+        <v>0</v>
+      </c>
+      <c r="U574" s="15" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="575" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B575" s="24"/>
+      <c r="C575" s="10">
+        <v>90000007</v>
+      </c>
+      <c r="D575" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="E575" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F575" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G575" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="H575" s="11">
+        <v>0</v>
+      </c>
+      <c r="I575" s="10">
+        <v>1</v>
+      </c>
+      <c r="J575" s="10">
+        <v>0</v>
+      </c>
+      <c r="K575" s="10">
+        <v>18700</v>
+      </c>
+      <c r="L575" s="10">
+        <v>9125</v>
+      </c>
+      <c r="M575" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="N575" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="O575" s="12">
+        <v>0</v>
+      </c>
+      <c r="P575" s="10">
+        <v>20000102</v>
+      </c>
+      <c r="Q575" s="11">
+        <v>1</v>
+      </c>
+      <c r="R575" s="25">
+        <v>70005001</v>
+      </c>
+      <c r="S575" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="T575" s="16">
+        <v>0</v>
+      </c>
+      <c r="U575" s="15" t="s">
+        <v>504</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61017CD-5648-41C4-A64C-19723C9A55E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D2797F-AE9C-4A8A-9C83-C83DC813B87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -10342,9 +10342,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A562" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U577" sqref="U577"/>
+      <selection pane="bottomLeft" activeCell="C570" sqref="C570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43926,23 +43926,24 @@
         <v>478</v>
       </c>
     </row>
-    <row r="566" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B566" s="24"/>
       <c r="C566" s="10">
-        <v>90000001</v>
+        <v>80000001</v>
       </c>
       <c r="D566" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="E566" s="10">
-        <v>1</v>
+        <v>487</v>
+      </c>
+      <c r="E566" s="11" t="s">
+        <v>488</v>
       </c>
       <c r="F566" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G566" s="10">
-        <v>1</v>
-      </c>
-      <c r="H566" s="10">
+      <c r="G566" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="H566" s="11">
         <v>0</v>
       </c>
       <c r="I566" s="10">
@@ -43951,44 +43952,44 @@
       <c r="J566" s="10">
         <v>0</v>
       </c>
-      <c r="K566" s="11">
-        <v>33600</v>
-      </c>
-      <c r="L566" s="11">
-        <v>3020</v>
-      </c>
-      <c r="M566" s="10">
-        <v>0</v>
-      </c>
-      <c r="N566" s="10">
-        <v>0</v>
+      <c r="K566" s="10">
+        <v>18700</v>
+      </c>
+      <c r="L566" s="10">
+        <v>9125</v>
+      </c>
+      <c r="M566" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="N566" s="10" t="s">
+        <v>477</v>
       </c>
       <c r="O566" s="12">
         <v>0</v>
       </c>
       <c r="P566" s="10">
-        <v>20000024</v>
-      </c>
-      <c r="Q566" s="10">
-        <v>10</v>
-      </c>
-      <c r="R566" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="S566" s="10" t="s">
-        <v>483</v>
+        <v>20000102</v>
+      </c>
+      <c r="Q566" s="11">
+        <v>1</v>
+      </c>
+      <c r="R566" s="25">
+        <v>70005001</v>
+      </c>
+      <c r="S566" s="11" t="s">
+        <v>222</v>
       </c>
       <c r="T566" s="16">
         <v>0</v>
       </c>
       <c r="U566" s="15" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="567" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B567" s="24"/>
+      <c r="B567" s="25"/>
       <c r="C567" s="10">
-        <v>80000001</v>
+        <v>80000002</v>
       </c>
       <c r="D567" s="11" t="s">
         <v>487</v>
@@ -44033,7 +44034,7 @@
         <v>1</v>
       </c>
       <c r="R567" s="25">
-        <v>70005001</v>
+        <v>70005010</v>
       </c>
       <c r="S567" s="11" t="s">
         <v>222</v>
@@ -44045,24 +44046,23 @@
         <v>489</v>
       </c>
     </row>
-    <row r="568" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B568" s="25"/>
+    <row r="568" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C568" s="10">
-        <v>80000002</v>
+        <v>80000011</v>
       </c>
       <c r="D568" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="E568" s="11" t="s">
-        <v>488</v>
+        <v>481</v>
+      </c>
+      <c r="E568" s="10">
+        <v>1</v>
       </c>
       <c r="F568" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G568" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="H568" s="11">
+      <c r="G568" s="10">
+        <v>1</v>
+      </c>
+      <c r="H568" s="10">
         <v>0</v>
       </c>
       <c r="I568" s="10">
@@ -44071,38 +44071,38 @@
       <c r="J568" s="10">
         <v>0</v>
       </c>
-      <c r="K568" s="10">
-        <v>18700</v>
-      </c>
-      <c r="L568" s="10">
-        <v>9125</v>
-      </c>
-      <c r="M568" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="N568" s="10" t="s">
-        <v>477</v>
+      <c r="K568" s="11">
+        <v>33600</v>
+      </c>
+      <c r="L568" s="11">
+        <v>3020</v>
+      </c>
+      <c r="M568" s="10">
+        <v>0</v>
+      </c>
+      <c r="N568" s="10">
+        <v>0</v>
       </c>
       <c r="O568" s="12">
         <v>0</v>
       </c>
       <c r="P568" s="10">
-        <v>20000102</v>
-      </c>
-      <c r="Q568" s="11">
-        <v>1</v>
-      </c>
-      <c r="R568" s="25">
-        <v>70005010</v>
-      </c>
-      <c r="S568" s="11" t="s">
-        <v>222</v>
+        <v>20000024</v>
+      </c>
+      <c r="Q568" s="10">
+        <v>10</v>
+      </c>
+      <c r="R568" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="S568" s="10" t="s">
+        <v>483</v>
       </c>
       <c r="T568" s="16">
         <v>0</v>
       </c>
       <c r="U568" s="15" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="569" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D2797F-AE9C-4A8A-9C83-C83DC813B87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9939B0AF-4E8E-4EBB-B20D-AF4F91399AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="525" windowWidth="27195" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -423,16 +423,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1</t>
+          <t>:
+1</t>
         </r>
         <r>
           <rPr>
@@ -467,16 +459,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">ID
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>3</t>
+          <t>ID
+3</t>
         </r>
         <r>
           <rPr>
@@ -557,156 +541,33 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">级别怪物
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">7：通关某个副本
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">8：转职任务
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">9: 加入家族
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">10：给与任务
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">101：击杀挑战难度的指定ID怪物(击杀地狱也算)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">102：击杀地狱你拿度指定ID怪物
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">111：通关挑战难度的副本(通关地狱也算)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">112：通关地狱难度的副本
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">121：击败挑战难度任意数量怪物(通关地狱也算)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">122：击败地狱难度任意数量怪物
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">131：击败挑战难度任意boss怪物(通关地狱也算)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">132：击败地狱难度任意boss怪物
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">133: 战力达到多少
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">134: 试炼之地达到多少层
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
+7：通关某个副本
+8：转职任务
+9: 加入家族
+10：给与任务
+11:获得宠物
+12:制造N个道具
+13:洗炼装备次数
+14:宠物在天梯战斗N次
+15:钻石兑换金币次数
+16:装备重铸次数达到N次 （就是装备分解）
+17:强化装备最高一级达到N级
+18:拥有一个N技能宠物
+19:宠物探险通关第N关卡
+20:消耗X金币
+21:在野外击败敌人X次
+22:家园等级达到X级
+23:进行一次宠物合成
+101：击杀挑战难度的指定ID怪物(击杀地狱也算)
+102：击杀地狱你拿度指定ID怪物
+111：通关挑战难度的副本(通关地狱也算)
+112：通关地狱难度的副本
+121：击败挑战难度任意数量怪物(通关地狱也算)
+122：击败地狱难度任意数量怪物
+131：击败挑战难度任意boss怪物(通关地狱也算)
+132：击败地狱难度任意boss怪物
+133: 战力达到多少
+134: 试炼之地达到多少层
 </t>
         </r>
       </text>
@@ -752,7 +613,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="585">
   <si>
     <t>Id</t>
   </si>
@@ -2359,12 +2220,310 @@
     <t>新手任务第七天</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>等级提升</t>
+  </si>
+  <si>
+    <t>等级提升</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级升级到16级</t>
+  </si>
+  <si>
+    <t>击败6个领主</t>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>领主试炼</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>72001013</t>
+  </si>
+  <si>
+    <t>通关绿谷村副本1次</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关副本</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败1次地狱难度的：石墓领主</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战试炼</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有宠物</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得一只属于自己的宠物</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用生活技能制造一个道具</t>
+  </si>
+  <si>
+    <t>击败1次地狱难度的：巨石领主-卡布鲁</t>
+  </si>
+  <si>
+    <t>70002012</t>
+  </si>
+  <si>
+    <t>洗练装备5次</t>
+  </si>
+  <si>
+    <t>使用宠物在天梯战斗5次</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用钻石兑换金币1次</t>
+  </si>
+  <si>
+    <t>装备重铸次数达到10次</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级升级到20级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级升级到24级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有1个4技能宠物</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物探险通关第10关卡</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼之塔通关第20层</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级升级到28级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败10个领主</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗50万金币</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>在野外击败1个敌方玩家</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力评分达到20000</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力试炼</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级升级到32级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>家园等级达到3级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行一次宠物合成</t>
+  </si>
+  <si>
+    <t>宠物探险通关第20关卡</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗练装备10次</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级升级到36级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败1次地狱难度的：冰封魔王-阿兹里斯</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化装备最高一级达到4级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化装备最高一级达到6级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>70003016</t>
+  </si>
+  <si>
+    <t>挑战10个领主级怪物</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级升级到40级</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>70004013</t>
+  </si>
+  <si>
+    <t>击败1次地狱难度的：裂石领主-艾力克斯</t>
+  </si>
+  <si>
+    <t>消耗100万金币</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼之塔通关第25层</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>20025</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>20020</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>25000</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力评分达到25000</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造道具</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱试炼</t>
+  </si>
+  <si>
+    <t>地狱试炼</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备洗练</t>
+  </si>
+  <si>
+    <t>宠物天梯</t>
+  </si>
+  <si>
+    <t>钻石兑换</t>
+  </si>
+  <si>
+    <t>装备重铸</t>
+  </si>
+  <si>
+    <t>强化装备</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物能力</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物探险</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼之塔</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力试炼</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗金币</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>家园升级</t>
+  </si>
+  <si>
+    <t>宠物合成</t>
+  </si>
+  <si>
+    <t>宠物关卡</t>
+  </si>
+  <si>
+    <t>战力挑战</t>
+  </si>
+  <si>
+    <t>装备强化</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2490,6 +2649,19 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="30">
@@ -8078,7 +8250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8201,6 +8373,35 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10340,11 +10541,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB575"/>
+  <dimension ref="A1:AB694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A562" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C570" sqref="C570"/>
+      <pane ySplit="5" topLeftCell="A571" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D584" sqref="D584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -43631,7 +43832,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="561" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C561" s="10">
         <v>70005406</v>
       </c>
@@ -43690,7 +43891,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="562" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C562" s="10">
         <v>70005407</v>
       </c>
@@ -43749,7 +43950,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="563" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C563" s="10">
         <v>70005408</v>
       </c>
@@ -43808,7 +44009,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="564" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C564" s="10">
         <v>70005409</v>
       </c>
@@ -43867,7 +44068,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="565" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C565" s="10">
         <v>70005410</v>
       </c>
@@ -43926,24 +44127,23 @@
         <v>478</v>
       </c>
     </row>
-    <row r="566" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B566" s="24"/>
+    <row r="566" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C566" s="10">
-        <v>80000001</v>
+        <v>71001001</v>
       </c>
       <c r="D566" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="E566" s="11" t="s">
-        <v>488</v>
+        <v>506</v>
+      </c>
+      <c r="E566" s="10">
+        <v>1</v>
       </c>
       <c r="F566" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G566" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="H566" s="11">
+      <c r="G566" s="10">
+        <v>9</v>
+      </c>
+      <c r="H566" s="10">
         <v>0</v>
       </c>
       <c r="I566" s="10">
@@ -43952,58 +44152,57 @@
       <c r="J566" s="10">
         <v>0</v>
       </c>
-      <c r="K566" s="10">
-        <v>18700</v>
-      </c>
-      <c r="L566" s="10">
-        <v>9125</v>
-      </c>
-      <c r="M566" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="N566" s="10" t="s">
-        <v>477</v>
+      <c r="K566" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L566" s="54">
+        <v>30000</v>
+      </c>
+      <c r="M566" s="18">
+        <v>10010088</v>
+      </c>
+      <c r="N566" s="54">
+        <v>2</v>
       </c>
       <c r="O566" s="12">
         <v>0</v>
       </c>
       <c r="P566" s="10">
-        <v>20000102</v>
-      </c>
-      <c r="Q566" s="11">
-        <v>1</v>
-      </c>
-      <c r="R566" s="25">
-        <v>70005001</v>
-      </c>
-      <c r="S566" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="T566" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q566" s="10">
+        <v>4</v>
+      </c>
+      <c r="R566" s="10">
+        <v>0</v>
+      </c>
+      <c r="S566" s="10">
+        <v>16</v>
+      </c>
+      <c r="T566" s="10">
         <v>0</v>
       </c>
       <c r="U566" s="15" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="567" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B567" s="25"/>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="567" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C567" s="10">
-        <v>80000002</v>
-      </c>
-      <c r="D567" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="E567" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="F567" s="11" t="s">
+        <v>71001002</v>
+      </c>
+      <c r="D567" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="E567" s="10">
+        <v>1</v>
+      </c>
+      <c r="F567" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G567" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="H567" s="11">
+      <c r="G567" s="10">
+        <v>9</v>
+      </c>
+      <c r="H567" s="21">
         <v>0</v>
       </c>
       <c r="I567" s="10">
@@ -44012,57 +44211,57 @@
       <c r="J567" s="10">
         <v>0</v>
       </c>
-      <c r="K567" s="10">
-        <v>18700</v>
-      </c>
-      <c r="L567" s="10">
-        <v>9125</v>
-      </c>
-      <c r="M567" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="N567" s="10" t="s">
-        <v>477</v>
+      <c r="K567" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L567" s="54">
+        <v>30000</v>
+      </c>
+      <c r="M567" s="18">
+        <v>10010083</v>
+      </c>
+      <c r="N567" s="54">
+        <v>5</v>
       </c>
       <c r="O567" s="12">
         <v>0</v>
       </c>
       <c r="P567" s="10">
-        <v>20000102</v>
-      </c>
-      <c r="Q567" s="11">
-        <v>1</v>
-      </c>
-      <c r="R567" s="25">
-        <v>70005010</v>
-      </c>
-      <c r="S567" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="T567" s="16">
-        <v>0</v>
-      </c>
-      <c r="U567" s="15" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="568" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q567" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="R567" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="S567" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="T567" s="18">
+        <v>0</v>
+      </c>
+      <c r="U567" s="44" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="568" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C568" s="10">
-        <v>80000011</v>
-      </c>
-      <c r="D568" s="11" t="s">
-        <v>481</v>
+        <v>71001003</v>
+      </c>
+      <c r="D568" s="22" t="s">
+        <v>513</v>
       </c>
       <c r="E568" s="10">
         <v>1</v>
       </c>
-      <c r="F568" s="11" t="s">
+      <c r="F568" s="22" t="s">
         <v>41</v>
       </c>
       <c r="G568" s="10">
-        <v>1</v>
-      </c>
-      <c r="H568" s="10">
+        <v>9</v>
+      </c>
+      <c r="H568" s="21">
         <v>0</v>
       </c>
       <c r="I568" s="10">
@@ -44071,58 +44270,57 @@
       <c r="J568" s="10">
         <v>0</v>
       </c>
-      <c r="K568" s="11">
-        <v>33600</v>
-      </c>
-      <c r="L568" s="11">
-        <v>3020</v>
-      </c>
-      <c r="M568" s="10">
-        <v>0</v>
-      </c>
-      <c r="N568" s="10">
-        <v>0</v>
+      <c r="K568" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L568" s="54">
+        <v>30000</v>
+      </c>
+      <c r="M568" s="18">
+        <v>10010091</v>
+      </c>
+      <c r="N568" s="54">
+        <v>1</v>
       </c>
       <c r="O568" s="12">
         <v>0</v>
       </c>
       <c r="P568" s="10">
-        <v>20000024</v>
-      </c>
-      <c r="Q568" s="10">
-        <v>10</v>
-      </c>
-      <c r="R568" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="S568" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="T568" s="16">
-        <v>0</v>
-      </c>
-      <c r="U568" s="15" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="569" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B569" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q568" s="22">
+        <v>1</v>
+      </c>
+      <c r="R568" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="S568" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="T568" s="18">
+        <v>0</v>
+      </c>
+      <c r="U568" s="29" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="569" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C569" s="10">
-        <v>90000001</v>
-      </c>
-      <c r="D569" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="E569" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="F569" s="11" t="s">
+        <v>71001004</v>
+      </c>
+      <c r="D569" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="E569" s="10">
+        <v>1</v>
+      </c>
+      <c r="F569" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G569" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="H569" s="11">
+      <c r="G569" s="10">
+        <v>9</v>
+      </c>
+      <c r="H569" s="21">
         <v>0</v>
       </c>
       <c r="I569" s="10">
@@ -44131,58 +44329,57 @@
       <c r="J569" s="10">
         <v>0</v>
       </c>
-      <c r="K569" s="10">
-        <v>18700</v>
-      </c>
-      <c r="L569" s="10">
-        <v>9125</v>
-      </c>
-      <c r="M569" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="N569" s="10" t="s">
-        <v>477</v>
+      <c r="K569" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L569" s="54">
+        <v>30000</v>
+      </c>
+      <c r="M569" s="18">
+        <v>10000122</v>
+      </c>
+      <c r="N569" s="54">
+        <v>1</v>
       </c>
       <c r="O569" s="12">
         <v>0</v>
       </c>
       <c r="P569" s="10">
-        <v>20000102</v>
-      </c>
-      <c r="Q569" s="11">
-        <v>1</v>
-      </c>
-      <c r="R569" s="25">
-        <v>70005001</v>
-      </c>
-      <c r="S569" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="T569" s="16">
-        <v>0</v>
-      </c>
-      <c r="U569" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="570" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B570" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="Q569" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="R569" s="22">
+        <v>70001209</v>
+      </c>
+      <c r="S569" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="T569" s="18">
+        <v>0</v>
+      </c>
+      <c r="U569" s="44" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="570" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C570" s="10">
-        <v>90000002</v>
-      </c>
-      <c r="D570" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="E570" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="F570" s="11" t="s">
+        <v>71001005</v>
+      </c>
+      <c r="D570" s="46" t="s">
+        <v>517</v>
+      </c>
+      <c r="E570" s="10">
+        <v>1</v>
+      </c>
+      <c r="F570" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="G570" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="H570" s="11">
+      <c r="G570" s="10">
+        <v>9</v>
+      </c>
+      <c r="H570" s="45">
         <v>0</v>
       </c>
       <c r="I570" s="10">
@@ -44191,58 +44388,57 @@
       <c r="J570" s="10">
         <v>0</v>
       </c>
-      <c r="K570" s="10">
-        <v>18700</v>
-      </c>
-      <c r="L570" s="10">
-        <v>9125</v>
-      </c>
-      <c r="M570" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="N570" s="10" t="s">
-        <v>477</v>
+      <c r="K570" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L570" s="54">
+        <v>30000</v>
+      </c>
+      <c r="M570" s="18">
+        <v>10010041</v>
+      </c>
+      <c r="N570" s="54">
+        <v>3</v>
       </c>
       <c r="O570" s="12">
         <v>0</v>
       </c>
       <c r="P570" s="10">
-        <v>20000102</v>
-      </c>
-      <c r="Q570" s="11">
-        <v>1</v>
-      </c>
-      <c r="R570" s="25">
-        <v>70005010</v>
-      </c>
-      <c r="S570" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="T570" s="16">
-        <v>0</v>
-      </c>
-      <c r="U570" s="15" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="571" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B571" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q570" s="45">
+        <v>11</v>
+      </c>
+      <c r="R570" s="45">
+        <v>0</v>
+      </c>
+      <c r="S570" s="45">
+        <v>1</v>
+      </c>
+      <c r="T570" s="45">
+        <v>0</v>
+      </c>
+      <c r="U570" s="48" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="571" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C571" s="10">
-        <v>90000003</v>
-      </c>
-      <c r="D571" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="E571" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="F571" s="11" t="s">
+        <v>71001006</v>
+      </c>
+      <c r="D571" s="46" t="s">
+        <v>567</v>
+      </c>
+      <c r="E571" s="10">
+        <v>1</v>
+      </c>
+      <c r="F571" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="G571" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="H571" s="11">
+      <c r="G571" s="10">
+        <v>9</v>
+      </c>
+      <c r="H571" s="45">
         <v>0</v>
       </c>
       <c r="I571" s="10">
@@ -44251,280 +44447,2550 @@
       <c r="J571" s="10">
         <v>0</v>
       </c>
-      <c r="K571" s="10">
-        <v>18700</v>
-      </c>
-      <c r="L571" s="10">
-        <v>9125</v>
-      </c>
-      <c r="M571" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="N571" s="10" t="s">
-        <v>477</v>
+      <c r="K571" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L571" s="54">
+        <v>30000</v>
+      </c>
+      <c r="M571" s="18">
+        <v>10010043</v>
+      </c>
+      <c r="N571" s="54">
+        <v>2</v>
       </c>
       <c r="O571" s="12">
         <v>0</v>
       </c>
       <c r="P571" s="10">
-        <v>20000102</v>
-      </c>
-      <c r="Q571" s="11">
-        <v>1</v>
-      </c>
-      <c r="R571" s="25">
-        <v>70005001</v>
-      </c>
-      <c r="S571" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="T571" s="16">
-        <v>0</v>
-      </c>
-      <c r="U571" s="15" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="572" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B572" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="Q571" s="45">
+        <v>12</v>
+      </c>
+      <c r="R571" s="45">
+        <v>0</v>
+      </c>
+      <c r="S571" s="45">
+        <v>1</v>
+      </c>
+      <c r="T571" s="45">
+        <v>0</v>
+      </c>
+      <c r="U571" s="47" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="572" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C572" s="10">
-        <v>90000004</v>
+        <v>71002001</v>
       </c>
       <c r="D572" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="E572" s="11" t="s">
-        <v>488</v>
+        <v>505</v>
+      </c>
+      <c r="E572" s="10">
+        <v>1</v>
       </c>
       <c r="F572" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G572" s="11" t="s">
+      <c r="G572" s="10">
+        <v>9</v>
+      </c>
+      <c r="H572" s="10">
+        <v>0</v>
+      </c>
+      <c r="I572" s="10">
+        <v>1</v>
+      </c>
+      <c r="J572" s="10">
+        <v>0</v>
+      </c>
+      <c r="K572" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L572" s="54">
+        <v>35000</v>
+      </c>
+      <c r="M572" s="18">
+        <v>10010039</v>
+      </c>
+      <c r="N572" s="54">
+        <v>1</v>
+      </c>
+      <c r="O572" s="12">
+        <v>0</v>
+      </c>
+      <c r="P572" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q572" s="10">
+        <v>4</v>
+      </c>
+      <c r="R572" s="10">
+        <v>0</v>
+      </c>
+      <c r="S572" s="10">
+        <v>20</v>
+      </c>
+      <c r="T572" s="10">
+        <v>0</v>
+      </c>
+      <c r="U572" s="15" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="573" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C573" s="10">
+        <v>71002002</v>
+      </c>
+      <c r="D573" s="22" t="s">
+        <v>568</v>
+      </c>
+      <c r="E573" s="10">
+        <v>1</v>
+      </c>
+      <c r="F573" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G573" s="10">
+        <v>9</v>
+      </c>
+      <c r="H573" s="21">
+        <v>0</v>
+      </c>
+      <c r="I573" s="10">
+        <v>1</v>
+      </c>
+      <c r="J573" s="10">
+        <v>0</v>
+      </c>
+      <c r="K573" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L573" s="54">
+        <v>35000</v>
+      </c>
+      <c r="M573" s="18">
+        <v>10000158</v>
+      </c>
+      <c r="N573" s="54">
+        <v>1</v>
+      </c>
+      <c r="O573" s="12">
+        <v>0</v>
+      </c>
+      <c r="P573" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q573" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="R573" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="S573" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="T573" s="18">
+        <v>0</v>
+      </c>
+      <c r="U573" s="44" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="574" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C574" s="10">
+        <v>71002003</v>
+      </c>
+      <c r="D574" s="46" t="s">
+        <v>570</v>
+      </c>
+      <c r="E574" s="10">
+        <v>1</v>
+      </c>
+      <c r="F574" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G574" s="10">
+        <v>9</v>
+      </c>
+      <c r="H574" s="45">
+        <v>0</v>
+      </c>
+      <c r="I574" s="10">
+        <v>1</v>
+      </c>
+      <c r="J574" s="10">
+        <v>0</v>
+      </c>
+      <c r="K574" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L574" s="54">
+        <v>35000</v>
+      </c>
+      <c r="M574" s="18">
+        <v>10000143</v>
+      </c>
+      <c r="N574" s="54">
+        <v>1</v>
+      </c>
+      <c r="O574" s="12">
+        <v>0</v>
+      </c>
+      <c r="P574" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q574" s="45">
+        <v>13</v>
+      </c>
+      <c r="R574" s="45">
+        <v>0</v>
+      </c>
+      <c r="S574" s="45">
+        <v>5</v>
+      </c>
+      <c r="T574" s="45">
+        <v>0</v>
+      </c>
+      <c r="U574" s="47" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="575" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C575" s="10">
+        <v>71002004</v>
+      </c>
+      <c r="D575" s="46" t="s">
+        <v>571</v>
+      </c>
+      <c r="E575" s="10">
+        <v>1</v>
+      </c>
+      <c r="F575" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G575" s="10">
+        <v>9</v>
+      </c>
+      <c r="H575" s="45">
+        <v>0</v>
+      </c>
+      <c r="I575" s="10">
+        <v>1</v>
+      </c>
+      <c r="J575" s="10">
+        <v>0</v>
+      </c>
+      <c r="K575" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L575" s="54">
+        <v>35000</v>
+      </c>
+      <c r="M575" s="18">
+        <v>10000123</v>
+      </c>
+      <c r="N575" s="54">
+        <v>1</v>
+      </c>
+      <c r="O575" s="12">
+        <v>0</v>
+      </c>
+      <c r="P575" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q575" s="45">
+        <v>14</v>
+      </c>
+      <c r="R575" s="45">
+        <v>0</v>
+      </c>
+      <c r="S575" s="45">
+        <v>5</v>
+      </c>
+      <c r="T575" s="45">
+        <v>0</v>
+      </c>
+      <c r="U575" s="47" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="576" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C576" s="10">
+        <v>71002005</v>
+      </c>
+      <c r="D576" s="46" t="s">
+        <v>572</v>
+      </c>
+      <c r="E576" s="10">
+        <v>1</v>
+      </c>
+      <c r="F576" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G576" s="10">
+        <v>9</v>
+      </c>
+      <c r="H576" s="45">
+        <v>0</v>
+      </c>
+      <c r="I576" s="10">
+        <v>1</v>
+      </c>
+      <c r="J576" s="10">
+        <v>0</v>
+      </c>
+      <c r="K576" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L576" s="54">
+        <v>35000</v>
+      </c>
+      <c r="M576" s="18">
+        <v>10000102</v>
+      </c>
+      <c r="N576" s="54">
+        <v>1</v>
+      </c>
+      <c r="O576" s="12">
+        <v>0</v>
+      </c>
+      <c r="P576" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q576" s="45">
+        <v>15</v>
+      </c>
+      <c r="R576" s="45">
+        <v>0</v>
+      </c>
+      <c r="S576" s="45">
+        <v>1</v>
+      </c>
+      <c r="T576" s="45">
+        <v>0</v>
+      </c>
+      <c r="U576" s="47" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="577" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C577" s="10">
+        <v>71002006</v>
+      </c>
+      <c r="D577" s="46" t="s">
+        <v>573</v>
+      </c>
+      <c r="E577" s="10">
+        <v>1</v>
+      </c>
+      <c r="F577" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G577" s="10">
+        <v>9</v>
+      </c>
+      <c r="H577" s="45">
+        <v>0</v>
+      </c>
+      <c r="I577" s="10">
+        <v>1</v>
+      </c>
+      <c r="J577" s="10">
+        <v>0</v>
+      </c>
+      <c r="K577" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L577" s="54">
+        <v>35000</v>
+      </c>
+      <c r="M577" s="18">
+        <v>10010043</v>
+      </c>
+      <c r="N577" s="54">
+        <v>2</v>
+      </c>
+      <c r="O577" s="12">
+        <v>0</v>
+      </c>
+      <c r="P577" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q577" s="45">
+        <v>16</v>
+      </c>
+      <c r="R577" s="45">
+        <v>0</v>
+      </c>
+      <c r="S577" s="45">
+        <v>10</v>
+      </c>
+      <c r="T577" s="45">
+        <v>0</v>
+      </c>
+      <c r="U577" s="47" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="578" spans="3:21" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C578" s="10">
+        <v>71003001</v>
+      </c>
+      <c r="D578" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E578" s="10">
+        <v>1</v>
+      </c>
+      <c r="F578" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G578" s="10">
+        <v>9</v>
+      </c>
+      <c r="H578" s="10">
+        <v>0</v>
+      </c>
+      <c r="I578" s="10">
+        <v>1</v>
+      </c>
+      <c r="J578" s="10">
+        <v>0</v>
+      </c>
+      <c r="K578" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L578" s="54">
+        <v>40000</v>
+      </c>
+      <c r="M578" s="18">
+        <v>10010039</v>
+      </c>
+      <c r="N578" s="54">
+        <v>1</v>
+      </c>
+      <c r="O578" s="12">
+        <v>0</v>
+      </c>
+      <c r="P578" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q578" s="10">
+        <v>4</v>
+      </c>
+      <c r="R578" s="10">
+        <v>0</v>
+      </c>
+      <c r="S578" s="10">
+        <v>24</v>
+      </c>
+      <c r="T578" s="10">
+        <v>0</v>
+      </c>
+      <c r="U578" s="15" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="579" spans="3:21" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C579" s="10">
+        <v>71003002</v>
+      </c>
+      <c r="D579" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="E579" s="10">
+        <v>1</v>
+      </c>
+      <c r="F579" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G579" s="10">
+        <v>9</v>
+      </c>
+      <c r="H579" s="10">
+        <v>0</v>
+      </c>
+      <c r="I579" s="10">
+        <v>1</v>
+      </c>
+      <c r="J579" s="10">
+        <v>0</v>
+      </c>
+      <c r="K579" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L579" s="54">
+        <v>40000</v>
+      </c>
+      <c r="M579" s="18">
+        <v>10000102</v>
+      </c>
+      <c r="N579" s="54">
+        <v>1</v>
+      </c>
+      <c r="O579" s="12">
+        <v>0</v>
+      </c>
+      <c r="P579" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q579" s="10">
+        <v>17</v>
+      </c>
+      <c r="R579" s="10">
+        <v>0</v>
+      </c>
+      <c r="S579" s="10">
+        <v>4</v>
+      </c>
+      <c r="T579" s="10">
+        <v>0</v>
+      </c>
+      <c r="U579" s="49" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="580" spans="3:21" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C580" s="10">
+        <v>71003003</v>
+      </c>
+      <c r="D580" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="E580" s="10">
+        <v>1</v>
+      </c>
+      <c r="F580" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G580" s="10">
+        <v>9</v>
+      </c>
+      <c r="H580" s="10">
+        <v>0</v>
+      </c>
+      <c r="I580" s="10">
+        <v>1</v>
+      </c>
+      <c r="J580" s="10">
+        <v>0</v>
+      </c>
+      <c r="K580" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L580" s="54">
+        <v>40000</v>
+      </c>
+      <c r="M580" s="18">
+        <v>10000143</v>
+      </c>
+      <c r="N580" s="54">
+        <v>1</v>
+      </c>
+      <c r="O580" s="12">
+        <v>0</v>
+      </c>
+      <c r="P580" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q580" s="10">
+        <v>18</v>
+      </c>
+      <c r="R580" s="10">
+        <v>0</v>
+      </c>
+      <c r="S580" s="10">
+        <v>4</v>
+      </c>
+      <c r="T580" s="10">
+        <v>0</v>
+      </c>
+      <c r="U580" s="53" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="581" spans="3:21" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C581" s="10">
+        <v>71003004</v>
+      </c>
+      <c r="D581" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="E581" s="10">
+        <v>1</v>
+      </c>
+      <c r="F581" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G581" s="10">
+        <v>9</v>
+      </c>
+      <c r="H581" s="10">
+        <v>0</v>
+      </c>
+      <c r="I581" s="10">
+        <v>1</v>
+      </c>
+      <c r="J581" s="10">
+        <v>0</v>
+      </c>
+      <c r="K581" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L581" s="54">
+        <v>40000</v>
+      </c>
+      <c r="M581" s="18">
+        <v>10000123</v>
+      </c>
+      <c r="N581" s="54">
+        <v>1</v>
+      </c>
+      <c r="O581" s="12">
+        <v>0</v>
+      </c>
+      <c r="P581" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q581" s="10">
+        <v>19</v>
+      </c>
+      <c r="R581" s="10">
+        <v>0</v>
+      </c>
+      <c r="S581" s="10">
+        <v>10</v>
+      </c>
+      <c r="T581" s="10">
+        <v>0</v>
+      </c>
+      <c r="U581" s="53" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="582" spans="3:21" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C582" s="10">
+        <v>71003005</v>
+      </c>
+      <c r="D582" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="E582" s="10">
+        <v>1</v>
+      </c>
+      <c r="F582" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G582" s="10">
+        <v>9</v>
+      </c>
+      <c r="H582" s="21">
+        <v>0</v>
+      </c>
+      <c r="I582" s="10">
+        <v>1</v>
+      </c>
+      <c r="J582" s="10">
+        <v>0</v>
+      </c>
+      <c r="K582" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L582" s="54">
+        <v>40000</v>
+      </c>
+      <c r="M582" s="18">
+        <v>10010043</v>
+      </c>
+      <c r="N582" s="54">
+        <v>3</v>
+      </c>
+      <c r="O582" s="12">
+        <v>0</v>
+      </c>
+      <c r="P582" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q582" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="R582" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="S582" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="T582" s="18">
+        <v>0</v>
+      </c>
+      <c r="U582" s="52" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="583" spans="3:21" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C583" s="10">
+        <v>71004001</v>
+      </c>
+      <c r="D583" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E583" s="10">
+        <v>1</v>
+      </c>
+      <c r="F583" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G583" s="10">
+        <v>9</v>
+      </c>
+      <c r="H583" s="10">
+        <v>0</v>
+      </c>
+      <c r="I583" s="10">
+        <v>1</v>
+      </c>
+      <c r="J583" s="10">
+        <v>0</v>
+      </c>
+      <c r="K583" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L583" s="54">
+        <v>50000</v>
+      </c>
+      <c r="M583" s="18">
+        <v>10010039</v>
+      </c>
+      <c r="N583" s="54">
+        <v>1</v>
+      </c>
+      <c r="O583" s="12">
+        <v>0</v>
+      </c>
+      <c r="P583" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q583" s="10">
+        <v>4</v>
+      </c>
+      <c r="R583" s="10">
+        <v>0</v>
+      </c>
+      <c r="S583" s="10">
+        <v>28</v>
+      </c>
+      <c r="T583" s="10">
+        <v>0</v>
+      </c>
+      <c r="U583" s="15" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="584" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C584" s="10">
+        <v>71004002</v>
+      </c>
+      <c r="D584" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="E584" s="10">
+        <v>1</v>
+      </c>
+      <c r="F584" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G584" s="10">
+        <v>9</v>
+      </c>
+      <c r="H584" s="21">
+        <v>0</v>
+      </c>
+      <c r="I584" s="10">
+        <v>1</v>
+      </c>
+      <c r="J584" s="10">
+        <v>0</v>
+      </c>
+      <c r="K584" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L584" s="54">
+        <v>50000</v>
+      </c>
+      <c r="M584" s="18">
+        <v>10000103</v>
+      </c>
+      <c r="N584" s="54">
+        <v>1</v>
+      </c>
+      <c r="O584" s="12">
+        <v>0</v>
+      </c>
+      <c r="P584" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q584" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="R584" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="S584" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="T584" s="18">
+        <v>0</v>
+      </c>
+      <c r="U584" s="44" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="585" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C585" s="10">
+        <v>71004003</v>
+      </c>
+      <c r="D585" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="E585" s="10">
+        <v>1</v>
+      </c>
+      <c r="F585" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G585" s="10">
+        <v>9</v>
+      </c>
+      <c r="H585" s="21">
+        <v>0</v>
+      </c>
+      <c r="I585" s="10">
+        <v>1</v>
+      </c>
+      <c r="J585" s="10">
+        <v>0</v>
+      </c>
+      <c r="K585" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L585" s="54">
+        <v>50000</v>
+      </c>
+      <c r="M585" s="18">
+        <v>10010083</v>
+      </c>
+      <c r="N585" s="54">
+        <v>5</v>
+      </c>
+      <c r="O585" s="12">
+        <v>0</v>
+      </c>
+      <c r="P585" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q585" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="R585" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="S585" s="22" t="s">
+        <v>561</v>
+      </c>
+      <c r="T585" s="18">
+        <v>0</v>
+      </c>
+      <c r="U585" s="44" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="586" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C586" s="10">
+        <v>71004004</v>
+      </c>
+      <c r="D586" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="E586" s="10">
+        <v>1</v>
+      </c>
+      <c r="F586" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G586" s="10">
+        <v>9</v>
+      </c>
+      <c r="H586" s="21">
+        <v>0</v>
+      </c>
+      <c r="I586" s="10">
+        <v>1</v>
+      </c>
+      <c r="J586" s="10">
+        <v>0</v>
+      </c>
+      <c r="K586" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L586" s="54">
+        <v>50000</v>
+      </c>
+      <c r="M586" s="18">
+        <v>10000158</v>
+      </c>
+      <c r="N586" s="54">
+        <v>1</v>
+      </c>
+      <c r="O586" s="12">
+        <v>0</v>
+      </c>
+      <c r="P586" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q586" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="R586" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="S586" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="T586" s="18">
+        <v>0</v>
+      </c>
+      <c r="U586" s="44" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="587" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C587" s="10">
+        <v>71004005</v>
+      </c>
+      <c r="D587" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="E587" s="10">
+        <v>1</v>
+      </c>
+      <c r="F587" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G587" s="10">
+        <v>9</v>
+      </c>
+      <c r="H587" s="21">
+        <v>0</v>
+      </c>
+      <c r="I587" s="10">
+        <v>1</v>
+      </c>
+      <c r="J587" s="10">
+        <v>0</v>
+      </c>
+      <c r="K587" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L587" s="54">
+        <v>50000</v>
+      </c>
+      <c r="M587" s="18">
+        <v>10000143</v>
+      </c>
+      <c r="N587" s="54">
+        <v>1</v>
+      </c>
+      <c r="O587" s="12">
+        <v>0</v>
+      </c>
+      <c r="P587" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q587" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="R587" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="S587" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="T587" s="18">
+        <v>0</v>
+      </c>
+      <c r="U587" s="29" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="588" spans="3:21" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C588" s="10">
+        <v>71005001</v>
+      </c>
+      <c r="D588" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E588" s="10">
+        <v>1</v>
+      </c>
+      <c r="F588" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G588" s="10">
+        <v>9</v>
+      </c>
+      <c r="H588" s="10">
+        <v>0</v>
+      </c>
+      <c r="I588" s="10">
+        <v>1</v>
+      </c>
+      <c r="J588" s="10">
+        <v>0</v>
+      </c>
+      <c r="K588" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L588" s="54">
+        <v>50000</v>
+      </c>
+      <c r="M588" s="18">
+        <v>10010039</v>
+      </c>
+      <c r="N588" s="54">
+        <v>1</v>
+      </c>
+      <c r="O588" s="12">
+        <v>0</v>
+      </c>
+      <c r="P588" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q588" s="10">
+        <v>4</v>
+      </c>
+      <c r="R588" s="10">
+        <v>0</v>
+      </c>
+      <c r="S588" s="10">
+        <v>32</v>
+      </c>
+      <c r="T588" s="10">
+        <v>0</v>
+      </c>
+      <c r="U588" s="15" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="589" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C589" s="10">
+        <v>71005002</v>
+      </c>
+      <c r="D589" s="22" t="s">
+        <v>580</v>
+      </c>
+      <c r="E589" s="10">
+        <v>1</v>
+      </c>
+      <c r="F589" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G589" s="10">
+        <v>9</v>
+      </c>
+      <c r="H589" s="21">
+        <v>0</v>
+      </c>
+      <c r="I589" s="10">
+        <v>1</v>
+      </c>
+      <c r="J589" s="10">
+        <v>0</v>
+      </c>
+      <c r="K589" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L589" s="54">
+        <v>50000</v>
+      </c>
+      <c r="M589" s="18">
+        <v>10000143</v>
+      </c>
+      <c r="N589" s="54">
+        <v>1</v>
+      </c>
+      <c r="O589" s="12">
+        <v>0</v>
+      </c>
+      <c r="P589" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q589" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="R589" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="S589" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="T589" s="18">
+        <v>0</v>
+      </c>
+      <c r="U589" s="44" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="590" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C590" s="10">
+        <v>71005003</v>
+      </c>
+      <c r="D590" s="22" t="s">
+        <v>581</v>
+      </c>
+      <c r="E590" s="10">
+        <v>1</v>
+      </c>
+      <c r="F590" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G590" s="10">
+        <v>9</v>
+      </c>
+      <c r="H590" s="21">
+        <v>0</v>
+      </c>
+      <c r="I590" s="10">
+        <v>1</v>
+      </c>
+      <c r="J590" s="10">
+        <v>0</v>
+      </c>
+      <c r="K590" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L590" s="54">
+        <v>50000</v>
+      </c>
+      <c r="M590" s="18">
+        <v>10010046</v>
+      </c>
+      <c r="N590" s="54">
+        <v>1</v>
+      </c>
+      <c r="O590" s="12">
+        <v>0</v>
+      </c>
+      <c r="P590" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q590" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="R590" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="S590" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="T590" s="18">
+        <v>0</v>
+      </c>
+      <c r="U590" s="44" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="591" spans="3:21" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C591" s="10">
+        <v>71005004</v>
+      </c>
+      <c r="D591" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="E591" s="10">
+        <v>1</v>
+      </c>
+      <c r="F591" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G591" s="10">
+        <v>9</v>
+      </c>
+      <c r="H591" s="10">
+        <v>0</v>
+      </c>
+      <c r="I591" s="10">
+        <v>1</v>
+      </c>
+      <c r="J591" s="10">
+        <v>0</v>
+      </c>
+      <c r="K591" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L591" s="54">
+        <v>50000</v>
+      </c>
+      <c r="M591" s="18">
+        <v>10000132</v>
+      </c>
+      <c r="N591" s="54">
+        <v>10</v>
+      </c>
+      <c r="O591" s="12">
+        <v>0</v>
+      </c>
+      <c r="P591" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q591" s="10">
+        <v>19</v>
+      </c>
+      <c r="R591" s="10">
+        <v>0</v>
+      </c>
+      <c r="S591" s="10">
+        <v>20</v>
+      </c>
+      <c r="T591" s="10">
+        <v>0</v>
+      </c>
+      <c r="U591" s="53" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="592" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C592" s="10">
+        <v>71005005</v>
+      </c>
+      <c r="D592" s="46" t="s">
+        <v>583</v>
+      </c>
+      <c r="E592" s="10">
+        <v>1</v>
+      </c>
+      <c r="F592" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G592" s="10">
+        <v>9</v>
+      </c>
+      <c r="H592" s="45">
+        <v>0</v>
+      </c>
+      <c r="I592" s="10">
+        <v>1</v>
+      </c>
+      <c r="J592" s="10">
+        <v>0</v>
+      </c>
+      <c r="K592" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L592" s="54">
+        <v>50000</v>
+      </c>
+      <c r="M592" s="18">
+        <v>10000124</v>
+      </c>
+      <c r="N592" s="54">
+        <v>1</v>
+      </c>
+      <c r="O592" s="12">
+        <v>0</v>
+      </c>
+      <c r="P592" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q592" s="45">
+        <v>13</v>
+      </c>
+      <c r="R592" s="45">
+        <v>0</v>
+      </c>
+      <c r="S592" s="45">
+        <v>10</v>
+      </c>
+      <c r="T592" s="45">
+        <v>0</v>
+      </c>
+      <c r="U592" s="47" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="593" spans="2:21" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C593" s="10">
+        <v>71006001</v>
+      </c>
+      <c r="D593" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E593" s="10">
+        <v>1</v>
+      </c>
+      <c r="F593" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G593" s="10">
+        <v>9</v>
+      </c>
+      <c r="H593" s="10">
+        <v>0</v>
+      </c>
+      <c r="I593" s="10">
+        <v>1</v>
+      </c>
+      <c r="J593" s="10">
+        <v>0</v>
+      </c>
+      <c r="K593" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L593" s="54">
+        <v>50000</v>
+      </c>
+      <c r="M593" s="18">
+        <v>10010039</v>
+      </c>
+      <c r="N593" s="54">
+        <v>1</v>
+      </c>
+      <c r="O593" s="12">
+        <v>0</v>
+      </c>
+      <c r="P593" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q593" s="10">
+        <v>4</v>
+      </c>
+      <c r="R593" s="10">
+        <v>0</v>
+      </c>
+      <c r="S593" s="10">
+        <v>36</v>
+      </c>
+      <c r="T593" s="10">
+        <v>0</v>
+      </c>
+      <c r="U593" s="15" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="594" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C594" s="10">
+        <v>71006002</v>
+      </c>
+      <c r="D594" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="E594" s="10">
+        <v>1</v>
+      </c>
+      <c r="F594" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G594" s="10">
+        <v>9</v>
+      </c>
+      <c r="H594" s="21">
+        <v>0</v>
+      </c>
+      <c r="I594" s="10">
+        <v>1</v>
+      </c>
+      <c r="J594" s="10">
+        <v>0</v>
+      </c>
+      <c r="K594" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L594" s="54">
+        <v>50000</v>
+      </c>
+      <c r="M594" s="18">
+        <v>10000103</v>
+      </c>
+      <c r="N594" s="54">
+        <v>1</v>
+      </c>
+      <c r="O594" s="12">
+        <v>0</v>
+      </c>
+      <c r="P594" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q594" s="22" t="s">
+        <v>562</v>
+      </c>
+      <c r="R594" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="S594" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="T594" s="18">
+        <v>0</v>
+      </c>
+      <c r="U594" s="44" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="595" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C595" s="10">
+        <v>71006003</v>
+      </c>
+      <c r="D595" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="E595" s="10">
+        <v>1</v>
+      </c>
+      <c r="F595" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G595" s="10">
+        <v>9</v>
+      </c>
+      <c r="H595" s="21">
+        <v>0</v>
+      </c>
+      <c r="I595" s="10">
+        <v>1</v>
+      </c>
+      <c r="J595" s="10">
+        <v>0</v>
+      </c>
+      <c r="K595" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L595" s="54">
+        <v>50000</v>
+      </c>
+      <c r="M595" s="18">
+        <v>10000158</v>
+      </c>
+      <c r="N595" s="54">
+        <v>1</v>
+      </c>
+      <c r="O595" s="12">
+        <v>0</v>
+      </c>
+      <c r="P595" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q595" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="R595" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="S595" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="T595" s="18">
+        <v>0</v>
+      </c>
+      <c r="U595" s="44" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="596" spans="2:21" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C596" s="10">
+        <v>71006004</v>
+      </c>
+      <c r="D596" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E596" s="10">
+        <v>1</v>
+      </c>
+      <c r="F596" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G596" s="10">
+        <v>9</v>
+      </c>
+      <c r="H596" s="10">
+        <v>0</v>
+      </c>
+      <c r="I596" s="10">
+        <v>1</v>
+      </c>
+      <c r="J596" s="10">
+        <v>0</v>
+      </c>
+      <c r="K596" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L596" s="54">
+        <v>50000</v>
+      </c>
+      <c r="M596" s="18">
+        <v>10000132</v>
+      </c>
+      <c r="N596" s="54">
+        <v>10</v>
+      </c>
+      <c r="O596" s="12">
+        <v>0</v>
+      </c>
+      <c r="P596" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q596" s="10">
+        <v>17</v>
+      </c>
+      <c r="R596" s="10">
+        <v>0</v>
+      </c>
+      <c r="S596" s="10">
+        <v>6</v>
+      </c>
+      <c r="T596" s="10">
+        <v>0</v>
+      </c>
+      <c r="U596" s="49" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="597" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C597" s="10">
+        <v>71006005</v>
+      </c>
+      <c r="D597" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="E597" s="10">
+        <v>1</v>
+      </c>
+      <c r="F597" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G597" s="10">
+        <v>9</v>
+      </c>
+      <c r="H597" s="21">
+        <v>0</v>
+      </c>
+      <c r="I597" s="10">
+        <v>1</v>
+      </c>
+      <c r="J597" s="10">
+        <v>0</v>
+      </c>
+      <c r="K597" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L597" s="54">
+        <v>50000</v>
+      </c>
+      <c r="M597" s="18">
+        <v>10010083</v>
+      </c>
+      <c r="N597" s="54">
+        <v>5</v>
+      </c>
+      <c r="O597" s="12">
+        <v>0</v>
+      </c>
+      <c r="P597" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q597" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="R597" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="S597" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="T597" s="18">
+        <v>0</v>
+      </c>
+      <c r="U597" s="44" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="598" spans="2:21" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C598" s="10">
+        <v>71007001</v>
+      </c>
+      <c r="D598" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E598" s="10">
+        <v>1</v>
+      </c>
+      <c r="F598" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G598" s="10">
+        <v>9</v>
+      </c>
+      <c r="H598" s="10">
+        <v>0</v>
+      </c>
+      <c r="I598" s="10">
+        <v>1</v>
+      </c>
+      <c r="J598" s="10">
+        <v>0</v>
+      </c>
+      <c r="K598" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L598" s="54">
+        <v>50000</v>
+      </c>
+      <c r="M598" s="18">
+        <v>10010039</v>
+      </c>
+      <c r="N598" s="54">
+        <v>1</v>
+      </c>
+      <c r="O598" s="12">
+        <v>0</v>
+      </c>
+      <c r="P598" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q598" s="10">
+        <v>4</v>
+      </c>
+      <c r="R598" s="10">
+        <v>0</v>
+      </c>
+      <c r="S598" s="10">
+        <v>40</v>
+      </c>
+      <c r="T598" s="10">
+        <v>0</v>
+      </c>
+      <c r="U598" s="15" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="599" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C599" s="10">
+        <v>71007002</v>
+      </c>
+      <c r="D599" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="E599" s="10">
+        <v>1</v>
+      </c>
+      <c r="F599" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G599" s="10">
+        <v>9</v>
+      </c>
+      <c r="H599" s="21">
+        <v>0</v>
+      </c>
+      <c r="I599" s="10">
+        <v>1</v>
+      </c>
+      <c r="J599" s="10">
+        <v>0</v>
+      </c>
+      <c r="K599" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L599" s="54">
+        <v>50000</v>
+      </c>
+      <c r="M599" s="18">
+        <v>10000158</v>
+      </c>
+      <c r="N599" s="54">
+        <v>1</v>
+      </c>
+      <c r="O599" s="12">
+        <v>0</v>
+      </c>
+      <c r="P599" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q599" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="R599" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="S599" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="T599" s="18">
+        <v>0</v>
+      </c>
+      <c r="U599" s="44" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="600" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C600" s="10">
+        <v>71007003</v>
+      </c>
+      <c r="D600" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="E600" s="10">
+        <v>1</v>
+      </c>
+      <c r="F600" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G600" s="10">
+        <v>9</v>
+      </c>
+      <c r="H600" s="21">
+        <v>0</v>
+      </c>
+      <c r="I600" s="10">
+        <v>1</v>
+      </c>
+      <c r="J600" s="10">
+        <v>0</v>
+      </c>
+      <c r="K600" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L600" s="54">
+        <v>50000</v>
+      </c>
+      <c r="M600" s="18">
+        <v>10000104</v>
+      </c>
+      <c r="N600" s="54">
+        <v>1</v>
+      </c>
+      <c r="O600" s="12">
+        <v>0</v>
+      </c>
+      <c r="P600" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q600" s="22" t="s">
+        <v>560</v>
+      </c>
+      <c r="R600" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="S600" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="T600" s="18">
+        <v>0</v>
+      </c>
+      <c r="U600" s="44" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="601" spans="2:21" s="51" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C601" s="10">
+        <v>71007004</v>
+      </c>
+      <c r="D601" s="22" t="s">
+        <v>577</v>
+      </c>
+      <c r="E601" s="10">
+        <v>1</v>
+      </c>
+      <c r="F601" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G601" s="10">
+        <v>9</v>
+      </c>
+      <c r="H601" s="21">
+        <v>0</v>
+      </c>
+      <c r="I601" s="10">
+        <v>1</v>
+      </c>
+      <c r="J601" s="10">
+        <v>0</v>
+      </c>
+      <c r="K601" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L601" s="54">
+        <v>50000</v>
+      </c>
+      <c r="M601" s="18">
+        <v>10010083</v>
+      </c>
+      <c r="N601" s="54">
+        <v>5</v>
+      </c>
+      <c r="O601" s="12">
+        <v>0</v>
+      </c>
+      <c r="P601" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q601" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="R601" s="22" t="s">
+        <v>555</v>
+      </c>
+      <c r="S601" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="T601" s="18">
+        <v>0</v>
+      </c>
+      <c r="U601" s="52" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="602" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C602" s="10">
+        <v>71007005</v>
+      </c>
+      <c r="D602" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="E602" s="10">
+        <v>1</v>
+      </c>
+      <c r="F602" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G602" s="10">
+        <v>9</v>
+      </c>
+      <c r="H602" s="21">
+        <v>0</v>
+      </c>
+      <c r="I602" s="10">
+        <v>1</v>
+      </c>
+      <c r="J602" s="10">
+        <v>0</v>
+      </c>
+      <c r="K602" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="L602" s="54">
+        <v>50000</v>
+      </c>
+      <c r="M602" s="18">
+        <v>10000143</v>
+      </c>
+      <c r="N602" s="54">
+        <v>1</v>
+      </c>
+      <c r="O602" s="12">
+        <v>0</v>
+      </c>
+      <c r="P602" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q602" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="R602" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="S602" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="T602" s="18">
+        <v>0</v>
+      </c>
+      <c r="U602" s="29" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="603" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B603" s="24"/>
+      <c r="C603" s="10">
+        <v>80000001</v>
+      </c>
+      <c r="D603" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="E603" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F603" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G603" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="H603" s="11">
+        <v>0</v>
+      </c>
+      <c r="I603" s="10">
+        <v>1</v>
+      </c>
+      <c r="J603" s="10">
+        <v>0</v>
+      </c>
+      <c r="K603" s="10">
+        <v>18700</v>
+      </c>
+      <c r="L603" s="10">
+        <v>9125</v>
+      </c>
+      <c r="M603" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="N603" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="O603" s="12">
+        <v>0</v>
+      </c>
+      <c r="P603" s="10">
+        <v>20000102</v>
+      </c>
+      <c r="Q603" s="11">
+        <v>1</v>
+      </c>
+      <c r="R603" s="25">
+        <v>70005001</v>
+      </c>
+      <c r="S603" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="T603" s="16">
+        <v>0</v>
+      </c>
+      <c r="U603" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="604" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B604" s="25"/>
+      <c r="C604" s="10">
+        <v>80000002</v>
+      </c>
+      <c r="D604" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="E604" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F604" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G604" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="H604" s="11">
+        <v>0</v>
+      </c>
+      <c r="I604" s="10">
+        <v>1</v>
+      </c>
+      <c r="J604" s="10">
+        <v>0</v>
+      </c>
+      <c r="K604" s="10">
+        <v>18700</v>
+      </c>
+      <c r="L604" s="10">
+        <v>9125</v>
+      </c>
+      <c r="M604" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="N604" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="O604" s="12">
+        <v>0</v>
+      </c>
+      <c r="P604" s="10">
+        <v>20000102</v>
+      </c>
+      <c r="Q604" s="11">
+        <v>1</v>
+      </c>
+      <c r="R604" s="25">
+        <v>70005010</v>
+      </c>
+      <c r="S604" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="T604" s="16">
+        <v>0</v>
+      </c>
+      <c r="U604" s="15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="605" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C605" s="10">
+        <v>80000011</v>
+      </c>
+      <c r="D605" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="E605" s="10">
+        <v>1</v>
+      </c>
+      <c r="F605" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G605" s="10">
+        <v>1</v>
+      </c>
+      <c r="H605" s="10">
+        <v>0</v>
+      </c>
+      <c r="I605" s="10">
+        <v>1</v>
+      </c>
+      <c r="J605" s="10">
+        <v>0</v>
+      </c>
+      <c r="K605" s="11">
+        <v>33600</v>
+      </c>
+      <c r="L605" s="11">
+        <v>3020</v>
+      </c>
+      <c r="M605" s="10">
+        <v>0</v>
+      </c>
+      <c r="N605" s="10">
+        <v>0</v>
+      </c>
+      <c r="O605" s="12">
+        <v>0</v>
+      </c>
+      <c r="P605" s="10">
+        <v>20000024</v>
+      </c>
+      <c r="Q605" s="10">
+        <v>10</v>
+      </c>
+      <c r="R605" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="S605" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="T605" s="16">
+        <v>0</v>
+      </c>
+      <c r="U605" s="15" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="606" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B606" s="24"/>
+      <c r="C606" s="10">
+        <v>90000001</v>
+      </c>
+      <c r="D606" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="E606" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F606" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G606" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="H572" s="11">
-        <v>0</v>
-      </c>
-      <c r="I572" s="10">
-        <v>1</v>
-      </c>
-      <c r="J572" s="10">
-        <v>0</v>
-      </c>
-      <c r="K572" s="10">
+      <c r="H606" s="11">
+        <v>0</v>
+      </c>
+      <c r="I606" s="10">
+        <v>1</v>
+      </c>
+      <c r="J606" s="10">
+        <v>0</v>
+      </c>
+      <c r="K606" s="10">
         <v>18700</v>
       </c>
-      <c r="L572" s="10">
+      <c r="L606" s="10">
         <v>9125</v>
       </c>
-      <c r="M572" s="10" t="s">
+      <c r="M606" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="N572" s="10" t="s">
+      <c r="N606" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="O572" s="12">
-        <v>0</v>
-      </c>
-      <c r="P572" s="10">
+      <c r="O606" s="12">
+        <v>0</v>
+      </c>
+      <c r="P606" s="10">
         <v>20000102</v>
       </c>
-      <c r="Q572" s="11">
-        <v>1</v>
-      </c>
-      <c r="R572" s="25">
+      <c r="Q606" s="11">
+        <v>1</v>
+      </c>
+      <c r="R606" s="25">
+        <v>70005001</v>
+      </c>
+      <c r="S606" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="T606" s="16">
+        <v>0</v>
+      </c>
+      <c r="U606" s="15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="607" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B607" s="25"/>
+      <c r="C607" s="10">
+        <v>90000002</v>
+      </c>
+      <c r="D607" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="E607" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F607" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G607" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="H607" s="11">
+        <v>0</v>
+      </c>
+      <c r="I607" s="10">
+        <v>1</v>
+      </c>
+      <c r="J607" s="10">
+        <v>0</v>
+      </c>
+      <c r="K607" s="10">
+        <v>18700</v>
+      </c>
+      <c r="L607" s="10">
+        <v>9125</v>
+      </c>
+      <c r="M607" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="N607" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="O607" s="12">
+        <v>0</v>
+      </c>
+      <c r="P607" s="10">
+        <v>20000102</v>
+      </c>
+      <c r="Q607" s="11">
+        <v>1</v>
+      </c>
+      <c r="R607" s="25">
         <v>70005010</v>
       </c>
-      <c r="S572" s="11" t="s">
+      <c r="S607" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="T572" s="16">
-        <v>0</v>
-      </c>
-      <c r="U572" s="15" t="s">
+      <c r="T607" s="16">
+        <v>0</v>
+      </c>
+      <c r="U607" s="15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="608" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B608" s="24"/>
+      <c r="C608" s="10">
+        <v>90000003</v>
+      </c>
+      <c r="D608" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="E608" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F608" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G608" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="H608" s="11">
+        <v>0</v>
+      </c>
+      <c r="I608" s="10">
+        <v>1</v>
+      </c>
+      <c r="J608" s="10">
+        <v>0</v>
+      </c>
+      <c r="K608" s="10">
+        <v>18700</v>
+      </c>
+      <c r="L608" s="10">
+        <v>9125</v>
+      </c>
+      <c r="M608" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="N608" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="O608" s="12">
+        <v>0</v>
+      </c>
+      <c r="P608" s="10">
+        <v>20000102</v>
+      </c>
+      <c r="Q608" s="11">
+        <v>1</v>
+      </c>
+      <c r="R608" s="25">
+        <v>70005001</v>
+      </c>
+      <c r="S608" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="T608" s="16">
+        <v>0</v>
+      </c>
+      <c r="U608" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="609" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B609" s="25"/>
+      <c r="C609" s="10">
+        <v>90000004</v>
+      </c>
+      <c r="D609" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="E609" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F609" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G609" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="H609" s="11">
+        <v>0</v>
+      </c>
+      <c r="I609" s="10">
+        <v>1</v>
+      </c>
+      <c r="J609" s="10">
+        <v>0</v>
+      </c>
+      <c r="K609" s="10">
+        <v>18700</v>
+      </c>
+      <c r="L609" s="10">
+        <v>9125</v>
+      </c>
+      <c r="M609" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="N609" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="O609" s="12">
+        <v>0</v>
+      </c>
+      <c r="P609" s="10">
+        <v>20000102</v>
+      </c>
+      <c r="Q609" s="11">
+        <v>1</v>
+      </c>
+      <c r="R609" s="25">
+        <v>70005010</v>
+      </c>
+      <c r="S609" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="T609" s="16">
+        <v>0</v>
+      </c>
+      <c r="U609" s="15" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="573" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B573" s="24"/>
-      <c r="C573" s="10">
+    <row r="610" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B610" s="24"/>
+      <c r="C610" s="10">
         <v>90000005</v>
       </c>
-      <c r="D573" s="11" t="s">
+      <c r="D610" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="E573" s="11" t="s">
+      <c r="E610" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="F573" s="11" t="s">
+      <c r="F610" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G573" s="11" t="s">
+      <c r="G610" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="H573" s="11">
-        <v>0</v>
-      </c>
-      <c r="I573" s="10">
-        <v>1</v>
-      </c>
-      <c r="J573" s="10">
-        <v>0</v>
-      </c>
-      <c r="K573" s="10">
+      <c r="H610" s="11">
+        <v>0</v>
+      </c>
+      <c r="I610" s="10">
+        <v>1</v>
+      </c>
+      <c r="J610" s="10">
+        <v>0</v>
+      </c>
+      <c r="K610" s="10">
         <v>18700</v>
       </c>
-      <c r="L573" s="10">
+      <c r="L610" s="10">
         <v>9125</v>
       </c>
-      <c r="M573" s="10" t="s">
+      <c r="M610" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="N573" s="10" t="s">
+      <c r="N610" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="O573" s="12">
-        <v>0</v>
-      </c>
-      <c r="P573" s="10">
+      <c r="O610" s="12">
+        <v>0</v>
+      </c>
+      <c r="P610" s="10">
         <v>20000102</v>
       </c>
-      <c r="Q573" s="11">
-        <v>1</v>
-      </c>
-      <c r="R573" s="25">
+      <c r="Q610" s="11">
+        <v>1</v>
+      </c>
+      <c r="R610" s="25">
         <v>70005001</v>
       </c>
-      <c r="S573" s="11" t="s">
+      <c r="S610" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="T573" s="16">
-        <v>0</v>
-      </c>
-      <c r="U573" s="15" t="s">
+      <c r="T610" s="16">
+        <v>0</v>
+      </c>
+      <c r="U610" s="15" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="574" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B574" s="25"/>
-      <c r="C574" s="10">
+    <row r="611" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B611" s="25"/>
+      <c r="C611" s="10">
         <v>90000006</v>
       </c>
-      <c r="D574" s="11" t="s">
+      <c r="D611" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="E574" s="11" t="s">
+      <c r="E611" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="F574" s="11" t="s">
+      <c r="F611" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G574" s="11" t="s">
+      <c r="G611" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="H574" s="11">
-        <v>0</v>
-      </c>
-      <c r="I574" s="10">
-        <v>1</v>
-      </c>
-      <c r="J574" s="10">
-        <v>0</v>
-      </c>
-      <c r="K574" s="10">
+      <c r="H611" s="11">
+        <v>0</v>
+      </c>
+      <c r="I611" s="10">
+        <v>1</v>
+      </c>
+      <c r="J611" s="10">
+        <v>0</v>
+      </c>
+      <c r="K611" s="10">
         <v>18700</v>
       </c>
-      <c r="L574" s="10">
+      <c r="L611" s="10">
         <v>9125</v>
       </c>
-      <c r="M574" s="10" t="s">
+      <c r="M611" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="N574" s="10" t="s">
+      <c r="N611" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="O574" s="12">
-        <v>0</v>
-      </c>
-      <c r="P574" s="10">
+      <c r="O611" s="12">
+        <v>0</v>
+      </c>
+      <c r="P611" s="10">
         <v>20000102</v>
       </c>
-      <c r="Q574" s="11">
-        <v>1</v>
-      </c>
-      <c r="R574" s="25">
+      <c r="Q611" s="11">
+        <v>1</v>
+      </c>
+      <c r="R611" s="25">
         <v>70005010</v>
       </c>
-      <c r="S574" s="11" t="s">
+      <c r="S611" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="T574" s="16">
-        <v>0</v>
-      </c>
-      <c r="U574" s="15" t="s">
+      <c r="T611" s="16">
+        <v>0</v>
+      </c>
+      <c r="U611" s="15" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="575" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B575" s="24"/>
-      <c r="C575" s="10">
+    <row r="612" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B612" s="24"/>
+      <c r="C612" s="10">
         <v>90000007</v>
       </c>
-      <c r="D575" s="11" t="s">
+      <c r="D612" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="E575" s="11" t="s">
+      <c r="E612" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="F575" s="11" t="s">
+      <c r="F612" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G575" s="11" t="s">
+      <c r="G612" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="H575" s="11">
-        <v>0</v>
-      </c>
-      <c r="I575" s="10">
-        <v>1</v>
-      </c>
-      <c r="J575" s="10">
-        <v>0</v>
-      </c>
-      <c r="K575" s="10">
+      <c r="H612" s="11">
+        <v>0</v>
+      </c>
+      <c r="I612" s="10">
+        <v>1</v>
+      </c>
+      <c r="J612" s="10">
+        <v>0</v>
+      </c>
+      <c r="K612" s="10">
         <v>18700</v>
       </c>
-      <c r="L575" s="10">
+      <c r="L612" s="10">
         <v>9125</v>
       </c>
-      <c r="M575" s="10" t="s">
+      <c r="M612" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="N575" s="10" t="s">
+      <c r="N612" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="O575" s="12">
-        <v>0</v>
-      </c>
-      <c r="P575" s="10">
+      <c r="O612" s="12">
+        <v>0</v>
+      </c>
+      <c r="P612" s="10">
         <v>20000102</v>
       </c>
-      <c r="Q575" s="11">
-        <v>1</v>
-      </c>
-      <c r="R575" s="25">
+      <c r="Q612" s="11">
+        <v>1</v>
+      </c>
+      <c r="R612" s="25">
         <v>70005001</v>
       </c>
-      <c r="S575" s="11" t="s">
+      <c r="S612" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="T575" s="16">
-        <v>0</v>
-      </c>
-      <c r="U575" s="15" t="s">
+      <c r="T612" s="16">
+        <v>0</v>
+      </c>
+      <c r="U612" s="15" t="s">
         <v>504</v>
       </c>
     </row>
+    <row r="613" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5891A0-5765-4AFA-87A1-5D243E5A6C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC02B41-F0DF-4006-883A-4C49A798997C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3268" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3275" uniqueCount="588">
   <si>
     <t>Id</t>
   </si>
@@ -2524,6 +2524,10 @@
   </si>
   <si>
     <t>等级升到18级后,开启全新的第二章征程.</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Development</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -10548,9 +10552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10570,15 +10574,16 @@
     <col min="13" max="19" width="15.625" customWidth="1"/>
     <col min="20" max="20" width="28.125" customWidth="1"/>
     <col min="21" max="21" width="56.875" customWidth="1"/>
+    <col min="22" max="22" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
@@ -10636,8 +10641,11 @@
       <c r="U3" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
@@ -10695,8 +10703,11 @@
       <c r="U4" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V4" s="9" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="6" t="s">
         <v>37</v>
       </c>
@@ -10754,8 +10765,11 @@
       <c r="U5" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V5" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="10">
         <v>30010000</v>
       </c>
@@ -10813,8 +10827,11 @@
       <c r="U6" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="10">
         <v>30010001</v>
       </c>
@@ -10872,8 +10889,11 @@
       <c r="U7" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V7" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="10">
         <v>30010002</v>
       </c>
@@ -10931,8 +10951,11 @@
       <c r="U8" s="15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="11">
         <v>30010003</v>
       </c>
@@ -10990,8 +11013,11 @@
       <c r="U9" s="15" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V9" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="11">
         <v>30010004</v>
       </c>
@@ -11049,8 +11075,11 @@
       <c r="U10" s="15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V10" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="10">
         <v>30010005</v>
       </c>
@@ -11108,8 +11137,11 @@
       <c r="U11" s="15" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V11" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="10">
         <v>30010006</v>
       </c>
@@ -11167,8 +11199,11 @@
       <c r="U12" s="15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="10">
         <v>30010007</v>
       </c>
@@ -11226,8 +11261,11 @@
       <c r="U13" s="15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V13" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="10">
         <v>30010008</v>
       </c>
@@ -11285,8 +11323,11 @@
       <c r="U14" s="15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V14" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="10">
         <v>30010009</v>
       </c>
@@ -11344,8 +11385,9 @@
       <c r="U15" s="15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V15" s="10"/>
+    </row>
+    <row r="16" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="10">
         <v>30010010</v>
       </c>
@@ -11403,8 +11445,9 @@
       <c r="U16" s="15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V16" s="11"/>
+    </row>
+    <row r="17" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="10">
         <v>30010011</v>
       </c>
@@ -11462,8 +11505,9 @@
       <c r="U17" s="15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V17" s="11"/>
+    </row>
+    <row r="18" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="10">
         <v>30010012</v>
       </c>
@@ -11521,8 +11565,9 @@
       <c r="U18" s="15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V18" s="11"/>
+    </row>
+    <row r="19" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="10">
         <v>30010013</v>
       </c>
@@ -11580,8 +11625,9 @@
       <c r="U19" s="15" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V19" s="11"/>
+    </row>
+    <row r="20" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10">
         <v>30010014</v>
       </c>
@@ -11639,8 +11685,9 @@
       <c r="U20" s="15" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V20" s="10"/>
+    </row>
+    <row r="21" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="10">
         <v>30010015</v>
       </c>
@@ -11698,8 +11745,9 @@
       <c r="U21" s="15" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V21" s="11"/>
+    </row>
+    <row r="22" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="10">
         <v>30010016</v>
       </c>
@@ -11757,8 +11805,9 @@
       <c r="U22" s="15" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V22" s="11"/>
+    </row>
+    <row r="23" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="10">
         <v>30010017</v>
       </c>
@@ -11816,8 +11865,9 @@
       <c r="U23" s="15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V23" s="10"/>
+    </row>
+    <row r="24" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="10">
         <v>30010018</v>
       </c>
@@ -11875,8 +11925,9 @@
       <c r="U24" s="15" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V24" s="11"/>
+    </row>
+    <row r="25" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="10">
         <v>30010019</v>
       </c>
@@ -11934,8 +11985,9 @@
       <c r="U25" s="15" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V25" s="10"/>
+    </row>
+    <row r="26" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="10">
         <v>30010020</v>
       </c>
@@ -11993,8 +12045,9 @@
       <c r="U26" s="15" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V26" s="10"/>
+    </row>
+    <row r="27" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="10">
         <v>30010021</v>
       </c>
@@ -12052,8 +12105,9 @@
       <c r="U27" s="15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V27" s="10"/>
+    </row>
+    <row r="28" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="10">
         <v>30010022</v>
       </c>
@@ -12111,8 +12165,9 @@
       <c r="U28" s="15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V28" s="10"/>
+    </row>
+    <row r="29" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="10">
         <v>30010023</v>
       </c>
@@ -12170,8 +12225,9 @@
       <c r="U29" s="15" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V29" s="10"/>
+    </row>
+    <row r="30" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="10">
         <v>30010024</v>
       </c>
@@ -12229,8 +12285,9 @@
       <c r="U30" s="15" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V30" s="10"/>
+    </row>
+    <row r="31" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="10">
         <v>30010025</v>
       </c>
@@ -12288,8 +12345,9 @@
       <c r="U31" s="15" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V31" s="10"/>
+    </row>
+    <row r="32" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="10">
         <v>30010026</v>
       </c>
@@ -12347,8 +12405,9 @@
       <c r="U32" s="15" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V32" s="10"/>
+    </row>
+    <row r="33" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="10">
         <v>30010027</v>
       </c>
@@ -12406,8 +12465,9 @@
       <c r="U33" s="15" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="34" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V33" s="10"/>
+    </row>
+    <row r="34" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="10">
         <v>30010028</v>
       </c>
@@ -12465,8 +12525,9 @@
       <c r="U34" s="15" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V34" s="10"/>
+    </row>
+    <row r="35" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="10">
         <v>30010029</v>
       </c>
@@ -12524,8 +12585,9 @@
       <c r="U35" s="15" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="36" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V35" s="10"/>
+    </row>
+    <row r="36" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="10">
         <v>30010030</v>
       </c>
@@ -12583,8 +12645,9 @@
       <c r="U36" s="15" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="37" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V36" s="10"/>
+    </row>
+    <row r="37" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="10">
         <v>30010031</v>
       </c>
@@ -12642,8 +12705,9 @@
       <c r="U37" s="15" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="38" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V37" s="10"/>
+    </row>
+    <row r="38" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="10">
         <v>30010032</v>
       </c>
@@ -12701,8 +12765,9 @@
       <c r="U38" s="15" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="39" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V38" s="10"/>
+    </row>
+    <row r="39" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="10">
         <v>30010033</v>
       </c>
@@ -12760,8 +12825,9 @@
       <c r="U39" s="15" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="40" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V39" s="10"/>
+    </row>
+    <row r="40" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="10">
         <v>30010034</v>
       </c>
@@ -12819,8 +12885,9 @@
       <c r="U40" s="15" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V40" s="10"/>
+    </row>
+    <row r="41" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="10">
         <v>30010035</v>
       </c>
@@ -12878,8 +12945,9 @@
       <c r="U41" s="15" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="42" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V41" s="10"/>
+    </row>
+    <row r="42" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="10">
         <v>30010036</v>
       </c>
@@ -12937,8 +13005,9 @@
       <c r="U42" s="15" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="43" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V42" s="10"/>
+    </row>
+    <row r="43" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="10">
         <v>30010037</v>
       </c>
@@ -12996,8 +13065,9 @@
       <c r="U43" s="15" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="44" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V43" s="10"/>
+    </row>
+    <row r="44" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="10">
         <v>30010038</v>
       </c>
@@ -13055,8 +13125,9 @@
       <c r="U44" s="15" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="45" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V44" s="10"/>
+    </row>
+    <row r="45" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="10">
         <v>30010039</v>
       </c>
@@ -13114,8 +13185,9 @@
       <c r="U45" s="15" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="46" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V45" s="10"/>
+    </row>
+    <row r="46" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="10">
         <v>30010040</v>
       </c>
@@ -13173,8 +13245,9 @@
       <c r="U46" s="15" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="47" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V46" s="11"/>
+    </row>
+    <row r="47" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="10">
         <v>30010041</v>
       </c>
@@ -13232,8 +13305,9 @@
       <c r="U47" s="15" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="48" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V47" s="10"/>
+    </row>
+    <row r="48" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="10">
         <v>30010042</v>
       </c>
@@ -13291,8 +13365,9 @@
       <c r="U48" s="15" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V48" s="10"/>
+    </row>
+    <row r="49" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="10">
         <v>30010043</v>
       </c>
@@ -13350,8 +13425,9 @@
       <c r="U49" s="15" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V49" s="10"/>
+    </row>
+    <row r="50" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="21">
         <v>30010044</v>
       </c>
@@ -13409,8 +13485,9 @@
       <c r="U50" s="15" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V50" s="10"/>
+    </row>
+    <row r="51" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="10">
         <v>30020101</v>
       </c>
@@ -13468,8 +13545,9 @@
       <c r="U51" s="15" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V51" s="10"/>
+    </row>
+    <row r="52" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="10">
         <v>30020102</v>
       </c>
@@ -13527,8 +13605,9 @@
       <c r="U52" s="15" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V52" s="10"/>
+    </row>
+    <row r="53" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="10">
         <v>30020103</v>
       </c>
@@ -13586,8 +13665,9 @@
       <c r="U53" s="15" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V53" s="10"/>
+    </row>
+    <row r="54" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="10">
         <v>30020104</v>
       </c>
@@ -13645,8 +13725,9 @@
       <c r="U54" s="15" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V54" s="10"/>
+    </row>
+    <row r="55" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="10">
         <v>30020105</v>
       </c>
@@ -13704,8 +13785,9 @@
       <c r="U55" s="15" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="56" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V55" s="10"/>
+    </row>
+    <row r="56" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="10">
         <v>30020106</v>
       </c>
@@ -13763,8 +13845,9 @@
       <c r="U56" s="15" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="57" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V56" s="10"/>
+    </row>
+    <row r="57" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="10">
         <v>30020107</v>
       </c>
@@ -13822,8 +13905,9 @@
       <c r="U57" s="15" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V57" s="10"/>
+    </row>
+    <row r="58" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="10">
         <v>30020108</v>
       </c>
@@ -13881,8 +13965,9 @@
       <c r="U58" s="15" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V58" s="10"/>
+    </row>
+    <row r="59" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="10">
         <v>30020109</v>
       </c>
@@ -13940,8 +14025,9 @@
       <c r="U59" s="15" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V59" s="10"/>
+    </row>
+    <row r="60" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="10">
         <v>30020110</v>
       </c>
@@ -13999,8 +14085,9 @@
       <c r="U60" s="15" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V60" s="10"/>
+    </row>
+    <row r="61" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="10">
         <v>30020111</v>
       </c>
@@ -14058,8 +14145,9 @@
       <c r="U61" s="15" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V61" s="10"/>
+    </row>
+    <row r="62" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="10">
         <v>30020112</v>
       </c>
@@ -14117,8 +14205,9 @@
       <c r="U62" s="15" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V62" s="10"/>
+    </row>
+    <row r="63" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="10">
         <v>30020113</v>
       </c>
@@ -14176,8 +14265,9 @@
       <c r="U63" s="15" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V63" s="10"/>
+    </row>
+    <row r="64" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="10">
         <v>30020114</v>
       </c>
@@ -14235,8 +14325,9 @@
       <c r="U64" s="15" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="65" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V64" s="10"/>
+    </row>
+    <row r="65" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="10">
         <v>30020115</v>
       </c>
@@ -14294,8 +14385,9 @@
       <c r="U65" s="15" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="66" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V65" s="10"/>
+    </row>
+    <row r="66" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="10">
         <v>30020116</v>
       </c>
@@ -14353,8 +14445,9 @@
       <c r="U66" s="15" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="67" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V66" s="10"/>
+    </row>
+    <row r="67" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="10">
         <v>30020117</v>
       </c>
@@ -14412,8 +14505,9 @@
       <c r="U67" s="15" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="68" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V67" s="10"/>
+    </row>
+    <row r="68" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="10">
         <v>30020118</v>
       </c>
@@ -14471,8 +14565,9 @@
       <c r="U68" s="15" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="69" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V68" s="10"/>
+    </row>
+    <row r="69" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="10">
         <v>30020119</v>
       </c>
@@ -14530,8 +14625,9 @@
       <c r="U69" s="15" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="70" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V69" s="10"/>
+    </row>
+    <row r="70" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="10">
         <v>30020120</v>
       </c>
@@ -14589,8 +14685,9 @@
       <c r="U70" s="15" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="71" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V70" s="10"/>
+    </row>
+    <row r="71" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="10">
         <v>30020121</v>
       </c>
@@ -14648,8 +14745,9 @@
       <c r="U71" s="15" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="72" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V71" s="10"/>
+    </row>
+    <row r="72" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="10">
         <v>30020122</v>
       </c>
@@ -14707,8 +14805,9 @@
       <c r="U72" s="15" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="73" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V72" s="10"/>
+    </row>
+    <row r="73" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="10">
         <v>30020123</v>
       </c>
@@ -14766,8 +14865,9 @@
       <c r="U73" s="15" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="74" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V73" s="10"/>
+    </row>
+    <row r="74" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="10">
         <v>30020124</v>
       </c>
@@ -14825,8 +14925,9 @@
       <c r="U74" s="15" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="75" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V74" s="10"/>
+    </row>
+    <row r="75" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="10">
         <v>30030001</v>
       </c>
@@ -14884,8 +14985,9 @@
       <c r="U75" s="15" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="76" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V75" s="10"/>
+    </row>
+    <row r="76" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="10">
         <v>30030002</v>
       </c>
@@ -14943,8 +15045,9 @@
       <c r="U76" s="15" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="77" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V76" s="10"/>
+    </row>
+    <row r="77" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="10">
         <v>30030003</v>
       </c>
@@ -15002,8 +15105,9 @@
       <c r="U77" s="15" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="78" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V77" s="10"/>
+    </row>
+    <row r="78" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="10">
         <v>30030004</v>
       </c>
@@ -15061,8 +15165,9 @@
       <c r="U78" s="15" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="79" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V78" s="10"/>
+    </row>
+    <row r="79" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="10">
         <v>30030005</v>
       </c>
@@ -15120,8 +15225,9 @@
       <c r="U79" s="15" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="80" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V79" s="10"/>
+    </row>
+    <row r="80" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="10">
         <v>30030006</v>
       </c>
@@ -15179,8 +15285,9 @@
       <c r="U80" s="15" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V80" s="10"/>
+    </row>
+    <row r="81" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="10">
         <v>30030007</v>
       </c>
@@ -15238,8 +15345,9 @@
       <c r="U81" s="15" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V81" s="10"/>
+    </row>
+    <row r="82" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="10">
         <v>30030008</v>
       </c>
@@ -15297,8 +15405,9 @@
       <c r="U82" s="15" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="83" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V82" s="10"/>
+    </row>
+    <row r="83" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="10">
         <v>30030009</v>
       </c>
@@ -15356,8 +15465,9 @@
       <c r="U83" s="15" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V83" s="10"/>
+    </row>
+    <row r="84" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="10">
         <v>30030010</v>
       </c>
@@ -15415,8 +15525,9 @@
       <c r="U84" s="15" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V84" s="10"/>
+    </row>
+    <row r="85" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="10">
         <v>30030011</v>
       </c>
@@ -15474,8 +15585,9 @@
       <c r="U85" s="15" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V85" s="10"/>
+    </row>
+    <row r="86" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="10">
         <v>30030012</v>
       </c>
@@ -15533,8 +15645,9 @@
       <c r="U86" s="15" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V86" s="10"/>
+    </row>
+    <row r="87" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="10">
         <v>30030013</v>
       </c>
@@ -15592,8 +15705,9 @@
       <c r="U87" s="15" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V87" s="10"/>
+    </row>
+    <row r="88" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="10">
         <v>30030014</v>
       </c>
@@ -15651,8 +15765,9 @@
       <c r="U88" s="15" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V88" s="10"/>
+    </row>
+    <row r="89" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="10">
         <v>30030015</v>
       </c>
@@ -15710,8 +15825,9 @@
       <c r="U89" s="15" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V89" s="10"/>
+    </row>
+    <row r="90" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="10">
         <v>30030016</v>
       </c>
@@ -15769,8 +15885,9 @@
       <c r="U90" s="15" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="91" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V90" s="10"/>
+    </row>
+    <row r="91" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="10">
         <v>30030017</v>
       </c>
@@ -15828,8 +15945,9 @@
       <c r="U91" s="15" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V91" s="10"/>
+    </row>
+    <row r="92" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="10">
         <v>30030018</v>
       </c>
@@ -15887,8 +16005,9 @@
       <c r="U92" s="15" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V92" s="10"/>
+    </row>
+    <row r="93" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="10">
         <v>30030019</v>
       </c>
@@ -15946,8 +16065,9 @@
       <c r="U93" s="15" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V93" s="10"/>
+    </row>
+    <row r="94" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="10">
         <v>30030020</v>
       </c>
@@ -16005,8 +16125,9 @@
       <c r="U94" s="15" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V94" s="10"/>
+    </row>
+    <row r="95" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="10">
         <v>30030021</v>
       </c>
@@ -16064,8 +16185,9 @@
       <c r="U95" s="15" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="96" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V95" s="10"/>
+    </row>
+    <row r="96" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="10">
         <v>30030022</v>
       </c>
@@ -16123,8 +16245,9 @@
       <c r="U96" s="15" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V96" s="10"/>
+    </row>
+    <row r="97" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="10">
         <v>30030023</v>
       </c>
@@ -16182,8 +16305,9 @@
       <c r="U97" s="15" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V97" s="10"/>
+    </row>
+    <row r="98" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="10">
         <v>30030024</v>
       </c>
@@ -16241,8 +16365,9 @@
       <c r="U98" s="15" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V98" s="10"/>
+    </row>
+    <row r="99" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="10">
         <v>30030025</v>
       </c>
@@ -16300,8 +16425,9 @@
       <c r="U99" s="15" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V99" s="10"/>
+    </row>
+    <row r="100" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="10">
         <v>30030026</v>
       </c>
@@ -16359,8 +16485,9 @@
       <c r="U100" s="15" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V100" s="10"/>
+    </row>
+    <row r="101" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="10">
         <v>30030027</v>
       </c>
@@ -16418,8 +16545,9 @@
       <c r="U101" s="15" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V101" s="10"/>
+    </row>
+    <row r="102" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="10">
         <v>30030028</v>
       </c>
@@ -16477,8 +16605,9 @@
       <c r="U102" s="15" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="103" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V102" s="10"/>
+    </row>
+    <row r="103" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="10">
         <v>30030029</v>
       </c>
@@ -16536,8 +16665,9 @@
       <c r="U103" s="15" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="104" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V103" s="10"/>
+    </row>
+    <row r="104" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="10">
         <v>30030030</v>
       </c>
@@ -16595,8 +16725,9 @@
       <c r="U104" s="15" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="105" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V104" s="10"/>
+    </row>
+    <row r="105" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="10">
         <v>30030031</v>
       </c>
@@ -16654,8 +16785,9 @@
       <c r="U105" s="15" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="106" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V105" s="10"/>
+    </row>
+    <row r="106" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="10">
         <v>30030032</v>
       </c>
@@ -16713,8 +16845,9 @@
       <c r="U106" s="15" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="107" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V106" s="10"/>
+    </row>
+    <row r="107" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="10">
         <v>30030033</v>
       </c>
@@ -16772,8 +16905,9 @@
       <c r="U107" s="15" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="108" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V107" s="10"/>
+    </row>
+    <row r="108" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="10">
         <v>30030034</v>
       </c>
@@ -16831,8 +16965,9 @@
       <c r="U108" s="15" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="109" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V108" s="10"/>
+    </row>
+    <row r="109" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="10">
         <v>30030035</v>
       </c>
@@ -16890,8 +17025,9 @@
       <c r="U109" s="15" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="110" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V109" s="10"/>
+    </row>
+    <row r="110" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="10">
         <v>30030036</v>
       </c>
@@ -16949,8 +17085,9 @@
       <c r="U110" s="15" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="111" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V110" s="10"/>
+    </row>
+    <row r="111" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="10">
         <v>30030037</v>
       </c>
@@ -17008,8 +17145,9 @@
       <c r="U111" s="15" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="112" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V111" s="10"/>
+    </row>
+    <row r="112" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="10">
         <v>30030038</v>
       </c>
@@ -17067,8 +17205,9 @@
       <c r="U112" s="15" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="113" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V112" s="10"/>
+    </row>
+    <row r="113" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="10">
         <v>30040001</v>
       </c>
@@ -17126,8 +17265,9 @@
       <c r="U113" s="15" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="114" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V113" s="10"/>
+    </row>
+    <row r="114" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="10">
         <v>30040002</v>
       </c>
@@ -17185,8 +17325,9 @@
       <c r="U114" s="15" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="115" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V114" s="10"/>
+    </row>
+    <row r="115" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="10">
         <v>30040003</v>
       </c>
@@ -17244,8 +17385,9 @@
       <c r="U115" s="15" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="116" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V115" s="10"/>
+    </row>
+    <row r="116" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C116" s="10">
         <v>30040004</v>
       </c>
@@ -17303,8 +17445,9 @@
       <c r="U116" s="15" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="117" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V116" s="10"/>
+    </row>
+    <row r="117" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="10">
         <v>30040005</v>
       </c>
@@ -17362,8 +17505,9 @@
       <c r="U117" s="15" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="118" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V117" s="10"/>
+    </row>
+    <row r="118" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="10">
         <v>30040006</v>
       </c>
@@ -17421,8 +17565,9 @@
       <c r="U118" s="15" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="119" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V118" s="10"/>
+    </row>
+    <row r="119" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="10">
         <v>30040007</v>
       </c>
@@ -17480,8 +17625,9 @@
       <c r="U119" s="15" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="120" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V119" s="10"/>
+    </row>
+    <row r="120" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="10">
         <v>30040008</v>
       </c>
@@ -17539,8 +17685,9 @@
       <c r="U120" s="15" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="121" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V120" s="10"/>
+    </row>
+    <row r="121" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C121" s="10">
         <v>30040009</v>
       </c>
@@ -17598,8 +17745,9 @@
       <c r="U121" s="15" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="122" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V121" s="10"/>
+    </row>
+    <row r="122" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C122" s="10">
         <v>30040010</v>
       </c>
@@ -17657,8 +17805,9 @@
       <c r="U122" s="15" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="123" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V122" s="10"/>
+    </row>
+    <row r="123" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="10">
         <v>30040011</v>
       </c>
@@ -17716,8 +17865,9 @@
       <c r="U123" s="15" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="124" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V123" s="10"/>
+    </row>
+    <row r="124" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C124" s="10">
         <v>30040012</v>
       </c>
@@ -17775,8 +17925,9 @@
       <c r="U124" s="15" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="125" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V124" s="10"/>
+    </row>
+    <row r="125" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="10">
         <v>30040013</v>
       </c>
@@ -17834,8 +17985,9 @@
       <c r="U125" s="15" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="126" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V125" s="10"/>
+    </row>
+    <row r="126" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C126" s="10">
         <v>30040014</v>
       </c>
@@ -17893,8 +18045,9 @@
       <c r="U126" s="15" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="127" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V126" s="10"/>
+    </row>
+    <row r="127" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C127" s="10">
         <v>30040015</v>
       </c>
@@ -17952,8 +18105,9 @@
       <c r="U127" s="15" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="128" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V127" s="10"/>
+    </row>
+    <row r="128" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C128" s="10">
         <v>30040016</v>
       </c>
@@ -18011,8 +18165,9 @@
       <c r="U128" s="15" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="129" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V128" s="10"/>
+    </row>
+    <row r="129" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C129" s="10">
         <v>30040017</v>
       </c>
@@ -18070,8 +18225,9 @@
       <c r="U129" s="15" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="130" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V129" s="10"/>
+    </row>
+    <row r="130" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C130" s="10">
         <v>30040018</v>
       </c>
@@ -18129,8 +18285,9 @@
       <c r="U130" s="15" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="131" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V130" s="10"/>
+    </row>
+    <row r="131" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C131" s="10">
         <v>30040019</v>
       </c>
@@ -18188,8 +18345,9 @@
       <c r="U131" s="15" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="132" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V131" s="10"/>
+    </row>
+    <row r="132" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C132" s="10">
         <v>30040020</v>
       </c>
@@ -18247,8 +18405,9 @@
       <c r="U132" s="15" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="133" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V132" s="10"/>
+    </row>
+    <row r="133" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C133" s="10">
         <v>30040021</v>
       </c>
@@ -18306,8 +18465,9 @@
       <c r="U133" s="15" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="134" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V133" s="10"/>
+    </row>
+    <row r="134" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C134" s="10">
         <v>30040022</v>
       </c>
@@ -18365,8 +18525,9 @@
       <c r="U134" s="15" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="135" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V134" s="10"/>
+    </row>
+    <row r="135" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C135" s="10">
         <v>30040023</v>
       </c>
@@ -18424,8 +18585,9 @@
       <c r="U135" s="15" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="136" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V135" s="10"/>
+    </row>
+    <row r="136" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C136" s="10">
         <v>30040024</v>
       </c>
@@ -18483,8 +18645,9 @@
       <c r="U136" s="15" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="137" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V136" s="10"/>
+    </row>
+    <row r="137" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C137" s="10">
         <v>30040025</v>
       </c>
@@ -18542,8 +18705,9 @@
       <c r="U137" s="15" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="138" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V137" s="10"/>
+    </row>
+    <row r="138" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C138" s="10">
         <v>30040026</v>
       </c>
@@ -18601,8 +18765,9 @@
       <c r="U138" s="15" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="139" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V138" s="10"/>
+    </row>
+    <row r="139" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C139" s="10">
         <v>30040027</v>
       </c>
@@ -18660,8 +18825,9 @@
       <c r="U139" s="15" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="140" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V139" s="10"/>
+    </row>
+    <row r="140" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C140" s="10">
         <v>30040028</v>
       </c>
@@ -18719,8 +18885,9 @@
       <c r="U140" s="15" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="141" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V140" s="10"/>
+    </row>
+    <row r="141" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C141" s="10">
         <v>30040029</v>
       </c>
@@ -18778,8 +18945,9 @@
       <c r="U141" s="15" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="142" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V141" s="10"/>
+    </row>
+    <row r="142" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C142" s="10">
         <v>30040030</v>
       </c>
@@ -18837,8 +19005,9 @@
       <c r="U142" s="15" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="143" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V142" s="10"/>
+    </row>
+    <row r="143" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C143" s="10">
         <v>30040031</v>
       </c>
@@ -18896,8 +19065,9 @@
       <c r="U143" s="15" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="144" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V143" s="10"/>
+    </row>
+    <row r="144" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C144" s="10">
         <v>30040032</v>
       </c>
@@ -18955,8 +19125,9 @@
       <c r="U144" s="15" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="145" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V144" s="10"/>
+    </row>
+    <row r="145" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C145" s="10">
         <v>30040033</v>
       </c>
@@ -19014,8 +19185,9 @@
       <c r="U145" s="15" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="146" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V145" s="10"/>
+    </row>
+    <row r="146" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C146" s="10">
         <v>30050001</v>
       </c>
@@ -19073,8 +19245,9 @@
       <c r="U146" s="15" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="147" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V146" s="10"/>
+    </row>
+    <row r="147" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C147" s="10">
         <v>30050002</v>
       </c>
@@ -19132,8 +19305,9 @@
       <c r="U147" s="15" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="148" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V147" s="10"/>
+    </row>
+    <row r="148" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C148" s="10">
         <v>30050003</v>
       </c>
@@ -19191,8 +19365,9 @@
       <c r="U148" s="15" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="149" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V148" s="10"/>
+    </row>
+    <row r="149" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C149" s="10">
         <v>30050004</v>
       </c>
@@ -19250,8 +19425,9 @@
       <c r="U149" s="15" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="150" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V149" s="10"/>
+    </row>
+    <row r="150" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C150" s="10">
         <v>30050005</v>
       </c>
@@ -19309,8 +19485,9 @@
       <c r="U150" s="15" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="151" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V150" s="10"/>
+    </row>
+    <row r="151" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C151" s="10">
         <v>30050006</v>
       </c>
@@ -19368,8 +19545,9 @@
       <c r="U151" s="15" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="152" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V151" s="10"/>
+    </row>
+    <row r="152" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C152" s="10">
         <v>30050007</v>
       </c>
@@ -19427,8 +19605,9 @@
       <c r="U152" s="15" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="153" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V152" s="10"/>
+    </row>
+    <row r="153" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C153" s="10">
         <v>30050008</v>
       </c>
@@ -19486,8 +19665,9 @@
       <c r="U153" s="15" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="154" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V153" s="10"/>
+    </row>
+    <row r="154" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C154" s="10">
         <v>30050009</v>
       </c>
@@ -19545,8 +19725,9 @@
       <c r="U154" s="15" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="155" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V154" s="10"/>
+    </row>
+    <row r="155" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C155" s="10">
         <v>30050010</v>
       </c>
@@ -19604,8 +19785,9 @@
       <c r="U155" s="15" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="156" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V155" s="10"/>
+    </row>
+    <row r="156" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C156" s="10">
         <v>30050011</v>
       </c>
@@ -19663,8 +19845,9 @@
       <c r="U156" s="15" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="157" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V156" s="10"/>
+    </row>
+    <row r="157" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C157" s="10">
         <v>30050012</v>
       </c>
@@ -19722,8 +19905,9 @@
       <c r="U157" s="15" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="158" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V157" s="10"/>
+    </row>
+    <row r="158" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C158" s="10">
         <v>30050013</v>
       </c>
@@ -19781,8 +19965,9 @@
       <c r="U158" s="15" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="159" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V158" s="10"/>
+    </row>
+    <row r="159" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C159" s="10">
         <v>30050014</v>
       </c>
@@ -19840,8 +20025,9 @@
       <c r="U159" s="15" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="160" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V159" s="10"/>
+    </row>
+    <row r="160" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C160" s="10">
         <v>30050015</v>
       </c>
@@ -19899,8 +20085,9 @@
       <c r="U160" s="15" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="161" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V160" s="10"/>
+    </row>
+    <row r="161" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C161" s="10">
         <v>30050016</v>
       </c>
@@ -19958,8 +20145,9 @@
       <c r="U161" s="15" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="162" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V161" s="10"/>
+    </row>
+    <row r="162" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C162" s="10">
         <v>30050017</v>
       </c>
@@ -20017,8 +20205,9 @@
       <c r="U162" s="15" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="163" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V162" s="10"/>
+    </row>
+    <row r="163" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="10">
         <v>30050018</v>
       </c>
@@ -20076,8 +20265,9 @@
       <c r="U163" s="15" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="164" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V163" s="10"/>
+    </row>
+    <row r="164" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C164" s="10">
         <v>30050019</v>
       </c>
@@ -20135,8 +20325,9 @@
       <c r="U164" s="15" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="165" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V164" s="10"/>
+    </row>
+    <row r="165" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C165" s="10">
         <v>30050020</v>
       </c>
@@ -20194,8 +20385,9 @@
       <c r="U165" s="15" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="166" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V165" s="10"/>
+    </row>
+    <row r="166" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C166" s="10">
         <v>30050021</v>
       </c>
@@ -20253,8 +20445,9 @@
       <c r="U166" s="15" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="167" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V166" s="10"/>
+    </row>
+    <row r="167" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C167" s="10">
         <v>30050022</v>
       </c>
@@ -20312,8 +20505,9 @@
       <c r="U167" s="15" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="168" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V167" s="10"/>
+    </row>
+    <row r="168" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C168" s="10">
         <v>30050023</v>
       </c>
@@ -20371,8 +20565,9 @@
       <c r="U168" s="15" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="169" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V168" s="10"/>
+    </row>
+    <row r="169" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C169" s="10">
         <v>30050024</v>
       </c>
@@ -20430,8 +20625,9 @@
       <c r="U169" s="15" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="170" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V169" s="10"/>
+    </row>
+    <row r="170" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C170" s="10">
         <v>30050025</v>
       </c>
@@ -20489,8 +20685,9 @@
       <c r="U170" s="15" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="171" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V170" s="10"/>
+    </row>
+    <row r="171" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C171" s="21">
         <v>30090001</v>
       </c>
@@ -20548,8 +20745,9 @@
       <c r="U171" s="29" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="172" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V171" s="22"/>
+    </row>
+    <row r="172" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C172" s="21">
         <v>30090002</v>
       </c>
@@ -20607,8 +20805,9 @@
       <c r="U172" s="29" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="173" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V172" s="22"/>
+    </row>
+    <row r="173" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C173" s="21">
         <v>30090003</v>
       </c>
@@ -20666,8 +20865,9 @@
       <c r="U173" s="29" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="174" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V173" s="22"/>
+    </row>
+    <row r="174" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C174" s="21">
         <v>30090004</v>
       </c>
@@ -20725,8 +20925,9 @@
       <c r="U174" s="29" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="175" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V174" s="22"/>
+    </row>
+    <row r="175" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C175" s="21">
         <v>30090005</v>
       </c>
@@ -20784,8 +20985,9 @@
       <c r="U175" s="29" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="176" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V175" s="22"/>
+    </row>
+    <row r="176" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C176" s="21">
         <v>30090006</v>
       </c>
@@ -20843,8 +21045,9 @@
       <c r="U176" s="29" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="177" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V176" s="22"/>
+    </row>
+    <row r="177" spans="2:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C177" s="21">
         <v>30090007</v>
       </c>
@@ -20902,8 +21105,9 @@
       <c r="U177" s="29" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="178" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V177" s="22"/>
+    </row>
+    <row r="178" spans="2:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C178" s="21">
         <v>30090008</v>
       </c>
@@ -20961,8 +21165,9 @@
       <c r="U178" s="29" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="179" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V178" s="22"/>
+    </row>
+    <row r="179" spans="2:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C179" s="21">
         <v>30090009</v>
       </c>
@@ -21020,8 +21225,9 @@
       <c r="U179" s="29" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="180" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V179" s="22"/>
+    </row>
+    <row r="180" spans="2:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C180" s="21">
         <v>30090010</v>
       </c>
@@ -21079,8 +21285,9 @@
       <c r="U180" s="29" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="181" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V180" s="22"/>
+    </row>
+    <row r="181" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="23"/>
       <c r="C181" s="10">
         <v>40001101</v>
@@ -21139,8 +21346,9 @@
       <c r="U181" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="182" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V181" s="11"/>
+    </row>
+    <row r="182" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="24"/>
       <c r="C182" s="10">
         <v>40001102</v>
@@ -21199,8 +21407,9 @@
       <c r="U182" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="183" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V182" s="16"/>
+    </row>
+    <row r="183" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="24"/>
       <c r="C183" s="10">
         <v>40001103</v>
@@ -21259,8 +21468,9 @@
       <c r="U183" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="184" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V183" s="16"/>
+    </row>
+    <row r="184" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="24"/>
       <c r="C184" s="10">
         <v>40001104</v>
@@ -21319,8 +21529,9 @@
       <c r="U184" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="185" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V184" s="16"/>
+    </row>
+    <row r="185" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="24"/>
       <c r="C185" s="10">
         <v>40001105</v>
@@ -21379,8 +21590,9 @@
       <c r="U185" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="186" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V185" s="16"/>
+    </row>
+    <row r="186" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="25"/>
       <c r="C186" s="10">
         <v>40001106</v>
@@ -21439,8 +21651,9 @@
       <c r="U186" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="187" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V186" s="16"/>
+    </row>
+    <row r="187" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="24"/>
       <c r="C187" s="10">
         <v>40001107</v>
@@ -21499,8 +21712,9 @@
       <c r="U187" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="188" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V187" s="16"/>
+    </row>
+    <row r="188" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="24"/>
       <c r="C188" s="10">
         <v>40001108</v>
@@ -21559,8 +21773,9 @@
       <c r="U188" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="189" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V188" s="16"/>
+    </row>
+    <row r="189" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="25"/>
       <c r="C189" s="10">
         <v>40001109</v>
@@ -21619,8 +21834,9 @@
       <c r="U189" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="190" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V189" s="16"/>
+    </row>
+    <row r="190" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="25"/>
       <c r="C190" s="10">
         <v>40001110</v>
@@ -21679,8 +21895,9 @@
       <c r="U190" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="191" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V190" s="16"/>
+    </row>
+    <row r="191" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C191" s="10">
         <v>40001111</v>
       </c>
@@ -21738,8 +21955,9 @@
       <c r="U191" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="192" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V191" s="16"/>
+    </row>
+    <row r="192" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C192" s="10">
         <v>40001112</v>
       </c>
@@ -21797,8 +22015,9 @@
       <c r="U192" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="193" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V192" s="16"/>
+    </row>
+    <row r="193" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="23"/>
       <c r="C193" s="10">
         <f>C181+100</f>
@@ -21858,8 +22077,9 @@
       <c r="U193" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="194" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V193" s="16"/>
+    </row>
+    <row r="194" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="24"/>
       <c r="C194" s="10">
         <f t="shared" ref="C194:C216" si="0">C182+100</f>
@@ -21919,8 +22139,9 @@
       <c r="U194" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="195" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V194" s="16"/>
+    </row>
+    <row r="195" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="24"/>
       <c r="C195" s="10">
         <f t="shared" si="0"/>
@@ -21980,8 +22201,9 @@
       <c r="U195" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="196" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V195" s="16"/>
+    </row>
+    <row r="196" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="24"/>
       <c r="C196" s="10">
         <f t="shared" si="0"/>
@@ -22041,8 +22263,9 @@
       <c r="U196" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="197" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V196" s="16"/>
+    </row>
+    <row r="197" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="24"/>
       <c r="C197" s="10">
         <f t="shared" si="0"/>
@@ -22102,8 +22325,9 @@
       <c r="U197" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="198" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V197" s="16"/>
+    </row>
+    <row r="198" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="25"/>
       <c r="C198" s="10">
         <f t="shared" si="0"/>
@@ -22163,8 +22387,9 @@
       <c r="U198" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="199" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V198" s="16"/>
+    </row>
+    <row r="199" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="24"/>
       <c r="C199" s="10">
         <f t="shared" si="0"/>
@@ -22224,8 +22449,9 @@
       <c r="U199" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="200" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V199" s="16"/>
+    </row>
+    <row r="200" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="24"/>
       <c r="C200" s="10">
         <f t="shared" si="0"/>
@@ -22285,8 +22511,9 @@
       <c r="U200" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="201" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V200" s="16"/>
+    </row>
+    <row r="201" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="25"/>
       <c r="C201" s="10">
         <f t="shared" si="0"/>
@@ -22346,8 +22573,9 @@
       <c r="U201" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="202" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V201" s="16"/>
+    </row>
+    <row r="202" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="25"/>
       <c r="C202" s="10">
         <f t="shared" si="0"/>
@@ -22407,8 +22635,9 @@
       <c r="U202" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="203" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V202" s="16"/>
+    </row>
+    <row r="203" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C203" s="10">
         <f t="shared" si="0"/>
         <v>40001211</v>
@@ -22467,8 +22696,9 @@
       <c r="U203" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="204" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V203" s="16"/>
+    </row>
+    <row r="204" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C204" s="10">
         <f t="shared" si="0"/>
         <v>40001212</v>
@@ -22527,8 +22757,9 @@
       <c r="U204" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="205" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V204" s="16"/>
+    </row>
+    <row r="205" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="23"/>
       <c r="C205" s="10">
         <f t="shared" si="0"/>
@@ -22588,8 +22819,9 @@
       <c r="U205" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="206" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V205" s="16"/>
+    </row>
+    <row r="206" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="24"/>
       <c r="C206" s="10">
         <f t="shared" si="0"/>
@@ -22649,8 +22881,9 @@
       <c r="U206" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="207" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V206" s="16"/>
+    </row>
+    <row r="207" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="24"/>
       <c r="C207" s="10">
         <f t="shared" si="0"/>
@@ -22710,8 +22943,9 @@
       <c r="U207" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="208" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V207" s="16"/>
+    </row>
+    <row r="208" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="24"/>
       <c r="C208" s="10">
         <f t="shared" si="0"/>
@@ -22771,8 +23005,9 @@
       <c r="U208" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="209" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V208" s="16"/>
+    </row>
+    <row r="209" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="24"/>
       <c r="C209" s="10">
         <f t="shared" si="0"/>
@@ -22832,8 +23067,9 @@
       <c r="U209" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="210" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V209" s="16"/>
+    </row>
+    <row r="210" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="25"/>
       <c r="C210" s="10">
         <f t="shared" si="0"/>
@@ -22893,8 +23129,9 @@
       <c r="U210" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="211" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V210" s="16"/>
+    </row>
+    <row r="211" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="24"/>
       <c r="C211" s="10">
         <f t="shared" si="0"/>
@@ -22954,8 +23191,9 @@
       <c r="U211" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="212" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V211" s="16"/>
+    </row>
+    <row r="212" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="24"/>
       <c r="C212" s="10">
         <f t="shared" si="0"/>
@@ -23015,8 +23253,9 @@
       <c r="U212" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="213" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V212" s="16"/>
+    </row>
+    <row r="213" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="25"/>
       <c r="C213" s="10">
         <f t="shared" si="0"/>
@@ -23076,8 +23315,9 @@
       <c r="U213" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="214" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V213" s="16"/>
+    </row>
+    <row r="214" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="25"/>
       <c r="C214" s="10">
         <f t="shared" si="0"/>
@@ -23137,8 +23377,9 @@
       <c r="U214" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="215" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V214" s="16"/>
+    </row>
+    <row r="215" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C215" s="10">
         <f t="shared" si="0"/>
         <v>40001311</v>
@@ -23197,8 +23438,9 @@
       <c r="U215" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="216" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V215" s="16"/>
+    </row>
+    <row r="216" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C216" s="10">
         <f t="shared" si="0"/>
         <v>40001312</v>
@@ -23257,8 +23499,9 @@
       <c r="U216" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="217" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V216" s="16"/>
+    </row>
+    <row r="217" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C217" s="10">
         <v>40001401</v>
       </c>
@@ -23316,8 +23559,9 @@
       <c r="U217" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="218" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V217" s="11"/>
+    </row>
+    <row r="218" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C218" s="10">
         <v>40001402</v>
       </c>
@@ -23375,8 +23619,9 @@
       <c r="U218" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="219" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V218" s="11"/>
+    </row>
+    <row r="219" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C219" s="10">
         <v>40001403</v>
       </c>
@@ -23434,8 +23679,9 @@
       <c r="U219" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="220" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V219" s="11"/>
+    </row>
+    <row r="220" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C220" s="10">
         <v>40001404</v>
       </c>
@@ -23493,8 +23739,9 @@
       <c r="U220" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="221" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V220" s="11"/>
+    </row>
+    <row r="221" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C221" s="10">
         <v>40001405</v>
       </c>
@@ -23552,8 +23799,9 @@
       <c r="U221" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="222" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V221" s="11"/>
+    </row>
+    <row r="222" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C222" s="10">
         <v>40001406</v>
       </c>
@@ -23611,8 +23859,9 @@
       <c r="U222" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="223" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V222" s="11"/>
+    </row>
+    <row r="223" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C223" s="10">
         <v>40001407</v>
       </c>
@@ -23670,8 +23919,9 @@
       <c r="U223" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="224" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V223" s="11"/>
+    </row>
+    <row r="224" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C224" s="10">
         <v>40001408</v>
       </c>
@@ -23729,8 +23979,9 @@
       <c r="U224" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="225" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V224" s="11"/>
+    </row>
+    <row r="225" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C225" s="10">
         <v>40001409</v>
       </c>
@@ -23788,8 +24039,9 @@
       <c r="U225" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="226" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V225" s="11"/>
+    </row>
+    <row r="226" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C226" s="10">
         <v>40001410</v>
       </c>
@@ -23847,8 +24099,9 @@
       <c r="U226" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="227" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V226" s="11"/>
+    </row>
+    <row r="227" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="23"/>
       <c r="C227" s="10">
         <v>40002101</v>
@@ -23907,8 +24160,9 @@
       <c r="U227" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="228" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V227" s="11"/>
+    </row>
+    <row r="228" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="24"/>
       <c r="C228" s="10">
         <v>40002102</v>
@@ -23967,8 +24221,9 @@
       <c r="U228" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="229" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V228" s="11"/>
+    </row>
+    <row r="229" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="24"/>
       <c r="C229" s="10">
         <v>40002103</v>
@@ -24027,8 +24282,9 @@
       <c r="U229" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="230" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V229" s="11"/>
+    </row>
+    <row r="230" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="24"/>
       <c r="C230" s="10">
         <v>40002104</v>
@@ -24087,8 +24343,9 @@
       <c r="U230" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="231" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V230" s="11"/>
+    </row>
+    <row r="231" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="24"/>
       <c r="C231" s="10">
         <v>40002105</v>
@@ -24147,8 +24404,9 @@
       <c r="U231" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="232" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V231" s="11"/>
+    </row>
+    <row r="232" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="25"/>
       <c r="C232" s="10">
         <v>40002106</v>
@@ -24207,8 +24465,9 @@
       <c r="U232" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="233" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V232" s="11"/>
+    </row>
+    <row r="233" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="24"/>
       <c r="C233" s="10">
         <v>40002107</v>
@@ -24267,8 +24526,9 @@
       <c r="U233" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="234" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V233" s="11"/>
+    </row>
+    <row r="234" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="24"/>
       <c r="C234" s="10">
         <v>40002108</v>
@@ -24327,8 +24587,9 @@
       <c r="U234" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="235" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V234" s="11"/>
+    </row>
+    <row r="235" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="25"/>
       <c r="C235" s="10">
         <v>40002109</v>
@@ -24387,8 +24648,9 @@
       <c r="U235" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="236" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V235" s="11"/>
+    </row>
+    <row r="236" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="25"/>
       <c r="C236" s="10">
         <v>40002110</v>
@@ -24447,8 +24709,9 @@
       <c r="U236" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="237" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V236" s="11"/>
+    </row>
+    <row r="237" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C237" s="10">
         <v>40002111</v>
       </c>
@@ -24506,8 +24769,9 @@
       <c r="U237" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="238" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V237" s="11"/>
+    </row>
+    <row r="238" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C238" s="10">
         <v>40002112</v>
       </c>
@@ -24565,8 +24829,9 @@
       <c r="U238" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="239" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V238" s="11"/>
+    </row>
+    <row r="239" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="23"/>
       <c r="C239" s="10">
         <v>40002201</v>
@@ -24625,8 +24890,9 @@
       <c r="U239" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="240" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V239" s="11"/>
+    </row>
+    <row r="240" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="24"/>
       <c r="C240" s="10">
         <v>40002202</v>
@@ -24685,8 +24951,9 @@
       <c r="U240" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="241" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V240" s="11"/>
+    </row>
+    <row r="241" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="24"/>
       <c r="C241" s="10">
         <v>40002203</v>
@@ -24745,8 +25012,9 @@
       <c r="U241" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="242" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V241" s="11"/>
+    </row>
+    <row r="242" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="24"/>
       <c r="C242" s="10">
         <v>40002204</v>
@@ -24805,8 +25073,9 @@
       <c r="U242" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="243" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V242" s="11"/>
+    </row>
+    <row r="243" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="24"/>
       <c r="C243" s="10">
         <v>40002205</v>
@@ -24865,8 +25134,9 @@
       <c r="U243" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="244" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V243" s="11"/>
+    </row>
+    <row r="244" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="25"/>
       <c r="C244" s="10">
         <v>40002206</v>
@@ -24925,8 +25195,9 @@
       <c r="U244" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="245" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V244" s="11"/>
+    </row>
+    <row r="245" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="24"/>
       <c r="C245" s="10">
         <v>40002207</v>
@@ -24985,8 +25256,9 @@
       <c r="U245" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="246" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V245" s="11"/>
+    </row>
+    <row r="246" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="24"/>
       <c r="C246" s="10">
         <v>40002208</v>
@@ -25045,8 +25317,9 @@
       <c r="U246" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="247" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V246" s="11"/>
+    </row>
+    <row r="247" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="25"/>
       <c r="C247" s="10">
         <v>40002209</v>
@@ -25105,8 +25378,9 @@
       <c r="U247" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="248" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V247" s="11"/>
+    </row>
+    <row r="248" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="25"/>
       <c r="C248" s="10">
         <v>40002210</v>
@@ -25165,8 +25439,9 @@
       <c r="U248" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="249" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V248" s="11"/>
+    </row>
+    <row r="249" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C249" s="10">
         <v>40002211</v>
       </c>
@@ -25224,8 +25499,9 @@
       <c r="U249" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="250" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V249" s="11"/>
+    </row>
+    <row r="250" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C250" s="10">
         <v>40002212</v>
       </c>
@@ -25283,8 +25559,9 @@
       <c r="U250" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="251" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V250" s="11"/>
+    </row>
+    <row r="251" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="23"/>
       <c r="C251" s="10">
         <v>40002301</v>
@@ -25343,8 +25620,9 @@
       <c r="U251" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="252" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V251" s="11"/>
+    </row>
+    <row r="252" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="24"/>
       <c r="C252" s="10">
         <v>40002302</v>
@@ -25403,8 +25681,9 @@
       <c r="U252" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="253" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V252" s="11"/>
+    </row>
+    <row r="253" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="24"/>
       <c r="C253" s="10">
         <v>40002303</v>
@@ -25463,8 +25742,9 @@
       <c r="U253" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="254" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V253" s="11"/>
+    </row>
+    <row r="254" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="24"/>
       <c r="C254" s="10">
         <v>40002304</v>
@@ -25523,8 +25803,9 @@
       <c r="U254" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="255" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V254" s="11"/>
+    </row>
+    <row r="255" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="24"/>
       <c r="C255" s="10">
         <v>40002305</v>
@@ -25583,8 +25864,9 @@
       <c r="U255" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="256" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V255" s="11"/>
+    </row>
+    <row r="256" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="25"/>
       <c r="C256" s="10">
         <v>40002306</v>
@@ -25643,8 +25925,9 @@
       <c r="U256" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="257" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V256" s="11"/>
+    </row>
+    <row r="257" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="24"/>
       <c r="C257" s="10">
         <v>40002307</v>
@@ -25703,8 +25986,9 @@
       <c r="U257" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="258" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V257" s="11"/>
+    </row>
+    <row r="258" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="24"/>
       <c r="C258" s="10">
         <v>40002308</v>
@@ -25763,8 +26047,9 @@
       <c r="U258" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="259" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V258" s="11"/>
+    </row>
+    <row r="259" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="25"/>
       <c r="C259" s="10">
         <v>40002309</v>
@@ -25823,8 +26108,9 @@
       <c r="U259" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="260" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V259" s="11"/>
+    </row>
+    <row r="260" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="25"/>
       <c r="C260" s="10">
         <v>40002310</v>
@@ -25883,8 +26169,9 @@
       <c r="U260" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="261" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V260" s="11"/>
+    </row>
+    <row r="261" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C261" s="10">
         <v>40002311</v>
       </c>
@@ -25942,8 +26229,9 @@
       <c r="U261" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="262" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V261" s="11"/>
+    </row>
+    <row r="262" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C262" s="10">
         <v>40002312</v>
       </c>
@@ -26001,8 +26289,9 @@
       <c r="U262" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="263" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V262" s="11"/>
+    </row>
+    <row r="263" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C263" s="10">
         <v>40002401</v>
       </c>
@@ -26060,8 +26349,9 @@
       <c r="U263" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="264" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V263" s="11"/>
+    </row>
+    <row r="264" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C264" s="10">
         <v>40002402</v>
       </c>
@@ -26119,8 +26409,9 @@
       <c r="U264" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="265" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V264" s="11"/>
+    </row>
+    <row r="265" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C265" s="10">
         <v>40002403</v>
       </c>
@@ -26178,8 +26469,9 @@
       <c r="U265" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="266" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V265" s="11"/>
+    </row>
+    <row r="266" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C266" s="10">
         <v>40002404</v>
       </c>
@@ -26237,8 +26529,9 @@
       <c r="U266" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="267" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V266" s="11"/>
+    </row>
+    <row r="267" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C267" s="10">
         <v>40002405</v>
       </c>
@@ -26296,8 +26589,9 @@
       <c r="U267" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="268" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V267" s="11"/>
+    </row>
+    <row r="268" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C268" s="10">
         <v>40002406</v>
       </c>
@@ -26355,8 +26649,9 @@
       <c r="U268" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="269" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V268" s="11"/>
+    </row>
+    <row r="269" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C269" s="10">
         <v>40002407</v>
       </c>
@@ -26414,8 +26709,9 @@
       <c r="U269" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="270" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V269" s="11"/>
+    </row>
+    <row r="270" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C270" s="10">
         <v>40002408</v>
       </c>
@@ -26473,8 +26769,9 @@
       <c r="U270" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="271" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V270" s="11"/>
+    </row>
+    <row r="271" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C271" s="10">
         <v>40002409</v>
       </c>
@@ -26532,8 +26829,9 @@
       <c r="U271" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="272" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V271" s="11"/>
+    </row>
+    <row r="272" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C272" s="10">
         <v>40002410</v>
       </c>
@@ -26591,8 +26889,9 @@
       <c r="U272" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="273" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V272" s="11"/>
+    </row>
+    <row r="273" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B273" s="23"/>
       <c r="C273" s="10">
         <v>40003101</v>
@@ -26651,8 +26950,9 @@
       <c r="U273" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="274" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V273" s="11"/>
+    </row>
+    <row r="274" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="24"/>
       <c r="C274" s="10">
         <v>40003102</v>
@@ -26711,8 +27011,9 @@
       <c r="U274" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="275" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V274" s="11"/>
+    </row>
+    <row r="275" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="24"/>
       <c r="C275" s="10">
         <v>40003103</v>
@@ -26771,8 +27072,9 @@
       <c r="U275" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="276" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V275" s="11"/>
+    </row>
+    <row r="276" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="24"/>
       <c r="C276" s="10">
         <v>40003104</v>
@@ -26831,8 +27133,9 @@
       <c r="U276" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="277" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V276" s="11"/>
+    </row>
+    <row r="277" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B277" s="24"/>
       <c r="C277" s="10">
         <v>40003105</v>
@@ -26891,8 +27194,9 @@
       <c r="U277" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="278" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V277" s="11"/>
+    </row>
+    <row r="278" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B278" s="25"/>
       <c r="C278" s="10">
         <v>40003106</v>
@@ -26951,8 +27255,9 @@
       <c r="U278" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="279" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V278" s="11"/>
+    </row>
+    <row r="279" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="24"/>
       <c r="C279" s="10">
         <v>40003107</v>
@@ -27011,8 +27316,9 @@
       <c r="U279" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="280" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V279" s="11"/>
+    </row>
+    <row r="280" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="24"/>
       <c r="C280" s="10">
         <v>40003108</v>
@@ -27071,8 +27377,9 @@
       <c r="U280" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="281" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V280" s="11"/>
+    </row>
+    <row r="281" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="25"/>
       <c r="C281" s="10">
         <v>40003109</v>
@@ -27131,8 +27438,9 @@
       <c r="U281" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="282" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V281" s="11"/>
+    </row>
+    <row r="282" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="25"/>
       <c r="C282" s="10">
         <v>40003110</v>
@@ -27191,8 +27499,9 @@
       <c r="U282" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="283" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V282" s="11"/>
+    </row>
+    <row r="283" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C283" s="10">
         <v>40003111</v>
       </c>
@@ -27250,8 +27559,9 @@
       <c r="U283" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="284" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V283" s="11"/>
+    </row>
+    <row r="284" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C284" s="10">
         <v>40003112</v>
       </c>
@@ -27309,8 +27619,9 @@
       <c r="U284" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="285" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V284" s="11"/>
+    </row>
+    <row r="285" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="23"/>
       <c r="C285" s="10">
         <v>40003201</v>
@@ -27369,8 +27680,9 @@
       <c r="U285" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="286" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V285" s="11"/>
+    </row>
+    <row r="286" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="24"/>
       <c r="C286" s="10">
         <v>40003202</v>
@@ -27429,8 +27741,9 @@
       <c r="U286" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="287" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V286" s="11"/>
+    </row>
+    <row r="287" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="24"/>
       <c r="C287" s="10">
         <v>40003203</v>
@@ -27489,8 +27802,9 @@
       <c r="U287" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="288" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V287" s="11"/>
+    </row>
+    <row r="288" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="24"/>
       <c r="C288" s="10">
         <v>40003204</v>
@@ -27549,8 +27863,9 @@
       <c r="U288" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="289" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V288" s="11"/>
+    </row>
+    <row r="289" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="24"/>
       <c r="C289" s="10">
         <v>40003205</v>
@@ -27609,8 +27924,9 @@
       <c r="U289" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="290" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V289" s="11"/>
+    </row>
+    <row r="290" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="25"/>
       <c r="C290" s="10">
         <v>40003206</v>
@@ -27669,8 +27985,9 @@
       <c r="U290" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="291" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V290" s="11"/>
+    </row>
+    <row r="291" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B291" s="24"/>
       <c r="C291" s="10">
         <v>40003207</v>
@@ -27729,8 +28046,9 @@
       <c r="U291" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="292" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V291" s="11"/>
+    </row>
+    <row r="292" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="24"/>
       <c r="C292" s="10">
         <v>40003208</v>
@@ -27789,8 +28107,9 @@
       <c r="U292" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="293" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V292" s="11"/>
+    </row>
+    <row r="293" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="25"/>
       <c r="C293" s="10">
         <v>40003209</v>
@@ -27849,8 +28168,9 @@
       <c r="U293" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="294" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V293" s="11"/>
+    </row>
+    <row r="294" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="25"/>
       <c r="C294" s="10">
         <v>40003210</v>
@@ -27909,8 +28229,9 @@
       <c r="U294" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="295" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V294" s="11"/>
+    </row>
+    <row r="295" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C295" s="10">
         <v>40003211</v>
       </c>
@@ -27968,8 +28289,9 @@
       <c r="U295" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="296" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V295" s="11"/>
+    </row>
+    <row r="296" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C296" s="10">
         <v>40003212</v>
       </c>
@@ -28027,8 +28349,9 @@
       <c r="U296" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="297" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V296" s="11"/>
+    </row>
+    <row r="297" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="23"/>
       <c r="C297" s="10">
         <v>40003301</v>
@@ -28087,8 +28410,9 @@
       <c r="U297" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="298" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V297" s="11"/>
+    </row>
+    <row r="298" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="24"/>
       <c r="C298" s="10">
         <v>40003302</v>
@@ -28147,8 +28471,9 @@
       <c r="U298" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="299" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V298" s="11"/>
+    </row>
+    <row r="299" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="24"/>
       <c r="C299" s="10">
         <v>40003303</v>
@@ -28207,8 +28532,9 @@
       <c r="U299" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="300" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V299" s="11"/>
+    </row>
+    <row r="300" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="24"/>
       <c r="C300" s="10">
         <v>40003304</v>
@@ -28267,8 +28593,9 @@
       <c r="U300" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="301" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V300" s="11"/>
+    </row>
+    <row r="301" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="24"/>
       <c r="C301" s="10">
         <v>40003305</v>
@@ -28327,8 +28654,9 @@
       <c r="U301" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="302" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V301" s="11"/>
+    </row>
+    <row r="302" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="25"/>
       <c r="C302" s="10">
         <v>40003306</v>
@@ -28387,8 +28715,9 @@
       <c r="U302" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="303" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V302" s="11"/>
+    </row>
+    <row r="303" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="24"/>
       <c r="C303" s="10">
         <v>40003307</v>
@@ -28447,8 +28776,9 @@
       <c r="U303" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="304" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V303" s="11"/>
+    </row>
+    <row r="304" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="24"/>
       <c r="C304" s="10">
         <v>40003308</v>
@@ -28507,8 +28837,9 @@
       <c r="U304" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="305" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V304" s="11"/>
+    </row>
+    <row r="305" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="25"/>
       <c r="C305" s="10">
         <v>40003309</v>
@@ -28567,8 +28898,9 @@
       <c r="U305" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="306" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V305" s="11"/>
+    </row>
+    <row r="306" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B306" s="25"/>
       <c r="C306" s="10">
         <v>40003310</v>
@@ -28627,8 +28959,9 @@
       <c r="U306" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="307" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V306" s="11"/>
+    </row>
+    <row r="307" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C307" s="10">
         <v>40003311</v>
       </c>
@@ -28686,8 +29019,9 @@
       <c r="U307" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="308" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V307" s="11"/>
+    </row>
+    <row r="308" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C308" s="10">
         <v>40003312</v>
       </c>
@@ -28745,8 +29079,9 @@
       <c r="U308" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="309" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V308" s="11"/>
+    </row>
+    <row r="309" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C309" s="10">
         <v>40003401</v>
       </c>
@@ -28804,8 +29139,9 @@
       <c r="U309" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="310" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V309" s="11"/>
+    </row>
+    <row r="310" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C310" s="10">
         <v>40003402</v>
       </c>
@@ -28863,8 +29199,9 @@
       <c r="U310" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="311" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V310" s="11"/>
+    </row>
+    <row r="311" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C311" s="10">
         <v>40003403</v>
       </c>
@@ -28922,8 +29259,9 @@
       <c r="U311" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="312" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V311" s="11"/>
+    </row>
+    <row r="312" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C312" s="10">
         <v>40003404</v>
       </c>
@@ -28981,8 +29319,9 @@
       <c r="U312" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="313" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V312" s="11"/>
+    </row>
+    <row r="313" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C313" s="10">
         <v>40003405</v>
       </c>
@@ -29040,8 +29379,9 @@
       <c r="U313" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="314" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V313" s="11"/>
+    </row>
+    <row r="314" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C314" s="10">
         <v>40003406</v>
       </c>
@@ -29099,8 +29439,9 @@
       <c r="U314" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="315" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V314" s="11"/>
+    </row>
+    <row r="315" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C315" s="10">
         <v>40003407</v>
       </c>
@@ -29158,8 +29499,9 @@
       <c r="U315" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="316" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V315" s="11"/>
+    </row>
+    <row r="316" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C316" s="10">
         <v>40003408</v>
       </c>
@@ -29217,8 +29559,9 @@
       <c r="U316" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="317" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V316" s="11"/>
+    </row>
+    <row r="317" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C317" s="10">
         <v>40003409</v>
       </c>
@@ -29276,8 +29619,9 @@
       <c r="U317" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="318" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V317" s="11"/>
+    </row>
+    <row r="318" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C318" s="10">
         <v>40003410</v>
       </c>
@@ -29335,8 +29679,9 @@
       <c r="U318" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="319" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V318" s="11"/>
+    </row>
+    <row r="319" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="23"/>
       <c r="C319" s="10">
         <v>40004101</v>
@@ -29395,8 +29740,9 @@
       <c r="U319" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="320" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V319" s="11"/>
+    </row>
+    <row r="320" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="24"/>
       <c r="C320" s="10">
         <v>40004102</v>
@@ -29455,8 +29801,9 @@
       <c r="U320" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="321" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V320" s="11"/>
+    </row>
+    <row r="321" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="24"/>
       <c r="C321" s="10">
         <v>40004103</v>
@@ -29515,8 +29862,9 @@
       <c r="U321" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="322" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V321" s="11"/>
+    </row>
+    <row r="322" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B322" s="24"/>
       <c r="C322" s="10">
         <v>40004104</v>
@@ -29575,8 +29923,9 @@
       <c r="U322" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="323" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V322" s="11"/>
+    </row>
+    <row r="323" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B323" s="24"/>
       <c r="C323" s="10">
         <v>40004105</v>
@@ -29635,8 +29984,9 @@
       <c r="U323" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="324" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V323" s="11"/>
+    </row>
+    <row r="324" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B324" s="25"/>
       <c r="C324" s="10">
         <v>40004106</v>
@@ -29695,8 +30045,9 @@
       <c r="U324" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="325" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V324" s="11"/>
+    </row>
+    <row r="325" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="24"/>
       <c r="C325" s="10">
         <v>40004107</v>
@@ -29755,8 +30106,9 @@
       <c r="U325" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="326" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V325" s="11"/>
+    </row>
+    <row r="326" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B326" s="24"/>
       <c r="C326" s="10">
         <v>40004108</v>
@@ -29815,8 +30167,9 @@
       <c r="U326" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="327" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V326" s="11"/>
+    </row>
+    <row r="327" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B327" s="25"/>
       <c r="C327" s="10">
         <v>40004109</v>
@@ -29875,8 +30228,9 @@
       <c r="U327" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="328" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V327" s="11"/>
+    </row>
+    <row r="328" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B328" s="25"/>
       <c r="C328" s="10">
         <v>40004110</v>
@@ -29935,8 +30289,9 @@
       <c r="U328" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="329" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V328" s="11"/>
+    </row>
+    <row r="329" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C329" s="10">
         <v>40004111</v>
       </c>
@@ -29994,8 +30349,9 @@
       <c r="U329" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="330" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V329" s="11"/>
+    </row>
+    <row r="330" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C330" s="10">
         <v>40004112</v>
       </c>
@@ -30053,8 +30409,9 @@
       <c r="U330" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="331" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V330" s="11"/>
+    </row>
+    <row r="331" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B331" s="23"/>
       <c r="C331" s="10">
         <v>40004201</v>
@@ -30113,8 +30470,9 @@
       <c r="U331" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="332" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V331" s="11"/>
+    </row>
+    <row r="332" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B332" s="24"/>
       <c r="C332" s="10">
         <v>40004202</v>
@@ -30173,8 +30531,9 @@
       <c r="U332" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="333" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V332" s="11"/>
+    </row>
+    <row r="333" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B333" s="24"/>
       <c r="C333" s="10">
         <v>40004203</v>
@@ -30233,8 +30592,9 @@
       <c r="U333" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="334" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V333" s="11"/>
+    </row>
+    <row r="334" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B334" s="24"/>
       <c r="C334" s="10">
         <v>40004204</v>
@@ -30293,8 +30653,9 @@
       <c r="U334" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="335" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V334" s="11"/>
+    </row>
+    <row r="335" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B335" s="24"/>
       <c r="C335" s="10">
         <v>40004205</v>
@@ -30353,8 +30714,9 @@
       <c r="U335" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="336" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V335" s="11"/>
+    </row>
+    <row r="336" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B336" s="25"/>
       <c r="C336" s="10">
         <v>40004206</v>
@@ -30413,8 +30775,9 @@
       <c r="U336" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="337" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V336" s="11"/>
+    </row>
+    <row r="337" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B337" s="24"/>
       <c r="C337" s="10">
         <v>40004207</v>
@@ -30473,8 +30836,9 @@
       <c r="U337" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="338" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V337" s="11"/>
+    </row>
+    <row r="338" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B338" s="24"/>
       <c r="C338" s="10">
         <v>40004208</v>
@@ -30533,8 +30897,9 @@
       <c r="U338" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="339" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V338" s="11"/>
+    </row>
+    <row r="339" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B339" s="25"/>
       <c r="C339" s="10">
         <v>40004209</v>
@@ -30593,8 +30958,9 @@
       <c r="U339" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="340" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V339" s="11"/>
+    </row>
+    <row r="340" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B340" s="25"/>
       <c r="C340" s="10">
         <v>40004210</v>
@@ -30653,8 +31019,9 @@
       <c r="U340" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="341" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V340" s="11"/>
+    </row>
+    <row r="341" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C341" s="10">
         <v>40004211</v>
       </c>
@@ -30712,8 +31079,9 @@
       <c r="U341" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="342" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V341" s="11"/>
+    </row>
+    <row r="342" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C342" s="10">
         <v>40004212</v>
       </c>
@@ -30771,8 +31139,9 @@
       <c r="U342" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="343" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V342" s="11"/>
+    </row>
+    <row r="343" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B343" s="23"/>
       <c r="C343" s="10">
         <v>40004301</v>
@@ -30831,8 +31200,9 @@
       <c r="U343" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="344" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V343" s="11"/>
+    </row>
+    <row r="344" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B344" s="24"/>
       <c r="C344" s="10">
         <v>40004302</v>
@@ -30891,8 +31261,9 @@
       <c r="U344" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="345" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V344" s="11"/>
+    </row>
+    <row r="345" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B345" s="24"/>
       <c r="C345" s="10">
         <v>40004303</v>
@@ -30951,8 +31322,9 @@
       <c r="U345" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="346" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V345" s="11"/>
+    </row>
+    <row r="346" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B346" s="24"/>
       <c r="C346" s="10">
         <v>40004304</v>
@@ -31011,8 +31383,9 @@
       <c r="U346" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="347" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V346" s="11"/>
+    </row>
+    <row r="347" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B347" s="24"/>
       <c r="C347" s="10">
         <v>40004305</v>
@@ -31071,8 +31444,9 @@
       <c r="U347" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="348" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V347" s="11"/>
+    </row>
+    <row r="348" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B348" s="25"/>
       <c r="C348" s="10">
         <v>40004306</v>
@@ -31131,8 +31505,9 @@
       <c r="U348" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="349" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V348" s="11"/>
+    </row>
+    <row r="349" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B349" s="24"/>
       <c r="C349" s="10">
         <v>40004307</v>
@@ -31191,8 +31566,9 @@
       <c r="U349" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="350" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V349" s="11"/>
+    </row>
+    <row r="350" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B350" s="24"/>
       <c r="C350" s="10">
         <v>40004308</v>
@@ -31251,8 +31627,9 @@
       <c r="U350" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="351" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V350" s="11"/>
+    </row>
+    <row r="351" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B351" s="25"/>
       <c r="C351" s="10">
         <v>40004309</v>
@@ -31311,8 +31688,9 @@
       <c r="U351" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="352" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V351" s="11"/>
+    </row>
+    <row r="352" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B352" s="25"/>
       <c r="C352" s="10">
         <v>40004310</v>
@@ -31371,8 +31749,9 @@
       <c r="U352" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="353" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V352" s="11"/>
+    </row>
+    <row r="353" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C353" s="10">
         <v>40004311</v>
       </c>
@@ -31430,8 +31809,9 @@
       <c r="U353" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="354" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V353" s="11"/>
+    </row>
+    <row r="354" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C354" s="10">
         <v>40004312</v>
       </c>
@@ -31489,8 +31869,9 @@
       <c r="U354" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="355" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V354" s="11"/>
+    </row>
+    <row r="355" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C355" s="10">
         <v>40004401</v>
       </c>
@@ -31548,8 +31929,9 @@
       <c r="U355" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="356" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V355" s="11"/>
+    </row>
+    <row r="356" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C356" s="10">
         <v>40004402</v>
       </c>
@@ -31607,8 +31989,9 @@
       <c r="U356" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="357" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V356" s="11"/>
+    </row>
+    <row r="357" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C357" s="10">
         <v>40004403</v>
       </c>
@@ -31666,8 +32049,9 @@
       <c r="U357" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="358" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V357" s="11"/>
+    </row>
+    <row r="358" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C358" s="10">
         <v>40004404</v>
       </c>
@@ -31725,8 +32109,9 @@
       <c r="U358" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="359" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V358" s="11"/>
+    </row>
+    <row r="359" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C359" s="10">
         <v>40004405</v>
       </c>
@@ -31784,8 +32169,9 @@
       <c r="U359" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="360" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V359" s="11"/>
+    </row>
+    <row r="360" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C360" s="10">
         <v>40004406</v>
       </c>
@@ -31843,8 +32229,9 @@
       <c r="U360" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="361" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V360" s="11"/>
+    </row>
+    <row r="361" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C361" s="10">
         <v>40004407</v>
       </c>
@@ -31902,8 +32289,9 @@
       <c r="U361" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="362" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V361" s="11"/>
+    </row>
+    <row r="362" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C362" s="10">
         <v>40004408</v>
       </c>
@@ -31961,8 +32349,9 @@
       <c r="U362" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="363" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V362" s="11"/>
+    </row>
+    <row r="363" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C363" s="10">
         <v>40004409</v>
       </c>
@@ -32020,8 +32409,9 @@
       <c r="U363" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="364" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V363" s="11"/>
+    </row>
+    <row r="364" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C364" s="10">
         <v>40004410</v>
       </c>
@@ -32079,8 +32469,9 @@
       <c r="U364" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="365" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V364" s="11"/>
+    </row>
+    <row r="365" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="23"/>
       <c r="C365" s="10">
         <v>40005101</v>
@@ -32139,8 +32530,9 @@
       <c r="U365" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="366" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V365" s="11"/>
+    </row>
+    <row r="366" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B366" s="24"/>
       <c r="C366" s="10">
         <v>40005102</v>
@@ -32199,8 +32591,9 @@
       <c r="U366" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="367" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V366" s="11"/>
+    </row>
+    <row r="367" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B367" s="24"/>
       <c r="C367" s="10">
         <v>40005103</v>
@@ -32259,8 +32652,9 @@
       <c r="U367" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="368" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V367" s="11"/>
+    </row>
+    <row r="368" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="24"/>
       <c r="C368" s="10">
         <v>40005104</v>
@@ -32319,8 +32713,9 @@
       <c r="U368" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="369" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V368" s="11"/>
+    </row>
+    <row r="369" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="24"/>
       <c r="C369" s="10">
         <v>40005105</v>
@@ -32379,8 +32774,9 @@
       <c r="U369" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="370" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V369" s="11"/>
+    </row>
+    <row r="370" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="25"/>
       <c r="C370" s="10">
         <v>40005106</v>
@@ -32439,8 +32835,9 @@
       <c r="U370" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="371" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V370" s="11"/>
+    </row>
+    <row r="371" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="24"/>
       <c r="C371" s="10">
         <v>40005107</v>
@@ -32499,8 +32896,9 @@
       <c r="U371" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="372" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V371" s="11"/>
+    </row>
+    <row r="372" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="24"/>
       <c r="C372" s="10">
         <v>40005108</v>
@@ -32559,8 +32957,9 @@
       <c r="U372" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="373" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V372" s="11"/>
+    </row>
+    <row r="373" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="25"/>
       <c r="C373" s="10">
         <v>40005109</v>
@@ -32619,8 +33018,9 @@
       <c r="U373" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="374" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V373" s="11"/>
+    </row>
+    <row r="374" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="25"/>
       <c r="C374" s="10">
         <v>40005110</v>
@@ -32679,8 +33079,9 @@
       <c r="U374" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="375" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V374" s="11"/>
+    </row>
+    <row r="375" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C375" s="10">
         <v>40005111</v>
       </c>
@@ -32738,8 +33139,9 @@
       <c r="U375" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="376" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V375" s="11"/>
+    </row>
+    <row r="376" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C376" s="10">
         <v>40005112</v>
       </c>
@@ -32797,8 +33199,9 @@
       <c r="U376" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="377" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V376" s="11"/>
+    </row>
+    <row r="377" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B377" s="23"/>
       <c r="C377" s="10">
         <v>40005201</v>
@@ -32857,8 +33260,9 @@
       <c r="U377" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="378" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V377" s="11"/>
+    </row>
+    <row r="378" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B378" s="24"/>
       <c r="C378" s="10">
         <v>40005202</v>
@@ -32917,8 +33321,9 @@
       <c r="U378" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="379" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V378" s="11"/>
+    </row>
+    <row r="379" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B379" s="24"/>
       <c r="C379" s="10">
         <v>40005203</v>
@@ -32977,8 +33382,9 @@
       <c r="U379" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="380" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V379" s="11"/>
+    </row>
+    <row r="380" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B380" s="24"/>
       <c r="C380" s="10">
         <v>40005204</v>
@@ -33037,8 +33443,9 @@
       <c r="U380" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="381" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V380" s="11"/>
+    </row>
+    <row r="381" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B381" s="24"/>
       <c r="C381" s="10">
         <v>40005205</v>
@@ -33097,8 +33504,9 @@
       <c r="U381" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="382" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V381" s="11"/>
+    </row>
+    <row r="382" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B382" s="25"/>
       <c r="C382" s="10">
         <v>40005206</v>
@@ -33157,8 +33565,9 @@
       <c r="U382" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="383" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V382" s="11"/>
+    </row>
+    <row r="383" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B383" s="24"/>
       <c r="C383" s="10">
         <v>40005207</v>
@@ -33217,8 +33626,9 @@
       <c r="U383" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="384" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V383" s="11"/>
+    </row>
+    <row r="384" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B384" s="24"/>
       <c r="C384" s="10">
         <v>40005208</v>
@@ -33277,8 +33687,9 @@
       <c r="U384" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="385" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V384" s="11"/>
+    </row>
+    <row r="385" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B385" s="25"/>
       <c r="C385" s="10">
         <v>40005209</v>
@@ -33337,8 +33748,9 @@
       <c r="U385" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="386" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V385" s="11"/>
+    </row>
+    <row r="386" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B386" s="25"/>
       <c r="C386" s="10">
         <v>40005210</v>
@@ -33397,8 +33809,9 @@
       <c r="U386" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="387" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V386" s="11"/>
+    </row>
+    <row r="387" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C387" s="10">
         <v>40005211</v>
       </c>
@@ -33456,8 +33869,9 @@
       <c r="U387" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="388" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V387" s="11"/>
+    </row>
+    <row r="388" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C388" s="10">
         <v>40005212</v>
       </c>
@@ -33515,8 +33929,9 @@
       <c r="U388" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="389" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V388" s="11"/>
+    </row>
+    <row r="389" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B389" s="23"/>
       <c r="C389" s="10">
         <v>40005301</v>
@@ -33575,8 +33990,9 @@
       <c r="U389" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="390" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V389" s="11"/>
+    </row>
+    <row r="390" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B390" s="24"/>
       <c r="C390" s="10">
         <v>40005302</v>
@@ -33635,8 +34051,9 @@
       <c r="U390" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="391" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V390" s="11"/>
+    </row>
+    <row r="391" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B391" s="24"/>
       <c r="C391" s="10">
         <v>40005303</v>
@@ -33695,8 +34112,9 @@
       <c r="U391" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="392" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V391" s="11"/>
+    </row>
+    <row r="392" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B392" s="24"/>
       <c r="C392" s="10">
         <v>40005304</v>
@@ -33755,8 +34173,9 @@
       <c r="U392" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="393" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V392" s="11"/>
+    </row>
+    <row r="393" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B393" s="24"/>
       <c r="C393" s="10">
         <v>40005305</v>
@@ -33815,8 +34234,9 @@
       <c r="U393" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="394" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V393" s="11"/>
+    </row>
+    <row r="394" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B394" s="25"/>
       <c r="C394" s="10">
         <v>40005306</v>
@@ -33875,8 +34295,9 @@
       <c r="U394" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="395" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V394" s="11"/>
+    </row>
+    <row r="395" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B395" s="24"/>
       <c r="C395" s="10">
         <v>40005307</v>
@@ -33935,8 +34356,9 @@
       <c r="U395" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="396" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V395" s="11"/>
+    </row>
+    <row r="396" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B396" s="24"/>
       <c r="C396" s="10">
         <v>40005308</v>
@@ -33995,8 +34417,9 @@
       <c r="U396" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="397" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V396" s="11"/>
+    </row>
+    <row r="397" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B397" s="25"/>
       <c r="C397" s="10">
         <v>40005309</v>
@@ -34055,8 +34478,9 @@
       <c r="U397" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="398" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V397" s="11"/>
+    </row>
+    <row r="398" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B398" s="25"/>
       <c r="C398" s="10">
         <v>40005310</v>
@@ -34115,8 +34539,9 @@
       <c r="U398" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="399" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V398" s="11"/>
+    </row>
+    <row r="399" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C399" s="10">
         <v>40005311</v>
       </c>
@@ -34174,8 +34599,9 @@
       <c r="U399" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="400" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V399" s="11"/>
+    </row>
+    <row r="400" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C400" s="10">
         <v>40005312</v>
       </c>
@@ -34233,8 +34659,9 @@
       <c r="U400" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V400" s="11"/>
+    </row>
+    <row r="401" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C401" s="10">
         <v>40005401</v>
       </c>
@@ -34292,8 +34719,9 @@
       <c r="U401" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="402" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V401" s="11"/>
+    </row>
+    <row r="402" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C402" s="10">
         <v>40005402</v>
       </c>
@@ -34351,8 +34779,9 @@
       <c r="U402" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="403" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V402" s="11"/>
+    </row>
+    <row r="403" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C403" s="10">
         <v>40005403</v>
       </c>
@@ -34410,8 +34839,9 @@
       <c r="U403" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="404" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V403" s="11"/>
+    </row>
+    <row r="404" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C404" s="10">
         <v>40005404</v>
       </c>
@@ -34469,8 +34899,9 @@
       <c r="U404" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="405" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V404" s="11"/>
+    </row>
+    <row r="405" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C405" s="10">
         <v>40005405</v>
       </c>
@@ -34528,8 +34959,9 @@
       <c r="U405" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="406" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V405" s="11"/>
+    </row>
+    <row r="406" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C406" s="10">
         <v>40005406</v>
       </c>
@@ -34587,8 +35019,9 @@
       <c r="U406" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="407" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V406" s="11"/>
+    </row>
+    <row r="407" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C407" s="10">
         <v>40005407</v>
       </c>
@@ -34646,8 +35079,9 @@
       <c r="U407" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="408" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V407" s="11"/>
+    </row>
+    <row r="408" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C408" s="10">
         <v>40005408</v>
       </c>
@@ -34705,8 +35139,9 @@
       <c r="U408" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="409" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V408" s="11"/>
+    </row>
+    <row r="409" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C409" s="10">
         <v>40005409</v>
       </c>
@@ -34764,8 +35199,9 @@
       <c r="U409" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="410" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V409" s="11"/>
+    </row>
+    <row r="410" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C410" s="10">
         <v>40005410</v>
       </c>
@@ -34823,8 +35259,9 @@
       <c r="U410" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="411" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V410" s="11"/>
+    </row>
+    <row r="411" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B411" s="23"/>
       <c r="C411" s="10">
         <v>41001001</v>
@@ -34883,8 +35320,9 @@
       <c r="U411" s="15" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="412" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V411" s="11"/>
+    </row>
+    <row r="412" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B412" s="23"/>
       <c r="C412" s="10">
         <v>41001002</v>
@@ -34943,8 +35381,9 @@
       <c r="U412" s="15" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="413" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V412" s="11"/>
+    </row>
+    <row r="413" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B413" s="23"/>
       <c r="C413" s="10">
         <v>41001003</v>
@@ -35003,8 +35442,9 @@
       <c r="U413" s="15" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="414" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V413" s="11"/>
+    </row>
+    <row r="414" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B414" s="23"/>
       <c r="C414" s="10">
         <v>41001101</v>
@@ -35063,8 +35503,9 @@
       <c r="U414" s="15" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="415" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V414" s="11"/>
+    </row>
+    <row r="415" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B415" s="23"/>
       <c r="C415" s="10">
         <v>41001102</v>
@@ -35123,8 +35564,9 @@
       <c r="U415" s="15" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="416" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V415" s="11"/>
+    </row>
+    <row r="416" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B416" s="23"/>
       <c r="C416" s="10">
         <v>41001103</v>
@@ -35183,8 +35625,9 @@
       <c r="U416" s="15" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="417" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V416" s="11"/>
+    </row>
+    <row r="417" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B417" s="23"/>
       <c r="C417" s="10">
         <v>41002001</v>
@@ -35243,8 +35686,9 @@
       <c r="U417" s="15" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="418" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V417" s="11"/>
+    </row>
+    <row r="418" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B418" s="23"/>
       <c r="C418" s="10">
         <v>41002002</v>
@@ -35303,8 +35747,9 @@
       <c r="U418" s="15" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="419" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V418" s="11"/>
+    </row>
+    <row r="419" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B419" s="23"/>
       <c r="C419" s="10">
         <v>41002003</v>
@@ -35363,8 +35808,9 @@
       <c r="U419" s="15" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="420" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V419" s="11"/>
+    </row>
+    <row r="420" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B420" s="23"/>
       <c r="C420" s="10">
         <v>41002101</v>
@@ -35423,8 +35869,9 @@
       <c r="U420" s="15" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="421" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V420" s="11"/>
+    </row>
+    <row r="421" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B421" s="23"/>
       <c r="C421" s="10">
         <v>41002102</v>
@@ -35483,8 +35930,9 @@
       <c r="U421" s="15" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="422" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V421" s="11"/>
+    </row>
+    <row r="422" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B422" s="23"/>
       <c r="C422" s="10">
         <v>41002103</v>
@@ -35543,8 +35991,9 @@
       <c r="U422" s="15" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="423" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V422" s="11"/>
+    </row>
+    <row r="423" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B423" s="23"/>
       <c r="C423" s="10">
         <v>41003001</v>
@@ -35603,8 +36052,9 @@
       <c r="U423" s="15" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="424" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V423" s="11"/>
+    </row>
+    <row r="424" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B424" s="23"/>
       <c r="C424" s="10">
         <v>41003002</v>
@@ -35663,8 +36113,9 @@
       <c r="U424" s="15" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="425" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V424" s="11"/>
+    </row>
+    <row r="425" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B425" s="23"/>
       <c r="C425" s="10">
         <v>41003003</v>
@@ -35723,8 +36174,9 @@
       <c r="U425" s="15" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="426" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V425" s="11"/>
+    </row>
+    <row r="426" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B426" s="23"/>
       <c r="C426" s="10">
         <v>41003101</v>
@@ -35783,8 +36235,9 @@
       <c r="U426" s="15" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="427" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V426" s="11"/>
+    </row>
+    <row r="427" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B427" s="23"/>
       <c r="C427" s="10">
         <v>41003102</v>
@@ -35843,8 +36296,9 @@
       <c r="U427" s="15" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="428" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V427" s="11"/>
+    </row>
+    <row r="428" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B428" s="23"/>
       <c r="C428" s="10">
         <v>41003103</v>
@@ -35903,8 +36357,9 @@
       <c r="U428" s="15" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="429" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V428" s="11"/>
+    </row>
+    <row r="429" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B429" s="23"/>
       <c r="C429" s="10">
         <v>41004001</v>
@@ -35963,8 +36418,9 @@
       <c r="U429" s="15" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="430" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V429" s="11"/>
+    </row>
+    <row r="430" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B430" s="23"/>
       <c r="C430" s="10">
         <v>41004002</v>
@@ -36023,8 +36479,9 @@
       <c r="U430" s="15" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="431" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V430" s="11"/>
+    </row>
+    <row r="431" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B431" s="23"/>
       <c r="C431" s="10">
         <v>41004003</v>
@@ -36083,8 +36540,9 @@
       <c r="U431" s="15" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="432" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V431" s="11"/>
+    </row>
+    <row r="432" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B432" s="23"/>
       <c r="C432" s="10">
         <v>41004101</v>
@@ -36143,8 +36601,9 @@
       <c r="U432" s="15" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="433" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V432" s="11"/>
+    </row>
+    <row r="433" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B433" s="23"/>
       <c r="C433" s="10">
         <v>41004102</v>
@@ -36203,8 +36662,9 @@
       <c r="U433" s="15" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="434" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V433" s="11"/>
+    </row>
+    <row r="434" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B434" s="23"/>
       <c r="C434" s="10">
         <v>41004103</v>
@@ -36263,8 +36723,9 @@
       <c r="U434" s="15" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="435" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V434" s="11"/>
+    </row>
+    <row r="435" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C435" s="10">
         <v>50000001</v>
       </c>
@@ -36322,8 +36783,9 @@
       <c r="U435" s="15" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="436" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V435" s="10"/>
+    </row>
+    <row r="436" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C436" s="10">
         <v>50000002</v>
       </c>
@@ -36381,8 +36843,9 @@
       <c r="U436" s="42" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="437" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V436" s="33"/>
+    </row>
+    <row r="437" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C437" s="10">
         <v>50000003</v>
       </c>
@@ -36440,8 +36903,9 @@
       <c r="U437" s="42" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="438" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V437" s="33"/>
+    </row>
+    <row r="438" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C438" s="10">
         <v>50000101</v>
       </c>
@@ -36499,8 +36963,9 @@
       <c r="U438" s="15" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="439" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V438" s="11"/>
+    </row>
+    <row r="439" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C439" s="10">
         <v>50000102</v>
       </c>
@@ -36558,8 +37023,9 @@
       <c r="U439" s="15" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="440" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V439" s="16"/>
+    </row>
+    <row r="440" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C440" s="10">
         <v>50000103</v>
       </c>
@@ -36617,8 +37083,9 @@
       <c r="U440" s="15" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="441" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V440" s="11"/>
+    </row>
+    <row r="441" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C441" s="10">
         <v>50000104</v>
       </c>
@@ -36676,8 +37143,9 @@
       <c r="U441" s="15" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="442" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V441" s="10"/>
+    </row>
+    <row r="442" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C442" s="10">
         <v>50000105</v>
       </c>
@@ -36735,8 +37203,9 @@
       <c r="U442" s="15" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="443" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V442" s="10"/>
+    </row>
+    <row r="443" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C443" s="10">
         <v>50000201</v>
       </c>
@@ -36794,8 +37263,9 @@
       <c r="U443" s="15" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="444" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V443" s="16"/>
+    </row>
+    <row r="444" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C444" s="10">
         <v>50000202</v>
       </c>
@@ -36853,8 +37323,9 @@
       <c r="U444" s="15" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="445" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V444" s="10"/>
+    </row>
+    <row r="445" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C445" s="10">
         <v>50000203</v>
       </c>
@@ -36912,8 +37383,9 @@
       <c r="U445" s="15" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="446" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V445" s="10"/>
+    </row>
+    <row r="446" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C446" s="10">
         <v>50000301</v>
       </c>
@@ -36971,8 +37443,9 @@
       <c r="U446" s="15" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="447" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V446" s="11"/>
+    </row>
+    <row r="447" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C447" s="10">
         <v>50000302</v>
       </c>
@@ -37030,8 +37503,9 @@
       <c r="U447" s="15" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="448" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V447" s="10"/>
+    </row>
+    <row r="448" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C448" s="10">
         <v>50000303</v>
       </c>
@@ -37089,6 +37563,7 @@
       <c r="U448" s="15" t="s">
         <v>465</v>
       </c>
+      <c r="V448" s="10"/>
     </row>
     <row r="449" spans="2:28" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C449" s="10">
@@ -37148,7 +37623,7 @@
       <c r="U449" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="V449"/>
+      <c r="V449" s="11"/>
       <c r="W449"/>
       <c r="X449"/>
       <c r="Y449"/>
@@ -37214,7 +37689,7 @@
       <c r="U450" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="V450"/>
+      <c r="V450" s="11"/>
       <c r="W450"/>
       <c r="X450"/>
       <c r="Y450"/>
@@ -37280,7 +37755,7 @@
       <c r="U451" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="V451"/>
+      <c r="V451" s="11"/>
       <c r="W451"/>
       <c r="X451"/>
       <c r="Y451"/>
@@ -37346,7 +37821,7 @@
       <c r="U452" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="V452"/>
+      <c r="V452" s="11"/>
       <c r="W452"/>
       <c r="X452"/>
       <c r="Y452"/>
@@ -37412,7 +37887,7 @@
       <c r="U453" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="V453"/>
+      <c r="V453" s="11"/>
       <c r="W453"/>
       <c r="X453"/>
       <c r="Y453"/>
@@ -37478,7 +37953,7 @@
       <c r="U454" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="V454"/>
+      <c r="V454" s="11"/>
       <c r="W454"/>
       <c r="X454"/>
       <c r="Y454"/>
@@ -37544,7 +38019,7 @@
       <c r="U455" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="V455"/>
+      <c r="V455" s="11"/>
       <c r="W455"/>
       <c r="X455"/>
       <c r="Y455"/>
@@ -37610,7 +38085,7 @@
       <c r="U456" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="V456"/>
+      <c r="V456" s="11"/>
       <c r="W456"/>
       <c r="X456"/>
       <c r="Y456"/>
@@ -37676,7 +38151,7 @@
       <c r="U457" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="V457"/>
+      <c r="V457" s="11"/>
       <c r="W457"/>
       <c r="X457"/>
       <c r="Y457"/>
@@ -37742,7 +38217,7 @@
       <c r="U458" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="V458"/>
+      <c r="V458" s="11"/>
       <c r="W458"/>
       <c r="X458"/>
       <c r="Y458"/>
@@ -37808,7 +38283,7 @@
       <c r="U459" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="V459"/>
+      <c r="V459" s="11"/>
       <c r="W459"/>
       <c r="X459"/>
       <c r="Y459"/>
@@ -37874,7 +38349,7 @@
       <c r="U460" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="V460"/>
+      <c r="V460" s="11"/>
       <c r="W460"/>
       <c r="X460"/>
       <c r="Y460"/>
@@ -37940,7 +38415,7 @@
       <c r="U461" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="V461"/>
+      <c r="V461" s="11"/>
       <c r="W461"/>
       <c r="X461"/>
       <c r="Y461"/>
@@ -38007,6 +38482,7 @@
       <c r="U462" s="15" t="s">
         <v>478</v>
       </c>
+      <c r="V462" s="11"/>
     </row>
     <row r="463" spans="2:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B463" s="24"/>
@@ -38067,6 +38543,7 @@
       <c r="U463" s="15" t="s">
         <v>478</v>
       </c>
+      <c r="V463" s="16"/>
     </row>
     <row r="464" spans="2:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B464" s="24"/>
@@ -38127,8 +38604,9 @@
       <c r="U464" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="465" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V464" s="16"/>
+    </row>
+    <row r="465" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B465" s="24"/>
       <c r="C465" s="10">
         <v>70001104</v>
@@ -38187,8 +38665,9 @@
       <c r="U465" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="466" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V465" s="16"/>
+    </row>
+    <row r="466" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B466" s="24"/>
       <c r="C466" s="10">
         <v>70001105</v>
@@ -38247,8 +38726,9 @@
       <c r="U466" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="467" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V466" s="16"/>
+    </row>
+    <row r="467" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B467" s="25"/>
       <c r="C467" s="10">
         <v>70001106</v>
@@ -38307,8 +38787,9 @@
       <c r="U467" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="468" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V467" s="16"/>
+    </row>
+    <row r="468" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B468" s="24"/>
       <c r="C468" s="10">
         <v>70001107</v>
@@ -38367,8 +38848,9 @@
       <c r="U468" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="469" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V468" s="16"/>
+    </row>
+    <row r="469" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B469" s="24"/>
       <c r="C469" s="10">
         <v>70001108</v>
@@ -38427,8 +38909,9 @@
       <c r="U469" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="470" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V469" s="16"/>
+    </row>
+    <row r="470" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B470" s="25"/>
       <c r="C470" s="10">
         <v>70001109</v>
@@ -38487,8 +38970,9 @@
       <c r="U470" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="471" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V470" s="16"/>
+    </row>
+    <row r="471" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B471" s="25"/>
       <c r="C471" s="10">
         <v>70001110</v>
@@ -38547,8 +39031,9 @@
       <c r="U471" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="472" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V471" s="16"/>
+    </row>
+    <row r="472" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C472" s="10">
         <v>70001111</v>
       </c>
@@ -38606,8 +39091,9 @@
       <c r="U472" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="473" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V472" s="16"/>
+    </row>
+    <row r="473" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C473" s="10">
         <v>70001401</v>
       </c>
@@ -38665,8 +39151,9 @@
       <c r="U473" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="474" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V473" s="11"/>
+    </row>
+    <row r="474" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C474" s="10">
         <v>70001402</v>
       </c>
@@ -38724,8 +39211,9 @@
       <c r="U474" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="475" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V474" s="11"/>
+    </row>
+    <row r="475" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C475" s="10">
         <v>70001403</v>
       </c>
@@ -38783,8 +39271,9 @@
       <c r="U475" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="476" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V475" s="11"/>
+    </row>
+    <row r="476" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C476" s="10">
         <v>70001404</v>
       </c>
@@ -38842,8 +39331,9 @@
       <c r="U476" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="477" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V476" s="11"/>
+    </row>
+    <row r="477" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C477" s="10">
         <v>70001405</v>
       </c>
@@ -38901,8 +39391,9 @@
       <c r="U477" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="478" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V477" s="11"/>
+    </row>
+    <row r="478" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C478" s="10">
         <v>70001406</v>
       </c>
@@ -38960,8 +39451,9 @@
       <c r="U478" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="479" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V478" s="11"/>
+    </row>
+    <row r="479" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C479" s="10">
         <v>70001407</v>
       </c>
@@ -39019,8 +39511,9 @@
       <c r="U479" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="480" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V479" s="11"/>
+    </row>
+    <row r="480" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C480" s="10">
         <v>70001408</v>
       </c>
@@ -39078,8 +39571,9 @@
       <c r="U480" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="481" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V480" s="11"/>
+    </row>
+    <row r="481" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C481" s="10">
         <v>70001409</v>
       </c>
@@ -39137,8 +39631,9 @@
       <c r="U481" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="482" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V481" s="11"/>
+    </row>
+    <row r="482" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C482" s="10">
         <v>70001410</v>
       </c>
@@ -39196,8 +39691,9 @@
       <c r="U482" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="483" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V482" s="11"/>
+    </row>
+    <row r="483" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B483" s="23"/>
       <c r="C483" s="10">
         <v>70002101</v>
@@ -39256,8 +39752,9 @@
       <c r="U483" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="484" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V483" s="11"/>
+    </row>
+    <row r="484" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B484" s="24"/>
       <c r="C484" s="10">
         <v>70002102</v>
@@ -39316,8 +39813,9 @@
       <c r="U484" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="485" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V484" s="11"/>
+    </row>
+    <row r="485" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B485" s="24"/>
       <c r="C485" s="10">
         <v>70002103</v>
@@ -39376,8 +39874,9 @@
       <c r="U485" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="486" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V485" s="11"/>
+    </row>
+    <row r="486" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B486" s="24"/>
       <c r="C486" s="10">
         <v>70002104</v>
@@ -39436,8 +39935,9 @@
       <c r="U486" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="487" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V486" s="11"/>
+    </row>
+    <row r="487" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B487" s="24"/>
       <c r="C487" s="10">
         <v>70002105</v>
@@ -39496,8 +39996,9 @@
       <c r="U487" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="488" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V487" s="11"/>
+    </row>
+    <row r="488" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B488" s="25"/>
       <c r="C488" s="10">
         <v>70002106</v>
@@ -39556,8 +40057,9 @@
       <c r="U488" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="489" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V488" s="11"/>
+    </row>
+    <row r="489" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B489" s="24"/>
       <c r="C489" s="10">
         <v>70002107</v>
@@ -39616,8 +40118,9 @@
       <c r="U489" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="490" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V489" s="11"/>
+    </row>
+    <row r="490" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B490" s="24"/>
       <c r="C490" s="10">
         <v>70002108</v>
@@ -39676,8 +40179,9 @@
       <c r="U490" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="491" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V490" s="11"/>
+    </row>
+    <row r="491" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B491" s="25"/>
       <c r="C491" s="10">
         <v>70002109</v>
@@ -39736,8 +40240,9 @@
       <c r="U491" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="492" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V491" s="11"/>
+    </row>
+    <row r="492" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B492" s="25"/>
       <c r="C492" s="10">
         <v>70002110</v>
@@ -39796,8 +40301,9 @@
       <c r="U492" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="493" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V492" s="11"/>
+    </row>
+    <row r="493" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C493" s="10">
         <v>70002111</v>
       </c>
@@ -39855,8 +40361,9 @@
       <c r="U493" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="494" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V493" s="11"/>
+    </row>
+    <row r="494" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C494" s="10">
         <v>70002401</v>
       </c>
@@ -39914,8 +40421,9 @@
       <c r="U494" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="495" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V494" s="11"/>
+    </row>
+    <row r="495" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C495" s="10">
         <v>70002402</v>
       </c>
@@ -39973,8 +40481,9 @@
       <c r="U495" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="496" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V495" s="11"/>
+    </row>
+    <row r="496" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C496" s="10">
         <v>70002403</v>
       </c>
@@ -40032,8 +40541,9 @@
       <c r="U496" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="497" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V496" s="11"/>
+    </row>
+    <row r="497" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C497" s="10">
         <v>70002404</v>
       </c>
@@ -40091,8 +40601,9 @@
       <c r="U497" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="498" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V497" s="11"/>
+    </row>
+    <row r="498" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C498" s="10">
         <v>70002405</v>
       </c>
@@ -40150,8 +40661,9 @@
       <c r="U498" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="499" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V498" s="11"/>
+    </row>
+    <row r="499" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C499" s="10">
         <v>70002406</v>
       </c>
@@ -40209,8 +40721,9 @@
       <c r="U499" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="500" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V499" s="11"/>
+    </row>
+    <row r="500" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C500" s="10">
         <v>70002407</v>
       </c>
@@ -40268,8 +40781,9 @@
       <c r="U500" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="501" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V500" s="11"/>
+    </row>
+    <row r="501" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C501" s="10">
         <v>70002408</v>
       </c>
@@ -40327,8 +40841,9 @@
       <c r="U501" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="502" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V501" s="11"/>
+    </row>
+    <row r="502" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C502" s="10">
         <v>70002409</v>
       </c>
@@ -40386,8 +40901,9 @@
       <c r="U502" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="503" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V502" s="11"/>
+    </row>
+    <row r="503" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C503" s="10">
         <v>70002410</v>
       </c>
@@ -40445,8 +40961,9 @@
       <c r="U503" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="504" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V503" s="11"/>
+    </row>
+    <row r="504" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B504" s="23"/>
       <c r="C504" s="10">
         <v>70003101</v>
@@ -40505,8 +41022,9 @@
       <c r="U504" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="505" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V504" s="11"/>
+    </row>
+    <row r="505" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B505" s="24"/>
       <c r="C505" s="10">
         <v>70003102</v>
@@ -40565,8 +41083,9 @@
       <c r="U505" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="506" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V505" s="11"/>
+    </row>
+    <row r="506" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B506" s="24"/>
       <c r="C506" s="10">
         <v>70003103</v>
@@ -40625,8 +41144,9 @@
       <c r="U506" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="507" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V506" s="11"/>
+    </row>
+    <row r="507" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B507" s="24"/>
       <c r="C507" s="10">
         <v>70003104</v>
@@ -40685,8 +41205,9 @@
       <c r="U507" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="508" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V507" s="11"/>
+    </row>
+    <row r="508" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B508" s="24"/>
       <c r="C508" s="10">
         <v>70003105</v>
@@ -40745,8 +41266,9 @@
       <c r="U508" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="509" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V508" s="11"/>
+    </row>
+    <row r="509" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B509" s="25"/>
       <c r="C509" s="10">
         <v>70003106</v>
@@ -40805,8 +41327,9 @@
       <c r="U509" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="510" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V509" s="11"/>
+    </row>
+    <row r="510" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B510" s="24"/>
       <c r="C510" s="10">
         <v>70003107</v>
@@ -40865,8 +41388,9 @@
       <c r="U510" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="511" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V510" s="11"/>
+    </row>
+    <row r="511" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B511" s="24"/>
       <c r="C511" s="10">
         <v>70003108</v>
@@ -40925,8 +41449,9 @@
       <c r="U511" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="512" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V511" s="11"/>
+    </row>
+    <row r="512" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B512" s="25"/>
       <c r="C512" s="10">
         <v>70003109</v>
@@ -40985,8 +41510,9 @@
       <c r="U512" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="513" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V512" s="11"/>
+    </row>
+    <row r="513" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B513" s="25"/>
       <c r="C513" s="10">
         <v>70003110</v>
@@ -41045,8 +41571,9 @@
       <c r="U513" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="514" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V513" s="11"/>
+    </row>
+    <row r="514" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C514" s="10">
         <v>70003111</v>
       </c>
@@ -41104,8 +41631,9 @@
       <c r="U514" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="515" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V514" s="11"/>
+    </row>
+    <row r="515" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C515" s="10">
         <v>70003401</v>
       </c>
@@ -41163,8 +41691,9 @@
       <c r="U515" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="516" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V515" s="11"/>
+    </row>
+    <row r="516" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C516" s="10">
         <v>70003402</v>
       </c>
@@ -41222,8 +41751,9 @@
       <c r="U516" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="517" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V516" s="11"/>
+    </row>
+    <row r="517" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C517" s="10">
         <v>70003403</v>
       </c>
@@ -41281,8 +41811,9 @@
       <c r="U517" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="518" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V517" s="11"/>
+    </row>
+    <row r="518" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C518" s="10">
         <v>70003404</v>
       </c>
@@ -41340,8 +41871,9 @@
       <c r="U518" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="519" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V518" s="11"/>
+    </row>
+    <row r="519" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C519" s="10">
         <v>70003405</v>
       </c>
@@ -41399,8 +41931,9 @@
       <c r="U519" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="520" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V519" s="11"/>
+    </row>
+    <row r="520" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C520" s="10">
         <v>70003406</v>
       </c>
@@ -41458,8 +41991,9 @@
       <c r="U520" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="521" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V520" s="11"/>
+    </row>
+    <row r="521" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C521" s="10">
         <v>70003407</v>
       </c>
@@ -41517,8 +42051,9 @@
       <c r="U521" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="522" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V521" s="11"/>
+    </row>
+    <row r="522" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C522" s="10">
         <v>70003408</v>
       </c>
@@ -41576,8 +42111,9 @@
       <c r="U522" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="523" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V522" s="11"/>
+    </row>
+    <row r="523" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C523" s="10">
         <v>70003409</v>
       </c>
@@ -41635,8 +42171,9 @@
       <c r="U523" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="524" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V523" s="11"/>
+    </row>
+    <row r="524" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C524" s="10">
         <v>70003410</v>
       </c>
@@ -41694,8 +42231,9 @@
       <c r="U524" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="525" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V524" s="11"/>
+    </row>
+    <row r="525" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B525" s="23"/>
       <c r="C525" s="10">
         <v>70004101</v>
@@ -41754,8 +42292,9 @@
       <c r="U525" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="526" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V525" s="11"/>
+    </row>
+    <row r="526" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B526" s="24"/>
       <c r="C526" s="10">
         <v>70004102</v>
@@ -41814,8 +42353,9 @@
       <c r="U526" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="527" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V526" s="11"/>
+    </row>
+    <row r="527" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B527" s="24"/>
       <c r="C527" s="10">
         <v>70004103</v>
@@ -41874,8 +42414,9 @@
       <c r="U527" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="528" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V527" s="11"/>
+    </row>
+    <row r="528" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B528" s="24"/>
       <c r="C528" s="10">
         <v>70004104</v>
@@ -41934,8 +42475,9 @@
       <c r="U528" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="529" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V528" s="11"/>
+    </row>
+    <row r="529" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B529" s="24"/>
       <c r="C529" s="10">
         <v>70004105</v>
@@ -41994,8 +42536,9 @@
       <c r="U529" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="530" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V529" s="11"/>
+    </row>
+    <row r="530" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B530" s="25"/>
       <c r="C530" s="10">
         <v>70004106</v>
@@ -42054,8 +42597,9 @@
       <c r="U530" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="531" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V530" s="11"/>
+    </row>
+    <row r="531" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B531" s="24"/>
       <c r="C531" s="10">
         <v>70004107</v>
@@ -42114,8 +42658,9 @@
       <c r="U531" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="532" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V531" s="11"/>
+    </row>
+    <row r="532" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B532" s="24"/>
       <c r="C532" s="10">
         <v>70004108</v>
@@ -42174,8 +42719,9 @@
       <c r="U532" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="533" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V532" s="11"/>
+    </row>
+    <row r="533" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B533" s="25"/>
       <c r="C533" s="10">
         <v>70004109</v>
@@ -42234,8 +42780,9 @@
       <c r="U533" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="534" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V533" s="11"/>
+    </row>
+    <row r="534" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B534" s="25"/>
       <c r="C534" s="10">
         <v>70004110</v>
@@ -42294,8 +42841,9 @@
       <c r="U534" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="535" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V534" s="11"/>
+    </row>
+    <row r="535" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C535" s="10">
         <v>70004111</v>
       </c>
@@ -42353,8 +42901,9 @@
       <c r="U535" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="536" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V535" s="11"/>
+    </row>
+    <row r="536" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C536" s="10">
         <v>70004401</v>
       </c>
@@ -42412,8 +42961,9 @@
       <c r="U536" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="537" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V536" s="11"/>
+    </row>
+    <row r="537" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C537" s="10">
         <v>70004402</v>
       </c>
@@ -42471,8 +43021,9 @@
       <c r="U537" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="538" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V537" s="11"/>
+    </row>
+    <row r="538" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C538" s="10">
         <v>70004403</v>
       </c>
@@ -42530,8 +43081,9 @@
       <c r="U538" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="539" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V538" s="11"/>
+    </row>
+    <row r="539" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C539" s="10">
         <v>70004404</v>
       </c>
@@ -42589,8 +43141,9 @@
       <c r="U539" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="540" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V539" s="11"/>
+    </row>
+    <row r="540" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C540" s="10">
         <v>70004405</v>
       </c>
@@ -42648,8 +43201,9 @@
       <c r="U540" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="541" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V540" s="11"/>
+    </row>
+    <row r="541" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C541" s="10">
         <v>70004406</v>
       </c>
@@ -42707,8 +43261,9 @@
       <c r="U541" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="542" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V541" s="11"/>
+    </row>
+    <row r="542" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C542" s="10">
         <v>70004407</v>
       </c>
@@ -42766,8 +43321,9 @@
       <c r="U542" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="543" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V542" s="11"/>
+    </row>
+    <row r="543" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C543" s="10">
         <v>70004408</v>
       </c>
@@ -42825,8 +43381,9 @@
       <c r="U543" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="544" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V543" s="11"/>
+    </row>
+    <row r="544" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C544" s="10">
         <v>70004409</v>
       </c>
@@ -42884,8 +43441,9 @@
       <c r="U544" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="545" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V544" s="11"/>
+    </row>
+    <row r="545" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C545" s="10">
         <v>70004410</v>
       </c>
@@ -42943,8 +43501,9 @@
       <c r="U545" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="546" spans="2:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V545" s="11"/>
+    </row>
+    <row r="546" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B546" s="23"/>
       <c r="C546" s="10">
         <v>70005101</v>
@@ -43003,8 +43562,9 @@
       <c r="U546" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="547" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V546" s="11"/>
+    </row>
+    <row r="547" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B547" s="24"/>
       <c r="C547" s="10">
         <v>70005102</v>
@@ -43063,8 +43623,9 @@
       <c r="U547" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="548" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V547" s="11"/>
+    </row>
+    <row r="548" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B548" s="24"/>
       <c r="C548" s="10">
         <v>70005103</v>
@@ -43123,8 +43684,9 @@
       <c r="U548" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="549" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V548" s="11"/>
+    </row>
+    <row r="549" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B549" s="24"/>
       <c r="C549" s="10">
         <v>70005104</v>
@@ -43183,8 +43745,9 @@
       <c r="U549" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="550" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V549" s="11"/>
+    </row>
+    <row r="550" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B550" s="24"/>
       <c r="C550" s="10">
         <v>70005105</v>
@@ -43243,8 +43806,9 @@
       <c r="U550" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="551" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V550" s="11"/>
+    </row>
+    <row r="551" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B551" s="25"/>
       <c r="C551" s="10">
         <v>70005106</v>
@@ -43303,8 +43867,9 @@
       <c r="U551" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="552" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V551" s="11"/>
+    </row>
+    <row r="552" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B552" s="24"/>
       <c r="C552" s="10">
         <v>70005107</v>
@@ -43363,8 +43928,9 @@
       <c r="U552" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="553" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V552" s="11"/>
+    </row>
+    <row r="553" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B553" s="24"/>
       <c r="C553" s="10">
         <v>70005108</v>
@@ -43423,8 +43989,9 @@
       <c r="U553" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="554" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V553" s="11"/>
+    </row>
+    <row r="554" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B554" s="25"/>
       <c r="C554" s="10">
         <v>70005109</v>
@@ -43483,8 +44050,9 @@
       <c r="U554" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="555" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V554" s="11"/>
+    </row>
+    <row r="555" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B555" s="25"/>
       <c r="C555" s="10">
         <v>70005110</v>
@@ -43543,8 +44111,9 @@
       <c r="U555" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="556" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V555" s="11"/>
+    </row>
+    <row r="556" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C556" s="10">
         <v>70005111</v>
       </c>
@@ -43602,8 +44171,9 @@
       <c r="U556" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="557" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V556" s="11"/>
+    </row>
+    <row r="557" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C557" s="10">
         <v>70005401</v>
       </c>
@@ -43661,8 +44231,9 @@
       <c r="U557" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="558" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V557" s="11"/>
+    </row>
+    <row r="558" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C558" s="10">
         <v>70005402</v>
       </c>
@@ -43720,8 +44291,9 @@
       <c r="U558" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="559" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V558" s="11"/>
+    </row>
+    <row r="559" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C559" s="10">
         <v>70005403</v>
       </c>
@@ -43779,8 +44351,9 @@
       <c r="U559" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="560" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V559" s="11"/>
+    </row>
+    <row r="560" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C560" s="10">
         <v>70005404</v>
       </c>
@@ -43838,8 +44411,9 @@
       <c r="U560" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="561" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V560" s="11"/>
+    </row>
+    <row r="561" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C561" s="10">
         <v>70005405</v>
       </c>
@@ -43897,8 +44471,9 @@
       <c r="U561" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="562" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V561" s="11"/>
+    </row>
+    <row r="562" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C562" s="10">
         <v>70005406</v>
       </c>
@@ -43956,8 +44531,9 @@
       <c r="U562" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="563" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V562" s="11"/>
+    </row>
+    <row r="563" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C563" s="10">
         <v>70005407</v>
       </c>
@@ -44015,8 +44591,9 @@
       <c r="U563" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="564" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V563" s="11"/>
+    </row>
+    <row r="564" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C564" s="10">
         <v>70005408</v>
       </c>
@@ -44074,8 +44651,9 @@
       <c r="U564" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="565" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V564" s="11"/>
+    </row>
+    <row r="565" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C565" s="10">
         <v>70005409</v>
       </c>
@@ -44133,8 +44711,9 @@
       <c r="U565" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="566" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V565" s="11"/>
+    </row>
+    <row r="566" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C566" s="10">
         <v>70005410</v>
       </c>
@@ -44192,8 +44771,9 @@
       <c r="U566" s="15" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="567" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V566" s="11"/>
+    </row>
+    <row r="567" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C567" s="10">
         <v>71001001</v>
       </c>
@@ -44251,8 +44831,9 @@
       <c r="U567" s="15" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="568" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V567" s="10"/>
+    </row>
+    <row r="568" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C568" s="10">
         <v>71001002</v>
       </c>
@@ -44310,8 +44891,9 @@
       <c r="U568" s="44" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="569" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V568" s="22"/>
+    </row>
+    <row r="569" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C569" s="10">
         <v>71001003</v>
       </c>
@@ -44369,8 +44951,9 @@
       <c r="U569" s="29" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="570" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V569" s="22"/>
+    </row>
+    <row r="570" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C570" s="10">
         <v>71001004</v>
       </c>
@@ -44428,8 +45011,9 @@
       <c r="U570" s="44" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="571" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V570" s="22"/>
+    </row>
+    <row r="571" spans="3:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C571" s="10">
         <v>71001005</v>
       </c>
@@ -44487,8 +45071,9 @@
       <c r="U571" s="48" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="572" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V571" s="45"/>
+    </row>
+    <row r="572" spans="3:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C572" s="10">
         <v>71001006</v>
       </c>
@@ -44546,8 +45131,9 @@
       <c r="U572" s="47" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="573" spans="3:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V572" s="45"/>
+    </row>
+    <row r="573" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C573" s="10">
         <v>71002001</v>
       </c>
@@ -44605,8 +45191,9 @@
       <c r="U573" s="15" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="574" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V573" s="10"/>
+    </row>
+    <row r="574" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C574" s="10">
         <v>71002002</v>
       </c>
@@ -44664,8 +45251,9 @@
       <c r="U574" s="44" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="575" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V574" s="22"/>
+    </row>
+    <row r="575" spans="3:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C575" s="10">
         <v>71002003</v>
       </c>
@@ -44723,8 +45311,9 @@
       <c r="U575" s="47" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="576" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V575" s="45"/>
+    </row>
+    <row r="576" spans="3:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C576" s="10">
         <v>71002004</v>
       </c>
@@ -44782,8 +45371,9 @@
       <c r="U576" s="47" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="577" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V576" s="45"/>
+    </row>
+    <row r="577" spans="3:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C577" s="10">
         <v>71002005</v>
       </c>
@@ -44841,8 +45431,9 @@
       <c r="U577" s="47" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="578" spans="3:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V577" s="45"/>
+    </row>
+    <row r="578" spans="3:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C578" s="10">
         <v>71002006</v>
       </c>
@@ -44900,8 +45491,9 @@
       <c r="U578" s="47" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="579" spans="3:21" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V578" s="45"/>
+    </row>
+    <row r="579" spans="3:22" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C579" s="10">
         <v>71003001</v>
       </c>
@@ -44959,8 +45551,9 @@
       <c r="U579" s="15" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="580" spans="3:21" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V579" s="10"/>
+    </row>
+    <row r="580" spans="3:22" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C580" s="10">
         <v>71003002</v>
       </c>
@@ -45018,8 +45611,9 @@
       <c r="U580" s="47" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="581" spans="3:21" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V580" s="10"/>
+    </row>
+    <row r="581" spans="3:22" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C581" s="10">
         <v>71003003</v>
       </c>
@@ -45077,8 +45671,9 @@
       <c r="U581" s="52" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="582" spans="3:21" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V581" s="10"/>
+    </row>
+    <row r="582" spans="3:22" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C582" s="10">
         <v>71003004</v>
       </c>
@@ -45136,8 +45731,9 @@
       <c r="U582" s="52" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="583" spans="3:21" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V582" s="10"/>
+    </row>
+    <row r="583" spans="3:22" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C583" s="10">
         <v>71003005</v>
       </c>
@@ -45195,8 +45791,9 @@
       <c r="U583" s="51" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="584" spans="3:21" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V583" s="22"/>
+    </row>
+    <row r="584" spans="3:22" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C584" s="10">
         <v>71004001</v>
       </c>
@@ -45254,8 +45851,9 @@
       <c r="U584" s="15" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="585" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V584" s="10"/>
+    </row>
+    <row r="585" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C585" s="10">
         <v>71004002</v>
       </c>
@@ -45313,8 +45911,9 @@
       <c r="U585" s="44" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="586" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V585" s="22"/>
+    </row>
+    <row r="586" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C586" s="10">
         <v>71004003</v>
       </c>
@@ -45372,8 +45971,9 @@
       <c r="U586" s="44" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="587" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V586" s="22"/>
+    </row>
+    <row r="587" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C587" s="10">
         <v>71004004</v>
       </c>
@@ -45431,8 +46031,9 @@
       <c r="U587" s="44" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="588" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V587" s="22"/>
+    </row>
+    <row r="588" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C588" s="10">
         <v>71004005</v>
       </c>
@@ -45490,8 +46091,9 @@
       <c r="U588" s="29" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="589" spans="3:21" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V588" s="22"/>
+    </row>
+    <row r="589" spans="3:22" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C589" s="10">
         <v>71005001</v>
       </c>
@@ -45549,8 +46151,9 @@
       <c r="U589" s="15" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="590" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V589" s="10"/>
+    </row>
+    <row r="590" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C590" s="10">
         <v>71005002</v>
       </c>
@@ -45608,8 +46211,9 @@
       <c r="U590" s="44" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="591" spans="3:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V590" s="22"/>
+    </row>
+    <row r="591" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C591" s="10">
         <v>71005003</v>
       </c>
@@ -45667,8 +46271,9 @@
       <c r="U591" s="44" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="592" spans="3:21" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V591" s="22"/>
+    </row>
+    <row r="592" spans="3:22" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C592" s="10">
         <v>71005004</v>
       </c>
@@ -45726,8 +46331,9 @@
       <c r="U592" s="52" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="593" spans="2:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V592" s="10"/>
+    </row>
+    <row r="593" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C593" s="10">
         <v>71005005</v>
       </c>
@@ -45785,8 +46391,9 @@
       <c r="U593" s="47" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="594" spans="2:21" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V593" s="45"/>
+    </row>
+    <row r="594" spans="2:22" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C594" s="10">
         <v>71006001</v>
       </c>
@@ -45844,8 +46451,9 @@
       <c r="U594" s="15" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="595" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V594" s="10"/>
+    </row>
+    <row r="595" spans="2:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C595" s="10">
         <v>71006002</v>
       </c>
@@ -45903,8 +46511,9 @@
       <c r="U595" s="44" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="596" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V595" s="22"/>
+    </row>
+    <row r="596" spans="2:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C596" s="10">
         <v>71006003</v>
       </c>
@@ -45962,8 +46571,9 @@
       <c r="U596" s="44" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="597" spans="2:21" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V596" s="22"/>
+    </row>
+    <row r="597" spans="2:22" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C597" s="10">
         <v>71006004</v>
       </c>
@@ -46021,8 +46631,9 @@
       <c r="U597" s="47" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="598" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V597" s="10"/>
+    </row>
+    <row r="598" spans="2:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C598" s="10">
         <v>71006005</v>
       </c>
@@ -46080,8 +46691,9 @@
       <c r="U598" s="44" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="599" spans="2:21" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V598" s="22"/>
+    </row>
+    <row r="599" spans="2:22" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C599" s="10">
         <v>71007001</v>
       </c>
@@ -46139,8 +46751,9 @@
       <c r="U599" s="15" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="600" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V599" s="10"/>
+    </row>
+    <row r="600" spans="2:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C600" s="10">
         <v>71007002</v>
       </c>
@@ -46198,8 +46811,9 @@
       <c r="U600" s="44" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="601" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V600" s="22"/>
+    </row>
+    <row r="601" spans="2:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C601" s="10">
         <v>71007003</v>
       </c>
@@ -46257,8 +46871,9 @@
       <c r="U601" s="44" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="602" spans="2:21" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V601" s="22"/>
+    </row>
+    <row r="602" spans="2:22" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C602" s="10">
         <v>71007004</v>
       </c>
@@ -46316,8 +46931,9 @@
       <c r="U602" s="51" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="603" spans="2:21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V602" s="22"/>
+    </row>
+    <row r="603" spans="2:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C603" s="10">
         <v>71007005</v>
       </c>
@@ -46375,8 +46991,9 @@
       <c r="U603" s="29" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="604" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V603" s="22"/>
+    </row>
+    <row r="604" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B604" s="24"/>
       <c r="C604" s="10">
         <v>80000001</v>
@@ -46435,8 +47052,9 @@
       <c r="U604" s="15" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="605" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V604" s="11"/>
+    </row>
+    <row r="605" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B605" s="25"/>
       <c r="C605" s="10">
         <v>80000002</v>
@@ -46495,8 +47113,9 @@
       <c r="U605" s="15" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="606" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V605" s="11"/>
+    </row>
+    <row r="606" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C606" s="10">
         <v>80000011</v>
       </c>
@@ -46554,8 +47173,9 @@
       <c r="U606" s="15" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="607" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V606" s="10"/>
+    </row>
+    <row r="607" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B607" s="24"/>
       <c r="C607" s="10">
         <v>90000001</v>
@@ -46614,8 +47234,9 @@
       <c r="U607" s="15" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="608" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V607" s="11"/>
+    </row>
+    <row r="608" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B608" s="25"/>
       <c r="C608" s="10">
         <v>90000002</v>
@@ -46674,8 +47295,9 @@
       <c r="U608" s="15" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="609" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V608" s="11"/>
+    </row>
+    <row r="609" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B609" s="24"/>
       <c r="C609" s="10">
         <v>90000003</v>
@@ -46734,8 +47356,9 @@
       <c r="U609" s="15" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="610" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V609" s="11"/>
+    </row>
+    <row r="610" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B610" s="25"/>
       <c r="C610" s="10">
         <v>90000004</v>
@@ -46794,8 +47417,9 @@
       <c r="U610" s="15" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="611" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V610" s="11"/>
+    </row>
+    <row r="611" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B611" s="24"/>
       <c r="C611" s="10">
         <v>90000005</v>
@@ -46854,8 +47478,9 @@
       <c r="U611" s="15" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="612" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V611" s="11"/>
+    </row>
+    <row r="612" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B612" s="25"/>
       <c r="C612" s="10">
         <v>90000006</v>
@@ -46914,8 +47539,9 @@
       <c r="U612" s="15" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="613" spans="2:21" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V612" s="11"/>
+    </row>
+    <row r="613" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B613" s="24"/>
       <c r="C613" s="10">
         <v>90000007</v>
@@ -46974,18 +47600,19 @@
       <c r="U613" s="15" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="614" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="V613" s="11"/>
+    </row>
+    <row r="614" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="625" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="626" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="627" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC02B41-F0DF-4006-883A-4C49A798997C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0147DDC-B20C-40E3-92CC-5D6FD6606C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,6 +251,34 @@
             <charset val="134"/>
           </rPr>
           <t>七天任务</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{53D9FE15-25A4-4203-9CF5-3E2E284322B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0 不成长
+1 成长
+</t>
         </r>
       </text>
     </comment>
@@ -613,7 +641,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3275" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3275" uniqueCount="589">
   <si>
     <t>Id</t>
   </si>
@@ -2530,12 +2558,16 @@
     <t>Development</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>任务经验和金币是否跟随等级成长</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2674,6 +2706,21 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="30">
@@ -10552,9 +10599,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E222" sqref="E222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10574,7 +10621,7 @@
     <col min="13" max="19" width="15.625" customWidth="1"/>
     <col min="20" max="20" width="28.125" customWidth="1"/>
     <col min="21" max="21" width="56.875" customWidth="1"/>
-    <col min="22" max="22" width="15.625" customWidth="1"/>
+    <col min="22" max="22" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -10642,7 +10689,7 @@
         <v>18</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>14</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11385,7 +11432,9 @@
       <c r="U15" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="V15" s="10"/>
+      <c r="V15" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="10">
@@ -11445,7 +11494,9 @@
       <c r="U16" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="V16" s="11"/>
+      <c r="V16" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="10">
@@ -11505,7 +11556,9 @@
       <c r="U17" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="V17" s="11"/>
+      <c r="V17" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="10">
@@ -11565,7 +11618,9 @@
       <c r="U18" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="V18" s="11"/>
+      <c r="V18" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="10">
@@ -11625,7 +11680,9 @@
       <c r="U19" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="V19" s="11"/>
+      <c r="V19" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="10">
@@ -11685,7 +11742,9 @@
       <c r="U20" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="V20" s="10"/>
+      <c r="V20" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="10">
@@ -11745,7 +11804,9 @@
       <c r="U21" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="V21" s="11"/>
+      <c r="V21" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="10">
@@ -11805,7 +11866,9 @@
       <c r="U22" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="V22" s="11"/>
+      <c r="V22" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="10">
@@ -11865,7 +11928,9 @@
       <c r="U23" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="V23" s="10"/>
+      <c r="V23" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="10">
@@ -11925,7 +11990,9 @@
       <c r="U24" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="V24" s="11"/>
+      <c r="V24" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="10">
@@ -11985,7 +12052,9 @@
       <c r="U25" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="V25" s="10"/>
+      <c r="V25" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="10">
@@ -12045,7 +12114,9 @@
       <c r="U26" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="V26" s="10"/>
+      <c r="V26" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="10">
@@ -12105,7 +12176,9 @@
       <c r="U27" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="V27" s="10"/>
+      <c r="V27" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="10">
@@ -12165,7 +12238,9 @@
       <c r="U28" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="V28" s="10"/>
+      <c r="V28" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="10">
@@ -12225,7 +12300,9 @@
       <c r="U29" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="V29" s="10"/>
+      <c r="V29" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="10">
@@ -12285,7 +12362,9 @@
       <c r="U30" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="V30" s="10"/>
+      <c r="V30" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="10">
@@ -12345,7 +12424,9 @@
       <c r="U31" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="V31" s="10"/>
+      <c r="V31" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="10">
@@ -12405,7 +12486,9 @@
       <c r="U32" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="V32" s="10"/>
+      <c r="V32" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="10">
@@ -12465,7 +12548,9 @@
       <c r="U33" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="V33" s="10"/>
+      <c r="V33" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="10">
@@ -12525,7 +12610,9 @@
       <c r="U34" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="V34" s="10"/>
+      <c r="V34" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="10">
@@ -12585,7 +12672,9 @@
       <c r="U35" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="V35" s="10"/>
+      <c r="V35" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="10">
@@ -12645,7 +12734,9 @@
       <c r="U36" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="V36" s="10"/>
+      <c r="V36" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="10">
@@ -12705,7 +12796,9 @@
       <c r="U37" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="V37" s="10"/>
+      <c r="V37" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="10">
@@ -12765,7 +12858,9 @@
       <c r="U38" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="V38" s="10"/>
+      <c r="V38" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="10">
@@ -12825,7 +12920,9 @@
       <c r="U39" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="V39" s="10"/>
+      <c r="V39" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="10">
@@ -12885,7 +12982,9 @@
       <c r="U40" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="V40" s="10"/>
+      <c r="V40" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="10">
@@ -12945,7 +13044,9 @@
       <c r="U41" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="V41" s="10"/>
+      <c r="V41" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="10">
@@ -13005,7 +13106,9 @@
       <c r="U42" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="V42" s="10"/>
+      <c r="V42" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="10">
@@ -13065,7 +13168,9 @@
       <c r="U43" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="V43" s="10"/>
+      <c r="V43" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="10">
@@ -13125,7 +13230,9 @@
       <c r="U44" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="V44" s="10"/>
+      <c r="V44" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="10">
@@ -13185,7 +13292,9 @@
       <c r="U45" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="V45" s="10"/>
+      <c r="V45" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="10">
@@ -13245,7 +13354,9 @@
       <c r="U46" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="V46" s="11"/>
+      <c r="V46" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="10">
@@ -13305,7 +13416,9 @@
       <c r="U47" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="V47" s="10"/>
+      <c r="V47" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="10">
@@ -13365,7 +13478,9 @@
       <c r="U48" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="V48" s="10"/>
+      <c r="V48" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="10">
@@ -13425,7 +13540,9 @@
       <c r="U49" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="V49" s="10"/>
+      <c r="V49" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="21">
@@ -13485,7 +13602,9 @@
       <c r="U50" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="V50" s="10"/>
+      <c r="V50" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="10">
@@ -13545,7 +13664,9 @@
       <c r="U51" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="V51" s="10"/>
+      <c r="V51" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="10">
@@ -13605,7 +13726,9 @@
       <c r="U52" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="V52" s="10"/>
+      <c r="V52" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="10">
@@ -13665,7 +13788,9 @@
       <c r="U53" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="V53" s="10"/>
+      <c r="V53" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="10">
@@ -13725,7 +13850,9 @@
       <c r="U54" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="V54" s="10"/>
+      <c r="V54" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="10">
@@ -13785,7 +13912,9 @@
       <c r="U55" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="V55" s="10"/>
+      <c r="V55" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="10">
@@ -13845,7 +13974,9 @@
       <c r="U56" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="V56" s="10"/>
+      <c r="V56" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="10">
@@ -13905,7 +14036,9 @@
       <c r="U57" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="V57" s="10"/>
+      <c r="V57" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="10">
@@ -13965,7 +14098,9 @@
       <c r="U58" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="V58" s="10"/>
+      <c r="V58" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="10">
@@ -14025,7 +14160,9 @@
       <c r="U59" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="V59" s="10"/>
+      <c r="V59" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="10">
@@ -14085,7 +14222,9 @@
       <c r="U60" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="V60" s="10"/>
+      <c r="V60" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="10">
@@ -14145,7 +14284,9 @@
       <c r="U61" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="V61" s="10"/>
+      <c r="V61" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="10">
@@ -14205,7 +14346,9 @@
       <c r="U62" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="V62" s="10"/>
+      <c r="V62" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="10">
@@ -14265,7 +14408,9 @@
       <c r="U63" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="V63" s="10"/>
+      <c r="V63" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="10">
@@ -14325,7 +14470,9 @@
       <c r="U64" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="V64" s="10"/>
+      <c r="V64" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="10">
@@ -14385,7 +14532,9 @@
       <c r="U65" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="V65" s="10"/>
+      <c r="V65" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="10">
@@ -14445,7 +14594,9 @@
       <c r="U66" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="V66" s="10"/>
+      <c r="V66" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="10">
@@ -14505,7 +14656,9 @@
       <c r="U67" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="V67" s="10"/>
+      <c r="V67" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="10">
@@ -14565,7 +14718,9 @@
       <c r="U68" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="V68" s="10"/>
+      <c r="V68" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="10">
@@ -14625,7 +14780,9 @@
       <c r="U69" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="V69" s="10"/>
+      <c r="V69" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="10">
@@ -14685,7 +14842,9 @@
       <c r="U70" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="V70" s="10"/>
+      <c r="V70" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="10">
@@ -14745,7 +14904,9 @@
       <c r="U71" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="V71" s="10"/>
+      <c r="V71" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="10">
@@ -14805,7 +14966,9 @@
       <c r="U72" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="V72" s="10"/>
+      <c r="V72" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="10">
@@ -14865,7 +15028,9 @@
       <c r="U73" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="V73" s="10"/>
+      <c r="V73" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="10">
@@ -14925,7 +15090,9 @@
       <c r="U74" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="V74" s="10"/>
+      <c r="V74" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="10">
@@ -14985,7 +15152,9 @@
       <c r="U75" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="V75" s="10"/>
+      <c r="V75" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="10">
@@ -15045,7 +15214,9 @@
       <c r="U76" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="V76" s="10"/>
+      <c r="V76" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="10">
@@ -15105,7 +15276,9 @@
       <c r="U77" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="V77" s="10"/>
+      <c r="V77" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="10">
@@ -15165,7 +15338,9 @@
       <c r="U78" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="V78" s="10"/>
+      <c r="V78" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="10">
@@ -15225,7 +15400,9 @@
       <c r="U79" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="V79" s="10"/>
+      <c r="V79" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="10">
@@ -15285,7 +15462,9 @@
       <c r="U80" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="V80" s="10"/>
+      <c r="V80" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="10">
@@ -15345,7 +15524,9 @@
       <c r="U81" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="V81" s="10"/>
+      <c r="V81" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="10">
@@ -15405,7 +15586,9 @@
       <c r="U82" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="V82" s="10"/>
+      <c r="V82" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="10">
@@ -15465,7 +15648,9 @@
       <c r="U83" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="V83" s="10"/>
+      <c r="V83" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="10">
@@ -15525,7 +15710,9 @@
       <c r="U84" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="V84" s="10"/>
+      <c r="V84" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="10">
@@ -15585,7 +15772,9 @@
       <c r="U85" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="V85" s="10"/>
+      <c r="V85" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="10">
@@ -15645,7 +15834,9 @@
       <c r="U86" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="V86" s="10"/>
+      <c r="V86" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="10">
@@ -15705,7 +15896,9 @@
       <c r="U87" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="V87" s="10"/>
+      <c r="V87" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="10">
@@ -15765,7 +15958,9 @@
       <c r="U88" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="V88" s="10"/>
+      <c r="V88" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="10">
@@ -15825,7 +16020,9 @@
       <c r="U89" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="V89" s="10"/>
+      <c r="V89" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="10">
@@ -15885,7 +16082,9 @@
       <c r="U90" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="V90" s="10"/>
+      <c r="V90" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="10">
@@ -15945,7 +16144,9 @@
       <c r="U91" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="V91" s="10"/>
+      <c r="V91" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="10">
@@ -16005,7 +16206,9 @@
       <c r="U92" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="V92" s="10"/>
+      <c r="V92" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="10">
@@ -16065,7 +16268,9 @@
       <c r="U93" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="V93" s="10"/>
+      <c r="V93" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="10">
@@ -16125,7 +16330,9 @@
       <c r="U94" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="V94" s="10"/>
+      <c r="V94" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="10">
@@ -16185,7 +16392,9 @@
       <c r="U95" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="V95" s="10"/>
+      <c r="V95" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="10">
@@ -16245,7 +16454,9 @@
       <c r="U96" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="V96" s="10"/>
+      <c r="V96" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="10">
@@ -16305,7 +16516,9 @@
       <c r="U97" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="V97" s="10"/>
+      <c r="V97" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="10">
@@ -16365,7 +16578,9 @@
       <c r="U98" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="V98" s="10"/>
+      <c r="V98" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="10">
@@ -16425,7 +16640,9 @@
       <c r="U99" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="V99" s="10"/>
+      <c r="V99" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="10">
@@ -16485,7 +16702,9 @@
       <c r="U100" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="V100" s="10"/>
+      <c r="V100" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="10">
@@ -16545,7 +16764,9 @@
       <c r="U101" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="V101" s="10"/>
+      <c r="V101" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="10">
@@ -16605,7 +16826,9 @@
       <c r="U102" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="V102" s="10"/>
+      <c r="V102" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="10">
@@ -16665,7 +16888,9 @@
       <c r="U103" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="V103" s="10"/>
+      <c r="V103" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="10">
@@ -16725,7 +16950,9 @@
       <c r="U104" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="V104" s="10"/>
+      <c r="V104" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="10">
@@ -16785,7 +17012,9 @@
       <c r="U105" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="V105" s="10"/>
+      <c r="V105" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="10">
@@ -16845,7 +17074,9 @@
       <c r="U106" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="V106" s="10"/>
+      <c r="V106" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="10">
@@ -16905,7 +17136,9 @@
       <c r="U107" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="V107" s="10"/>
+      <c r="V107" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="10">
@@ -16965,7 +17198,9 @@
       <c r="U108" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="V108" s="10"/>
+      <c r="V108" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="10">
@@ -17025,7 +17260,9 @@
       <c r="U109" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="V109" s="10"/>
+      <c r="V109" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="10">
@@ -17085,7 +17322,9 @@
       <c r="U110" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="V110" s="10"/>
+      <c r="V110" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="10">
@@ -17145,7 +17384,9 @@
       <c r="U111" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="V111" s="10"/>
+      <c r="V111" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="10">
@@ -17205,7 +17446,9 @@
       <c r="U112" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="V112" s="10"/>
+      <c r="V112" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="10">
@@ -17265,7 +17508,9 @@
       <c r="U113" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="V113" s="10"/>
+      <c r="V113" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="10">
@@ -17325,7 +17570,9 @@
       <c r="U114" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="V114" s="10"/>
+      <c r="V114" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="10">
@@ -17385,7 +17632,9 @@
       <c r="U115" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="V115" s="10"/>
+      <c r="V115" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C116" s="10">
@@ -17445,7 +17694,9 @@
       <c r="U116" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="V116" s="10"/>
+      <c r="V116" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="10">
@@ -17505,7 +17756,9 @@
       <c r="U117" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="V117" s="10"/>
+      <c r="V117" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="10">
@@ -17565,7 +17818,9 @@
       <c r="U118" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="V118" s="10"/>
+      <c r="V118" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="10">
@@ -17625,7 +17880,9 @@
       <c r="U119" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="V119" s="10"/>
+      <c r="V119" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="10">
@@ -17685,7 +17942,9 @@
       <c r="U120" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="V120" s="10"/>
+      <c r="V120" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C121" s="10">
@@ -17745,7 +18004,9 @@
       <c r="U121" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="V121" s="10"/>
+      <c r="V121" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C122" s="10">
@@ -17805,7 +18066,9 @@
       <c r="U122" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="V122" s="10"/>
+      <c r="V122" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="10">
@@ -17865,7 +18128,9 @@
       <c r="U123" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="V123" s="10"/>
+      <c r="V123" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C124" s="10">
@@ -17925,7 +18190,9 @@
       <c r="U124" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="V124" s="10"/>
+      <c r="V124" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="10">
@@ -17985,7 +18252,9 @@
       <c r="U125" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="V125" s="10"/>
+      <c r="V125" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C126" s="10">
@@ -18045,7 +18314,9 @@
       <c r="U126" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="V126" s="10"/>
+      <c r="V126" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C127" s="10">
@@ -18105,7 +18376,9 @@
       <c r="U127" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="V127" s="10"/>
+      <c r="V127" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C128" s="10">
@@ -18165,7 +18438,9 @@
       <c r="U128" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="V128" s="10"/>
+      <c r="V128" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C129" s="10">
@@ -18225,7 +18500,9 @@
       <c r="U129" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="V129" s="10"/>
+      <c r="V129" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C130" s="10">
@@ -18285,7 +18562,9 @@
       <c r="U130" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="V130" s="10"/>
+      <c r="V130" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C131" s="10">
@@ -18345,7 +18624,9 @@
       <c r="U131" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="V131" s="10"/>
+      <c r="V131" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C132" s="10">
@@ -18405,7 +18686,9 @@
       <c r="U132" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="V132" s="10"/>
+      <c r="V132" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C133" s="10">
@@ -18465,7 +18748,9 @@
       <c r="U133" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="V133" s="10"/>
+      <c r="V133" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C134" s="10">
@@ -18525,7 +18810,9 @@
       <c r="U134" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="V134" s="10"/>
+      <c r="V134" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="135" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C135" s="10">
@@ -18585,7 +18872,9 @@
       <c r="U135" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="V135" s="10"/>
+      <c r="V135" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C136" s="10">
@@ -18645,7 +18934,9 @@
       <c r="U136" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="V136" s="10"/>
+      <c r="V136" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C137" s="10">
@@ -18705,7 +18996,9 @@
       <c r="U137" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="V137" s="10"/>
+      <c r="V137" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C138" s="10">
@@ -18765,7 +19058,9 @@
       <c r="U138" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="V138" s="10"/>
+      <c r="V138" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C139" s="10">
@@ -18825,7 +19120,9 @@
       <c r="U139" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="V139" s="10"/>
+      <c r="V139" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C140" s="10">
@@ -18885,7 +19182,9 @@
       <c r="U140" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="V140" s="10"/>
+      <c r="V140" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C141" s="10">
@@ -18945,7 +19244,9 @@
       <c r="U141" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="V141" s="10"/>
+      <c r="V141" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C142" s="10">
@@ -19005,7 +19306,9 @@
       <c r="U142" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="V142" s="10"/>
+      <c r="V142" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C143" s="10">
@@ -19065,7 +19368,9 @@
       <c r="U143" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="V143" s="10"/>
+      <c r="V143" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C144" s="10">
@@ -19125,7 +19430,9 @@
       <c r="U144" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="V144" s="10"/>
+      <c r="V144" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C145" s="10">
@@ -19185,7 +19492,9 @@
       <c r="U145" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="V145" s="10"/>
+      <c r="V145" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C146" s="10">
@@ -19245,7 +19554,9 @@
       <c r="U146" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="V146" s="10"/>
+      <c r="V146" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C147" s="10">
@@ -19305,7 +19616,9 @@
       <c r="U147" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="V147" s="10"/>
+      <c r="V147" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C148" s="10">
@@ -19365,7 +19678,9 @@
       <c r="U148" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="V148" s="10"/>
+      <c r="V148" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C149" s="10">
@@ -19425,7 +19740,9 @@
       <c r="U149" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="V149" s="10"/>
+      <c r="V149" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C150" s="10">
@@ -19485,7 +19802,9 @@
       <c r="U150" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="V150" s="10"/>
+      <c r="V150" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C151" s="10">
@@ -19545,7 +19864,9 @@
       <c r="U151" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="V151" s="10"/>
+      <c r="V151" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C152" s="10">
@@ -19605,7 +19926,9 @@
       <c r="U152" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="V152" s="10"/>
+      <c r="V152" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C153" s="10">
@@ -19665,7 +19988,9 @@
       <c r="U153" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="V153" s="10"/>
+      <c r="V153" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C154" s="10">
@@ -19725,7 +20050,9 @@
       <c r="U154" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="V154" s="10"/>
+      <c r="V154" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C155" s="10">
@@ -19785,7 +20112,9 @@
       <c r="U155" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="V155" s="10"/>
+      <c r="V155" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C156" s="10">
@@ -19845,7 +20174,9 @@
       <c r="U156" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="V156" s="10"/>
+      <c r="V156" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C157" s="10">
@@ -19905,7 +20236,9 @@
       <c r="U157" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="V157" s="10"/>
+      <c r="V157" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C158" s="10">
@@ -19965,7 +20298,9 @@
       <c r="U158" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="V158" s="10"/>
+      <c r="V158" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C159" s="10">
@@ -20025,7 +20360,9 @@
       <c r="U159" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="V159" s="10"/>
+      <c r="V159" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C160" s="10">
@@ -20085,7 +20422,9 @@
       <c r="U160" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="V160" s="10"/>
+      <c r="V160" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="161" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C161" s="10">
@@ -20145,7 +20484,9 @@
       <c r="U161" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="V161" s="10"/>
+      <c r="V161" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="162" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C162" s="10">
@@ -20205,7 +20546,9 @@
       <c r="U162" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="V162" s="10"/>
+      <c r="V162" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="163" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C163" s="10">
@@ -20265,7 +20608,9 @@
       <c r="U163" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="V163" s="10"/>
+      <c r="V163" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="164" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C164" s="10">
@@ -20325,7 +20670,9 @@
       <c r="U164" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="V164" s="10"/>
+      <c r="V164" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="165" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C165" s="10">
@@ -20385,7 +20732,9 @@
       <c r="U165" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="V165" s="10"/>
+      <c r="V165" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C166" s="10">
@@ -20445,7 +20794,9 @@
       <c r="U166" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="V166" s="10"/>
+      <c r="V166" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C167" s="10">
@@ -20505,7 +20856,9 @@
       <c r="U167" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="V167" s="10"/>
+      <c r="V167" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="168" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C168" s="10">
@@ -20565,7 +20918,9 @@
       <c r="U168" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="V168" s="10"/>
+      <c r="V168" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C169" s="10">
@@ -20625,7 +20980,9 @@
       <c r="U169" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="V169" s="10"/>
+      <c r="V169" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C170" s="10">
@@ -20685,7 +21042,9 @@
       <c r="U170" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="V170" s="10"/>
+      <c r="V170" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="171" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C171" s="21">
@@ -20745,7 +21104,9 @@
       <c r="U171" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="V171" s="22"/>
+      <c r="V171" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="172" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C172" s="21">
@@ -20805,7 +21166,9 @@
       <c r="U172" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="V172" s="22"/>
+      <c r="V172" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="173" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C173" s="21">
@@ -20865,7 +21228,9 @@
       <c r="U173" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="V173" s="22"/>
+      <c r="V173" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="174" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C174" s="21">
@@ -20925,7 +21290,9 @@
       <c r="U174" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="V174" s="22"/>
+      <c r="V174" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="175" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C175" s="21">
@@ -20985,7 +21352,9 @@
       <c r="U175" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="V175" s="22"/>
+      <c r="V175" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="176" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C176" s="21">
@@ -21045,7 +21414,9 @@
       <c r="U176" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="V176" s="22"/>
+      <c r="V176" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="177" spans="2:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C177" s="21">
@@ -21105,7 +21476,9 @@
       <c r="U177" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="V177" s="22"/>
+      <c r="V177" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="178" spans="2:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C178" s="21">
@@ -21165,7 +21538,9 @@
       <c r="U178" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="V178" s="22"/>
+      <c r="V178" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="179" spans="2:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C179" s="21">
@@ -21225,7 +21600,9 @@
       <c r="U179" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="V179" s="22"/>
+      <c r="V179" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="180" spans="2:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C180" s="21">
@@ -21285,7 +21662,9 @@
       <c r="U180" s="29" t="s">
         <v>396</v>
       </c>
-      <c r="V180" s="22"/>
+      <c r="V180" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="181" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="23"/>
@@ -21346,7 +21725,9 @@
       <c r="U181" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V181" s="11"/>
+      <c r="V181" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="182" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="24"/>
@@ -21407,7 +21788,9 @@
       <c r="U182" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V182" s="16"/>
+      <c r="V182" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="183" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="24"/>
@@ -21468,7 +21851,9 @@
       <c r="U183" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V183" s="16"/>
+      <c r="V183" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="184" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="24"/>
@@ -21529,7 +21914,9 @@
       <c r="U184" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V184" s="16"/>
+      <c r="V184" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="185" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="24"/>
@@ -21590,7 +21977,9 @@
       <c r="U185" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V185" s="16"/>
+      <c r="V185" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="186" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="25"/>
@@ -21651,7 +22040,9 @@
       <c r="U186" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V186" s="16"/>
+      <c r="V186" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="187" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="24"/>
@@ -21712,7 +22103,9 @@
       <c r="U187" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V187" s="16"/>
+      <c r="V187" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="188" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="24"/>
@@ -21773,7 +22166,9 @@
       <c r="U188" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V188" s="16"/>
+      <c r="V188" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="189" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="25"/>
@@ -21834,7 +22229,9 @@
       <c r="U189" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V189" s="16"/>
+      <c r="V189" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="190" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="25"/>
@@ -21895,7 +22292,9 @@
       <c r="U190" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V190" s="16"/>
+      <c r="V190" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="191" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C191" s="10">
@@ -21955,7 +22354,9 @@
       <c r="U191" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V191" s="16"/>
+      <c r="V191" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="192" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C192" s="10">
@@ -22015,7 +22416,9 @@
       <c r="U192" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V192" s="16"/>
+      <c r="V192" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="193" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="23"/>
@@ -22077,7 +22480,9 @@
       <c r="U193" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V193" s="16"/>
+      <c r="V193" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="194" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="24"/>
@@ -22139,7 +22544,9 @@
       <c r="U194" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V194" s="16"/>
+      <c r="V194" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="195" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="24"/>
@@ -22201,7 +22608,9 @@
       <c r="U195" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V195" s="16"/>
+      <c r="V195" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="196" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="24"/>
@@ -22263,7 +22672,9 @@
       <c r="U196" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V196" s="16"/>
+      <c r="V196" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="197" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="24"/>
@@ -22325,7 +22736,9 @@
       <c r="U197" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V197" s="16"/>
+      <c r="V197" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="198" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="25"/>
@@ -22387,7 +22800,9 @@
       <c r="U198" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V198" s="16"/>
+      <c r="V198" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="199" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="24"/>
@@ -22449,7 +22864,9 @@
       <c r="U199" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V199" s="16"/>
+      <c r="V199" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="200" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="24"/>
@@ -22511,7 +22928,9 @@
       <c r="U200" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V200" s="16"/>
+      <c r="V200" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="201" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="25"/>
@@ -22573,7 +22992,9 @@
       <c r="U201" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V201" s="16"/>
+      <c r="V201" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="202" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="25"/>
@@ -22635,7 +23056,9 @@
       <c r="U202" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V202" s="16"/>
+      <c r="V202" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="203" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C203" s="10">
@@ -22696,7 +23119,9 @@
       <c r="U203" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V203" s="16"/>
+      <c r="V203" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="204" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C204" s="10">
@@ -22757,7 +23182,9 @@
       <c r="U204" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V204" s="16"/>
+      <c r="V204" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="23"/>
@@ -22819,7 +23246,9 @@
       <c r="U205" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V205" s="16"/>
+      <c r="V205" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="24"/>
@@ -22881,7 +23310,9 @@
       <c r="U206" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V206" s="16"/>
+      <c r="V206" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="207" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="24"/>
@@ -22943,7 +23374,9 @@
       <c r="U207" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V207" s="16"/>
+      <c r="V207" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="208" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="24"/>
@@ -23005,7 +23438,9 @@
       <c r="U208" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V208" s="16"/>
+      <c r="V208" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="209" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="24"/>
@@ -23067,7 +23502,9 @@
       <c r="U209" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V209" s="16"/>
+      <c r="V209" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="210" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="25"/>
@@ -23129,7 +23566,9 @@
       <c r="U210" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V210" s="16"/>
+      <c r="V210" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="211" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="24"/>
@@ -23191,7 +23630,9 @@
       <c r="U211" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V211" s="16"/>
+      <c r="V211" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="212" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="24"/>
@@ -23253,7 +23694,9 @@
       <c r="U212" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V212" s="16"/>
+      <c r="V212" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="213" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="25"/>
@@ -23315,7 +23758,9 @@
       <c r="U213" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V213" s="16"/>
+      <c r="V213" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="214" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="25"/>
@@ -23377,7 +23822,9 @@
       <c r="U214" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V214" s="16"/>
+      <c r="V214" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="215" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C215" s="10">
@@ -23438,7 +23885,9 @@
       <c r="U215" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V215" s="16"/>
+      <c r="V215" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="216" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C216" s="10">
@@ -23499,7 +23948,9 @@
       <c r="U216" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V216" s="16"/>
+      <c r="V216" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="217" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C217" s="10">
@@ -23559,7 +24010,9 @@
       <c r="U217" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V217" s="11"/>
+      <c r="V217" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="218" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C218" s="10">
@@ -23619,7 +24072,9 @@
       <c r="U218" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V218" s="11"/>
+      <c r="V218" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="219" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C219" s="10">
@@ -23679,7 +24134,9 @@
       <c r="U219" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V219" s="11"/>
+      <c r="V219" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="220" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C220" s="10">
@@ -23739,7 +24196,9 @@
       <c r="U220" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V220" s="11"/>
+      <c r="V220" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="221" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C221" s="10">
@@ -23799,7 +24258,9 @@
       <c r="U221" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V221" s="11"/>
+      <c r="V221" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="222" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C222" s="10">
@@ -23859,7 +24320,9 @@
       <c r="U222" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V222" s="11"/>
+      <c r="V222" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="223" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C223" s="10">
@@ -23919,7 +24382,9 @@
       <c r="U223" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V223" s="11"/>
+      <c r="V223" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="224" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C224" s="10">
@@ -23979,7 +24444,9 @@
       <c r="U224" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V224" s="11"/>
+      <c r="V224" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="225" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C225" s="10">
@@ -24039,7 +24506,9 @@
       <c r="U225" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V225" s="11"/>
+      <c r="V225" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="226" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C226" s="10">
@@ -24099,7 +24568,9 @@
       <c r="U226" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V226" s="11"/>
+      <c r="V226" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="227" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="23"/>
@@ -24160,7 +24631,9 @@
       <c r="U227" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V227" s="11"/>
+      <c r="V227" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="228" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="24"/>
@@ -24221,7 +24694,9 @@
       <c r="U228" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V228" s="11"/>
+      <c r="V228" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="229" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="24"/>
@@ -24282,7 +24757,9 @@
       <c r="U229" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V229" s="11"/>
+      <c r="V229" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="230" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="24"/>
@@ -24343,7 +24820,9 @@
       <c r="U230" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V230" s="11"/>
+      <c r="V230" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="231" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="24"/>
@@ -24404,7 +24883,9 @@
       <c r="U231" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V231" s="11"/>
+      <c r="V231" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="232" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="25"/>
@@ -24465,7 +24946,9 @@
       <c r="U232" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V232" s="11"/>
+      <c r="V232" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="233" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="24"/>
@@ -24526,7 +25009,9 @@
       <c r="U233" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V233" s="11"/>
+      <c r="V233" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="234" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="24"/>
@@ -24587,7 +25072,9 @@
       <c r="U234" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V234" s="11"/>
+      <c r="V234" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="235" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="25"/>
@@ -24648,7 +25135,9 @@
       <c r="U235" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V235" s="11"/>
+      <c r="V235" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="236" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="25"/>
@@ -24709,7 +25198,9 @@
       <c r="U236" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V236" s="11"/>
+      <c r="V236" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="237" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C237" s="10">
@@ -24769,7 +25260,9 @@
       <c r="U237" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V237" s="11"/>
+      <c r="V237" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="238" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C238" s="10">
@@ -24829,7 +25322,9 @@
       <c r="U238" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V238" s="11"/>
+      <c r="V238" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="239" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="23"/>
@@ -24890,7 +25385,9 @@
       <c r="U239" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V239" s="11"/>
+      <c r="V239" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="240" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="24"/>
@@ -24951,7 +25448,9 @@
       <c r="U240" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V240" s="11"/>
+      <c r="V240" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="241" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="24"/>
@@ -25012,7 +25511,9 @@
       <c r="U241" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V241" s="11"/>
+      <c r="V241" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="242" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="24"/>
@@ -25073,7 +25574,9 @@
       <c r="U242" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V242" s="11"/>
+      <c r="V242" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="243" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="24"/>
@@ -25134,7 +25637,9 @@
       <c r="U243" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V243" s="11"/>
+      <c r="V243" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="244" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="25"/>
@@ -25195,7 +25700,9 @@
       <c r="U244" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V244" s="11"/>
+      <c r="V244" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="245" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="24"/>
@@ -25256,7 +25763,9 @@
       <c r="U245" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V245" s="11"/>
+      <c r="V245" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="246" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="24"/>
@@ -25317,7 +25826,9 @@
       <c r="U246" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V246" s="11"/>
+      <c r="V246" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="247" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="25"/>
@@ -25378,7 +25889,9 @@
       <c r="U247" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V247" s="11"/>
+      <c r="V247" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="248" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="25"/>
@@ -25439,7 +25952,9 @@
       <c r="U248" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V248" s="11"/>
+      <c r="V248" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="249" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C249" s="10">
@@ -25499,7 +26014,9 @@
       <c r="U249" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V249" s="11"/>
+      <c r="V249" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="250" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C250" s="10">
@@ -25559,7 +26076,9 @@
       <c r="U250" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V250" s="11"/>
+      <c r="V250" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="251" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="23"/>
@@ -25620,7 +26139,9 @@
       <c r="U251" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V251" s="11"/>
+      <c r="V251" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="252" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="24"/>
@@ -25681,7 +26202,9 @@
       <c r="U252" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V252" s="11"/>
+      <c r="V252" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="253" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="24"/>
@@ -25742,7 +26265,9 @@
       <c r="U253" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V253" s="11"/>
+      <c r="V253" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="254" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="24"/>
@@ -25803,7 +26328,9 @@
       <c r="U254" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V254" s="11"/>
+      <c r="V254" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="255" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="24"/>
@@ -25864,7 +26391,9 @@
       <c r="U255" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V255" s="11"/>
+      <c r="V255" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="256" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="25"/>
@@ -25925,7 +26454,9 @@
       <c r="U256" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V256" s="11"/>
+      <c r="V256" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="257" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="24"/>
@@ -25986,7 +26517,9 @@
       <c r="U257" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V257" s="11"/>
+      <c r="V257" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="258" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="24"/>
@@ -26047,7 +26580,9 @@
       <c r="U258" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V258" s="11"/>
+      <c r="V258" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="259" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="25"/>
@@ -26108,7 +26643,9 @@
       <c r="U259" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V259" s="11"/>
+      <c r="V259" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="260" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="25"/>
@@ -26169,7 +26706,9 @@
       <c r="U260" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V260" s="11"/>
+      <c r="V260" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="261" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C261" s="10">
@@ -26229,7 +26768,9 @@
       <c r="U261" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V261" s="11"/>
+      <c r="V261" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="262" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C262" s="10">
@@ -26289,7 +26830,9 @@
       <c r="U262" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V262" s="11"/>
+      <c r="V262" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="263" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C263" s="10">
@@ -26349,7 +26892,9 @@
       <c r="U263" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V263" s="11"/>
+      <c r="V263" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="264" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C264" s="10">
@@ -26409,7 +26954,9 @@
       <c r="U264" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V264" s="11"/>
+      <c r="V264" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="265" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C265" s="10">
@@ -26469,7 +27016,9 @@
       <c r="U265" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V265" s="11"/>
+      <c r="V265" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="266" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C266" s="10">
@@ -26529,7 +27078,9 @@
       <c r="U266" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V266" s="11"/>
+      <c r="V266" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="267" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C267" s="10">
@@ -26589,7 +27140,9 @@
       <c r="U267" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V267" s="11"/>
+      <c r="V267" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="268" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C268" s="10">
@@ -26649,7 +27202,9 @@
       <c r="U268" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V268" s="11"/>
+      <c r="V268" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="269" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C269" s="10">
@@ -26709,7 +27264,9 @@
       <c r="U269" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V269" s="11"/>
+      <c r="V269" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="270" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C270" s="10">
@@ -26769,7 +27326,9 @@
       <c r="U270" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V270" s="11"/>
+      <c r="V270" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="271" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C271" s="10">
@@ -26829,7 +27388,9 @@
       <c r="U271" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V271" s="11"/>
+      <c r="V271" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="272" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C272" s="10">
@@ -26889,7 +27450,9 @@
       <c r="U272" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V272" s="11"/>
+      <c r="V272" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="273" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B273" s="23"/>
@@ -26950,7 +27513,9 @@
       <c r="U273" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V273" s="11"/>
+      <c r="V273" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="274" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="24"/>
@@ -27011,7 +27576,9 @@
       <c r="U274" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V274" s="11"/>
+      <c r="V274" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="275" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="24"/>
@@ -27072,7 +27639,9 @@
       <c r="U275" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V275" s="11"/>
+      <c r="V275" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="276" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="24"/>
@@ -27133,7 +27702,9 @@
       <c r="U276" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V276" s="11"/>
+      <c r="V276" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="277" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B277" s="24"/>
@@ -27194,7 +27765,9 @@
       <c r="U277" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V277" s="11"/>
+      <c r="V277" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="278" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B278" s="25"/>
@@ -27255,7 +27828,9 @@
       <c r="U278" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V278" s="11"/>
+      <c r="V278" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="279" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="24"/>
@@ -27316,7 +27891,9 @@
       <c r="U279" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V279" s="11"/>
+      <c r="V279" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="280" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="24"/>
@@ -27377,7 +27954,9 @@
       <c r="U280" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V280" s="11"/>
+      <c r="V280" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="281" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="25"/>
@@ -27438,7 +28017,9 @@
       <c r="U281" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V281" s="11"/>
+      <c r="V281" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="282" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="25"/>
@@ -27499,7 +28080,9 @@
       <c r="U282" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V282" s="11"/>
+      <c r="V282" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="283" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C283" s="10">
@@ -27559,7 +28142,9 @@
       <c r="U283" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V283" s="11"/>
+      <c r="V283" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="284" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C284" s="10">
@@ -27619,7 +28204,9 @@
       <c r="U284" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V284" s="11"/>
+      <c r="V284" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="285" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="23"/>
@@ -27680,7 +28267,9 @@
       <c r="U285" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V285" s="11"/>
+      <c r="V285" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="286" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="24"/>
@@ -27741,7 +28330,9 @@
       <c r="U286" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V286" s="11"/>
+      <c r="V286" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="287" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="24"/>
@@ -27802,7 +28393,9 @@
       <c r="U287" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V287" s="11"/>
+      <c r="V287" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="288" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="24"/>
@@ -27863,7 +28456,9 @@
       <c r="U288" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V288" s="11"/>
+      <c r="V288" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="289" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="24"/>
@@ -27924,7 +28519,9 @@
       <c r="U289" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V289" s="11"/>
+      <c r="V289" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="290" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="25"/>
@@ -27985,7 +28582,9 @@
       <c r="U290" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V290" s="11"/>
+      <c r="V290" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="291" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B291" s="24"/>
@@ -28046,7 +28645,9 @@
       <c r="U291" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V291" s="11"/>
+      <c r="V291" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="292" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="24"/>
@@ -28107,7 +28708,9 @@
       <c r="U292" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V292" s="11"/>
+      <c r="V292" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="293" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="25"/>
@@ -28168,7 +28771,9 @@
       <c r="U293" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V293" s="11"/>
+      <c r="V293" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="294" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="25"/>
@@ -28229,7 +28834,9 @@
       <c r="U294" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V294" s="11"/>
+      <c r="V294" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="295" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C295" s="10">
@@ -28289,7 +28896,9 @@
       <c r="U295" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V295" s="11"/>
+      <c r="V295" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="296" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C296" s="10">
@@ -28349,7 +28958,9 @@
       <c r="U296" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V296" s="11"/>
+      <c r="V296" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="297" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="23"/>
@@ -28410,7 +29021,9 @@
       <c r="U297" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V297" s="11"/>
+      <c r="V297" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="298" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="24"/>
@@ -28471,7 +29084,9 @@
       <c r="U298" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V298" s="11"/>
+      <c r="V298" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="299" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="24"/>
@@ -28532,7 +29147,9 @@
       <c r="U299" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V299" s="11"/>
+      <c r="V299" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="300" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="24"/>
@@ -28593,7 +29210,9 @@
       <c r="U300" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V300" s="11"/>
+      <c r="V300" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="301" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="24"/>
@@ -28654,7 +29273,9 @@
       <c r="U301" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V301" s="11"/>
+      <c r="V301" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="302" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="25"/>
@@ -28715,7 +29336,9 @@
       <c r="U302" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V302" s="11"/>
+      <c r="V302" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="303" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="24"/>
@@ -28776,7 +29399,9 @@
       <c r="U303" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V303" s="11"/>
+      <c r="V303" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="304" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="24"/>
@@ -28837,7 +29462,9 @@
       <c r="U304" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V304" s="11"/>
+      <c r="V304" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="305" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="25"/>
@@ -28898,7 +29525,9 @@
       <c r="U305" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V305" s="11"/>
+      <c r="V305" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="306" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B306" s="25"/>
@@ -28959,7 +29588,9 @@
       <c r="U306" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V306" s="11"/>
+      <c r="V306" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="307" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C307" s="10">
@@ -29019,7 +29650,9 @@
       <c r="U307" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V307" s="11"/>
+      <c r="V307" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="308" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C308" s="10">
@@ -29079,7 +29712,9 @@
       <c r="U308" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V308" s="11"/>
+      <c r="V308" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="309" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C309" s="10">
@@ -29139,7 +29774,9 @@
       <c r="U309" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V309" s="11"/>
+      <c r="V309" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="310" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C310" s="10">
@@ -29199,7 +29836,9 @@
       <c r="U310" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V310" s="11"/>
+      <c r="V310" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="311" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C311" s="10">
@@ -29259,7 +29898,9 @@
       <c r="U311" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V311" s="11"/>
+      <c r="V311" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="312" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C312" s="10">
@@ -29319,7 +29960,9 @@
       <c r="U312" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V312" s="11"/>
+      <c r="V312" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="313" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C313" s="10">
@@ -29379,7 +30022,9 @@
       <c r="U313" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V313" s="11"/>
+      <c r="V313" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="314" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C314" s="10">
@@ -29439,7 +30084,9 @@
       <c r="U314" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V314" s="11"/>
+      <c r="V314" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="315" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C315" s="10">
@@ -29499,7 +30146,9 @@
       <c r="U315" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V315" s="11"/>
+      <c r="V315" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="316" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C316" s="10">
@@ -29559,7 +30208,9 @@
       <c r="U316" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V316" s="11"/>
+      <c r="V316" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="317" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C317" s="10">
@@ -29619,7 +30270,9 @@
       <c r="U317" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V317" s="11"/>
+      <c r="V317" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="318" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C318" s="10">
@@ -29679,7 +30332,9 @@
       <c r="U318" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V318" s="11"/>
+      <c r="V318" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="319" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="23"/>
@@ -29740,7 +30395,9 @@
       <c r="U319" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V319" s="11"/>
+      <c r="V319" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="320" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="24"/>
@@ -29801,7 +30458,9 @@
       <c r="U320" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V320" s="11"/>
+      <c r="V320" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="321" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="24"/>
@@ -29862,7 +30521,9 @@
       <c r="U321" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V321" s="11"/>
+      <c r="V321" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="322" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B322" s="24"/>
@@ -29923,7 +30584,9 @@
       <c r="U322" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V322" s="11"/>
+      <c r="V322" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="323" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B323" s="24"/>
@@ -29984,7 +30647,9 @@
       <c r="U323" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V323" s="11"/>
+      <c r="V323" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="324" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B324" s="25"/>
@@ -30045,7 +30710,9 @@
       <c r="U324" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V324" s="11"/>
+      <c r="V324" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="325" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="24"/>
@@ -30106,7 +30773,9 @@
       <c r="U325" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V325" s="11"/>
+      <c r="V325" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="326" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B326" s="24"/>
@@ -30167,7 +30836,9 @@
       <c r="U326" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V326" s="11"/>
+      <c r="V326" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="327" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B327" s="25"/>
@@ -30228,7 +30899,9 @@
       <c r="U327" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V327" s="11"/>
+      <c r="V327" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="328" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B328" s="25"/>
@@ -30289,7 +30962,9 @@
       <c r="U328" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V328" s="11"/>
+      <c r="V328" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="329" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C329" s="10">
@@ -30349,7 +31024,9 @@
       <c r="U329" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V329" s="11"/>
+      <c r="V329" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="330" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C330" s="10">
@@ -30409,7 +31086,9 @@
       <c r="U330" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V330" s="11"/>
+      <c r="V330" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="331" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B331" s="23"/>
@@ -30470,7 +31149,9 @@
       <c r="U331" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V331" s="11"/>
+      <c r="V331" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="332" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B332" s="24"/>
@@ -30531,7 +31212,9 @@
       <c r="U332" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V332" s="11"/>
+      <c r="V332" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="333" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B333" s="24"/>
@@ -30592,7 +31275,9 @@
       <c r="U333" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V333" s="11"/>
+      <c r="V333" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="334" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B334" s="24"/>
@@ -30653,7 +31338,9 @@
       <c r="U334" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V334" s="11"/>
+      <c r="V334" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="335" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B335" s="24"/>
@@ -30714,7 +31401,9 @@
       <c r="U335" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V335" s="11"/>
+      <c r="V335" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="336" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B336" s="25"/>
@@ -30775,7 +31464,9 @@
       <c r="U336" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V336" s="11"/>
+      <c r="V336" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="337" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B337" s="24"/>
@@ -30836,7 +31527,9 @@
       <c r="U337" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V337" s="11"/>
+      <c r="V337" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="338" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B338" s="24"/>
@@ -30897,7 +31590,9 @@
       <c r="U338" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V338" s="11"/>
+      <c r="V338" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="339" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B339" s="25"/>
@@ -30958,7 +31653,9 @@
       <c r="U339" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V339" s="11"/>
+      <c r="V339" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="340" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B340" s="25"/>
@@ -31019,7 +31716,9 @@
       <c r="U340" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V340" s="11"/>
+      <c r="V340" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="341" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C341" s="10">
@@ -31079,7 +31778,9 @@
       <c r="U341" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V341" s="11"/>
+      <c r="V341" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="342" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C342" s="10">
@@ -31139,7 +31840,9 @@
       <c r="U342" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V342" s="11"/>
+      <c r="V342" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="343" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B343" s="23"/>
@@ -31200,7 +31903,9 @@
       <c r="U343" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V343" s="11"/>
+      <c r="V343" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="344" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B344" s="24"/>
@@ -31261,7 +31966,9 @@
       <c r="U344" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V344" s="11"/>
+      <c r="V344" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="345" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B345" s="24"/>
@@ -31322,7 +32029,9 @@
       <c r="U345" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V345" s="11"/>
+      <c r="V345" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="346" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B346" s="24"/>
@@ -31383,7 +32092,9 @@
       <c r="U346" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V346" s="11"/>
+      <c r="V346" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="347" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B347" s="24"/>
@@ -31444,7 +32155,9 @@
       <c r="U347" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V347" s="11"/>
+      <c r="V347" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="348" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B348" s="25"/>
@@ -31505,7 +32218,9 @@
       <c r="U348" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V348" s="11"/>
+      <c r="V348" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="349" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B349" s="24"/>
@@ -31566,7 +32281,9 @@
       <c r="U349" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V349" s="11"/>
+      <c r="V349" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="350" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B350" s="24"/>
@@ -31627,7 +32344,9 @@
       <c r="U350" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V350" s="11"/>
+      <c r="V350" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="351" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B351" s="25"/>
@@ -31688,7 +32407,9 @@
       <c r="U351" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V351" s="11"/>
+      <c r="V351" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="352" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B352" s="25"/>
@@ -31749,7 +32470,9 @@
       <c r="U352" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V352" s="11"/>
+      <c r="V352" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="353" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C353" s="10">
@@ -31809,7 +32532,9 @@
       <c r="U353" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V353" s="11"/>
+      <c r="V353" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="354" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C354" s="10">
@@ -31869,7 +32594,9 @@
       <c r="U354" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V354" s="11"/>
+      <c r="V354" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="355" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C355" s="10">
@@ -31929,7 +32656,9 @@
       <c r="U355" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V355" s="11"/>
+      <c r="V355" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="356" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C356" s="10">
@@ -31989,7 +32718,9 @@
       <c r="U356" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V356" s="11"/>
+      <c r="V356" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="357" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C357" s="10">
@@ -32049,7 +32780,9 @@
       <c r="U357" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V357" s="11"/>
+      <c r="V357" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="358" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C358" s="10">
@@ -32109,7 +32842,9 @@
       <c r="U358" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V358" s="11"/>
+      <c r="V358" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="359" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C359" s="10">
@@ -32169,7 +32904,9 @@
       <c r="U359" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V359" s="11"/>
+      <c r="V359" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="360" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C360" s="10">
@@ -32229,7 +32966,9 @@
       <c r="U360" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V360" s="11"/>
+      <c r="V360" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="361" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C361" s="10">
@@ -32289,7 +33028,9 @@
       <c r="U361" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V361" s="11"/>
+      <c r="V361" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="362" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C362" s="10">
@@ -32349,7 +33090,9 @@
       <c r="U362" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V362" s="11"/>
+      <c r="V362" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="363" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C363" s="10">
@@ -32409,7 +33152,9 @@
       <c r="U363" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V363" s="11"/>
+      <c r="V363" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="364" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C364" s="10">
@@ -32469,7 +33214,9 @@
       <c r="U364" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V364" s="11"/>
+      <c r="V364" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="365" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="23"/>
@@ -32530,7 +33277,9 @@
       <c r="U365" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V365" s="11"/>
+      <c r="V365" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="366" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B366" s="24"/>
@@ -32591,7 +33340,9 @@
       <c r="U366" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V366" s="11"/>
+      <c r="V366" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="367" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B367" s="24"/>
@@ -32652,7 +33403,9 @@
       <c r="U367" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V367" s="11"/>
+      <c r="V367" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="368" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="24"/>
@@ -32713,7 +33466,9 @@
       <c r="U368" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V368" s="11"/>
+      <c r="V368" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="369" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="24"/>
@@ -32774,7 +33529,9 @@
       <c r="U369" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V369" s="11"/>
+      <c r="V369" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="370" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="25"/>
@@ -32835,7 +33592,9 @@
       <c r="U370" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V370" s="11"/>
+      <c r="V370" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="371" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="24"/>
@@ -32896,7 +33655,9 @@
       <c r="U371" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V371" s="11"/>
+      <c r="V371" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="372" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="24"/>
@@ -32957,7 +33718,9 @@
       <c r="U372" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V372" s="11"/>
+      <c r="V372" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="373" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="25"/>
@@ -33018,7 +33781,9 @@
       <c r="U373" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V373" s="11"/>
+      <c r="V373" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="374" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="25"/>
@@ -33079,7 +33844,9 @@
       <c r="U374" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V374" s="11"/>
+      <c r="V374" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="375" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C375" s="10">
@@ -33139,7 +33906,9 @@
       <c r="U375" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V375" s="11"/>
+      <c r="V375" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="376" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C376" s="10">
@@ -33199,7 +33968,9 @@
       <c r="U376" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V376" s="11"/>
+      <c r="V376" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="377" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B377" s="23"/>
@@ -33260,7 +34031,9 @@
       <c r="U377" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V377" s="11"/>
+      <c r="V377" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="378" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B378" s="24"/>
@@ -33321,7 +34094,9 @@
       <c r="U378" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V378" s="11"/>
+      <c r="V378" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="379" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B379" s="24"/>
@@ -33382,7 +34157,9 @@
       <c r="U379" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V379" s="11"/>
+      <c r="V379" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="380" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B380" s="24"/>
@@ -33443,7 +34220,9 @@
       <c r="U380" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V380" s="11"/>
+      <c r="V380" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="381" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B381" s="24"/>
@@ -33504,7 +34283,9 @@
       <c r="U381" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V381" s="11"/>
+      <c r="V381" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="382" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B382" s="25"/>
@@ -33565,7 +34346,9 @@
       <c r="U382" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V382" s="11"/>
+      <c r="V382" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="383" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B383" s="24"/>
@@ -33626,7 +34409,9 @@
       <c r="U383" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V383" s="11"/>
+      <c r="V383" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="384" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B384" s="24"/>
@@ -33687,7 +34472,9 @@
       <c r="U384" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V384" s="11"/>
+      <c r="V384" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="385" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B385" s="25"/>
@@ -33748,7 +34535,9 @@
       <c r="U385" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V385" s="11"/>
+      <c r="V385" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="386" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B386" s="25"/>
@@ -33809,7 +34598,9 @@
       <c r="U386" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V386" s="11"/>
+      <c r="V386" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="387" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C387" s="10">
@@ -33869,7 +34660,9 @@
       <c r="U387" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V387" s="11"/>
+      <c r="V387" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="388" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C388" s="10">
@@ -33929,7 +34722,9 @@
       <c r="U388" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V388" s="11"/>
+      <c r="V388" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="389" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B389" s="23"/>
@@ -33990,7 +34785,9 @@
       <c r="U389" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V389" s="11"/>
+      <c r="V389" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="390" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B390" s="24"/>
@@ -34051,7 +34848,9 @@
       <c r="U390" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V390" s="11"/>
+      <c r="V390" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="391" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B391" s="24"/>
@@ -34112,7 +34911,9 @@
       <c r="U391" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V391" s="11"/>
+      <c r="V391" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="392" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B392" s="24"/>
@@ -34173,7 +34974,9 @@
       <c r="U392" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V392" s="11"/>
+      <c r="V392" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="393" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B393" s="24"/>
@@ -34234,7 +35037,9 @@
       <c r="U393" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V393" s="11"/>
+      <c r="V393" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="394" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B394" s="25"/>
@@ -34295,7 +35100,9 @@
       <c r="U394" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V394" s="11"/>
+      <c r="V394" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="395" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B395" s="24"/>
@@ -34356,7 +35163,9 @@
       <c r="U395" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V395" s="11"/>
+      <c r="V395" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="396" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B396" s="24"/>
@@ -34417,7 +35226,9 @@
       <c r="U396" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V396" s="11"/>
+      <c r="V396" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="397" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B397" s="25"/>
@@ -34478,7 +35289,9 @@
       <c r="U397" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V397" s="11"/>
+      <c r="V397" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="398" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B398" s="25"/>
@@ -34539,7 +35352,9 @@
       <c r="U398" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V398" s="11"/>
+      <c r="V398" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="399" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C399" s="10">
@@ -34599,7 +35414,9 @@
       <c r="U399" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V399" s="11"/>
+      <c r="V399" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="400" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C400" s="10">
@@ -34659,7 +35476,9 @@
       <c r="U400" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V400" s="11"/>
+      <c r="V400" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="401" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C401" s="10">
@@ -34719,7 +35538,9 @@
       <c r="U401" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V401" s="11"/>
+      <c r="V401" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="402" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C402" s="10">
@@ -34779,7 +35600,9 @@
       <c r="U402" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V402" s="11"/>
+      <c r="V402" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="403" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C403" s="10">
@@ -34839,7 +35662,9 @@
       <c r="U403" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V403" s="11"/>
+      <c r="V403" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="404" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C404" s="10">
@@ -34899,7 +35724,9 @@
       <c r="U404" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V404" s="11"/>
+      <c r="V404" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="405" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C405" s="10">
@@ -34959,7 +35786,9 @@
       <c r="U405" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V405" s="11"/>
+      <c r="V405" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="406" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C406" s="10">
@@ -35019,7 +35848,9 @@
       <c r="U406" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V406" s="11"/>
+      <c r="V406" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="407" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C407" s="10">
@@ -35079,7 +35910,9 @@
       <c r="U407" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V407" s="11"/>
+      <c r="V407" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="408" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C408" s="10">
@@ -35139,7 +35972,9 @@
       <c r="U408" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V408" s="11"/>
+      <c r="V408" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="409" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C409" s="10">
@@ -35199,7 +36034,9 @@
       <c r="U409" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V409" s="11"/>
+      <c r="V409" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="410" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C410" s="10">
@@ -35259,7 +36096,9 @@
       <c r="U410" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="V410" s="11"/>
+      <c r="V410" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="411" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B411" s="23"/>
@@ -35320,7 +36159,9 @@
       <c r="U411" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="V411" s="11"/>
+      <c r="V411" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="412" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B412" s="23"/>
@@ -35381,7 +36222,9 @@
       <c r="U412" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="V412" s="11"/>
+      <c r="V412" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="413" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B413" s="23"/>
@@ -35442,7 +36285,9 @@
       <c r="U413" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="V413" s="11"/>
+      <c r="V413" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="414" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B414" s="23"/>
@@ -35503,7 +36348,9 @@
       <c r="U414" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="V414" s="11"/>
+      <c r="V414" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="415" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B415" s="23"/>
@@ -35564,7 +36411,9 @@
       <c r="U415" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="V415" s="11"/>
+      <c r="V415" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="416" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B416" s="23"/>
@@ -35625,7 +36474,9 @@
       <c r="U416" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="V416" s="11"/>
+      <c r="V416" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="417" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B417" s="23"/>
@@ -35686,7 +36537,9 @@
       <c r="U417" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="V417" s="11"/>
+      <c r="V417" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="418" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B418" s="23"/>
@@ -35747,7 +36600,9 @@
       <c r="U418" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="V418" s="11"/>
+      <c r="V418" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="419" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B419" s="23"/>
@@ -35808,7 +36663,9 @@
       <c r="U419" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="V419" s="11"/>
+      <c r="V419" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="420" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B420" s="23"/>
@@ -35869,7 +36726,9 @@
       <c r="U420" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="V420" s="11"/>
+      <c r="V420" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="421" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B421" s="23"/>
@@ -35930,7 +36789,9 @@
       <c r="U421" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="V421" s="11"/>
+      <c r="V421" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="422" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B422" s="23"/>
@@ -35991,7 +36852,9 @@
       <c r="U422" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="V422" s="11"/>
+      <c r="V422" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="423" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B423" s="23"/>
@@ -36052,7 +36915,9 @@
       <c r="U423" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="V423" s="11"/>
+      <c r="V423" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="424" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B424" s="23"/>
@@ -36113,7 +36978,9 @@
       <c r="U424" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="V424" s="11"/>
+      <c r="V424" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="425" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B425" s="23"/>
@@ -36174,7 +37041,9 @@
       <c r="U425" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="V425" s="11"/>
+      <c r="V425" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="426" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B426" s="23"/>
@@ -36235,7 +37104,9 @@
       <c r="U426" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="V426" s="11"/>
+      <c r="V426" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="427" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B427" s="23"/>
@@ -36296,7 +37167,9 @@
       <c r="U427" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="V427" s="11"/>
+      <c r="V427" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="428" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B428" s="23"/>
@@ -36357,7 +37230,9 @@
       <c r="U428" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="V428" s="11"/>
+      <c r="V428" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="429" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B429" s="23"/>
@@ -36418,7 +37293,9 @@
       <c r="U429" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="V429" s="11"/>
+      <c r="V429" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="430" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B430" s="23"/>
@@ -36479,7 +37356,9 @@
       <c r="U430" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="V430" s="11"/>
+      <c r="V430" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="431" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B431" s="23"/>
@@ -36540,7 +37419,9 @@
       <c r="U431" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="V431" s="11"/>
+      <c r="V431" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="432" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B432" s="23"/>
@@ -36601,7 +37482,9 @@
       <c r="U432" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="V432" s="11"/>
+      <c r="V432" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="433" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B433" s="23"/>
@@ -36662,7 +37545,9 @@
       <c r="U433" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="V433" s="11"/>
+      <c r="V433" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="434" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B434" s="23"/>
@@ -36723,7 +37608,9 @@
       <c r="U434" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="V434" s="11"/>
+      <c r="V434" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="435" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C435" s="10">
@@ -36783,7 +37670,9 @@
       <c r="U435" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="V435" s="10"/>
+      <c r="V435" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="436" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C436" s="10">
@@ -36843,7 +37732,9 @@
       <c r="U436" s="42" t="s">
         <v>442</v>
       </c>
-      <c r="V436" s="33"/>
+      <c r="V436" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="437" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C437" s="10">
@@ -36903,7 +37794,9 @@
       <c r="U437" s="42" t="s">
         <v>444</v>
       </c>
-      <c r="V437" s="33"/>
+      <c r="V437" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="438" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C438" s="10">
@@ -36963,7 +37856,9 @@
       <c r="U438" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="V438" s="11"/>
+      <c r="V438" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="439" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C439" s="10">
@@ -37023,7 +37918,9 @@
       <c r="U439" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="V439" s="16"/>
+      <c r="V439" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="440" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C440" s="10">
@@ -37083,7 +37980,9 @@
       <c r="U440" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="V440" s="11"/>
+      <c r="V440" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="441" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C441" s="10">
@@ -37143,7 +38042,9 @@
       <c r="U441" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="V441" s="10"/>
+      <c r="V441" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="442" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C442" s="10">
@@ -37203,7 +38104,9 @@
       <c r="U442" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="V442" s="10"/>
+      <c r="V442" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="443" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C443" s="10">
@@ -37263,7 +38166,9 @@
       <c r="U443" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="V443" s="16"/>
+      <c r="V443" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="444" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C444" s="10">
@@ -37323,7 +38228,9 @@
       <c r="U444" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="V444" s="10"/>
+      <c r="V444" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="445" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C445" s="10">
@@ -37383,7 +38290,9 @@
       <c r="U445" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="V445" s="10"/>
+      <c r="V445" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="446" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C446" s="10">
@@ -37443,7 +38352,9 @@
       <c r="U446" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="V446" s="11"/>
+      <c r="V446" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="447" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C447" s="10">
@@ -37503,7 +38414,9 @@
       <c r="U447" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="V447" s="10"/>
+      <c r="V447" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="448" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C448" s="10">
@@ -37563,7 +38476,9 @@
       <c r="U448" s="15" t="s">
         <v>465</v>
       </c>
-      <c r="V448" s="10"/>
+      <c r="V448" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="449" spans="2:28" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C449" s="10">
@@ -37623,7 +38538,9 @@
       <c r="U449" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="V449" s="11"/>
+      <c r="V449" s="10">
+        <v>0</v>
+      </c>
       <c r="W449"/>
       <c r="X449"/>
       <c r="Y449"/>
@@ -37689,7 +38606,9 @@
       <c r="U450" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="V450" s="11"/>
+      <c r="V450" s="10">
+        <v>0</v>
+      </c>
       <c r="W450"/>
       <c r="X450"/>
       <c r="Y450"/>
@@ -37755,7 +38674,9 @@
       <c r="U451" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="V451" s="11"/>
+      <c r="V451" s="10">
+        <v>0</v>
+      </c>
       <c r="W451"/>
       <c r="X451"/>
       <c r="Y451"/>
@@ -37821,7 +38742,9 @@
       <c r="U452" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="V452" s="11"/>
+      <c r="V452" s="10">
+        <v>0</v>
+      </c>
       <c r="W452"/>
       <c r="X452"/>
       <c r="Y452"/>
@@ -37887,7 +38810,9 @@
       <c r="U453" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="V453" s="11"/>
+      <c r="V453" s="10">
+        <v>0</v>
+      </c>
       <c r="W453"/>
       <c r="X453"/>
       <c r="Y453"/>
@@ -37953,7 +38878,9 @@
       <c r="U454" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="V454" s="11"/>
+      <c r="V454" s="10">
+        <v>0</v>
+      </c>
       <c r="W454"/>
       <c r="X454"/>
       <c r="Y454"/>
@@ -38019,7 +38946,9 @@
       <c r="U455" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="V455" s="11"/>
+      <c r="V455" s="10">
+        <v>0</v>
+      </c>
       <c r="W455"/>
       <c r="X455"/>
       <c r="Y455"/>
@@ -38085,7 +39014,9 @@
       <c r="U456" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="V456" s="11"/>
+      <c r="V456" s="10">
+        <v>0</v>
+      </c>
       <c r="W456"/>
       <c r="X456"/>
       <c r="Y456"/>
@@ -38151,7 +39082,9 @@
       <c r="U457" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="V457" s="11"/>
+      <c r="V457" s="10">
+        <v>0</v>
+      </c>
       <c r="W457"/>
       <c r="X457"/>
       <c r="Y457"/>
@@ -38217,7 +39150,9 @@
       <c r="U458" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="V458" s="11"/>
+      <c r="V458" s="10">
+        <v>0</v>
+      </c>
       <c r="W458"/>
       <c r="X458"/>
       <c r="Y458"/>
@@ -38283,7 +39218,9 @@
       <c r="U459" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="V459" s="11"/>
+      <c r="V459" s="10">
+        <v>0</v>
+      </c>
       <c r="W459"/>
       <c r="X459"/>
       <c r="Y459"/>
@@ -38349,7 +39286,9 @@
       <c r="U460" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="V460" s="11"/>
+      <c r="V460" s="10">
+        <v>0</v>
+      </c>
       <c r="W460"/>
       <c r="X460"/>
       <c r="Y460"/>
@@ -38415,7 +39354,9 @@
       <c r="U461" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="V461" s="11"/>
+      <c r="V461" s="10">
+        <v>0</v>
+      </c>
       <c r="W461"/>
       <c r="X461"/>
       <c r="Y461"/>
@@ -38482,7 +39423,9 @@
       <c r="U462" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V462" s="11"/>
+      <c r="V462" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="463" spans="2:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B463" s="24"/>
@@ -38543,7 +39486,9 @@
       <c r="U463" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V463" s="16"/>
+      <c r="V463" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="464" spans="2:28" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B464" s="24"/>
@@ -38604,7 +39549,9 @@
       <c r="U464" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V464" s="16"/>
+      <c r="V464" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="465" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B465" s="24"/>
@@ -38665,7 +39612,9 @@
       <c r="U465" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V465" s="16"/>
+      <c r="V465" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="466" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B466" s="24"/>
@@ -38726,7 +39675,9 @@
       <c r="U466" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V466" s="16"/>
+      <c r="V466" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="467" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B467" s="25"/>
@@ -38787,7 +39738,9 @@
       <c r="U467" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V467" s="16"/>
+      <c r="V467" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="468" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B468" s="24"/>
@@ -38848,7 +39801,9 @@
       <c r="U468" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V468" s="16"/>
+      <c r="V468" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="469" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B469" s="24"/>
@@ -38909,7 +39864,9 @@
       <c r="U469" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V469" s="16"/>
+      <c r="V469" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="470" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B470" s="25"/>
@@ -38970,7 +39927,9 @@
       <c r="U470" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V470" s="16"/>
+      <c r="V470" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="471" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B471" s="25"/>
@@ -39031,7 +39990,9 @@
       <c r="U471" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V471" s="16"/>
+      <c r="V471" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="472" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C472" s="10">
@@ -39091,7 +40052,9 @@
       <c r="U472" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V472" s="16"/>
+      <c r="V472" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="473" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C473" s="10">
@@ -39151,7 +40114,9 @@
       <c r="U473" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V473" s="11"/>
+      <c r="V473" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="474" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C474" s="10">
@@ -39211,7 +40176,9 @@
       <c r="U474" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V474" s="11"/>
+      <c r="V474" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="475" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C475" s="10">
@@ -39271,7 +40238,9 @@
       <c r="U475" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V475" s="11"/>
+      <c r="V475" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="476" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C476" s="10">
@@ -39331,7 +40300,9 @@
       <c r="U476" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V476" s="11"/>
+      <c r="V476" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="477" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C477" s="10">
@@ -39391,7 +40362,9 @@
       <c r="U477" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V477" s="11"/>
+      <c r="V477" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="478" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C478" s="10">
@@ -39451,7 +40424,9 @@
       <c r="U478" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V478" s="11"/>
+      <c r="V478" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="479" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C479" s="10">
@@ -39511,7 +40486,9 @@
       <c r="U479" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V479" s="11"/>
+      <c r="V479" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="480" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C480" s="10">
@@ -39571,7 +40548,9 @@
       <c r="U480" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V480" s="11"/>
+      <c r="V480" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="481" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C481" s="10">
@@ -39631,7 +40610,9 @@
       <c r="U481" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V481" s="11"/>
+      <c r="V481" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="482" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C482" s="10">
@@ -39691,7 +40672,9 @@
       <c r="U482" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V482" s="11"/>
+      <c r="V482" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="483" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B483" s="23"/>
@@ -39752,7 +40735,9 @@
       <c r="U483" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V483" s="11"/>
+      <c r="V483" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="484" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B484" s="24"/>
@@ -39813,7 +40798,9 @@
       <c r="U484" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V484" s="11"/>
+      <c r="V484" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="485" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B485" s="24"/>
@@ -39874,7 +40861,9 @@
       <c r="U485" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V485" s="11"/>
+      <c r="V485" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="486" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B486" s="24"/>
@@ -39935,7 +40924,9 @@
       <c r="U486" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V486" s="11"/>
+      <c r="V486" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="487" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B487" s="24"/>
@@ -39996,7 +40987,9 @@
       <c r="U487" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V487" s="11"/>
+      <c r="V487" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="488" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B488" s="25"/>
@@ -40057,7 +41050,9 @@
       <c r="U488" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V488" s="11"/>
+      <c r="V488" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="489" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B489" s="24"/>
@@ -40118,7 +41113,9 @@
       <c r="U489" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V489" s="11"/>
+      <c r="V489" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="490" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B490" s="24"/>
@@ -40179,7 +41176,9 @@
       <c r="U490" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V490" s="11"/>
+      <c r="V490" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="491" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B491" s="25"/>
@@ -40240,7 +41239,9 @@
       <c r="U491" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V491" s="11"/>
+      <c r="V491" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="492" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B492" s="25"/>
@@ -40301,7 +41302,9 @@
       <c r="U492" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V492" s="11"/>
+      <c r="V492" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="493" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C493" s="10">
@@ -40361,7 +41364,9 @@
       <c r="U493" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V493" s="11"/>
+      <c r="V493" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="494" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C494" s="10">
@@ -40421,7 +41426,9 @@
       <c r="U494" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V494" s="11"/>
+      <c r="V494" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="495" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C495" s="10">
@@ -40481,7 +41488,9 @@
       <c r="U495" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V495" s="11"/>
+      <c r="V495" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="496" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C496" s="10">
@@ -40541,7 +41550,9 @@
       <c r="U496" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V496" s="11"/>
+      <c r="V496" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="497" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C497" s="10">
@@ -40601,7 +41612,9 @@
       <c r="U497" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V497" s="11"/>
+      <c r="V497" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="498" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C498" s="10">
@@ -40661,7 +41674,9 @@
       <c r="U498" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V498" s="11"/>
+      <c r="V498" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="499" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C499" s="10">
@@ -40721,7 +41736,9 @@
       <c r="U499" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V499" s="11"/>
+      <c r="V499" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="500" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C500" s="10">
@@ -40781,7 +41798,9 @@
       <c r="U500" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V500" s="11"/>
+      <c r="V500" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="501" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C501" s="10">
@@ -40841,7 +41860,9 @@
       <c r="U501" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V501" s="11"/>
+      <c r="V501" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="502" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C502" s="10">
@@ -40901,7 +41922,9 @@
       <c r="U502" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V502" s="11"/>
+      <c r="V502" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="503" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C503" s="10">
@@ -40961,7 +41984,9 @@
       <c r="U503" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V503" s="11"/>
+      <c r="V503" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="504" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B504" s="23"/>
@@ -41022,7 +42047,9 @@
       <c r="U504" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V504" s="11"/>
+      <c r="V504" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="505" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B505" s="24"/>
@@ -41083,7 +42110,9 @@
       <c r="U505" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V505" s="11"/>
+      <c r="V505" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="506" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B506" s="24"/>
@@ -41144,7 +42173,9 @@
       <c r="U506" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V506" s="11"/>
+      <c r="V506" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="507" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B507" s="24"/>
@@ -41205,7 +42236,9 @@
       <c r="U507" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V507" s="11"/>
+      <c r="V507" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="508" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B508" s="24"/>
@@ -41266,7 +42299,9 @@
       <c r="U508" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V508" s="11"/>
+      <c r="V508" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="509" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B509" s="25"/>
@@ -41327,7 +42362,9 @@
       <c r="U509" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V509" s="11"/>
+      <c r="V509" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="510" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B510" s="24"/>
@@ -41388,7 +42425,9 @@
       <c r="U510" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V510" s="11"/>
+      <c r="V510" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="511" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B511" s="24"/>
@@ -41449,7 +42488,9 @@
       <c r="U511" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V511" s="11"/>
+      <c r="V511" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="512" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B512" s="25"/>
@@ -41510,7 +42551,9 @@
       <c r="U512" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V512" s="11"/>
+      <c r="V512" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="513" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B513" s="25"/>
@@ -41571,7 +42614,9 @@
       <c r="U513" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V513" s="11"/>
+      <c r="V513" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="514" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C514" s="10">
@@ -41631,7 +42676,9 @@
       <c r="U514" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V514" s="11"/>
+      <c r="V514" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="515" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C515" s="10">
@@ -41691,7 +42738,9 @@
       <c r="U515" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V515" s="11"/>
+      <c r="V515" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="516" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C516" s="10">
@@ -41751,7 +42800,9 @@
       <c r="U516" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V516" s="11"/>
+      <c r="V516" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="517" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C517" s="10">
@@ -41811,7 +42862,9 @@
       <c r="U517" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V517" s="11"/>
+      <c r="V517" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="518" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C518" s="10">
@@ -41871,7 +42924,9 @@
       <c r="U518" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V518" s="11"/>
+      <c r="V518" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="519" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C519" s="10">
@@ -41931,7 +42986,9 @@
       <c r="U519" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V519" s="11"/>
+      <c r="V519" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="520" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C520" s="10">
@@ -41991,7 +43048,9 @@
       <c r="U520" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V520" s="11"/>
+      <c r="V520" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="521" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C521" s="10">
@@ -42051,7 +43110,9 @@
       <c r="U521" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V521" s="11"/>
+      <c r="V521" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="522" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C522" s="10">
@@ -42111,7 +43172,9 @@
       <c r="U522" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V522" s="11"/>
+      <c r="V522" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="523" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C523" s="10">
@@ -42171,7 +43234,9 @@
       <c r="U523" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V523" s="11"/>
+      <c r="V523" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="524" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C524" s="10">
@@ -42231,7 +43296,9 @@
       <c r="U524" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V524" s="11"/>
+      <c r="V524" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="525" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B525" s="23"/>
@@ -42292,7 +43359,9 @@
       <c r="U525" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V525" s="11"/>
+      <c r="V525" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="526" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B526" s="24"/>
@@ -42353,7 +43422,9 @@
       <c r="U526" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V526" s="11"/>
+      <c r="V526" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="527" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B527" s="24"/>
@@ -42414,7 +43485,9 @@
       <c r="U527" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V527" s="11"/>
+      <c r="V527" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="528" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B528" s="24"/>
@@ -42475,7 +43548,9 @@
       <c r="U528" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V528" s="11"/>
+      <c r="V528" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="529" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B529" s="24"/>
@@ -42536,7 +43611,9 @@
       <c r="U529" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V529" s="11"/>
+      <c r="V529" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="530" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B530" s="25"/>
@@ -42597,7 +43674,9 @@
       <c r="U530" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V530" s="11"/>
+      <c r="V530" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="531" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B531" s="24"/>
@@ -42658,7 +43737,9 @@
       <c r="U531" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V531" s="11"/>
+      <c r="V531" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="532" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B532" s="24"/>
@@ -42719,7 +43800,9 @@
       <c r="U532" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V532" s="11"/>
+      <c r="V532" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="533" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B533" s="25"/>
@@ -42780,7 +43863,9 @@
       <c r="U533" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V533" s="11"/>
+      <c r="V533" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="534" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B534" s="25"/>
@@ -42841,7 +43926,9 @@
       <c r="U534" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V534" s="11"/>
+      <c r="V534" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="535" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C535" s="10">
@@ -42901,7 +43988,9 @@
       <c r="U535" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V535" s="11"/>
+      <c r="V535" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="536" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C536" s="10">
@@ -42961,7 +44050,9 @@
       <c r="U536" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V536" s="11"/>
+      <c r="V536" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="537" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C537" s="10">
@@ -43021,7 +44112,9 @@
       <c r="U537" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V537" s="11"/>
+      <c r="V537" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="538" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C538" s="10">
@@ -43081,7 +44174,9 @@
       <c r="U538" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V538" s="11"/>
+      <c r="V538" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="539" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C539" s="10">
@@ -43141,7 +44236,9 @@
       <c r="U539" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V539" s="11"/>
+      <c r="V539" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="540" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C540" s="10">
@@ -43201,7 +44298,9 @@
       <c r="U540" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V540" s="11"/>
+      <c r="V540" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="541" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C541" s="10">
@@ -43261,7 +44360,9 @@
       <c r="U541" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V541" s="11"/>
+      <c r="V541" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="542" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C542" s="10">
@@ -43321,7 +44422,9 @@
       <c r="U542" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V542" s="11"/>
+      <c r="V542" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="543" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C543" s="10">
@@ -43381,7 +44484,9 @@
       <c r="U543" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V543" s="11"/>
+      <c r="V543" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="544" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C544" s="10">
@@ -43441,7 +44546,9 @@
       <c r="U544" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V544" s="11"/>
+      <c r="V544" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="545" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C545" s="10">
@@ -43501,7 +44608,9 @@
       <c r="U545" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V545" s="11"/>
+      <c r="V545" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="546" spans="2:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B546" s="23"/>
@@ -43562,7 +44671,9 @@
       <c r="U546" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V546" s="11"/>
+      <c r="V546" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="547" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B547" s="24"/>
@@ -43623,7 +44734,9 @@
       <c r="U547" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V547" s="11"/>
+      <c r="V547" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="548" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B548" s="24"/>
@@ -43684,7 +44797,9 @@
       <c r="U548" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V548" s="11"/>
+      <c r="V548" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="549" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B549" s="24"/>
@@ -43745,7 +44860,9 @@
       <c r="U549" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V549" s="11"/>
+      <c r="V549" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="550" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B550" s="24"/>
@@ -43806,7 +44923,9 @@
       <c r="U550" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V550" s="11"/>
+      <c r="V550" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="551" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B551" s="25"/>
@@ -43867,7 +44986,9 @@
       <c r="U551" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V551" s="11"/>
+      <c r="V551" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="552" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B552" s="24"/>
@@ -43928,7 +45049,9 @@
       <c r="U552" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V552" s="11"/>
+      <c r="V552" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="553" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B553" s="24"/>
@@ -43989,7 +45112,9 @@
       <c r="U553" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V553" s="11"/>
+      <c r="V553" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="554" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B554" s="25"/>
@@ -44050,7 +45175,9 @@
       <c r="U554" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V554" s="11"/>
+      <c r="V554" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="555" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B555" s="25"/>
@@ -44111,7 +45238,9 @@
       <c r="U555" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V555" s="11"/>
+      <c r="V555" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="556" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C556" s="10">
@@ -44171,7 +45300,9 @@
       <c r="U556" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V556" s="11"/>
+      <c r="V556" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="557" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C557" s="10">
@@ -44231,7 +45362,9 @@
       <c r="U557" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V557" s="11"/>
+      <c r="V557" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="558" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C558" s="10">
@@ -44291,7 +45424,9 @@
       <c r="U558" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V558" s="11"/>
+      <c r="V558" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="559" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C559" s="10">
@@ -44351,7 +45486,9 @@
       <c r="U559" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V559" s="11"/>
+      <c r="V559" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="560" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C560" s="10">
@@ -44411,7 +45548,9 @@
       <c r="U560" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V560" s="11"/>
+      <c r="V560" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="561" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C561" s="10">
@@ -44471,7 +45610,9 @@
       <c r="U561" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V561" s="11"/>
+      <c r="V561" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="562" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C562" s="10">
@@ -44531,7 +45672,9 @@
       <c r="U562" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V562" s="11"/>
+      <c r="V562" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="563" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C563" s="10">
@@ -44591,7 +45734,9 @@
       <c r="U563" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V563" s="11"/>
+      <c r="V563" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="564" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C564" s="10">
@@ -44651,7 +45796,9 @@
       <c r="U564" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V564" s="11"/>
+      <c r="V564" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="565" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C565" s="10">
@@ -44711,7 +45858,9 @@
       <c r="U565" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V565" s="11"/>
+      <c r="V565" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="566" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C566" s="10">
@@ -44771,7 +45920,9 @@
       <c r="U566" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="V566" s="11"/>
+      <c r="V566" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="567" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C567" s="10">
@@ -44831,7 +45982,9 @@
       <c r="U567" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="V567" s="10"/>
+      <c r="V567" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="568" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C568" s="10">
@@ -44891,7 +46044,9 @@
       <c r="U568" s="44" t="s">
         <v>508</v>
       </c>
-      <c r="V568" s="22"/>
+      <c r="V568" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="569" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C569" s="10">
@@ -44951,7 +46106,9 @@
       <c r="U569" s="29" t="s">
         <v>512</v>
       </c>
-      <c r="V569" s="22"/>
+      <c r="V569" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="570" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C570" s="10">
@@ -45011,7 +46168,9 @@
       <c r="U570" s="44" t="s">
         <v>515</v>
       </c>
-      <c r="V570" s="22"/>
+      <c r="V570" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="571" spans="3:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C571" s="10">
@@ -45071,7 +46230,9 @@
       <c r="U571" s="48" t="s">
         <v>518</v>
       </c>
-      <c r="V571" s="45"/>
+      <c r="V571" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="572" spans="3:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C572" s="10">
@@ -45131,7 +46292,9 @@
       <c r="U572" s="47" t="s">
         <v>519</v>
       </c>
-      <c r="V572" s="45"/>
+      <c r="V572" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="573" spans="3:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C573" s="10">
@@ -45191,7 +46354,9 @@
       <c r="U573" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="V573" s="10"/>
+      <c r="V573" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="574" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C574" s="10">
@@ -45251,7 +46416,9 @@
       <c r="U574" s="44" t="s">
         <v>520</v>
       </c>
-      <c r="V574" s="22"/>
+      <c r="V574" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="575" spans="3:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C575" s="10">
@@ -45311,7 +46478,9 @@
       <c r="U575" s="47" t="s">
         <v>522</v>
       </c>
-      <c r="V575" s="45"/>
+      <c r="V575" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="576" spans="3:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C576" s="10">
@@ -45371,7 +46540,9 @@
       <c r="U576" s="47" t="s">
         <v>523</v>
       </c>
-      <c r="V576" s="45"/>
+      <c r="V576" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="577" spans="3:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C577" s="10">
@@ -45431,7 +46602,9 @@
       <c r="U577" s="47" t="s">
         <v>524</v>
       </c>
-      <c r="V577" s="45"/>
+      <c r="V577" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="578" spans="3:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C578" s="10">
@@ -45491,7 +46664,9 @@
       <c r="U578" s="47" t="s">
         <v>525</v>
       </c>
-      <c r="V578" s="45"/>
+      <c r="V578" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="579" spans="3:22" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C579" s="10">
@@ -45551,7 +46726,9 @@
       <c r="U579" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="V579" s="10"/>
+      <c r="V579" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="580" spans="3:22" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C580" s="10">
@@ -45611,7 +46788,9 @@
       <c r="U580" s="47" t="s">
         <v>546</v>
       </c>
-      <c r="V580" s="10"/>
+      <c r="V580" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="581" spans="3:22" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C581" s="10">
@@ -45671,7 +46850,9 @@
       <c r="U581" s="52" t="s">
         <v>528</v>
       </c>
-      <c r="V581" s="10"/>
+      <c r="V581" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="582" spans="3:22" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C582" s="10">
@@ -45731,7 +46912,9 @@
       <c r="U582" s="52" t="s">
         <v>529</v>
       </c>
-      <c r="V582" s="10"/>
+      <c r="V582" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="583" spans="3:22" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C583" s="10">
@@ -45791,7 +46974,9 @@
       <c r="U583" s="51" t="s">
         <v>530</v>
       </c>
-      <c r="V583" s="22"/>
+      <c r="V583" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="584" spans="3:22" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C584" s="10">
@@ -45851,7 +47036,9 @@
       <c r="U584" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="V584" s="10"/>
+      <c r="V584" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="585" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C585" s="10">
@@ -45911,7 +47098,9 @@
       <c r="U585" s="44" t="s">
         <v>532</v>
       </c>
-      <c r="V585" s="22"/>
+      <c r="V585" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="586" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C586" s="10">
@@ -45971,7 +47160,9 @@
       <c r="U586" s="44" t="s">
         <v>534</v>
       </c>
-      <c r="V586" s="22"/>
+      <c r="V586" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="587" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C587" s="10">
@@ -46031,7 +47222,9 @@
       <c r="U587" s="44" t="s">
         <v>535</v>
       </c>
-      <c r="V587" s="22"/>
+      <c r="V587" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="588" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C588" s="10">
@@ -46091,7 +47284,9 @@
       <c r="U588" s="29" t="s">
         <v>536</v>
       </c>
-      <c r="V588" s="22"/>
+      <c r="V588" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="589" spans="3:22" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C589" s="10">
@@ -46151,7 +47346,9 @@
       <c r="U589" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="V589" s="10"/>
+      <c r="V589" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="590" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C590" s="10">
@@ -46211,7 +47408,9 @@
       <c r="U590" s="44" t="s">
         <v>540</v>
       </c>
-      <c r="V590" s="22"/>
+      <c r="V590" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="591" spans="3:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C591" s="10">
@@ -46271,7 +47470,9 @@
       <c r="U591" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="V591" s="22"/>
+      <c r="V591" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="592" spans="3:22" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C592" s="10">
@@ -46331,7 +47532,9 @@
       <c r="U592" s="52" t="s">
         <v>542</v>
       </c>
-      <c r="V592" s="10"/>
+      <c r="V592" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="593" spans="2:22" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C593" s="10">
@@ -46391,7 +47594,9 @@
       <c r="U593" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="V593" s="45"/>
+      <c r="V593" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="594" spans="2:22" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C594" s="10">
@@ -46451,7 +47656,9 @@
       <c r="U594" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="V594" s="10"/>
+      <c r="V594" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="595" spans="2:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C595" s="10">
@@ -46511,7 +47718,9 @@
       <c r="U595" s="44" t="s">
         <v>535</v>
       </c>
-      <c r="V595" s="22"/>
+      <c r="V595" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="596" spans="2:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C596" s="10">
@@ -46571,7 +47780,9 @@
       <c r="U596" s="44" t="s">
         <v>545</v>
       </c>
-      <c r="V596" s="22"/>
+      <c r="V596" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="597" spans="2:22" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C597" s="10">
@@ -46631,7 +47842,9 @@
       <c r="U597" s="47" t="s">
         <v>547</v>
       </c>
-      <c r="V597" s="10"/>
+      <c r="V597" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="598" spans="2:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C598" s="10">
@@ -46691,7 +47904,9 @@
       <c r="U598" s="44" t="s">
         <v>549</v>
       </c>
-      <c r="V598" s="22"/>
+      <c r="V598" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="599" spans="2:22" s="49" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C599" s="10">
@@ -46751,7 +47966,9 @@
       <c r="U599" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="V599" s="10"/>
+      <c r="V599" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="600" spans="2:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C600" s="10">
@@ -46811,7 +48028,9 @@
       <c r="U600" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="V600" s="22"/>
+      <c r="V600" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="601" spans="2:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C601" s="10">
@@ -46871,7 +48090,9 @@
       <c r="U601" s="44" t="s">
         <v>553</v>
       </c>
-      <c r="V601" s="22"/>
+      <c r="V601" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="602" spans="2:22" s="50" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C602" s="10">
@@ -46931,7 +48152,9 @@
       <c r="U602" s="51" t="s">
         <v>554</v>
       </c>
-      <c r="V602" s="22"/>
+      <c r="V602" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="603" spans="2:22" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C603" s="10">
@@ -46991,7 +48214,9 @@
       <c r="U603" s="29" t="s">
         <v>558</v>
       </c>
-      <c r="V603" s="22"/>
+      <c r="V603" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="604" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B604" s="24"/>
@@ -47052,7 +48277,9 @@
       <c r="U604" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="V604" s="11"/>
+      <c r="V604" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="605" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B605" s="25"/>
@@ -47113,7 +48340,9 @@
       <c r="U605" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="V605" s="11"/>
+      <c r="V605" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="606" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C606" s="10">
@@ -47173,7 +48402,9 @@
       <c r="U606" s="15" t="s">
         <v>484</v>
       </c>
-      <c r="V606" s="10"/>
+      <c r="V606" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="607" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B607" s="24"/>
@@ -47234,7 +48465,9 @@
       <c r="U607" s="15" t="s">
         <v>491</v>
       </c>
-      <c r="V607" s="11"/>
+      <c r="V607" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="608" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B608" s="25"/>
@@ -47295,7 +48528,9 @@
       <c r="U608" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="V608" s="11"/>
+      <c r="V608" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="609" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B609" s="24"/>
@@ -47356,7 +48591,9 @@
       <c r="U609" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="V609" s="11"/>
+      <c r="V609" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="610" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B610" s="25"/>
@@ -47417,7 +48654,9 @@
       <c r="U610" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="V610" s="11"/>
+      <c r="V610" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="611" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B611" s="24"/>
@@ -47478,7 +48717,9 @@
       <c r="U611" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="V611" s="11"/>
+      <c r="V611" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="612" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B612" s="25"/>
@@ -47539,7 +48780,9 @@
       <c r="U612" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="V612" s="11"/>
+      <c r="V612" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="613" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B613" s="24"/>
@@ -47600,7 +48843,9 @@
       <c r="U613" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="V613" s="11"/>
+      <c r="V613" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="614" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="615" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0147DDC-B20C-40E3-92CC-5D6FD6606C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A857C40A-E1C5-4824-8626-0619FA29B5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -572,7 +572,7 @@
 7：通关某个副本
 8：转职任务
 9: 加入家族
-10：给与任务
+10：给与任务（道具）
 11:获得宠物
 12:制造N个道具
 13:洗炼装备次数
@@ -586,6 +586,7 @@
 21:在野外击败敌人X次
 22:家园等级达到X级
 23:进行一次宠物合成
+24: 给予任务(宠物)
 101：击杀挑战难度的指定ID怪物(击杀地狱也算)
 102：击杀地狱你拿度指定ID怪物
 111：通关挑战难度的副本(通关地狱也算)
@@ -610,9 +611,10 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:
+          <t xml:space="preserve">Administrator:
 目标类型为10：
 支持多个 比如Target字段配置1,3 TargetValue字段配置10,3 就是找一个10级以上,品质为蓝色以上的道具。
+(道具)
 目标值配对应的值
 1.道具等级
 2.道具部位
@@ -622,7 +624,11 @@
 //105201.装备鉴定属性敏捷
 //105301.装备鉴定属性智力
 //105401.装备鉴定属性耐力
-//105501.装备鉴定属性体质</t>
+//105501.装备鉴定属性体质
+1 战力
+2 技能数量
+3 生命资质
+</t>
         </r>
         <r>
           <rPr>
@@ -641,7 +647,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3275" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="593">
   <si>
     <t>Id</t>
   </si>
@@ -2162,9 +2168,6 @@
     <t>家族:收集</t>
   </si>
   <si>
-    <t>测试给与任务</t>
-  </si>
-  <si>
     <t>1,3</t>
   </si>
   <si>
@@ -2560,6 +2563,26 @@
   </si>
   <si>
     <t>任务经验和金币是否跟随等级成长</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试给与任务</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试给与任务（宠物）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>上交一个宠物</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000,5,1200</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -10600,8 +10623,8 @@
   <dimension ref="A1:AB695"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E222" sqref="E222"/>
+      <pane ySplit="5" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M607" sqref="A607:XFD607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10689,7 +10712,7 @@
         <v>18</v>
       </c>
       <c r="V3" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -10751,7 +10774,7 @@
         <v>36</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -10937,7 +10960,7 @@
         <v>45</v>
       </c>
       <c r="V7" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11061,7 +11084,7 @@
         <v>49</v>
       </c>
       <c r="V9" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11185,7 +11208,7 @@
         <v>53</v>
       </c>
       <c r="V11" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -11309,7 +11332,7 @@
         <v>57</v>
       </c>
       <c r="V13" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -12061,7 +12084,7 @@
         <v>30010020</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E26" s="10">
         <v>5</v>
@@ -13549,7 +13572,7 @@
         <v>30010044</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E50" s="21">
         <v>16</v>
@@ -13600,7 +13623,7 @@
         <v>0</v>
       </c>
       <c r="U50" s="15" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="V50" s="10">
         <v>0</v>
@@ -45929,7 +45952,7 @@
         <v>71001001</v>
       </c>
       <c r="D567" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E567" s="10">
         <v>1</v>
@@ -45950,7 +45973,7 @@
         <v>0</v>
       </c>
       <c r="K567" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L567" s="53">
         <v>30000</v>
@@ -45980,7 +46003,7 @@
         <v>0</v>
       </c>
       <c r="U567" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="V567" s="10">
         <v>0</v>
@@ -45991,7 +46014,7 @@
         <v>71001002</v>
       </c>
       <c r="D568" s="22" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E568" s="10">
         <v>1</v>
@@ -46012,7 +46035,7 @@
         <v>0</v>
       </c>
       <c r="K568" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L568" s="53">
         <v>30000</v>
@@ -46036,13 +46059,13 @@
         <v>370</v>
       </c>
       <c r="S568" s="22" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="T568" s="18">
         <v>0</v>
       </c>
       <c r="U568" s="44" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V568" s="10">
         <v>0</v>
@@ -46053,7 +46076,7 @@
         <v>71001003</v>
       </c>
       <c r="D569" s="22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E569" s="10">
         <v>1</v>
@@ -46074,7 +46097,7 @@
         <v>0</v>
       </c>
       <c r="K569" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L569" s="53">
         <v>30000</v>
@@ -46095,7 +46118,7 @@
         <v>1</v>
       </c>
       <c r="R569" s="22" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="S569" s="22" t="s">
         <v>76</v>
@@ -46104,7 +46127,7 @@
         <v>0</v>
       </c>
       <c r="U569" s="29" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="V569" s="10">
         <v>0</v>
@@ -46115,7 +46138,7 @@
         <v>71001004</v>
       </c>
       <c r="D570" s="22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E570" s="10">
         <v>1</v>
@@ -46136,7 +46159,7 @@
         <v>0</v>
       </c>
       <c r="K570" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L570" s="53">
         <v>30000</v>
@@ -46160,13 +46183,13 @@
         <v>70001209</v>
       </c>
       <c r="S570" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="T570" s="18">
+        <v>0</v>
+      </c>
+      <c r="U570" s="44" t="s">
         <v>514</v>
-      </c>
-      <c r="T570" s="18">
-        <v>0</v>
-      </c>
-      <c r="U570" s="44" t="s">
-        <v>515</v>
       </c>
       <c r="V570" s="10">
         <v>0</v>
@@ -46177,7 +46200,7 @@
         <v>71001005</v>
       </c>
       <c r="D571" s="46" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E571" s="10">
         <v>1</v>
@@ -46198,7 +46221,7 @@
         <v>0</v>
       </c>
       <c r="K571" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L571" s="53">
         <v>30000</v>
@@ -46228,7 +46251,7 @@
         <v>0</v>
       </c>
       <c r="U571" s="48" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="V571" s="10">
         <v>0</v>
@@ -46239,7 +46262,7 @@
         <v>71001006</v>
       </c>
       <c r="D572" s="46" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E572" s="10">
         <v>1</v>
@@ -46260,7 +46283,7 @@
         <v>0</v>
       </c>
       <c r="K572" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L572" s="53">
         <v>30000</v>
@@ -46290,7 +46313,7 @@
         <v>0</v>
       </c>
       <c r="U572" s="47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="V572" s="10">
         <v>0</v>
@@ -46301,7 +46324,7 @@
         <v>71002001</v>
       </c>
       <c r="D573" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E573" s="10">
         <v>1</v>
@@ -46322,7 +46345,7 @@
         <v>0</v>
       </c>
       <c r="K573" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L573" s="53">
         <v>35000</v>
@@ -46352,7 +46375,7 @@
         <v>0</v>
       </c>
       <c r="U573" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="V573" s="10">
         <v>0</v>
@@ -46363,7 +46386,7 @@
         <v>71002002</v>
       </c>
       <c r="D574" s="22" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E574" s="10">
         <v>1</v>
@@ -46384,7 +46407,7 @@
         <v>0</v>
       </c>
       <c r="K574" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L574" s="53">
         <v>35000</v>
@@ -46405,16 +46428,16 @@
         <v>391</v>
       </c>
       <c r="R574" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="S574" s="22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="T574" s="18">
         <v>0</v>
       </c>
       <c r="U574" s="44" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="V574" s="10">
         <v>0</v>
@@ -46425,7 +46448,7 @@
         <v>71002003</v>
       </c>
       <c r="D575" s="46" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E575" s="10">
         <v>1</v>
@@ -46446,7 +46469,7 @@
         <v>0</v>
       </c>
       <c r="K575" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L575" s="53">
         <v>35000</v>
@@ -46476,7 +46499,7 @@
         <v>0</v>
       </c>
       <c r="U575" s="47" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="V575" s="10">
         <v>0</v>
@@ -46487,7 +46510,7 @@
         <v>71002004</v>
       </c>
       <c r="D576" s="46" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E576" s="10">
         <v>1</v>
@@ -46508,7 +46531,7 @@
         <v>0</v>
       </c>
       <c r="K576" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L576" s="53">
         <v>35000</v>
@@ -46538,7 +46561,7 @@
         <v>0</v>
       </c>
       <c r="U576" s="47" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="V576" s="10">
         <v>0</v>
@@ -46549,7 +46572,7 @@
         <v>71002005</v>
       </c>
       <c r="D577" s="46" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E577" s="10">
         <v>1</v>
@@ -46570,7 +46593,7 @@
         <v>0</v>
       </c>
       <c r="K577" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L577" s="53">
         <v>35000</v>
@@ -46600,7 +46623,7 @@
         <v>0</v>
       </c>
       <c r="U577" s="47" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="V577" s="10">
         <v>0</v>
@@ -46611,7 +46634,7 @@
         <v>71002006</v>
       </c>
       <c r="D578" s="46" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E578" s="10">
         <v>1</v>
@@ -46632,7 +46655,7 @@
         <v>0</v>
       </c>
       <c r="K578" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L578" s="53">
         <v>35000</v>
@@ -46662,7 +46685,7 @@
         <v>0</v>
       </c>
       <c r="U578" s="47" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="V578" s="10">
         <v>0</v>
@@ -46673,7 +46696,7 @@
         <v>71003001</v>
       </c>
       <c r="D579" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E579" s="10">
         <v>1</v>
@@ -46694,7 +46717,7 @@
         <v>0</v>
       </c>
       <c r="K579" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L579" s="53">
         <v>40000</v>
@@ -46724,7 +46747,7 @@
         <v>0</v>
       </c>
       <c r="U579" s="15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="V579" s="10">
         <v>0</v>
@@ -46735,7 +46758,7 @@
         <v>71003002</v>
       </c>
       <c r="D580" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E580" s="10">
         <v>1</v>
@@ -46756,7 +46779,7 @@
         <v>0</v>
       </c>
       <c r="K580" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L580" s="53">
         <v>40000</v>
@@ -46786,7 +46809,7 @@
         <v>0</v>
       </c>
       <c r="U580" s="47" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="V580" s="10">
         <v>0</v>
@@ -46797,7 +46820,7 @@
         <v>71003003</v>
       </c>
       <c r="D581" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E581" s="10">
         <v>1</v>
@@ -46818,7 +46841,7 @@
         <v>0</v>
       </c>
       <c r="K581" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L581" s="53">
         <v>40000</v>
@@ -46848,7 +46871,7 @@
         <v>0</v>
       </c>
       <c r="U581" s="52" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="V581" s="10">
         <v>0</v>
@@ -46859,7 +46882,7 @@
         <v>71003004</v>
       </c>
       <c r="D582" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E582" s="10">
         <v>1</v>
@@ -46880,7 +46903,7 @@
         <v>0</v>
       </c>
       <c r="K582" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L582" s="53">
         <v>40000</v>
@@ -46910,7 +46933,7 @@
         <v>0</v>
       </c>
       <c r="U582" s="52" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="V582" s="10">
         <v>0</v>
@@ -46921,7 +46944,7 @@
         <v>71003005</v>
       </c>
       <c r="D583" s="22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E583" s="10">
         <v>1</v>
@@ -46942,7 +46965,7 @@
         <v>0</v>
       </c>
       <c r="K583" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L583" s="53">
         <v>40000</v>
@@ -46963,7 +46986,7 @@
         <v>387</v>
       </c>
       <c r="R583" s="22" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="S583" s="22" t="s">
         <v>76</v>
@@ -46972,7 +46995,7 @@
         <v>0</v>
       </c>
       <c r="U583" s="51" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="V583" s="10">
         <v>0</v>
@@ -46983,7 +47006,7 @@
         <v>71004001</v>
       </c>
       <c r="D584" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E584" s="10">
         <v>1</v>
@@ -47004,7 +47027,7 @@
         <v>0</v>
       </c>
       <c r="K584" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L584" s="53">
         <v>50000</v>
@@ -47034,7 +47057,7 @@
         <v>0</v>
       </c>
       <c r="U584" s="15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="V584" s="10">
         <v>0</v>
@@ -47045,7 +47068,7 @@
         <v>71004002</v>
       </c>
       <c r="D585" s="22" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E585" s="10">
         <v>1</v>
@@ -47066,7 +47089,7 @@
         <v>0</v>
       </c>
       <c r="K585" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L585" s="53">
         <v>50000</v>
@@ -47090,13 +47113,13 @@
         <v>370</v>
       </c>
       <c r="S585" s="22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T585" s="18">
         <v>0</v>
       </c>
       <c r="U585" s="44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="V585" s="10">
         <v>0</v>
@@ -47107,7 +47130,7 @@
         <v>71004003</v>
       </c>
       <c r="D586" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E586" s="10">
         <v>1</v>
@@ -47128,7 +47151,7 @@
         <v>0</v>
       </c>
       <c r="K586" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L586" s="53">
         <v>50000</v>
@@ -47146,19 +47169,19 @@
         <v>0</v>
       </c>
       <c r="Q586" s="22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="R586" s="22" t="s">
         <v>370</v>
       </c>
       <c r="S586" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="T586" s="18">
         <v>0</v>
       </c>
       <c r="U586" s="44" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="V586" s="10">
         <v>0</v>
@@ -47169,7 +47192,7 @@
         <v>71004004</v>
       </c>
       <c r="D587" s="22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E587" s="10">
         <v>1</v>
@@ -47190,7 +47213,7 @@
         <v>0</v>
       </c>
       <c r="K587" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L587" s="53">
         <v>50000</v>
@@ -47208,19 +47231,19 @@
         <v>0</v>
       </c>
       <c r="Q587" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="R587" s="22" t="s">
         <v>370</v>
       </c>
       <c r="S587" s="22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="T587" s="18">
         <v>0</v>
       </c>
       <c r="U587" s="44" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V587" s="10">
         <v>0</v>
@@ -47231,7 +47254,7 @@
         <v>71004005</v>
       </c>
       <c r="D588" s="22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E588" s="10">
         <v>1</v>
@@ -47252,7 +47275,7 @@
         <v>0</v>
       </c>
       <c r="K588" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L588" s="53">
         <v>50000</v>
@@ -47276,13 +47299,13 @@
         <v>370</v>
       </c>
       <c r="S588" s="22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="T588" s="18">
         <v>0</v>
       </c>
       <c r="U588" s="29" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="V588" s="10">
         <v>0</v>
@@ -47293,7 +47316,7 @@
         <v>71005001</v>
       </c>
       <c r="D589" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E589" s="10">
         <v>1</v>
@@ -47314,7 +47337,7 @@
         <v>0</v>
       </c>
       <c r="K589" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L589" s="53">
         <v>50000</v>
@@ -47344,7 +47367,7 @@
         <v>0</v>
       </c>
       <c r="U589" s="15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V589" s="10">
         <v>0</v>
@@ -47355,7 +47378,7 @@
         <v>71005002</v>
       </c>
       <c r="D590" s="22" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E590" s="10">
         <v>1</v>
@@ -47376,7 +47399,7 @@
         <v>0</v>
       </c>
       <c r="K590" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L590" s="53">
         <v>50000</v>
@@ -47394,19 +47417,19 @@
         <v>0</v>
       </c>
       <c r="Q590" s="22" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="R590" s="22" t="s">
         <v>370</v>
       </c>
       <c r="S590" s="22" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="T590" s="18">
         <v>0</v>
       </c>
       <c r="U590" s="44" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V590" s="10">
         <v>0</v>
@@ -47417,7 +47440,7 @@
         <v>71005003</v>
       </c>
       <c r="D591" s="22" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E591" s="10">
         <v>1</v>
@@ -47438,7 +47461,7 @@
         <v>0</v>
       </c>
       <c r="K591" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L591" s="53">
         <v>50000</v>
@@ -47456,19 +47479,19 @@
         <v>0</v>
       </c>
       <c r="Q591" s="22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="R591" s="22" t="s">
         <v>370</v>
       </c>
       <c r="S591" s="22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="T591" s="18">
         <v>0</v>
       </c>
       <c r="U591" s="44" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V591" s="10">
         <v>0</v>
@@ -47479,7 +47502,7 @@
         <v>71005004</v>
       </c>
       <c r="D592" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E592" s="10">
         <v>1</v>
@@ -47500,7 +47523,7 @@
         <v>0</v>
       </c>
       <c r="K592" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L592" s="53">
         <v>50000</v>
@@ -47530,7 +47553,7 @@
         <v>0</v>
       </c>
       <c r="U592" s="52" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V592" s="10">
         <v>0</v>
@@ -47541,7 +47564,7 @@
         <v>71005005</v>
       </c>
       <c r="D593" s="46" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E593" s="10">
         <v>1</v>
@@ -47562,7 +47585,7 @@
         <v>0</v>
       </c>
       <c r="K593" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L593" s="53">
         <v>50000</v>
@@ -47592,7 +47615,7 @@
         <v>0</v>
       </c>
       <c r="U593" s="47" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V593" s="10">
         <v>0</v>
@@ -47603,7 +47626,7 @@
         <v>71006001</v>
       </c>
       <c r="D594" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E594" s="10">
         <v>1</v>
@@ -47624,7 +47647,7 @@
         <v>0</v>
       </c>
       <c r="K594" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L594" s="53">
         <v>50000</v>
@@ -47654,7 +47677,7 @@
         <v>0</v>
       </c>
       <c r="U594" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V594" s="10">
         <v>0</v>
@@ -47665,7 +47688,7 @@
         <v>71006002</v>
       </c>
       <c r="D595" s="22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E595" s="10">
         <v>1</v>
@@ -47686,7 +47709,7 @@
         <v>0</v>
       </c>
       <c r="K595" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L595" s="53">
         <v>50000</v>
@@ -47704,19 +47727,19 @@
         <v>0</v>
       </c>
       <c r="Q595" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="R595" s="22" t="s">
         <v>370</v>
       </c>
       <c r="S595" s="22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="T595" s="18">
         <v>0</v>
       </c>
       <c r="U595" s="44" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V595" s="10">
         <v>0</v>
@@ -47727,7 +47750,7 @@
         <v>71006003</v>
       </c>
       <c r="D596" s="22" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E596" s="10">
         <v>1</v>
@@ -47748,7 +47771,7 @@
         <v>0</v>
       </c>
       <c r="K596" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L596" s="53">
         <v>50000</v>
@@ -47769,16 +47792,16 @@
         <v>391</v>
       </c>
       <c r="R596" s="22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="S596" s="22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="T596" s="18">
         <v>0</v>
       </c>
       <c r="U596" s="44" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V596" s="10">
         <v>0</v>
@@ -47789,7 +47812,7 @@
         <v>71006004</v>
       </c>
       <c r="D597" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E597" s="10">
         <v>1</v>
@@ -47810,7 +47833,7 @@
         <v>0</v>
       </c>
       <c r="K597" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L597" s="53">
         <v>50000</v>
@@ -47840,7 +47863,7 @@
         <v>0</v>
       </c>
       <c r="U597" s="47" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="V597" s="10">
         <v>0</v>
@@ -47851,7 +47874,7 @@
         <v>71006005</v>
       </c>
       <c r="D598" s="22" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E598" s="10">
         <v>1</v>
@@ -47872,7 +47895,7 @@
         <v>0</v>
       </c>
       <c r="K598" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L598" s="53">
         <v>50000</v>
@@ -47896,13 +47919,13 @@
         <v>370</v>
       </c>
       <c r="S598" s="22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="T598" s="18">
         <v>0</v>
       </c>
       <c r="U598" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="V598" s="10">
         <v>0</v>
@@ -47913,7 +47936,7 @@
         <v>71007001</v>
       </c>
       <c r="D599" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E599" s="10">
         <v>1</v>
@@ -47934,7 +47957,7 @@
         <v>0</v>
       </c>
       <c r="K599" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L599" s="53">
         <v>50000</v>
@@ -47964,7 +47987,7 @@
         <v>0</v>
       </c>
       <c r="U599" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="V599" s="10">
         <v>0</v>
@@ -47975,7 +47998,7 @@
         <v>71007002</v>
       </c>
       <c r="D600" s="22" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E600" s="10">
         <v>1</v>
@@ -47996,7 +48019,7 @@
         <v>0</v>
       </c>
       <c r="K600" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L600" s="53">
         <v>50000</v>
@@ -48017,16 +48040,16 @@
         <v>391</v>
       </c>
       <c r="R600" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="S600" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="T600" s="18">
+        <v>0</v>
+      </c>
+      <c r="U600" s="44" t="s">
         <v>551</v>
-      </c>
-      <c r="S600" s="22" t="s">
-        <v>514</v>
-      </c>
-      <c r="T600" s="18">
-        <v>0</v>
-      </c>
-      <c r="U600" s="44" t="s">
-        <v>552</v>
       </c>
       <c r="V600" s="10">
         <v>0</v>
@@ -48037,7 +48060,7 @@
         <v>71007003</v>
       </c>
       <c r="D601" s="22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E601" s="10">
         <v>1</v>
@@ -48058,7 +48081,7 @@
         <v>0</v>
       </c>
       <c r="K601" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L601" s="53">
         <v>50000</v>
@@ -48076,19 +48099,19 @@
         <v>0</v>
       </c>
       <c r="Q601" s="22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="R601" s="22" t="s">
         <v>370</v>
       </c>
       <c r="S601" s="22" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="T601" s="18">
         <v>0</v>
       </c>
       <c r="U601" s="44" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V601" s="10">
         <v>0</v>
@@ -48099,7 +48122,7 @@
         <v>71007004</v>
       </c>
       <c r="D602" s="22" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E602" s="10">
         <v>1</v>
@@ -48120,7 +48143,7 @@
         <v>0</v>
       </c>
       <c r="K602" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L602" s="53">
         <v>50000</v>
@@ -48141,7 +48164,7 @@
         <v>387</v>
       </c>
       <c r="R602" s="22" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="S602" s="22" t="s">
         <v>76</v>
@@ -48150,7 +48173,7 @@
         <v>0</v>
       </c>
       <c r="U602" s="51" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="V602" s="10">
         <v>0</v>
@@ -48161,7 +48184,7 @@
         <v>71007005</v>
       </c>
       <c r="D603" s="22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E603" s="10">
         <v>1</v>
@@ -48182,7 +48205,7 @@
         <v>0</v>
       </c>
       <c r="K603" s="11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L603" s="53">
         <v>50000</v>
@@ -48206,13 +48229,13 @@
         <v>370</v>
       </c>
       <c r="S603" s="22" t="s">
+        <v>556</v>
+      </c>
+      <c r="T603" s="18">
+        <v>0</v>
+      </c>
+      <c r="U603" s="29" t="s">
         <v>557</v>
-      </c>
-      <c r="T603" s="18">
-        <v>0</v>
-      </c>
-      <c r="U603" s="29" t="s">
-        <v>558</v>
       </c>
       <c r="V603" s="10">
         <v>0</v>
@@ -48224,16 +48247,16 @@
         <v>80000001</v>
       </c>
       <c r="D604" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="E604" s="11" t="s">
         <v>487</v>
-      </c>
-      <c r="E604" s="11" t="s">
-        <v>488</v>
       </c>
       <c r="F604" s="11" t="s">
         <v>41</v>
       </c>
       <c r="G604" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H604" s="11">
         <v>0</v>
@@ -48275,7 +48298,7 @@
         <v>0</v>
       </c>
       <c r="U604" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V604" s="10">
         <v>0</v>
@@ -48287,16 +48310,16 @@
         <v>80000002</v>
       </c>
       <c r="D605" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="E605" s="11" t="s">
         <v>487</v>
-      </c>
-      <c r="E605" s="11" t="s">
-        <v>488</v>
       </c>
       <c r="F605" s="11" t="s">
         <v>41</v>
       </c>
       <c r="G605" s="11" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H605" s="11">
         <v>0</v>
@@ -48338,7 +48361,7 @@
         <v>0</v>
       </c>
       <c r="U605" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="V605" s="10">
         <v>0</v>
@@ -48349,7 +48372,7 @@
         <v>80000011</v>
       </c>
       <c r="D606" s="11" t="s">
-        <v>481</v>
+        <v>588</v>
       </c>
       <c r="E606" s="10">
         <v>1</v>
@@ -48391,39 +48414,38 @@
         <v>10</v>
       </c>
       <c r="R606" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="S606" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="S606" s="10" t="s">
+      <c r="T606" s="16">
+        <v>0</v>
+      </c>
+      <c r="U606" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="T606" s="16">
-        <v>0</v>
-      </c>
-      <c r="U606" s="15" t="s">
-        <v>484</v>
-      </c>
       <c r="V606" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B607" s="24"/>
+    <row r="607" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C607" s="10">
-        <v>90000001</v>
+        <v>80000012</v>
       </c>
       <c r="D607" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="E607" s="11" t="s">
-        <v>488</v>
+        <v>589</v>
+      </c>
+      <c r="E607" s="10">
+        <v>1</v>
       </c>
       <c r="F607" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G607" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="H607" s="11">
+      <c r="G607" s="10">
+        <v>1</v>
+      </c>
+      <c r="H607" s="10">
         <v>0</v>
       </c>
       <c r="I607" s="10">
@@ -48432,59 +48454,59 @@
       <c r="J607" s="10">
         <v>0</v>
       </c>
-      <c r="K607" s="10">
-        <v>18700</v>
-      </c>
-      <c r="L607" s="10">
-        <v>9125</v>
-      </c>
-      <c r="M607" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="N607" s="10" t="s">
-        <v>477</v>
+      <c r="K607" s="11">
+        <v>33600</v>
+      </c>
+      <c r="L607" s="11">
+        <v>3020</v>
+      </c>
+      <c r="M607" s="10">
+        <v>0</v>
+      </c>
+      <c r="N607" s="10">
+        <v>0</v>
       </c>
       <c r="O607" s="12">
         <v>0</v>
       </c>
       <c r="P607" s="10">
-        <v>20000102</v>
-      </c>
-      <c r="Q607" s="11">
-        <v>1</v>
-      </c>
-      <c r="R607" s="25">
-        <v>70005001</v>
-      </c>
-      <c r="S607" s="11" t="s">
-        <v>222</v>
+        <v>20000024</v>
+      </c>
+      <c r="Q607" s="10">
+        <v>24</v>
+      </c>
+      <c r="R607" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="S607" s="10" t="s">
+        <v>592</v>
       </c>
       <c r="T607" s="16">
         <v>0</v>
       </c>
       <c r="U607" s="15" t="s">
-        <v>491</v>
+        <v>590</v>
       </c>
       <c r="V607" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="608" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B608" s="25"/>
+      <c r="B608" s="24"/>
       <c r="C608" s="10">
-        <v>90000002</v>
+        <v>90000001</v>
       </c>
       <c r="D608" s="11" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E608" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F608" s="11" t="s">
         <v>41</v>
       </c>
       <c r="G608" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H608" s="11">
         <v>0</v>
@@ -48517,7 +48539,7 @@
         <v>1</v>
       </c>
       <c r="R608" s="25">
-        <v>70005010</v>
+        <v>70005001</v>
       </c>
       <c r="S608" s="11" t="s">
         <v>222</v>
@@ -48526,28 +48548,28 @@
         <v>0</v>
       </c>
       <c r="U608" s="15" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="V608" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="609" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B609" s="24"/>
+      <c r="B609" s="25"/>
       <c r="C609" s="10">
-        <v>90000003</v>
+        <v>90000002</v>
       </c>
       <c r="D609" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E609" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F609" s="11" t="s">
         <v>41</v>
       </c>
       <c r="G609" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H609" s="11">
         <v>0</v>
@@ -48580,7 +48602,7 @@
         <v>1</v>
       </c>
       <c r="R609" s="25">
-        <v>70005001</v>
+        <v>70005010</v>
       </c>
       <c r="S609" s="11" t="s">
         <v>222</v>
@@ -48589,28 +48611,28 @@
         <v>0</v>
       </c>
       <c r="U609" s="15" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="V609" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="610" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B610" s="25"/>
+      <c r="B610" s="24"/>
       <c r="C610" s="10">
-        <v>90000004</v>
+        <v>90000003</v>
       </c>
       <c r="D610" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E610" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F610" s="11" t="s">
         <v>41</v>
       </c>
       <c r="G610" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H610" s="11">
         <v>0</v>
@@ -48643,7 +48665,7 @@
         <v>1</v>
       </c>
       <c r="R610" s="25">
-        <v>70005010</v>
+        <v>70005001</v>
       </c>
       <c r="S610" s="11" t="s">
         <v>222</v>
@@ -48652,28 +48674,28 @@
         <v>0</v>
       </c>
       <c r="U610" s="15" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="V610" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="611" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B611" s="24"/>
+      <c r="B611" s="25"/>
       <c r="C611" s="10">
-        <v>90000005</v>
+        <v>90000004</v>
       </c>
       <c r="D611" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E611" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F611" s="11" t="s">
         <v>41</v>
       </c>
       <c r="G611" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H611" s="11">
         <v>0</v>
@@ -48706,7 +48728,7 @@
         <v>1</v>
       </c>
       <c r="R611" s="25">
-        <v>70005001</v>
+        <v>70005010</v>
       </c>
       <c r="S611" s="11" t="s">
         <v>222</v>
@@ -48715,28 +48737,28 @@
         <v>0</v>
       </c>
       <c r="U611" s="15" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="V611" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="612" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B612" s="25"/>
+      <c r="B612" s="24"/>
       <c r="C612" s="10">
-        <v>90000006</v>
+        <v>90000005</v>
       </c>
       <c r="D612" s="11" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E612" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F612" s="11" t="s">
         <v>41</v>
       </c>
       <c r="G612" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H612" s="11">
         <v>0</v>
@@ -48769,7 +48791,7 @@
         <v>1</v>
       </c>
       <c r="R612" s="25">
-        <v>70005010</v>
+        <v>70005001</v>
       </c>
       <c r="S612" s="11" t="s">
         <v>222</v>
@@ -48778,28 +48800,28 @@
         <v>0</v>
       </c>
       <c r="U612" s="15" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="V612" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="613" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B613" s="24"/>
+      <c r="B613" s="25"/>
       <c r="C613" s="10">
-        <v>90000007</v>
+        <v>90000006</v>
       </c>
       <c r="D613" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E613" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F613" s="11" t="s">
         <v>41</v>
       </c>
       <c r="G613" s="11" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H613" s="11">
         <v>0</v>
@@ -48832,7 +48854,7 @@
         <v>1</v>
       </c>
       <c r="R613" s="25">
-        <v>70005001</v>
+        <v>70005010</v>
       </c>
       <c r="S613" s="11" t="s">
         <v>222</v>
@@ -48841,13 +48863,75 @@
         <v>0</v>
       </c>
       <c r="U613" s="15" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="V613" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" spans="2:22" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B614" s="24"/>
+      <c r="C614" s="10">
+        <v>90000007</v>
+      </c>
+      <c r="D614" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E614" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="F614" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G614" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="H614" s="11">
+        <v>0</v>
+      </c>
+      <c r="I614" s="10">
+        <v>1</v>
+      </c>
+      <c r="J614" s="10">
+        <v>0</v>
+      </c>
+      <c r="K614" s="10">
+        <v>18700</v>
+      </c>
+      <c r="L614" s="10">
+        <v>9125</v>
+      </c>
+      <c r="M614" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="N614" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="O614" s="12">
+        <v>0</v>
+      </c>
+      <c r="P614" s="10">
+        <v>20000102</v>
+      </c>
+      <c r="Q614" s="11">
+        <v>1</v>
+      </c>
+      <c r="R614" s="25">
+        <v>70005001</v>
+      </c>
+      <c r="S614" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="T614" s="16">
+        <v>0</v>
+      </c>
+      <c r="U614" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="V614" s="10">
+        <v>0</v>
+      </c>
+    </row>
     <row r="615" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="616" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="617" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A857C40A-E1C5-4824-8626-0619FA29B5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC97B536-D08E-40E0-A945-AF645A52D7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,7 +586,8 @@
 21:在野外击败敌人X次
 22:家园等级达到X级
 23:进行一次宠物合成
-24: 给予任务(宠物)
+24:获得任意宠物N个(不算之前)
+25: 给予任务(宠物)
 101：击杀挑战难度的指定ID怪物(击杀地狱也算)
 102：击杀地狱你拿度指定ID怪物
 111：通关挑战难度的副本(通关地狱也算)
@@ -625,6 +626,7 @@
 //105301.装备鉴定属性智力
 //105401.装备鉴定属性耐力
 //105501.装备鉴定属性体质
+//宠物
 1 战力
 2 技能数量
 3 生命资质
@@ -10622,9 +10624,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB695"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M607" sqref="A607:XFD607"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -48473,7 +48475,7 @@
         <v>20000024</v>
       </c>
       <c r="Q607" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R607" s="12" t="s">
         <v>591</v>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC97B536-D08E-40E0-A945-AF645A52D7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047E3073-A6C4-48A5-A4C1-DE183B8BC483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -568,7 +568,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">级别怪物
+          <t>级别怪物
 7：通关某个副本
 8：转职任务
 9: 加入家族
@@ -588,6 +588,23 @@
 23:进行一次宠物合成
 24:获得任意宠物N个(不算之前)
 25: 给予任务(宠物)
+26.使用普通藏宝图x次
+27.使用高级藏宝图X次
+28.封印之塔挑战X次
+29:制造超过某个N品质的道具，制造X个道具（俩参数:品质，数量）
+31.获得X只新的宠物(接取任务才开始算获取)
+32.合成1只战力达到X点的宠物
+33.宠物使用宠之晶洗炼宠物达到X次
+34.在孵化系统中孵化成功宠物X次
+35.在孵化系统中孵化指定的宠物蛋成功X次（俩参数:宠物蛋ID，次数）
+41.使用N点品质的鉴定附魔道具给装备附魔X次（俩参数:附魔道具品质，次数）
+42.使用N点品质的鉴定道具给装备鉴定X次（俩参数:鉴定道具品质，次数）
+43.鉴定装备时出一个大于N条属性的装备X个（俩参数:鉴定属性条目数量，数量）
+44.洗炼出带有任何隐藏技能的装备X个
+45.洗炼出带有指定属性的装备X个（俩参数:指定属性ID，数量）
+81:试炼之地的输出排行榜进入前N名次，X次（俩参数:前N名，次数）
+82:宠物天梯进入排行榜前N名次，X次（俩参数:前N名，次数）
+83:战力排行榜进入前N名次，X次（俩参数:前N名，次数）
 101：击杀挑战难度的指定ID怪物(击杀地狱也算)
 102：击杀地狱你拿度指定ID怪物
 111：通关挑战难度的副本(通关地狱也算)
@@ -598,7 +615,7 @@
 132：击败地狱难度任意boss怪物
 133: 战力达到多少
 134: 试炼之地达到多少层
-</t>
+135: 挑战深渊模式的副本X次</t>
         </r>
       </text>
     </comment>
@@ -10625,8 +10642,8 @@
   <dimension ref="A1:AB695"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q20" sqref="Q20"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047E3073-A6C4-48A5-A4C1-DE183B8BC483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC5B3CA-9AE4-4C78-B552-3E469F4AC1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -615,7 +615,8 @@
 132：击败地狱难度任意boss怪物
 133: 战力达到多少
 134: 试炼之地达到多少层
-135: 挑战深渊模式的副本X次</t>
+135: 挑战深渊模式的副本X次
+136: 在N级组队副本中,自身输出超过X% (俩参数:副本等级,伤害百分比,比如40%就配置40)</t>
         </r>
       </text>
     </comment>
@@ -638,6 +639,7 @@
 2.道具部位
 3.道具品质
 4:具体道具ID
+5:道具鉴定条目数
 //105101.装备鉴定属性力量
 //105201.装备鉴定属性敏捷
 //105301.装备鉴定属性智力
@@ -10642,8 +10644,8 @@
   <dimension ref="A1:AB695"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T26" sqref="T26"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC5B3CA-9AE4-4C78-B552-3E469F4AC1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51696A98-99EA-4228-9AF4-AFBAE7F8283C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -592,19 +592,28 @@
 27.使用高级藏宝图X次
 28.封印之塔挑战X次
 29:制造超过某个N品质的道具，制造X个道具（俩参数:品质，数量）
+30.使用药剂或者合剂X次
 31.获得X只新的宠物(接取任务才开始算获取)
 32.合成1只战力达到X点的宠物
 33.宠物使用宠之晶洗炼宠物达到X次
 34.在孵化系统中孵化成功宠物X次
 35.在孵化系统中孵化指定的宠物蛋成功X次（俩参数:宠物蛋ID，次数）
+36.宠物使用技能书X次
 41.使用N点品质的鉴定附魔道具给装备附魔X次（俩参数:附魔道具品质，次数）
 42.使用N点品质的鉴定道具给装备鉴定X次（俩参数:鉴定道具品质，次数）
 43.鉴定装备时出一个大于N条属性的装备X个（俩参数:鉴定属性条目数量，数量）
 44.洗炼出带有任何隐藏技能的装备X个
 45.洗炼出带有指定属性的装备X个（俩参数:指定属性ID，数量）
+46.增幅装备X次
 81:试炼之地的输出排行榜进入前N名次，X次（俩参数:前N名，次数）
 82:宠物天梯进入排行榜前N名次，X次（俩参数:前N名，次数）
 83:战力排行榜进入前N名次，X次（俩参数:前N名，次数）
+91: 家园烹饪次数
+92: 家园种地种植次数
+93: 家园种地收获次数
+94: 家园牧场饲养次数
+95: 家园牧场收货次数
+96: 家园美味品尝次数
 101：击杀挑战难度的指定ID怪物(击杀地狱也算)
 102：击杀地狱你拿度指定ID怪物
 111：通关挑战难度的副本(通关地狱也算)
@@ -10643,9 +10652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R11" sqref="R11"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51696A98-99EA-4228-9AF4-AFBAE7F8283C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F89917-29E7-4869-AAAC-0DEC12E734C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,7 +625,10 @@
 133: 战力达到多少
 134: 试炼之地达到多少层
 135: 挑战深渊模式的副本X次
-136: 在N级组队副本中,自身输出超过X% (俩参数:副本等级,伤害百分比,比如40%就配置40)</t>
+136: 在N级组队副本中,自身输出超过X% (俩参数:副本等级,伤害百分比,比如40%就配置40)
+401：  是否占领过某个类型得矿(只支持1次占领)
+402:   挑战宠物矿X次
+403：  挑战某种类型得矿成功的次数</t>
         </r>
       </text>
     </comment>
@@ -10652,9 +10655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F89917-29E7-4869-AAAC-0DEC12E734C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150DC7B4-9928-40D1-B4BB-C98EDE6426DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="1" r:id="rId1"/>
@@ -680,7 +680,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3724" uniqueCount="722">
   <si>
     <t>Id</t>
   </si>
@@ -2616,6 +2616,518 @@
   </si>
   <si>
     <t>5000,5,1200</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础任务</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>在野外击败10个敌方玩家，奖励5个经验盒</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用普通藏宝图10次，获得一个高级藏宝图</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用高级藏宝图3次，获得2个金钥匙</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>132</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败10个地狱级领主怪物，获得3个金钥匙</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000103;10000123</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>封印之塔挑战10次,奖励中级宝石箱子1个,第三章武器盒子一个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3只全新的宠物，奖励宠物之核碎片20</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>41</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用附魔道具给自己的装备附魔5次</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>11200000</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用鉴定道具给自己的装备鉴定5次,奖励稀少的宠物蛋2个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物合成5次，奖励宠物骨头5个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010098;10010093</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10;1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>7000</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成1只战力达到7000点的宠物，奖励宠物骨头10个和1个珍贵的宠物蛋</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010086</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物使用宠之晶洗炼达到5次,奖励珍贵的宠物蛋1个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物天梯战斗获胜次数达到10次，奖励宠物骨头10个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备洗炼达到10次，奖励洗练石袋子1个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活技能制造出20个道具，奖励10把银钥匙</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功孵化5次宠物，奖励宠物蛋壳80个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战任务</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010042;10010042</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10;10</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>135</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战5次深渊类型的副本，奖励金钱袋子和经验盒子10个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000150;10010093</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>5;1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物合成10次,奖励深渊挑战凭证5个和1个珍贵的宠物蛋</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成1只战力达到8000点的宠物,奖励道具冷却时间清空2个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>42</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,2</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用90点及以上的鉴定符去鉴定2次装备,奖励铜钥匙20个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石兑换金币5次,奖励珍贵的宠物蛋1个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>上交一个橙色的装备,奖励挑战铃铛1个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>401</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>占领1个黄金矿，奖励璀璨传承2个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备洗炼达到30次，奖励洗练晶石1个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010093</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用珍贵的宠物蛋成功孵化两次宠物，奖励遗忘之水一个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000140;10000137</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>9000</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成一只战力达到9000点的宠物，奖励忘灵丹一个和宠物之资一个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>81</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼之地输出进入排行前10，奖励神兽碎片1个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>宠物天梯进入排行榜前10，奖励神兽碎片1个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>战力排行榜进入前10，奖励神兽碎片1个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>占领1个核心矿</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>上交一只6技能以上的宠物，奖励宠物之资一个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗练出1个带有隐藏技能的装备,奖励高级宝石箱子3个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,4</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>上交一个50级以上鉴定4属性的装备一件，奖励装备洗练石3个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战有一次深渊类型的副本</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>打造一件传承的装备</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成1只战力达到8000点的宠物</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1,8</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗炼装备30次个</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉴定出一个3条属性的装备</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>121</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败3000只怪物</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5只全新的宠物</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>封印之塔挑战20次</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,15</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用鉴定道具给自己的装备鉴定15次</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,13</t>
+  </si>
+  <si>
+    <t>在60级副本通关,并使自身的总输出占比大于40%</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启30次普通藏宝图</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石兑换金币10次</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>131</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败30个领主级怪物</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>在野外地区击败5名玩家</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物使用技能书替换自身技能10次</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用附魔道具给自己的装备附魔15次</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗练出1个带有隐藏技能的装备</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物合成10次</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成1只战力达到9000点的宠物</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战有3次深渊类型的副本</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备洗炼达到100次</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10025008</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>上交20个炙热印记</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>上交一只6技能以上的宠物</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启3次高级藏宝图</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000143</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求10个灿烂的结晶</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉴定出一个4条属性的装备</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>击败50个领主级怪物</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>封印之塔挑战30次</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>上交30个炙热奖章</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成1只战力达到10000点的宠物</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -2779,7 +3291,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2954,6 +3466,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -8365,7 +8901,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8515,6 +9051,77 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="30" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="31" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="32" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="33" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1808">
@@ -10655,9 +11262,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB695"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A661" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D673" sqref="D673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -48965,80 +49572,3862 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" spans="2:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht=